--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2670" windowWidth="15180" windowHeight="8835" tabRatio="712"/>
+    <workbookView xWindow="5955" yWindow="2730" windowWidth="15180" windowHeight="8775" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1081">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3278,6 +3278,18 @@
   </si>
   <si>
     <t>Test 22</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>needs smaller time step to match platform heave and fairlead/anchor tensions</t>
+  </si>
+  <si>
+    <t>2-bladed CART</t>
+  </si>
+  <si>
+    <t>need to compile with changes for OC3 Hywind to check these results</t>
   </si>
 </sst>
 </file>
@@ -4198,7 +4210,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -4231,6 +4242,9 @@
     <xf numFmtId="164" fontId="0" fillId="10" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4294,7 +4308,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="9">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4363,76 +4377,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4751,10 +4695,10 @@
   <dimension ref="A1:BC48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="X24" sqref="X24"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4885,7 +4829,7 @@
       <c r="G3" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="98" t="s">
         <v>1061</v>
       </c>
       <c r="I3" s="67" t="s">
@@ -4942,10 +4886,10 @@
       <c r="Z3" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="110" t="s">
+      <c r="AA3" s="109" t="s">
         <v>309</v>
       </c>
-      <c r="AB3" s="110" t="s">
+      <c r="AB3" s="109" t="s">
         <v>310</v>
       </c>
       <c r="AC3" s="85" t="s">
@@ -4963,7 +4907,7 @@
       <c r="AG3" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="104" t="s">
+      <c r="AH3" s="103" t="s">
         <v>1066</v>
       </c>
       <c r="AI3" s="86" t="s">
@@ -4990,7 +4934,7 @@
       <c r="AP3" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="AQ3" s="100"/>
+      <c r="AQ3" s="99"/>
       <c r="AR3" s="75"/>
       <c r="AS3" s="75"/>
       <c r="AT3" s="76"/>
@@ -5149,7 +5093,7 @@
       <c r="AP4" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101"/>
+      <c r="AQ4" s="100"/>
       <c r="AR4" s="36"/>
       <c r="AS4" s="36"/>
       <c r="AT4" s="34"/>
@@ -5309,7 +5253,7 @@
       <c r="AP5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ5" s="102"/>
+      <c r="AQ5" s="101"/>
       <c r="AR5" s="42"/>
       <c r="AS5" s="42"/>
       <c r="AT5" s="43"/>
@@ -5469,7 +5413,7 @@
       <c r="AP6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="102"/>
+      <c r="AQ6" s="101"/>
       <c r="AR6" s="42"/>
       <c r="AS6" s="42"/>
       <c r="AT6" s="43"/>
@@ -5629,7 +5573,7 @@
       <c r="AP7" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ7" s="102"/>
+      <c r="AQ7" s="101"/>
       <c r="AR7" s="42"/>
       <c r="AS7" s="42"/>
       <c r="AT7" s="43"/>
@@ -5789,7 +5733,7 @@
       <c r="AP8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ8" s="102"/>
+      <c r="AQ8" s="101"/>
       <c r="AR8" s="42"/>
       <c r="AS8" s="42"/>
       <c r="AT8" s="43"/>
@@ -5950,7 +5894,7 @@
       <c r="AP9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ9" s="102"/>
+      <c r="AQ9" s="101"/>
       <c r="AR9" s="42"/>
       <c r="AS9" s="42"/>
       <c r="AT9" s="43"/>
@@ -6111,7 +6055,7 @@
       <c r="AP10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ10" s="102"/>
+      <c r="AQ10" s="101"/>
       <c r="AR10" s="42"/>
       <c r="AS10" s="42"/>
       <c r="AT10" s="43"/>
@@ -6272,7 +6216,7 @@
       <c r="AP11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ11" s="102"/>
+      <c r="AQ11" s="101"/>
       <c r="AR11" s="42"/>
       <c r="AS11" s="42"/>
       <c r="AT11" s="43"/>
@@ -6432,7 +6376,7 @@
       <c r="AP12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AQ12" s="102"/>
+      <c r="AQ12" s="101"/>
       <c r="AR12" s="42"/>
       <c r="AS12" s="42"/>
       <c r="AT12" s="43"/>
@@ -6592,7 +6536,7 @@
       <c r="AP13" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AQ13" s="102"/>
+      <c r="AQ13" s="101"/>
       <c r="AR13" s="42"/>
       <c r="AS13" s="42"/>
       <c r="AT13" s="43"/>
@@ -6752,7 +6696,7 @@
       <c r="AP14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ14" s="102"/>
+      <c r="AQ14" s="101"/>
       <c r="AR14" s="42"/>
       <c r="AS14" s="42"/>
       <c r="AT14" s="43"/>
@@ -6912,7 +6856,7 @@
       <c r="AP15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ15" s="102"/>
+      <c r="AQ15" s="101"/>
       <c r="AR15" s="42"/>
       <c r="AS15" s="42"/>
       <c r="AT15" s="43"/>
@@ -7072,7 +7016,7 @@
       <c r="AP16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ16" s="102"/>
+      <c r="AQ16" s="101"/>
       <c r="AR16" s="42"/>
       <c r="AS16" s="42"/>
       <c r="AT16" s="43"/>
@@ -7232,7 +7176,7 @@
       <c r="AP17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AQ17" s="102"/>
+      <c r="AQ17" s="101"/>
       <c r="AR17" s="42"/>
       <c r="AS17" s="42"/>
       <c r="AT17" s="43"/>
@@ -7392,7 +7336,7 @@
       <c r="AP18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ18" s="102"/>
+      <c r="AQ18" s="101"/>
       <c r="AR18" s="42"/>
       <c r="AS18" s="42"/>
       <c r="AT18" s="43"/>
@@ -7552,7 +7496,7 @@
       <c r="AP19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ19" s="102"/>
+      <c r="AQ19" s="101"/>
       <c r="AR19" s="42"/>
       <c r="AS19" s="42"/>
       <c r="AT19" s="43"/>
@@ -7712,7 +7656,7 @@
       <c r="AP20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AQ20" s="102"/>
+      <c r="AQ20" s="101"/>
       <c r="AR20" s="42"/>
       <c r="AS20" s="42"/>
       <c r="AT20" s="43"/>
@@ -7765,7 +7709,9 @@
       <c r="G21" s="40" t="s">
         <v>1068</v>
       </c>
-      <c r="H21" s="37"/>
+      <c r="H21" s="110" t="s">
+        <v>1077</v>
+      </c>
       <c r="I21" s="41" t="s">
         <v>22</v>
       </c>
@@ -7868,7 +7814,7 @@
       <c r="AP21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AQ21" s="102"/>
+      <c r="AQ21" s="101"/>
       <c r="AR21" s="42"/>
       <c r="AS21" s="42"/>
       <c r="AT21" s="43"/>
@@ -7904,7 +7850,9 @@
       <c r="G22" s="40" t="s">
         <v>1072</v>
       </c>
-      <c r="H22" s="37"/>
+      <c r="H22" s="110" t="s">
+        <v>1077</v>
+      </c>
       <c r="I22" s="41"/>
       <c r="J22" s="44"/>
       <c r="K22" s="25"/>
@@ -7941,7 +7889,7 @@
       <c r="AN22" s="42"/>
       <c r="AO22" s="42"/>
       <c r="AP22" s="43"/>
-      <c r="AQ22" s="102"/>
+      <c r="AQ22" s="101"/>
       <c r="AR22" s="42"/>
       <c r="AS22" s="42"/>
       <c r="AT22" s="43"/>
@@ -7977,7 +7925,9 @@
       <c r="G23" s="40" t="s">
         <v>1073</v>
       </c>
-      <c r="H23" s="37"/>
+      <c r="H23" s="110" t="s">
+        <v>1077</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="J23" s="44"/>
       <c r="K23" s="25"/>
@@ -8014,7 +7964,7 @@
       <c r="AN23" s="42"/>
       <c r="AO23" s="42"/>
       <c r="AP23" s="43"/>
-      <c r="AQ23" s="102"/>
+      <c r="AQ23" s="101"/>
       <c r="AR23" s="42"/>
       <c r="AS23" s="42"/>
       <c r="AT23" s="43"/>
@@ -8050,7 +8000,9 @@
       <c r="G24" s="40" t="s">
         <v>1074</v>
       </c>
-      <c r="H24" s="37"/>
+      <c r="H24" s="110" t="s">
+        <v>1078</v>
+      </c>
       <c r="I24" s="41"/>
       <c r="J24" s="44"/>
       <c r="K24" s="25"/>
@@ -8087,7 +8039,7 @@
       <c r="AN24" s="42"/>
       <c r="AO24" s="42"/>
       <c r="AP24" s="43"/>
-      <c r="AQ24" s="102"/>
+      <c r="AQ24" s="101"/>
       <c r="AR24" s="42"/>
       <c r="AS24" s="42"/>
       <c r="AT24" s="43"/>
@@ -8123,7 +8075,9 @@
       <c r="G25" s="40" t="s">
         <v>1075</v>
       </c>
-      <c r="H25" s="37"/>
+      <c r="H25" s="110" t="s">
+        <v>1080</v>
+      </c>
       <c r="I25" s="41"/>
       <c r="J25" s="44"/>
       <c r="K25" s="25"/>
@@ -8160,7 +8114,7 @@
       <c r="AN25" s="42"/>
       <c r="AO25" s="42"/>
       <c r="AP25" s="43"/>
-      <c r="AQ25" s="102"/>
+      <c r="AQ25" s="101"/>
       <c r="AR25" s="42"/>
       <c r="AS25" s="42"/>
       <c r="AT25" s="43"/>
@@ -8189,8 +8143,12 @@
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="97"/>
+      <c r="G26" s="40" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="41" t="s">
         <v>22</v>
       </c>
@@ -8291,7 +8249,7 @@
       <c r="AP26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AQ26" s="102"/>
+      <c r="AQ26" s="101"/>
       <c r="AR26" s="42"/>
       <c r="AS26" s="42"/>
       <c r="AT26" s="43"/>
@@ -8322,7 +8280,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="98"/>
+      <c r="H27" s="97"/>
       <c r="I27" s="5"/>
       <c r="J27" s="7"/>
       <c r="K27" s="4"/>
@@ -8357,7 +8315,7 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="8"/>
       <c r="AP27" s="6"/>
-      <c r="AQ27" s="103"/>
+      <c r="AQ27" s="102"/>
       <c r="AR27" s="8"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="6"/>
@@ -8512,62 +8470,62 @@
       <c r="G46" s="92"/>
       <c r="H46" s="92"/>
     </row>
-    <row r="48" spans="1:55" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="106"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="105" t="s">
+    <row r="48" spans="1:55" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="105"/>
+      <c r="B48" s="105"/>
+      <c r="C48" s="104" t="s">
         <v>1067</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="106"/>
-      <c r="F48" s="106"/>
-      <c r="I48" s="106"/>
-      <c r="J48" s="106"/>
-      <c r="K48" s="106"/>
-      <c r="L48" s="106"/>
-      <c r="M48" s="106"/>
-      <c r="N48" s="106"/>
-      <c r="O48" s="106"/>
-      <c r="P48" s="106"/>
-      <c r="Q48" s="106"/>
-      <c r="R48" s="106"/>
-      <c r="S48" s="106"/>
-      <c r="T48" s="106"/>
-      <c r="U48" s="106"/>
-      <c r="V48" s="106"/>
-      <c r="W48" s="106"/>
-      <c r="X48" s="106"/>
-      <c r="Y48" s="106"/>
-      <c r="Z48" s="106"/>
-      <c r="AA48" s="106"/>
-      <c r="AB48" s="106"/>
-      <c r="AC48" s="106"/>
-      <c r="AD48" s="106"/>
-      <c r="AE48" s="106"/>
-      <c r="AF48" s="106"/>
-      <c r="AG48" s="106"/>
-      <c r="AH48" s="106"/>
-      <c r="AI48" s="106"/>
-      <c r="AJ48" s="106"/>
-      <c r="AK48" s="106"/>
-      <c r="AL48" s="106"/>
-      <c r="AM48" s="106"/>
-      <c r="AN48" s="106"/>
-      <c r="AO48" s="106"/>
-      <c r="AP48" s="106"/>
-      <c r="AQ48" s="106"/>
-      <c r="AR48" s="106"/>
-      <c r="AS48" s="106"/>
-      <c r="AT48" s="106"/>
-      <c r="AU48" s="106"/>
-      <c r="AV48" s="108"/>
-      <c r="AW48" s="109"/>
-      <c r="AX48" s="106"/>
-      <c r="AY48" s="106"/>
-      <c r="AZ48" s="108"/>
-      <c r="BA48" s="108"/>
-      <c r="BB48" s="108"/>
-      <c r="BC48" s="106"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="105"/>
+      <c r="K48" s="105"/>
+      <c r="L48" s="105"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="105"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="105"/>
+      <c r="T48" s="105"/>
+      <c r="U48" s="105"/>
+      <c r="V48" s="105"/>
+      <c r="W48" s="105"/>
+      <c r="X48" s="105"/>
+      <c r="Y48" s="105"/>
+      <c r="Z48" s="105"/>
+      <c r="AA48" s="105"/>
+      <c r="AB48" s="105"/>
+      <c r="AC48" s="105"/>
+      <c r="AD48" s="105"/>
+      <c r="AE48" s="105"/>
+      <c r="AF48" s="105"/>
+      <c r="AG48" s="105"/>
+      <c r="AH48" s="105"/>
+      <c r="AI48" s="105"/>
+      <c r="AJ48" s="105"/>
+      <c r="AK48" s="105"/>
+      <c r="AL48" s="105"/>
+      <c r="AM48" s="105"/>
+      <c r="AN48" s="105"/>
+      <c r="AO48" s="105"/>
+      <c r="AP48" s="105"/>
+      <c r="AQ48" s="105"/>
+      <c r="AR48" s="105"/>
+      <c r="AS48" s="105"/>
+      <c r="AT48" s="105"/>
+      <c r="AU48" s="105"/>
+      <c r="AV48" s="107"/>
+      <c r="AW48" s="108"/>
+      <c r="AX48" s="105"/>
+      <c r="AY48" s="105"/>
+      <c r="AZ48" s="107"/>
+      <c r="BA48" s="107"/>
+      <c r="BB48" s="107"/>
+      <c r="BC48" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8580,7 +8538,7 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:B31 G4:H29 C4:F30 I4:BC31">
+  <conditionalFormatting sqref="A4:B31 C4:F30 I4:BC31 G4:H29">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -34,7 +34,7 @@
     <definedName name="_Toc46290868" localSheetId="1">Variables!$B$759</definedName>
     <definedName name="_Toc46290869" localSheetId="1">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="1">Variables!$B$781</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestMatrix!$B$2:$AX$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestMatrix!$B$2:$AX$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1080">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3259,12 +3259,6 @@
     <t>Test19</t>
   </si>
   <si>
-    <t>Test 20</t>
-  </si>
-  <si>
-    <t>Test 21</t>
-  </si>
-  <si>
     <t>Monopile RF</t>
   </si>
   <si>
@@ -3277,19 +3271,22 @@
     <t>Floating OC3 Hywind</t>
   </si>
   <si>
+    <t>2-bladed CART</t>
+  </si>
+  <si>
+    <t>Test 24</t>
+  </si>
+  <si>
+    <t>Test 23</t>
+  </si>
+  <si>
     <t>Test 22</t>
   </si>
   <si>
-    <t>checked</t>
-  </si>
-  <si>
-    <t>needs smaller time step to match platform heave and fairlead/anchor tensions</t>
-  </si>
-  <si>
-    <t>2-bladed CART</t>
-  </si>
-  <si>
-    <t>need to compile with changes for OC3 Hywind to check these results</t>
+    <t>Test20</t>
+  </si>
+  <si>
+    <t>Test21</t>
   </si>
 </sst>
 </file>
@@ -3320,7 +3317,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3378,6 +3375,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3940,7 +3943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4303,12 +4306,113 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4692,13 +4796,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC48"/>
+  <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5166,7 +5270,7 @@
       <c r="M5" s="25">
         <v>2</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="130" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="25" t="s">
@@ -5175,7 +5279,7 @@
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="130" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -5646,7 +5750,7 @@
       <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="130" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="25" t="s">
@@ -5658,7 +5762,7 @@
       <c r="Q8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="130" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="42" t="s">
@@ -5807,7 +5911,7 @@
       <c r="M9" s="25">
         <v>2</v>
       </c>
-      <c r="N9" s="25" t="s">
+      <c r="N9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -5819,7 +5923,7 @@
       <c r="Q9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="130" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="42" t="s">
@@ -7709,9 +7813,7 @@
       <c r="G21" s="40" t="s">
         <v>1068</v>
       </c>
-      <c r="H21" s="110" t="s">
-        <v>1077</v>
-      </c>
+      <c r="H21" s="110"/>
       <c r="I21" s="41" t="s">
         <v>22</v>
       </c>
@@ -7728,7 +7830,7 @@
         <v>2</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>22</v>
@@ -7821,7 +7923,9 @@
       <c r="AU21" s="44"/>
       <c r="AV21" s="54"/>
       <c r="AW21" s="45"/>
-      <c r="AX21" s="43"/>
+      <c r="AX21" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AY21" s="61"/>
       <c r="AZ21" s="62"/>
       <c r="BA21" s="64"/>
@@ -7848,15 +7952,17 @@
         <v>5000</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>1072</v>
-      </c>
-      <c r="H22" s="110" t="s">
-        <v>1077</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="H22" s="110"/>
       <c r="I22" s="41"/>
       <c r="J22" s="44"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="K22" s="25">
+        <v>5</v>
+      </c>
+      <c r="L22" s="25">
+        <v>5</v>
+      </c>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -7896,7 +8002,9 @@
       <c r="AU22" s="44"/>
       <c r="AV22" s="54"/>
       <c r="AW22" s="45"/>
-      <c r="AX22" s="43"/>
+      <c r="AX22" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AY22" s="61"/>
       <c r="AZ22" s="62"/>
       <c r="BA22" s="64"/>
@@ -7908,7 +8016,7 @@
     <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="87" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>1063</v>
@@ -7922,16 +8030,16 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H23" s="110" t="s">
-        <v>1077</v>
-      </c>
+      <c r="G23" s="40"/>
+      <c r="H23" s="110"/>
       <c r="I23" s="41"/>
       <c r="J23" s="44"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="K23" s="25">
+        <v>5</v>
+      </c>
+      <c r="L23" s="25">
+        <v>5</v>
+      </c>
       <c r="M23" s="25"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -7953,9 +8061,7 @@
       <c r="AE23" s="25"/>
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
-      <c r="AH23" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH23" s="25"/>
       <c r="AI23" s="25"/>
       <c r="AJ23" s="43"/>
       <c r="AK23" s="44"/>
@@ -7975,15 +8081,13 @@
       <c r="AY23" s="61"/>
       <c r="AZ23" s="62"/>
       <c r="BA23" s="64"/>
-      <c r="BB23" s="64" t="s">
-        <v>1052</v>
-      </c>
+      <c r="BB23" s="64"/>
       <c r="BC23" s="43"/>
     </row>
     <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="87" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>1063</v>
@@ -7997,16 +8101,16 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="40" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H24" s="110" t="s">
-        <v>1078</v>
-      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="110"/>
       <c r="I24" s="41"/>
       <c r="J24" s="44"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="K24" s="25">
+        <v>5</v>
+      </c>
+      <c r="L24" s="25">
+        <v>5</v>
+      </c>
       <c r="M24" s="25"/>
       <c r="N24" s="25"/>
       <c r="O24" s="25"/>
@@ -8028,9 +8132,7 @@
       <c r="AE24" s="25"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
-      <c r="AH24" s="25" t="s">
-        <v>28</v>
-      </c>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="43"/>
       <c r="AK24" s="44"/>
@@ -8050,15 +8152,13 @@
       <c r="AY24" s="61"/>
       <c r="AZ24" s="62"/>
       <c r="BA24" s="64"/>
-      <c r="BB24" s="64" t="s">
-        <v>1052</v>
-      </c>
+      <c r="BB24" s="64"/>
       <c r="BC24" s="43"/>
     </row>
     <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="87" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>1063</v>
@@ -8073,15 +8173,17 @@
         <v>5000</v>
       </c>
       <c r="G25" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H25" s="110" t="s">
-        <v>1080</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="H25" s="110"/>
       <c r="I25" s="41"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="K25" s="25">
+        <v>5</v>
+      </c>
+      <c r="L25" s="25">
+        <v>5</v>
+      </c>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -8121,7 +8223,9 @@
       <c r="AU25" s="44"/>
       <c r="AV25" s="54"/>
       <c r="AW25" s="45"/>
-      <c r="AX25" s="43"/>
+      <c r="AX25" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AY25" s="61"/>
       <c r="AZ25" s="62"/>
       <c r="BA25" s="64"/>
@@ -8131,401 +8235,559 @@
       <c r="BC25" s="43"/>
     </row>
     <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B26" s="41"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="87" t="s">
+        <v>1076</v>
+      </c>
       <c r="C26" s="25" t="s">
-        <v>55</v>
+        <v>1063</v>
       </c>
       <c r="D26" s="25">
-        <v>2</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="E26" s="25">
+        <v>126</v>
+      </c>
+      <c r="F26" s="25">
+        <v>5000</v>
+      </c>
       <c r="G26" s="40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J26" s="44">
-        <v>0</v>
-      </c>
+        <v>1072</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="25">
-        <v>1</v>
-      </c>
-      <c r="N26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="T26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="W26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="X26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB26" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ26" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK26" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP26" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="43"/>
+      <c r="AK26" s="44"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="43"/>
       <c r="AQ26" s="101"/>
       <c r="AR26" s="42"/>
       <c r="AS26" s="42"/>
       <c r="AT26" s="43"/>
-      <c r="AU26" s="44" t="s">
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="45"/>
+      <c r="AX26" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV26" s="48" t="s">
+      <c r="AY26" s="61"/>
+      <c r="AZ26" s="62"/>
+      <c r="BA26" s="64"/>
+      <c r="BB26" s="64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BC26" s="43"/>
+    </row>
+    <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="87" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D27" s="25">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25">
+        <v>126</v>
+      </c>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="25">
+        <v>5</v>
+      </c>
+      <c r="L27" s="25">
+        <v>5</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="43"/>
+      <c r="AK27" s="44"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="43"/>
+      <c r="AQ27" s="101"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="43"/>
+      <c r="AU27" s="44"/>
+      <c r="AV27" s="54"/>
+      <c r="AW27" s="45"/>
+      <c r="AX27" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY27" s="61"/>
+      <c r="AZ27" s="62"/>
+      <c r="BA27" s="64"/>
+      <c r="BB27" s="64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BC27" s="43"/>
+    </row>
+    <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B28" s="41"/>
+      <c r="C28" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="25">
+        <v>2</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="40" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <v>0</v>
+      </c>
+      <c r="M28" s="25">
+        <v>1</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P28" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="X28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB28" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ28" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK28" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP28" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ28" s="101"/>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV28" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="AW26" s="45">
+      <c r="AW28" s="45">
         <v>0.2</v>
       </c>
-      <c r="AX26" s="43" t="s">
+      <c r="AX28" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="48"/>
-      <c r="BA26" s="65"/>
-      <c r="BB26" s="65"/>
-      <c r="BC26" s="43" t="s">
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="48"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="65"/>
+      <c r="BC28" s="43" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="6"/>
-      <c r="AK27" s="7"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="8"/>
-      <c r="AO27" s="8"/>
-      <c r="AP27" s="6"/>
-      <c r="AQ27" s="102"/>
-      <c r="AR27" s="8"/>
-      <c r="AS27" s="8"/>
-      <c r="AT27" s="6"/>
-      <c r="AU27" s="7"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="10"/>
-      <c r="AX27" s="6"/>
-      <c r="AY27" s="7"/>
-      <c r="AZ27" s="49"/>
-      <c r="BA27" s="66"/>
-      <c r="BB27" s="66"/>
-      <c r="BC27" s="6"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="6"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="8"/>
+      <c r="AN29" s="8"/>
+      <c r="AO29" s="8"/>
+      <c r="AP29" s="6"/>
+      <c r="AQ29" s="102"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="6"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="49"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="6"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B31" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B30" s="50"/>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B32" s="50"/>
+      <c r="C32" s="11" t="s">
         <v>307</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="11" t="s">
-        <v>308</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
-      <c r="C33" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="C33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="T34" s="11"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
       <c r="C36" s="11" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C37" s="11" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="11" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="11" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C43" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C44" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C45" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-    </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B46" s="90" t="s">
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="90" t="s">
         <v>1054</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-    </row>
-    <row r="48" spans="1:55" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="105"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="104" t="s">
+      <c r="C48" s="91"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+    </row>
+    <row r="50" spans="1:55" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="105"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="104" t="s">
         <v>1067</v>
       </c>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="105"/>
-      <c r="K48" s="105"/>
-      <c r="L48" s="105"/>
-      <c r="M48" s="105"/>
-      <c r="N48" s="105"/>
-      <c r="O48" s="105"/>
-      <c r="P48" s="105"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="105"/>
-      <c r="S48" s="105"/>
-      <c r="T48" s="105"/>
-      <c r="U48" s="105"/>
-      <c r="V48" s="105"/>
-      <c r="W48" s="105"/>
-      <c r="X48" s="105"/>
-      <c r="Y48" s="105"/>
-      <c r="Z48" s="105"/>
-      <c r="AA48" s="105"/>
-      <c r="AB48" s="105"/>
-      <c r="AC48" s="105"/>
-      <c r="AD48" s="105"/>
-      <c r="AE48" s="105"/>
-      <c r="AF48" s="105"/>
-      <c r="AG48" s="105"/>
-      <c r="AH48" s="105"/>
-      <c r="AI48" s="105"/>
-      <c r="AJ48" s="105"/>
-      <c r="AK48" s="105"/>
-      <c r="AL48" s="105"/>
-      <c r="AM48" s="105"/>
-      <c r="AN48" s="105"/>
-      <c r="AO48" s="105"/>
-      <c r="AP48" s="105"/>
-      <c r="AQ48" s="105"/>
-      <c r="AR48" s="105"/>
-      <c r="AS48" s="105"/>
-      <c r="AT48" s="105"/>
-      <c r="AU48" s="105"/>
-      <c r="AV48" s="107"/>
-      <c r="AW48" s="108"/>
-      <c r="AX48" s="105"/>
-      <c r="AY48" s="105"/>
-      <c r="AZ48" s="107"/>
-      <c r="BA48" s="107"/>
-      <c r="BB48" s="107"/>
-      <c r="BC48" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="105"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="105"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="105"/>
+      <c r="R50" s="105"/>
+      <c r="S50" s="105"/>
+      <c r="T50" s="105"/>
+      <c r="U50" s="105"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="105"/>
+      <c r="X50" s="105"/>
+      <c r="Y50" s="105"/>
+      <c r="Z50" s="105"/>
+      <c r="AA50" s="105"/>
+      <c r="AB50" s="105"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="105"/>
+      <c r="AE50" s="105"/>
+      <c r="AF50" s="105"/>
+      <c r="AG50" s="105"/>
+      <c r="AH50" s="105"/>
+      <c r="AI50" s="105"/>
+      <c r="AJ50" s="105"/>
+      <c r="AK50" s="105"/>
+      <c r="AL50" s="105"/>
+      <c r="AM50" s="105"/>
+      <c r="AN50" s="105"/>
+      <c r="AO50" s="105"/>
+      <c r="AP50" s="105"/>
+      <c r="AQ50" s="105"/>
+      <c r="AR50" s="105"/>
+      <c r="AS50" s="105"/>
+      <c r="AT50" s="105"/>
+      <c r="AU50" s="105"/>
+      <c r="AV50" s="107"/>
+      <c r="AW50" s="108"/>
+      <c r="AX50" s="105"/>
+      <c r="AY50" s="105"/>
+      <c r="AZ50" s="107"/>
+      <c r="BA50" s="107"/>
+      <c r="BB50" s="107"/>
+      <c r="BC50" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8538,11 +8800,11 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:B31 C4:F30 I4:BC31 G4:H29">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:B33 G4:H31 C4:F32 I4:BC33">
+    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39988,31 +40250,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1080">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -4249,6 +4249,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4306,113 +4309,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4799,7 +4701,7 @@
   <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight"/>
@@ -4842,74 +4744,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="117" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="118" t="s">
         <v>1065</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="120" t="s">
+      <c r="J2" s="119"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="114" t="s">
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
+      <c r="AG2" s="122"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="122"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="114" t="s">
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="115" t="s">
         <v>1064</v>
       </c>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="123" t="s">
+      <c r="AR2" s="116"/>
+      <c r="AS2" s="116"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="117" t="s">
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="118" t="s">
         <v>1049</v>
       </c>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="119"/>
+      <c r="AZ2" s="119"/>
+      <c r="BA2" s="119"/>
+      <c r="BB2" s="119"/>
+      <c r="BC2" s="120"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5270,7 +5172,7 @@
       <c r="M5" s="25">
         <v>2</v>
       </c>
-      <c r="N5" s="130" t="s">
+      <c r="N5" s="111" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="25" t="s">
@@ -5279,7 +5181,7 @@
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="130" t="s">
+      <c r="Q5" s="111" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -5750,7 +5652,7 @@
       <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="N8" s="130" t="s">
+      <c r="N8" s="111" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="25" t="s">
@@ -5762,7 +5664,7 @@
       <c r="Q8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="130" t="s">
+      <c r="R8" s="111" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="42" t="s">
@@ -5911,7 +5813,7 @@
       <c r="M9" s="25">
         <v>2</v>
       </c>
-      <c r="N9" s="130" t="s">
+      <c r="N9" s="111" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -5923,7 +5825,7 @@
       <c r="Q9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="130" t="s">
+      <c r="R9" s="111" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="42" t="s">
@@ -7813,7 +7715,9 @@
       <c r="G21" s="40" t="s">
         <v>1068</v>
       </c>
-      <c r="H21" s="110"/>
+      <c r="H21" s="110" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" s="41" t="s">
         <v>22</v>
       </c>
@@ -8801,10 +8705,10 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:B33 G4:H31 C4:F32 I4:BC33">
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40250,31 +40154,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="16" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="15" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1081">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3287,6 +3287,9 @@
   </si>
   <si>
     <t>Test21</t>
+  </si>
+  <si>
+    <t>OC4 Jacket</t>
   </si>
 </sst>
 </file>
@@ -4704,7 +4707,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8005,7 +8008,9 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="40"/>
+      <c r="G24" s="40" t="s">
+        <v>1080</v>
+      </c>
       <c r="H24" s="110"/>
       <c r="I24" s="41"/>
       <c r="J24" s="44"/>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2730" windowWidth="15180" windowHeight="8775" tabRatio="712"/>
+    <workbookView xWindow="5955" yWindow="2790" windowWidth="15180" windowHeight="8715" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,16 @@
     <definedName name="_Toc46290868" localSheetId="1">Variables!$B$759</definedName>
     <definedName name="_Toc46290869" localSheetId="1">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="1">Variables!$B$781</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestMatrix!$B$2:$AX$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestMatrix!$B$2:$AX$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="1084">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3268,9 +3269,6 @@
     <t>Floating TLP</t>
   </si>
   <si>
-    <t>Floating OC3 Hywind</t>
-  </si>
-  <si>
     <t>2-bladed CART</t>
   </si>
   <si>
@@ -3290,6 +3288,18 @@
   </si>
   <si>
     <t>OC4 Jacket</t>
+  </si>
+  <si>
+    <t>OC3 Hywind (floating)</t>
+  </si>
+  <si>
+    <t>Semi</t>
+  </si>
+  <si>
+    <t>Tripod</t>
+  </si>
+  <si>
+    <t>Test 25</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4255,6 +4265,9 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4317,7 +4330,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4386,6 +4399,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4701,13 +4728,13 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC50"/>
+  <dimension ref="A1:BC51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4747,74 +4774,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="118" t="s">
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="119" t="s">
         <v>1065</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="121" t="s">
+      <c r="J2" s="120"/>
+      <c r="K2" s="128"/>
+      <c r="L2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="128"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="115" t="s">
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="123"/>
+      <c r="AG2" s="123"/>
+      <c r="AH2" s="123"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="124"/>
+      <c r="AK2" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="115" t="s">
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="116" t="s">
         <v>1064</v>
       </c>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="124" t="s">
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="118" t="s">
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="127"/>
+      <c r="AY2" s="119" t="s">
         <v>1049</v>
       </c>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="120"/>
+      <c r="AZ2" s="120"/>
+      <c r="BA2" s="120"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="121"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -7080,7 +7107,7 @@
       <c r="G17" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="112" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="41" t="s">
@@ -7923,7 +7950,7 @@
     <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="87" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>1063</v>
@@ -7937,7 +7964,9 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="40"/>
+      <c r="G23" s="40" t="s">
+        <v>1082</v>
+      </c>
       <c r="H23" s="110"/>
       <c r="I23" s="41"/>
       <c r="J23" s="44"/>
@@ -7994,7 +8023,7 @@
     <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="87" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>1063</v>
@@ -8009,7 +8038,7 @@
         <v>5000</v>
       </c>
       <c r="G24" s="40" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H24" s="110"/>
       <c r="I24" s="41"/>
@@ -8067,7 +8096,7 @@
     <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="87" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>1063</v>
@@ -8146,7 +8175,7 @@
     <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="87" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>1063</v>
@@ -8225,7 +8254,7 @@
     <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="87" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>1063</v>
@@ -8240,7 +8269,7 @@
         <v>5000</v>
       </c>
       <c r="G27" s="40" t="s">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="H27" s="110"/>
       <c r="I27" s="41"/>
@@ -8302,244 +8331,314 @@
       <c r="BC27" s="43"/>
     </row>
     <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B28" s="41"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="87" t="s">
+        <v>1083</v>
+      </c>
       <c r="C28" s="25" t="s">
-        <v>55</v>
+        <v>1063</v>
       </c>
       <c r="D28" s="25">
-        <v>2</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="E28" s="25">
+        <v>126</v>
+      </c>
+      <c r="F28" s="25">
+        <v>5000</v>
+      </c>
       <c r="G28" s="40" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="44">
-        <v>0</v>
-      </c>
+        <v>1081</v>
+      </c>
+      <c r="H28" s="110"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L28" s="25">
-        <v>0</v>
-      </c>
-      <c r="M28" s="25">
-        <v>1</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="W28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="X28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB28" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ28" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK28" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP28" s="43" t="s">
-        <v>32</v>
-      </c>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="43"/>
       <c r="AQ28" s="101"/>
       <c r="AR28" s="42"/>
       <c r="AS28" s="42"/>
       <c r="AT28" s="43"/>
-      <c r="AU28" s="44" t="s">
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="54"/>
+      <c r="AW28" s="45"/>
+      <c r="AX28" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV28" s="48" t="s">
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="62"/>
+      <c r="BA28" s="64"/>
+      <c r="BB28" s="64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BC28" s="43"/>
+    </row>
+    <row r="29" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="41"/>
+      <c r="C29" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="25">
+        <v>2</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <v>0</v>
+      </c>
+      <c r="M29" s="25">
+        <v>1</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="P29" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="R29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="V29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="W29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="X29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ29" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK29" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM29" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN29" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO29" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP29" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ29" s="101"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="43"/>
+      <c r="AU29" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV29" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="AW28" s="45">
+      <c r="AW29" s="45">
         <v>0.2</v>
       </c>
-      <c r="AX28" s="43" t="s">
+      <c r="AX29" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="48"/>
-      <c r="BA28" s="65"/>
-      <c r="BB28" s="65"/>
-      <c r="BC28" s="43" t="s">
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="48"/>
+      <c r="BA29" s="65"/>
+      <c r="BB29" s="65"/>
+      <c r="BC29" s="43" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="29" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="6"/>
-      <c r="AK29" s="7"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="8"/>
-      <c r="AN29" s="8"/>
-      <c r="AO29" s="8"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="102"/>
-      <c r="AR29" s="8"/>
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="6"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="10"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="7"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="66"/>
-      <c r="BB29" s="66"/>
-      <c r="BC29" s="6"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
+    <row r="30" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="5"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="8"/>
+      <c r="AN30" s="8"/>
+      <c r="AO30" s="8"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="102"/>
+      <c r="AR30" s="8"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="7"/>
+      <c r="AZ30" s="49"/>
+      <c r="BA30" s="66"/>
+      <c r="BB30" s="66"/>
+      <c r="BC30" s="6"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B32" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="50"/>
+      <c r="C33" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
-      <c r="C34" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
-        <v>50</v>
+        <v>308</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -8548,24 +8647,25 @@
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
       <c r="C36" s="11" t="s">
-        <v>294</v>
+        <v>50</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="T36" s="11"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="12"/>
       <c r="C37" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -8573,7 +8673,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="11" t="s">
-        <v>343</v>
+        <v>300</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
@@ -8581,7 +8681,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -8589,7 +8689,7 @@
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -8597,7 +8697,7 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="11" t="s">
-        <v>443</v>
+        <v>342</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
@@ -8605,7 +8705,7 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -8613,90 +8713,98 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C46" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="90" t="s">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="B49" s="90" t="s">
         <v>1054</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-    </row>
-    <row r="50" spans="1:55" s="106" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="105"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="104" t="s">
+      <c r="C49" s="91"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+    </row>
+    <row r="51" spans="1:55" s="106" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="105"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="104" t="s">
         <v>1067</v>
       </c>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="105"/>
-      <c r="I50" s="105"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="105"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
-      <c r="N50" s="105"/>
-      <c r="O50" s="105"/>
-      <c r="P50" s="105"/>
-      <c r="Q50" s="105"/>
-      <c r="R50" s="105"/>
-      <c r="S50" s="105"/>
-      <c r="T50" s="105"/>
-      <c r="U50" s="105"/>
-      <c r="V50" s="105"/>
-      <c r="W50" s="105"/>
-      <c r="X50" s="105"/>
-      <c r="Y50" s="105"/>
-      <c r="Z50" s="105"/>
-      <c r="AA50" s="105"/>
-      <c r="AB50" s="105"/>
-      <c r="AC50" s="105"/>
-      <c r="AD50" s="105"/>
-      <c r="AE50" s="105"/>
-      <c r="AF50" s="105"/>
-      <c r="AG50" s="105"/>
-      <c r="AH50" s="105"/>
-      <c r="AI50" s="105"/>
-      <c r="AJ50" s="105"/>
-      <c r="AK50" s="105"/>
-      <c r="AL50" s="105"/>
-      <c r="AM50" s="105"/>
-      <c r="AN50" s="105"/>
-      <c r="AO50" s="105"/>
-      <c r="AP50" s="105"/>
-      <c r="AQ50" s="105"/>
-      <c r="AR50" s="105"/>
-      <c r="AS50" s="105"/>
-      <c r="AT50" s="105"/>
-      <c r="AU50" s="105"/>
-      <c r="AV50" s="107"/>
-      <c r="AW50" s="108"/>
-      <c r="AX50" s="105"/>
-      <c r="AY50" s="105"/>
-      <c r="AZ50" s="107"/>
-      <c r="BA50" s="107"/>
-      <c r="BB50" s="107"/>
-      <c r="BC50" s="105"/>
+      <c r="D51" s="105"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="105"/>
+      <c r="I51" s="105"/>
+      <c r="J51" s="105"/>
+      <c r="K51" s="105"/>
+      <c r="L51" s="105"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="105"/>
+      <c r="AG51" s="105"/>
+      <c r="AH51" s="105"/>
+      <c r="AI51" s="105"/>
+      <c r="AJ51" s="105"/>
+      <c r="AK51" s="105"/>
+      <c r="AL51" s="105"/>
+      <c r="AM51" s="105"/>
+      <c r="AN51" s="105"/>
+      <c r="AO51" s="105"/>
+      <c r="AP51" s="105"/>
+      <c r="AQ51" s="105"/>
+      <c r="AR51" s="105"/>
+      <c r="AS51" s="105"/>
+      <c r="AT51" s="105"/>
+      <c r="AU51" s="105"/>
+      <c r="AV51" s="107"/>
+      <c r="AW51" s="108"/>
+      <c r="AX51" s="105"/>
+      <c r="AY51" s="105"/>
+      <c r="AZ51" s="107"/>
+      <c r="BA51" s="107"/>
+      <c r="BB51" s="107"/>
+      <c r="BC51" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8709,12 +8817,20 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:B33 G4:H31 C4:F32 I4:BC33">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:BC27 I29:BC34 C29:F33 G29:H32 A29:B34">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>$A4="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:BC28">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+      <formula>$A28="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+      <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2131" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1082">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3274,22 +3274,25 @@
     <t>OC4 Jacket</t>
   </si>
   <si>
-    <t>OC3 Hywind (floating)</t>
-  </si>
-  <si>
     <t>Semi</t>
   </si>
   <si>
-    <t>Tripod</t>
-  </si>
-  <si>
     <t>Test 25</t>
   </si>
   <si>
     <t>Onshore (land-based) baseline turbine</t>
   </si>
   <si>
-    <t>OC3 Monopile RF</t>
+    <t>OC3 Tripod</t>
+  </si>
+  <si>
+    <t>OC3 Monopile</t>
+  </si>
+  <si>
+    <t>OC3 Hywind</t>
+  </si>
+  <si>
+    <t>Feature not (yet) in FAST v8</t>
   </si>
 </sst>
 </file>
@@ -3946,7 +3949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4019,9 +4022,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4246,15 +4246,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4312,13 +4310,124 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4719,10 +4828,10 @@
   <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22:AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4750,11 +4859,11 @@
     <col min="35" max="36" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4.5703125" style="2" customWidth="1"/>
     <col min="38" max="47" width="4.85546875" style="2" customWidth="1"/>
-    <col min="48" max="48" width="4.85546875" style="46" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="45" customWidth="1"/>
     <col min="49" max="49" width="4.85546875" style="9" customWidth="1"/>
     <col min="50" max="51" width="4.85546875" style="2" customWidth="1"/>
-    <col min="52" max="53" width="4.85546875" style="46" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" style="46" customWidth="1"/>
+    <col min="52" max="53" width="4.85546875" style="45" customWidth="1"/>
+    <col min="54" max="54" width="6.7109375" style="45" customWidth="1"/>
     <col min="55" max="55" width="4.85546875" style="2" customWidth="1"/>
     <col min="56" max="56" width="4.42578125" customWidth="1"/>
     <col min="57" max="57" width="4.28515625" customWidth="1"/>
@@ -4762,231 +4871,231 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="112" t="s">
+      <c r="B2" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="118" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="117" t="s">
         <v>1063</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="121" t="s">
+      <c r="J2" s="118"/>
+      <c r="K2" s="126"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="126"/>
+      <c r="O2" s="126"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="126"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="127"/>
+      <c r="U2" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="122"/>
-      <c r="AJ2" s="123"/>
-      <c r="AK2" s="115" t="s">
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="121"/>
+      <c r="AB2" s="121"/>
+      <c r="AC2" s="121"/>
+      <c r="AD2" s="121"/>
+      <c r="AE2" s="121"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="121"/>
+      <c r="AI2" s="121"/>
+      <c r="AJ2" s="122"/>
+      <c r="AK2" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="115" t="s">
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="128"/>
+      <c r="AO2" s="128"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="114" t="s">
         <v>1062</v>
       </c>
-      <c r="AR2" s="116"/>
-      <c r="AS2" s="116"/>
-      <c r="AT2" s="117"/>
-      <c r="AU2" s="124" t="s">
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="123" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="126"/>
-      <c r="AY2" s="118" t="s">
+      <c r="AV2" s="124"/>
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="117" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="119"/>
-      <c r="BA2" s="119"/>
-      <c r="BB2" s="119"/>
-      <c r="BC2" s="120"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="119"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="81" t="s">
+      <c r="C3" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>487</v>
       </c>
-      <c r="F3" s="81" t="s">
+      <c r="F3" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="97" t="s">
+      <c r="H3" s="96" t="s">
         <v>1059</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="67" t="s">
+      <c r="J3" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="Q3" s="95" t="s">
+      <c r="Q3" s="94" t="s">
         <v>1058</v>
       </c>
-      <c r="R3" s="95" t="s">
+      <c r="R3" s="94" t="s">
         <v>1057</v>
       </c>
-      <c r="S3" s="93" t="s">
+      <c r="S3" s="92" t="s">
         <v>1055</v>
       </c>
-      <c r="T3" s="94" t="s">
+      <c r="T3" s="93" t="s">
         <v>1056</v>
       </c>
-      <c r="U3" s="83" t="s">
+      <c r="U3" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="V3" s="84" t="s">
+      <c r="V3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="84" t="s">
+      <c r="W3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="84" t="s">
+      <c r="X3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="84" t="s">
+      <c r="Y3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="84" t="s">
+      <c r="Z3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="108" t="s">
+      <c r="AA3" s="107" t="s">
         <v>307</v>
       </c>
-      <c r="AB3" s="108" t="s">
+      <c r="AB3" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="AC3" s="84" t="s">
+      <c r="AC3" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="AD3" s="84" t="s">
+      <c r="AD3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="AE3" s="84" t="s">
+      <c r="AE3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="84" t="s">
+      <c r="AF3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="84" t="s">
+      <c r="AG3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="102" t="s">
+      <c r="AH3" s="101" t="s">
         <v>1064</v>
       </c>
-      <c r="AI3" s="85" t="s">
+      <c r="AI3" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="85" t="s">
+      <c r="AJ3" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="AK3" s="72" t="s">
+      <c r="AK3" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="73" t="s">
+      <c r="AL3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="74" t="s">
+      <c r="AM3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AN3" s="74" t="s">
+      <c r="AN3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AO3" s="74" t="s">
+      <c r="AO3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AP3" s="75" t="s">
+      <c r="AP3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AQ3" s="98"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="76" t="s">
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AV3" s="78" t="s">
+      <c r="AV3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="AW3" s="79" t="s">
+      <c r="AW3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="AX3" s="77" t="s">
+      <c r="AX3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="AY3" s="67" t="s">
+      <c r="AY3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="AZ3" s="70" t="s">
+      <c r="AZ3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BA3" s="71" t="s">
+      <c r="BA3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BB3" s="71" t="s">
+      <c r="BB3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BC3" s="69" t="s">
+      <c r="BC3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4994,7 +5103,7 @@
       <c r="A4" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="29" t="s">
@@ -5003,22 +5112,22 @@
       <c r="D4" s="29">
         <v>2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="55">
         <v>27</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="55">
         <v>175</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>0</v>
       </c>
       <c r="K4" s="29">
@@ -5045,108 +5154,108 @@
       <c r="R4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="33" t="s">
+      <c r="Z4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="33" t="s">
+      <c r="AA4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="33" t="s">
+      <c r="AC4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AD4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AF4" s="33" t="s">
+      <c r="AF4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AG4" s="33" t="s">
+      <c r="AG4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AH4" s="33" t="s">
+      <c r="AH4" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="AI4" s="33" t="s">
+      <c r="AI4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="34" t="s">
+      <c r="AJ4" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="AK4" s="35" t="s">
+      <c r="AK4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AL4" s="33" t="s">
+      <c r="AL4" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="36" t="s">
+      <c r="AM4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AN4" s="36" t="s">
+      <c r="AN4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AO4" s="36" t="s">
+      <c r="AO4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" s="34" t="s">
+      <c r="AP4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="37" t="s">
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AV4" s="47">
+      <c r="AV4" s="46">
         <v>15</v>
       </c>
-      <c r="AW4" s="38">
+      <c r="AW4" s="37">
         <v>0.2</v>
       </c>
-      <c r="AX4" s="39" t="s">
+      <c r="AX4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="60">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="56">
+      <c r="AY4" s="59">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="55">
         <v>3</v>
       </c>
-      <c r="BA4" s="63">
+      <c r="BA4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BB4" s="63" t="s">
+      <c r="BB4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BC4" s="39" t="s">
+      <c r="BC4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5154,7 +5263,7 @@
       <c r="A5" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="29" t="s">
@@ -5163,22 +5272,22 @@
       <c r="D5" s="29">
         <v>2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="55">
         <v>27</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="43">
         <v>0</v>
       </c>
       <c r="K5" s="25">
@@ -5190,7 +5299,7 @@
       <c r="M5" s="25">
         <v>2</v>
       </c>
-      <c r="N5" s="110" t="s">
+      <c r="N5" s="108" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="25" t="s">
@@ -5199,19 +5308,19 @@
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="110" t="s">
+      <c r="Q5" s="108" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V5" s="25" t="s">
@@ -5229,10 +5338,10 @@
       <c r="Z5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC5" s="25" t="s">
@@ -5256,57 +5365,57 @@
       <c r="AI5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="43" t="s">
+      <c r="AJ5" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK5" s="44" t="s">
+      <c r="AK5" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM5" s="42" t="s">
+      <c r="AM5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AN5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AO5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP5" s="43" t="s">
+      <c r="AP5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ5" s="100"/>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="42"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="44" t="s">
+      <c r="AQ5" s="99"/>
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="41"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="43" t="s">
+      <c r="AV5" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY5" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="57">
+      <c r="AY5" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="56">
         <v>1</v>
       </c>
-      <c r="BA5" s="64">
+      <c r="BA5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BB5" s="64" t="s">
+      <c r="BB5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BC5" s="43" t="s">
+      <c r="BC5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5314,7 +5423,7 @@
       <c r="A6" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="29" t="s">
@@ -5323,22 +5432,22 @@
       <c r="D6" s="29">
         <v>2</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="55">
         <v>27</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <v>0</v>
       </c>
       <c r="K6" s="25">
@@ -5365,13 +5474,13 @@
       <c r="R6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S6" s="42" t="s">
+      <c r="S6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V6" s="25" t="s">
@@ -5389,10 +5498,10 @@
       <c r="Z6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC6" s="25" t="s">
@@ -5416,57 +5525,57 @@
       <c r="AI6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="43" t="s">
+      <c r="AJ6" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK6" s="44" t="s">
+      <c r="AK6" s="43" t="s">
         <v>22</v>
       </c>
       <c r="AL6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM6" s="42" t="s">
+      <c r="AM6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN6" s="42" t="s">
+      <c r="AN6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO6" s="42" t="s">
+      <c r="AO6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP6" s="43" t="s">
+      <c r="AP6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ6" s="100"/>
-      <c r="AR6" s="42"/>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="44" t="s">
+      <c r="AQ6" s="99"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV6" s="48" t="s">
+      <c r="AV6" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AW6" s="45">
+      <c r="AW6" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX6" s="43" t="s">
+      <c r="AX6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY6" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="57">
+      <c r="AY6" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="56">
         <v>3</v>
       </c>
-      <c r="BA6" s="64">
+      <c r="BA6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BB6" s="64" t="s">
+      <c r="BB6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC6" s="43" t="s">
+      <c r="BC6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5474,7 +5583,7 @@
       <c r="A7" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="29" t="s">
@@ -5483,22 +5592,22 @@
       <c r="D7" s="29">
         <v>2</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="55">
         <v>27</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="43">
         <v>0</v>
       </c>
       <c r="K7" s="25">
@@ -5525,13 +5634,13 @@
       <c r="R7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="42" t="s">
+      <c r="S7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V7" s="25" t="s">
@@ -5549,10 +5658,10 @@
       <c r="Z7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC7" s="25" t="s">
@@ -5576,57 +5685,57 @@
       <c r="AI7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ7" s="43" t="s">
+      <c r="AJ7" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK7" s="44" t="s">
+      <c r="AK7" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM7" s="42" t="s">
+      <c r="AM7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN7" s="42" t="s">
+      <c r="AN7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO7" s="42" t="s">
+      <c r="AO7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP7" s="43" t="s">
+      <c r="AP7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="44" t="s">
+      <c r="AQ7" s="99"/>
+      <c r="AR7" s="41"/>
+      <c r="AS7" s="41"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV7" s="48" t="s">
+      <c r="AV7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AW7" s="45">
+      <c r="AW7" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX7" s="43" t="s">
+      <c r="AX7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY7" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="57">
+      <c r="AY7" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="56">
         <v>5</v>
       </c>
-      <c r="BA7" s="64">
+      <c r="BA7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BB7" s="64" t="s">
+      <c r="BB7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC7" s="43" t="s">
+      <c r="BC7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5634,7 +5743,7 @@
       <c r="A8" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -5643,22 +5752,22 @@
       <c r="D8" s="29">
         <v>2</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="55">
         <v>27</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="43">
         <v>0</v>
       </c>
       <c r="K8" s="25">
@@ -5670,7 +5779,7 @@
       <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="N8" s="110" t="s">
+      <c r="N8" s="108" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="25" t="s">
@@ -5682,16 +5791,16 @@
       <c r="Q8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="110" t="s">
+      <c r="R8" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="S8" s="42" t="s">
+      <c r="S8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T8" s="42" t="s">
+      <c r="T8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="41" t="s">
+      <c r="U8" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V8" s="25" t="s">
@@ -5709,10 +5818,10 @@
       <c r="Z8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC8" s="25" t="s">
@@ -5736,57 +5845,57 @@
       <c r="AI8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="43" t="s">
+      <c r="AJ8" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK8" s="44" t="s">
+      <c r="AK8" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM8" s="42" t="s">
+      <c r="AM8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN8" s="42" t="s">
+      <c r="AN8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO8" s="42" t="s">
+      <c r="AO8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP8" s="43" t="s">
+      <c r="AP8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ8" s="100"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="43"/>
-      <c r="AU8" s="44" t="s">
+      <c r="AQ8" s="99"/>
+      <c r="AR8" s="41"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV8" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="43" t="s">
+      <c r="AV8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY8" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="57">
+      <c r="AY8" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="56">
         <v>3</v>
       </c>
-      <c r="BA8" s="64">
+      <c r="BA8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BB8" s="64" t="s">
+      <c r="BB8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC8" s="43" t="s">
+      <c r="BC8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5794,7 +5903,7 @@
       <c r="A9" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="25" t="s">
@@ -5803,23 +5912,23 @@
       <c r="D9" s="25">
         <v>3</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <f>7.49*2</f>
         <v>14.98</v>
       </c>
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <v>0</v>
       </c>
       <c r="K9" s="25">
@@ -5831,7 +5940,7 @@
       <c r="M9" s="25">
         <v>2</v>
       </c>
-      <c r="N9" s="110" t="s">
+      <c r="N9" s="108" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -5843,16 +5952,16 @@
       <c r="Q9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="110" t="s">
+      <c r="R9" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="S9" s="42" t="s">
+      <c r="S9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T9" s="42" t="s">
+      <c r="T9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V9" s="25" t="s">
@@ -5870,10 +5979,10 @@
       <c r="Z9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AB9" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC9" s="25" t="s">
@@ -5897,57 +6006,57 @@
       <c r="AI9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ9" s="43" t="s">
+      <c r="AJ9" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK9" s="44" t="s">
+      <c r="AK9" s="43" t="s">
         <v>22</v>
       </c>
       <c r="AL9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM9" s="42" t="s">
+      <c r="AM9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN9" s="42" t="s">
+      <c r="AN9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO9" s="42" t="s">
+      <c r="AO9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP9" s="43" t="s">
+      <c r="AP9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ9" s="100"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="43"/>
-      <c r="AU9" s="44" t="s">
+      <c r="AQ9" s="99"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV9" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="43" t="s">
+      <c r="AV9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY9" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="57">
+      <c r="AY9" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="56">
         <v>5</v>
       </c>
-      <c r="BA9" s="64">
+      <c r="BA9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BB9" s="64" t="s">
+      <c r="BB9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC9" s="43" t="s">
+      <c r="BC9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5955,7 +6064,7 @@
       <c r="A10" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -5964,23 +6073,23 @@
       <c r="D10" s="25">
         <v>3</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <f>7.49*2</f>
         <v>14.98</v>
       </c>
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <v>0</v>
       </c>
       <c r="K10" s="25">
@@ -6007,13 +6116,13 @@
       <c r="R10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="42" t="s">
+      <c r="S10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T10" s="42" t="s">
+      <c r="T10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V10" s="25" t="s">
@@ -6031,10 +6140,10 @@
       <c r="Z10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC10" s="25" t="s">
@@ -6058,57 +6167,57 @@
       <c r="AI10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ10" s="43" t="s">
+      <c r="AJ10" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK10" s="44" t="s">
+      <c r="AK10" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM10" s="42" t="s">
+      <c r="AM10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN10" s="42" t="s">
+      <c r="AN10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO10" s="42" t="s">
+      <c r="AO10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP10" s="43" t="s">
+      <c r="AP10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ10" s="100"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="43"/>
-      <c r="AU10" s="44" t="s">
+      <c r="AQ10" s="99"/>
+      <c r="AR10" s="41"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV10" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="45">
+      <c r="AV10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX10" s="43" t="s">
+      <c r="AX10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY10" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="57">
+      <c r="AY10" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="56">
         <v>3</v>
       </c>
-      <c r="BA10" s="64">
+      <c r="BA10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BB10" s="64" t="s">
+      <c r="BB10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC10" s="43" t="s">
+      <c r="BC10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
@@ -6116,7 +6225,7 @@
       <c r="A11" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6125,7 +6234,7 @@
       <c r="D11" s="25">
         <v>3</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <f>7.49*2</f>
         <v>14.98</v>
       </c>
@@ -6135,13 +6244,13 @@
       <c r="G11" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="41" t="s">
+      <c r="I11" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <v>0</v>
       </c>
       <c r="K11" s="25">
@@ -6168,13 +6277,13 @@
       <c r="R11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="25" t="s">
@@ -6192,10 +6301,10 @@
       <c r="Z11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="25" t="s">
+      <c r="AA11" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC11" s="25" t="s">
@@ -6219,57 +6328,57 @@
       <c r="AI11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="43" t="s">
+      <c r="AJ11" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK11" s="44" t="s">
+      <c r="AK11" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM11" s="42" t="s">
+      <c r="AM11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN11" s="42" t="s">
+      <c r="AN11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO11" s="42" t="s">
+      <c r="AO11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP11" s="43" t="s">
+      <c r="AP11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ11" s="100"/>
-      <c r="AR11" s="42"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="43"/>
-      <c r="AU11" s="44" t="s">
+      <c r="AQ11" s="99"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV11" s="48">
+      <c r="AV11" s="47">
         <v>15</v>
       </c>
-      <c r="AW11" s="45">
+      <c r="AW11" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX11" s="43" t="s">
+      <c r="AX11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY11" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="57">
+      <c r="AY11" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="56">
         <v>2</v>
       </c>
-      <c r="BA11" s="64">
+      <c r="BA11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BB11" s="64" t="s">
+      <c r="BB11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC11" s="43" t="s">
+      <c r="BC11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6277,7 +6386,7 @@
       <c r="A12" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B12" s="86" t="s">
+      <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -6292,16 +6401,16 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="37" t="s">
+      <c r="H12" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <v>0</v>
       </c>
       <c r="K12" s="25">
@@ -6328,13 +6437,13 @@
       <c r="R12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="42" t="s">
+      <c r="T12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="U12" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V12" s="25" t="s">
@@ -6352,10 +6461,10 @@
       <c r="Z12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="25" t="s">
+      <c r="AA12" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC12" s="25" t="s">
@@ -6379,57 +6488,57 @@
       <c r="AI12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="43" t="s">
+      <c r="AJ12" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK12" s="44" t="s">
+      <c r="AK12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="AL12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM12" s="42" t="s">
+      <c r="AM12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN12" s="42" t="s">
+      <c r="AN12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO12" s="42" t="s">
+      <c r="AO12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP12" s="43" t="s">
+      <c r="AP12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AQ12" s="100"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AQ12" s="99"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV12" s="48" t="s">
+      <c r="AV12" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AW12" s="45">
+      <c r="AW12" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX12" s="43" t="s">
+      <c r="AX12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY12" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="57">
+      <c r="AY12" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="56">
         <v>5</v>
       </c>
-      <c r="BA12" s="64">
+      <c r="BA12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BB12" s="64" t="s">
+      <c r="BB12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC12" s="43" t="s">
+      <c r="BC12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6437,7 +6546,7 @@
       <c r="A13" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -6452,16 +6561,16 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="41" t="s">
+      <c r="I13" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="43">
         <v>0</v>
       </c>
       <c r="K13" s="25">
@@ -6488,13 +6597,13 @@
       <c r="R13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="S13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="U13" s="40" t="s">
         <v>29</v>
       </c>
       <c r="V13" s="25" t="s">
@@ -6512,10 +6621,10 @@
       <c r="Z13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="25" t="s">
+      <c r="AA13" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC13" s="25" t="s">
@@ -6539,57 +6648,57 @@
       <c r="AI13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ13" s="43" t="s">
+      <c r="AJ13" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK13" s="44" t="s">
+      <c r="AK13" s="43" t="s">
         <v>22</v>
       </c>
       <c r="AL13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AM13" s="42" t="s">
+      <c r="AM13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN13" s="42" t="s">
+      <c r="AN13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO13" s="42" t="s">
+      <c r="AO13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP13" s="43" t="s">
+      <c r="AP13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AQ13" s="100"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="44" t="s">
+      <c r="AQ13" s="99"/>
+      <c r="AR13" s="41"/>
+      <c r="AS13" s="41"/>
+      <c r="AT13" s="42"/>
+      <c r="AU13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV13" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="43" t="s">
+      <c r="AV13" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="44">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY13" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="57">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="64">
+      <c r="AY13" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BB13" s="64" t="s">
+      <c r="BB13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC13" s="43" t="s">
+      <c r="BC13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6597,7 +6706,7 @@
       <c r="A14" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -6612,16 +6721,16 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="43">
         <v>0</v>
       </c>
       <c r="K14" s="25">
@@ -6648,13 +6757,13 @@
       <c r="R14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S14" s="42" t="s">
+      <c r="S14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="U14" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V14" s="25" t="s">
@@ -6672,10 +6781,10 @@
       <c r="Z14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="25" t="s">
+      <c r="AA14" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="25" t="s">
+      <c r="AB14" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC14" s="25" t="s">
@@ -6699,57 +6808,57 @@
       <c r="AI14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ14" s="43" t="s">
+      <c r="AJ14" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK14" s="44" t="s">
+      <c r="AK14" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM14" s="42" t="s">
+      <c r="AM14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN14" s="42" t="s">
+      <c r="AN14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO14" s="42" t="s">
+      <c r="AO14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP14" s="43" t="s">
+      <c r="AP14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ14" s="100"/>
-      <c r="AR14" s="42"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="43"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AQ14" s="99"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="42"/>
+      <c r="AU14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV14" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="45">
+      <c r="AV14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX14" s="43" t="s">
+      <c r="AX14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY14" s="61">
+      <c r="AY14" s="60">
         <v>2</v>
       </c>
-      <c r="AZ14" s="57">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="64">
+      <c r="AZ14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BB14" s="64" t="s">
+      <c r="BB14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC14" s="43" t="s">
+      <c r="BC14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6757,7 +6866,7 @@
       <c r="A15" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -6772,16 +6881,16 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43">
         <v>0</v>
       </c>
       <c r="K15" s="25">
@@ -6808,13 +6917,13 @@
       <c r="R15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="42" t="s">
+      <c r="S15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T15" s="42" t="s">
+      <c r="T15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="U15" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V15" s="25" t="s">
@@ -6832,10 +6941,10 @@
       <c r="Z15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="25" t="s">
+      <c r="AA15" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB15" s="25" t="s">
+      <c r="AB15" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC15" s="25" t="s">
@@ -6859,57 +6968,57 @@
       <c r="AI15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ15" s="43" t="s">
+      <c r="AJ15" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK15" s="44" t="s">
+      <c r="AK15" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM15" s="42" t="s">
+      <c r="AM15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN15" s="42" t="s">
+      <c r="AN15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO15" s="42" t="s">
+      <c r="AO15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP15" s="43" t="s">
+      <c r="AP15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ15" s="100"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="44" t="s">
+      <c r="AQ15" s="99"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV15" s="48" t="s">
+      <c r="AV15" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AW15" s="45">
+      <c r="AW15" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX15" s="43" t="s">
+      <c r="AX15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY15" s="61">
+      <c r="AY15" s="60">
         <v>2</v>
       </c>
-      <c r="AZ15" s="57">
+      <c r="AZ15" s="56">
         <v>4</v>
       </c>
-      <c r="BA15" s="64">
+      <c r="BA15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BB15" s="64" t="s">
+      <c r="BB15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC15" s="43" t="s">
+      <c r="BC15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6917,7 +7026,7 @@
       <c r="A16" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="87" t="s">
         <v>53</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -6932,16 +7041,16 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="41" t="s">
+      <c r="I16" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <v>0</v>
       </c>
       <c r="K16" s="25">
@@ -6968,13 +7077,13 @@
       <c r="R16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T16" s="42" t="s">
+      <c r="T16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U16" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V16" s="25" t="s">
@@ -6992,10 +7101,10 @@
       <c r="Z16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="25" t="s">
+      <c r="AA16" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="25" t="s">
+      <c r="AB16" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC16" s="25" t="s">
@@ -7019,57 +7128,57 @@
       <c r="AI16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="43" t="s">
+      <c r="AJ16" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK16" s="44" t="s">
+      <c r="AK16" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL16" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM16" s="42" t="s">
+      <c r="AM16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN16" s="42" t="s">
+      <c r="AN16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO16" s="42" t="s">
+      <c r="AO16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP16" s="43" t="s">
+      <c r="AP16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ16" s="100"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="44" t="s">
+      <c r="AQ16" s="99"/>
+      <c r="AR16" s="41"/>
+      <c r="AS16" s="41"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV16" s="48">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="45">
+      <c r="AV16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX16" s="43" t="s">
+      <c r="AX16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY16" s="61">
+      <c r="AY16" s="60">
         <v>2</v>
       </c>
-      <c r="AZ16" s="57">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="64">
+      <c r="AZ16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BB16" s="64" t="s">
+      <c r="BB16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC16" s="43" t="s">
+      <c r="BC16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
@@ -7077,7 +7186,7 @@
       <c r="A17" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="85" t="s">
         <v>288</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -7092,16 +7201,16 @@
       <c r="F17" s="25">
         <v>1500</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="110" t="s">
         <v>501</v>
       </c>
-      <c r="H17" s="111" t="s">
+      <c r="H17" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <v>0</v>
       </c>
       <c r="K17" s="25">
@@ -7128,13 +7237,13 @@
       <c r="R17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S17" s="42" t="s">
+      <c r="S17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T17" s="42" t="s">
+      <c r="T17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V17" s="25" t="s">
@@ -7152,10 +7261,10 @@
       <c r="Z17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA17" s="25" t="s">
+      <c r="AA17" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB17" s="25" t="s">
+      <c r="AB17" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC17" s="25" t="s">
@@ -7179,57 +7288,57 @@
       <c r="AI17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AJ17" s="43" t="s">
+      <c r="AJ17" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK17" s="44" t="s">
+      <c r="AK17" s="43" t="s">
         <v>42</v>
       </c>
       <c r="AL17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="AM17" s="42" t="s">
+      <c r="AM17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AN17" s="42" t="s">
+      <c r="AN17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AO17" s="42" t="s">
+      <c r="AO17" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AP17" s="43" t="s">
+      <c r="AP17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AQ17" s="100"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="43"/>
-      <c r="AU17" s="44" t="s">
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="48" t="s">
+      <c r="AV17" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="AW17" s="45" t="s">
+      <c r="AW17" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AX17" s="43" t="s">
+      <c r="AX17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="AY17" s="61">
+      <c r="AY17" s="60">
         <v>2</v>
       </c>
-      <c r="AZ17" s="57">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="64">
+      <c r="AZ17" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="63">
         <f>Variables!P$2</f>
         <v>23</v>
       </c>
-      <c r="BB17" s="64" t="s">
+      <c r="BB17" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC17" s="43" t="s">
+      <c r="BC17" s="42" t="s">
         <v>291</v>
       </c>
     </row>
@@ -7237,7 +7346,7 @@
       <c r="A18" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
       <c r="C18" s="25" t="s">
@@ -7252,16 +7361,16 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="41" t="s">
+      <c r="I18" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <v>0</v>
       </c>
       <c r="K18" s="25">
@@ -7288,13 +7397,13 @@
       <c r="R18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="42" t="s">
+      <c r="S18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T18" s="42" t="s">
+      <c r="T18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="U18" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V18" s="25" t="s">
@@ -7312,10 +7421,10 @@
       <c r="Z18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="25" t="s">
+      <c r="AA18" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="25" t="s">
+      <c r="AB18" s="108" t="s">
         <v>28</v>
       </c>
       <c r="AC18" s="25" t="s">
@@ -7339,57 +7448,57 @@
       <c r="AI18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ18" s="43" t="s">
+      <c r="AJ18" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK18" s="44" t="s">
+      <c r="AK18" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL18" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM18" s="42" t="s">
+      <c r="AM18" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN18" s="42" t="s">
+      <c r="AN18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO18" s="42" t="s">
+      <c r="AO18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP18" s="43" t="s">
+      <c r="AP18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ18" s="100"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="44" t="s">
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV18" s="54" t="s">
+      <c r="AV18" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="AW18" s="45">
+      <c r="AW18" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX18" s="43" t="s">
+      <c r="AX18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY18" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="62">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="64">
+      <c r="AY18" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BB18" s="64" t="s">
+      <c r="BB18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC18" s="43" t="s">
+      <c r="BC18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7397,7 +7506,7 @@
       <c r="A19" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
       <c r="C19" s="25" t="s">
@@ -7412,16 +7521,16 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <v>0</v>
       </c>
       <c r="K19" s="25">
@@ -7448,13 +7557,13 @@
       <c r="R19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S19" s="42" t="s">
+      <c r="S19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T19" s="42" t="s">
+      <c r="T19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="U19" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V19" s="25" t="s">
@@ -7472,10 +7581,10 @@
       <c r="Z19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="25" t="s">
+      <c r="AA19" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="25" t="s">
+      <c r="AB19" s="108" t="s">
         <v>28</v>
       </c>
       <c r="AC19" s="25" t="s">
@@ -7499,57 +7608,57 @@
       <c r="AI19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ19" s="43" t="s">
+      <c r="AJ19" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK19" s="44" t="s">
+      <c r="AK19" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM19" s="42" t="s">
+      <c r="AM19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN19" s="42" t="s">
+      <c r="AN19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO19" s="42" t="s">
+      <c r="AO19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP19" s="43" t="s">
+      <c r="AP19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ19" s="100"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="43"/>
-      <c r="AU19" s="44" t="s">
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="41"/>
+      <c r="AS19" s="41"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV19" s="48" t="s">
+      <c r="AV19" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="AW19" s="45">
+      <c r="AW19" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX19" s="43" t="s">
+      <c r="AX19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY19" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="57">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="64">
+      <c r="AY19" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BB19" s="64" t="s">
+      <c r="BB19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC19" s="43" t="s">
+      <c r="BC19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7557,7 +7666,7 @@
       <c r="A20" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
       <c r="C20" s="25" t="s">
@@ -7572,16 +7681,16 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="43">
         <v>0</v>
       </c>
       <c r="K20" s="25">
@@ -7608,13 +7717,13 @@
       <c r="R20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S20" s="42" t="s">
+      <c r="S20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T20" s="42" t="s">
+      <c r="T20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="U20" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V20" s="25" t="s">
@@ -7632,10 +7741,10 @@
       <c r="Z20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="25" t="s">
+      <c r="AA20" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB20" s="25" t="s">
+      <c r="AB20" s="108" t="s">
         <v>28</v>
       </c>
       <c r="AC20" s="25" t="s">
@@ -7659,63 +7768,63 @@
       <c r="AI20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ20" s="43" t="s">
+      <c r="AJ20" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK20" s="44" t="s">
+      <c r="AK20" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL20" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM20" s="42" t="s">
+      <c r="AM20" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN20" s="42" t="s">
+      <c r="AN20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO20" s="42" t="s">
+      <c r="AO20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AP20" s="43" t="s">
+      <c r="AP20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AQ20" s="100"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="43"/>
-      <c r="AU20" s="44" t="s">
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV20" s="54" t="s">
+      <c r="AV20" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="AW20" s="45">
+      <c r="AW20" s="44">
         <v>0.2</v>
       </c>
-      <c r="AX20" s="43" t="s">
+      <c r="AX20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY20" s="61">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="62">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="64">
+      <c r="AY20" s="60">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BB20" s="64" t="s">
+      <c r="BB20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BC20" s="43" t="s">
+      <c r="BC20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
-      <c r="B21" s="86" t="s">
+      <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
       <c r="C21" s="25" t="s">
@@ -7730,16 +7839,16 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="40" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H21" s="109" t="s">
+      <c r="G21" s="39" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H21" s="133" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="41" t="s">
+      <c r="I21" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <v>0</v>
       </c>
       <c r="K21" s="25">
@@ -7766,13 +7875,13 @@
       <c r="R21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="S21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="U21" s="40" t="s">
         <v>28</v>
       </c>
       <c r="V21" s="25" t="s">
@@ -7790,10 +7899,10 @@
       <c r="Z21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="25" t="s">
+      <c r="AA21" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="25" t="s">
+      <c r="AB21" s="108" t="s">
         <v>29</v>
       </c>
       <c r="AC21" s="25" t="s">
@@ -7817,48 +7926,48 @@
       <c r="AI21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ21" s="43" t="s">
+      <c r="AJ21" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="AK21" s="44" t="s">
+      <c r="AK21" s="43" t="s">
         <v>32</v>
       </c>
       <c r="AL21" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AM21" s="42" t="s">
+      <c r="AM21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AN21" s="42" t="s">
+      <c r="AN21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AO21" s="42" t="s">
+      <c r="AO21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AP21" s="43" t="s">
+      <c r="AP21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AQ21" s="100"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="43"/>
-      <c r="AU21" s="44"/>
-      <c r="AV21" s="54"/>
-      <c r="AW21" s="45"/>
-      <c r="AX21" s="43" t="s">
+      <c r="AQ21" s="99"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="43"/>
+      <c r="AV21" s="53"/>
+      <c r="AW21" s="44"/>
+      <c r="AX21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="62"/>
-      <c r="BA21" s="64"/>
-      <c r="BB21" s="64" t="s">
+      <c r="AY21" s="60"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="63"/>
+      <c r="BB21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC21" s="43"/>
+      <c r="BC21" s="42"/>
     </row>
     <row r="22" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="85" t="s">
         <v>1066</v>
       </c>
       <c r="C22" s="25" t="s">
@@ -7873,12 +7982,16 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="40" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H22" s="109"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="44"/>
+      <c r="G22" s="39" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H22" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="43"/>
       <c r="K22" s="25">
         <v>5</v>
       </c>
@@ -7891,9 +8004,9 @@
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
       <c r="R22" s="25"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="40"/>
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
       <c r="X22" s="25"/>
@@ -7910,34 +8023,36 @@
         <v>28</v>
       </c>
       <c r="AI22" s="25"/>
-      <c r="AJ22" s="43"/>
-      <c r="AK22" s="44"/>
+      <c r="AJ22" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK22" s="43"/>
       <c r="AL22" s="25"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="100"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="54"/>
-      <c r="AW22" s="45"/>
-      <c r="AX22" s="43" t="s">
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY22" s="61"/>
-      <c r="AZ22" s="62"/>
-      <c r="BA22" s="64"/>
-      <c r="BB22" s="64" t="s">
+      <c r="AY22" s="60"/>
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="63"/>
+      <c r="BB22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC22" s="43"/>
+      <c r="BC22" s="42"/>
     </row>
     <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="85" t="s">
         <v>1072</v>
       </c>
       <c r="C23" s="25" t="s">
@@ -7952,12 +8067,16 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="40" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H23" s="109"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="44"/>
+      <c r="G23" s="39" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H23" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="43"/>
       <c r="K23" s="25">
         <v>5</v>
       </c>
@@ -7970,9 +8089,9 @@
       <c r="P23" s="25"/>
       <c r="Q23" s="25"/>
       <c r="R23" s="25"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="40"/>
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
       <c r="X23" s="25"/>
@@ -7985,32 +8104,36 @@
       <c r="AE23" s="25"/>
       <c r="AF23" s="25"/>
       <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
+      <c r="AH23" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="AI23" s="25"/>
-      <c r="AJ23" s="43"/>
-      <c r="AK23" s="44"/>
+      <c r="AJ23" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK23" s="43"/>
       <c r="AL23" s="25"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="43"/>
-      <c r="AQ23" s="100"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="43"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="61"/>
-      <c r="AZ23" s="62"/>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="64"/>
-      <c r="BC23" s="43"/>
+      <c r="AM23" s="41"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="42"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="42"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="53"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="60"/>
+      <c r="AZ23" s="61"/>
+      <c r="BA23" s="63"/>
+      <c r="BB23" s="63"/>
+      <c r="BC23" s="42"/>
     </row>
     <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="85" t="s">
         <v>1073</v>
       </c>
       <c r="C24" s="25" t="s">
@@ -8025,12 +8148,16 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="H24" s="109"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="43"/>
       <c r="K24" s="25">
         <v>5</v>
       </c>
@@ -8043,9 +8170,9 @@
       <c r="P24" s="25"/>
       <c r="Q24" s="25"/>
       <c r="R24" s="25"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="40"/>
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
       <c r="X24" s="25"/>
@@ -8058,32 +8185,36 @@
       <c r="AE24" s="25"/>
       <c r="AF24" s="25"/>
       <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
+      <c r="AH24" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="AI24" s="25"/>
-      <c r="AJ24" s="43"/>
-      <c r="AK24" s="44"/>
+      <c r="AJ24" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK24" s="43"/>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="42"/>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="43"/>
-      <c r="AQ24" s="100"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="43"/>
-      <c r="AU24" s="44"/>
-      <c r="AV24" s="54"/>
-      <c r="AW24" s="45"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="61"/>
-      <c r="AZ24" s="62"/>
-      <c r="BA24" s="64"/>
-      <c r="BB24" s="64"/>
-      <c r="BC24" s="43"/>
+      <c r="AM24" s="41"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="99"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="44"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="60"/>
+      <c r="AZ24" s="61"/>
+      <c r="BA24" s="63"/>
+      <c r="BB24" s="63"/>
+      <c r="BC24" s="42"/>
     </row>
     <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="85" t="s">
         <v>1071</v>
       </c>
       <c r="C25" s="25" t="s">
@@ -8098,12 +8229,16 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="40" t="s">
+      <c r="G25" s="39" t="s">
         <v>1067</v>
       </c>
-      <c r="H25" s="109"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="44"/>
+      <c r="H25" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="43"/>
       <c r="K25" s="25">
         <v>5</v>
       </c>
@@ -8116,9 +8251,9 @@
       <c r="P25" s="25"/>
       <c r="Q25" s="25"/>
       <c r="R25" s="25"/>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="40"/>
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
       <c r="X25" s="25"/>
@@ -8135,34 +8270,36 @@
         <v>28</v>
       </c>
       <c r="AI25" s="25"/>
-      <c r="AJ25" s="43"/>
-      <c r="AK25" s="44"/>
+      <c r="AJ25" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK25" s="43"/>
       <c r="AL25" s="25"/>
-      <c r="AM25" s="42"/>
-      <c r="AN25" s="42"/>
-      <c r="AO25" s="42"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="100"/>
-      <c r="AR25" s="42"/>
-      <c r="AS25" s="42"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="43" t="s">
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="41"/>
+      <c r="AO25" s="41"/>
+      <c r="AP25" s="42"/>
+      <c r="AQ25" s="99"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="42"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY25" s="61"/>
-      <c r="AZ25" s="62"/>
-      <c r="BA25" s="64"/>
-      <c r="BB25" s="64" t="s">
+      <c r="AY25" s="60"/>
+      <c r="AZ25" s="61"/>
+      <c r="BA25" s="63"/>
+      <c r="BB25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC25" s="43"/>
+      <c r="BC25" s="42"/>
     </row>
     <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
-      <c r="B26" s="86" t="s">
+      <c r="B26" s="85" t="s">
         <v>1070</v>
       </c>
       <c r="C26" s="25" t="s">
@@ -8177,12 +8314,16 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>1068</v>
       </c>
-      <c r="H26" s="109"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="44"/>
+      <c r="H26" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="43"/>
       <c r="K26" s="25">
         <v>5</v>
       </c>
@@ -8195,9 +8336,9 @@
       <c r="P26" s="25"/>
       <c r="Q26" s="25"/>
       <c r="R26" s="25"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="40"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
@@ -8214,34 +8355,36 @@
         <v>28</v>
       </c>
       <c r="AI26" s="25"/>
-      <c r="AJ26" s="43"/>
-      <c r="AK26" s="44"/>
+      <c r="AJ26" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK26" s="43"/>
       <c r="AL26" s="25"/>
-      <c r="AM26" s="42"/>
-      <c r="AN26" s="42"/>
-      <c r="AO26" s="42"/>
-      <c r="AP26" s="43"/>
-      <c r="AQ26" s="100"/>
-      <c r="AR26" s="42"/>
-      <c r="AS26" s="42"/>
-      <c r="AT26" s="43"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="45"/>
-      <c r="AX26" s="43" t="s">
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="42"/>
+      <c r="AQ26" s="99"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="42"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="53"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY26" s="61"/>
-      <c r="AZ26" s="62"/>
-      <c r="BA26" s="64"/>
-      <c r="BB26" s="64" t="s">
+      <c r="AY26" s="60"/>
+      <c r="AZ26" s="61"/>
+      <c r="BA26" s="63"/>
+      <c r="BB26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC26" s="43"/>
+      <c r="BC26" s="42"/>
     </row>
     <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="85" t="s">
         <v>1069</v>
       </c>
       <c r="C27" s="25" t="s">
@@ -8256,12 +8399,16 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="40" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H27" s="109"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="44"/>
+      <c r="G27" s="39" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H27" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="43"/>
       <c r="K27" s="25">
         <v>5</v>
       </c>
@@ -8274,9 +8421,9 @@
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
       <c r="R27" s="25"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="40"/>
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
       <c r="X27" s="25"/>
@@ -8293,35 +8440,37 @@
         <v>28</v>
       </c>
       <c r="AI27" s="25"/>
-      <c r="AJ27" s="43"/>
-      <c r="AK27" s="44"/>
+      <c r="AJ27" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK27" s="43"/>
       <c r="AL27" s="25"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="43"/>
-      <c r="AQ27" s="100"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="43"/>
-      <c r="AU27" s="44"/>
-      <c r="AV27" s="54"/>
-      <c r="AW27" s="45"/>
-      <c r="AX27" s="43" t="s">
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="99"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="53"/>
+      <c r="AW27" s="44"/>
+      <c r="AX27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY27" s="61"/>
-      <c r="AZ27" s="62"/>
-      <c r="BA27" s="64"/>
-      <c r="BB27" s="64" t="s">
+      <c r="AY27" s="60"/>
+      <c r="AZ27" s="61"/>
+      <c r="BA27" s="63"/>
+      <c r="BB27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC27" s="43"/>
+      <c r="BC27" s="42"/>
     </row>
     <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="86" t="s">
-        <v>1078</v>
+      <c r="B28" s="85" t="s">
+        <v>1076</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>1061</v>
@@ -8335,12 +8484,16 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="40" t="s">
-        <v>1076</v>
-      </c>
-      <c r="H28" s="109"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="44"/>
+      <c r="G28" s="39" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H28" s="133" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="43"/>
       <c r="K28" s="25">
         <v>5</v>
       </c>
@@ -8353,9 +8506,9 @@
       <c r="P28" s="25"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="25"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="40"/>
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
       <c r="X28" s="25"/>
@@ -8372,30 +8525,32 @@
         <v>28</v>
       </c>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="44"/>
+      <c r="AJ28" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK28" s="43"/>
       <c r="AL28" s="25"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="100"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="54"/>
-      <c r="AW28" s="45"/>
-      <c r="AX28" s="43" t="s">
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+      <c r="AP28" s="42"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY28" s="61"/>
-      <c r="AZ28" s="62"/>
-      <c r="BA28" s="64"/>
-      <c r="BB28" s="64" t="s">
+      <c r="AY28" s="60"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="63"/>
+      <c r="BB28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BC28" s="43"/>
+      <c r="BC28" s="42"/>
     </row>
     <row r="29" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
@@ -8404,7 +8559,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="96"/>
+      <c r="H29" s="95"/>
       <c r="I29" s="5"/>
       <c r="J29" s="7"/>
       <c r="K29" s="4"/>
@@ -8439,31 +8594,31 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="8"/>
       <c r="AP29" s="6"/>
-      <c r="AQ29" s="101"/>
+      <c r="AQ29" s="100"/>
       <c r="AR29" s="8"/>
       <c r="AS29" s="8"/>
       <c r="AT29" s="6"/>
       <c r="AU29" s="7"/>
-      <c r="AV29" s="49"/>
+      <c r="AV29" s="48"/>
       <c r="AW29" s="10"/>
       <c r="AX29" s="6"/>
       <c r="AY29" s="7"/>
-      <c r="AZ29" s="49"/>
-      <c r="BA29" s="65"/>
-      <c r="BB29" s="65"/>
+      <c r="AZ29" s="48"/>
+      <c r="BA29" s="64"/>
+      <c r="BB29" s="64"/>
       <c r="BC29" s="6"/>
     </row>
     <row r="31" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:55" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="11" t="s">
         <v>305</v>
       </c>
@@ -8580,76 +8735,83 @@
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="G46" s="11"/>
+      <c r="B46" s="135" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C46" s="134"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="136"/>
       <c r="H46" s="11"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="88" t="s">
         <v>1052</v>
       </c>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="91"/>
-    </row>
-    <row r="50" spans="1:55" s="105" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="104"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="103" t="s">
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+    </row>
+    <row r="50" spans="1:55" s="104" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="103"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="104"/>
-      <c r="M50" s="104"/>
-      <c r="N50" s="104"/>
-      <c r="O50" s="104"/>
-      <c r="P50" s="104"/>
-      <c r="Q50" s="104"/>
-      <c r="R50" s="104"/>
-      <c r="S50" s="104"/>
-      <c r="T50" s="104"/>
-      <c r="U50" s="104"/>
-      <c r="V50" s="104"/>
-      <c r="W50" s="104"/>
-      <c r="X50" s="104"/>
-      <c r="Y50" s="104"/>
-      <c r="Z50" s="104"/>
-      <c r="AA50" s="104"/>
-      <c r="AB50" s="104"/>
-      <c r="AC50" s="104"/>
-      <c r="AD50" s="104"/>
-      <c r="AE50" s="104"/>
-      <c r="AF50" s="104"/>
-      <c r="AG50" s="104"/>
-      <c r="AH50" s="104"/>
-      <c r="AI50" s="104"/>
-      <c r="AJ50" s="104"/>
-      <c r="AK50" s="104"/>
-      <c r="AL50" s="104"/>
-      <c r="AM50" s="104"/>
-      <c r="AN50" s="104"/>
-      <c r="AO50" s="104"/>
-      <c r="AP50" s="104"/>
-      <c r="AQ50" s="104"/>
-      <c r="AR50" s="104"/>
-      <c r="AS50" s="104"/>
-      <c r="AT50" s="104"/>
-      <c r="AU50" s="104"/>
-      <c r="AV50" s="106"/>
-      <c r="AW50" s="107"/>
-      <c r="AX50" s="104"/>
-      <c r="AY50" s="104"/>
-      <c r="AZ50" s="106"/>
-      <c r="BA50" s="106"/>
-      <c r="BB50" s="106"/>
-      <c r="BC50" s="104"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
+      <c r="AC50" s="103"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="103"/>
+      <c r="AF50" s="103"/>
+      <c r="AG50" s="103"/>
+      <c r="AH50" s="103"/>
+      <c r="AI50" s="103"/>
+      <c r="AJ50" s="103"/>
+      <c r="AK50" s="103"/>
+      <c r="AL50" s="103"/>
+      <c r="AM50" s="103"/>
+      <c r="AN50" s="103"/>
+      <c r="AO50" s="103"/>
+      <c r="AP50" s="103"/>
+      <c r="AQ50" s="103"/>
+      <c r="AR50" s="103"/>
+      <c r="AS50" s="103"/>
+      <c r="AT50" s="103"/>
+      <c r="AU50" s="103"/>
+      <c r="AV50" s="105"/>
+      <c r="AW50" s="106"/>
+      <c r="AX50" s="103"/>
+      <c r="AY50" s="103"/>
+      <c r="AZ50" s="105"/>
+      <c r="BA50" s="105"/>
+      <c r="BB50" s="105"/>
+      <c r="BC50" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8662,20 +8824,44 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:BC27 I29:BC33 C29:F32 G29:H31 A29:B33">
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 A22:G27 J22:AI27 AK22:BC27">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:BC28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46">
+    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
+      <formula>$A32="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+      <formula>$A32="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:I28">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>$A22="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$A22="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ22:AJ28">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>$A22="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -8778,108 +8964,108 @@
       <c r="AB1">
         <v>33</v>
       </c>
-      <c r="AC1" s="92" t="s">
+      <c r="AC1" s="91" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="50" t="str">
         <f>TEXT(COUNTA(B3:B855)-$AB$1,"0")&amp;" variables"</f>
         <v>820 variables</v>
       </c>
-      <c r="C2" s="52" t="str">
+      <c r="C2" s="51" t="str">
         <f>"Total Variables Output: "&amp;SUM(D2:Z2)</f>
         <v>Total Variables Output: 373</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="52">
         <f t="shared" ref="D2:P2" si="0">COUNTA(D3:D855)-$AB$1</f>
         <v>23</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="52">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="52">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="G2" s="53">
+      <c r="G2" s="52">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H2" s="53">
+      <c r="H2" s="52">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="52">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="J2" s="53">
+      <c r="J2" s="52">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="K2" s="53">
+      <c r="K2" s="52">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="L2" s="53">
+      <c r="L2" s="52">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="52">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="N2" s="53">
+      <c r="N2" s="52">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="O2" s="53">
+      <c r="O2" s="52">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="P2" s="53">
+      <c r="P2" s="52">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="Q2" s="53">
+      <c r="Q2" s="52">
         <f>COUNTA(Q3:Q855)-$AB$1</f>
         <v>0</v>
       </c>
-      <c r="R2" s="53">
+      <c r="R2" s="52">
         <f>COUNTA(R3:R855)-$AB$1</f>
         <v>25</v>
       </c>
-      <c r="S2" s="53">
+      <c r="S2" s="52">
         <f>COUNTA(S3:S855)-$AB$1</f>
         <v>25</v>
       </c>
-      <c r="T2" s="53">
+      <c r="T2" s="52">
         <f>COUNTA(T3:T855)-$AB$1</f>
         <v>20</v>
       </c>
-      <c r="U2" s="53">
+      <c r="U2" s="52">
         <f t="shared" ref="U2:Z2" si="1">COUNTA(U3:U855)-$AB$1</f>
         <v>0</v>
       </c>
-      <c r="V2" s="53">
+      <c r="V2" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W2" s="53">
+      <c r="W2" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X2" s="53">
+      <c r="X2" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y2" s="53">
+      <c r="Y2" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z2" s="53">
+      <c r="Z2" s="52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -9549,10 +9735,10 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
-      <c r="H17" s="55"/>
+      <c r="H17" s="54"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="55"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="18" t="s">
         <v>58</v>
       </c>
@@ -9586,10 +9772,10 @@
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
-      <c r="H18" s="55"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="55"/>
+      <c r="K18" s="54"/>
       <c r="L18" s="18" t="s">
         <v>58</v>
       </c>
@@ -9624,7 +9810,7 @@
       <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="55"/>
+      <c r="K19" s="54"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -9661,7 +9847,7 @@
       </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
-      <c r="K20" s="55" t="s">
+      <c r="K20" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L20" s="18"/>
@@ -9700,7 +9886,7 @@
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="55" t="s">
+      <c r="K21" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L21" s="18"/>
@@ -9737,7 +9923,7 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="55"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -9774,7 +9960,7 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="55"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
@@ -9914,7 +10100,7 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="55"/>
+      <c r="K25" s="54"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
@@ -9951,7 +10137,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="55"/>
+      <c r="K26" s="54"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -9988,7 +10174,7 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="55"/>
+      <c r="K27" s="54"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
@@ -10023,7 +10209,7 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="55" t="s">
+      <c r="K28" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L28" s="18"/>
@@ -10060,7 +10246,7 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="55" t="s">
+      <c r="K29" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L29" s="18"/>
@@ -10097,7 +10283,7 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="55"/>
+      <c r="K30" s="54"/>
       <c r="L30" s="18" t="s">
         <v>58</v>
       </c>
@@ -10134,7 +10320,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="55"/>
+      <c r="K31" s="54"/>
       <c r="L31" s="18" t="s">
         <v>58</v>
       </c>
@@ -10204,7 +10390,7 @@
       <c r="H33" s="18"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
-      <c r="K33" s="55" t="s">
+      <c r="K33" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L33" s="18"/>
@@ -10241,7 +10427,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
-      <c r="K34" s="55" t="s">
+      <c r="K34" s="54" t="s">
         <v>58</v>
       </c>
       <c r="L34" s="18"/>
@@ -10747,7 +10933,7 @@
         <v>58</v>
       </c>
       <c r="J46" s="18"/>
-      <c r="K46" s="55"/>
+      <c r="K46" s="54"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="18"/>
@@ -10784,7 +10970,7 @@
         <v>58</v>
       </c>
       <c r="J47" s="18"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="54"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
       <c r="N47" s="18"/>
@@ -11906,7 +12092,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="57" t="s">
         <v>667</v>
       </c>
       <c r="C78" s="19"/>
@@ -11939,7 +12125,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="58" t="s">
         <v>668</v>
       </c>
       <c r="C79" s="19"/>
@@ -11972,7 +12158,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B80" s="59" t="s">
+      <c r="B80" s="58" t="s">
         <v>669</v>
       </c>
       <c r="C80" s="19"/>
@@ -12005,7 +12191,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="57" t="s">
         <v>670</v>
       </c>
       <c r="C81" s="19"/>
@@ -12038,7 +12224,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="58" t="s">
         <v>671</v>
       </c>
       <c r="C82" s="19"/>
@@ -12071,7 +12257,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="B83" s="58" t="s">
         <v>672</v>
       </c>
       <c r="C83" s="19"/>
@@ -12104,7 +12290,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B84" s="58" t="s">
+      <c r="B84" s="57" t="s">
         <v>673</v>
       </c>
       <c r="C84" s="19"/>
@@ -12137,7 +12323,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="58" t="s">
         <v>674</v>
       </c>
       <c r="C85" s="19"/>
@@ -12170,7 +12356,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B86" s="59" t="s">
+      <c r="B86" s="58" t="s">
         <v>675</v>
       </c>
       <c r="C86" s="19"/>
@@ -12203,7 +12389,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B87" s="58" t="s">
+      <c r="B87" s="57" t="s">
         <v>676</v>
       </c>
       <c r="C87" s="19"/>
@@ -12236,7 +12422,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B88" s="59" t="s">
+      <c r="B88" s="58" t="s">
         <v>677</v>
       </c>
       <c r="C88" s="19"/>
@@ -12269,7 +12455,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="58" t="s">
         <v>678</v>
       </c>
       <c r="C89" s="19"/>
@@ -12302,7 +12488,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B90" s="58" t="s">
+      <c r="B90" s="57" t="s">
         <v>679</v>
       </c>
       <c r="C90" s="19"/>
@@ -12335,7 +12521,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="58" t="s">
         <v>680</v>
       </c>
       <c r="C91" s="19"/>
@@ -12368,7 +12554,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="58" t="s">
         <v>681</v>
       </c>
       <c r="C92" s="19"/>
@@ -12401,7 +12587,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B93" s="58" t="s">
+      <c r="B93" s="57" t="s">
         <v>682</v>
       </c>
       <c r="C93" s="19"/>
@@ -12434,7 +12620,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B94" s="59" t="s">
+      <c r="B94" s="58" t="s">
         <v>683</v>
       </c>
       <c r="C94" s="19"/>
@@ -12467,7 +12653,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="58" t="s">
         <v>684</v>
       </c>
       <c r="C95" s="19"/>
@@ -12500,7 +12686,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B96" s="58" t="s">
+      <c r="B96" s="57" t="s">
         <v>685</v>
       </c>
       <c r="C96" s="19"/>
@@ -12533,7 +12719,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B97" s="59" t="s">
+      <c r="B97" s="58" t="s">
         <v>686</v>
       </c>
       <c r="C97" s="19"/>
@@ -12566,7 +12752,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B98" s="59" t="s">
+      <c r="B98" s="58" t="s">
         <v>687</v>
       </c>
       <c r="C98" s="19"/>
@@ -12599,7 +12785,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="57" t="s">
         <v>688</v>
       </c>
       <c r="C99" s="19"/>
@@ -12632,7 +12818,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B100" s="59" t="s">
+      <c r="B100" s="58" t="s">
         <v>689</v>
       </c>
       <c r="C100" s="19"/>
@@ -12665,7 +12851,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="58" t="s">
         <v>690</v>
       </c>
       <c r="C101" s="19"/>
@@ -12698,7 +12884,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B102" s="58" t="s">
+      <c r="B102" s="57" t="s">
         <v>691</v>
       </c>
       <c r="C102" s="19"/>
@@ -12731,7 +12917,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B103" s="59" t="s">
+      <c r="B103" s="58" t="s">
         <v>692</v>
       </c>
       <c r="C103" s="19"/>
@@ -12764,7 +12950,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B104" s="59" t="s">
+      <c r="B104" s="58" t="s">
         <v>693</v>
       </c>
       <c r="C104" s="19"/>
@@ -12797,7 +12983,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="57" t="s">
         <v>694</v>
       </c>
       <c r="C105" s="19"/>
@@ -12830,7 +13016,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B106" s="59" t="s">
+      <c r="B106" s="58" t="s">
         <v>695</v>
       </c>
       <c r="C106" s="19"/>
@@ -12863,7 +13049,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B107" s="59" t="s">
+      <c r="B107" s="58" t="s">
         <v>696</v>
       </c>
       <c r="C107" s="19"/>
@@ -12896,7 +13082,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B108" s="58" t="s">
+      <c r="B108" s="57" t="s">
         <v>697</v>
       </c>
       <c r="C108" s="19"/>
@@ -12929,7 +13115,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B109" s="59" t="s">
+      <c r="B109" s="58" t="s">
         <v>698</v>
       </c>
       <c r="C109" s="19"/>
@@ -12962,7 +13148,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B110" s="59" t="s">
+      <c r="B110" s="58" t="s">
         <v>699</v>
       </c>
       <c r="C110" s="19"/>
@@ -12995,7 +13181,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B111" s="58" t="s">
+      <c r="B111" s="57" t="s">
         <v>700</v>
       </c>
       <c r="C111" s="19"/>
@@ -13028,7 +13214,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B112" s="59" t="s">
+      <c r="B112" s="58" t="s">
         <v>701</v>
       </c>
       <c r="C112" s="19"/>
@@ -13061,7 +13247,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B113" s="59" t="s">
+      <c r="B113" s="58" t="s">
         <v>702</v>
       </c>
       <c r="C113" s="19"/>
@@ -13094,7 +13280,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="B114" s="58" t="s">
+      <c r="B114" s="57" t="s">
         <v>703</v>
       </c>
       <c r="C114" s="19"/>
@@ -13127,7 +13313,7 @@
         <f t="shared" ref="A115:A131" si="18">COUNTA(D115:Z115)</f>
         <v>0</v>
       </c>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="58" t="s">
         <v>704</v>
       </c>
       <c r="C115" s="19"/>
@@ -13160,7 +13346,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B116" s="59" t="s">
+      <c r="B116" s="58" t="s">
         <v>705</v>
       </c>
       <c r="C116" s="19"/>
@@ -13193,7 +13379,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B117" s="58" t="s">
+      <c r="B117" s="57" t="s">
         <v>706</v>
       </c>
       <c r="C117" s="19"/>
@@ -13226,7 +13412,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B118" s="59" t="s">
+      <c r="B118" s="58" t="s">
         <v>707</v>
       </c>
       <c r="C118" s="19"/>
@@ -13259,7 +13445,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B119" s="59" t="s">
+      <c r="B119" s="58" t="s">
         <v>708</v>
       </c>
       <c r="C119" s="19"/>
@@ -13292,7 +13478,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B120" s="58" t="s">
+      <c r="B120" s="57" t="s">
         <v>709</v>
       </c>
       <c r="C120" s="19"/>
@@ -13325,7 +13511,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B121" s="59" t="s">
+      <c r="B121" s="58" t="s">
         <v>710</v>
       </c>
       <c r="C121" s="19"/>
@@ -13358,7 +13544,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B122" s="59" t="s">
+      <c r="B122" s="58" t="s">
         <v>711</v>
       </c>
       <c r="C122" s="19"/>
@@ -13391,7 +13577,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B123" s="58" t="s">
+      <c r="B123" s="57" t="s">
         <v>712</v>
       </c>
       <c r="C123" s="19"/>
@@ -13424,7 +13610,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B124" s="59" t="s">
+      <c r="B124" s="58" t="s">
         <v>713</v>
       </c>
       <c r="C124" s="19"/>
@@ -13457,7 +13643,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B125" s="59" t="s">
+      <c r="B125" s="58" t="s">
         <v>714</v>
       </c>
       <c r="C125" s="19"/>
@@ -13490,7 +13676,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B126" s="58" t="s">
+      <c r="B126" s="57" t="s">
         <v>715</v>
       </c>
       <c r="C126" s="19"/>
@@ -13523,7 +13709,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B127" s="59" t="s">
+      <c r="B127" s="58" t="s">
         <v>716</v>
       </c>
       <c r="C127" s="19"/>
@@ -13556,7 +13742,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B128" s="59" t="s">
+      <c r="B128" s="58" t="s">
         <v>717</v>
       </c>
       <c r="C128" s="19"/>
@@ -13589,7 +13775,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="57" t="s">
         <v>718</v>
       </c>
       <c r="C129" s="19"/>
@@ -13622,7 +13808,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B130" s="59" t="s">
+      <c r="B130" s="58" t="s">
         <v>719</v>
       </c>
       <c r="C130" s="19"/>
@@ -13655,7 +13841,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="B131" s="59" t="s">
+      <c r="B131" s="58" t="s">
         <v>720</v>
       </c>
       <c r="C131" s="19"/>
@@ -17453,7 +17639,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B242" s="58" t="s">
+      <c r="B242" s="57" t="s">
         <v>775</v>
       </c>
       <c r="C242" s="19"/>
@@ -17486,7 +17672,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B243" s="59" t="s">
+      <c r="B243" s="58" t="s">
         <v>776</v>
       </c>
       <c r="C243" s="19"/>
@@ -17519,7 +17705,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B244" s="59" t="s">
+      <c r="B244" s="58" t="s">
         <v>777</v>
       </c>
       <c r="C244" s="19"/>
@@ -17552,7 +17738,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B245" s="58" t="s">
+      <c r="B245" s="57" t="s">
         <v>778</v>
       </c>
       <c r="C245" s="19"/>
@@ -17585,7 +17771,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B246" s="59" t="s">
+      <c r="B246" s="58" t="s">
         <v>779</v>
       </c>
       <c r="C246" s="19"/>
@@ -17618,7 +17804,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B247" s="59" t="s">
+      <c r="B247" s="58" t="s">
         <v>780</v>
       </c>
       <c r="C247" s="19"/>
@@ -17651,7 +17837,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B248" s="58" t="s">
+      <c r="B248" s="57" t="s">
         <v>781</v>
       </c>
       <c r="C248" s="19"/>
@@ -17684,7 +17870,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B249" s="59" t="s">
+      <c r="B249" s="58" t="s">
         <v>782</v>
       </c>
       <c r="C249" s="19"/>
@@ -17717,7 +17903,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B250" s="59" t="s">
+      <c r="B250" s="58" t="s">
         <v>783</v>
       </c>
       <c r="C250" s="19"/>
@@ -17750,7 +17936,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B251" s="58" t="s">
+      <c r="B251" s="57" t="s">
         <v>784</v>
       </c>
       <c r="C251" s="19"/>
@@ -17783,7 +17969,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B252" s="59" t="s">
+      <c r="B252" s="58" t="s">
         <v>785</v>
       </c>
       <c r="C252" s="19"/>
@@ -17816,7 +18002,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B253" s="59" t="s">
+      <c r="B253" s="58" t="s">
         <v>786</v>
       </c>
       <c r="C253" s="19"/>
@@ -17849,7 +18035,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B254" s="58" t="s">
+      <c r="B254" s="57" t="s">
         <v>787</v>
       </c>
       <c r="C254" s="19"/>
@@ -17882,7 +18068,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B255" s="59" t="s">
+      <c r="B255" s="58" t="s">
         <v>788</v>
       </c>
       <c r="C255" s="19"/>
@@ -17915,7 +18101,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B256" s="59" t="s">
+      <c r="B256" s="58" t="s">
         <v>789</v>
       </c>
       <c r="C256" s="19"/>
@@ -17948,7 +18134,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B257" s="58" t="s">
+      <c r="B257" s="57" t="s">
         <v>790</v>
       </c>
       <c r="C257" s="19"/>
@@ -17981,7 +18167,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="58" t="s">
         <v>791</v>
       </c>
       <c r="C258" s="19"/>
@@ -18014,7 +18200,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B259" s="59" t="s">
+      <c r="B259" s="58" t="s">
         <v>792</v>
       </c>
       <c r="C259" s="19"/>
@@ -18047,7 +18233,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B260" s="58" t="s">
+      <c r="B260" s="57" t="s">
         <v>793</v>
       </c>
       <c r="C260" s="19"/>
@@ -18080,7 +18266,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B261" s="59" t="s">
+      <c r="B261" s="58" t="s">
         <v>794</v>
       </c>
       <c r="C261" s="19"/>
@@ -18113,7 +18299,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B262" s="59" t="s">
+      <c r="B262" s="58" t="s">
         <v>795</v>
       </c>
       <c r="C262" s="19"/>
@@ -18146,7 +18332,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B263" s="58" t="s">
+      <c r="B263" s="57" t="s">
         <v>796</v>
       </c>
       <c r="C263" s="19"/>
@@ -18179,7 +18365,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B264" s="59" t="s">
+      <c r="B264" s="58" t="s">
         <v>797</v>
       </c>
       <c r="C264" s="19"/>
@@ -18212,7 +18398,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B265" s="59" t="s">
+      <c r="B265" s="58" t="s">
         <v>798</v>
       </c>
       <c r="C265" s="19"/>
@@ -18245,7 +18431,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B266" s="58" t="s">
+      <c r="B266" s="57" t="s">
         <v>799</v>
       </c>
       <c r="C266" s="19"/>
@@ -18278,7 +18464,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B267" s="59" t="s">
+      <c r="B267" s="58" t="s">
         <v>800</v>
       </c>
       <c r="C267" s="19"/>
@@ -18311,7 +18497,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B268" s="59" t="s">
+      <c r="B268" s="58" t="s">
         <v>801</v>
       </c>
       <c r="C268" s="19"/>
@@ -18344,7 +18530,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="B269" s="58" t="s">
+      <c r="B269" s="57" t="s">
         <v>802</v>
       </c>
       <c r="C269" s="19"/>
@@ -18379,7 +18565,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B270" s="59" t="s">
+      <c r="B270" s="58" t="s">
         <v>803</v>
       </c>
       <c r="C270" s="19"/>
@@ -18412,7 +18598,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B271" s="59" t="s">
+      <c r="B271" s="58" t="s">
         <v>804</v>
       </c>
       <c r="C271" s="19"/>
@@ -18445,7 +18631,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B272" s="58" t="s">
+      <c r="B272" s="57" t="s">
         <v>805</v>
       </c>
       <c r="C272" s="19"/>
@@ -18478,7 +18664,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="B273" s="59" t="s">
+      <c r="B273" s="58" t="s">
         <v>806</v>
       </c>
       <c r="C273" s="19"/>
@@ -18513,7 +18699,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B274" s="59" t="s">
+      <c r="B274" s="58" t="s">
         <v>807</v>
       </c>
       <c r="C274" s="19"/>
@@ -18546,7 +18732,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B275" s="58" t="s">
+      <c r="B275" s="57" t="s">
         <v>808</v>
       </c>
       <c r="C275" s="19"/>
@@ -18579,7 +18765,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B276" s="59" t="s">
+      <c r="B276" s="58" t="s">
         <v>809</v>
       </c>
       <c r="C276" s="19"/>
@@ -18612,7 +18798,7 @@
         <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="B277" s="59" t="s">
+      <c r="B277" s="58" t="s">
         <v>810</v>
       </c>
       <c r="C277" s="19"/>
@@ -18647,7 +18833,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="B278" s="58" t="s">
+      <c r="B278" s="57" t="s">
         <v>811</v>
       </c>
       <c r="C278" s="19"/>
@@ -18680,7 +18866,7 @@
         <f t="shared" ref="A279:A295" si="25">COUNTA(D279:Z279)</f>
         <v>0</v>
       </c>
-      <c r="B279" s="59" t="s">
+      <c r="B279" s="58" t="s">
         <v>812</v>
       </c>
       <c r="C279" s="19"/>
@@ -18713,7 +18899,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B280" s="59" t="s">
+      <c r="B280" s="58" t="s">
         <v>813</v>
       </c>
       <c r="C280" s="19"/>
@@ -18746,7 +18932,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B281" s="58" t="s">
+      <c r="B281" s="57" t="s">
         <v>814</v>
       </c>
       <c r="C281" s="19"/>
@@ -18779,7 +18965,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B282" s="59" t="s">
+      <c r="B282" s="58" t="s">
         <v>815</v>
       </c>
       <c r="C282" s="19"/>
@@ -18812,7 +18998,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B283" s="59" t="s">
+      <c r="B283" s="58" t="s">
         <v>816</v>
       </c>
       <c r="C283" s="19"/>
@@ -18845,7 +19031,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B284" s="58" t="s">
+      <c r="B284" s="57" t="s">
         <v>817</v>
       </c>
       <c r="C284" s="19"/>
@@ -18878,7 +19064,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B285" s="59" t="s">
+      <c r="B285" s="58" t="s">
         <v>818</v>
       </c>
       <c r="C285" s="19"/>
@@ -18911,7 +19097,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B286" s="59" t="s">
+      <c r="B286" s="58" t="s">
         <v>819</v>
       </c>
       <c r="C286" s="19"/>
@@ -18944,7 +19130,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B287" s="58" t="s">
+      <c r="B287" s="57" t="s">
         <v>820</v>
       </c>
       <c r="C287" s="19"/>
@@ -18977,7 +19163,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B288" s="59" t="s">
+      <c r="B288" s="58" t="s">
         <v>821</v>
       </c>
       <c r="C288" s="19"/>
@@ -19010,7 +19196,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B289" s="59" t="s">
+      <c r="B289" s="58" t="s">
         <v>822</v>
       </c>
       <c r="C289" s="19"/>
@@ -19043,7 +19229,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B290" s="58" t="s">
+      <c r="B290" s="57" t="s">
         <v>823</v>
       </c>
       <c r="C290" s="19"/>
@@ -19076,7 +19262,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B291" s="59" t="s">
+      <c r="B291" s="58" t="s">
         <v>824</v>
       </c>
       <c r="C291" s="19"/>
@@ -19109,7 +19295,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B292" s="59" t="s">
+      <c r="B292" s="58" t="s">
         <v>825</v>
       </c>
       <c r="C292" s="19"/>
@@ -19142,7 +19328,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B293" s="58" t="s">
+      <c r="B293" s="57" t="s">
         <v>826</v>
       </c>
       <c r="C293" s="19"/>
@@ -19175,7 +19361,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B294" s="59" t="s">
+      <c r="B294" s="58" t="s">
         <v>827</v>
       </c>
       <c r="C294" s="19"/>
@@ -19208,7 +19394,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="B295" s="59" t="s">
+      <c r="B295" s="58" t="s">
         <v>828</v>
       </c>
       <c r="C295" s="19"/>
@@ -34047,7 +34233,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B700" s="59" t="s">
+      <c r="B700" s="58" t="s">
         <v>991</v>
       </c>
       <c r="C700" s="19"/>
@@ -34080,7 +34266,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B701" s="59" t="s">
+      <c r="B701" s="58" t="s">
         <v>992</v>
       </c>
       <c r="C701" s="19"/>
@@ -34113,7 +34299,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B702" s="59" t="s">
+      <c r="B702" s="58" t="s">
         <v>993</v>
       </c>
       <c r="C702" s="19"/>
@@ -34146,7 +34332,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B703" s="59" t="s">
+      <c r="B703" s="58" t="s">
         <v>994</v>
       </c>
       <c r="C703" s="19"/>
@@ -34179,7 +34365,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B704" s="59" t="s">
+      <c r="B704" s="58" t="s">
         <v>995</v>
       </c>
       <c r="C704" s="19"/>
@@ -34212,7 +34398,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B705" s="59" t="s">
+      <c r="B705" s="58" t="s">
         <v>996</v>
       </c>
       <c r="C705" s="19"/>
@@ -34245,7 +34431,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B706" s="59" t="s">
+      <c r="B706" s="58" t="s">
         <v>997</v>
       </c>
       <c r="C706" s="19"/>
@@ -34278,7 +34464,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B707" s="59" t="s">
+      <c r="B707" s="58" t="s">
         <v>998</v>
       </c>
       <c r="C707" s="19"/>
@@ -34311,7 +34497,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B708" s="59" t="s">
+      <c r="B708" s="58" t="s">
         <v>999</v>
       </c>
       <c r="C708" s="19"/>
@@ -34344,7 +34530,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B709" s="59" t="s">
+      <c r="B709" s="58" t="s">
         <v>1000</v>
       </c>
       <c r="C709" s="19"/>
@@ -34377,7 +34563,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B710" s="59" t="s">
+      <c r="B710" s="58" t="s">
         <v>1001</v>
       </c>
       <c r="C710" s="19"/>
@@ -34410,7 +34596,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B711" s="59" t="s">
+      <c r="B711" s="58" t="s">
         <v>1002</v>
       </c>
       <c r="C711" s="19"/>
@@ -34443,7 +34629,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B712" s="59" t="s">
+      <c r="B712" s="58" t="s">
         <v>1003</v>
       </c>
       <c r="C712" s="19"/>
@@ -34476,7 +34662,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B713" s="59" t="s">
+      <c r="B713" s="58" t="s">
         <v>1004</v>
       </c>
       <c r="C713" s="19"/>
@@ -34509,7 +34695,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B714" s="59" t="s">
+      <c r="B714" s="58" t="s">
         <v>1005</v>
       </c>
       <c r="C714" s="19"/>
@@ -34542,7 +34728,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B715" s="59" t="s">
+      <c r="B715" s="58" t="s">
         <v>1006</v>
       </c>
       <c r="C715" s="19"/>
@@ -34575,7 +34761,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B716" s="59" t="s">
+      <c r="B716" s="58" t="s">
         <v>1007</v>
       </c>
       <c r="C716" s="19"/>
@@ -34608,7 +34794,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B717" s="59" t="s">
+      <c r="B717" s="58" t="s">
         <v>1008</v>
       </c>
       <c r="C717" s="19"/>
@@ -34641,7 +34827,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B718" s="59" t="s">
+      <c r="B718" s="58" t="s">
         <v>1009</v>
       </c>
       <c r="C718" s="19"/>
@@ -34674,7 +34860,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B719" s="59" t="s">
+      <c r="B719" s="58" t="s">
         <v>1010</v>
       </c>
       <c r="C719" s="19"/>
@@ -34707,7 +34893,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B720" s="59" t="s">
+      <c r="B720" s="58" t="s">
         <v>1011</v>
       </c>
       <c r="C720" s="19"/>
@@ -34740,7 +34926,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B721" s="59" t="s">
+      <c r="B721" s="58" t="s">
         <v>1012</v>
       </c>
       <c r="C721" s="19"/>
@@ -34773,7 +34959,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B722" s="59" t="s">
+      <c r="B722" s="58" t="s">
         <v>1013</v>
       </c>
       <c r="C722" s="19"/>
@@ -34806,7 +34992,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B723" s="59" t="s">
+      <c r="B723" s="58" t="s">
         <v>1014</v>
       </c>
       <c r="C723" s="19"/>
@@ -34839,7 +35025,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B724" s="59" t="s">
+      <c r="B724" s="58" t="s">
         <v>1015</v>
       </c>
       <c r="C724" s="19"/>
@@ -34872,7 +35058,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B725" s="59" t="s">
+      <c r="B725" s="58" t="s">
         <v>1016</v>
       </c>
       <c r="C725" s="19"/>
@@ -34905,7 +35091,7 @@
         <f t="shared" si="64"/>
         <v>0</v>
       </c>
-      <c r="B726" s="59" t="s">
+      <c r="B726" s="58" t="s">
         <v>1017</v>
       </c>
       <c r="C726" s="19"/>
@@ -40120,31 +40306,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -3253,9 +3253,6 @@
     <t>ITI Barge</t>
   </si>
   <si>
-    <t>Floating TLP</t>
-  </si>
-  <si>
     <t>Test 24</t>
   </si>
   <si>
@@ -3274,9 +3271,6 @@
     <t>OC4 Jacket</t>
   </si>
   <si>
-    <t>Semi</t>
-  </si>
-  <si>
     <t>Test 25</t>
   </si>
   <si>
@@ -3293,6 +3287,12 @@
   </si>
   <si>
     <t>Feature not (yet) in FAST v8</t>
+  </si>
+  <si>
+    <t>OC4 DeepCwind Semi</t>
+  </si>
+  <si>
+    <t>MIT-NREL TLP</t>
   </si>
 </sst>
 </file>
@@ -3949,7 +3949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4243,9 +4243,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="39" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4253,6 +4250,34 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4310,124 +4335,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4496,6 +4409,48 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4831,7 +4786,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AJ22" sqref="AJ22:AJ28"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4871,74 +4826,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="117" t="s">
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="126" t="s">
         <v>1063</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="120" t="s">
+      <c r="J2" s="127"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="122"/>
-      <c r="AK2" s="114" t="s">
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="128"/>
-      <c r="AM2" s="128"/>
-      <c r="AN2" s="128"/>
-      <c r="AO2" s="128"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="114" t="s">
+      <c r="AL2" s="137"/>
+      <c r="AM2" s="137"/>
+      <c r="AN2" s="137"/>
+      <c r="AO2" s="137"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="123" t="s">
         <v>1062</v>
       </c>
-      <c r="AR2" s="115"/>
-      <c r="AS2" s="115"/>
-      <c r="AT2" s="116"/>
-      <c r="AU2" s="123" t="s">
+      <c r="AR2" s="124"/>
+      <c r="AS2" s="124"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="124"/>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="117" t="s">
+      <c r="AV2" s="133"/>
+      <c r="AW2" s="133"/>
+      <c r="AX2" s="134"/>
+      <c r="AY2" s="126" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="119"/>
+      <c r="AZ2" s="127"/>
+      <c r="BA2" s="127"/>
+      <c r="BB2" s="127"/>
+      <c r="BC2" s="128"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5019,10 +4974,10 @@
       <c r="Z3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="107" t="s">
+      <c r="AA3" s="83" t="s">
         <v>307</v>
       </c>
-      <c r="AB3" s="107" t="s">
+      <c r="AB3" s="83" t="s">
         <v>308</v>
       </c>
       <c r="AC3" s="83" t="s">
@@ -5121,10 +5076,10 @@
       <c r="G4" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="130" t="s">
+      <c r="I4" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="36">
@@ -5178,10 +5133,10 @@
       <c r="Z4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="137" t="s">
+      <c r="AA4" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="137" t="s">
+      <c r="AB4" s="117" t="s">
         <v>29</v>
       </c>
       <c r="AC4" s="32" t="s">
@@ -5205,7 +5160,7 @@
       <c r="AI4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="138" t="s">
+      <c r="AJ4" s="118" t="s">
         <v>29</v>
       </c>
       <c r="AK4" s="34" t="s">
@@ -5281,10 +5236,10 @@
       <c r="G5" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="109" t="s">
+      <c r="H5" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="131" t="s">
+      <c r="I5" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="43">
@@ -5299,7 +5254,7 @@
       <c r="M5" s="25">
         <v>2</v>
       </c>
-      <c r="N5" s="108" t="s">
+      <c r="N5" s="107" t="s">
         <v>32</v>
       </c>
       <c r="O5" s="25" t="s">
@@ -5308,7 +5263,7 @@
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="108" t="s">
+      <c r="Q5" s="107" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -5338,10 +5293,10 @@
       <c r="Z5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA5" s="108" t="s">
+      <c r="AA5" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="108" t="s">
+      <c r="AB5" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC5" s="25" t="s">
@@ -5365,7 +5320,7 @@
       <c r="AI5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="139" t="s">
+      <c r="AJ5" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK5" s="43" t="s">
@@ -5441,10 +5396,10 @@
       <c r="G6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="131" t="s">
+      <c r="I6" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="43">
@@ -5498,10 +5453,10 @@
       <c r="Z6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="108" t="s">
+      <c r="AA6" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="108" t="s">
+      <c r="AB6" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC6" s="25" t="s">
@@ -5525,7 +5480,7 @@
       <c r="AI6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="139" t="s">
+      <c r="AJ6" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK6" s="43" t="s">
@@ -5601,10 +5556,10 @@
       <c r="G7" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="131" t="s">
+      <c r="I7" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="43">
@@ -5658,10 +5613,10 @@
       <c r="Z7" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA7" s="108" t="s">
+      <c r="AA7" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="108" t="s">
+      <c r="AB7" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC7" s="25" t="s">
@@ -5685,7 +5640,7 @@
       <c r="AI7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ7" s="139" t="s">
+      <c r="AJ7" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK7" s="43" t="s">
@@ -5761,10 +5716,10 @@
       <c r="G8" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="131" t="s">
+      <c r="I8" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="43">
@@ -5779,7 +5734,7 @@
       <c r="M8" s="25">
         <v>2</v>
       </c>
-      <c r="N8" s="108" t="s">
+      <c r="N8" s="107" t="s">
         <v>32</v>
       </c>
       <c r="O8" s="25" t="s">
@@ -5791,7 +5746,7 @@
       <c r="Q8" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="108" t="s">
+      <c r="R8" s="107" t="s">
         <v>32</v>
       </c>
       <c r="S8" s="41" t="s">
@@ -5818,10 +5773,10 @@
       <c r="Z8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA8" s="108" t="s">
+      <c r="AA8" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB8" s="108" t="s">
+      <c r="AB8" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC8" s="25" t="s">
@@ -5845,7 +5800,7 @@
       <c r="AI8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="139" t="s">
+      <c r="AJ8" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK8" s="43" t="s">
@@ -5922,10 +5877,10 @@
       <c r="G9" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="131" t="s">
+      <c r="I9" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="43">
@@ -5940,7 +5895,7 @@
       <c r="M9" s="25">
         <v>2</v>
       </c>
-      <c r="N9" s="108" t="s">
+      <c r="N9" s="107" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="25" t="s">
@@ -5952,7 +5907,7 @@
       <c r="Q9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="108" t="s">
+      <c r="R9" s="107" t="s">
         <v>32</v>
       </c>
       <c r="S9" s="41" t="s">
@@ -5979,10 +5934,10 @@
       <c r="Z9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="108" t="s">
+      <c r="AA9" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB9" s="108" t="s">
+      <c r="AB9" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC9" s="25" t="s">
@@ -6006,7 +5961,7 @@
       <c r="AI9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ9" s="139" t="s">
+      <c r="AJ9" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK9" s="43" t="s">
@@ -6083,10 +6038,10 @@
       <c r="G10" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="132" t="s">
+      <c r="H10" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="131" t="s">
+      <c r="I10" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="43">
@@ -6140,10 +6095,10 @@
       <c r="Z10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="108" t="s">
+      <c r="AA10" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB10" s="108" t="s">
+      <c r="AB10" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC10" s="25" t="s">
@@ -6167,7 +6122,7 @@
       <c r="AI10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ10" s="139" t="s">
+      <c r="AJ10" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK10" s="43" t="s">
@@ -6244,10 +6199,10 @@
       <c r="G11" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="131" t="s">
+      <c r="I11" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="43">
@@ -6301,10 +6256,10 @@
       <c r="Z11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA11" s="108" t="s">
+      <c r="AA11" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB11" s="108" t="s">
+      <c r="AB11" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC11" s="25" t="s">
@@ -6328,7 +6283,7 @@
       <c r="AI11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="139" t="s">
+      <c r="AJ11" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK11" s="43" t="s">
@@ -6404,10 +6359,10 @@
       <c r="G12" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="131" t="s">
+      <c r="I12" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="43">
@@ -6461,10 +6416,10 @@
       <c r="Z12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="108" t="s">
+      <c r="AA12" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="108" t="s">
+      <c r="AB12" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC12" s="25" t="s">
@@ -6488,7 +6443,7 @@
       <c r="AI12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="139" t="s">
+      <c r="AJ12" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK12" s="43" t="s">
@@ -6564,10 +6519,10 @@
       <c r="G13" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="H13" s="132" t="s">
+      <c r="H13" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="131" t="s">
+      <c r="I13" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="43">
@@ -6621,10 +6576,10 @@
       <c r="Z13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA13" s="108" t="s">
+      <c r="AA13" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" s="108" t="s">
+      <c r="AB13" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC13" s="25" t="s">
@@ -6648,7 +6603,7 @@
       <c r="AI13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ13" s="139" t="s">
+      <c r="AJ13" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK13" s="43" t="s">
@@ -6724,10 +6679,10 @@
       <c r="G14" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="132" t="s">
+      <c r="H14" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="131" t="s">
+      <c r="I14" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="43">
@@ -6781,10 +6736,10 @@
       <c r="Z14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA14" s="108" t="s">
+      <c r="AA14" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="108" t="s">
+      <c r="AB14" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC14" s="25" t="s">
@@ -6808,7 +6763,7 @@
       <c r="AI14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ14" s="139" t="s">
+      <c r="AJ14" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK14" s="43" t="s">
@@ -6884,10 +6839,10 @@
       <c r="G15" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="H15" s="132" t="s">
+      <c r="H15" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="131" t="s">
+      <c r="I15" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="43">
@@ -6941,10 +6896,10 @@
       <c r="Z15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="108" t="s">
+      <c r="AA15" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB15" s="108" t="s">
+      <c r="AB15" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC15" s="25" t="s">
@@ -6968,7 +6923,7 @@
       <c r="AI15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ15" s="139" t="s">
+      <c r="AJ15" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK15" s="43" t="s">
@@ -7044,10 +6999,10 @@
       <c r="G16" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="132" t="s">
+      <c r="H16" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="131" t="s">
+      <c r="I16" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="43">
@@ -7101,10 +7056,10 @@
       <c r="Z16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA16" s="108" t="s">
+      <c r="AA16" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB16" s="108" t="s">
+      <c r="AB16" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC16" s="25" t="s">
@@ -7128,7 +7083,7 @@
       <c r="AI16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="139" t="s">
+      <c r="AJ16" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK16" s="43" t="s">
@@ -7201,13 +7156,13 @@
       <c r="F17" s="25">
         <v>1500</v>
       </c>
-      <c r="G17" s="110" t="s">
+      <c r="G17" s="109" t="s">
         <v>501</v>
       </c>
-      <c r="H17" s="109" t="s">
+      <c r="H17" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="131" t="s">
+      <c r="I17" s="111" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="43">
@@ -7261,10 +7216,10 @@
       <c r="Z17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AA17" s="108" t="s">
+      <c r="AA17" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB17" s="108" t="s">
+      <c r="AB17" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC17" s="25" t="s">
@@ -7288,7 +7243,7 @@
       <c r="AI17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AJ17" s="139" t="s">
+      <c r="AJ17" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK17" s="43" t="s">
@@ -7364,10 +7319,10 @@
       <c r="G18" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="H18" s="132" t="s">
+      <c r="H18" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="131" t="s">
+      <c r="I18" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="43">
@@ -7421,10 +7376,10 @@
       <c r="Z18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA18" s="108" t="s">
+      <c r="AA18" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB18" s="108" t="s">
+      <c r="AB18" s="107" t="s">
         <v>28</v>
       </c>
       <c r="AC18" s="25" t="s">
@@ -7448,7 +7403,7 @@
       <c r="AI18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ18" s="139" t="s">
+      <c r="AJ18" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK18" s="43" t="s">
@@ -7524,10 +7479,10 @@
       <c r="G19" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="132" t="s">
+      <c r="H19" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="131" t="s">
+      <c r="I19" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="43">
@@ -7581,10 +7536,10 @@
       <c r="Z19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA19" s="108" t="s">
+      <c r="AA19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="108" t="s">
+      <c r="AB19" s="107" t="s">
         <v>28</v>
       </c>
       <c r="AC19" s="25" t="s">
@@ -7608,7 +7563,7 @@
       <c r="AI19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ19" s="139" t="s">
+      <c r="AJ19" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK19" s="43" t="s">
@@ -7684,10 +7639,10 @@
       <c r="G20" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="H20" s="132" t="s">
+      <c r="H20" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="131" t="s">
+      <c r="I20" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="43">
@@ -7741,10 +7696,10 @@
       <c r="Z20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="108" t="s">
+      <c r="AA20" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB20" s="108" t="s">
+      <c r="AB20" s="107" t="s">
         <v>28</v>
       </c>
       <c r="AC20" s="25" t="s">
@@ -7768,7 +7723,7 @@
       <c r="AI20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ20" s="139" t="s">
+      <c r="AJ20" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK20" s="43" t="s">
@@ -7840,12 +7795,12 @@
         <v>5000</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H21" s="133" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H21" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="131" t="s">
+      <c r="I21" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="43">
@@ -7899,10 +7854,10 @@
       <c r="Z21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AA21" s="108" t="s">
+      <c r="AA21" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="108" t="s">
+      <c r="AB21" s="107" t="s">
         <v>29</v>
       </c>
       <c r="AC21" s="25" t="s">
@@ -7926,7 +7881,7 @@
       <c r="AI21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ21" s="139" t="s">
+      <c r="AJ21" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK21" s="43" t="s">
@@ -7983,12 +7938,12 @@
         <v>5000</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H22" s="133" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H22" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="131" t="s">
+      <c r="I22" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="43"/>
@@ -8023,7 +7978,7 @@
         <v>28</v>
       </c>
       <c r="AI22" s="25"/>
-      <c r="AJ22" s="139" t="s">
+      <c r="AJ22" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK22" s="43"/>
@@ -8053,7 +8008,7 @@
     <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C23" s="25" t="s">
         <v>1061</v>
@@ -8068,12 +8023,12 @@
         <v>5000</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>1078</v>
-      </c>
-      <c r="H23" s="133" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H23" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="131" t="s">
+      <c r="I23" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="43"/>
@@ -8108,7 +8063,7 @@
         <v>28</v>
       </c>
       <c r="AI23" s="25"/>
-      <c r="AJ23" s="139" t="s">
+      <c r="AJ23" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK23" s="43"/>
@@ -8134,7 +8089,7 @@
     <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>1061</v>
@@ -8149,12 +8104,12 @@
         <v>5000</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>1074</v>
-      </c>
-      <c r="H24" s="133" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H24" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="131" t="s">
+      <c r="I24" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="43"/>
@@ -8189,7 +8144,7 @@
         <v>28</v>
       </c>
       <c r="AI24" s="25"/>
-      <c r="AJ24" s="139" t="s">
+      <c r="AJ24" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK24" s="43"/>
@@ -8215,7 +8170,7 @@
     <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C25" s="25" t="s">
         <v>1061</v>
@@ -8232,10 +8187,10 @@
       <c r="G25" s="39" t="s">
         <v>1067</v>
       </c>
-      <c r="H25" s="133" t="s">
+      <c r="H25" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I25" s="131" t="s">
+      <c r="I25" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="43"/>
@@ -8270,7 +8225,7 @@
         <v>28</v>
       </c>
       <c r="AI25" s="25"/>
-      <c r="AJ25" s="139" t="s">
+      <c r="AJ25" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK25" s="43"/>
@@ -8300,7 +8255,7 @@
     <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>1061</v>
@@ -8315,12 +8270,12 @@
         <v>5000</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H26" s="133" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H26" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="131" t="s">
+      <c r="I26" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="43"/>
@@ -8355,7 +8310,7 @@
         <v>28</v>
       </c>
       <c r="AI26" s="25"/>
-      <c r="AJ26" s="139" t="s">
+      <c r="AJ26" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK26" s="43"/>
@@ -8385,7 +8340,7 @@
     <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C27" s="25" t="s">
         <v>1061</v>
@@ -8400,12 +8355,12 @@
         <v>5000</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H27" s="133" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H27" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="131" t="s">
+      <c r="I27" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="43"/>
@@ -8440,7 +8395,7 @@
         <v>28</v>
       </c>
       <c r="AI27" s="25"/>
-      <c r="AJ27" s="139" t="s">
+      <c r="AJ27" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK27" s="43"/>
@@ -8470,7 +8425,7 @@
     <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C28" s="25" t="s">
         <v>1061</v>
@@ -8485,12 +8440,12 @@
         <v>5000</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H28" s="133" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H28" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="131" t="s">
+      <c r="I28" s="111" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="43"/>
@@ -8525,7 +8480,7 @@
         <v>28</v>
       </c>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="139" t="s">
+      <c r="AJ28" s="119" t="s">
         <v>29</v>
       </c>
       <c r="AK28" s="43"/>
@@ -8735,14 +8690,14 @@
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="135" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="136"/>
+      <c r="B46" s="115" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C46" s="114"/>
+      <c r="D46" s="114"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
+      <c r="G46" s="116"/>
       <c r="H46" s="11"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
@@ -8825,42 +8780,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 A22:G27 J22:AI27 AK22:BC27">
-    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="11" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40306,31 +40261,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -7,42 +7,44 @@
     <workbookView xWindow="5955" yWindow="2790" windowWidth="15180" windowHeight="8715" tabRatio="712"/>
   </bookViews>
   <sheets>
-    <sheet name="TestMatrix" sheetId="1" r:id="rId1"/>
-    <sheet name="Variables" sheetId="2" r:id="rId2"/>
+    <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
+    <sheet name="TestMatrix" sheetId="1" r:id="rId2"/>
+    <sheet name="Variables" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_ftn1" localSheetId="1">Variables!#REF!</definedName>
-    <definedName name="_ftnref1" localSheetId="1">Variables!$B$672</definedName>
-    <definedName name="_Toc46290850" localSheetId="1">Variables!$B$3</definedName>
-    <definedName name="_Toc46290851" localSheetId="1">Variables!$B$11</definedName>
-    <definedName name="_Toc46290852" localSheetId="1">Variables!$B$24</definedName>
-    <definedName name="_Toc46290853" localSheetId="1">Variables!$B$37</definedName>
-    <definedName name="_Toc46290854" localSheetId="1">Variables!$B$50</definedName>
-    <definedName name="_Toc46290855" localSheetId="1">Variables!$B$214</definedName>
-    <definedName name="_Toc46290856" localSheetId="1">Variables!$B$300</definedName>
-    <definedName name="_Toc46290857" localSheetId="1">Variables!$B$304</definedName>
-    <definedName name="_Toc46290858" localSheetId="1">Variables!$B$327</definedName>
-    <definedName name="_Toc46290859" localSheetId="1">Variables!$B$335</definedName>
-    <definedName name="_Toc46290860" localSheetId="1">Variables!$B$354</definedName>
-    <definedName name="_Toc46290861" localSheetId="1">Variables!$B$529</definedName>
-    <definedName name="_Toc46290862" localSheetId="1">Variables!$B$540</definedName>
-    <definedName name="_Toc46290863" localSheetId="1">Variables!$B$551</definedName>
-    <definedName name="_Toc46290864" localSheetId="1">Variables!$B$672</definedName>
-    <definedName name="_Toc46290865" localSheetId="1">Variables!$B$727</definedName>
-    <definedName name="_Toc46290866" localSheetId="1">Variables!$B$744</definedName>
-    <definedName name="_Toc46290867" localSheetId="1">Variables!$B$749</definedName>
-    <definedName name="_Toc46290868" localSheetId="1">Variables!$B$759</definedName>
-    <definedName name="_Toc46290869" localSheetId="1">Variables!$B$770</definedName>
-    <definedName name="_Toc46290870" localSheetId="1">Variables!$B$781</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Variables!$B$1:$P$855</definedName>
+    <definedName name="_ftn1" localSheetId="2">Variables!#REF!</definedName>
+    <definedName name="_ftnref1" localSheetId="2">Variables!$B$672</definedName>
+    <definedName name="_Toc46290850" localSheetId="2">Variables!$B$3</definedName>
+    <definedName name="_Toc46290851" localSheetId="2">Variables!$B$11</definedName>
+    <definedName name="_Toc46290852" localSheetId="2">Variables!$B$24</definedName>
+    <definedName name="_Toc46290853" localSheetId="2">Variables!$B$37</definedName>
+    <definedName name="_Toc46290854" localSheetId="2">Variables!$B$50</definedName>
+    <definedName name="_Toc46290855" localSheetId="2">Variables!$B$214</definedName>
+    <definedName name="_Toc46290856" localSheetId="2">Variables!$B$300</definedName>
+    <definedName name="_Toc46290857" localSheetId="2">Variables!$B$304</definedName>
+    <definedName name="_Toc46290858" localSheetId="2">Variables!$B$327</definedName>
+    <definedName name="_Toc46290859" localSheetId="2">Variables!$B$335</definedName>
+    <definedName name="_Toc46290860" localSheetId="2">Variables!$B$354</definedName>
+    <definedName name="_Toc46290861" localSheetId="2">Variables!$B$529</definedName>
+    <definedName name="_Toc46290862" localSheetId="2">Variables!$B$540</definedName>
+    <definedName name="_Toc46290863" localSheetId="2">Variables!$B$551</definedName>
+    <definedName name="_Toc46290864" localSheetId="2">Variables!$B$672</definedName>
+    <definedName name="_Toc46290865" localSheetId="2">Variables!$B$727</definedName>
+    <definedName name="_Toc46290866" localSheetId="2">Variables!$B$744</definedName>
+    <definedName name="_Toc46290867" localSheetId="2">Variables!$B$749</definedName>
+    <definedName name="_Toc46290868" localSheetId="2">Variables!$B$759</definedName>
+    <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
+    <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BH$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1107">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3232,9 +3234,6 @@
     <t>Test18</t>
   </si>
   <si>
-    <t>NREL 5 MW</t>
-  </si>
-  <si>
     <t>HydroDynamics</t>
   </si>
   <si>
@@ -3293,6 +3292,84 @@
   </si>
   <si>
     <t>MIT-NREL TLP</t>
+  </si>
+  <si>
+    <t>NREL 5 MW Onshore</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC3 Monopile</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC3 Tripod</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC4 Jacket</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - ITI Barge</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - MIT-NREL TLP</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC3 Hywind</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC4 DeepCwind Semi</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - Land-based</t>
+  </si>
+  <si>
+    <t>TMax</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>InterpOrder</t>
+  </si>
+  <si>
+    <t>NumCrctn</t>
+  </si>
+  <si>
+    <t>DT_UJac</t>
+  </si>
+  <si>
+    <t>DT_Out</t>
+  </si>
+  <si>
+    <t>OutFileFmt</t>
+  </si>
+  <si>
+    <t>CompElast</t>
+  </si>
+  <si>
+    <t>CompServo</t>
+  </si>
+  <si>
+    <t>CompSub</t>
+  </si>
+  <si>
+    <t>CompMooring</t>
+  </si>
+  <si>
+    <t>CompIce</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Tstart</t>
+  </si>
+  <si>
+    <t>Glue-Code Options</t>
+  </si>
+  <si>
+    <t>Flexible, tip-brake shutdown, steady wind</t>
+  </si>
+  <si>
+    <t>NREL 5 MW - OC4-DeepCwind Semi-Submersible</t>
   </si>
 </sst>
 </file>
@@ -3323,7 +3400,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3389,8 +3466,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -3944,12 +4027,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4335,12 +4431,92 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="53">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4409,6 +4585,258 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -4777,26 +5205,4534 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BC50"/>
+  <dimension ref="A1:BM30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="2" customWidth="1"/>
+    <col min="13" max="18" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
+    <col min="28" max="28" width="4.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="3.28515625" style="2" customWidth="1"/>
+    <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="44" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.85546875" style="2" customWidth="1"/>
+    <col min="46" max="46" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.5703125" style="2" customWidth="1"/>
+    <col min="48" max="57" width="4.85546875" style="2" customWidth="1"/>
+    <col min="58" max="58" width="4.85546875" style="45" customWidth="1"/>
+    <col min="59" max="59" width="4.85546875" style="9" customWidth="1"/>
+    <col min="60" max="61" width="4.85546875" style="2" customWidth="1"/>
+    <col min="62" max="63" width="4.85546875" style="45" customWidth="1"/>
+    <col min="64" max="64" width="6.7109375" style="45" customWidth="1"/>
+    <col min="65" max="65" width="4.85546875" style="2" customWidth="1"/>
+    <col min="66" max="66" width="4.42578125" customWidth="1"/>
+    <col min="67" max="67" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="161" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="144"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="136"/>
+      <c r="AH2" s="129" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130"/>
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV2" s="137"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="137"/>
+      <c r="AY2" s="137"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="123" t="s">
+        <v>1061</v>
+      </c>
+      <c r="BB2" s="124"/>
+      <c r="BC2" s="124"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="132" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF2" s="133"/>
+      <c r="BG2" s="133"/>
+      <c r="BH2" s="134"/>
+      <c r="BI2" s="126" t="s">
+        <v>1047</v>
+      </c>
+      <c r="BJ2" s="127"/>
+      <c r="BK2" s="127"/>
+      <c r="BL2" s="127"/>
+      <c r="BM2" s="128"/>
+    </row>
+    <row r="3" spans="1:65" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="164" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="162" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I3" s="145" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J3" s="145" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K3" s="145" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L3" s="145" t="s">
+        <v>1094</v>
+      </c>
+      <c r="M3" s="145" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N3" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="145" t="s">
+        <v>1098</v>
+      </c>
+      <c r="P3" s="145" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q3" s="145" t="s">
+        <v>1099</v>
+      </c>
+      <c r="R3" s="145" t="s">
+        <v>1100</v>
+      </c>
+      <c r="S3" s="145" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T3" s="146" t="s">
+        <v>1095</v>
+      </c>
+      <c r="U3" s="146" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V3" s="147" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W3" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD3" s="94" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AE3" s="94" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AF3" s="92" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AG3" s="93" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AH3" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI3" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO3" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP3" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ3" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR3" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS3" s="101" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AT3" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU3" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV3" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW3" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX3" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY3" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ3" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA3" s="97"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG3" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH3" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI3" s="66" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BJ3" s="69" t="s">
+        <v>1046</v>
+      </c>
+      <c r="BK3" s="70" t="s">
+        <v>1051</v>
+      </c>
+      <c r="BL3" s="70" t="s">
+        <v>1054</v>
+      </c>
+      <c r="BM3" s="68" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
+      <c r="B4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="29">
+        <v>2</v>
+      </c>
+      <c r="E4" s="55">
+        <v>27</v>
+      </c>
+      <c r="F4" s="55">
+        <v>175</v>
+      </c>
+      <c r="G4" s="165" t="s">
+        <v>497</v>
+      </c>
+      <c r="H4" s="163">
+        <v>20</v>
+      </c>
+      <c r="I4" s="139">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="29">
+        <v>1</v>
+      </c>
+      <c r="K4" s="25">
+        <v>0</v>
+      </c>
+      <c r="L4" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M4" s="25">
+        <v>1</v>
+      </c>
+      <c r="N4" s="25">
+        <v>1</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="25">
+        <v>0</v>
+      </c>
+      <c r="R4" s="25">
+        <v>0</v>
+      </c>
+      <c r="S4" s="25">
+        <v>0</v>
+      </c>
+      <c r="T4" s="139">
+        <v>0.02</v>
+      </c>
+      <c r="U4" s="29">
+        <v>10</v>
+      </c>
+      <c r="V4" s="38">
+        <v>1</v>
+      </c>
+      <c r="W4" s="36">
+        <v>0</v>
+      </c>
+      <c r="X4" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS4" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU4" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW4" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF4" s="46">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="BH4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="55">
+        <v>3</v>
+      </c>
+      <c r="BK4" s="62">
+        <f>Variables!D2</f>
+        <v>23</v>
+      </c>
+      <c r="BL4" s="62" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM4" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
+      <c r="B5" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="29">
+        <v>2</v>
+      </c>
+      <c r="E5" s="55">
+        <v>27</v>
+      </c>
+      <c r="F5" s="55">
+        <v>175</v>
+      </c>
+      <c r="G5" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="H5" s="40">
+        <v>20</v>
+      </c>
+      <c r="I5" s="140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
+      <c r="K5" s="25">
+        <v>0</v>
+      </c>
+      <c r="L5" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M5" s="25">
+        <v>1</v>
+      </c>
+      <c r="N5" s="25">
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>0</v>
+      </c>
+      <c r="R5" s="25">
+        <v>0</v>
+      </c>
+      <c r="S5" s="25">
+        <v>0</v>
+      </c>
+      <c r="T5" s="148">
+        <v>0.04</v>
+      </c>
+      <c r="U5" s="142">
+        <v>5</v>
+      </c>
+      <c r="V5" s="38">
+        <v>3</v>
+      </c>
+      <c r="W5" s="43">
+        <v>0</v>
+      </c>
+      <c r="X5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS5" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU5" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA5" s="99"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF5" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="56">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="63">
+        <f>Variables!E2</f>
+        <v>22</v>
+      </c>
+      <c r="BL5" s="63" t="s">
+        <v>1049</v>
+      </c>
+      <c r="BM5" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
+      <c r="B6" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="29">
+        <v>2</v>
+      </c>
+      <c r="E6" s="55">
+        <v>27</v>
+      </c>
+      <c r="F6" s="55">
+        <v>175</v>
+      </c>
+      <c r="G6" s="166" t="s">
+        <v>491</v>
+      </c>
+      <c r="H6" s="40">
+        <v>20</v>
+      </c>
+      <c r="I6" s="140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="25">
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M6" s="25">
+        <v>1</v>
+      </c>
+      <c r="N6" s="25">
+        <v>1</v>
+      </c>
+      <c r="O6" s="25">
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>0</v>
+      </c>
+      <c r="R6" s="25">
+        <v>0</v>
+      </c>
+      <c r="S6" s="25">
+        <v>0</v>
+      </c>
+      <c r="T6" s="148">
+        <v>0.02</v>
+      </c>
+      <c r="U6" s="142">
+        <v>10</v>
+      </c>
+      <c r="V6" s="38">
+        <v>1</v>
+      </c>
+      <c r="W6" s="43">
+        <v>0</v>
+      </c>
+      <c r="X6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV6" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA6" s="99"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF6" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG6" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK6" s="63">
+        <f>Variables!F$2</f>
+        <v>23</v>
+      </c>
+      <c r="BL6" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM6" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="29">
+        <v>2</v>
+      </c>
+      <c r="E7" s="55">
+        <v>27</v>
+      </c>
+      <c r="F7" s="55">
+        <v>175</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>492</v>
+      </c>
+      <c r="H7" s="40">
+        <v>70</v>
+      </c>
+      <c r="I7" s="140">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="25">
+        <v>2</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0</v>
+      </c>
+      <c r="L7" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M7" s="25">
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <v>1</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>0</v>
+      </c>
+      <c r="R7" s="25">
+        <v>0</v>
+      </c>
+      <c r="S7" s="25">
+        <v>0</v>
+      </c>
+      <c r="T7" s="148">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="U7" s="142">
+        <v>10</v>
+      </c>
+      <c r="V7" s="38">
+        <v>2</v>
+      </c>
+      <c r="W7" s="43">
+        <v>0</v>
+      </c>
+      <c r="X7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE7" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS7" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW7" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA7" s="99"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF7" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG7" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="56">
+        <v>5</v>
+      </c>
+      <c r="BK7" s="63">
+        <f>Variables!F$2</f>
+        <v>23</v>
+      </c>
+      <c r="BL7" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM7" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="29">
+        <v>2</v>
+      </c>
+      <c r="E8" s="55">
+        <v>27</v>
+      </c>
+      <c r="F8" s="55">
+        <v>175</v>
+      </c>
+      <c r="G8" s="166" t="s">
+        <v>499</v>
+      </c>
+      <c r="H8" s="40">
+        <v>30</v>
+      </c>
+      <c r="I8" s="140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="25">
+        <v>2</v>
+      </c>
+      <c r="K8" s="25">
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M8" s="25">
+        <v>1</v>
+      </c>
+      <c r="N8" s="25">
+        <v>1</v>
+      </c>
+      <c r="O8" s="25">
+        <v>1</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="148">
+        <v>0.04</v>
+      </c>
+      <c r="U8" s="142">
+        <v>5</v>
+      </c>
+      <c r="V8" s="38">
+        <v>1</v>
+      </c>
+      <c r="W8" s="43">
+        <v>0</v>
+      </c>
+      <c r="X8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="25">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE8" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW8" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA8" s="99"/>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="41"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF8" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK8" s="63">
+        <f>Variables!G$2</f>
+        <v>24</v>
+      </c>
+      <c r="BL8" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM8" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
+      <c r="E9" s="56">
+        <f>7.49*2</f>
+        <v>14.98</v>
+      </c>
+      <c r="F9" s="25">
+        <v>50</v>
+      </c>
+      <c r="G9" s="166" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H9" s="40">
+        <v>35</v>
+      </c>
+      <c r="I9" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M9" s="25">
+        <v>1</v>
+      </c>
+      <c r="N9" s="25">
+        <v>1</v>
+      </c>
+      <c r="O9" s="25">
+        <v>1</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0</v>
+      </c>
+      <c r="R9" s="25">
+        <v>0</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0</v>
+      </c>
+      <c r="T9" s="148">
+        <v>0.05</v>
+      </c>
+      <c r="U9" s="142">
+        <v>5</v>
+      </c>
+      <c r="V9" s="38">
+        <v>1</v>
+      </c>
+      <c r="W9" s="43">
+        <v>0</v>
+      </c>
+      <c r="X9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB9" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE9" s="107" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU9" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA9" s="99"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF9" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="56">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="63">
+        <f>Variables!H$2</f>
+        <v>22</v>
+      </c>
+      <c r="BL9" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM9" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="56">
+        <f>7.49*2</f>
+        <v>14.98</v>
+      </c>
+      <c r="F10" s="25">
+        <v>50</v>
+      </c>
+      <c r="G10" s="166" t="s">
+        <v>492</v>
+      </c>
+      <c r="H10" s="40">
+        <v>70</v>
+      </c>
+      <c r="I10" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="25">
+        <v>2</v>
+      </c>
+      <c r="K10" s="25">
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M10" s="25">
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <v>1</v>
+      </c>
+      <c r="P10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25">
+        <v>0</v>
+      </c>
+      <c r="S10" s="25">
+        <v>0</v>
+      </c>
+      <c r="T10" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U10" s="25">
+        <v>10</v>
+      </c>
+      <c r="V10" s="38">
+        <v>1</v>
+      </c>
+      <c r="W10" s="43">
+        <v>0</v>
+      </c>
+      <c r="X10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU10" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA10" s="99"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF10" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH10" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="56">
+        <v>3</v>
+      </c>
+      <c r="BK10" s="63">
+        <f>Variables!I$2</f>
+        <v>24</v>
+      </c>
+      <c r="BL10" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM10" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="25">
+        <v>3</v>
+      </c>
+      <c r="E11" s="56">
+        <f>7.49*2</f>
+        <v>14.98</v>
+      </c>
+      <c r="F11" s="25">
+        <v>50</v>
+      </c>
+      <c r="G11" s="165" t="s">
+        <v>497</v>
+      </c>
+      <c r="H11" s="40">
+        <v>20</v>
+      </c>
+      <c r="I11" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="25">
+        <v>2</v>
+      </c>
+      <c r="K11" s="25">
+        <v>0</v>
+      </c>
+      <c r="L11" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M11" s="25">
+        <v>1</v>
+      </c>
+      <c r="N11" s="25">
+        <v>1</v>
+      </c>
+      <c r="O11" s="25">
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="S11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U11" s="25">
+        <v>10</v>
+      </c>
+      <c r="V11" s="38">
+        <v>1</v>
+      </c>
+      <c r="W11" s="43">
+        <v>0</v>
+      </c>
+      <c r="X11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA11" s="99"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF11" s="47">
+        <v>15</v>
+      </c>
+      <c r="BG11" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="56">
+        <v>2</v>
+      </c>
+      <c r="BK11" s="63">
+        <f>Variables!J$2</f>
+        <v>27</v>
+      </c>
+      <c r="BL11" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM11" s="42" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>489</v>
+      </c>
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>10</v>
+      </c>
+      <c r="F12" s="25">
+        <v>20</v>
+      </c>
+      <c r="G12" s="166" t="s">
+        <v>493</v>
+      </c>
+      <c r="H12" s="40">
+        <v>40</v>
+      </c>
+      <c r="I12" s="140">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="25">
+        <v>2</v>
+      </c>
+      <c r="K12" s="25">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M12" s="25">
+        <v>1</v>
+      </c>
+      <c r="N12" s="25">
+        <v>1</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1</v>
+      </c>
+      <c r="P12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>0</v>
+      </c>
+      <c r="R12" s="25">
+        <v>0</v>
+      </c>
+      <c r="S12" s="25">
+        <v>0</v>
+      </c>
+      <c r="T12" s="140">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="U12" s="25">
+        <v>1</v>
+      </c>
+      <c r="V12" s="38">
+        <v>1</v>
+      </c>
+      <c r="W12" s="43">
+        <v>0</v>
+      </c>
+      <c r="X12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS12" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU12" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV12" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA12" s="99"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF12" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG12" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="56">
+        <v>5</v>
+      </c>
+      <c r="BK12" s="63">
+        <f>Variables!K$2</f>
+        <v>26</v>
+      </c>
+      <c r="BL12" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM12" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>490</v>
+      </c>
+      <c r="D13" s="25">
+        <v>2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>10</v>
+      </c>
+      <c r="F13" s="25">
+        <v>20</v>
+      </c>
+      <c r="G13" s="166" t="s">
+        <v>496</v>
+      </c>
+      <c r="H13" s="40">
+        <v>25</v>
+      </c>
+      <c r="I13" s="140">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="25">
+        <v>2</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M13" s="25">
+        <v>1</v>
+      </c>
+      <c r="N13" s="25">
+        <v>1</v>
+      </c>
+      <c r="O13" s="25">
+        <v>1</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="140">
+        <v>0.1</v>
+      </c>
+      <c r="U13" s="25">
+        <v>5</v>
+      </c>
+      <c r="V13" s="38">
+        <v>1</v>
+      </c>
+      <c r="W13" s="43">
+        <v>0</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ13" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA13" s="99"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF13" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="63">
+        <f>Variables!L$2</f>
+        <v>24</v>
+      </c>
+      <c r="BL13" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM13" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="25">
+        <v>3</v>
+      </c>
+      <c r="E14" s="25">
+        <v>70</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="166" t="s">
+        <v>500</v>
+      </c>
+      <c r="H14" s="40">
+        <v>20</v>
+      </c>
+      <c r="I14" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J14" s="25">
+        <v>2</v>
+      </c>
+      <c r="K14" s="25">
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M14" s="25">
+        <v>1</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25">
+        <v>1</v>
+      </c>
+      <c r="P14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>0</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="S14" s="25">
+        <v>0</v>
+      </c>
+      <c r="T14" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U14" s="25">
+        <v>0</v>
+      </c>
+      <c r="V14" s="38">
+        <v>1</v>
+      </c>
+      <c r="W14" s="43">
+        <v>0</v>
+      </c>
+      <c r="X14" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH14" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV14" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY14" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA14" s="99"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF14" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI14" s="60">
+        <v>2</v>
+      </c>
+      <c r="BJ14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="63">
+        <f>Variables!M$2</f>
+        <v>21</v>
+      </c>
+      <c r="BL14" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM14" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="D15" s="25">
+        <v>3</v>
+      </c>
+      <c r="E15" s="25">
+        <v>70</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G15" s="166" t="s">
+        <v>494</v>
+      </c>
+      <c r="H15" s="40">
+        <v>20</v>
+      </c>
+      <c r="I15" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1</v>
+      </c>
+      <c r="K15" s="25">
+        <v>0</v>
+      </c>
+      <c r="L15" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <v>1</v>
+      </c>
+      <c r="P15" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>0</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="S15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U15" s="25">
+        <v>5</v>
+      </c>
+      <c r="V15" s="38">
+        <v>1</v>
+      </c>
+      <c r="W15" s="43">
+        <v>0</v>
+      </c>
+      <c r="X15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH15" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU15" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV15" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA15" s="99"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF15" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG15" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH15" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI15" s="60">
+        <v>2</v>
+      </c>
+      <c r="BJ15" s="56">
+        <v>4</v>
+      </c>
+      <c r="BK15" s="63">
+        <f>Variables!N$2</f>
+        <v>21</v>
+      </c>
+      <c r="BL15" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM15" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="140" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="25">
+        <v>3</v>
+      </c>
+      <c r="E16" s="25">
+        <v>70</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G16" s="166" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" s="40">
+        <v>40</v>
+      </c>
+      <c r="I16" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="25">
+        <v>2</v>
+      </c>
+      <c r="K16" s="25">
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M16" s="25">
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
+        <v>1</v>
+      </c>
+      <c r="O16" s="25">
+        <v>1</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>0</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="S16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0</v>
+      </c>
+      <c r="V16" s="42">
+        <v>1</v>
+      </c>
+      <c r="W16" s="43">
+        <v>0</v>
+      </c>
+      <c r="X16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS16" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU16" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW16" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX16" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY16" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ16" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA16" s="99"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI16" s="60">
+        <v>2</v>
+      </c>
+      <c r="BJ16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="63">
+        <f>Variables!O$2</f>
+        <v>23</v>
+      </c>
+      <c r="BL16" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM16" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
+      <c r="M17" s="151"/>
+      <c r="N17" s="151"/>
+      <c r="O17" s="151"/>
+      <c r="P17" s="151"/>
+      <c r="Q17" s="151"/>
+      <c r="R17" s="151"/>
+      <c r="S17" s="151"/>
+      <c r="T17" s="150"/>
+      <c r="U17" s="151"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="152"/>
+      <c r="X17" s="151"/>
+      <c r="Y17" s="151"/>
+      <c r="Z17" s="151"/>
+      <c r="AA17" s="151"/>
+      <c r="AB17" s="151"/>
+      <c r="AC17" s="151"/>
+      <c r="AD17" s="151"/>
+      <c r="AE17" s="151"/>
+      <c r="AF17" s="153"/>
+      <c r="AG17" s="153"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="151"/>
+      <c r="AJ17" s="151"/>
+      <c r="AK17" s="151"/>
+      <c r="AL17" s="151"/>
+      <c r="AM17" s="151"/>
+      <c r="AN17" s="151"/>
+      <c r="AO17" s="151"/>
+      <c r="AP17" s="151"/>
+      <c r="AQ17" s="151"/>
+      <c r="AR17" s="151"/>
+      <c r="AS17" s="151"/>
+      <c r="AT17" s="151"/>
+      <c r="AU17" s="152"/>
+      <c r="AV17" s="151"/>
+      <c r="AW17" s="153"/>
+      <c r="AX17" s="153"/>
+      <c r="AY17" s="153"/>
+      <c r="AZ17" s="154"/>
+      <c r="BA17" s="155"/>
+      <c r="BB17" s="153"/>
+      <c r="BC17" s="153"/>
+      <c r="BD17" s="154"/>
+      <c r="BE17" s="152"/>
+      <c r="BF17" s="156"/>
+      <c r="BG17" s="157"/>
+      <c r="BH17" s="154"/>
+      <c r="BI17" s="158"/>
+      <c r="BJ17" s="159"/>
+      <c r="BK17" s="160"/>
+      <c r="BL17" s="160"/>
+      <c r="BM17" s="154"/>
+    </row>
+    <row r="18" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="25">
+        <v>3</v>
+      </c>
+      <c r="E18" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="F18" s="25">
+        <v>10</v>
+      </c>
+      <c r="G18" s="166" t="s">
+        <v>502</v>
+      </c>
+      <c r="H18" s="40">
+        <v>20</v>
+      </c>
+      <c r="I18" s="140">
+        <v>1E-3</v>
+      </c>
+      <c r="J18" s="25">
+        <v>2</v>
+      </c>
+      <c r="K18" s="25">
+        <v>0</v>
+      </c>
+      <c r="L18" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
+      <c r="N18" s="25">
+        <v>1</v>
+      </c>
+      <c r="O18" s="25">
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>0</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="S18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="140">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U18" s="25">
+        <v>5</v>
+      </c>
+      <c r="V18" s="42">
+        <v>1</v>
+      </c>
+      <c r="W18" s="43">
+        <v>0</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH18" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW18" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA18" s="99"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF18" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG18" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="63">
+        <f>Variables!Q$2</f>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM18" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="85" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="25">
+        <v>3</v>
+      </c>
+      <c r="E19" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="F19" s="25">
+        <v>10</v>
+      </c>
+      <c r="G19" s="166" t="s">
+        <v>503</v>
+      </c>
+      <c r="H19" s="40">
+        <v>20</v>
+      </c>
+      <c r="I19" s="140">
+        <v>1E-3</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2</v>
+      </c>
+      <c r="K19" s="25">
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M19" s="25">
+        <v>1</v>
+      </c>
+      <c r="N19" s="25">
+        <v>1</v>
+      </c>
+      <c r="O19" s="25">
+        <v>1</v>
+      </c>
+      <c r="P19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="140">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U19" s="25">
+        <v>5</v>
+      </c>
+      <c r="V19" s="42">
+        <v>1</v>
+      </c>
+      <c r="W19" s="43">
+        <v>0</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE19" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH19" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS19" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU19" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW19" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF19" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG19" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="63">
+        <f>Variables!R$2</f>
+        <v>25</v>
+      </c>
+      <c r="BL19" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM19" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
+      <c r="B20" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C20" s="140" t="s">
+        <v>310</v>
+      </c>
+      <c r="D20" s="25">
+        <v>3</v>
+      </c>
+      <c r="E20" s="25">
+        <v>5.8</v>
+      </c>
+      <c r="F20" s="25">
+        <v>10</v>
+      </c>
+      <c r="G20" s="166" t="s">
+        <v>504</v>
+      </c>
+      <c r="H20" s="40">
+        <v>70</v>
+      </c>
+      <c r="I20" s="140">
+        <v>1E-3</v>
+      </c>
+      <c r="J20" s="25">
+        <v>2</v>
+      </c>
+      <c r="K20" s="25">
+        <v>0</v>
+      </c>
+      <c r="L20" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M20" s="25">
+        <v>1</v>
+      </c>
+      <c r="N20" s="25">
+        <v>1</v>
+      </c>
+      <c r="O20" s="25">
+        <v>1</v>
+      </c>
+      <c r="P20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="S20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="140">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="U20" s="25">
+        <v>10</v>
+      </c>
+      <c r="V20" s="42">
+        <v>1</v>
+      </c>
+      <c r="W20" s="43">
+        <v>0</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="25">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE20" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH20" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU20" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW20" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA20" s="99"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF20" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="BG20" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BH20" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="63">
+        <f>Variables!S$2</f>
+        <v>25</v>
+      </c>
+      <c r="BL20" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BM20" s="42" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="85" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="140" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D21" s="25">
+        <v>3</v>
+      </c>
+      <c r="E21" s="25">
+        <v>126</v>
+      </c>
+      <c r="F21" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="166" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H21" s="40">
+        <v>60</v>
+      </c>
+      <c r="I21" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J21" s="25">
+        <v>2</v>
+      </c>
+      <c r="K21" s="25">
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M21" s="25">
+        <v>1</v>
+      </c>
+      <c r="N21" s="25">
+        <v>1</v>
+      </c>
+      <c r="O21" s="25">
+        <v>1</v>
+      </c>
+      <c r="P21" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>0</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="S21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U21" s="25">
+        <v>0</v>
+      </c>
+      <c r="V21" s="42">
+        <v>2</v>
+      </c>
+      <c r="W21" s="43">
+        <v>0</v>
+      </c>
+      <c r="X21" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="25">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG21" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS21" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU21" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ21" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA21" s="99"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="41"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM21" s="42"/>
+    </row>
+    <row r="22" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="85" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D22" s="25">
+        <v>3</v>
+      </c>
+      <c r="E22" s="25">
+        <v>126</v>
+      </c>
+      <c r="F22" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="166" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H22" s="40">
+        <v>60</v>
+      </c>
+      <c r="I22" s="140">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J22" s="25">
+        <v>2</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M22" s="25">
+        <v>1</v>
+      </c>
+      <c r="N22" s="25">
+        <v>1</v>
+      </c>
+      <c r="O22" s="25">
+        <v>1</v>
+      </c>
+      <c r="P22" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>1</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="S22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U22" s="25">
+        <v>0</v>
+      </c>
+      <c r="V22" s="42">
+        <v>2</v>
+      </c>
+      <c r="W22" s="43"/>
+      <c r="X22" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y22" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="41"/>
+      <c r="AX22" s="41"/>
+      <c r="AY22" s="41"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="41"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="43"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="61"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM22" s="42"/>
+    </row>
+    <row r="23" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="85" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D23" s="25">
+        <v>3</v>
+      </c>
+      <c r="E23" s="25">
+        <v>126</v>
+      </c>
+      <c r="F23" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G23" s="166" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H23" s="40">
+        <v>60</v>
+      </c>
+      <c r="I23" s="140">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="25">
+        <v>2</v>
+      </c>
+      <c r="K23" s="25">
+        <v>1</v>
+      </c>
+      <c r="L23" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M23" s="25">
+        <v>1</v>
+      </c>
+      <c r="N23" s="25">
+        <v>1</v>
+      </c>
+      <c r="O23" s="25">
+        <v>1</v>
+      </c>
+      <c r="P23" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="25">
+        <v>1</v>
+      </c>
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="S23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U23" s="25">
+        <v>0</v>
+      </c>
+      <c r="V23" s="42">
+        <v>2</v>
+      </c>
+      <c r="W23" s="43"/>
+      <c r="X23" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y23" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="43"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="99"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="42"/>
+    </row>
+    <row r="24" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="85" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D24" s="25">
+        <v>3</v>
+      </c>
+      <c r="E24" s="25">
+        <v>126</v>
+      </c>
+      <c r="F24" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G24" s="166" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H24" s="40">
+        <v>60</v>
+      </c>
+      <c r="I24" s="140">
+        <v>0.01</v>
+      </c>
+      <c r="J24" s="25">
+        <v>2</v>
+      </c>
+      <c r="K24" s="25">
+        <v>1</v>
+      </c>
+      <c r="L24" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M24" s="25">
+        <v>1</v>
+      </c>
+      <c r="N24" s="25">
+        <v>1</v>
+      </c>
+      <c r="O24" s="25">
+        <v>1</v>
+      </c>
+      <c r="P24" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="25">
+        <v>1</v>
+      </c>
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="S24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U24" s="25">
+        <v>0</v>
+      </c>
+      <c r="V24" s="42">
+        <v>2</v>
+      </c>
+      <c r="W24" s="43"/>
+      <c r="X24" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y24" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="40"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="99"/>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="43"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="60"/>
+      <c r="BJ24" s="61"/>
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="63"/>
+      <c r="BM24" s="42"/>
+    </row>
+    <row r="25" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="85" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D25" s="25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="25">
+        <v>126</v>
+      </c>
+      <c r="F25" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="166" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H25" s="40">
+        <v>60</v>
+      </c>
+      <c r="I25" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J25" s="25">
+        <v>2</v>
+      </c>
+      <c r="K25" s="25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M25" s="25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="25">
+        <v>1</v>
+      </c>
+      <c r="O25" s="25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="25">
+        <v>0</v>
+      </c>
+      <c r="R25" s="25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="25">
+        <v>0</v>
+      </c>
+      <c r="T25" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U25" s="25">
+        <v>0</v>
+      </c>
+      <c r="V25" s="42">
+        <v>2</v>
+      </c>
+      <c r="W25" s="43"/>
+      <c r="X25" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y25" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="41"/>
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="99"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="41"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="43"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI25" s="60"/>
+      <c r="BJ25" s="61"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM25" s="42"/>
+    </row>
+    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="85" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D26" s="25">
+        <v>3</v>
+      </c>
+      <c r="E26" s="25">
+        <v>126</v>
+      </c>
+      <c r="F26" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G26" s="166" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H26" s="40">
+        <v>60</v>
+      </c>
+      <c r="I26" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J26" s="25">
+        <v>2</v>
+      </c>
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M26" s="25">
+        <v>1</v>
+      </c>
+      <c r="N26" s="25">
+        <v>1</v>
+      </c>
+      <c r="O26" s="25">
+        <v>1</v>
+      </c>
+      <c r="P26" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="25">
+        <v>0</v>
+      </c>
+      <c r="R26" s="25">
+        <v>1</v>
+      </c>
+      <c r="S26" s="25">
+        <v>0</v>
+      </c>
+      <c r="T26" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U26" s="25">
+        <v>0</v>
+      </c>
+      <c r="V26" s="42">
+        <v>2</v>
+      </c>
+      <c r="W26" s="43"/>
+      <c r="X26" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y26" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="40"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="43"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="99"/>
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="61"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM26" s="42"/>
+    </row>
+    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
+      <c r="B27" s="85" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D27" s="25">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25">
+        <v>126</v>
+      </c>
+      <c r="F27" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G27" s="166" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H27" s="40">
+        <v>60</v>
+      </c>
+      <c r="I27" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J27" s="25">
+        <v>1</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="M27" s="25">
+        <v>1</v>
+      </c>
+      <c r="N27" s="25">
+        <v>1</v>
+      </c>
+      <c r="O27" s="25">
+        <v>1</v>
+      </c>
+      <c r="P27" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>0</v>
+      </c>
+      <c r="R27" s="25">
+        <v>1</v>
+      </c>
+      <c r="S27" s="25">
+        <v>0</v>
+      </c>
+      <c r="T27" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="U27" s="25">
+        <v>0</v>
+      </c>
+      <c r="V27" s="42">
+        <v>2</v>
+      </c>
+      <c r="W27" s="43"/>
+      <c r="X27" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y27" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="43"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="99"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI27" s="60"/>
+      <c r="BJ27" s="61"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM27" s="42"/>
+    </row>
+    <row r="28" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="85" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D28" s="25">
+        <v>3</v>
+      </c>
+      <c r="E28" s="25">
+        <v>126</v>
+      </c>
+      <c r="F28" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G28" s="166" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H28" s="40">
+        <v>60</v>
+      </c>
+      <c r="I28" s="140">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="J28" s="25">
+        <v>2</v>
+      </c>
+      <c r="K28" s="25">
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M28" s="25">
+        <v>1</v>
+      </c>
+      <c r="N28" s="25">
+        <v>1</v>
+      </c>
+      <c r="O28" s="25">
+        <v>1</v>
+      </c>
+      <c r="P28" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="25">
+        <v>0</v>
+      </c>
+      <c r="R28" s="25">
+        <v>1</v>
+      </c>
+      <c r="S28" s="25">
+        <v>0</v>
+      </c>
+      <c r="T28" s="140">
+        <v>0.05</v>
+      </c>
+      <c r="U28" s="25">
+        <v>0</v>
+      </c>
+      <c r="V28" s="42">
+        <v>2</v>
+      </c>
+      <c r="W28" s="43"/>
+      <c r="X28" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y28" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="40"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="41"/>
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="99"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="61"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BM28" s="42"/>
+    </row>
+    <row r="29" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="4"/>
+      <c r="AJ29" s="4"/>
+      <c r="AK29" s="4"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="100"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="48"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="6"/>
+    </row>
+    <row r="30" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="W2:AG2"/>
+    <mergeCell ref="AH2:AT2"/>
+    <mergeCell ref="AU2:AZ2"/>
+    <mergeCell ref="BA2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A29:G30 AB14 W14:AA30 A4:G27 W4:BM13 AC14:BM30 H4:V30">
+    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+      <formula>$A4="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+      <formula>$A4="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28:G28">
+    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+      <formula>$A28="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+      <formula>$A28="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB15:AB30">
+    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+      <formula>$A14="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+      <formula>$A14="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="5" scale="79" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BC50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -4836,7 +9772,7 @@
       <c r="G2" s="121"/>
       <c r="H2" s="122"/>
       <c r="I2" s="126" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="J2" s="127"/>
       <c r="K2" s="135"/>
@@ -4876,7 +9812,7 @@
       <c r="AO2" s="137"/>
       <c r="AP2" s="138"/>
       <c r="AQ2" s="123" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="AR2" s="124"/>
       <c r="AS2" s="124"/>
@@ -4996,7 +9932,7 @@
         <v>15</v>
       </c>
       <c r="AH3" s="101" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="AI3" s="84" t="s">
         <v>16</v>
@@ -5061,7 +9997,7 @@
       <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="139" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5221,7 +10157,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="139" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -5381,7 +10317,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="139" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -5541,7 +10477,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="139" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -5701,7 +10637,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="139" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -5861,7 +10797,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="140" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6022,7 +10958,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="140" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -6183,7 +11119,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="140" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -6344,7 +11280,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="140" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -6504,7 +11440,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="140" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -6664,7 +11600,7 @@
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="140" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -6824,7 +11760,7 @@
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="140" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -6984,7 +11920,7 @@
       <c r="B16" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="140" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -7144,7 +12080,7 @@
       <c r="B17" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="140" t="s">
         <v>286</v>
       </c>
       <c r="D17" s="25">
@@ -7304,7 +12240,7 @@
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="140" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -7464,7 +12400,7 @@
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="140" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -7624,7 +12560,7 @@
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="140" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -7782,8 +12718,8 @@
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>1061</v>
+      <c r="C21" s="140" t="s">
+        <v>1081</v>
       </c>
       <c r="D21" s="25">
         <v>3</v>
@@ -7795,7 +12731,7 @@
         <v>5000</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="H21" s="113" t="s">
         <v>22</v>
@@ -7923,10 +12859,10 @@
     <row r="22" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>1061</v>
+        <v>1065</v>
+      </c>
+      <c r="C22" s="140" t="s">
+        <v>1082</v>
       </c>
       <c r="D22" s="25">
         <v>3</v>
@@ -7938,7 +12874,7 @@
         <v>5000</v>
       </c>
       <c r="G22" s="39" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="H22" s="113" t="s">
         <v>22</v>
@@ -8008,10 +12944,10 @@
     <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>1061</v>
+        <v>1070</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>1083</v>
       </c>
       <c r="D23" s="25">
         <v>3</v>
@@ -8023,7 +12959,7 @@
         <v>5000</v>
       </c>
       <c r="G23" s="39" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="H23" s="113" t="s">
         <v>22</v>
@@ -8089,10 +13025,10 @@
     <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>1061</v>
+        <v>1071</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>1084</v>
       </c>
       <c r="D24" s="25">
         <v>3</v>
@@ -8104,7 +13040,7 @@
         <v>5000</v>
       </c>
       <c r="G24" s="39" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="H24" s="113" t="s">
         <v>22</v>
@@ -8170,10 +13106,10 @@
     <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>1061</v>
+        <v>1069</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>1085</v>
       </c>
       <c r="D25" s="25">
         <v>3</v>
@@ -8185,7 +13121,7 @@
         <v>5000</v>
       </c>
       <c r="G25" s="39" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H25" s="113" t="s">
         <v>22</v>
@@ -8255,10 +13191,10 @@
     <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>1061</v>
+        <v>1068</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>1086</v>
       </c>
       <c r="D26" s="25">
         <v>3</v>
@@ -8270,7 +13206,7 @@
         <v>5000</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H26" s="113" t="s">
         <v>22</v>
@@ -8340,10 +13276,10 @@
     <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>1061</v>
+        <v>1067</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>1087</v>
       </c>
       <c r="D27" s="25">
         <v>3</v>
@@ -8355,7 +13291,7 @@
         <v>5000</v>
       </c>
       <c r="G27" s="39" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="H27" s="113" t="s">
         <v>22</v>
@@ -8425,10 +13361,10 @@
     <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>1061</v>
+        <v>1073</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>1088</v>
       </c>
       <c r="D28" s="25">
         <v>3</v>
@@ -8440,7 +13376,7 @@
         <v>5000</v>
       </c>
       <c r="G28" s="39" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="H28" s="113" t="s">
         <v>22</v>
@@ -8691,7 +13627,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="115" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C46" s="114"/>
       <c r="D46" s="114"/>
@@ -8715,7 +13651,7 @@
       <c r="A50" s="103"/>
       <c r="B50" s="103"/>
       <c r="C50" s="102" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
@@ -8779,7 +13715,7 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 A22:G27 J22:AI27 AK22:BC27">
+  <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
     <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
@@ -8825,7 +13761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC855"/>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BH$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BC$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="1111">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3366,10 +3366,22 @@
     <t>Glue-Code Options</t>
   </si>
   <si>
-    <t>Flexible, tip-brake shutdown, steady wind</t>
-  </si>
-  <si>
     <t>NREL 5 MW - OC4-DeepCwind Semi-Submersible</t>
+  </si>
+  <si>
+    <t>Flexible, steady wind</t>
+  </si>
+  <si>
+    <t>Flexible, variable speed control, free yaw, EOG01 event</t>
+  </si>
+  <si>
+    <t>Flexible, variable speed control, free yaw, EDC01 event</t>
+  </si>
+  <si>
+    <t>Flexible, variable speed control, free yaw, turbulence</t>
+  </si>
+  <si>
+    <t>ServoDyn</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -4040,12 +4052,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4511,12 +4536,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4585,118 +4630,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5208,13 +5141,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AJ4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
+      <selection pane="bottomRight" activeCell="BG24" sqref="BG23:BG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5237,28 +5170,25 @@
     <col min="21" max="22" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="3.28515625" style="2" customWidth="1"/>
     <col min="26" max="26" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="2" customWidth="1"/>
-    <col min="28" max="28" width="4.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="3.28515625" style="2" customWidth="1"/>
-    <col min="30" max="32" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="44" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.85546875" style="2" customWidth="1"/>
-    <col min="46" max="46" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="4.5703125" style="2" customWidth="1"/>
-    <col min="48" max="57" width="4.85546875" style="2" customWidth="1"/>
-    <col min="58" max="58" width="4.85546875" style="45" customWidth="1"/>
-    <col min="59" max="59" width="4.85546875" style="9" customWidth="1"/>
-    <col min="60" max="61" width="4.85546875" style="2" customWidth="1"/>
-    <col min="62" max="63" width="4.85546875" style="45" customWidth="1"/>
-    <col min="64" max="64" width="6.7109375" style="45" customWidth="1"/>
-    <col min="65" max="65" width="4.85546875" style="2" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" customWidth="1"/>
-    <col min="67" max="67" width="4.28515625" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.28515625" style="2" customWidth="1"/>
+    <col min="29" max="29" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="41" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.5703125" style="2" customWidth="1"/>
+    <col min="43" max="52" width="4.85546875" style="2" customWidth="1"/>
+    <col min="53" max="53" width="4.85546875" style="45" customWidth="1"/>
+    <col min="54" max="54" width="4.85546875" style="9" customWidth="1"/>
+    <col min="55" max="56" width="4.85546875" style="2" customWidth="1"/>
+    <col min="57" max="58" width="4.85546875" style="45" customWidth="1"/>
+    <col min="59" max="59" width="6.7109375" style="45" customWidth="1"/>
+    <col min="60" max="60" width="4.85546875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="4.42578125" customWidth="1"/>
+    <col min="62" max="62" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="120" t="s">
         <v>27</v>
       </c>
@@ -5284,61 +5214,58 @@
       <c r="T2" s="143"/>
       <c r="U2" s="143"/>
       <c r="V2" s="144"/>
-      <c r="W2" s="127"/>
+      <c r="W2" s="127" t="s">
+        <v>1110</v>
+      </c>
       <c r="X2" s="135"/>
       <c r="Y2" s="135"/>
       <c r="Z2" s="135"/>
       <c r="AA2" s="135"/>
       <c r="AB2" s="135"/>
       <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="136"/>
-      <c r="AH2" s="129" t="s">
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="129" t="s">
         <v>4</v>
       </c>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
       <c r="AI2" s="130"/>
       <c r="AJ2" s="130"/>
       <c r="AK2" s="130"/>
       <c r="AL2" s="130"/>
       <c r="AM2" s="130"/>
       <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130"/>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="123" t="s">
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="123" t="s">
+      <c r="AQ2" s="137"/>
+      <c r="AR2" s="137"/>
+      <c r="AS2" s="137"/>
+      <c r="AT2" s="137"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="123" t="s">
         <v>1061</v>
       </c>
-      <c r="BB2" s="124"/>
-      <c r="BC2" s="124"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="132" t="s">
+      <c r="AW2" s="124"/>
+      <c r="AX2" s="124"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="132" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" s="133"/>
-      <c r="BG2" s="133"/>
-      <c r="BH2" s="134"/>
-      <c r="BI2" s="126" t="s">
+      <c r="BA2" s="133"/>
+      <c r="BB2" s="133"/>
+      <c r="BC2" s="134"/>
+      <c r="BD2" s="126" t="s">
         <v>1047</v>
       </c>
-      <c r="BJ2" s="127"/>
-      <c r="BK2" s="127"/>
-      <c r="BL2" s="127"/>
-      <c r="BM2" s="128"/>
-    </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BE2" s="127"/>
+      <c r="BF2" s="127"/>
+      <c r="BG2" s="127"/>
+      <c r="BH2" s="128"/>
+    </row>
+    <row r="3" spans="1:60" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5416,116 +5343,101 @@
         <v>3</v>
       </c>
       <c r="AA3" s="67" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="AD3" s="94" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AE3" s="94" t="s">
-        <v>1057</v>
-      </c>
-      <c r="AF3" s="92" t="s">
+      <c r="AC3" s="92" t="s">
         <v>1055</v>
       </c>
-      <c r="AG3" s="93" t="s">
+      <c r="AD3" s="93" t="s">
         <v>1056</v>
       </c>
-      <c r="AH3" s="82" t="s">
+      <c r="AE3" s="82" t="s">
         <v>5</v>
       </c>
+      <c r="AF3" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH3" s="83" t="s">
+        <v>8</v>
+      </c>
       <c r="AI3" s="83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AJ3" s="83" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AK3" s="83" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL3" s="83" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AM3" s="83" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AN3" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO3" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP3" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="AQ3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AR3" s="83" t="s">
+      <c r="AO3" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="AS3" s="101" t="s">
-        <v>1063</v>
-      </c>
-      <c r="AT3" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU3" s="71" t="s">
+      <c r="AP3" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="AV3" s="72" t="s">
+      <c r="AQ3" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="AW3" s="73" t="s">
+      <c r="AR3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="AX3" s="73" t="s">
+      <c r="AS3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="AY3" s="73" t="s">
+      <c r="AT3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AZ3" s="74" t="s">
+      <c r="AU3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="BA3" s="97"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="75" t="s">
+      <c r="AV3" s="97"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="BF3" s="77" t="s">
+      <c r="BA3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="BG3" s="78" t="s">
+      <c r="BB3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="BH3" s="76" t="s">
+      <c r="BC3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="66" t="s">
+      <c r="BD3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BJ3" s="69" t="s">
+      <c r="BE3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BK3" s="70" t="s">
+      <c r="BF3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BL3" s="70" t="s">
+      <c r="BG3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BM3" s="68" t="s">
+      <c r="BH3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5605,25 +5517,25 @@
       <c r="AA4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="29">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="29">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="29" t="s">
+      <c r="AD4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AE4" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AE4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG4" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH4" s="32" t="s">
         <v>28</v>
       </c>
       <c r="AI4" s="32" t="s">
@@ -5633,7 +5545,7 @@
         <v>28</v>
       </c>
       <c r="AK4" s="32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL4" s="32" t="s">
         <v>28</v>
@@ -5642,78 +5554,63 @@
         <v>28</v>
       </c>
       <c r="AN4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AP4" s="32" t="s">
+      <c r="AO4" s="33" t="s">
         <v>28</v>
       </c>
+      <c r="AP4" s="34" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS4" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AV4" s="32" t="s">
+      <c r="AR4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AW4" s="35" t="s">
+      <c r="AS4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU4" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="33"/>
+      <c r="AZ4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="35" t="s">
+      <c r="BA4" s="46">
+        <v>15</v>
+      </c>
+      <c r="BB4" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="BC4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AY4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ4" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA4" s="98"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="33"/>
-      <c r="BE4" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF4" s="46">
-        <v>15</v>
-      </c>
-      <c r="BG4" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="BH4" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="55">
+      <c r="BD4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="55">
         <v>3</v>
       </c>
-      <c r="BK4" s="62">
+      <c r="BF4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BL4" s="62" t="s">
+      <c r="BG4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BH4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -5731,7 +5628,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="166" t="s">
-        <v>498</v>
+        <v>1106</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
@@ -5790,28 +5687,28 @@
       <c r="Z5" s="25">
         <v>2</v>
       </c>
-      <c r="AA5" s="107" t="s">
+      <c r="AA5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC5" s="25">
+      <c r="AB5" s="25">
         <v>1</v>
       </c>
-      <c r="AD5" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AC5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AD5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AG5" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AE5" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH5" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AI5" s="25" t="s">
@@ -5821,7 +5718,7 @@
         <v>28</v>
       </c>
       <c r="AK5" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" s="25" t="s">
         <v>28</v>
@@ -5830,78 +5727,63 @@
         <v>28</v>
       </c>
       <c r="AN5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AP5" s="25" t="s">
+      <c r="AO5" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="AP5" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV5" s="25" t="s">
+      <c r="AS5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX5" s="41" t="s">
+      <c r="AT5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AY5" s="41" t="s">
+      <c r="AU5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AZ5" s="42" t="s">
+      <c r="AV5" s="99"/>
+      <c r="AW5" s="41"/>
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="43" t="s">
+      <c r="BA5" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="56">
+      <c r="BD5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="56">
         <v>1</v>
       </c>
-      <c r="BK5" s="63">
+      <c r="BF5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BL5" s="63" t="s">
+      <c r="BG5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BM5" s="42" t="s">
+      <c r="BH5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -5981,25 +5863,25 @@
       <c r="AA6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH6" s="40" t="s">
+      <c r="AE6" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH6" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AI6" s="25" t="s">
@@ -6020,76 +5902,61 @@
       <c r="AN6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="AO6" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP6" s="25" t="s">
-        <v>28</v>
+      <c r="AP6" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="AQ6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS6" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT6" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="25" t="s">
+      <c r="AR6" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="41" t="s">
+      <c r="AT6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU6" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="41"/>
+      <c r="AX6" s="41"/>
+      <c r="AY6" s="42"/>
+      <c r="AZ6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="41" t="s">
+      <c r="BA6" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB6" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AY6" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ6" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="42"/>
-      <c r="BE6" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF6" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG6" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH6" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="56">
+      <c r="BD6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="56">
         <v>3</v>
       </c>
-      <c r="BK6" s="63">
+      <c r="BF6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL6" s="63" t="s">
+      <c r="BG6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM6" s="42" t="s">
+      <c r="BH6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6169,115 +6036,100 @@
       <c r="AA7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB7" s="25" t="s">
+      <c r="AB7" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC7" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="25" t="s">
+      <c r="AD7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH7" s="40" t="s">
+      <c r="AE7" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="AF7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH7" s="25" t="s">
+        <v>28</v>
+      </c>
       <c r="AI7" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ7" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK7" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AL7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="25" t="s">
+      <c r="AO7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="25" t="s">
-        <v>28</v>
+      <c r="AP7" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="AQ7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS7" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT7" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV7" s="25" t="s">
+      <c r="AR7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW7" s="41" t="s">
+      <c r="AS7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV7" s="99"/>
+      <c r="AW7" s="41"/>
+      <c r="AX7" s="41"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AX7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ7" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA7" s="99"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="42"/>
-      <c r="BE7" s="43" t="s">
+      <c r="BA7" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB7" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BF7" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG7" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="56">
+      <c r="BD7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="56">
         <v>5</v>
       </c>
-      <c r="BK7" s="63">
+      <c r="BF7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL7" s="63" t="s">
+      <c r="BG7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM7" s="42" t="s">
+      <c r="BH7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6295,7 +6147,7 @@
         <v>175</v>
       </c>
       <c r="G8" s="166" t="s">
-        <v>499</v>
+        <v>1106</v>
       </c>
       <c r="H8" s="40">
         <v>30</v>
@@ -6354,28 +6206,28 @@
       <c r="Z8" s="25">
         <v>2</v>
       </c>
-      <c r="AA8" s="107" t="s">
+      <c r="AA8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC8" s="25">
+      <c r="AB8" s="25">
         <v>1</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AC8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE8" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF8" s="41" t="s">
+      <c r="AD8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH8" s="40" t="s">
+      <c r="AE8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG8" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH8" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AI8" s="25" t="s">
@@ -6385,7 +6237,7 @@
         <v>28</v>
       </c>
       <c r="AK8" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL8" s="25" t="s">
         <v>28</v>
@@ -6394,78 +6246,63 @@
         <v>28</v>
       </c>
       <c r="AN8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AP8" s="25" t="s">
+      <c r="AO8" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="AP8" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT8" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV8" s="25" t="s">
+      <c r="AS8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX8" s="41" t="s">
+      <c r="AT8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AY8" s="41" t="s">
+      <c r="AU8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AZ8" s="42" t="s">
+      <c r="AV8" s="99"/>
+      <c r="AW8" s="41"/>
+      <c r="AX8" s="41"/>
+      <c r="AY8" s="42"/>
+      <c r="AZ8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA8" s="99"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="43" t="s">
+      <c r="BA8" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF8" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="56">
+      <c r="BD8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="56">
         <v>3</v>
       </c>
-      <c r="BK8" s="63">
+      <c r="BF8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BL8" s="63" t="s">
+      <c r="BG8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM8" s="42" t="s">
+      <c r="BH8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -6484,7 +6321,7 @@
         <v>50</v>
       </c>
       <c r="G9" s="166" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="H9" s="40">
         <v>35</v>
@@ -6543,29 +6380,29 @@
       <c r="Z9" s="25">
         <v>2</v>
       </c>
-      <c r="AA9" s="107" t="s">
+      <c r="AA9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC9" s="25">
+      <c r="AB9" s="25">
         <v>1</v>
       </c>
-      <c r="AD9" s="25" t="s">
+      <c r="AC9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE9" s="107" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF9" s="41" t="s">
+      <c r="AD9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AG9" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH9" s="40" t="s">
+      <c r="AE9" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="AI9" s="25" t="s">
         <v>28</v>
@@ -6574,87 +6411,72 @@
         <v>28</v>
       </c>
       <c r="AK9" s="25" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL9" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM9" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AO9" s="25" t="s">
+      <c r="AO9" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AP9" s="25" t="s">
-        <v>29</v>
+      <c r="AP9" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="AQ9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT9" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU9" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="25" t="s">
+      <c r="AR9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW9" s="41" t="s">
+      <c r="AU9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV9" s="99"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="42"/>
+      <c r="AZ9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AX9" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY9" s="41" t="s">
+      <c r="BA9" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AZ9" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA9" s="99"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="42"/>
-      <c r="BE9" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF9" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="56">
+      <c r="BD9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="56">
         <v>5</v>
       </c>
-      <c r="BK9" s="63">
+      <c r="BF9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BL9" s="63" t="s">
+      <c r="BG9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM9" s="42" t="s">
+      <c r="BH9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -6735,115 +6557,100 @@
       <c r="AA10" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB10" s="25" t="s">
+      <c r="AB10" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC10" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="25" t="s">
+      <c r="AD10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="AF10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH10" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="AI10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ10" s="25" t="s">
+      <c r="AL10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AK10" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL10" s="25" t="s">
-        <v>29</v>
-      </c>
       <c r="AM10" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO10" s="25" t="s">
+      <c r="AO10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP10" s="25" t="s">
-        <v>28</v>
+      <c r="AP10" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="AQ10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU10" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="AR10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV10" s="25" t="s">
+      <c r="AS10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW10" s="41" t="s">
+      <c r="AU10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV10" s="99"/>
+      <c r="AW10" s="41"/>
+      <c r="AX10" s="41"/>
+      <c r="AY10" s="42"/>
+      <c r="AZ10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AX10" s="41" t="s">
+      <c r="BA10" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AY10" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ10" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA10" s="99"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF10" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH10" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="56">
+      <c r="BD10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="56">
         <v>3</v>
       </c>
-      <c r="BK10" s="63">
+      <c r="BF10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BL10" s="63" t="s">
+      <c r="BG10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM10" s="42" t="s">
+      <c r="BH10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -6924,115 +6731,100 @@
       <c r="AA11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB11" s="25" t="s">
+      <c r="AB11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="25" t="s">
+      <c r="AD11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE11" s="25" t="s">
+      <c r="AE11" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK11" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN11" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO11" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP11" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AF11" s="41" t="s">
+      <c r="AR11" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="41" t="s">
+      <c r="AT11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AH11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK11" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AP11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AQ11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU11" s="43" t="s">
+      <c r="AU11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV11" s="99"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="42"/>
+      <c r="AZ11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV11" s="25" t="s">
+      <c r="BA11" s="47">
+        <v>15</v>
+      </c>
+      <c r="BB11" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW11" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY11" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ11" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA11" s="99"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="42"/>
-      <c r="BE11" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF11" s="47">
-        <v>15</v>
-      </c>
-      <c r="BG11" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH11" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="56">
+      <c r="BD11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="56">
         <v>2</v>
       </c>
-      <c r="BK11" s="63">
+      <c r="BF11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BL11" s="63" t="s">
+      <c r="BG11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM11" s="42" t="s">
+      <c r="BH11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -7112,26 +6904,26 @@
       <c r="AA12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB12" s="25" t="s">
+      <c r="AB12" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD12" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC12" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE12" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG12" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH12" s="40" t="s">
+      <c r="AE12" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH12" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="AI12" s="25" t="s">
         <v>28</v>
@@ -7140,7 +6932,7 @@
         <v>28</v>
       </c>
       <c r="AK12" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL12" s="25" t="s">
         <v>28</v>
@@ -7151,76 +6943,61 @@
       <c r="AN12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO12" s="25" t="s">
+      <c r="AO12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP12" s="25" t="s">
-        <v>28</v>
+      <c r="AP12" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="AQ12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS12" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT12" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV12" s="25" t="s">
+      <c r="AR12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT12" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU12" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV12" s="99"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA12" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB12" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY12" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ12" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA12" s="99"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF12" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG12" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH12" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="56">
+      <c r="BD12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="56">
         <v>5</v>
       </c>
-      <c r="BK12" s="63">
+      <c r="BF12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BL12" s="63" t="s">
+      <c r="BG12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM12" s="42" t="s">
+      <c r="BH12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7300,25 +7077,25 @@
       <c r="AA13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB13" s="25" t="s">
+      <c r="AB13" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC13" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="25" t="s">
+      <c r="AD13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE13" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG13" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH13" s="40" t="s">
+      <c r="AE13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="AI13" s="25" t="s">
@@ -7339,76 +7116,61 @@
       <c r="AN13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AO13" s="25" t="s">
+      <c r="AO13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AP13" s="25" t="s">
-        <v>29</v>
+      <c r="AP13" s="43" t="s">
+        <v>22</v>
       </c>
       <c r="AQ13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS13" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT13" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AV13" s="25" t="s">
+      <c r="AR13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW13" s="41" t="s">
+      <c r="AU13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AX13" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY13" s="41" t="s">
+      <c r="AV13" s="99"/>
+      <c r="AW13" s="41"/>
+      <c r="AX13" s="41"/>
+      <c r="AY13" s="42"/>
+      <c r="AZ13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AZ13" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA13" s="99"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="43" t="s">
+      <c r="BA13" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF13" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="44">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="63">
+      <c r="BD13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BL13" s="63" t="s">
+      <c r="BG13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM13" s="42" t="s">
+      <c r="BH13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7488,24 +7250,26 @@
       <c r="AA14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25">
+      <c r="AB14" s="25">
         <v>1</v>
       </c>
-      <c r="AD14" s="25" t="s">
+      <c r="AC14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF14" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG14" s="41" t="s">
+      <c r="AD14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AH14" s="40" t="s">
+      <c r="AE14" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH14" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="AI14" s="25" t="s">
         <v>28</v>
@@ -7514,7 +7278,7 @@
         <v>28</v>
       </c>
       <c r="AK14" s="25" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL14" s="25" t="s">
         <v>28</v>
@@ -7523,78 +7287,63 @@
         <v>28</v>
       </c>
       <c r="AN14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AP14" s="25" t="s">
+      <c r="AO14" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="AP14" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT14" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU14" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV14" s="25" t="s">
+      <c r="AR14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW14" s="41" t="s">
+      <c r="AS14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX14" s="41" t="s">
+      <c r="AT14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AY14" s="41" t="s">
+      <c r="AU14" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV14" s="99"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="42"/>
+      <c r="AZ14" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA14" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AZ14" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA14" s="99"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="42"/>
-      <c r="BE14" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF14" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH14" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI14" s="60">
+      <c r="BD14" s="60">
         <v>2</v>
       </c>
-      <c r="BJ14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="63">
+      <c r="BE14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BL14" s="63" t="s">
+      <c r="BG14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM14" s="42" t="s">
+      <c r="BH14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -7674,26 +7423,26 @@
       <c r="AA15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB15" s="25" t="s">
+      <c r="AB15" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC15" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="25" t="s">
+      <c r="AD15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE15" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG15" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH15" s="40" t="s">
+      <c r="AE15" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG15" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH15" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="AI15" s="25" t="s">
         <v>28</v>
@@ -7702,7 +7451,7 @@
         <v>28</v>
       </c>
       <c r="AK15" s="25" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL15" s="25" t="s">
         <v>28</v>
@@ -7711,78 +7460,63 @@
         <v>28</v>
       </c>
       <c r="AN15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AP15" s="25" t="s">
+      <c r="AO15" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="AP15" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS15" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT15" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU15" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV15" s="25" t="s">
+      <c r="AR15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW15" s="41" t="s">
+      <c r="AS15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX15" s="41" t="s">
+      <c r="AT15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AY15" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ15" s="42" t="s">
+      <c r="AU15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BA15" s="99"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="43" t="s">
+      <c r="AV15" s="99"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BF15" s="47" t="s">
+      <c r="BA15" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BG15" s="44">
+      <c r="BB15" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH15" s="42" t="s">
+      <c r="BC15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI15" s="60">
+      <c r="BD15" s="60">
         <v>2</v>
       </c>
-      <c r="BJ15" s="56">
+      <c r="BE15" s="56">
         <v>4</v>
       </c>
-      <c r="BK15" s="63">
+      <c r="BF15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BL15" s="63" t="s">
+      <c r="BG15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM15" s="42" t="s">
+      <c r="BH15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -7862,26 +7596,26 @@
       <c r="AA16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB16" s="25" t="s">
+      <c r="AB16" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="25" t="s">
+      <c r="AD16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE16" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG16" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH16" s="40" t="s">
+      <c r="AE16" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH16" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="AI16" s="25" t="s">
         <v>28</v>
@@ -7890,7 +7624,7 @@
         <v>28</v>
       </c>
       <c r="AK16" s="25" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL16" s="25" t="s">
         <v>28</v>
@@ -7899,78 +7633,63 @@
         <v>28</v>
       </c>
       <c r="AN16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AP16" s="25" t="s">
+      <c r="AO16" s="42" t="s">
         <v>28</v>
       </c>
+      <c r="AP16" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT16" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV16" s="25" t="s">
+      <c r="AR16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW16" s="41" t="s">
+      <c r="AS16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX16" s="41" t="s">
+      <c r="AT16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AY16" s="41" t="s">
+      <c r="AU16" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV16" s="99"/>
+      <c r="AW16" s="41"/>
+      <c r="AX16" s="41"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA16" s="47">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AZ16" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA16" s="99"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF16" s="47">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI16" s="60">
+      <c r="BD16" s="60">
         <v>2</v>
       </c>
-      <c r="BJ16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="63">
+      <c r="BE16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BL16" s="63" t="s">
+      <c r="BG16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM16" s="42" t="s">
+      <c r="BH16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="149"/>
       <c r="C17" s="150"/>
@@ -7999,45 +7718,40 @@
       <c r="Z17" s="151"/>
       <c r="AA17" s="151"/>
       <c r="AB17" s="151"/>
-      <c r="AC17" s="151"/>
-      <c r="AD17" s="151"/>
-      <c r="AE17" s="151"/>
-      <c r="AF17" s="153"/>
-      <c r="AG17" s="153"/>
-      <c r="AH17" s="149"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="151"/>
+      <c r="AG17" s="151"/>
+      <c r="AH17" s="151"/>
       <c r="AI17" s="151"/>
       <c r="AJ17" s="151"/>
       <c r="AK17" s="151"/>
       <c r="AL17" s="151"/>
       <c r="AM17" s="151"/>
       <c r="AN17" s="151"/>
-      <c r="AO17" s="151"/>
-      <c r="AP17" s="151"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="152"/>
       <c r="AQ17" s="151"/>
-      <c r="AR17" s="151"/>
-      <c r="AS17" s="151"/>
-      <c r="AT17" s="151"/>
-      <c r="AU17" s="152"/>
-      <c r="AV17" s="151"/>
+      <c r="AR17" s="153"/>
+      <c r="AS17" s="153"/>
+      <c r="AT17" s="153"/>
+      <c r="AU17" s="154"/>
+      <c r="AV17" s="155"/>
       <c r="AW17" s="153"/>
       <c r="AX17" s="153"/>
-      <c r="AY17" s="153"/>
-      <c r="AZ17" s="154"/>
-      <c r="BA17" s="155"/>
-      <c r="BB17" s="153"/>
-      <c r="BC17" s="153"/>
-      <c r="BD17" s="154"/>
-      <c r="BE17" s="152"/>
-      <c r="BF17" s="156"/>
-      <c r="BG17" s="157"/>
+      <c r="AY17" s="154"/>
+      <c r="AZ17" s="152"/>
+      <c r="BA17" s="156"/>
+      <c r="BB17" s="157"/>
+      <c r="BC17" s="154"/>
+      <c r="BD17" s="158"/>
+      <c r="BE17" s="159"/>
+      <c r="BF17" s="160"/>
+      <c r="BG17" s="160"/>
       <c r="BH17" s="154"/>
-      <c r="BI17" s="158"/>
-      <c r="BJ17" s="159"/>
-      <c r="BK17" s="160"/>
-      <c r="BL17" s="160"/>
-      <c r="BM17" s="154"/>
-    </row>
-    <row r="18" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -8055,7 +7769,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="166" t="s">
-        <v>502</v>
+        <v>1107</v>
       </c>
       <c r="H18" s="40">
         <v>20</v>
@@ -8117,113 +7831,100 @@
       <c r="AA18" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25">
+      <c r="AB18" s="25">
         <v>1</v>
       </c>
-      <c r="AD18" s="25" t="s">
+      <c r="AC18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE18" s="25" t="s">
+      <c r="AD18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AF18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH18" s="40" t="s">
+      <c r="AE18" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="AF18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH18" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="AI18" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ18" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AK18" s="25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AL18" s="25" t="s">
         <v>29</v>
       </c>
       <c r="AM18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP18" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR18" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA18" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB18" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC18" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="63">
+        <f>Variables!Q$2</f>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BH18" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AN18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS18" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT18" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU18" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV18" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW18" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY18" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ18" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA18" s="99"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF18" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG18" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH18" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="63">
-        <f>Variables!Q$2</f>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="63" t="s">
-        <v>1048</v>
-      </c>
-      <c r="BM18" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8241,7 +7942,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="166" t="s">
-        <v>503</v>
+        <v>1108</v>
       </c>
       <c r="H19" s="40">
         <v>20</v>
@@ -8303,115 +8004,100 @@
       <c r="AA19" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB19" s="25" t="s">
+      <c r="AB19" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC19" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="25" t="s">
+      <c r="AD19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH19" s="40" t="s">
+      <c r="AE19" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="AF19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH19" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="AI19" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ19" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AK19" s="25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AL19" s="25" t="s">
         <v>29</v>
       </c>
       <c r="AM19" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO19" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP19" s="25" t="s">
+      <c r="AO19" s="42" t="s">
         <v>29</v>
       </c>
+      <c r="AP19" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS19" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT19" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU19" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV19" s="25" t="s">
+      <c r="AR19" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW19" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AX19" s="41" t="s">
+      <c r="AS19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AY19" s="41" t="s">
+      <c r="AT19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AZ19" s="42" t="s">
+      <c r="AU19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="43" t="s">
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="41"/>
+      <c r="AX19" s="41"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BF19" s="47" t="s">
+      <c r="BA19" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BG19" s="44">
+      <c r="BB19" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH19" s="42" t="s">
+      <c r="BC19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="63">
+      <c r="BD19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BL19" s="63" t="s">
+      <c r="BG19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM19" s="42" t="s">
+      <c r="BH19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8429,7 +8115,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="166" t="s">
-        <v>504</v>
+        <v>1109</v>
       </c>
       <c r="H20" s="40">
         <v>70</v>
@@ -8491,115 +8177,100 @@
       <c r="AA20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB20" s="25" t="s">
+      <c r="AB20" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC20" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="25" t="s">
+      <c r="AD20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE20" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH20" s="40" t="s">
+      <c r="AE20" s="40" t="s">
         <v>28</v>
       </c>
+      <c r="AF20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH20" s="25" t="s">
+        <v>42</v>
+      </c>
       <c r="AI20" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ20" s="25" t="s">
         <v>28</v>
       </c>
       <c r="AK20" s="25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AL20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="AM20" s="25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AP20" s="25" t="s">
+      <c r="AO20" s="42" t="s">
         <v>29</v>
       </c>
+      <c r="AP20" s="43" t="s">
+        <v>32</v>
+      </c>
       <c r="AQ20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS20" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT20" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV20" s="25" t="s">
+      <c r="AR20" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW20" s="41" t="s">
+      <c r="AS20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU20" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA20" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="BB20" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AX20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AY20" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ20" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA20" s="99"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="BF20" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="BG20" s="44">
-        <v>0.2</v>
-      </c>
-      <c r="BH20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="63">
+      <c r="BD20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BL20" s="63" t="s">
+      <c r="BG20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM20" s="42" t="s">
+      <c r="BH20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -8679,26 +8350,26 @@
       <c r="AA21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="AB21" s="25" t="s">
+      <c r="AB21" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AC21" s="25">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="25" t="s">
+      <c r="AD21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AE21" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH21" s="40" t="s">
+      <c r="AE21" s="40" t="s">
         <v>28</v>
+      </c>
+      <c r="AF21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG21" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH21" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="AI21" s="25" t="s">
         <v>28</v>
@@ -8707,7 +8378,7 @@
         <v>28</v>
       </c>
       <c r="AK21" s="25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="AL21" s="25" t="s">
         <v>28</v>
@@ -8718,61 +8389,46 @@
       <c r="AN21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AO21" s="25" t="s">
+      <c r="AO21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AP21" s="25" t="s">
-        <v>28</v>
+      <c r="AP21" s="43" t="s">
+        <v>32</v>
       </c>
       <c r="AQ21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS21" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT21" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AU21" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AV21" s="25" t="s">
+      <c r="AR21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW21" s="41" t="s">
+      <c r="AS21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX21" s="41" t="s">
+      <c r="AT21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AY21" s="41" t="s">
+      <c r="AU21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AZ21" s="42" t="s">
+      <c r="AV21" s="99"/>
+      <c r="AW21" s="41"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="43"/>
+      <c r="BA21" s="53"/>
+      <c r="BB21" s="44"/>
+      <c r="BC21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BA21" s="99"/>
-      <c r="BB21" s="41"/>
-      <c r="BC21" s="41"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="43"/>
-      <c r="BF21" s="53"/>
-      <c r="BG21" s="44"/>
-      <c r="BH21" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63" t="s">
+      <c r="BD21" s="60"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="63"/>
+      <c r="BG21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM21" s="42"/>
-    </row>
-    <row r="22" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH21" s="42"/>
+    </row>
+    <row r="22" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -8846,54 +8502,45 @@
       </c>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
-      <c r="AB22" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC22" s="25"/>
-      <c r="AD22" s="25"/>
-      <c r="AE22" s="25"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="40"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
       <c r="AI22" s="25"/>
       <c r="AJ22" s="25"/>
       <c r="AK22" s="25"/>
       <c r="AL22" s="25"/>
       <c r="AM22" s="25"/>
       <c r="AN22" s="25"/>
-      <c r="AO22" s="25"/>
-      <c r="AP22" s="25"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="43"/>
       <c r="AQ22" s="25"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT22" s="25"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="25"/>
+      <c r="AR22" s="41"/>
+      <c r="AS22" s="41"/>
+      <c r="AT22" s="41"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="99"/>
       <c r="AW22" s="41"/>
       <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="99"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="43"/>
-      <c r="BF22" s="53"/>
-      <c r="BG22" s="44"/>
-      <c r="BH22" s="42" t="s">
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="43"/>
+      <c r="BA22" s="53"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="61"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63" t="s">
+      <c r="BD22" s="60"/>
+      <c r="BE22" s="61"/>
+      <c r="BF22" s="63"/>
+      <c r="BG22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM22" s="42"/>
-    </row>
-    <row r="23" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH22" s="42"/>
+    </row>
+    <row r="23" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -8968,47 +8615,42 @@
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
-      <c r="AC23" s="25"/>
-      <c r="AD23" s="25"/>
-      <c r="AE23" s="25"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="40"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
       <c r="AI23" s="25"/>
       <c r="AJ23" s="25"/>
       <c r="AK23" s="25"/>
       <c r="AL23" s="25"/>
       <c r="AM23" s="25"/>
       <c r="AN23" s="25"/>
-      <c r="AO23" s="25"/>
-      <c r="AP23" s="25"/>
+      <c r="AO23" s="42"/>
+      <c r="AP23" s="43"/>
       <c r="AQ23" s="25"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT23" s="25"/>
-      <c r="AU23" s="43"/>
-      <c r="AV23" s="25"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="42"/>
+      <c r="AV23" s="99"/>
       <c r="AW23" s="41"/>
       <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="99"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="43"/>
-      <c r="BF23" s="53"/>
-      <c r="BG23" s="44"/>
+      <c r="AY23" s="42"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="53"/>
+      <c r="BB23" s="44"/>
+      <c r="BC23" s="42"/>
+      <c r="BD23" s="60"/>
+      <c r="BE23" s="61"/>
+      <c r="BF23" s="63"/>
+      <c r="BG23" s="63" t="s">
+        <v>1050</v>
+      </c>
       <c r="BH23" s="42"/>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="61"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="42"/>
-    </row>
-    <row r="24" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -9083,47 +8725,42 @@
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
-      <c r="AC24" s="25"/>
-      <c r="AD24" s="25"/>
-      <c r="AE24" s="25"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="40"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
       <c r="AI24" s="25"/>
       <c r="AJ24" s="25"/>
       <c r="AK24" s="25"/>
       <c r="AL24" s="25"/>
       <c r="AM24" s="25"/>
       <c r="AN24" s="25"/>
-      <c r="AO24" s="25"/>
-      <c r="AP24" s="25"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="43"/>
       <c r="AQ24" s="25"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT24" s="25"/>
-      <c r="AU24" s="43"/>
-      <c r="AV24" s="25"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="99"/>
       <c r="AW24" s="41"/>
       <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="42"/>
-      <c r="BA24" s="99"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="42"/>
-      <c r="BE24" s="43"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="44"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="44"/>
+      <c r="BC24" s="42"/>
+      <c r="BD24" s="60"/>
+      <c r="BE24" s="61"/>
+      <c r="BF24" s="63"/>
+      <c r="BG24" s="63" t="s">
+        <v>1050</v>
+      </c>
       <c r="BH24" s="42"/>
-      <c r="BI24" s="60"/>
-      <c r="BJ24" s="61"/>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="63"/>
-      <c r="BM24" s="42"/>
-    </row>
-    <row r="25" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1069</v>
@@ -9198,51 +8835,44 @@
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
       <c r="AB25" s="25"/>
-      <c r="AC25" s="25"/>
-      <c r="AD25" s="25"/>
-      <c r="AE25" s="25"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="40"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
       <c r="AI25" s="25"/>
       <c r="AJ25" s="25"/>
       <c r="AK25" s="25"/>
       <c r="AL25" s="25"/>
       <c r="AM25" s="25"/>
       <c r="AN25" s="25"/>
-      <c r="AO25" s="25"/>
-      <c r="AP25" s="25"/>
+      <c r="AO25" s="42"/>
+      <c r="AP25" s="43"/>
       <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="25"/>
+      <c r="AR25" s="41"/>
+      <c r="AS25" s="41"/>
+      <c r="AT25" s="41"/>
+      <c r="AU25" s="42"/>
+      <c r="AV25" s="99"/>
       <c r="AW25" s="41"/>
       <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="42"/>
-      <c r="BA25" s="99"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="42"/>
-      <c r="BE25" s="43"/>
-      <c r="BF25" s="53"/>
-      <c r="BG25" s="44"/>
-      <c r="BH25" s="42" t="s">
+      <c r="AY25" s="42"/>
+      <c r="AZ25" s="43"/>
+      <c r="BA25" s="53"/>
+      <c r="BB25" s="44"/>
+      <c r="BC25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI25" s="60"/>
-      <c r="BJ25" s="61"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63" t="s">
+      <c r="BD25" s="60"/>
+      <c r="BE25" s="61"/>
+      <c r="BF25" s="63"/>
+      <c r="BG25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM25" s="42"/>
-    </row>
-    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH25" s="42"/>
+    </row>
+    <row r="26" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1068</v>
@@ -9317,51 +8947,44 @@
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
       <c r="AB26" s="25"/>
-      <c r="AC26" s="25"/>
-      <c r="AD26" s="25"/>
-      <c r="AE26" s="25"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="40"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="40"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
       <c r="AJ26" s="25"/>
       <c r="AK26" s="25"/>
       <c r="AL26" s="25"/>
       <c r="AM26" s="25"/>
       <c r="AN26" s="25"/>
-      <c r="AO26" s="25"/>
-      <c r="AP26" s="25"/>
+      <c r="AO26" s="42"/>
+      <c r="AP26" s="43"/>
       <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="43"/>
-      <c r="AV26" s="25"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="42"/>
+      <c r="AV26" s="99"/>
       <c r="AW26" s="41"/>
       <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="42"/>
-      <c r="BA26" s="99"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="42"/>
-      <c r="BE26" s="43"/>
-      <c r="BF26" s="53"/>
-      <c r="BG26" s="44"/>
-      <c r="BH26" s="42" t="s">
+      <c r="AY26" s="42"/>
+      <c r="AZ26" s="43"/>
+      <c r="BA26" s="53"/>
+      <c r="BB26" s="44"/>
+      <c r="BC26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="61"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63" t="s">
+      <c r="BD26" s="60"/>
+      <c r="BE26" s="61"/>
+      <c r="BF26" s="63"/>
+      <c r="BG26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM26" s="42"/>
-    </row>
-    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH26" s="42"/>
+    </row>
+    <row r="27" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1067</v>
@@ -9436,57 +9059,50 @@
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
       <c r="AB27" s="25"/>
-      <c r="AC27" s="25"/>
-      <c r="AD27" s="25"/>
-      <c r="AE27" s="25"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="40"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
       <c r="AI27" s="25"/>
       <c r="AJ27" s="25"/>
       <c r="AK27" s="25"/>
       <c r="AL27" s="25"/>
       <c r="AM27" s="25"/>
       <c r="AN27" s="25"/>
-      <c r="AO27" s="25"/>
-      <c r="AP27" s="25"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="43"/>
       <c r="AQ27" s="25"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="43"/>
-      <c r="AV27" s="25"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="99"/>
       <c r="AW27" s="41"/>
       <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="99"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="43"/>
-      <c r="BF27" s="53"/>
-      <c r="BG27" s="44"/>
-      <c r="BH27" s="42" t="s">
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="43"/>
+      <c r="BA27" s="53"/>
+      <c r="BB27" s="44"/>
+      <c r="BC27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI27" s="60"/>
-      <c r="BJ27" s="61"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63" t="s">
+      <c r="BD27" s="60"/>
+      <c r="BE27" s="61"/>
+      <c r="BF27" s="63"/>
+      <c r="BG27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM27" s="42"/>
-    </row>
-    <row r="28" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BH27" s="42"/>
+    </row>
+    <row r="28" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1073</v>
       </c>
       <c r="C28" s="140" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D28" s="25">
         <v>3</v>
@@ -9555,51 +9171,44 @@
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
       <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="25"/>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="40"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
       <c r="AI28" s="25"/>
       <c r="AJ28" s="25"/>
       <c r="AK28" s="25"/>
       <c r="AL28" s="25"/>
       <c r="AM28" s="25"/>
       <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="25"/>
+      <c r="AO28" s="42"/>
+      <c r="AP28" s="43"/>
       <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="25"/>
+      <c r="AR28" s="41"/>
+      <c r="AS28" s="41"/>
+      <c r="AT28" s="41"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="99"/>
       <c r="AW28" s="41"/>
       <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="99"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="43"/>
-      <c r="BF28" s="53"/>
-      <c r="BG28" s="44"/>
-      <c r="BH28" s="42" t="s">
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="43"/>
+      <c r="BA28" s="53"/>
+      <c r="BB28" s="44"/>
+      <c r="BC28" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="61"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63" t="s">
+      <c r="BD28" s="60"/>
+      <c r="BE28" s="61"/>
+      <c r="BF28" s="63"/>
+      <c r="BG28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM28" s="42"/>
-    </row>
-    <row r="29" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BH28" s="42"/>
+    </row>
+    <row r="29" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -9628,80 +9237,399 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="5"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="4"/>
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="4"/>
+      <c r="AO29" s="6"/>
+      <c r="AP29" s="7"/>
       <c r="AQ29" s="4"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="4"/>
-      <c r="AT29" s="4"/>
-      <c r="AU29" s="7"/>
-      <c r="AV29" s="4"/>
+      <c r="AR29" s="8"/>
+      <c r="AS29" s="8"/>
+      <c r="AT29" s="8"/>
+      <c r="AU29" s="6"/>
+      <c r="AV29" s="100"/>
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="100"/>
-      <c r="BB29" s="8"/>
-      <c r="BC29" s="8"/>
-      <c r="BD29" s="6"/>
-      <c r="BE29" s="7"/>
-      <c r="BF29" s="48"/>
-      <c r="BG29" s="10"/>
+      <c r="AY29" s="6"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="48"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="7"/>
+      <c r="BE29" s="48"/>
+      <c r="BF29" s="64"/>
+      <c r="BG29" s="64"/>
       <c r="BH29" s="6"/>
-      <c r="BI29" s="7"/>
-      <c r="BJ29" s="48"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="64"/>
-      <c r="BM29" s="6"/>
-    </row>
-    <row r="30" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="AB30" s="4"/>
+    </row>
+    <row r="33" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY33" s="45"/>
+      <c r="AZ33" s="9"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="45"/>
+      <c r="BD33" s="45"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33"/>
+      <c r="BH33"/>
+    </row>
+    <row r="34" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="9"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="45"/>
+      <c r="BD34" s="45"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34"/>
+      <c r="BH34"/>
+    </row>
+    <row r="35" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY35" s="45"/>
+      <c r="AZ35" s="9"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="45"/>
+      <c r="BD35" s="45"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+    </row>
+    <row r="36" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="9"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="45"/>
+      <c r="BD36" s="45"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+    </row>
+    <row r="37" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY37" s="45"/>
+      <c r="AZ37" s="9"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="45"/>
+      <c r="BD37" s="45"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+    </row>
+    <row r="38" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY38" s="45"/>
+      <c r="AZ38" s="9"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="45"/>
+      <c r="BD38" s="45"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+    </row>
+    <row r="39" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY39" s="45"/>
+      <c r="AZ39" s="9"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="45"/>
+      <c r="BD39" s="45"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+    </row>
+    <row r="40" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY40" s="45"/>
+      <c r="AZ40" s="9"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="45"/>
+      <c r="BD40" s="45"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+    </row>
+    <row r="41" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY41" s="45"/>
+      <c r="AZ41" s="9"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="45"/>
+      <c r="BD41" s="45"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+    </row>
+    <row r="42" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY42" s="45"/>
+      <c r="AZ42" s="9"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="45"/>
+      <c r="BD42" s="45"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+    </row>
+    <row r="43" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY43" s="45"/>
+      <c r="AZ43" s="9"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="45"/>
+      <c r="BD43" s="45"/>
+      <c r="BF43" s="2"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+    </row>
+    <row r="44" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY44" s="45"/>
+      <c r="AZ44" s="9"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="45"/>
+      <c r="BD44" s="45"/>
+      <c r="BF44" s="2"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+    </row>
+    <row r="45" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="9"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="45"/>
+      <c r="BD45" s="45"/>
+      <c r="BF45" s="2"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+    </row>
+    <row r="46" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY46" s="45"/>
+      <c r="AZ46" s="9"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="45"/>
+      <c r="BD46" s="45"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+    </row>
+    <row r="47" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY47" s="45"/>
+      <c r="AZ47" s="9"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="45"/>
+      <c r="BD47" s="45"/>
+      <c r="BF47" s="2"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+    </row>
+    <row r="48" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY48" s="45"/>
+      <c r="AZ48" s="9"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="45"/>
+      <c r="BD48" s="45"/>
+      <c r="BF48" s="2"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+    </row>
+    <row r="49" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY49" s="45"/>
+      <c r="AZ49" s="9"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="45"/>
+      <c r="BD49" s="45"/>
+      <c r="BF49" s="2"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+    </row>
+    <row r="50" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY50" s="45"/>
+      <c r="AZ50" s="9"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="45"/>
+      <c r="BD50" s="45"/>
+      <c r="BF50" s="2"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+    </row>
+    <row r="51" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY51" s="45"/>
+      <c r="AZ51" s="9"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="45"/>
+      <c r="BD51" s="45"/>
+      <c r="BF51" s="2"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+    </row>
+    <row r="52" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY52" s="45"/>
+      <c r="AZ52" s="9"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="45"/>
+      <c r="BD52" s="45"/>
+      <c r="BF52" s="2"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+    </row>
+    <row r="53" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY53" s="45"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="45"/>
+      <c r="BD53" s="45"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53"/>
+      <c r="BH53"/>
+    </row>
+    <row r="54" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY54" s="45"/>
+      <c r="AZ54" s="9"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="45"/>
+      <c r="BD54" s="45"/>
+      <c r="BF54" s="2"/>
+      <c r="BG54"/>
+      <c r="BH54"/>
+    </row>
+    <row r="55" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY55" s="45"/>
+      <c r="AZ55" s="9"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="45"/>
+      <c r="BD55" s="45"/>
+      <c r="BF55" s="2"/>
+      <c r="BG55"/>
+      <c r="BH55"/>
+    </row>
+    <row r="56" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY56" s="45"/>
+      <c r="AZ56" s="9"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="45"/>
+      <c r="BD56" s="45"/>
+      <c r="BF56" s="2"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+    </row>
+    <row r="57" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY57" s="45"/>
+      <c r="AZ57" s="9"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="45"/>
+      <c r="BD57" s="45"/>
+      <c r="BF57" s="2"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+    </row>
+    <row r="58" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY58" s="45"/>
+      <c r="AZ58" s="9"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="45"/>
+      <c r="BD58" s="45"/>
+      <c r="BF58" s="2"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+    </row>
+    <row r="59" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY59" s="45"/>
+      <c r="AZ59" s="9"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="45"/>
+      <c r="BD59" s="45"/>
+      <c r="BF59" s="2"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+    </row>
+    <row r="60" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY60" s="45"/>
+      <c r="AZ60" s="9"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="45"/>
+      <c r="BD60" s="45"/>
+      <c r="BF60" s="2"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+    </row>
+    <row r="61" spans="51:60" x14ac:dyDescent="0.2">
+      <c r="AY61" s="45"/>
+      <c r="AZ61" s="9"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="45"/>
+      <c r="BD61" s="45"/>
+      <c r="BF61" s="2"/>
+      <c r="BG61"/>
+      <c r="BH61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BD2:BH2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
-    <mergeCell ref="W2:AG2"/>
-    <mergeCell ref="AH2:AT2"/>
-    <mergeCell ref="AU2:AZ2"/>
-    <mergeCell ref="BA2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="W2:AD2"/>
+    <mergeCell ref="AE2:AO2"/>
+    <mergeCell ref="AP2:AU2"/>
+    <mergeCell ref="AV2:AY2"/>
+    <mergeCell ref="AZ2:BC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 AB14 W14:AA30 A4:G27 W4:BM13 AC14:BM30 H4:V30">
-    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 A4:G27 AA14 AA18:AA29 W4:BH13 AB14:BH30">
+    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="22" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AB30">
-    <cfRule type="expression" dxfId="18" priority="23" stopIfTrue="1">
+  <conditionalFormatting sqref="AA16:AA17">
+    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+      <formula>$A15="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+      <formula>$A15="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9719,10 +9647,10 @@
   <dimension ref="A1:BC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13716,42 +13644,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45197,31 +45125,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2790" windowWidth="15180" windowHeight="8715" tabRatio="712"/>
+    <workbookView xWindow="5955" yWindow="2850" windowWidth="15180" windowHeight="8655" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -4547,7 +4547,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="35">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4630,34 +4630,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2850" windowWidth="15180" windowHeight="8655" tabRatio="712"/>
+    <workbookView xWindow="5955" yWindow="2910" windowWidth="15180" windowHeight="8595" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="1111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1122">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3382,6 +3382,39 @@
   </si>
   <si>
     <t>ServoDyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible, DLL control, tower potential flow and drag, turbulence </t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, tower potential flow, turbulence, irregular waves</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, tower potential flow, turbulence, irregular waves, marine growth</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, irregular &amp; multidirectional waves, turbulence</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, turbulence, irregular waves</t>
+  </si>
+  <si>
+    <t>OC4 Load Case (LC) 3.7: steady wind, white noise waves</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, tower potential flow, steady wind, regular waves with 0 phase</t>
+  </si>
+  <si>
+    <t>Test25</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>Test22</t>
   </si>
 </sst>
 </file>
@@ -4070,7 +4103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4399,63 +4432,6 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4466,12 +4442,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4520,9 +4490,6 @@
     <xf numFmtId="1" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4532,9 +4499,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -4542,12 +4506,200 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4630,62 +4782,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5116,133 +5212,136 @@
   <dimension ref="A1:BH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BG24" sqref="BG23:BG24"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="171" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
     <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.28515625" style="2" customWidth="1"/>
     <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="3.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.28515625" style="2" customWidth="1"/>
     <col min="28" max="28" width="3.28515625" style="2" customWidth="1"/>
-    <col min="29" max="29" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="41" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.5703125" style="2" customWidth="1"/>
-    <col min="43" max="52" width="4.85546875" style="2" customWidth="1"/>
-    <col min="53" max="53" width="4.85546875" style="45" customWidth="1"/>
-    <col min="54" max="54" width="4.85546875" style="9" customWidth="1"/>
-    <col min="55" max="56" width="4.85546875" style="2" customWidth="1"/>
-    <col min="57" max="58" width="4.85546875" style="45" customWidth="1"/>
-    <col min="59" max="59" width="6.7109375" style="45" customWidth="1"/>
-    <col min="60" max="60" width="4.85546875" style="2" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="41" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="4.85546875" style="2" customWidth="1"/>
+    <col min="52" max="52" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5" style="2" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="4.42578125" customWidth="1"/>
     <col min="62" max="62" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="161" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="154"/>
+      <c r="H2" s="149" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="144"/>
-      <c r="W2" s="127" t="s">
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="150"/>
+      <c r="U2" s="150"/>
+      <c r="V2" s="151"/>
+      <c r="W2" s="147" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="129" t="s">
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="155"/>
+      <c r="AA2" s="155"/>
+      <c r="AB2" s="155"/>
+      <c r="AC2" s="155"/>
+      <c r="AD2" s="156"/>
+      <c r="AE2" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="131"/>
-      <c r="AP2" s="124" t="s">
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="158"/>
+      <c r="AK2" s="158"/>
+      <c r="AL2" s="158"/>
+      <c r="AM2" s="158"/>
+      <c r="AN2" s="158"/>
+      <c r="AO2" s="159"/>
+      <c r="AP2" s="160" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="138"/>
-      <c r="AV2" s="123" t="s">
+      <c r="AQ2" s="161"/>
+      <c r="AR2" s="161"/>
+      <c r="AS2" s="161"/>
+      <c r="AT2" s="161"/>
+      <c r="AU2" s="162"/>
+      <c r="AV2" s="163" t="s">
         <v>1061</v>
       </c>
-      <c r="AW2" s="124"/>
-      <c r="AX2" s="124"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="132" t="s">
+      <c r="AW2" s="160"/>
+      <c r="AX2" s="160"/>
+      <c r="AY2" s="164"/>
+      <c r="AZ2" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" s="133"/>
-      <c r="BB2" s="133"/>
-      <c r="BC2" s="134"/>
-      <c r="BD2" s="126" t="s">
+      <c r="BA2" s="166"/>
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="167"/>
+      <c r="BD2" s="146" t="s">
         <v>1047</v>
       </c>
-      <c r="BE2" s="127"/>
-      <c r="BF2" s="127"/>
-      <c r="BG2" s="127"/>
-      <c r="BH2" s="128"/>
-    </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BE2" s="147"/>
+      <c r="BF2" s="147"/>
+      <c r="BG2" s="147"/>
+      <c r="BH2" s="148"/>
+    </row>
+    <row r="3" spans="1:60" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="122" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="80" t="s">
@@ -5254,52 +5353,52 @@
       <c r="F3" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="162" t="s">
+      <c r="H3" s="140" t="s">
         <v>1090</v>
       </c>
-      <c r="I3" s="145" t="s">
+      <c r="I3" s="124" t="s">
         <v>1091</v>
       </c>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="124" t="s">
         <v>1092</v>
       </c>
-      <c r="K3" s="145" t="s">
+      <c r="K3" s="124" t="s">
         <v>1093</v>
       </c>
-      <c r="L3" s="145" t="s">
+      <c r="L3" s="124" t="s">
         <v>1094</v>
       </c>
-      <c r="M3" s="145" t="s">
+      <c r="M3" s="124" t="s">
         <v>1097</v>
       </c>
-      <c r="N3" s="145" t="s">
+      <c r="N3" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="145" t="s">
+      <c r="O3" s="124" t="s">
         <v>1098</v>
       </c>
-      <c r="P3" s="145" t="s">
+      <c r="P3" s="124" t="s">
         <v>1063</v>
       </c>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="124" t="s">
         <v>1099</v>
       </c>
-      <c r="R3" s="145" t="s">
+      <c r="R3" s="124" t="s">
         <v>1100</v>
       </c>
-      <c r="S3" s="145" t="s">
+      <c r="S3" s="124" t="s">
         <v>1101</v>
       </c>
-      <c r="T3" s="146" t="s">
+      <c r="T3" s="125" t="s">
         <v>1095</v>
       </c>
-      <c r="U3" s="146" t="s">
+      <c r="U3" s="125" t="s">
         <v>1103</v>
       </c>
-      <c r="V3" s="147" t="s">
+      <c r="V3" s="126" t="s">
         <v>1096</v>
       </c>
       <c r="W3" s="66" t="s">
@@ -5356,10 +5455,10 @@
       <c r="AN3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AO3" s="170" t="s">
+      <c r="AO3" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="169" t="s">
+      <c r="AP3" s="144" t="s">
         <v>44</v>
       </c>
       <c r="AQ3" s="72" t="s">
@@ -5414,7 +5513,7 @@
       <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="172" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5426,13 +5525,13 @@
       <c r="F4" s="55">
         <v>175</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="168" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="163">
+      <c r="H4" s="141">
         <v>20</v>
       </c>
-      <c r="I4" s="139">
+      <c r="I4" s="120">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J4" s="29">
@@ -5465,7 +5564,7 @@
       <c r="S4" s="25">
         <v>0</v>
       </c>
-      <c r="T4" s="139">
+      <c r="T4" s="120">
         <v>0.02</v>
       </c>
       <c r="U4" s="29">
@@ -5587,7 +5686,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="172" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -5599,13 +5698,13 @@
       <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="166" t="s">
+      <c r="G5" s="169" t="s">
         <v>1106</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
       </c>
-      <c r="I5" s="140">
+      <c r="I5" s="121">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J5" s="25">
@@ -5638,10 +5737,10 @@
       <c r="S5" s="25">
         <v>0</v>
       </c>
-      <c r="T5" s="148">
+      <c r="T5" s="127">
         <v>0.04</v>
       </c>
-      <c r="U5" s="142">
+      <c r="U5" s="123">
         <v>5</v>
       </c>
       <c r="V5" s="38">
@@ -5760,7 +5859,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="172" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -5772,13 +5871,13 @@
       <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="166" t="s">
+      <c r="G6" s="169" t="s">
         <v>491</v>
       </c>
       <c r="H6" s="40">
         <v>20</v>
       </c>
-      <c r="I6" s="140">
+      <c r="I6" s="121">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J6" s="25">
@@ -5811,10 +5910,10 @@
       <c r="S6" s="25">
         <v>0</v>
       </c>
-      <c r="T6" s="148">
+      <c r="T6" s="127">
         <v>0.02</v>
       </c>
-      <c r="U6" s="142">
+      <c r="U6" s="123">
         <v>10</v>
       </c>
       <c r="V6" s="38">
@@ -5933,7 +6032,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="172" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -5945,13 +6044,13 @@
       <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="166" t="s">
+      <c r="G7" s="169" t="s">
         <v>492</v>
       </c>
       <c r="H7" s="40">
         <v>70</v>
       </c>
-      <c r="I7" s="140">
+      <c r="I7" s="121">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J7" s="25">
@@ -5984,10 +6083,10 @@
       <c r="S7" s="25">
         <v>0</v>
       </c>
-      <c r="T7" s="148">
+      <c r="T7" s="127">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U7" s="142">
+      <c r="U7" s="123">
         <v>10</v>
       </c>
       <c r="V7" s="38">
@@ -6106,7 +6205,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="172" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -6118,13 +6217,13 @@
       <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="166" t="s">
+      <c r="G8" s="169" t="s">
         <v>1106</v>
       </c>
       <c r="H8" s="40">
         <v>30</v>
       </c>
-      <c r="I8" s="140">
+      <c r="I8" s="121">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J8" s="25">
@@ -6157,10 +6256,10 @@
       <c r="S8" s="25">
         <v>0</v>
       </c>
-      <c r="T8" s="148">
+      <c r="T8" s="127">
         <v>0.04</v>
       </c>
-      <c r="U8" s="142">
+      <c r="U8" s="123">
         <v>5</v>
       </c>
       <c r="V8" s="38">
@@ -6279,7 +6378,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="173" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6292,13 +6391,13 @@
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="166" t="s">
+      <c r="G9" s="169" t="s">
         <v>1106</v>
       </c>
       <c r="H9" s="40">
         <v>35</v>
       </c>
-      <c r="I9" s="140">
+      <c r="I9" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J9" s="25">
@@ -6331,10 +6430,10 @@
       <c r="S9" s="25">
         <v>0</v>
       </c>
-      <c r="T9" s="148">
+      <c r="T9" s="127">
         <v>0.05</v>
       </c>
-      <c r="U9" s="142">
+      <c r="U9" s="123">
         <v>5</v>
       </c>
       <c r="V9" s="38">
@@ -6453,7 +6552,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="173" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -6466,13 +6565,13 @@
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="166" t="s">
+      <c r="G10" s="169" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="40">
         <v>70</v>
       </c>
-      <c r="I10" s="140">
+      <c r="I10" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="25">
@@ -6505,7 +6604,7 @@
       <c r="S10" s="25">
         <v>0</v>
       </c>
-      <c r="T10" s="140">
+      <c r="T10" s="121">
         <v>0.05</v>
       </c>
       <c r="U10" s="25">
@@ -6627,7 +6726,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="173" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -6640,13 +6739,13 @@
       <c r="F11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="165" t="s">
+      <c r="G11" s="168" t="s">
         <v>497</v>
       </c>
       <c r="H11" s="40">
         <v>20</v>
       </c>
-      <c r="I11" s="140">
+      <c r="I11" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="25">
@@ -6679,7 +6778,7 @@
       <c r="S11" s="25">
         <v>0</v>
       </c>
-      <c r="T11" s="140">
+      <c r="T11" s="121">
         <v>0.05</v>
       </c>
       <c r="U11" s="25">
@@ -6801,7 +6900,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="173" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -6813,13 +6912,13 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="166" t="s">
+      <c r="G12" s="169" t="s">
         <v>493</v>
       </c>
       <c r="H12" s="40">
         <v>40</v>
       </c>
-      <c r="I12" s="140">
+      <c r="I12" s="121">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J12" s="25">
@@ -6852,7 +6951,7 @@
       <c r="S12" s="25">
         <v>0</v>
       </c>
-      <c r="T12" s="140">
+      <c r="T12" s="121">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="U12" s="25">
@@ -6974,7 +7073,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="173" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -6986,13 +7085,13 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="166" t="s">
+      <c r="G13" s="169" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="40">
         <v>25</v>
       </c>
-      <c r="I13" s="140">
+      <c r="I13" s="121">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J13" s="25">
@@ -7025,7 +7124,7 @@
       <c r="S13" s="25">
         <v>0</v>
       </c>
-      <c r="T13" s="140">
+      <c r="T13" s="121">
         <v>0.1</v>
       </c>
       <c r="U13" s="25">
@@ -7142,12 +7241,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="173" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -7159,13 +7258,13 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="166" t="s">
+      <c r="G14" s="169" t="s">
         <v>500</v>
       </c>
       <c r="H14" s="40">
         <v>20</v>
       </c>
-      <c r="I14" s="140">
+      <c r="I14" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14" s="25">
@@ -7198,7 +7297,7 @@
       <c r="S14" s="25">
         <v>0</v>
       </c>
-      <c r="T14" s="140">
+      <c r="T14" s="121">
         <v>0.05</v>
       </c>
       <c r="U14" s="25">
@@ -7315,12 +7414,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="173" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -7332,13 +7431,13 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="166" t="s">
+      <c r="G15" s="169" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="40">
         <v>20</v>
       </c>
-      <c r="I15" s="140">
+      <c r="I15" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J15" s="25">
@@ -7371,7 +7470,7 @@
       <c r="S15" s="25">
         <v>0</v>
       </c>
-      <c r="T15" s="140">
+      <c r="T15" s="121">
         <v>0.05</v>
       </c>
       <c r="U15" s="25">
@@ -7488,12 +7587,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="173" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -7505,13 +7604,13 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="166" t="s">
+      <c r="G16" s="169" t="s">
         <v>495</v>
       </c>
       <c r="H16" s="40">
         <v>40</v>
       </c>
-      <c r="I16" s="140">
+      <c r="I16" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J16" s="25">
@@ -7544,7 +7643,7 @@
       <c r="S16" s="25">
         <v>0</v>
       </c>
-      <c r="T16" s="140">
+      <c r="T16" s="121">
         <v>0.05</v>
       </c>
       <c r="U16" s="25">
@@ -7663,72 +7762,72 @@
     </row>
     <row r="17" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="149"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="151"/>
-      <c r="Q17" s="151"/>
-      <c r="R17" s="151"/>
-      <c r="S17" s="151"/>
-      <c r="T17" s="150"/>
-      <c r="U17" s="151"/>
-      <c r="V17" s="154"/>
-      <c r="W17" s="152"/>
-      <c r="X17" s="151"/>
-      <c r="Y17" s="151"/>
-      <c r="Z17" s="151"/>
-      <c r="AA17" s="151"/>
-      <c r="AB17" s="151"/>
-      <c r="AC17" s="153"/>
-      <c r="AD17" s="153"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="151"/>
-      <c r="AG17" s="151"/>
-      <c r="AH17" s="151"/>
-      <c r="AI17" s="151"/>
-      <c r="AJ17" s="151"/>
-      <c r="AK17" s="151"/>
-      <c r="AL17" s="151"/>
-      <c r="AM17" s="151"/>
-      <c r="AN17" s="151"/>
-      <c r="AO17" s="154"/>
-      <c r="AP17" s="152"/>
-      <c r="AQ17" s="151"/>
-      <c r="AR17" s="153"/>
-      <c r="AS17" s="153"/>
-      <c r="AT17" s="153"/>
-      <c r="AU17" s="154"/>
-      <c r="AV17" s="155"/>
-      <c r="AW17" s="153"/>
-      <c r="AX17" s="153"/>
-      <c r="AY17" s="154"/>
-      <c r="AZ17" s="152"/>
-      <c r="BA17" s="156"/>
-      <c r="BB17" s="157"/>
-      <c r="BC17" s="154"/>
-      <c r="BD17" s="158"/>
-      <c r="BE17" s="159"/>
-      <c r="BF17" s="160"/>
-      <c r="BG17" s="160"/>
-      <c r="BH17" s="154"/>
-    </row>
-    <row r="18" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="128"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="130"/>
+      <c r="O17" s="130"/>
+      <c r="P17" s="130"/>
+      <c r="Q17" s="130"/>
+      <c r="R17" s="130"/>
+      <c r="S17" s="130"/>
+      <c r="T17" s="129"/>
+      <c r="U17" s="130"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="131"/>
+      <c r="X17" s="130"/>
+      <c r="Y17" s="130"/>
+      <c r="Z17" s="130"/>
+      <c r="AA17" s="130"/>
+      <c r="AB17" s="130"/>
+      <c r="AC17" s="132"/>
+      <c r="AD17" s="132"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="130"/>
+      <c r="AG17" s="130"/>
+      <c r="AH17" s="130"/>
+      <c r="AI17" s="130"/>
+      <c r="AJ17" s="130"/>
+      <c r="AK17" s="130"/>
+      <c r="AL17" s="130"/>
+      <c r="AM17" s="130"/>
+      <c r="AN17" s="130"/>
+      <c r="AO17" s="133"/>
+      <c r="AP17" s="131"/>
+      <c r="AQ17" s="130"/>
+      <c r="AR17" s="132"/>
+      <c r="AS17" s="132"/>
+      <c r="AT17" s="132"/>
+      <c r="AU17" s="133"/>
+      <c r="AV17" s="134"/>
+      <c r="AW17" s="132"/>
+      <c r="AX17" s="132"/>
+      <c r="AY17" s="133"/>
+      <c r="AZ17" s="131"/>
+      <c r="BA17" s="135"/>
+      <c r="BB17" s="136"/>
+      <c r="BC17" s="133"/>
+      <c r="BD17" s="137"/>
+      <c r="BE17" s="138"/>
+      <c r="BF17" s="139"/>
+      <c r="BG17" s="139"/>
+      <c r="BH17" s="133"/>
+    </row>
+    <row r="18" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="173" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -7740,13 +7839,13 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="166" t="s">
+      <c r="G18" s="169" t="s">
         <v>1107</v>
       </c>
       <c r="H18" s="40">
         <v>20</v>
       </c>
-      <c r="I18" s="140">
+      <c r="I18" s="121">
         <v>1E-3</v>
       </c>
       <c r="J18" s="25">
@@ -7779,7 +7878,7 @@
       <c r="S18" s="25">
         <v>0</v>
       </c>
-      <c r="T18" s="140">
+      <c r="T18" s="121">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U18" s="25">
@@ -7896,12 +7995,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="173" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -7913,13 +8012,13 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="166" t="s">
+      <c r="G19" s="169" t="s">
         <v>1108</v>
       </c>
       <c r="H19" s="40">
         <v>20</v>
       </c>
-      <c r="I19" s="140">
+      <c r="I19" s="121">
         <v>1E-3</v>
       </c>
       <c r="J19" s="25">
@@ -7952,7 +8051,7 @@
       <c r="S19" s="25">
         <v>0</v>
       </c>
-      <c r="T19" s="140">
+      <c r="T19" s="121">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U19" s="25">
@@ -8069,12 +8168,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="173" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -8086,13 +8185,13 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="166" t="s">
+      <c r="G20" s="169" t="s">
         <v>1109</v>
       </c>
       <c r="H20" s="40">
         <v>70</v>
       </c>
-      <c r="I20" s="140">
+      <c r="I20" s="121">
         <v>1E-3</v>
       </c>
       <c r="J20" s="25">
@@ -8125,7 +8224,7 @@
       <c r="S20" s="25">
         <v>0</v>
       </c>
-      <c r="T20" s="140">
+      <c r="T20" s="121">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U20" s="25">
@@ -8242,12 +8341,12 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="173" t="s">
         <v>1089</v>
       </c>
       <c r="D21" s="25">
@@ -8259,13 +8358,13 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="166" t="s">
-        <v>1074</v>
+      <c r="G21" s="169" t="s">
+        <v>1111</v>
       </c>
       <c r="H21" s="40">
         <v>60</v>
       </c>
-      <c r="I21" s="140">
+      <c r="I21" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J21" s="25">
@@ -8298,7 +8397,7 @@
       <c r="S21" s="25">
         <v>0</v>
       </c>
-      <c r="T21" s="140">
+      <c r="T21" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U21" s="25">
@@ -8400,12 +8499,12 @@
       </c>
       <c r="BH21" s="42"/>
     </row>
-    <row r="22" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="173" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -8417,13 +8516,13 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="166" t="s">
-        <v>1076</v>
+      <c r="G22" s="169" t="s">
+        <v>1112</v>
       </c>
       <c r="H22" s="40">
         <v>60</v>
       </c>
-      <c r="I22" s="140">
+      <c r="I22" s="121">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J22" s="25">
@@ -8456,7 +8555,7 @@
       <c r="S22" s="25">
         <v>0</v>
       </c>
-      <c r="T22" s="140">
+      <c r="T22" s="121">
         <v>0.05</v>
       </c>
       <c r="U22" s="25">
@@ -8477,17 +8576,39 @@
       <c r="AB22" s="25"/>
       <c r="AC22" s="41"/>
       <c r="AD22" s="41"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="25"/>
-      <c r="AG22" s="25"/>
-      <c r="AH22" s="25"/>
-      <c r="AI22" s="25"/>
-      <c r="AJ22" s="25"/>
-      <c r="AK22" s="25"/>
-      <c r="AL22" s="25"/>
-      <c r="AM22" s="25"/>
-      <c r="AN22" s="25"/>
-      <c r="AO22" s="42"/>
+      <c r="AE22" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO22" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP22" s="43"/>
       <c r="AQ22" s="25"/>
       <c r="AR22" s="41"/>
@@ -8512,12 +8633,12 @@
       </c>
       <c r="BH22" s="42"/>
     </row>
-    <row r="23" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="173" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -8529,13 +8650,13 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="166" t="s">
-        <v>1075</v>
+      <c r="G23" s="169" t="s">
+        <v>1117</v>
       </c>
       <c r="H23" s="40">
         <v>60</v>
       </c>
-      <c r="I23" s="140">
+      <c r="I23" s="121">
         <v>0.01</v>
       </c>
       <c r="J23" s="25">
@@ -8568,7 +8689,7 @@
       <c r="S23" s="25">
         <v>0</v>
       </c>
-      <c r="T23" s="140">
+      <c r="T23" s="121">
         <v>0.05</v>
       </c>
       <c r="U23" s="25">
@@ -8589,17 +8710,39 @@
       <c r="AB23" s="25"/>
       <c r="AC23" s="41"/>
       <c r="AD23" s="41"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="25"/>
-      <c r="AG23" s="25"/>
-      <c r="AH23" s="25"/>
-      <c r="AI23" s="25"/>
-      <c r="AJ23" s="25"/>
-      <c r="AK23" s="25"/>
-      <c r="AL23" s="25"/>
-      <c r="AM23" s="25"/>
-      <c r="AN23" s="25"/>
-      <c r="AO23" s="42"/>
+      <c r="AE23" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO23" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP23" s="43"/>
       <c r="AQ23" s="25"/>
       <c r="AR23" s="41"/>
@@ -8622,12 +8765,12 @@
       </c>
       <c r="BH23" s="42"/>
     </row>
-    <row r="24" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="173" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -8639,13 +8782,13 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="166" t="s">
-        <v>1072</v>
+      <c r="G24" s="169" t="s">
+        <v>1113</v>
       </c>
       <c r="H24" s="40">
         <v>60</v>
       </c>
-      <c r="I24" s="140">
+      <c r="I24" s="121">
         <v>0.01</v>
       </c>
       <c r="J24" s="25">
@@ -8678,7 +8821,7 @@
       <c r="S24" s="25">
         <v>0</v>
       </c>
-      <c r="T24" s="140">
+      <c r="T24" s="121">
         <v>0.05</v>
       </c>
       <c r="U24" s="25">
@@ -8699,17 +8842,39 @@
       <c r="AB24" s="25"/>
       <c r="AC24" s="41"/>
       <c r="AD24" s="41"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="25"/>
-      <c r="AG24" s="25"/>
-      <c r="AH24" s="25"/>
-      <c r="AI24" s="25"/>
-      <c r="AJ24" s="25"/>
-      <c r="AK24" s="25"/>
-      <c r="AL24" s="25"/>
-      <c r="AM24" s="25"/>
-      <c r="AN24" s="25"/>
-      <c r="AO24" s="42"/>
+      <c r="AE24" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH24" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN24" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO24" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP24" s="43"/>
       <c r="AQ24" s="25"/>
       <c r="AR24" s="41"/>
@@ -8732,12 +8897,12 @@
       </c>
       <c r="BH24" s="42"/>
     </row>
-    <row r="25" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C25" s="140" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C25" s="173" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -8749,13 +8914,13 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="166" t="s">
-        <v>1066</v>
+      <c r="G25" s="169" t="s">
+        <v>1114</v>
       </c>
       <c r="H25" s="40">
         <v>60</v>
       </c>
-      <c r="I25" s="140">
+      <c r="I25" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J25" s="25">
@@ -8788,7 +8953,7 @@
       <c r="S25" s="25">
         <v>0</v>
       </c>
-      <c r="T25" s="140">
+      <c r="T25" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U25" s="25">
@@ -8809,17 +8974,39 @@
       <c r="AB25" s="25"/>
       <c r="AC25" s="41"/>
       <c r="AD25" s="41"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="25"/>
-      <c r="AG25" s="25"/>
-      <c r="AH25" s="25"/>
-      <c r="AI25" s="25"/>
-      <c r="AJ25" s="25"/>
-      <c r="AK25" s="25"/>
-      <c r="AL25" s="25"/>
-      <c r="AM25" s="25"/>
-      <c r="AN25" s="25"/>
-      <c r="AO25" s="42"/>
+      <c r="AE25" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO25" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP25" s="43"/>
       <c r="AQ25" s="25"/>
       <c r="AR25" s="41"/>
@@ -8847,9 +9034,9 @@
     <row r="26" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C26" s="140" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C26" s="173" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -8861,13 +9048,13 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="166" t="s">
-        <v>1080</v>
+      <c r="G26" s="169" t="s">
+        <v>1115</v>
       </c>
       <c r="H26" s="40">
         <v>60</v>
       </c>
-      <c r="I26" s="140">
+      <c r="I26" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J26" s="25">
@@ -8900,7 +9087,7 @@
       <c r="S26" s="25">
         <v>0</v>
       </c>
-      <c r="T26" s="140">
+      <c r="T26" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U26" s="25">
@@ -8921,17 +9108,39 @@
       <c r="AB26" s="25"/>
       <c r="AC26" s="41"/>
       <c r="AD26" s="41"/>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="25"/>
-      <c r="AG26" s="25"/>
-      <c r="AH26" s="25"/>
-      <c r="AI26" s="25"/>
-      <c r="AJ26" s="25"/>
-      <c r="AK26" s="25"/>
-      <c r="AL26" s="25"/>
-      <c r="AM26" s="25"/>
-      <c r="AN26" s="25"/>
-      <c r="AO26" s="42"/>
+      <c r="AE26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN26" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO26" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP26" s="43"/>
       <c r="AQ26" s="25"/>
       <c r="AR26" s="41"/>
@@ -8959,9 +9168,9 @@
     <row r="27" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C27" s="140" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C27" s="173" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -8973,13 +9182,13 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="166" t="s">
-        <v>1077</v>
+      <c r="G27" s="169" t="s">
+        <v>1115</v>
       </c>
       <c r="H27" s="40">
         <v>60</v>
       </c>
-      <c r="I27" s="140">
+      <c r="I27" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J27" s="25">
@@ -9012,7 +9221,7 @@
       <c r="S27" s="25">
         <v>0</v>
       </c>
-      <c r="T27" s="140">
+      <c r="T27" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U27" s="25">
@@ -9033,17 +9242,39 @@
       <c r="AB27" s="25"/>
       <c r="AC27" s="41"/>
       <c r="AD27" s="41"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="25"/>
-      <c r="AH27" s="25"/>
-      <c r="AI27" s="25"/>
-      <c r="AJ27" s="25"/>
-      <c r="AK27" s="25"/>
-      <c r="AL27" s="25"/>
-      <c r="AM27" s="25"/>
-      <c r="AN27" s="25"/>
-      <c r="AO27" s="42"/>
+      <c r="AE27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH27" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO27" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP27" s="43"/>
       <c r="AQ27" s="25"/>
       <c r="AR27" s="41"/>
@@ -9068,12 +9299,12 @@
       </c>
       <c r="BH27" s="42"/>
     </row>
-    <row r="28" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C28" s="140" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C28" s="173" t="s">
         <v>1105</v>
       </c>
       <c r="D28" s="25">
@@ -9085,13 +9316,13 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="166" t="s">
-        <v>1079</v>
+      <c r="G28" s="169" t="s">
+        <v>1116</v>
       </c>
       <c r="H28" s="40">
         <v>60</v>
       </c>
-      <c r="I28" s="140">
+      <c r="I28" s="121">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J28" s="25">
@@ -9124,7 +9355,7 @@
       <c r="S28" s="25">
         <v>0</v>
       </c>
-      <c r="T28" s="140">
+      <c r="T28" s="121">
         <v>0.05</v>
       </c>
       <c r="U28" s="25">
@@ -9145,17 +9376,39 @@
       <c r="AB28" s="25"/>
       <c r="AC28" s="41"/>
       <c r="AD28" s="41"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="25"/>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="42"/>
+      <c r="AE28" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH28" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN28" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO28" s="42" t="s">
+        <v>28</v>
+      </c>
       <c r="AP28" s="43"/>
       <c r="AQ28" s="25"/>
       <c r="AR28" s="41"/>
@@ -9182,11 +9435,11 @@
     </row>
     <row r="29" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="175"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="168"/>
+      <c r="G29" s="143"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9573,35 +9826,35 @@
     <mergeCell ref="AV2:AY2"/>
     <mergeCell ref="AZ2:BC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 A4:G27 AA14 AA18:AA29 W4:BH13 AB14:BH30">
-    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BH13 A4:G27 AB14:BH30">
+    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="18" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9662,74 +9915,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="152" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="126" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="154"/>
+      <c r="I2" s="146" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="127"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="129" t="s">
+      <c r="J2" s="147"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="155"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="131"/>
-      <c r="AK2" s="123" t="s">
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="158"/>
+      <c r="AA2" s="158"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="158"/>
+      <c r="AD2" s="158"/>
+      <c r="AE2" s="158"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="158"/>
+      <c r="AH2" s="158"/>
+      <c r="AI2" s="158"/>
+      <c r="AJ2" s="159"/>
+      <c r="AK2" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="138"/>
-      <c r="AQ2" s="123" t="s">
+      <c r="AL2" s="161"/>
+      <c r="AM2" s="161"/>
+      <c r="AN2" s="161"/>
+      <c r="AO2" s="161"/>
+      <c r="AP2" s="162"/>
+      <c r="AQ2" s="163" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="124"/>
-      <c r="AS2" s="124"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="132" t="s">
+      <c r="AR2" s="160"/>
+      <c r="AS2" s="160"/>
+      <c r="AT2" s="164"/>
+      <c r="AU2" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="133"/>
-      <c r="AW2" s="133"/>
-      <c r="AX2" s="134"/>
-      <c r="AY2" s="126" t="s">
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="167"/>
+      <c r="AY2" s="146" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="127"/>
-      <c r="BA2" s="127"/>
-      <c r="BB2" s="127"/>
-      <c r="BC2" s="128"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="147"/>
+      <c r="BC2" s="148"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -9897,7 +10150,7 @@
       <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -10057,7 +10310,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -10217,7 +10470,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -10377,7 +10630,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -10537,7 +10790,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -10697,7 +10950,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="121" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -10858,7 +11111,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="121" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -11019,7 +11272,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="140" t="s">
+      <c r="C11" s="121" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -11180,7 +11433,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="121" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -11340,7 +11593,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="140" t="s">
+      <c r="C13" s="121" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -11500,7 +11753,7 @@
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="140" t="s">
+      <c r="C14" s="121" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -11660,7 +11913,7 @@
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="140" t="s">
+      <c r="C15" s="121" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -11820,7 +12073,7 @@
       <c r="B16" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="140" t="s">
+      <c r="C16" s="121" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -11980,7 +12233,7 @@
       <c r="B17" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="140" t="s">
+      <c r="C17" s="121" t="s">
         <v>286</v>
       </c>
       <c r="D17" s="25">
@@ -12140,7 +12393,7 @@
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="121" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -12300,7 +12553,7 @@
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="121" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -12460,7 +12713,7 @@
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="140" t="s">
+      <c r="C20" s="121" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -12618,7 +12871,7 @@
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="140" t="s">
+      <c r="C21" s="121" t="s">
         <v>1081</v>
       </c>
       <c r="D21" s="25">
@@ -12761,7 +13014,7 @@
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="121" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -12846,7 +13099,7 @@
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="140" t="s">
+      <c r="C23" s="121" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -12927,7 +13180,7 @@
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="140" t="s">
+      <c r="C24" s="121" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -13008,7 +13261,7 @@
       <c r="B25" s="85" t="s">
         <v>1069</v>
       </c>
-      <c r="C25" s="140" t="s">
+      <c r="C25" s="121" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -13093,7 +13346,7 @@
       <c r="B26" s="85" t="s">
         <v>1068</v>
       </c>
-      <c r="C26" s="140" t="s">
+      <c r="C26" s="121" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -13178,7 +13431,7 @@
       <c r="B27" s="85" t="s">
         <v>1067</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="121" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -13263,7 +13516,7 @@
       <c r="B28" s="85" t="s">
         <v>1073</v>
       </c>
-      <c r="C28" s="140" t="s">
+      <c r="C28" s="121" t="s">
         <v>1088</v>
       </c>
       <c r="D28" s="25">
@@ -13616,42 +13869,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45097,31 +45350,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4506,6 +4506,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4572,148 +4596,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5215,14 +5103,14 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="171" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="149" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
@@ -5260,81 +5148,81 @@
   <sheetData>
     <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="154"/>
-      <c r="H2" s="149" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="157" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="150"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="150"/>
-      <c r="L2" s="150"/>
-      <c r="M2" s="150"/>
-      <c r="N2" s="150"/>
-      <c r="O2" s="150"/>
-      <c r="P2" s="150"/>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="150"/>
-      <c r="U2" s="150"/>
-      <c r="V2" s="151"/>
-      <c r="W2" s="147" t="s">
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="158"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="155" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="155"/>
-      <c r="Y2" s="155"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="155"/>
-      <c r="AB2" s="155"/>
-      <c r="AC2" s="155"/>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="157" t="s">
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="163"/>
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="158"/>
-      <c r="AK2" s="158"/>
-      <c r="AL2" s="158"/>
-      <c r="AM2" s="158"/>
-      <c r="AN2" s="158"/>
-      <c r="AO2" s="159"/>
-      <c r="AP2" s="160" t="s">
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="166"/>
+      <c r="AM2" s="166"/>
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="167"/>
+      <c r="AP2" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="161"/>
-      <c r="AR2" s="161"/>
-      <c r="AS2" s="161"/>
-      <c r="AT2" s="161"/>
-      <c r="AU2" s="162"/>
-      <c r="AV2" s="163" t="s">
+      <c r="AQ2" s="169"/>
+      <c r="AR2" s="169"/>
+      <c r="AS2" s="169"/>
+      <c r="AT2" s="169"/>
+      <c r="AU2" s="170"/>
+      <c r="AV2" s="171" t="s">
         <v>1061</v>
       </c>
-      <c r="AW2" s="160"/>
-      <c r="AX2" s="160"/>
-      <c r="AY2" s="164"/>
-      <c r="AZ2" s="165" t="s">
+      <c r="AW2" s="168"/>
+      <c r="AX2" s="168"/>
+      <c r="AY2" s="172"/>
+      <c r="AZ2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" s="166"/>
-      <c r="BB2" s="166"/>
-      <c r="BC2" s="167"/>
-      <c r="BD2" s="146" t="s">
+      <c r="BA2" s="174"/>
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="175"/>
+      <c r="BD2" s="154" t="s">
         <v>1047</v>
       </c>
-      <c r="BE2" s="147"/>
-      <c r="BF2" s="147"/>
-      <c r="BG2" s="147"/>
-      <c r="BH2" s="148"/>
+      <c r="BE2" s="155"/>
+      <c r="BF2" s="155"/>
+      <c r="BG2" s="155"/>
+      <c r="BH2" s="156"/>
     </row>
     <row r="3" spans="1:60" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -5513,7 +5401,7 @@
       <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="150" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5525,7 +5413,7 @@
       <c r="F4" s="55">
         <v>175</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="146" t="s">
         <v>497</v>
       </c>
       <c r="H4" s="141">
@@ -5686,7 +5574,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="150" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -5698,7 +5586,7 @@
       <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="169" t="s">
+      <c r="G5" s="147" t="s">
         <v>1106</v>
       </c>
       <c r="H5" s="40">
@@ -5859,7 +5747,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="172" t="s">
+      <c r="C6" s="150" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -5871,7 +5759,7 @@
       <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="169" t="s">
+      <c r="G6" s="147" t="s">
         <v>491</v>
       </c>
       <c r="H6" s="40">
@@ -6032,7 +5920,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="150" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -6044,7 +5932,7 @@
       <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="147" t="s">
         <v>492</v>
       </c>
       <c r="H7" s="40">
@@ -6205,7 +6093,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="150" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -6217,7 +6105,7 @@
       <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="169" t="s">
+      <c r="G8" s="147" t="s">
         <v>1106</v>
       </c>
       <c r="H8" s="40">
@@ -6378,7 +6266,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="173" t="s">
+      <c r="C9" s="151" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6391,7 +6279,7 @@
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="169" t="s">
+      <c r="G9" s="147" t="s">
         <v>1106</v>
       </c>
       <c r="H9" s="40">
@@ -6552,7 +6440,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="151" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -6565,7 +6453,7 @@
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="169" t="s">
+      <c r="G10" s="147" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="40">
@@ -6726,7 +6614,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="173" t="s">
+      <c r="C11" s="151" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -6739,7 +6627,7 @@
       <c r="F11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G11" s="146" t="s">
         <v>497</v>
       </c>
       <c r="H11" s="40">
@@ -6900,7 +6788,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="151" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -6912,7 +6800,7 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="169" t="s">
+      <c r="G12" s="147" t="s">
         <v>493</v>
       </c>
       <c r="H12" s="40">
@@ -7073,7 +6961,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="173" t="s">
+      <c r="C13" s="151" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -7085,7 +6973,7 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="169" t="s">
+      <c r="G13" s="147" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="40">
@@ -7246,7 +7134,7 @@
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="151" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -7258,7 +7146,7 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="169" t="s">
+      <c r="G14" s="147" t="s">
         <v>500</v>
       </c>
       <c r="H14" s="40">
@@ -7419,7 +7307,7 @@
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="151" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -7431,7 +7319,7 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="169" t="s">
+      <c r="G15" s="147" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="40">
@@ -7592,7 +7480,7 @@
       <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="151" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -7604,7 +7492,7 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="169" t="s">
+      <c r="G16" s="147" t="s">
         <v>495</v>
       </c>
       <c r="H16" s="40">
@@ -7763,11 +7651,11 @@
     <row r="17" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="128"/>
-      <c r="C17" s="174"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="130"/>
       <c r="E17" s="130"/>
       <c r="F17" s="130"/>
-      <c r="G17" s="170"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="128"/>
       <c r="I17" s="129"/>
       <c r="J17" s="130"/>
@@ -7827,7 +7715,7 @@
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="173" t="s">
+      <c r="C18" s="151" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -7839,7 +7727,7 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="169" t="s">
+      <c r="G18" s="147" t="s">
         <v>1107</v>
       </c>
       <c r="H18" s="40">
@@ -8000,7 +7888,7 @@
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="173" t="s">
+      <c r="C19" s="151" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -8012,7 +7900,7 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="169" t="s">
+      <c r="G19" s="147" t="s">
         <v>1108</v>
       </c>
       <c r="H19" s="40">
@@ -8173,7 +8061,7 @@
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="173" t="s">
+      <c r="C20" s="151" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -8185,7 +8073,7 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="169" t="s">
+      <c r="G20" s="147" t="s">
         <v>1109</v>
       </c>
       <c r="H20" s="40">
@@ -8346,7 +8234,7 @@
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="173" t="s">
+      <c r="C21" s="151" t="s">
         <v>1089</v>
       </c>
       <c r="D21" s="25">
@@ -8358,7 +8246,7 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="169" t="s">
+      <c r="G21" s="147" t="s">
         <v>1111</v>
       </c>
       <c r="H21" s="40">
@@ -8504,7 +8392,7 @@
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="173" t="s">
+      <c r="C22" s="151" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -8516,7 +8404,7 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="169" t="s">
+      <c r="G22" s="147" t="s">
         <v>1112</v>
       </c>
       <c r="H22" s="40">
@@ -8638,7 +8526,7 @@
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="173" t="s">
+      <c r="C23" s="151" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -8650,14 +8538,14 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="169" t="s">
+      <c r="G23" s="147" t="s">
         <v>1117</v>
       </c>
       <c r="H23" s="40">
         <v>60</v>
       </c>
       <c r="I23" s="121">
-        <v>0.01</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J23" s="25">
         <v>2</v>
@@ -8690,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="121">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="U23" s="25">
         <v>0</v>
@@ -8770,7 +8658,7 @@
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="173" t="s">
+      <c r="C24" s="151" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -8782,7 +8670,7 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="169" t="s">
+      <c r="G24" s="147" t="s">
         <v>1113</v>
       </c>
       <c r="H24" s="40">
@@ -8902,7 +8790,7 @@
       <c r="B25" s="85" t="s">
         <v>1121</v>
       </c>
-      <c r="C25" s="173" t="s">
+      <c r="C25" s="151" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -8914,7 +8802,7 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="169" t="s">
+      <c r="G25" s="147" t="s">
         <v>1114</v>
       </c>
       <c r="H25" s="40">
@@ -9036,7 +8924,7 @@
       <c r="B26" s="85" t="s">
         <v>1120</v>
       </c>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="151" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -9048,7 +8936,7 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="169" t="s">
+      <c r="G26" s="147" t="s">
         <v>1115</v>
       </c>
       <c r="H26" s="40">
@@ -9170,7 +9058,7 @@
       <c r="B27" s="85" t="s">
         <v>1119</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="151" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -9182,7 +9070,7 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="169" t="s">
+      <c r="G27" s="147" t="s">
         <v>1115</v>
       </c>
       <c r="H27" s="40">
@@ -9304,7 +9192,7 @@
       <c r="B28" s="85" t="s">
         <v>1118</v>
       </c>
-      <c r="C28" s="173" t="s">
+      <c r="C28" s="151" t="s">
         <v>1105</v>
       </c>
       <c r="D28" s="25">
@@ -9316,7 +9204,7 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="169" t="s">
+      <c r="G28" s="147" t="s">
         <v>1116</v>
       </c>
       <c r="H28" s="40">
@@ -9435,7 +9323,7 @@
     </row>
     <row r="29" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="175"/>
+      <c r="C29" s="153"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -9827,34 +9715,34 @@
     <mergeCell ref="AZ2:BC2"/>
   </mergeCells>
   <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BH13 A4:G27 AB14:BH30">
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="38" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9915,74 +9803,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="160" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="154"/>
-      <c r="I2" s="146" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="154" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="147"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="155"/>
-      <c r="R2" s="155"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="157" t="s">
+      <c r="J2" s="155"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="163"/>
+      <c r="O2" s="163"/>
+      <c r="P2" s="163"/>
+      <c r="Q2" s="163"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
-      <c r="AC2" s="158"/>
-      <c r="AD2" s="158"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="158"/>
-      <c r="AH2" s="158"/>
-      <c r="AI2" s="158"/>
-      <c r="AJ2" s="159"/>
-      <c r="AK2" s="163" t="s">
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="167"/>
+      <c r="AK2" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="161"/>
-      <c r="AM2" s="161"/>
-      <c r="AN2" s="161"/>
-      <c r="AO2" s="161"/>
-      <c r="AP2" s="162"/>
-      <c r="AQ2" s="163" t="s">
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="170"/>
+      <c r="AQ2" s="171" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="160"/>
-      <c r="AS2" s="160"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="165" t="s">
+      <c r="AR2" s="168"/>
+      <c r="AS2" s="168"/>
+      <c r="AT2" s="172"/>
+      <c r="AU2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
-      <c r="AX2" s="167"/>
-      <c r="AY2" s="146" t="s">
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="175"/>
+      <c r="AY2" s="154" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="147"/>
-      <c r="BA2" s="147"/>
-      <c r="BB2" s="147"/>
-      <c r="BC2" s="148"/>
+      <c r="AZ2" s="155"/>
+      <c r="BA2" s="155"/>
+      <c r="BB2" s="155"/>
+      <c r="BC2" s="156"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -13869,42 +13757,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
-    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="28" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="26" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="24" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45350,31 +45238,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="18" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="17" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="2910" windowWidth="15180" windowHeight="8595" tabRatio="712"/>
+    <workbookView xWindow="5955" yWindow="2970" windowWidth="15180" windowHeight="8535" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BC$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BH$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1127">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3415,6 +3415,21 @@
   </si>
   <si>
     <t>Test22</t>
+  </si>
+  <si>
+    <t>Water Depth (m)</t>
+  </si>
+  <si>
+    <t>WaveMod</t>
+  </si>
+  <si>
+    <t>WaveHS</t>
+  </si>
+  <si>
+    <t>WaveTp</t>
+  </si>
+  <si>
+    <t>1P0.0</t>
   </si>
 </sst>
 </file>
@@ -3443,6 +3458,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -4103,7 +4119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4595,6 +4611,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5097,13 +5119,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BH61"/>
+  <dimension ref="A1:BM61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5133,21 +5155,23 @@
     <col min="34" max="34" width="4.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="41" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="42" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="4.85546875" style="2" customWidth="1"/>
-    <col min="52" max="52" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.42578125" customWidth="1"/>
-    <col min="62" max="62" width="4.28515625" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="2" customWidth="1"/>
+    <col min="49" max="49" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="56" width="4.85546875" style="2" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.42578125" customWidth="1"/>
+    <col min="67" max="67" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="160" t="s">
         <v>27</v>
       </c>
@@ -5209,22 +5233,27 @@
       </c>
       <c r="AW2" s="168"/>
       <c r="AX2" s="168"/>
-      <c r="AY2" s="172"/>
-      <c r="AZ2" s="173" t="s">
+      <c r="AY2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="168"/>
+      <c r="BD2" s="172"/>
+      <c r="BE2" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" s="174"/>
-      <c r="BB2" s="174"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="154" t="s">
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="175"/>
+      <c r="BI2" s="154" t="s">
         <v>1047</v>
       </c>
-      <c r="BE2" s="155"/>
-      <c r="BF2" s="155"/>
-      <c r="BG2" s="155"/>
-      <c r="BH2" s="156"/>
-    </row>
-    <row r="3" spans="1:60" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="155"/>
+      <c r="BK2" s="155"/>
+      <c r="BL2" s="155"/>
+      <c r="BM2" s="156"/>
+    </row>
+    <row r="3" spans="1:65" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5364,39 +5393,52 @@
       <c r="AU3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="97"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="75" t="s">
+      <c r="AV3" s="176" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AW3" s="177" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AX3" s="177" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AY3" s="177" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AZ3" s="177"/>
+      <c r="BA3" s="177"/>
+      <c r="BB3" s="177"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="BA3" s="77" t="s">
+      <c r="BF3" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="BB3" s="78" t="s">
+      <c r="BG3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="BC3" s="76" t="s">
+      <c r="BH3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="66" t="s">
+      <c r="BI3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BE3" s="69" t="s">
+      <c r="BJ3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BF3" s="70" t="s">
+      <c r="BK3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BG3" s="70" t="s">
+      <c r="BL3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BH3" s="68" t="s">
+      <c r="BM3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5539,37 +5581,42 @@
       <c r="AV4" s="98"/>
       <c r="AW4" s="35"/>
       <c r="AX4" s="35"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="36" t="s">
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="33"/>
+      <c r="BE4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BA4" s="46">
+      <c r="BF4" s="46">
         <v>15</v>
       </c>
-      <c r="BB4" s="37">
+      <c r="BG4" s="37">
         <v>0.2</v>
       </c>
-      <c r="BC4" s="38" t="s">
+      <c r="BH4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BD4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="55">
+      <c r="BI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="55">
         <v>3</v>
       </c>
-      <c r="BF4" s="62">
+      <c r="BK4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BG4" s="62" t="s">
+      <c r="BL4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BM4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -5712,37 +5759,42 @@
       <c r="AV5" s="99"/>
       <c r="AW5" s="41"/>
       <c r="AX5" s="41"/>
-      <c r="AY5" s="42"/>
-      <c r="AZ5" s="43" t="s">
+      <c r="AY5" s="41"/>
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="41"/>
+      <c r="BB5" s="41"/>
+      <c r="BC5" s="41"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="42" t="s">
+      <c r="BF5" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="56">
+      <c r="BI5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="56">
         <v>1</v>
       </c>
-      <c r="BF5" s="63">
+      <c r="BK5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BG5" s="63" t="s">
+      <c r="BL5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BH5" s="42" t="s">
+      <c r="BM5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -5885,37 +5937,42 @@
       <c r="AV6" s="99"/>
       <c r="AW6" s="41"/>
       <c r="AX6" s="41"/>
-      <c r="AY6" s="42"/>
-      <c r="AZ6" s="43" t="s">
+      <c r="AY6" s="41"/>
+      <c r="AZ6" s="41"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
+      <c r="BC6" s="41"/>
+      <c r="BD6" s="42"/>
+      <c r="BE6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA6" s="47" t="s">
+      <c r="BF6" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BG6" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC6" s="42" t="s">
+      <c r="BH6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="56">
+      <c r="BI6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="56">
         <v>3</v>
       </c>
-      <c r="BF6" s="63">
+      <c r="BK6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BG6" s="63" t="s">
+      <c r="BL6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH6" s="42" t="s">
+      <c r="BM6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6058,37 +6115,42 @@
       <c r="AV7" s="99"/>
       <c r="AW7" s="41"/>
       <c r="AX7" s="41"/>
-      <c r="AY7" s="42"/>
-      <c r="AZ7" s="43" t="s">
+      <c r="AY7" s="41"/>
+      <c r="AZ7" s="41"/>
+      <c r="BA7" s="41"/>
+      <c r="BB7" s="41"/>
+      <c r="BC7" s="41"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA7" s="47" t="s">
+      <c r="BF7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BB7" s="44">
+      <c r="BG7" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC7" s="42" t="s">
+      <c r="BH7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="56">
+      <c r="BI7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="56">
         <v>5</v>
       </c>
-      <c r="BF7" s="63">
+      <c r="BK7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BG7" s="63" t="s">
+      <c r="BL7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH7" s="42" t="s">
+      <c r="BM7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6231,37 +6293,42 @@
       <c r="AV8" s="99"/>
       <c r="AW8" s="41"/>
       <c r="AX8" s="41"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="43" t="s">
+      <c r="AY8" s="41"/>
+      <c r="AZ8" s="41"/>
+      <c r="BA8" s="41"/>
+      <c r="BB8" s="41"/>
+      <c r="BC8" s="41"/>
+      <c r="BD8" s="42"/>
+      <c r="BE8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA8" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="42" t="s">
+      <c r="BF8" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="56">
+      <c r="BI8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="56">
         <v>3</v>
       </c>
-      <c r="BF8" s="63">
+      <c r="BK8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BG8" s="63" t="s">
+      <c r="BL8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH8" s="42" t="s">
+      <c r="BM8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -6405,37 +6472,42 @@
       <c r="AV9" s="99"/>
       <c r="AW9" s="41"/>
       <c r="AX9" s="41"/>
-      <c r="AY9" s="42"/>
-      <c r="AZ9" s="43" t="s">
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="41"/>
+      <c r="BA9" s="41"/>
+      <c r="BB9" s="41"/>
+      <c r="BC9" s="41"/>
+      <c r="BD9" s="42"/>
+      <c r="BE9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA9" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="42" t="s">
+      <c r="BF9" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="56">
+      <c r="BI9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="56">
         <v>5</v>
       </c>
-      <c r="BF9" s="63">
+      <c r="BK9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BG9" s="63" t="s">
+      <c r="BL9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH9" s="42" t="s">
+      <c r="BM9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -6579,37 +6651,42 @@
       <c r="AV10" s="99"/>
       <c r="AW10" s="41"/>
       <c r="AX10" s="41"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="43" t="s">
+      <c r="AY10" s="41"/>
+      <c r="AZ10" s="41"/>
+      <c r="BA10" s="41"/>
+      <c r="BB10" s="41"/>
+      <c r="BC10" s="41"/>
+      <c r="BD10" s="42"/>
+      <c r="BE10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA10" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="44">
+      <c r="BF10" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC10" s="42" t="s">
+      <c r="BH10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="56">
+      <c r="BI10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="56">
         <v>3</v>
       </c>
-      <c r="BF10" s="63">
+      <c r="BK10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BG10" s="63" t="s">
+      <c r="BL10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH10" s="42" t="s">
+      <c r="BM10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -6753,37 +6830,42 @@
       <c r="AV11" s="99"/>
       <c r="AW11" s="41"/>
       <c r="AX11" s="41"/>
-      <c r="AY11" s="42"/>
-      <c r="AZ11" s="43" t="s">
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="41"/>
+      <c r="BA11" s="41"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="42"/>
+      <c r="BE11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA11" s="47">
+      <c r="BF11" s="47">
         <v>15</v>
       </c>
-      <c r="BB11" s="44">
+      <c r="BG11" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC11" s="42" t="s">
+      <c r="BH11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="56">
+      <c r="BI11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="56">
         <v>2</v>
       </c>
-      <c r="BF11" s="63">
+      <c r="BK11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BG11" s="63" t="s">
+      <c r="BL11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH11" s="42" t="s">
+      <c r="BM11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -6926,37 +7008,42 @@
       <c r="AV12" s="99"/>
       <c r="AW12" s="41"/>
       <c r="AX12" s="41"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="43" t="s">
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="41"/>
+      <c r="BA12" s="41"/>
+      <c r="BB12" s="41"/>
+      <c r="BC12" s="41"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BA12" s="47" t="s">
+      <c r="BF12" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BB12" s="44">
+      <c r="BG12" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC12" s="42" t="s">
+      <c r="BH12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="56">
+      <c r="BI12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="56">
         <v>5</v>
       </c>
-      <c r="BF12" s="63">
+      <c r="BK12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BG12" s="63" t="s">
+      <c r="BL12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH12" s="42" t="s">
+      <c r="BM12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7099,37 +7186,42 @@
       <c r="AV13" s="99"/>
       <c r="AW13" s="41"/>
       <c r="AX13" s="41"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="43" t="s">
+      <c r="AY13" s="41"/>
+      <c r="AZ13" s="41"/>
+      <c r="BA13" s="41"/>
+      <c r="BB13" s="41"/>
+      <c r="BC13" s="41"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA13" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="42" t="s">
+      <c r="BF13" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="44">
+        <v>0</v>
+      </c>
+      <c r="BH13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="63">
+      <c r="BI13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BG13" s="63" t="s">
+      <c r="BL13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH13" s="42" t="s">
+      <c r="BM13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7272,37 +7364,42 @@
       <c r="AV14" s="99"/>
       <c r="AW14" s="41"/>
       <c r="AX14" s="41"/>
-      <c r="AY14" s="42"/>
-      <c r="AZ14" s="43" t="s">
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="41"/>
+      <c r="BA14" s="41"/>
+      <c r="BB14" s="41"/>
+      <c r="BC14" s="41"/>
+      <c r="BD14" s="42"/>
+      <c r="BE14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA14" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="44">
+      <c r="BF14" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC14" s="42" t="s">
+      <c r="BH14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD14" s="60">
+      <c r="BI14" s="60">
         <v>2</v>
       </c>
-      <c r="BE14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="63">
+      <c r="BJ14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BG14" s="63" t="s">
+      <c r="BL14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH14" s="42" t="s">
+      <c r="BM14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -7445,37 +7542,42 @@
       <c r="AV15" s="99"/>
       <c r="AW15" s="41"/>
       <c r="AX15" s="41"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="43" t="s">
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="42"/>
+      <c r="BE15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA15" s="47" t="s">
+      <c r="BF15" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BB15" s="44">
+      <c r="BG15" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC15" s="42" t="s">
+      <c r="BH15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD15" s="60">
+      <c r="BI15" s="60">
         <v>2</v>
       </c>
-      <c r="BE15" s="56">
+      <c r="BJ15" s="56">
         <v>4</v>
       </c>
-      <c r="BF15" s="63">
+      <c r="BK15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BG15" s="63" t="s">
+      <c r="BL15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH15" s="42" t="s">
+      <c r="BM15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -7618,37 +7720,42 @@
       <c r="AV16" s="99"/>
       <c r="AW16" s="41"/>
       <c r="AX16" s="41"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="43" t="s">
+      <c r="AY16" s="41"/>
+      <c r="AZ16" s="41"/>
+      <c r="BA16" s="41"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA16" s="47">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="44">
+      <c r="BF16" s="47">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC16" s="42" t="s">
+      <c r="BH16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD16" s="60">
+      <c r="BI16" s="60">
         <v>2</v>
       </c>
-      <c r="BE16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="63">
+      <c r="BJ16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BG16" s="63" t="s">
+      <c r="BL16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH16" s="42" t="s">
+      <c r="BM16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="128"/>
       <c r="C17" s="152"/>
@@ -7699,18 +7806,23 @@
       <c r="AV17" s="134"/>
       <c r="AW17" s="132"/>
       <c r="AX17" s="132"/>
-      <c r="AY17" s="133"/>
-      <c r="AZ17" s="131"/>
-      <c r="BA17" s="135"/>
-      <c r="BB17" s="136"/>
-      <c r="BC17" s="133"/>
-      <c r="BD17" s="137"/>
-      <c r="BE17" s="138"/>
-      <c r="BF17" s="139"/>
-      <c r="BG17" s="139"/>
+      <c r="AY17" s="132"/>
+      <c r="AZ17" s="132"/>
+      <c r="BA17" s="132"/>
+      <c r="BB17" s="132"/>
+      <c r="BC17" s="132"/>
+      <c r="BD17" s="133"/>
+      <c r="BE17" s="131"/>
+      <c r="BF17" s="135"/>
+      <c r="BG17" s="136"/>
       <c r="BH17" s="133"/>
-    </row>
-    <row r="18" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BI17" s="137"/>
+      <c r="BJ17" s="138"/>
+      <c r="BK17" s="139"/>
+      <c r="BL17" s="139"/>
+      <c r="BM17" s="133"/>
+    </row>
+    <row r="18" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -7853,37 +7965,42 @@
       <c r="AV18" s="99"/>
       <c r="AW18" s="41"/>
       <c r="AX18" s="41"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="43" t="s">
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="41"/>
+      <c r="BA18" s="41"/>
+      <c r="BB18" s="41"/>
+      <c r="BC18" s="41"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA18" s="53" t="s">
+      <c r="BF18" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="BB18" s="44">
+      <c r="BG18" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC18" s="42" t="s">
+      <c r="BH18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="63">
+      <c r="BI18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BG18" s="63" t="s">
+      <c r="BL18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH18" s="42" t="s">
+      <c r="BM18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8026,37 +8143,42 @@
       <c r="AV19" s="99"/>
       <c r="AW19" s="41"/>
       <c r="AX19" s="41"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="43" t="s">
+      <c r="AY19" s="41"/>
+      <c r="AZ19" s="41"/>
+      <c r="BA19" s="41"/>
+      <c r="BB19" s="41"/>
+      <c r="BC19" s="41"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA19" s="47" t="s">
+      <c r="BF19" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BB19" s="44">
+      <c r="BG19" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC19" s="42" t="s">
+      <c r="BH19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="63">
+      <c r="BI19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BG19" s="63" t="s">
+      <c r="BL19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH19" s="42" t="s">
+      <c r="BM19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8199,37 +8321,42 @@
       <c r="AV20" s="99"/>
       <c r="AW20" s="41"/>
       <c r="AX20" s="41"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="43" t="s">
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BA20" s="53" t="s">
+      <c r="BF20" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="BB20" s="44">
+      <c r="BG20" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC20" s="42" t="s">
+      <c r="BH20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="63">
+      <c r="BI20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BG20" s="63" t="s">
+      <c r="BL20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BH20" s="42" t="s">
+      <c r="BM20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -8372,22 +8499,27 @@
       <c r="AV21" s="99"/>
       <c r="AW21" s="41"/>
       <c r="AX21" s="41"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="43"/>
-      <c r="BA21" s="53"/>
-      <c r="BB21" s="44"/>
-      <c r="BC21" s="42" t="s">
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="41"/>
+      <c r="BA21" s="41"/>
+      <c r="BB21" s="41"/>
+      <c r="BC21" s="41"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="43"/>
+      <c r="BF21" s="53"/>
+      <c r="BG21" s="44"/>
+      <c r="BH21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD21" s="60"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="63"/>
-      <c r="BG21" s="63" t="s">
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH21" s="42"/>
-    </row>
-    <row r="22" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM21" s="42"/>
+    </row>
+    <row r="22" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -8503,25 +8635,38 @@
       <c r="AS22" s="41"/>
       <c r="AT22" s="41"/>
       <c r="AU22" s="42"/>
-      <c r="AV22" s="99"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="43"/>
-      <c r="BA22" s="53"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="42" t="s">
+      <c r="AV22" s="99">
+        <v>20</v>
+      </c>
+      <c r="AW22" s="41">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="41">
+        <v>6</v>
+      </c>
+      <c r="AY22" s="41">
+        <v>10</v>
+      </c>
+      <c r="AZ22" s="41"/>
+      <c r="BA22" s="41"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="41"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="43"/>
+      <c r="BF22" s="53"/>
+      <c r="BG22" s="44"/>
+      <c r="BH22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="61"/>
-      <c r="BF22" s="63"/>
-      <c r="BG22" s="63" t="s">
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="61"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH22" s="42"/>
-    </row>
-    <row r="23" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM22" s="42"/>
+    </row>
+    <row r="23" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -8637,23 +8782,32 @@
       <c r="AS23" s="41"/>
       <c r="AT23" s="41"/>
       <c r="AU23" s="42"/>
-      <c r="AV23" s="99"/>
-      <c r="AW23" s="41"/>
+      <c r="AV23" s="99">
+        <v>45</v>
+      </c>
+      <c r="AW23" s="41" t="s">
+        <v>1126</v>
+      </c>
       <c r="AX23" s="41"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="53"/>
-      <c r="BB23" s="44"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="60"/>
-      <c r="BE23" s="61"/>
-      <c r="BF23" s="63"/>
-      <c r="BG23" s="63" t="s">
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="42"/>
+      <c r="BE23" s="43"/>
+      <c r="BF23" s="53"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH23" s="42"/>
-    </row>
-    <row r="24" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM23" s="42"/>
+    </row>
+    <row r="24" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -8769,23 +8923,36 @@
       <c r="AS24" s="41"/>
       <c r="AT24" s="41"/>
       <c r="AU24" s="42"/>
-      <c r="AV24" s="99"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="44"/>
-      <c r="BC24" s="42"/>
-      <c r="BD24" s="60"/>
-      <c r="BE24" s="61"/>
-      <c r="BF24" s="63"/>
-      <c r="BG24" s="63" t="s">
+      <c r="AV24" s="99">
+        <v>50</v>
+      </c>
+      <c r="AW24" s="41">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="41">
+        <v>8</v>
+      </c>
+      <c r="AY24" s="41">
+        <v>10</v>
+      </c>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="41"/>
+      <c r="BB24" s="41"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="42"/>
+      <c r="BE24" s="43"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="44"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="60"/>
+      <c r="BJ24" s="61"/>
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH24" s="42"/>
-    </row>
-    <row r="25" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM24" s="42"/>
+    </row>
+    <row r="25" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1121</v>
@@ -8904,22 +9071,27 @@
       <c r="AV25" s="99"/>
       <c r="AW25" s="41"/>
       <c r="AX25" s="41"/>
-      <c r="AY25" s="42"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="53"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="42" t="s">
+      <c r="AY25" s="41"/>
+      <c r="AZ25" s="41"/>
+      <c r="BA25" s="41"/>
+      <c r="BB25" s="41"/>
+      <c r="BC25" s="41"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="43"/>
+      <c r="BF25" s="53"/>
+      <c r="BG25" s="44"/>
+      <c r="BH25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD25" s="60"/>
-      <c r="BE25" s="61"/>
-      <c r="BF25" s="63"/>
-      <c r="BG25" s="63" t="s">
+      <c r="BI25" s="60"/>
+      <c r="BJ25" s="61"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH25" s="42"/>
-    </row>
-    <row r="26" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BM25" s="42"/>
+    </row>
+    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1120</v>
@@ -9038,22 +9210,27 @@
       <c r="AV26" s="99"/>
       <c r="AW26" s="41"/>
       <c r="AX26" s="41"/>
-      <c r="AY26" s="42"/>
-      <c r="AZ26" s="43"/>
-      <c r="BA26" s="53"/>
-      <c r="BB26" s="44"/>
-      <c r="BC26" s="42" t="s">
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="41"/>
+      <c r="BA26" s="41"/>
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="41"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="43"/>
+      <c r="BF26" s="53"/>
+      <c r="BG26" s="44"/>
+      <c r="BH26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD26" s="60"/>
-      <c r="BE26" s="61"/>
-      <c r="BF26" s="63"/>
-      <c r="BG26" s="63" t="s">
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="61"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH26" s="42"/>
-    </row>
-    <row r="27" spans="1:60" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BM26" s="42"/>
+    </row>
+    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1119</v>
@@ -9172,22 +9349,27 @@
       <c r="AV27" s="99"/>
       <c r="AW27" s="41"/>
       <c r="AX27" s="41"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="43"/>
-      <c r="BA27" s="53"/>
-      <c r="BB27" s="44"/>
-      <c r="BC27" s="42" t="s">
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="43"/>
+      <c r="BF27" s="53"/>
+      <c r="BG27" s="44"/>
+      <c r="BH27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="61"/>
-      <c r="BF27" s="63"/>
-      <c r="BG27" s="63" t="s">
+      <c r="BI27" s="60"/>
+      <c r="BJ27" s="61"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH27" s="42"/>
-    </row>
-    <row r="28" spans="1:60" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM27" s="42"/>
+    </row>
+    <row r="28" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1118</v>
@@ -9306,22 +9488,27 @@
       <c r="AV28" s="99"/>
       <c r="AW28" s="41"/>
       <c r="AX28" s="41"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="43"/>
-      <c r="BA28" s="53"/>
-      <c r="BB28" s="44"/>
-      <c r="BC28" s="42" t="s">
+      <c r="AY28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="43"/>
+      <c r="BF28" s="53"/>
+      <c r="BG28" s="44"/>
+      <c r="BH28" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD28" s="60"/>
-      <c r="BE28" s="61"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63" t="s">
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="61"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BH28" s="42"/>
-    </row>
-    <row r="29" spans="1:60" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM28" s="42"/>
+    </row>
+    <row r="29" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="153"/>
       <c r="D29" s="3"/>
@@ -9373,348 +9560,353 @@
       <c r="AV29" s="100"/>
       <c r="AW29" s="8"/>
       <c r="AX29" s="8"/>
-      <c r="AY29" s="6"/>
-      <c r="AZ29" s="7"/>
-      <c r="BA29" s="48"/>
-      <c r="BB29" s="10"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="7"/>
-      <c r="BE29" s="48"/>
-      <c r="BF29" s="64"/>
-      <c r="BG29" s="64"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="8"/>
+      <c r="BA29" s="8"/>
+      <c r="BB29" s="8"/>
+      <c r="BC29" s="8"/>
+      <c r="BD29" s="6"/>
+      <c r="BE29" s="7"/>
+      <c r="BF29" s="48"/>
+      <c r="BG29" s="10"/>
       <c r="BH29" s="6"/>
-    </row>
-    <row r="33" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY33" s="45"/>
-      <c r="AZ33" s="9"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="45"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="6"/>
+    </row>
+    <row r="33" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD33" s="45"/>
+      <c r="BE33" s="9"/>
       <c r="BF33" s="2"/>
-      <c r="BG33"/>
-      <c r="BH33"/>
-    </row>
-    <row r="34" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="9"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="2"/>
-      <c r="BC34" s="45"/>
+      <c r="BG33" s="2"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+    </row>
+    <row r="34" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD34" s="45"/>
+      <c r="BE34" s="9"/>
       <c r="BF34" s="2"/>
-      <c r="BG34"/>
-      <c r="BH34"/>
-    </row>
-    <row r="35" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY35" s="45"/>
-      <c r="AZ35" s="9"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="2"/>
-      <c r="BC35" s="45"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+    </row>
+    <row r="35" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD35" s="45"/>
+      <c r="BE35" s="9"/>
       <c r="BF35" s="2"/>
-      <c r="BG35"/>
-      <c r="BH35"/>
-    </row>
-    <row r="36" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="9"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="2"/>
-      <c r="BC36" s="45"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="45"/>
+      <c r="BI35" s="45"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+    </row>
+    <row r="36" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD36" s="45"/>
+      <c r="BE36" s="9"/>
       <c r="BF36" s="2"/>
-      <c r="BG36"/>
-      <c r="BH36"/>
-    </row>
-    <row r="37" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY37" s="45"/>
-      <c r="AZ37" s="9"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="2"/>
-      <c r="BC37" s="45"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+    </row>
+    <row r="37" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD37" s="45"/>
+      <c r="BE37" s="9"/>
       <c r="BF37" s="2"/>
-      <c r="BG37"/>
-      <c r="BH37"/>
-    </row>
-    <row r="38" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY38" s="45"/>
-      <c r="AZ38" s="9"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="2"/>
-      <c r="BC38" s="45"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+    </row>
+    <row r="38" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD38" s="45"/>
+      <c r="BE38" s="9"/>
       <c r="BF38" s="2"/>
-      <c r="BG38"/>
-      <c r="BH38"/>
-    </row>
-    <row r="39" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY39" s="45"/>
-      <c r="AZ39" s="9"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="2"/>
-      <c r="BC39" s="45"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="45"/>
+      <c r="BI38" s="45"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+    </row>
+    <row r="39" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD39" s="45"/>
+      <c r="BE39" s="9"/>
       <c r="BF39" s="2"/>
-      <c r="BG39"/>
-      <c r="BH39"/>
-    </row>
-    <row r="40" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY40" s="45"/>
-      <c r="AZ40" s="9"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="2"/>
-      <c r="BC40" s="45"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="45"/>
+      <c r="BI39" s="45"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+    </row>
+    <row r="40" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD40" s="45"/>
+      <c r="BE40" s="9"/>
       <c r="BF40" s="2"/>
-      <c r="BG40"/>
-      <c r="BH40"/>
-    </row>
-    <row r="41" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY41" s="45"/>
-      <c r="AZ41" s="9"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="2"/>
-      <c r="BC41" s="45"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="45"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40"/>
+      <c r="BM40"/>
+    </row>
+    <row r="41" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD41" s="45"/>
+      <c r="BE41" s="9"/>
       <c r="BF41" s="2"/>
-      <c r="BG41"/>
-      <c r="BH41"/>
-    </row>
-    <row r="42" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY42" s="45"/>
-      <c r="AZ42" s="9"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="2"/>
-      <c r="BC42" s="45"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="45"/>
+      <c r="BI41" s="45"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+    </row>
+    <row r="42" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD42" s="45"/>
+      <c r="BE42" s="9"/>
       <c r="BF42" s="2"/>
-      <c r="BG42"/>
-      <c r="BH42"/>
-    </row>
-    <row r="43" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY43" s="45"/>
-      <c r="AZ43" s="9"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="2"/>
-      <c r="BC43" s="45"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="45"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+    </row>
+    <row r="43" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD43" s="45"/>
+      <c r="BE43" s="9"/>
       <c r="BF43" s="2"/>
-      <c r="BG43"/>
-      <c r="BH43"/>
-    </row>
-    <row r="44" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY44" s="45"/>
-      <c r="AZ44" s="9"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="2"/>
-      <c r="BC44" s="45"/>
+      <c r="BG43" s="2"/>
+      <c r="BH43" s="45"/>
+      <c r="BI43" s="45"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+    </row>
+    <row r="44" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD44" s="45"/>
+      <c r="BE44" s="9"/>
       <c r="BF44" s="2"/>
-      <c r="BG44"/>
-      <c r="BH44"/>
-    </row>
-    <row r="45" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="9"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="2"/>
-      <c r="BC45" s="45"/>
+      <c r="BG44" s="2"/>
+      <c r="BH44" s="45"/>
+      <c r="BI44" s="45"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44"/>
+      <c r="BM44"/>
+    </row>
+    <row r="45" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD45" s="45"/>
+      <c r="BE45" s="9"/>
       <c r="BF45" s="2"/>
-      <c r="BG45"/>
-      <c r="BH45"/>
-    </row>
-    <row r="46" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY46" s="45"/>
-      <c r="AZ46" s="9"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="2"/>
-      <c r="BC46" s="45"/>
+      <c r="BG45" s="2"/>
+      <c r="BH45" s="45"/>
+      <c r="BI45" s="45"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+    </row>
+    <row r="46" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD46" s="45"/>
+      <c r="BE46" s="9"/>
       <c r="BF46" s="2"/>
-      <c r="BG46"/>
-      <c r="BH46"/>
-    </row>
-    <row r="47" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY47" s="45"/>
-      <c r="AZ47" s="9"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="2"/>
-      <c r="BC47" s="45"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="45"/>
+      <c r="BI46" s="45"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+    </row>
+    <row r="47" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD47" s="45"/>
+      <c r="BE47" s="9"/>
       <c r="BF47" s="2"/>
-      <c r="BG47"/>
-      <c r="BH47"/>
-    </row>
-    <row r="48" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY48" s="45"/>
-      <c r="AZ48" s="9"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="2"/>
-      <c r="BC48" s="45"/>
+      <c r="BG47" s="2"/>
+      <c r="BH47" s="45"/>
+      <c r="BI47" s="45"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+    </row>
+    <row r="48" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD48" s="45"/>
+      <c r="BE48" s="9"/>
       <c r="BF48" s="2"/>
-      <c r="BG48"/>
-      <c r="BH48"/>
-    </row>
-    <row r="49" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY49" s="45"/>
-      <c r="AZ49" s="9"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="2"/>
-      <c r="BC49" s="45"/>
+      <c r="BG48" s="2"/>
+      <c r="BH48" s="45"/>
+      <c r="BI48" s="45"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+    </row>
+    <row r="49" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD49" s="45"/>
+      <c r="BE49" s="9"/>
       <c r="BF49" s="2"/>
-      <c r="BG49"/>
-      <c r="BH49"/>
-    </row>
-    <row r="50" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY50" s="45"/>
-      <c r="AZ50" s="9"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="2"/>
-      <c r="BC50" s="45"/>
+      <c r="BG49" s="2"/>
+      <c r="BH49" s="45"/>
+      <c r="BI49" s="45"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+    </row>
+    <row r="50" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD50" s="45"/>
+      <c r="BE50" s="9"/>
       <c r="BF50" s="2"/>
-      <c r="BG50"/>
-      <c r="BH50"/>
-    </row>
-    <row r="51" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY51" s="45"/>
-      <c r="AZ51" s="9"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="2"/>
-      <c r="BC51" s="45"/>
+      <c r="BG50" s="2"/>
+      <c r="BH50" s="45"/>
+      <c r="BI50" s="45"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+    </row>
+    <row r="51" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD51" s="45"/>
+      <c r="BE51" s="9"/>
       <c r="BF51" s="2"/>
-      <c r="BG51"/>
-      <c r="BH51"/>
-    </row>
-    <row r="52" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY52" s="45"/>
-      <c r="AZ52" s="9"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="2"/>
-      <c r="BC52" s="45"/>
+      <c r="BG51" s="2"/>
+      <c r="BH51" s="45"/>
+      <c r="BI51" s="45"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+    </row>
+    <row r="52" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD52" s="45"/>
+      <c r="BE52" s="9"/>
       <c r="BF52" s="2"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-    </row>
-    <row r="53" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY53" s="45"/>
-      <c r="AZ53" s="9"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="2"/>
-      <c r="BC53" s="45"/>
+      <c r="BG52" s="2"/>
+      <c r="BH52" s="45"/>
+      <c r="BI52" s="45"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+    </row>
+    <row r="53" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD53" s="45"/>
+      <c r="BE53" s="9"/>
       <c r="BF53" s="2"/>
-      <c r="BG53"/>
-      <c r="BH53"/>
-    </row>
-    <row r="54" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY54" s="45"/>
-      <c r="AZ54" s="9"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="2"/>
-      <c r="BC54" s="45"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="45"/>
+      <c r="BI53" s="45"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+    </row>
+    <row r="54" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD54" s="45"/>
+      <c r="BE54" s="9"/>
       <c r="BF54" s="2"/>
-      <c r="BG54"/>
-      <c r="BH54"/>
-    </row>
-    <row r="55" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY55" s="45"/>
-      <c r="AZ55" s="9"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="2"/>
-      <c r="BC55" s="45"/>
+      <c r="BG54" s="2"/>
+      <c r="BH54" s="45"/>
+      <c r="BI54" s="45"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54"/>
+      <c r="BM54"/>
+    </row>
+    <row r="55" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD55" s="45"/>
+      <c r="BE55" s="9"/>
       <c r="BF55" s="2"/>
-      <c r="BG55"/>
-      <c r="BH55"/>
-    </row>
-    <row r="56" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY56" s="45"/>
-      <c r="AZ56" s="9"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="2"/>
-      <c r="BC56" s="45"/>
+      <c r="BG55" s="2"/>
+      <c r="BH55" s="45"/>
+      <c r="BI55" s="45"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55"/>
+      <c r="BM55"/>
+    </row>
+    <row r="56" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD56" s="45"/>
+      <c r="BE56" s="9"/>
       <c r="BF56" s="2"/>
-      <c r="BG56"/>
-      <c r="BH56"/>
-    </row>
-    <row r="57" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY57" s="45"/>
-      <c r="AZ57" s="9"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="2"/>
-      <c r="BC57" s="45"/>
+      <c r="BG56" s="2"/>
+      <c r="BH56" s="45"/>
+      <c r="BI56" s="45"/>
+      <c r="BK56" s="2"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+    </row>
+    <row r="57" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD57" s="45"/>
+      <c r="BE57" s="9"/>
       <c r="BF57" s="2"/>
-      <c r="BG57"/>
-      <c r="BH57"/>
-    </row>
-    <row r="58" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY58" s="45"/>
-      <c r="AZ58" s="9"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="2"/>
-      <c r="BC58" s="45"/>
+      <c r="BG57" s="2"/>
+      <c r="BH57" s="45"/>
+      <c r="BI57" s="45"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+    </row>
+    <row r="58" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD58" s="45"/>
+      <c r="BE58" s="9"/>
       <c r="BF58" s="2"/>
-      <c r="BG58"/>
-      <c r="BH58"/>
-    </row>
-    <row r="59" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY59" s="45"/>
-      <c r="AZ59" s="9"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="2"/>
-      <c r="BC59" s="45"/>
+      <c r="BG58" s="2"/>
+      <c r="BH58" s="45"/>
+      <c r="BI58" s="45"/>
+      <c r="BK58" s="2"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+    </row>
+    <row r="59" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD59" s="45"/>
+      <c r="BE59" s="9"/>
       <c r="BF59" s="2"/>
-      <c r="BG59"/>
-      <c r="BH59"/>
-    </row>
-    <row r="60" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY60" s="45"/>
-      <c r="AZ60" s="9"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="2"/>
-      <c r="BC60" s="45"/>
+      <c r="BG59" s="2"/>
+      <c r="BH59" s="45"/>
+      <c r="BI59" s="45"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+    </row>
+    <row r="60" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD60" s="45"/>
+      <c r="BE60" s="9"/>
       <c r="BF60" s="2"/>
-      <c r="BG60"/>
-      <c r="BH60"/>
-    </row>
-    <row r="61" spans="51:60" x14ac:dyDescent="0.2">
-      <c r="AY61" s="45"/>
-      <c r="AZ61" s="9"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="2"/>
-      <c r="BC61" s="45"/>
+      <c r="BG60" s="2"/>
+      <c r="BH60" s="45"/>
+      <c r="BI60" s="45"/>
+      <c r="BK60" s="2"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+    </row>
+    <row r="61" spans="56:65" x14ac:dyDescent="0.2">
       <c r="BD61" s="45"/>
+      <c r="BE61" s="9"/>
       <c r="BF61" s="2"/>
-      <c r="BG61"/>
-      <c r="BH61"/>
+      <c r="BG61" s="2"/>
+      <c r="BH61" s="45"/>
+      <c r="BI61" s="45"/>
+      <c r="BK61" s="2"/>
+      <c r="BL61"/>
+      <c r="BM61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BD2:BH2"/>
+    <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AE2:AO2"/>
     <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AV2:AY2"/>
-    <mergeCell ref="AZ2:BC2"/>
+    <mergeCell ref="AV2:BD2"/>
+    <mergeCell ref="BE2:BH2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BH13 A4:G27 AB14:BH30">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BM13 A4:G27 AB14:BM30">
     <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -40,6 +40,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -4546,6 +4547,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4611,12 +4618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5125,7 +5126,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ34" sqref="AQ34"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5172,86 +5173,86 @@
   <sheetData>
     <row r="1" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="157" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="159" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="158"/>
-      <c r="O2" s="158"/>
-      <c r="P2" s="158"/>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="159"/>
-      <c r="W2" s="155" t="s">
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="157" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="163"/>
-      <c r="Y2" s="163"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="163"/>
-      <c r="AB2" s="163"/>
-      <c r="AC2" s="163"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="165" t="s">
+      <c r="X2" s="165"/>
+      <c r="Y2" s="165"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="166"/>
-      <c r="AM2" s="166"/>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="167"/>
-      <c r="AP2" s="168" t="s">
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="168"/>
+      <c r="AK2" s="168"/>
+      <c r="AL2" s="168"/>
+      <c r="AM2" s="168"/>
+      <c r="AN2" s="168"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="169"/>
-      <c r="AR2" s="169"/>
-      <c r="AS2" s="169"/>
-      <c r="AT2" s="169"/>
-      <c r="AU2" s="170"/>
-      <c r="AV2" s="171" t="s">
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="173" t="s">
         <v>1061</v>
       </c>
-      <c r="AW2" s="168"/>
-      <c r="AX2" s="168"/>
-      <c r="AY2" s="168"/>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="168"/>
-      <c r="BD2" s="172"/>
-      <c r="BE2" s="173" t="s">
+      <c r="AW2" s="170"/>
+      <c r="AX2" s="170"/>
+      <c r="AY2" s="170"/>
+      <c r="AZ2" s="170"/>
+      <c r="BA2" s="170"/>
+      <c r="BB2" s="170"/>
+      <c r="BC2" s="170"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="BF2" s="174"/>
-      <c r="BG2" s="174"/>
-      <c r="BH2" s="175"/>
-      <c r="BI2" s="154" t="s">
+      <c r="BF2" s="176"/>
+      <c r="BG2" s="176"/>
+      <c r="BH2" s="177"/>
+      <c r="BI2" s="156" t="s">
         <v>1047</v>
       </c>
-      <c r="BJ2" s="155"/>
-      <c r="BK2" s="155"/>
-      <c r="BL2" s="155"/>
-      <c r="BM2" s="156"/>
+      <c r="BJ2" s="157"/>
+      <c r="BK2" s="157"/>
+      <c r="BL2" s="157"/>
+      <c r="BM2" s="158"/>
     </row>
     <row r="3" spans="1:65" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
@@ -5393,21 +5394,21 @@
       <c r="AU3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AV3" s="176" t="s">
+      <c r="AV3" s="154" t="s">
         <v>1122</v>
       </c>
-      <c r="AW3" s="177" t="s">
+      <c r="AW3" s="155" t="s">
         <v>1123</v>
       </c>
-      <c r="AX3" s="177" t="s">
+      <c r="AX3" s="155" t="s">
         <v>1124</v>
       </c>
-      <c r="AY3" s="177" t="s">
+      <c r="AY3" s="155" t="s">
         <v>1125</v>
       </c>
-      <c r="AZ3" s="177"/>
-      <c r="BA3" s="177"/>
-      <c r="BB3" s="177"/>
+      <c r="AZ3" s="155"/>
+      <c r="BA3" s="155"/>
+      <c r="BB3" s="155"/>
       <c r="BC3" s="73"/>
       <c r="BD3" s="74"/>
       <c r="BE3" s="75" t="s">
@@ -9995,74 +9996,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:55" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="162" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="154" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="164"/>
+      <c r="I2" s="156" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="155"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="163"/>
-      <c r="O2" s="163"/>
-      <c r="P2" s="163"/>
-      <c r="Q2" s="163"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="163"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="165" t="s">
+      <c r="J2" s="157"/>
+      <c r="K2" s="165"/>
+      <c r="L2" s="165"/>
+      <c r="M2" s="165"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="165"/>
+      <c r="R2" s="165"/>
+      <c r="S2" s="165"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="167"/>
-      <c r="AK2" s="171" t="s">
+      <c r="V2" s="168"/>
+      <c r="W2" s="168"/>
+      <c r="X2" s="168"/>
+      <c r="Y2" s="168"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="168"/>
+      <c r="AB2" s="168"/>
+      <c r="AC2" s="168"/>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="168"/>
+      <c r="AG2" s="168"/>
+      <c r="AH2" s="168"/>
+      <c r="AI2" s="168"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="169"/>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="170"/>
-      <c r="AQ2" s="171" t="s">
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="172"/>
+      <c r="AQ2" s="173" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="168"/>
-      <c r="AS2" s="168"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="173" t="s">
+      <c r="AR2" s="170"/>
+      <c r="AS2" s="170"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="174"/>
-      <c r="AW2" s="174"/>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="154" t="s">
+      <c r="AV2" s="176"/>
+      <c r="AW2" s="176"/>
+      <c r="AX2" s="177"/>
+      <c r="AY2" s="156" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="155"/>
-      <c r="BA2" s="155"/>
-      <c r="BB2" s="155"/>
-      <c r="BC2" s="156"/>
+      <c r="AZ2" s="157"/>
+      <c r="BA2" s="157"/>
+      <c r="BB2" s="157"/>
+      <c r="BC2" s="158"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,16 +36,15 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BH$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BI$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="1128">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3431,6 +3430,9 @@
   </si>
   <si>
     <t>1P0.0</t>
+  </si>
+  <si>
+    <t>Mean Wind Speed</t>
   </si>
 </sst>
 </file>
@@ -4120,7 +4122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4619,6 +4621,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5120,13 +5131,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM61"/>
+  <dimension ref="A1:BN61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AF4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD27"/>
+      <selection pane="bottomRight" activeCell="BM26" sqref="BM26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5162,17 +5173,18 @@
     <col min="57" max="57" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="4.5703125" style="45" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="3.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.42578125" customWidth="1"/>
-    <col min="67" max="67" width="4.28515625" customWidth="1"/>
+    <col min="60" max="60" width="4.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.42578125" customWidth="1"/>
+    <col min="68" max="68" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="162" t="s">
         <v>27</v>
       </c>
@@ -5245,16 +5257,17 @@
       </c>
       <c r="BF2" s="176"/>
       <c r="BG2" s="176"/>
-      <c r="BH2" s="177"/>
-      <c r="BI2" s="156" t="s">
+      <c r="BH2" s="176"/>
+      <c r="BI2" s="177"/>
+      <c r="BJ2" s="156" t="s">
         <v>1047</v>
       </c>
-      <c r="BJ2" s="157"/>
       <c r="BK2" s="157"/>
       <c r="BL2" s="157"/>
-      <c r="BM2" s="158"/>
-    </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" ht="85.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BM2" s="157"/>
+      <c r="BN2" s="158"/>
+    </row>
+    <row r="3" spans="1:66" s="1" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5420,26 +5433,29 @@
       <c r="BG3" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="BH3" s="76" t="s">
+      <c r="BH3" s="178" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BI3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BI3" s="66" t="s">
+      <c r="BJ3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BJ3" s="69" t="s">
+      <c r="BK3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BK3" s="70" t="s">
+      <c r="BL3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BL3" s="70" t="s">
+      <c r="BM3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BM3" s="68" t="s">
+      <c r="BN3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5597,27 +5613,28 @@
       <c r="BG4" s="37">
         <v>0.2</v>
       </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BH4" s="179"/>
+      <c r="BI4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BI4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="55">
+      <c r="BJ4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="55">
         <v>3</v>
       </c>
-      <c r="BK4" s="62">
+      <c r="BL4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BL4" s="62" t="s">
+      <c r="BM4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BN4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -5775,27 +5792,28 @@
       <c r="BG5" s="44">
         <v>0</v>
       </c>
-      <c r="BH5" s="42" t="s">
+      <c r="BH5" s="180"/>
+      <c r="BI5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="56">
+      <c r="BJ5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="56">
         <v>1</v>
       </c>
-      <c r="BK5" s="63">
+      <c r="BL5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BL5" s="63" t="s">
+      <c r="BM5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BM5" s="42" t="s">
+      <c r="BN5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -5953,27 +5971,28 @@
       <c r="BG6" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH6" s="42" t="s">
+      <c r="BH6" s="180"/>
+      <c r="BI6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="56">
+      <c r="BJ6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="56">
         <v>3</v>
       </c>
-      <c r="BK6" s="63">
+      <c r="BL6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL6" s="63" t="s">
+      <c r="BM6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM6" s="42" t="s">
+      <c r="BN6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6131,27 +6150,28 @@
       <c r="BG7" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH7" s="42" t="s">
+      <c r="BH7" s="180"/>
+      <c r="BI7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="56">
+      <c r="BJ7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK7" s="56">
         <v>5</v>
       </c>
-      <c r="BK7" s="63">
+      <c r="BL7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL7" s="63" t="s">
+      <c r="BM7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM7" s="42" t="s">
+      <c r="BN7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6309,27 +6329,28 @@
       <c r="BG8" s="44">
         <v>0</v>
       </c>
-      <c r="BH8" s="42" t="s">
+      <c r="BH8" s="180"/>
+      <c r="BI8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="56">
+      <c r="BJ8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="56">
         <v>3</v>
       </c>
-      <c r="BK8" s="63">
+      <c r="BL8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BL8" s="63" t="s">
+      <c r="BM8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM8" s="42" t="s">
+      <c r="BN8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -6488,27 +6509,28 @@
       <c r="BG9" s="44">
         <v>0</v>
       </c>
-      <c r="BH9" s="42" t="s">
+      <c r="BH9" s="180"/>
+      <c r="BI9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="56">
+      <c r="BJ9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="56">
         <v>5</v>
       </c>
-      <c r="BK9" s="63">
+      <c r="BL9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BL9" s="63" t="s">
+      <c r="BM9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM9" s="42" t="s">
+      <c r="BN9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -6667,27 +6689,28 @@
       <c r="BG10" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH10" s="42" t="s">
+      <c r="BH10" s="180"/>
+      <c r="BI10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="56">
+      <c r="BJ10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="56">
         <v>3</v>
       </c>
-      <c r="BK10" s="63">
+      <c r="BL10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BL10" s="63" t="s">
+      <c r="BM10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM10" s="42" t="s">
+      <c r="BN10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -6846,27 +6869,28 @@
       <c r="BG11" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH11" s="42" t="s">
+      <c r="BH11" s="180"/>
+      <c r="BI11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="56">
+      <c r="BJ11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK11" s="56">
         <v>2</v>
       </c>
-      <c r="BK11" s="63">
+      <c r="BL11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BL11" s="63" t="s">
+      <c r="BM11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM11" s="42" t="s">
+      <c r="BN11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -7024,27 +7048,28 @@
       <c r="BG12" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH12" s="42" t="s">
+      <c r="BH12" s="180"/>
+      <c r="BI12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="56">
+      <c r="BJ12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="56">
         <v>5</v>
       </c>
-      <c r="BK12" s="63">
+      <c r="BL12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BL12" s="63" t="s">
+      <c r="BM12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM12" s="42" t="s">
+      <c r="BN12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7202,27 +7227,28 @@
       <c r="BG13" s="44">
         <v>0</v>
       </c>
-      <c r="BH13" s="42" t="s">
+      <c r="BH13" s="180"/>
+      <c r="BI13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="63">
+      <c r="BJ13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BL13" s="63" t="s">
+      <c r="BM13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM13" s="42" t="s">
+      <c r="BN13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7380,27 +7406,28 @@
       <c r="BG14" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH14" s="42" t="s">
+      <c r="BH14" s="180"/>
+      <c r="BI14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI14" s="60">
+      <c r="BJ14" s="60">
         <v>2</v>
       </c>
-      <c r="BJ14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="63">
+      <c r="BK14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BL14" s="63" t="s">
+      <c r="BM14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM14" s="42" t="s">
+      <c r="BN14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -7558,27 +7585,28 @@
       <c r="BG15" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH15" s="42" t="s">
+      <c r="BH15" s="180"/>
+      <c r="BI15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI15" s="60">
+      <c r="BJ15" s="60">
         <v>2</v>
       </c>
-      <c r="BJ15" s="56">
+      <c r="BK15" s="56">
         <v>4</v>
       </c>
-      <c r="BK15" s="63">
+      <c r="BL15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BL15" s="63" t="s">
+      <c r="BM15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM15" s="42" t="s">
+      <c r="BN15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -7736,27 +7764,28 @@
       <c r="BG16" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH16" s="42" t="s">
+      <c r="BH16" s="180"/>
+      <c r="BI16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI16" s="60">
+      <c r="BJ16" s="60">
         <v>2</v>
       </c>
-      <c r="BJ16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="63">
+      <c r="BK16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BL16" s="63" t="s">
+      <c r="BM16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM16" s="42" t="s">
+      <c r="BN16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="128"/>
       <c r="C17" s="152"/>
@@ -7816,14 +7845,15 @@
       <c r="BE17" s="131"/>
       <c r="BF17" s="135"/>
       <c r="BG17" s="136"/>
-      <c r="BH17" s="133"/>
-      <c r="BI17" s="137"/>
-      <c r="BJ17" s="138"/>
-      <c r="BK17" s="139"/>
+      <c r="BH17" s="181"/>
+      <c r="BI17" s="133"/>
+      <c r="BJ17" s="137"/>
+      <c r="BK17" s="138"/>
       <c r="BL17" s="139"/>
-      <c r="BM17" s="133"/>
-    </row>
-    <row r="18" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BM17" s="139"/>
+      <c r="BN17" s="133"/>
+    </row>
+    <row r="18" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -7981,27 +8011,28 @@
       <c r="BG18" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH18" s="42" t="s">
+      <c r="BH18" s="180"/>
+      <c r="BI18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="63">
+      <c r="BJ18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BL18" s="63" t="s">
+      <c r="BM18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM18" s="42" t="s">
+      <c r="BN18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8159,27 +8190,28 @@
       <c r="BG19" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH19" s="42" t="s">
+      <c r="BH19" s="180"/>
+      <c r="BI19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BI19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="63">
+      <c r="BJ19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BL19" s="63" t="s">
+      <c r="BM19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM19" s="42" t="s">
+      <c r="BN19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8337,27 +8369,28 @@
       <c r="BG20" s="44">
         <v>0.2</v>
       </c>
-      <c r="BH20" s="42" t="s">
+      <c r="BH20" s="180"/>
+      <c r="BI20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="63">
+      <c r="BJ20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BL20" s="63" t="s">
+      <c r="BM20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM20" s="42" t="s">
+      <c r="BN20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -8509,18 +8542,21 @@
       <c r="BE21" s="43"/>
       <c r="BF21" s="53"/>
       <c r="BG21" s="44"/>
-      <c r="BH21" s="42" t="s">
+      <c r="BH21" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63" t="s">
+      <c r="BJ21" s="60"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="63"/>
+      <c r="BM21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM21" s="42"/>
-    </row>
-    <row r="22" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BN21" s="42"/>
+    </row>
+    <row r="22" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -8656,18 +8692,21 @@
       <c r="BE22" s="43"/>
       <c r="BF22" s="53"/>
       <c r="BG22" s="44"/>
-      <c r="BH22" s="42" t="s">
+      <c r="BH22" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="61"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63" t="s">
+      <c r="BJ22" s="60"/>
+      <c r="BK22" s="61"/>
+      <c r="BL22" s="63"/>
+      <c r="BM22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM22" s="42"/>
-    </row>
-    <row r="23" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BN22" s="42"/>
+    </row>
+    <row r="23" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -8799,16 +8838,21 @@
       <c r="BE23" s="43"/>
       <c r="BF23" s="53"/>
       <c r="BG23" s="44"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="61"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63" t="s">
+      <c r="BH23" s="180">
+        <v>8</v>
+      </c>
+      <c r="BI23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ23" s="60"/>
+      <c r="BK23" s="61"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM23" s="42"/>
-    </row>
-    <row r="24" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BN23" s="42"/>
+    </row>
+    <row r="24" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -8944,16 +8988,21 @@
       <c r="BE24" s="43"/>
       <c r="BF24" s="53"/>
       <c r="BG24" s="44"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="60"/>
-      <c r="BJ24" s="61"/>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="63" t="s">
+      <c r="BH24" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI24" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BJ24" s="60"/>
+      <c r="BK24" s="61"/>
+      <c r="BL24" s="63"/>
+      <c r="BM24" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM24" s="42"/>
-    </row>
-    <row r="25" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BN24" s="42"/>
+    </row>
+    <row r="25" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1121</v>
@@ -9081,18 +9130,21 @@
       <c r="BE25" s="43"/>
       <c r="BF25" s="53"/>
       <c r="BG25" s="44"/>
-      <c r="BH25" s="42" t="s">
+      <c r="BH25" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI25" s="60"/>
-      <c r="BJ25" s="61"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63" t="s">
+      <c r="BJ25" s="60"/>
+      <c r="BK25" s="61"/>
+      <c r="BL25" s="63"/>
+      <c r="BM25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM25" s="42"/>
-    </row>
-    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN25" s="42"/>
+    </row>
+    <row r="26" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1120</v>
@@ -9220,18 +9272,21 @@
       <c r="BE26" s="43"/>
       <c r="BF26" s="53"/>
       <c r="BG26" s="44"/>
-      <c r="BH26" s="42" t="s">
+      <c r="BH26" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="61"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63" t="s">
+      <c r="BJ26" s="60"/>
+      <c r="BK26" s="61"/>
+      <c r="BL26" s="63"/>
+      <c r="BM26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM26" s="42"/>
-    </row>
-    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="BN26" s="42"/>
+    </row>
+    <row r="27" spans="1:66" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1119</v>
@@ -9359,18 +9414,21 @@
       <c r="BE27" s="43"/>
       <c r="BF27" s="53"/>
       <c r="BG27" s="44"/>
-      <c r="BH27" s="42" t="s">
+      <c r="BH27" s="180">
+        <v>12</v>
+      </c>
+      <c r="BI27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BI27" s="60"/>
-      <c r="BJ27" s="61"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63" t="s">
+      <c r="BJ27" s="60"/>
+      <c r="BK27" s="61"/>
+      <c r="BL27" s="63"/>
+      <c r="BM27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM27" s="42"/>
-    </row>
-    <row r="28" spans="1:65" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="BN27" s="42"/>
+    </row>
+    <row r="28" spans="1:66" s="24" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1118</v>
@@ -9498,18 +9556,21 @@
       <c r="BE28" s="43"/>
       <c r="BF28" s="53"/>
       <c r="BG28" s="44"/>
-      <c r="BH28" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="61"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63" t="s">
+      <c r="BH28" s="180">
+        <v>8</v>
+      </c>
+      <c r="BI28" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ28" s="60"/>
+      <c r="BK28" s="61"/>
+      <c r="BL28" s="63"/>
+      <c r="BM28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM28" s="42"/>
-    </row>
-    <row r="29" spans="1:65" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="BN28" s="42"/>
+    </row>
+    <row r="29" spans="1:66" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="153"/>
       <c r="D29" s="3"/>
@@ -9570,344 +9631,374 @@
       <c r="BE29" s="7"/>
       <c r="BF29" s="48"/>
       <c r="BG29" s="10"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="7"/>
-      <c r="BJ29" s="48"/>
-      <c r="BK29" s="64"/>
+      <c r="BH29" s="182"/>
+      <c r="BI29" s="6"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="48"/>
       <c r="BL29" s="64"/>
-      <c r="BM29" s="6"/>
-    </row>
-    <row r="33" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BM29" s="64"/>
+      <c r="BN29" s="6"/>
+    </row>
+    <row r="33" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD33" s="45"/>
       <c r="BE33" s="9"/>
       <c r="BF33" s="2"/>
       <c r="BG33" s="2"/>
-      <c r="BH33" s="45"/>
+      <c r="BH33" s="2"/>
       <c r="BI33" s="45"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33"/>
+      <c r="BJ33" s="45"/>
+      <c r="BL33" s="2"/>
       <c r="BM33"/>
-    </row>
-    <row r="34" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN33"/>
+    </row>
+    <row r="34" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD34" s="45"/>
       <c r="BE34" s="9"/>
       <c r="BF34" s="2"/>
       <c r="BG34" s="2"/>
-      <c r="BH34" s="45"/>
+      <c r="BH34" s="2"/>
       <c r="BI34" s="45"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34"/>
+      <c r="BJ34" s="45"/>
+      <c r="BL34" s="2"/>
       <c r="BM34"/>
-    </row>
-    <row r="35" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN34"/>
+    </row>
+    <row r="35" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD35" s="45"/>
       <c r="BE35" s="9"/>
       <c r="BF35" s="2"/>
       <c r="BG35" s="2"/>
-      <c r="BH35" s="45"/>
+      <c r="BH35" s="2"/>
       <c r="BI35" s="45"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35"/>
+      <c r="BJ35" s="45"/>
+      <c r="BL35" s="2"/>
       <c r="BM35"/>
-    </row>
-    <row r="36" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN35"/>
+    </row>
+    <row r="36" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD36" s="45"/>
       <c r="BE36" s="9"/>
       <c r="BF36" s="2"/>
       <c r="BG36" s="2"/>
-      <c r="BH36" s="45"/>
+      <c r="BH36" s="2"/>
       <c r="BI36" s="45"/>
-      <c r="BK36" s="2"/>
-      <c r="BL36"/>
+      <c r="BJ36" s="45"/>
+      <c r="BL36" s="2"/>
       <c r="BM36"/>
-    </row>
-    <row r="37" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN36"/>
+    </row>
+    <row r="37" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD37" s="45"/>
       <c r="BE37" s="9"/>
       <c r="BF37" s="2"/>
       <c r="BG37" s="2"/>
-      <c r="BH37" s="45"/>
+      <c r="BH37" s="2"/>
       <c r="BI37" s="45"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37"/>
+      <c r="BJ37" s="45"/>
+      <c r="BL37" s="2"/>
       <c r="BM37"/>
-    </row>
-    <row r="38" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN37"/>
+    </row>
+    <row r="38" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD38" s="45"/>
       <c r="BE38" s="9"/>
       <c r="BF38" s="2"/>
       <c r="BG38" s="2"/>
-      <c r="BH38" s="45"/>
+      <c r="BH38" s="2"/>
       <c r="BI38" s="45"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38"/>
+      <c r="BJ38" s="45"/>
+      <c r="BL38" s="2"/>
       <c r="BM38"/>
-    </row>
-    <row r="39" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN38"/>
+    </row>
+    <row r="39" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD39" s="45"/>
       <c r="BE39" s="9"/>
       <c r="BF39" s="2"/>
       <c r="BG39" s="2"/>
-      <c r="BH39" s="45"/>
+      <c r="BH39" s="2"/>
       <c r="BI39" s="45"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39"/>
+      <c r="BJ39" s="45"/>
+      <c r="BL39" s="2"/>
       <c r="BM39"/>
-    </row>
-    <row r="40" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN39"/>
+    </row>
+    <row r="40" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD40" s="45"/>
       <c r="BE40" s="9"/>
       <c r="BF40" s="2"/>
       <c r="BG40" s="2"/>
-      <c r="BH40" s="45"/>
+      <c r="BH40" s="2"/>
       <c r="BI40" s="45"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40"/>
+      <c r="BJ40" s="45"/>
+      <c r="BL40" s="2"/>
       <c r="BM40"/>
-    </row>
-    <row r="41" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN40"/>
+    </row>
+    <row r="41" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD41" s="45"/>
       <c r="BE41" s="9"/>
       <c r="BF41" s="2"/>
       <c r="BG41" s="2"/>
-      <c r="BH41" s="45"/>
+      <c r="BH41" s="2"/>
       <c r="BI41" s="45"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41"/>
+      <c r="BJ41" s="45"/>
+      <c r="BL41" s="2"/>
       <c r="BM41"/>
-    </row>
-    <row r="42" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN41"/>
+    </row>
+    <row r="42" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD42" s="45"/>
       <c r="BE42" s="9"/>
       <c r="BF42" s="2"/>
       <c r="BG42" s="2"/>
-      <c r="BH42" s="45"/>
+      <c r="BH42" s="2"/>
       <c r="BI42" s="45"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42"/>
+      <c r="BJ42" s="45"/>
+      <c r="BL42" s="2"/>
       <c r="BM42"/>
-    </row>
-    <row r="43" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN42"/>
+    </row>
+    <row r="43" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD43" s="45"/>
       <c r="BE43" s="9"/>
       <c r="BF43" s="2"/>
       <c r="BG43" s="2"/>
-      <c r="BH43" s="45"/>
+      <c r="BH43" s="2"/>
       <c r="BI43" s="45"/>
-      <c r="BK43" s="2"/>
-      <c r="BL43"/>
+      <c r="BJ43" s="45"/>
+      <c r="BL43" s="2"/>
       <c r="BM43"/>
-    </row>
-    <row r="44" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN43"/>
+    </row>
+    <row r="44" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD44" s="45"/>
       <c r="BE44" s="9"/>
       <c r="BF44" s="2"/>
       <c r="BG44" s="2"/>
-      <c r="BH44" s="45"/>
+      <c r="BH44" s="2"/>
       <c r="BI44" s="45"/>
-      <c r="BK44" s="2"/>
-      <c r="BL44"/>
+      <c r="BJ44" s="45"/>
+      <c r="BL44" s="2"/>
       <c r="BM44"/>
-    </row>
-    <row r="45" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN44"/>
+    </row>
+    <row r="45" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD45" s="45"/>
       <c r="BE45" s="9"/>
       <c r="BF45" s="2"/>
       <c r="BG45" s="2"/>
-      <c r="BH45" s="45"/>
+      <c r="BH45" s="2"/>
       <c r="BI45" s="45"/>
-      <c r="BK45" s="2"/>
-      <c r="BL45"/>
+      <c r="BJ45" s="45"/>
+      <c r="BL45" s="2"/>
       <c r="BM45"/>
-    </row>
-    <row r="46" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN45"/>
+    </row>
+    <row r="46" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD46" s="45"/>
       <c r="BE46" s="9"/>
       <c r="BF46" s="2"/>
       <c r="BG46" s="2"/>
-      <c r="BH46" s="45"/>
+      <c r="BH46" s="2"/>
       <c r="BI46" s="45"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46"/>
+      <c r="BJ46" s="45"/>
+      <c r="BL46" s="2"/>
       <c r="BM46"/>
-    </row>
-    <row r="47" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN46"/>
+    </row>
+    <row r="47" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD47" s="45"/>
       <c r="BE47" s="9"/>
       <c r="BF47" s="2"/>
       <c r="BG47" s="2"/>
-      <c r="BH47" s="45"/>
+      <c r="BH47" s="2"/>
       <c r="BI47" s="45"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47"/>
+      <c r="BJ47" s="45"/>
+      <c r="BL47" s="2"/>
       <c r="BM47"/>
-    </row>
-    <row r="48" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN47"/>
+    </row>
+    <row r="48" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD48" s="45"/>
       <c r="BE48" s="9"/>
       <c r="BF48" s="2"/>
       <c r="BG48" s="2"/>
-      <c r="BH48" s="45"/>
+      <c r="BH48" s="2"/>
       <c r="BI48" s="45"/>
-      <c r="BK48" s="2"/>
-      <c r="BL48"/>
+      <c r="BJ48" s="45"/>
+      <c r="BL48" s="2"/>
       <c r="BM48"/>
-    </row>
-    <row r="49" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN48"/>
+    </row>
+    <row r="49" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD49" s="45"/>
       <c r="BE49" s="9"/>
       <c r="BF49" s="2"/>
       <c r="BG49" s="2"/>
-      <c r="BH49" s="45"/>
+      <c r="BH49" s="2"/>
       <c r="BI49" s="45"/>
-      <c r="BK49" s="2"/>
-      <c r="BL49"/>
+      <c r="BJ49" s="45"/>
+      <c r="BL49" s="2"/>
       <c r="BM49"/>
-    </row>
-    <row r="50" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN49"/>
+    </row>
+    <row r="50" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD50" s="45"/>
       <c r="BE50" s="9"/>
       <c r="BF50" s="2"/>
       <c r="BG50" s="2"/>
-      <c r="BH50" s="45"/>
+      <c r="BH50" s="2"/>
       <c r="BI50" s="45"/>
-      <c r="BK50" s="2"/>
-      <c r="BL50"/>
+      <c r="BJ50" s="45"/>
+      <c r="BL50" s="2"/>
       <c r="BM50"/>
-    </row>
-    <row r="51" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN50"/>
+    </row>
+    <row r="51" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD51" s="45"/>
       <c r="BE51" s="9"/>
       <c r="BF51" s="2"/>
       <c r="BG51" s="2"/>
-      <c r="BH51" s="45"/>
+      <c r="BH51" s="2"/>
       <c r="BI51" s="45"/>
-      <c r="BK51" s="2"/>
-      <c r="BL51"/>
+      <c r="BJ51" s="45"/>
+      <c r="BL51" s="2"/>
       <c r="BM51"/>
-    </row>
-    <row r="52" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN51"/>
+    </row>
+    <row r="52" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD52" s="45"/>
       <c r="BE52" s="9"/>
       <c r="BF52" s="2"/>
       <c r="BG52" s="2"/>
-      <c r="BH52" s="45"/>
+      <c r="BH52" s="2"/>
       <c r="BI52" s="45"/>
-      <c r="BK52" s="2"/>
-      <c r="BL52"/>
+      <c r="BJ52" s="45"/>
+      <c r="BL52" s="2"/>
       <c r="BM52"/>
-    </row>
-    <row r="53" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN52"/>
+    </row>
+    <row r="53" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD53" s="45"/>
       <c r="BE53" s="9"/>
       <c r="BF53" s="2"/>
       <c r="BG53" s="2"/>
-      <c r="BH53" s="45"/>
+      <c r="BH53" s="2"/>
       <c r="BI53" s="45"/>
-      <c r="BK53" s="2"/>
-      <c r="BL53"/>
+      <c r="BJ53" s="45"/>
+      <c r="BL53" s="2"/>
       <c r="BM53"/>
-    </row>
-    <row r="54" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN53"/>
+    </row>
+    <row r="54" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD54" s="45"/>
       <c r="BE54" s="9"/>
       <c r="BF54" s="2"/>
       <c r="BG54" s="2"/>
-      <c r="BH54" s="45"/>
+      <c r="BH54" s="2"/>
       <c r="BI54" s="45"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54"/>
+      <c r="BJ54" s="45"/>
+      <c r="BL54" s="2"/>
       <c r="BM54"/>
-    </row>
-    <row r="55" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN54"/>
+    </row>
+    <row r="55" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD55" s="45"/>
       <c r="BE55" s="9"/>
       <c r="BF55" s="2"/>
       <c r="BG55" s="2"/>
-      <c r="BH55" s="45"/>
+      <c r="BH55" s="2"/>
       <c r="BI55" s="45"/>
-      <c r="BK55" s="2"/>
-      <c r="BL55"/>
+      <c r="BJ55" s="45"/>
+      <c r="BL55" s="2"/>
       <c r="BM55"/>
-    </row>
-    <row r="56" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN55"/>
+    </row>
+    <row r="56" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD56" s="45"/>
       <c r="BE56" s="9"/>
       <c r="BF56" s="2"/>
       <c r="BG56" s="2"/>
-      <c r="BH56" s="45"/>
+      <c r="BH56" s="2"/>
       <c r="BI56" s="45"/>
-      <c r="BK56" s="2"/>
-      <c r="BL56"/>
+      <c r="BJ56" s="45"/>
+      <c r="BL56" s="2"/>
       <c r="BM56"/>
-    </row>
-    <row r="57" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN56"/>
+    </row>
+    <row r="57" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD57" s="45"/>
       <c r="BE57" s="9"/>
       <c r="BF57" s="2"/>
       <c r="BG57" s="2"/>
-      <c r="BH57" s="45"/>
+      <c r="BH57" s="2"/>
       <c r="BI57" s="45"/>
-      <c r="BK57" s="2"/>
-      <c r="BL57"/>
+      <c r="BJ57" s="45"/>
+      <c r="BL57" s="2"/>
       <c r="BM57"/>
-    </row>
-    <row r="58" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN57"/>
+    </row>
+    <row r="58" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD58" s="45"/>
       <c r="BE58" s="9"/>
       <c r="BF58" s="2"/>
       <c r="BG58" s="2"/>
-      <c r="BH58" s="45"/>
+      <c r="BH58" s="2"/>
       <c r="BI58" s="45"/>
-      <c r="BK58" s="2"/>
-      <c r="BL58"/>
+      <c r="BJ58" s="45"/>
+      <c r="BL58" s="2"/>
       <c r="BM58"/>
-    </row>
-    <row r="59" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN58"/>
+    </row>
+    <row r="59" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD59" s="45"/>
       <c r="BE59" s="9"/>
       <c r="BF59" s="2"/>
       <c r="BG59" s="2"/>
-      <c r="BH59" s="45"/>
+      <c r="BH59" s="2"/>
       <c r="BI59" s="45"/>
-      <c r="BK59" s="2"/>
-      <c r="BL59"/>
+      <c r="BJ59" s="45"/>
+      <c r="BL59" s="2"/>
       <c r="BM59"/>
-    </row>
-    <row r="60" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN59"/>
+    </row>
+    <row r="60" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD60" s="45"/>
       <c r="BE60" s="9"/>
       <c r="BF60" s="2"/>
       <c r="BG60" s="2"/>
-      <c r="BH60" s="45"/>
+      <c r="BH60" s="2"/>
       <c r="BI60" s="45"/>
-      <c r="BK60" s="2"/>
-      <c r="BL60"/>
+      <c r="BJ60" s="45"/>
+      <c r="BL60" s="2"/>
       <c r="BM60"/>
-    </row>
-    <row r="61" spans="56:65" x14ac:dyDescent="0.2">
+      <c r="BN60"/>
+    </row>
+    <row r="61" spans="56:66" x14ac:dyDescent="0.2">
       <c r="BD61" s="45"/>
       <c r="BE61" s="9"/>
       <c r="BF61" s="2"/>
       <c r="BG61" s="2"/>
-      <c r="BH61" s="45"/>
+      <c r="BH61" s="2"/>
       <c r="BI61" s="45"/>
-      <c r="BK61" s="2"/>
-      <c r="BL61"/>
+      <c r="BJ61" s="45"/>
+      <c r="BL61" s="2"/>
       <c r="BM61"/>
+      <c r="BN61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BJ2:BN2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AE2:AO2"/>
     <mergeCell ref="AP2:AU2"/>
     <mergeCell ref="AV2:BD2"/>
-    <mergeCell ref="BE2:BH2"/>
+    <mergeCell ref="BE2:BI2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BM13 A4:G27 AB14:BM30">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BN13 A4:G27 AB14:BN30">
     <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4581,6 +4581,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4647,29 +4650,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <font>
         <condense val="0"/>
@@ -5168,10 +5154,10 @@
   <dimension ref="A1:BO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="W19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5221,88 +5207,88 @@
   <sheetData>
     <row r="1" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="164" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="165" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="165"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="165"/>
-      <c r="S2" s="165"/>
-      <c r="T2" s="165"/>
-      <c r="U2" s="165"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="162" t="s">
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="163" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="170"/>
-      <c r="Y2" s="170"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="170"/>
-      <c r="AB2" s="170"/>
-      <c r="AC2" s="170"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="172" t="s">
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="173" t="s">
         <v>1128</v>
       </c>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="173"/>
-      <c r="AL2" s="173"/>
-      <c r="AM2" s="173"/>
-      <c r="AN2" s="173"/>
-      <c r="AO2" s="173"/>
-      <c r="AP2" s="174"/>
-      <c r="AQ2" s="175" t="s">
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="174"/>
+      <c r="AM2" s="174"/>
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="176" t="s">
         <v>43</v>
       </c>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="176"/>
-      <c r="AU2" s="176"/>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="178" t="s">
+      <c r="AR2" s="177"/>
+      <c r="AS2" s="177"/>
+      <c r="AT2" s="177"/>
+      <c r="AU2" s="177"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="179" t="s">
         <v>1061</v>
       </c>
-      <c r="AX2" s="175"/>
-      <c r="AY2" s="175"/>
-      <c r="AZ2" s="175"/>
-      <c r="BA2" s="175"/>
-      <c r="BB2" s="175"/>
-      <c r="BC2" s="175"/>
-      <c r="BD2" s="175"/>
-      <c r="BE2" s="179"/>
-      <c r="BF2" s="180" t="s">
+      <c r="AX2" s="176"/>
+      <c r="AY2" s="176"/>
+      <c r="AZ2" s="176"/>
+      <c r="BA2" s="176"/>
+      <c r="BB2" s="176"/>
+      <c r="BC2" s="176"/>
+      <c r="BD2" s="176"/>
+      <c r="BE2" s="180"/>
+      <c r="BF2" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="BG2" s="181"/>
-      <c r="BH2" s="181"/>
-      <c r="BI2" s="181"/>
-      <c r="BJ2" s="182"/>
-      <c r="BK2" s="161" t="s">
+      <c r="BG2" s="182"/>
+      <c r="BH2" s="182"/>
+      <c r="BI2" s="182"/>
+      <c r="BJ2" s="183"/>
+      <c r="BK2" s="162" t="s">
         <v>1047</v>
       </c>
-      <c r="BL2" s="162"/>
-      <c r="BM2" s="162"/>
-      <c r="BN2" s="162"/>
-      <c r="BO2" s="163"/>
+      <c r="BL2" s="163"/>
+      <c r="BM2" s="163"/>
+      <c r="BN2" s="163"/>
+      <c r="BO2" s="164"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -5396,7 +5382,7 @@
       <c r="AE3" s="82" t="s">
         <v>1129</v>
       </c>
-      <c r="AF3" s="183" t="s">
+      <c r="AF3" s="161" t="s">
         <v>5</v>
       </c>
       <c r="AG3" s="83" t="s">
@@ -5576,7 +5562,7 @@
         <v>22</v>
       </c>
       <c r="AB4" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="30" t="s">
         <v>22</v>
@@ -5936,7 +5922,7 @@
         <v>22</v>
       </c>
       <c r="AB6" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="41" t="s">
         <v>22</v>
@@ -6116,7 +6102,7 @@
         <v>22</v>
       </c>
       <c r="AB7" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="41" t="s">
         <v>22</v>
@@ -6296,7 +6282,7 @@
         <v>32</v>
       </c>
       <c r="AB8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="41" t="s">
         <v>22</v>
@@ -6477,7 +6463,7 @@
         <v>32</v>
       </c>
       <c r="AB9" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="41" t="s">
         <v>22</v>
@@ -6658,7 +6644,7 @@
         <v>22</v>
       </c>
       <c r="AB10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="41" t="s">
         <v>22</v>
@@ -6839,7 +6825,7 @@
         <v>22</v>
       </c>
       <c r="AB11" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="41" t="s">
         <v>22</v>
@@ -7019,7 +7005,7 @@
         <v>22</v>
       </c>
       <c r="AB12" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="41" t="s">
         <v>32</v>
@@ -7199,7 +7185,7 @@
         <v>22</v>
       </c>
       <c r="AB13" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="41" t="s">
         <v>22</v>
@@ -7379,7 +7365,7 @@
         <v>22</v>
       </c>
       <c r="AB14" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="41" t="s">
         <v>22</v>
@@ -7559,7 +7545,7 @@
         <v>22</v>
       </c>
       <c r="AB15" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="41" t="s">
         <v>22</v>
@@ -7739,7 +7725,7 @@
         <v>22</v>
       </c>
       <c r="AB16" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="41" t="s">
         <v>22</v>
@@ -7988,7 +7974,7 @@
         <v>22</v>
       </c>
       <c r="AB18" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="41" t="s">
         <v>22</v>
@@ -8168,7 +8154,7 @@
         <v>22</v>
       </c>
       <c r="AB19" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="41" t="s">
         <v>22</v>
@@ -8348,7 +8334,7 @@
         <v>22</v>
       </c>
       <c r="AB20" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="41" t="s">
         <v>22</v>
@@ -8528,7 +8514,7 @@
         <v>22</v>
       </c>
       <c r="AB21" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="41" t="s">
         <v>22</v>
@@ -8688,7 +8674,9 @@
       </c>
       <c r="Z22" s="25"/>
       <c r="AA22" s="25"/>
-      <c r="AB22" s="25"/>
+      <c r="AB22" s="25">
+        <v>0</v>
+      </c>
       <c r="AC22" s="41"/>
       <c r="AD22" s="41"/>
       <c r="AE22" s="40"/>
@@ -8839,7 +8827,9 @@
       </c>
       <c r="Z23" s="25"/>
       <c r="AA23" s="25"/>
-      <c r="AB23" s="25"/>
+      <c r="AB23" s="25">
+        <v>0</v>
+      </c>
       <c r="AC23" s="41"/>
       <c r="AD23" s="41"/>
       <c r="AE23" s="40"/>
@@ -8986,7 +8976,9 @@
       </c>
       <c r="Z24" s="25"/>
       <c r="AA24" s="25"/>
-      <c r="AB24" s="25"/>
+      <c r="AB24" s="25">
+        <v>0</v>
+      </c>
       <c r="AC24" s="41"/>
       <c r="AD24" s="41"/>
       <c r="AE24" s="40"/>
@@ -9137,7 +9129,9 @@
       </c>
       <c r="Z25" s="25"/>
       <c r="AA25" s="25"/>
-      <c r="AB25" s="25"/>
+      <c r="AB25" s="25">
+        <v>0</v>
+      </c>
       <c r="AC25" s="41"/>
       <c r="AD25" s="41"/>
       <c r="AE25" s="40"/>
@@ -9280,7 +9274,9 @@
       </c>
       <c r="Z26" s="25"/>
       <c r="AA26" s="25"/>
-      <c r="AB26" s="25"/>
+      <c r="AB26" s="25">
+        <v>0</v>
+      </c>
       <c r="AC26" s="41"/>
       <c r="AD26" s="41"/>
       <c r="AE26" s="40"/>
@@ -9423,7 +9419,9 @@
       </c>
       <c r="Z27" s="25"/>
       <c r="AA27" s="25"/>
-      <c r="AB27" s="25"/>
+      <c r="AB27" s="25">
+        <v>0</v>
+      </c>
       <c r="AC27" s="41"/>
       <c r="AD27" s="41"/>
       <c r="AE27" s="40"/>
@@ -9568,7 +9566,9 @@
       </c>
       <c r="Z28" s="25"/>
       <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
+      <c r="AB28" s="25">
+        <v>0</v>
+      </c>
       <c r="AC28" s="41"/>
       <c r="AD28" s="41"/>
       <c r="AE28" s="40"/>
@@ -9666,7 +9666,9 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="5"/>
@@ -10067,34 +10069,34 @@
     <mergeCell ref="BF2:BJ2"/>
   </mergeCells>
   <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BO13 A4:G27 AB14:BO30">
-    <cfRule type="expression" dxfId="26" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="22" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10155,74 +10157,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="168"/>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="161" t="s">
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="162" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="162"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="172" t="s">
+      <c r="J2" s="163"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="173"/>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="173"/>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="173"/>
-      <c r="AE2" s="173"/>
-      <c r="AF2" s="173"/>
-      <c r="AG2" s="173"/>
-      <c r="AH2" s="173"/>
-      <c r="AI2" s="173"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="178" t="s">
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174"/>
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="179" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="177"/>
-      <c r="AQ2" s="178" t="s">
+      <c r="AL2" s="177"/>
+      <c r="AM2" s="177"/>
+      <c r="AN2" s="177"/>
+      <c r="AO2" s="177"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="179" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="180" t="s">
+      <c r="AR2" s="176"/>
+      <c r="AS2" s="176"/>
+      <c r="AT2" s="180"/>
+      <c r="AU2" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="161" t="s">
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="162" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="162"/>
-      <c r="BA2" s="162"/>
-      <c r="BB2" s="162"/>
-      <c r="BC2" s="163"/>
+      <c r="AZ2" s="163"/>
+      <c r="BA2" s="163"/>
+      <c r="BB2" s="163"/>
+      <c r="BC2" s="164"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -14109,42 +14111,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="14" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45590,31 +45592,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="6" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1131">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3439,6 +3439,9 @@
   </si>
   <si>
     <t>Integrator</t>
+  </si>
+  <si>
+    <t>Flexible, steady wind, high-speed shaft brake shutdown</t>
   </si>
 </sst>
 </file>
@@ -5154,10 +5157,10 @@
   <dimension ref="A1:BO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AB30" sqref="AB30"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5661,7 +5664,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -5679,7 +5682,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>1106</v>
+        <v>1130</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BJ$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BA$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1133">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3399,9 +3399,6 @@
     <t>Flexible, DLL control, turbulence, irregular waves</t>
   </si>
   <si>
-    <t>OC4 Load Case (LC) 3.7: steady wind, white noise waves</t>
-  </si>
-  <si>
     <t>Flexible, DLL control, tower potential flow, steady wind, regular waves with 0 phase</t>
   </si>
   <si>
@@ -3442,6 +3439,15 @@
   </si>
   <si>
     <t>Flexible, steady wind, high-speed shaft brake shutdown</t>
+  </si>
+  <si>
+    <t>HydroDyn</t>
+  </si>
+  <si>
+    <t>AeroDyn</t>
+  </si>
+  <si>
+    <t>OC4 Load Case (LC) 3.7: steady wind, white noise second-order waves</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3479,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3543,6 +3549,12 @@
       <patternFill patternType="lightUp">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4142,7 +4154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4439,21 +4451,12 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4569,12 +4572,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" textRotation="90" wrapText="1"/>
     </xf>
@@ -4653,12 +4650,36 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="67">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4727,6 +4748,300 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5154,20 +5469,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO61"/>
+  <dimension ref="A1:BM61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="149" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="146" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -5185,120 +5500,118 @@
     <col min="26" max="26" width="4.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="4.33203125" style="2" customWidth="1"/>
     <col min="28" max="28" width="3.33203125" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="3.33203125" style="2" customWidth="1"/>
     <col min="33" max="34" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="48" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="4.88671875" style="2" customWidth="1"/>
-    <col min="50" max="50" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="57" width="4.88671875" style="2" customWidth="1"/>
-    <col min="58" max="58" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.44140625" customWidth="1"/>
-    <col min="69" max="69" width="4.33203125" customWidth="1"/>
+    <col min="43" max="49" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.5546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.88671875" style="2" customWidth="1"/>
+    <col min="55" max="55" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="4.88671875" style="2" customWidth="1"/>
+    <col min="58" max="60" width="1.88671875" style="2" customWidth="1"/>
+    <col min="61" max="61" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.44140625" customWidth="1"/>
+    <col min="67" max="67" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+    <row r="1" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="165" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="160" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="163" t="s">
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="161"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="162"/>
+      <c r="W2" s="158" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="173" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="174"/>
-      <c r="AL2" s="174"/>
-      <c r="AM2" s="174"/>
-      <c r="AN2" s="174"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="176" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="177"/>
-      <c r="AS2" s="177"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="177"/>
-      <c r="AV2" s="178"/>
-      <c r="AW2" s="179" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AX2" s="176"/>
-      <c r="AY2" s="176"/>
-      <c r="AZ2" s="176"/>
-      <c r="BA2" s="176"/>
-      <c r="BB2" s="176"/>
-      <c r="BC2" s="176"/>
-      <c r="BD2" s="176"/>
-      <c r="BE2" s="180"/>
-      <c r="BF2" s="181" t="s">
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="168" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="169"/>
+      <c r="AK2" s="169"/>
+      <c r="AL2" s="169"/>
+      <c r="AM2" s="169"/>
+      <c r="AN2" s="169"/>
+      <c r="AO2" s="169"/>
+      <c r="AP2" s="170"/>
+      <c r="AQ2" s="171" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AR2" s="172"/>
+      <c r="AS2" s="172"/>
+      <c r="AT2" s="172"/>
+      <c r="AU2" s="172"/>
+      <c r="AV2" s="173"/>
+      <c r="AW2" s="176" t="s">
         <v>18</v>
       </c>
+      <c r="AX2" s="177"/>
+      <c r="AY2" s="177"/>
+      <c r="AZ2" s="177"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="181" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BC2" s="182"/>
+      <c r="BD2" s="182"/>
+      <c r="BE2" s="182"/>
+      <c r="BF2" s="182"/>
       <c r="BG2" s="182"/>
-      <c r="BH2" s="182"/>
-      <c r="BI2" s="182"/>
-      <c r="BJ2" s="183"/>
-      <c r="BK2" s="162" t="s">
+      <c r="BH2" s="183"/>
+      <c r="BI2" s="157" t="s">
         <v>1047</v>
       </c>
-      <c r="BL2" s="163"/>
-      <c r="BM2" s="163"/>
-      <c r="BN2" s="163"/>
-      <c r="BO2" s="164"/>
-    </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BJ2" s="158"/>
+      <c r="BK2" s="158"/>
+      <c r="BL2" s="158"/>
+      <c r="BM2" s="159"/>
+    </row>
+    <row r="3" spans="1:65" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="119" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="80" t="s">
@@ -5310,52 +5623,52 @@
       <c r="F3" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="142" t="s">
+      <c r="G3" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="140" t="s">
+      <c r="H3" s="137" t="s">
         <v>1090</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="121" t="s">
         <v>1091</v>
       </c>
-      <c r="J3" s="124" t="s">
+      <c r="J3" s="121" t="s">
         <v>1092</v>
       </c>
-      <c r="K3" s="124" t="s">
+      <c r="K3" s="121" t="s">
         <v>1093</v>
       </c>
-      <c r="L3" s="124" t="s">
+      <c r="L3" s="121" t="s">
         <v>1094</v>
       </c>
-      <c r="M3" s="124" t="s">
+      <c r="M3" s="121" t="s">
         <v>1097</v>
       </c>
-      <c r="N3" s="124" t="s">
+      <c r="N3" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="124" t="s">
+      <c r="O3" s="121" t="s">
         <v>1098</v>
       </c>
-      <c r="P3" s="124" t="s">
+      <c r="P3" s="121" t="s">
         <v>1063</v>
       </c>
-      <c r="Q3" s="124" t="s">
+      <c r="Q3" s="121" t="s">
         <v>1099</v>
       </c>
-      <c r="R3" s="124" t="s">
+      <c r="R3" s="121" t="s">
         <v>1100</v>
       </c>
-      <c r="S3" s="124" t="s">
+      <c r="S3" s="121" t="s">
         <v>1101</v>
       </c>
-      <c r="T3" s="125" t="s">
+      <c r="T3" s="122" t="s">
         <v>1095</v>
       </c>
-      <c r="U3" s="125" t="s">
+      <c r="U3" s="122" t="s">
         <v>1103</v>
       </c>
-      <c r="V3" s="126" t="s">
+      <c r="V3" s="123" t="s">
         <v>1096</v>
       </c>
       <c r="W3" s="66" t="s">
@@ -5383,9 +5696,9 @@
         <v>1056</v>
       </c>
       <c r="AE3" s="82" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AF3" s="161" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AF3" s="156" t="s">
         <v>5</v>
       </c>
       <c r="AG3" s="83" t="s">
@@ -5415,10 +5728,10 @@
       <c r="AO3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AP3" s="145" t="s">
+      <c r="AP3" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="144" t="s">
+      <c r="AQ3" s="141" t="s">
         <v>44</v>
       </c>
       <c r="AR3" s="72" t="s">
@@ -5436,60 +5749,58 @@
       <c r="AV3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="154" t="s">
+      <c r="AW3" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY3" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ3" s="151" t="s">
+        <v>1126</v>
+      </c>
+      <c r="BA3" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB3" s="184" t="s">
+        <v>1121</v>
+      </c>
+      <c r="BC3" s="185" t="s">
         <v>1122</v>
       </c>
-      <c r="AX3" s="155" t="s">
+      <c r="BD3" s="185" t="s">
         <v>1123</v>
       </c>
-      <c r="AY3" s="155" t="s">
+      <c r="BE3" s="185" t="s">
         <v>1124</v>
       </c>
-      <c r="AZ3" s="155" t="s">
-        <v>1125</v>
-      </c>
-      <c r="BA3" s="155"/>
-      <c r="BB3" s="155"/>
-      <c r="BC3" s="155"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="75" t="s">
-        <v>31</v>
-      </c>
-      <c r="BG3" s="77" t="s">
-        <v>26</v>
-      </c>
-      <c r="BH3" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI3" s="156" t="s">
-        <v>1127</v>
-      </c>
-      <c r="BJ3" s="76" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK3" s="66" t="s">
+      <c r="BF3" s="185"/>
+      <c r="BG3" s="185"/>
+      <c r="BH3" s="186"/>
+      <c r="BI3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BL3" s="69" t="s">
+      <c r="BJ3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BM3" s="70" t="s">
+      <c r="BK3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BN3" s="70" t="s">
+      <c r="BL3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BO3" s="68" t="s">
+      <c r="BM3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="147" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5501,13 +5812,13 @@
       <c r="F4" s="55">
         <v>175</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="143" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="141">
+      <c r="H4" s="138">
         <v>20</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="117">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J4" s="29">
@@ -5540,7 +5851,7 @@
       <c r="S4" s="25">
         <v>0</v>
       </c>
-      <c r="T4" s="120">
+      <c r="T4" s="117">
         <v>0.02</v>
       </c>
       <c r="U4" s="29">
@@ -5625,51 +5936,57 @@
       <c r="AV4" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="AW4" s="98"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="35"/>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="33"/>
-      <c r="BF4" s="36" t="s">
+      <c r="AW4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="BG4" s="46">
+      <c r="AX4" s="46">
         <v>15</v>
       </c>
-      <c r="BH4" s="37">
+      <c r="AY4" s="37">
         <v>0.2</v>
       </c>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="38" t="s">
+      <c r="AZ4" s="152"/>
+      <c r="BA4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BK4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="55">
+      <c r="BB4" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="33"/>
+      <c r="BI4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="55">
         <v>3</v>
       </c>
-      <c r="BM4" s="62">
+      <c r="BK4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BN4" s="62" t="s">
+      <c r="BL4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BO4" s="38" t="s">
+      <c r="BM4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="147" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -5681,13 +5998,13 @@
       <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="147" t="s">
-        <v>1130</v>
+      <c r="G5" s="144" t="s">
+        <v>1129</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
       </c>
-      <c r="I5" s="121">
+      <c r="I5" s="118">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J5" s="25">
@@ -5720,10 +6037,10 @@
       <c r="S5" s="25">
         <v>0</v>
       </c>
-      <c r="T5" s="127">
+      <c r="T5" s="124">
         <v>0.04</v>
       </c>
-      <c r="U5" s="123">
+      <c r="U5" s="120">
         <v>5</v>
       </c>
       <c r="V5" s="38">
@@ -5805,51 +6122,57 @@
       <c r="AV5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW5" s="99"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="42"/>
-      <c r="BF5" s="43" t="s">
+      <c r="AW5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG5" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="158"/>
-      <c r="BJ5" s="42" t="s">
+      <c r="AX5" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="153"/>
+      <c r="BA5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="56">
+      <c r="BB5" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="41"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="56">
         <v>1</v>
       </c>
-      <c r="BM5" s="63">
+      <c r="BK5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BN5" s="63" t="s">
+      <c r="BL5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BO5" s="42" t="s">
+      <c r="BM5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="147" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -5861,13 +6184,13 @@
       <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="144" t="s">
         <v>491</v>
       </c>
       <c r="H6" s="40">
         <v>20</v>
       </c>
-      <c r="I6" s="121">
+      <c r="I6" s="118">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J6" s="25">
@@ -5900,10 +6223,10 @@
       <c r="S6" s="25">
         <v>0</v>
       </c>
-      <c r="T6" s="127">
+      <c r="T6" s="124">
         <v>0.02</v>
       </c>
-      <c r="U6" s="123">
+      <c r="U6" s="120">
         <v>10</v>
       </c>
       <c r="V6" s="38">
@@ -5985,51 +6308,57 @@
       <c r="AV6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="99"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="42"/>
-      <c r="BF6" s="43" t="s">
+      <c r="AW6" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG6" s="47" t="s">
+      <c r="AX6" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BH6" s="44">
+      <c r="AY6" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI6" s="158"/>
-      <c r="BJ6" s="42" t="s">
+      <c r="AZ6" s="153"/>
+      <c r="BA6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="56">
+      <c r="BB6" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF6" s="41"/>
+      <c r="BG6" s="41"/>
+      <c r="BH6" s="42"/>
+      <c r="BI6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="56">
         <v>3</v>
       </c>
-      <c r="BM6" s="63">
+      <c r="BK6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BN6" s="63" t="s">
+      <c r="BL6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO6" s="42" t="s">
+      <c r="BM6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="147" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -6041,13 +6370,13 @@
       <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="144" t="s">
         <v>492</v>
       </c>
       <c r="H7" s="40">
         <v>70</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="118">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J7" s="25">
@@ -6080,10 +6409,10 @@
       <c r="S7" s="25">
         <v>0</v>
       </c>
-      <c r="T7" s="127">
+      <c r="T7" s="124">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U7" s="123">
+      <c r="U7" s="120">
         <v>10</v>
       </c>
       <c r="V7" s="38">
@@ -6165,51 +6494,57 @@
       <c r="AV7" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="42"/>
-      <c r="BF7" s="43" t="s">
+      <c r="AW7" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG7" s="47" t="s">
+      <c r="AX7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BH7" s="44">
+      <c r="AY7" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI7" s="158"/>
-      <c r="BJ7" s="42" t="s">
+      <c r="AZ7" s="153"/>
+      <c r="BA7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="56">
+      <c r="BB7" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF7" s="41"/>
+      <c r="BG7" s="41"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="56">
         <v>5</v>
       </c>
-      <c r="BM7" s="63">
+      <c r="BK7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BN7" s="63" t="s">
+      <c r="BL7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO7" s="42" t="s">
+      <c r="BM7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="147" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -6221,13 +6556,13 @@
       <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="147" t="s">
+      <c r="G8" s="144" t="s">
         <v>1106</v>
       </c>
       <c r="H8" s="40">
         <v>30</v>
       </c>
-      <c r="I8" s="121">
+      <c r="I8" s="118">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J8" s="25">
@@ -6260,10 +6595,10 @@
       <c r="S8" s="25">
         <v>0</v>
       </c>
-      <c r="T8" s="127">
+      <c r="T8" s="124">
         <v>0.04</v>
       </c>
-      <c r="U8" s="123">
+      <c r="U8" s="120">
         <v>5</v>
       </c>
       <c r="V8" s="38">
@@ -6345,51 +6680,57 @@
       <c r="AV8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="99"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="43" t="s">
+      <c r="AW8" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG8" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="158"/>
-      <c r="BJ8" s="42" t="s">
+      <c r="AX8" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="153"/>
+      <c r="BA8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="56">
+      <c r="BB8" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF8" s="41"/>
+      <c r="BG8" s="41"/>
+      <c r="BH8" s="42"/>
+      <c r="BI8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="56">
         <v>3</v>
       </c>
-      <c r="BM8" s="63">
+      <c r="BK8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BN8" s="63" t="s">
+      <c r="BL8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO8" s="42" t="s">
+      <c r="BM8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="148" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6402,13 +6743,13 @@
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="147" t="s">
+      <c r="G9" s="144" t="s">
         <v>1106</v>
       </c>
       <c r="H9" s="40">
         <v>35</v>
       </c>
-      <c r="I9" s="121">
+      <c r="I9" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J9" s="25">
@@ -6441,10 +6782,10 @@
       <c r="S9" s="25">
         <v>0</v>
       </c>
-      <c r="T9" s="127">
+      <c r="T9" s="124">
         <v>0.05</v>
       </c>
-      <c r="U9" s="123">
+      <c r="U9" s="120">
         <v>5</v>
       </c>
       <c r="V9" s="38">
@@ -6526,51 +6867,57 @@
       <c r="AV9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW9" s="99"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="42"/>
-      <c r="BF9" s="43" t="s">
+      <c r="AW9" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG9" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="158"/>
-      <c r="BJ9" s="42" t="s">
+      <c r="AX9" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="153"/>
+      <c r="BA9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="56">
+      <c r="BB9" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF9" s="41"/>
+      <c r="BG9" s="41"/>
+      <c r="BH9" s="42"/>
+      <c r="BI9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="56">
         <v>5</v>
       </c>
-      <c r="BM9" s="63">
+      <c r="BK9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BN9" s="63" t="s">
+      <c r="BL9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO9" s="42" t="s">
+      <c r="BM9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="148" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -6583,13 +6930,13 @@
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="144" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="40">
         <v>70</v>
       </c>
-      <c r="I10" s="121">
+      <c r="I10" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="25">
@@ -6622,7 +6969,7 @@
       <c r="S10" s="25">
         <v>0</v>
       </c>
-      <c r="T10" s="121">
+      <c r="T10" s="118">
         <v>0.05</v>
       </c>
       <c r="U10" s="25">
@@ -6707,51 +7054,57 @@
       <c r="AV10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW10" s="99"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="43" t="s">
+      <c r="AW10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG10" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="44">
+      <c r="AX10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI10" s="158"/>
-      <c r="BJ10" s="42" t="s">
+      <c r="AZ10" s="153"/>
+      <c r="BA10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="56">
+      <c r="BB10" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF10" s="41"/>
+      <c r="BG10" s="41"/>
+      <c r="BH10" s="42"/>
+      <c r="BI10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="56">
         <v>3</v>
       </c>
-      <c r="BM10" s="63">
+      <c r="BK10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BN10" s="63" t="s">
+      <c r="BL10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO10" s="42" t="s">
+      <c r="BM10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="148" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -6764,13 +7117,13 @@
       <c r="F11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="146" t="s">
+      <c r="G11" s="143" t="s">
         <v>497</v>
       </c>
       <c r="H11" s="40">
         <v>20</v>
       </c>
-      <c r="I11" s="121">
+      <c r="I11" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J11" s="25">
@@ -6803,7 +7156,7 @@
       <c r="S11" s="25">
         <v>0</v>
       </c>
-      <c r="T11" s="121">
+      <c r="T11" s="118">
         <v>0.05</v>
       </c>
       <c r="U11" s="25">
@@ -6888,51 +7241,57 @@
       <c r="AV11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW11" s="99"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="42"/>
-      <c r="BF11" s="43" t="s">
+      <c r="AW11" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG11" s="47">
+      <c r="AX11" s="47">
         <v>15</v>
       </c>
-      <c r="BH11" s="44">
+      <c r="AY11" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI11" s="158"/>
-      <c r="BJ11" s="42" t="s">
+      <c r="AZ11" s="153"/>
+      <c r="BA11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="56">
+      <c r="BB11" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="42"/>
+      <c r="BI11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="56">
         <v>2</v>
       </c>
-      <c r="BM11" s="63">
+      <c r="BK11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BN11" s="63" t="s">
+      <c r="BL11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO11" s="42" t="s">
+      <c r="BM11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="151" t="s">
+      <c r="C12" s="148" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -6944,13 +7303,13 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="144" t="s">
         <v>493</v>
       </c>
       <c r="H12" s="40">
         <v>40</v>
       </c>
-      <c r="I12" s="121">
+      <c r="I12" s="118">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J12" s="25">
@@ -6983,7 +7342,7 @@
       <c r="S12" s="25">
         <v>0</v>
       </c>
-      <c r="T12" s="121">
+      <c r="T12" s="118">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="U12" s="25">
@@ -7068,51 +7427,57 @@
       <c r="AV12" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AW12" s="99"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="43" t="s">
+      <c r="AW12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="BG12" s="47" t="s">
+      <c r="AX12" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BH12" s="44">
+      <c r="AY12" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI12" s="158"/>
-      <c r="BJ12" s="42" t="s">
+      <c r="AZ12" s="153"/>
+      <c r="BA12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="56">
+      <c r="BB12" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="56">
         <v>5</v>
       </c>
-      <c r="BM12" s="63">
+      <c r="BK12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BN12" s="63" t="s">
+      <c r="BL12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO12" s="42" t="s">
+      <c r="BM12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="148" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -7124,13 +7489,13 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="144" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="40">
         <v>25</v>
       </c>
-      <c r="I13" s="121">
+      <c r="I13" s="118">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J13" s="25">
@@ -7163,7 +7528,7 @@
       <c r="S13" s="25">
         <v>0</v>
       </c>
-      <c r="T13" s="121">
+      <c r="T13" s="118">
         <v>0.1</v>
       </c>
       <c r="U13" s="25">
@@ -7248,51 +7613,57 @@
       <c r="AV13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AW13" s="99"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="43" t="s">
+      <c r="AW13" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG13" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="44">
-        <v>0</v>
-      </c>
-      <c r="BI13" s="158"/>
-      <c r="BJ13" s="42" t="s">
+      <c r="AX13" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="44">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="153"/>
+      <c r="BA13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="63">
+      <c r="BB13" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="42"/>
+      <c r="BI13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BN13" s="63" t="s">
+      <c r="BL13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO13" s="42" t="s">
+      <c r="BM13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="151" t="s">
+      <c r="C14" s="148" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -7304,13 +7675,13 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="147" t="s">
+      <c r="G14" s="144" t="s">
         <v>500</v>
       </c>
       <c r="H14" s="40">
         <v>20</v>
       </c>
-      <c r="I14" s="121">
+      <c r="I14" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J14" s="25">
@@ -7343,7 +7714,7 @@
       <c r="S14" s="25">
         <v>0</v>
       </c>
-      <c r="T14" s="121">
+      <c r="T14" s="118">
         <v>0.05</v>
       </c>
       <c r="U14" s="25">
@@ -7356,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="25">
         <v>1</v>
@@ -7428,51 +7799,57 @@
       <c r="AV14" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW14" s="99"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="42"/>
-      <c r="BF14" s="43" t="s">
+      <c r="AW14" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG14" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="44">
+      <c r="AX14" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI14" s="158"/>
-      <c r="BJ14" s="42" t="s">
+      <c r="AZ14" s="153"/>
+      <c r="BA14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK14" s="60">
+      <c r="BB14" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF14" s="41"/>
+      <c r="BG14" s="41"/>
+      <c r="BH14" s="42"/>
+      <c r="BI14" s="60">
         <v>2</v>
       </c>
-      <c r="BL14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="63">
+      <c r="BJ14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BN14" s="63" t="s">
+      <c r="BL14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO14" s="42" t="s">
+      <c r="BM14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="151" t="s">
+      <c r="C15" s="148" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -7484,13 +7861,13 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="144" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="40">
         <v>20</v>
       </c>
-      <c r="I15" s="121">
+      <c r="I15" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J15" s="25">
@@ -7523,7 +7900,7 @@
       <c r="S15" s="25">
         <v>0</v>
       </c>
-      <c r="T15" s="121">
+      <c r="T15" s="118">
         <v>0.05</v>
       </c>
       <c r="U15" s="25">
@@ -7536,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="X15" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y15" s="25">
         <v>1</v>
@@ -7608,51 +7985,57 @@
       <c r="AV15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW15" s="99"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="43" t="s">
+      <c r="AW15" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG15" s="47" t="s">
+      <c r="AX15" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BH15" s="44">
+      <c r="AY15" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI15" s="158"/>
-      <c r="BJ15" s="42" t="s">
+      <c r="AZ15" s="153"/>
+      <c r="BA15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK15" s="60">
+      <c r="BB15" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="42"/>
+      <c r="BI15" s="60">
         <v>2</v>
       </c>
-      <c r="BL15" s="56">
+      <c r="BJ15" s="56">
         <v>4</v>
       </c>
-      <c r="BM15" s="63">
+      <c r="BK15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BN15" s="63" t="s">
+      <c r="BL15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO15" s="42" t="s">
+      <c r="BM15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="151" t="s">
+      <c r="C16" s="148" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -7664,13 +8047,13 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="144" t="s">
         <v>495</v>
       </c>
       <c r="H16" s="40">
         <v>40</v>
       </c>
-      <c r="I16" s="121">
+      <c r="I16" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J16" s="25">
@@ -7703,7 +8086,7 @@
       <c r="S16" s="25">
         <v>0</v>
       </c>
-      <c r="T16" s="121">
+      <c r="T16" s="118">
         <v>0.05</v>
       </c>
       <c r="U16" s="25">
@@ -7716,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="X16" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="25">
         <v>1</v>
@@ -7788,120 +8171,124 @@
       <c r="AV16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW16" s="99"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="43" t="s">
+      <c r="AW16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG16" s="47">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="44">
+      <c r="AX16" s="47">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI16" s="158"/>
-      <c r="BJ16" s="42" t="s">
+      <c r="AZ16" s="153"/>
+      <c r="BA16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK16" s="60">
+      <c r="BB16" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="42"/>
+      <c r="BI16" s="60">
         <v>2</v>
       </c>
-      <c r="BL16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="63">
+      <c r="BJ16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BN16" s="63" t="s">
+      <c r="BL16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO16" s="42" t="s">
+      <c r="BM16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="130"/>
-      <c r="L17" s="130"/>
-      <c r="M17" s="130"/>
-      <c r="N17" s="130"/>
-      <c r="O17" s="130"/>
-      <c r="P17" s="130"/>
-      <c r="Q17" s="130"/>
-      <c r="R17" s="130"/>
-      <c r="S17" s="130"/>
-      <c r="T17" s="129"/>
-      <c r="U17" s="130"/>
-      <c r="V17" s="133"/>
-      <c r="W17" s="131"/>
-      <c r="X17" s="130"/>
-      <c r="Y17" s="130"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="132"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="128"/>
-      <c r="AF17" s="131"/>
-      <c r="AG17" s="130"/>
-      <c r="AH17" s="130"/>
-      <c r="AI17" s="130"/>
-      <c r="AJ17" s="130"/>
-      <c r="AK17" s="130"/>
-      <c r="AL17" s="130"/>
-      <c r="AM17" s="130"/>
-      <c r="AN17" s="130"/>
-      <c r="AO17" s="130"/>
-      <c r="AP17" s="133"/>
-      <c r="AQ17" s="131"/>
-      <c r="AR17" s="130"/>
-      <c r="AS17" s="132"/>
-      <c r="AT17" s="132"/>
-      <c r="AU17" s="132"/>
-      <c r="AV17" s="133"/>
-      <c r="AW17" s="134"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="127"/>
+      <c r="O17" s="127"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="127"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="126"/>
+      <c r="U17" s="127"/>
+      <c r="V17" s="130"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="127"/>
+      <c r="Y17" s="127"/>
+      <c r="Z17" s="127"/>
+      <c r="AA17" s="127"/>
+      <c r="AB17" s="127"/>
+      <c r="AC17" s="129"/>
+      <c r="AD17" s="129"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="127"/>
+      <c r="AH17" s="127"/>
+      <c r="AI17" s="127"/>
+      <c r="AJ17" s="127"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="127"/>
+      <c r="AN17" s="127"/>
+      <c r="AO17" s="127"/>
+      <c r="AP17" s="130"/>
+      <c r="AQ17" s="128"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="129"/>
+      <c r="AT17" s="129"/>
+      <c r="AU17" s="129"/>
+      <c r="AV17" s="130"/>
+      <c r="AW17" s="128"/>
       <c r="AX17" s="132"/>
-      <c r="AY17" s="132"/>
-      <c r="AZ17" s="132"/>
-      <c r="BA17" s="132"/>
-      <c r="BB17" s="132"/>
-      <c r="BC17" s="132"/>
-      <c r="BD17" s="132"/>
-      <c r="BE17" s="133"/>
-      <c r="BF17" s="131"/>
-      <c r="BG17" s="135"/>
-      <c r="BH17" s="136"/>
-      <c r="BI17" s="159"/>
-      <c r="BJ17" s="133"/>
-      <c r="BK17" s="137"/>
-      <c r="BL17" s="138"/>
-      <c r="BM17" s="139"/>
-      <c r="BN17" s="139"/>
-      <c r="BO17" s="133"/>
-    </row>
-    <row r="18" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AY17" s="133"/>
+      <c r="AZ17" s="154"/>
+      <c r="BA17" s="130"/>
+      <c r="BB17" s="131"/>
+      <c r="BC17" s="129"/>
+      <c r="BD17" s="129"/>
+      <c r="BE17" s="129"/>
+      <c r="BF17" s="129"/>
+      <c r="BG17" s="129"/>
+      <c r="BH17" s="130"/>
+      <c r="BI17" s="134"/>
+      <c r="BJ17" s="135"/>
+      <c r="BK17" s="136"/>
+      <c r="BL17" s="136"/>
+      <c r="BM17" s="130"/>
+    </row>
+    <row r="18" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="151" t="s">
+      <c r="C18" s="148" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -7913,13 +8300,13 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="147" t="s">
+      <c r="G18" s="144" t="s">
         <v>1107</v>
       </c>
       <c r="H18" s="40">
         <v>20</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="118">
         <v>1E-3</v>
       </c>
       <c r="J18" s="25">
@@ -7952,7 +8339,7 @@
       <c r="S18" s="25">
         <v>0</v>
       </c>
-      <c r="T18" s="121">
+      <c r="T18" s="118">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U18" s="25">
@@ -8037,51 +8424,57 @@
       <c r="AV18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW18" s="99"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="43" t="s">
+      <c r="AW18" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG18" s="53" t="s">
+      <c r="AX18" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="BH18" s="44">
+      <c r="AY18" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI18" s="158"/>
-      <c r="BJ18" s="42" t="s">
+      <c r="AZ18" s="153"/>
+      <c r="BA18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="63">
+      <c r="BB18" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF18" s="41"/>
+      <c r="BG18" s="41"/>
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BN18" s="63" t="s">
+      <c r="BL18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO18" s="42" t="s">
+      <c r="BM18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="151" t="s">
+      <c r="C19" s="148" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -8093,13 +8486,13 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="147" t="s">
+      <c r="G19" s="144" t="s">
         <v>1108</v>
       </c>
       <c r="H19" s="40">
         <v>20</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="118">
         <v>1E-3</v>
       </c>
       <c r="J19" s="25">
@@ -8132,7 +8525,7 @@
       <c r="S19" s="25">
         <v>0</v>
       </c>
-      <c r="T19" s="121">
+      <c r="T19" s="118">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U19" s="25">
@@ -8217,51 +8610,57 @@
       <c r="AV19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="43" t="s">
+      <c r="AW19" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG19" s="47" t="s">
+      <c r="AX19" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="BH19" s="44">
+      <c r="AY19" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI19" s="158"/>
-      <c r="BJ19" s="42" t="s">
+      <c r="AZ19" s="153"/>
+      <c r="BA19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="63">
+      <c r="BB19" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF19" s="41"/>
+      <c r="BG19" s="41"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BN19" s="63" t="s">
+      <c r="BL19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO19" s="42" t="s">
+      <c r="BM19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="151" t="s">
+      <c r="C20" s="148" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -8273,13 +8672,13 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="147" t="s">
+      <c r="G20" s="144" t="s">
         <v>1109</v>
       </c>
       <c r="H20" s="40">
         <v>70</v>
       </c>
-      <c r="I20" s="121">
+      <c r="I20" s="118">
         <v>1E-3</v>
       </c>
       <c r="J20" s="25">
@@ -8312,7 +8711,7 @@
       <c r="S20" s="25">
         <v>0</v>
       </c>
-      <c r="T20" s="121">
+      <c r="T20" s="118">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="U20" s="25">
@@ -8397,51 +8796,57 @@
       <c r="AV20" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AW20" s="99"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="43" t="s">
+      <c r="AW20" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="BG20" s="53" t="s">
+      <c r="AX20" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="BH20" s="44">
+      <c r="AY20" s="44">
         <v>0.2</v>
       </c>
-      <c r="BI20" s="158"/>
-      <c r="BJ20" s="42" t="s">
+      <c r="AZ20" s="153"/>
+      <c r="BA20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="63">
+      <c r="BB20" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF20" s="41"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="42"/>
+      <c r="BI20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BN20" s="63" t="s">
+      <c r="BL20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO20" s="42" t="s">
+      <c r="BM20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="151" t="s">
+      <c r="C21" s="148" t="s">
         <v>1089</v>
       </c>
       <c r="D21" s="25">
@@ -8453,13 +8858,13 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="147" t="s">
+      <c r="G21" s="144" t="s">
         <v>1111</v>
       </c>
       <c r="H21" s="40">
         <v>60</v>
       </c>
-      <c r="I21" s="121">
+      <c r="I21" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J21" s="25">
@@ -8492,7 +8897,7 @@
       <c r="S21" s="25">
         <v>0</v>
       </c>
-      <c r="T21" s="121">
+      <c r="T21" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U21" s="25">
@@ -8577,38 +8982,44 @@
       <c r="AV21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AW21" s="99"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
-      <c r="BA21" s="41"/>
-      <c r="BB21" s="41"/>
-      <c r="BC21" s="41"/>
-      <c r="BD21" s="41"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="43"/>
-      <c r="BG21" s="53"/>
-      <c r="BH21" s="44"/>
-      <c r="BI21" s="158">
+      <c r="AW21" s="43"/>
+      <c r="AX21" s="53"/>
+      <c r="AY21" s="44"/>
+      <c r="AZ21" s="153">
         <v>12</v>
       </c>
-      <c r="BJ21" s="42" t="s">
+      <c r="BA21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK21" s="60"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="63" t="s">
+      <c r="BB21" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF21" s="41"/>
+      <c r="BG21" s="41"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="63"/>
+      <c r="BL21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO21" s="42"/>
-    </row>
-    <row r="22" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BM21" s="42"/>
+    </row>
+    <row r="22" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="151" t="s">
+      <c r="C22" s="148" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -8620,13 +9031,13 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="147" t="s">
+      <c r="G22" s="144" t="s">
         <v>1112</v>
       </c>
       <c r="H22" s="40">
         <v>60</v>
       </c>
-      <c r="I22" s="121">
+      <c r="I22" s="118">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J22" s="25">
@@ -8659,7 +9070,7 @@
       <c r="S22" s="25">
         <v>0</v>
       </c>
-      <c r="T22" s="121">
+      <c r="T22" s="118">
         <v>0.05</v>
       </c>
       <c r="U22" s="25">
@@ -8676,12 +9087,18 @@
         <v>5</v>
       </c>
       <c r="Z22" s="25"/>
-      <c r="AA22" s="25"/>
+      <c r="AA22" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB22" s="25">
         <v>0</v>
       </c>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
+      <c r="AC22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE22" s="40"/>
       <c r="AF22" s="43" t="s">
         <v>28</v>
@@ -8722,46 +9139,44 @@
       <c r="AT22" s="41"/>
       <c r="AU22" s="41"/>
       <c r="AV22" s="42"/>
-      <c r="AW22" s="99">
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="153">
+        <v>12</v>
+      </c>
+      <c r="BA22" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB22" s="99">
         <v>20</v>
       </c>
-      <c r="AX22" s="41">
+      <c r="BC22" s="41">
         <v>2</v>
       </c>
-      <c r="AY22" s="41">
+      <c r="BD22" s="41">
         <v>6</v>
       </c>
-      <c r="AZ22" s="41">
+      <c r="BE22" s="41">
         <v>10</v>
       </c>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="43"/>
-      <c r="BG22" s="53"/>
-      <c r="BH22" s="44"/>
-      <c r="BI22" s="158">
-        <v>12</v>
-      </c>
-      <c r="BJ22" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK22" s="60"/>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="63" t="s">
+      <c r="BF22" s="41"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="42"/>
+      <c r="BI22" s="60"/>
+      <c r="BJ22" s="61"/>
+      <c r="BK22" s="63"/>
+      <c r="BL22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO22" s="42"/>
-    </row>
-    <row r="23" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BM22" s="42"/>
+    </row>
+    <row r="23" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="148" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -8773,13 +9188,13 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="147" t="s">
-        <v>1117</v>
+      <c r="G23" s="144" t="s">
+        <v>1116</v>
       </c>
       <c r="H23" s="40">
         <v>60</v>
       </c>
-      <c r="I23" s="121">
+      <c r="I23" s="118">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="J23" s="25">
@@ -8812,7 +9227,7 @@
       <c r="S23" s="25">
         <v>0</v>
       </c>
-      <c r="T23" s="121">
+      <c r="T23" s="118">
         <v>0.04</v>
       </c>
       <c r="U23" s="25">
@@ -8829,12 +9244,18 @@
         <v>5</v>
       </c>
       <c r="Z23" s="25"/>
-      <c r="AA23" s="25"/>
+      <c r="AA23" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB23" s="25">
         <v>0</v>
       </c>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
+      <c r="AC23" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD23" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE23" s="40"/>
       <c r="AF23" s="43" t="s">
         <v>28</v>
@@ -8875,42 +9296,44 @@
       <c r="AT23" s="41"/>
       <c r="AU23" s="41"/>
       <c r="AV23" s="42"/>
-      <c r="AW23" s="99">
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="53"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="153">
+        <v>8</v>
+      </c>
+      <c r="BA23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB23" s="99">
         <v>45</v>
       </c>
-      <c r="AX23" s="41" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="43"/>
-      <c r="BG23" s="53"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="158">
-        <v>8</v>
-      </c>
-      <c r="BJ23" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="BK23" s="60"/>
-      <c r="BL23" s="61"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="63" t="s">
+      <c r="BC23" s="41" t="s">
+        <v>1125</v>
+      </c>
+      <c r="BD23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE23" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="42"/>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO23" s="42"/>
-    </row>
-    <row r="24" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BM23" s="42"/>
+    </row>
+    <row r="24" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="151" t="s">
+      <c r="C24" s="148" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -8922,13 +9345,13 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="147" t="s">
+      <c r="G24" s="144" t="s">
         <v>1113</v>
       </c>
       <c r="H24" s="40">
         <v>60</v>
       </c>
-      <c r="I24" s="121">
+      <c r="I24" s="118">
         <v>0.01</v>
       </c>
       <c r="J24" s="25">
@@ -8961,7 +9384,7 @@
       <c r="S24" s="25">
         <v>0</v>
       </c>
-      <c r="T24" s="121">
+      <c r="T24" s="118">
         <v>0.05</v>
       </c>
       <c r="U24" s="25">
@@ -8978,12 +9401,18 @@
         <v>5</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="25"/>
+      <c r="AA24" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB24" s="25">
         <v>0</v>
       </c>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
+      <c r="AC24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD24" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE24" s="40"/>
       <c r="AF24" s="43" t="s">
         <v>28</v>
@@ -9024,46 +9453,44 @@
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
       <c r="AV24" s="42"/>
-      <c r="AW24" s="99">
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="44"/>
+      <c r="AZ24" s="153">
+        <v>12</v>
+      </c>
+      <c r="BA24" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB24" s="99">
         <v>50</v>
       </c>
-      <c r="AX24" s="41">
+      <c r="BC24" s="41">
         <v>2</v>
       </c>
-      <c r="AY24" s="41">
+      <c r="BD24" s="41">
         <v>8</v>
       </c>
-      <c r="AZ24" s="41">
+      <c r="BE24" s="41">
         <v>10</v>
       </c>
-      <c r="BA24" s="41"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="42"/>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="44"/>
-      <c r="BI24" s="158">
-        <v>12</v>
-      </c>
-      <c r="BJ24" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK24" s="60"/>
-      <c r="BL24" s="61"/>
-      <c r="BM24" s="63"/>
-      <c r="BN24" s="63" t="s">
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="42"/>
+      <c r="BI24" s="60"/>
+      <c r="BJ24" s="61"/>
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO24" s="42"/>
-    </row>
-    <row r="25" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BM24" s="42"/>
+    </row>
+    <row r="25" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C25" s="151" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C25" s="148" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -9075,13 +9502,13 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="147" t="s">
+      <c r="G25" s="144" t="s">
         <v>1114</v>
       </c>
       <c r="H25" s="40">
         <v>60</v>
       </c>
-      <c r="I25" s="121">
+      <c r="I25" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J25" s="25">
@@ -9114,7 +9541,7 @@
       <c r="S25" s="25">
         <v>0</v>
       </c>
-      <c r="T25" s="121">
+      <c r="T25" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U25" s="25">
@@ -9131,12 +9558,18 @@
         <v>5</v>
       </c>
       <c r="Z25" s="25"/>
-      <c r="AA25" s="25"/>
+      <c r="AA25" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB25" s="25">
         <v>0</v>
       </c>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
+      <c r="AC25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD25" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE25" s="40"/>
       <c r="AF25" s="43" t="s">
         <v>28</v>
@@ -9177,38 +9610,44 @@
       <c r="AT25" s="41"/>
       <c r="AU25" s="41"/>
       <c r="AV25" s="42"/>
-      <c r="AW25" s="99"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="42"/>
-      <c r="BF25" s="43"/>
-      <c r="BG25" s="53"/>
-      <c r="BH25" s="44"/>
-      <c r="BI25" s="158">
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="153">
         <v>12</v>
       </c>
-      <c r="BJ25" s="42" t="s">
+      <c r="BA25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK25" s="60"/>
-      <c r="BL25" s="61"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63" t="s">
+      <c r="BB25" s="99">
+        <v>150</v>
+      </c>
+      <c r="BC25" s="41">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="41">
+        <v>5</v>
+      </c>
+      <c r="BE25" s="41">
+        <v>12.4</v>
+      </c>
+      <c r="BF25" s="41"/>
+      <c r="BG25" s="41"/>
+      <c r="BH25" s="42"/>
+      <c r="BI25" s="60"/>
+      <c r="BJ25" s="61"/>
+      <c r="BK25" s="63"/>
+      <c r="BL25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO25" s="42"/>
-    </row>
-    <row r="26" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BM25" s="42"/>
+    </row>
+    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C26" s="151" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C26" s="148" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -9220,13 +9659,13 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="147" t="s">
+      <c r="G26" s="144" t="s">
         <v>1115</v>
       </c>
       <c r="H26" s="40">
         <v>60</v>
       </c>
-      <c r="I26" s="121">
+      <c r="I26" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J26" s="25">
@@ -9259,7 +9698,7 @@
       <c r="S26" s="25">
         <v>0</v>
       </c>
-      <c r="T26" s="121">
+      <c r="T26" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U26" s="25">
@@ -9276,12 +9715,18 @@
         <v>5</v>
       </c>
       <c r="Z26" s="25"/>
-      <c r="AA26" s="25"/>
+      <c r="AA26" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB26" s="25">
         <v>0</v>
       </c>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
+      <c r="AC26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD26" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE26" s="40"/>
       <c r="AF26" s="43" t="s">
         <v>28</v>
@@ -9322,38 +9767,44 @@
       <c r="AT26" s="41"/>
       <c r="AU26" s="41"/>
       <c r="AV26" s="42"/>
-      <c r="AW26" s="99"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="41"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="42"/>
-      <c r="BF26" s="43"/>
-      <c r="BG26" s="53"/>
-      <c r="BH26" s="44"/>
-      <c r="BI26" s="158">
+      <c r="AW26" s="43"/>
+      <c r="AX26" s="53"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="153">
         <v>12</v>
       </c>
-      <c r="BJ26" s="42" t="s">
+      <c r="BA26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BK26" s="60"/>
-      <c r="BL26" s="61"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63" t="s">
+      <c r="BB26" s="99">
+        <v>200</v>
+      </c>
+      <c r="BC26" s="41">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="41">
+        <v>6</v>
+      </c>
+      <c r="BE26" s="41">
+        <v>10</v>
+      </c>
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="42"/>
+      <c r="BI26" s="60"/>
+      <c r="BJ26" s="61"/>
+      <c r="BK26" s="63"/>
+      <c r="BL26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO26" s="42"/>
-    </row>
-    <row r="27" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BM26" s="42"/>
+    </row>
+    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C27" s="151" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C27" s="148" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -9365,13 +9816,13 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="147" t="s">
+      <c r="G27" s="144" t="s">
         <v>1115</v>
       </c>
       <c r="H27" s="40">
         <v>60</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J27" s="25">
@@ -9404,7 +9855,7 @@
       <c r="S27" s="25">
         <v>0</v>
       </c>
-      <c r="T27" s="121">
+      <c r="T27" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="U27" s="25">
@@ -9421,12 +9872,18 @@
         <v>5</v>
       </c>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="25"/>
+      <c r="AA27" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB27" s="25">
         <v>0</v>
       </c>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
+      <c r="AC27" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD27" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE27" s="40"/>
       <c r="AF27" s="43" t="s">
         <v>28</v>
@@ -9467,40 +9924,44 @@
       <c r="AT27" s="41"/>
       <c r="AU27" s="41"/>
       <c r="AV27" s="42"/>
-      <c r="AW27" s="99">
+      <c r="AW27" s="43"/>
+      <c r="AX27" s="53"/>
+      <c r="AY27" s="44"/>
+      <c r="AZ27" s="153">
+        <v>12</v>
+      </c>
+      <c r="BA27" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BB27" s="99">
         <v>320</v>
       </c>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="43"/>
-      <c r="BG27" s="53"/>
-      <c r="BH27" s="44"/>
-      <c r="BI27" s="158">
-        <v>12</v>
-      </c>
-      <c r="BJ27" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="BK27" s="60"/>
-      <c r="BL27" s="61"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63" t="s">
+      <c r="BC27" s="41">
+        <v>2</v>
+      </c>
+      <c r="BD27" s="41">
+        <v>6</v>
+      </c>
+      <c r="BE27" s="41">
+        <v>10</v>
+      </c>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="42"/>
+      <c r="BI27" s="60"/>
+      <c r="BJ27" s="61"/>
+      <c r="BK27" s="63"/>
+      <c r="BL27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO27" s="42"/>
-    </row>
-    <row r="28" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BM27" s="42"/>
+    </row>
+    <row r="28" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C28" s="151" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C28" s="148" t="s">
         <v>1105</v>
       </c>
       <c r="D28" s="25">
@@ -9512,13 +9973,13 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="147" t="s">
-        <v>1116</v>
+      <c r="G28" s="144" t="s">
+        <v>1132</v>
       </c>
       <c r="H28" s="40">
         <v>60</v>
       </c>
-      <c r="I28" s="121">
+      <c r="I28" s="118">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="J28" s="25">
@@ -9551,7 +10012,7 @@
       <c r="S28" s="25">
         <v>0</v>
       </c>
-      <c r="T28" s="121">
+      <c r="T28" s="118">
         <v>0.05</v>
       </c>
       <c r="U28" s="25">
@@ -9568,12 +10029,18 @@
         <v>5</v>
       </c>
       <c r="Z28" s="25"/>
-      <c r="AA28" s="25"/>
+      <c r="AA28" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="AB28" s="25">
         <v>0</v>
       </c>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
+      <c r="AC28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD28" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AE28" s="40"/>
       <c r="AF28" s="43" t="s">
         <v>28</v>
@@ -9614,39 +10081,45 @@
       <c r="AT28" s="41"/>
       <c r="AU28" s="41"/>
       <c r="AV28" s="42"/>
-      <c r="AW28" s="99"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="43"/>
-      <c r="BG28" s="53"/>
-      <c r="BH28" s="44"/>
-      <c r="BI28" s="158">
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="153">
         <v>8</v>
       </c>
-      <c r="BJ28" s="42" t="s">
+      <c r="BA28" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BK28" s="60"/>
-      <c r="BL28" s="61"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63" t="s">
+      <c r="BB28" s="99">
+        <v>200</v>
+      </c>
+      <c r="BC28" s="41">
+        <v>3</v>
+      </c>
+      <c r="BD28" s="41">
+        <v>1.2645999999999999</v>
+      </c>
+      <c r="BE28" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF28" s="41"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="61"/>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO28" s="42"/>
-    </row>
-    <row r="29" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BM28" s="42"/>
+    </row>
+    <row r="29" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="153"/>
+      <c r="C29" s="150"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="143"/>
+      <c r="G29" s="140"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -9669,9 +10142,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="4">
-        <v>0</v>
-      </c>
+      <c r="AB29" s="4"/>
       <c r="AC29" s="8"/>
       <c r="AD29" s="8"/>
       <c r="AE29" s="5"/>
@@ -9692,415 +10163,429 @@
       <c r="AT29" s="8"/>
       <c r="AU29" s="8"/>
       <c r="AV29" s="6"/>
-      <c r="AW29" s="100"/>
-      <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="8"/>
-      <c r="BA29" s="8"/>
-      <c r="BB29" s="8"/>
+      <c r="AW29" s="7"/>
+      <c r="AX29" s="48"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="155"/>
+      <c r="BA29" s="6"/>
+      <c r="BB29" s="100"/>
       <c r="BC29" s="8"/>
       <c r="BD29" s="8"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="7"/>
-      <c r="BG29" s="48"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="160"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="7"/>
-      <c r="BL29" s="48"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="6"/>
-    </row>
-    <row r="33" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE33" s="45"/>
-      <c r="BF33" s="9"/>
-      <c r="BG33" s="2"/>
-      <c r="BH33" s="2"/>
-      <c r="BI33" s="2"/>
-      <c r="BJ33" s="45"/>
-      <c r="BK33" s="45"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33"/>
-      <c r="BO33"/>
-    </row>
-    <row r="34" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE34" s="45"/>
-      <c r="BF34" s="9"/>
-      <c r="BG34" s="2"/>
-      <c r="BH34" s="2"/>
-      <c r="BI34" s="2"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="45"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34"/>
-      <c r="BO34"/>
-    </row>
-    <row r="35" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE35" s="45"/>
-      <c r="BF35" s="9"/>
-      <c r="BG35" s="2"/>
-      <c r="BH35" s="2"/>
-      <c r="BI35" s="2"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="45"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-    </row>
-    <row r="36" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE36" s="45"/>
-      <c r="BF36" s="9"/>
-      <c r="BG36" s="2"/>
-      <c r="BH36" s="2"/>
-      <c r="BI36" s="2"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="45"/>
-      <c r="BM36" s="2"/>
-      <c r="BN36"/>
-      <c r="BO36"/>
-    </row>
-    <row r="37" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE37" s="45"/>
-      <c r="BF37" s="9"/>
-      <c r="BG37" s="2"/>
-      <c r="BH37" s="2"/>
-      <c r="BI37" s="2"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-    </row>
-    <row r="38" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE38" s="45"/>
-      <c r="BF38" s="9"/>
-      <c r="BG38" s="2"/>
-      <c r="BH38" s="2"/>
-      <c r="BI38" s="2"/>
-      <c r="BJ38" s="45"/>
-      <c r="BK38" s="45"/>
-      <c r="BM38" s="2"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-    </row>
-    <row r="39" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE39" s="45"/>
-      <c r="BF39" s="9"/>
-      <c r="BG39" s="2"/>
-      <c r="BH39" s="2"/>
-      <c r="BI39" s="2"/>
-      <c r="BJ39" s="45"/>
-      <c r="BK39" s="45"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-    </row>
-    <row r="40" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE40" s="45"/>
-      <c r="BF40" s="9"/>
-      <c r="BG40" s="2"/>
-      <c r="BH40" s="2"/>
-      <c r="BI40" s="2"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="45"/>
-      <c r="BM40" s="2"/>
-      <c r="BN40"/>
-      <c r="BO40"/>
-    </row>
-    <row r="41" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE41" s="45"/>
-      <c r="BF41" s="9"/>
-      <c r="BG41" s="2"/>
-      <c r="BH41" s="2"/>
-      <c r="BI41" s="2"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="45"/>
-      <c r="BM41" s="2"/>
-      <c r="BN41"/>
-      <c r="BO41"/>
-    </row>
-    <row r="42" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE42" s="45"/>
-      <c r="BF42" s="9"/>
-      <c r="BG42" s="2"/>
-      <c r="BH42" s="2"/>
-      <c r="BI42" s="2"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="45"/>
-      <c r="BM42" s="2"/>
-      <c r="BN42"/>
-      <c r="BO42"/>
-    </row>
-    <row r="43" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE43" s="45"/>
-      <c r="BF43" s="9"/>
-      <c r="BG43" s="2"/>
-      <c r="BH43" s="2"/>
-      <c r="BI43" s="2"/>
-      <c r="BJ43" s="45"/>
-      <c r="BK43" s="45"/>
-      <c r="BM43" s="2"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
-    </row>
-    <row r="44" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE44" s="45"/>
-      <c r="BF44" s="9"/>
-      <c r="BG44" s="2"/>
-      <c r="BH44" s="2"/>
-      <c r="BI44" s="2"/>
-      <c r="BJ44" s="45"/>
-      <c r="BK44" s="45"/>
-      <c r="BM44" s="2"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
-    </row>
-    <row r="45" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE45" s="45"/>
-      <c r="BF45" s="9"/>
-      <c r="BG45" s="2"/>
-      <c r="BH45" s="2"/>
-      <c r="BI45" s="2"/>
-      <c r="BJ45" s="45"/>
-      <c r="BK45" s="45"/>
-      <c r="BM45" s="2"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-    </row>
-    <row r="46" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE46" s="45"/>
-      <c r="BF46" s="9"/>
-      <c r="BG46" s="2"/>
-      <c r="BH46" s="2"/>
-      <c r="BI46" s="2"/>
-      <c r="BJ46" s="45"/>
-      <c r="BK46" s="45"/>
-      <c r="BM46" s="2"/>
-      <c r="BN46"/>
-      <c r="BO46"/>
-    </row>
-    <row r="47" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE47" s="45"/>
-      <c r="BF47" s="9"/>
-      <c r="BG47" s="2"/>
-      <c r="BH47" s="2"/>
-      <c r="BI47" s="2"/>
-      <c r="BJ47" s="45"/>
-      <c r="BK47" s="45"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47"/>
-      <c r="BO47"/>
-    </row>
-    <row r="48" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE48" s="45"/>
-      <c r="BF48" s="9"/>
-      <c r="BG48" s="2"/>
-      <c r="BH48" s="2"/>
-      <c r="BI48" s="2"/>
-      <c r="BJ48" s="45"/>
-      <c r="BK48" s="45"/>
-      <c r="BM48" s="2"/>
-      <c r="BN48"/>
-      <c r="BO48"/>
-    </row>
-    <row r="49" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE49" s="45"/>
-      <c r="BF49" s="9"/>
-      <c r="BG49" s="2"/>
-      <c r="BH49" s="2"/>
-      <c r="BI49" s="2"/>
-      <c r="BJ49" s="45"/>
-      <c r="BK49" s="45"/>
-      <c r="BM49" s="2"/>
-      <c r="BN49"/>
-      <c r="BO49"/>
-    </row>
-    <row r="50" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE50" s="45"/>
-      <c r="BF50" s="9"/>
-      <c r="BG50" s="2"/>
-      <c r="BH50" s="2"/>
-      <c r="BI50" s="2"/>
-      <c r="BJ50" s="45"/>
-      <c r="BK50" s="45"/>
-      <c r="BM50" s="2"/>
-      <c r="BN50"/>
-      <c r="BO50"/>
-    </row>
-    <row r="51" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE51" s="45"/>
-      <c r="BF51" s="9"/>
-      <c r="BG51" s="2"/>
-      <c r="BH51" s="2"/>
-      <c r="BI51" s="2"/>
-      <c r="BJ51" s="45"/>
-      <c r="BK51" s="45"/>
-      <c r="BM51" s="2"/>
-      <c r="BN51"/>
-      <c r="BO51"/>
-    </row>
-    <row r="52" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE52" s="45"/>
-      <c r="BF52" s="9"/>
-      <c r="BG52" s="2"/>
-      <c r="BH52" s="2"/>
-      <c r="BI52" s="2"/>
-      <c r="BJ52" s="45"/>
-      <c r="BK52" s="45"/>
-      <c r="BM52" s="2"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-    </row>
-    <row r="53" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE53" s="45"/>
-      <c r="BF53" s="9"/>
-      <c r="BG53" s="2"/>
-      <c r="BH53" s="2"/>
-      <c r="BI53" s="2"/>
-      <c r="BJ53" s="45"/>
-      <c r="BK53" s="45"/>
-      <c r="BM53" s="2"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-    </row>
-    <row r="54" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE54" s="45"/>
-      <c r="BF54" s="9"/>
-      <c r="BG54" s="2"/>
-      <c r="BH54" s="2"/>
-      <c r="BI54" s="2"/>
-      <c r="BJ54" s="45"/>
-      <c r="BK54" s="45"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54"/>
-      <c r="BO54"/>
-    </row>
-    <row r="55" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE55" s="45"/>
-      <c r="BF55" s="9"/>
-      <c r="BG55" s="2"/>
-      <c r="BH55" s="2"/>
-      <c r="BI55" s="2"/>
-      <c r="BJ55" s="45"/>
-      <c r="BK55" s="45"/>
-      <c r="BM55" s="2"/>
-      <c r="BN55"/>
-      <c r="BO55"/>
-    </row>
-    <row r="56" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE56" s="45"/>
-      <c r="BF56" s="9"/>
-      <c r="BG56" s="2"/>
-      <c r="BH56" s="2"/>
-      <c r="BI56" s="2"/>
-      <c r="BJ56" s="45"/>
-      <c r="BK56" s="45"/>
-      <c r="BM56" s="2"/>
-      <c r="BN56"/>
-      <c r="BO56"/>
-    </row>
-    <row r="57" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE57" s="45"/>
-      <c r="BF57" s="9"/>
-      <c r="BG57" s="2"/>
-      <c r="BH57" s="2"/>
-      <c r="BI57" s="2"/>
-      <c r="BJ57" s="45"/>
-      <c r="BK57" s="45"/>
-      <c r="BM57" s="2"/>
-      <c r="BN57"/>
-      <c r="BO57"/>
-    </row>
-    <row r="58" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE58" s="45"/>
-      <c r="BF58" s="9"/>
-      <c r="BG58" s="2"/>
-      <c r="BH58" s="2"/>
-      <c r="BI58" s="2"/>
-      <c r="BJ58" s="45"/>
-      <c r="BK58" s="45"/>
-      <c r="BM58" s="2"/>
-      <c r="BN58"/>
-      <c r="BO58"/>
-    </row>
-    <row r="59" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE59" s="45"/>
-      <c r="BF59" s="9"/>
-      <c r="BG59" s="2"/>
-      <c r="BH59" s="2"/>
-      <c r="BI59" s="2"/>
-      <c r="BJ59" s="45"/>
-      <c r="BK59" s="45"/>
-      <c r="BM59" s="2"/>
-      <c r="BN59"/>
-      <c r="BO59"/>
-    </row>
-    <row r="60" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE60" s="45"/>
-      <c r="BF60" s="9"/>
-      <c r="BG60" s="2"/>
-      <c r="BH60" s="2"/>
-      <c r="BI60" s="2"/>
-      <c r="BJ60" s="45"/>
-      <c r="BK60" s="45"/>
-      <c r="BM60" s="2"/>
-      <c r="BN60"/>
-      <c r="BO60"/>
-    </row>
-    <row r="61" spans="57:67" x14ac:dyDescent="0.25">
-      <c r="BE61" s="45"/>
-      <c r="BF61" s="9"/>
-      <c r="BG61" s="2"/>
-      <c r="BH61" s="2"/>
-      <c r="BI61" s="2"/>
-      <c r="BJ61" s="45"/>
-      <c r="BK61" s="45"/>
-      <c r="BM61" s="2"/>
-      <c r="BN61"/>
-      <c r="BO61"/>
+      <c r="BE29" s="8"/>
+      <c r="BF29" s="8"/>
+      <c r="BG29" s="8"/>
+      <c r="BH29" s="6"/>
+      <c r="BI29" s="7"/>
+      <c r="BJ29" s="48"/>
+      <c r="BK29" s="64"/>
+      <c r="BL29" s="64"/>
+      <c r="BM29" s="6"/>
+    </row>
+    <row r="33" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW33" s="9"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+      <c r="BA33" s="45"/>
+      <c r="BH33" s="45"/>
+      <c r="BI33" s="45"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33"/>
+      <c r="BM33"/>
+    </row>
+    <row r="34" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW34" s="9"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="45"/>
+      <c r="BH34" s="45"/>
+      <c r="BI34" s="45"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34"/>
+      <c r="BM34"/>
+    </row>
+    <row r="35" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW35" s="9"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="45"/>
+      <c r="BH35" s="45"/>
+      <c r="BI35" s="45"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+    </row>
+    <row r="36" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW36" s="9"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="45"/>
+      <c r="BH36" s="45"/>
+      <c r="BI36" s="45"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+    </row>
+    <row r="37" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW37" s="9"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="45"/>
+      <c r="BH37" s="45"/>
+      <c r="BI37" s="45"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+    </row>
+    <row r="38" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW38" s="9"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="45"/>
+      <c r="BH38" s="45"/>
+      <c r="BI38" s="45"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+    </row>
+    <row r="39" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW39" s="9"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="45"/>
+      <c r="BH39" s="45"/>
+      <c r="BI39" s="45"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+    </row>
+    <row r="40" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW40" s="9"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="45"/>
+      <c r="BH40" s="45"/>
+      <c r="BI40" s="45"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40"/>
+      <c r="BM40"/>
+    </row>
+    <row r="41" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW41" s="9"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="45"/>
+      <c r="BH41" s="45"/>
+      <c r="BI41" s="45"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+    </row>
+    <row r="42" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW42" s="9"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="45"/>
+      <c r="BH42" s="45"/>
+      <c r="BI42" s="45"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+    </row>
+    <row r="43" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW43" s="9"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+      <c r="BA43" s="45"/>
+      <c r="BH43" s="45"/>
+      <c r="BI43" s="45"/>
+      <c r="BK43" s="2"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+    </row>
+    <row r="44" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW44" s="9"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+      <c r="BA44" s="45"/>
+      <c r="BH44" s="45"/>
+      <c r="BI44" s="45"/>
+      <c r="BK44" s="2"/>
+      <c r="BL44"/>
+      <c r="BM44"/>
+    </row>
+    <row r="45" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW45" s="9"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+      <c r="BA45" s="45"/>
+      <c r="BH45" s="45"/>
+      <c r="BI45" s="45"/>
+      <c r="BK45" s="2"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+    </row>
+    <row r="46" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW46" s="9"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="45"/>
+      <c r="BH46" s="45"/>
+      <c r="BI46" s="45"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+    </row>
+    <row r="47" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW47" s="9"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+      <c r="BA47" s="45"/>
+      <c r="BH47" s="45"/>
+      <c r="BI47" s="45"/>
+      <c r="BK47" s="2"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+    </row>
+    <row r="48" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW48" s="9"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+      <c r="BA48" s="45"/>
+      <c r="BH48" s="45"/>
+      <c r="BI48" s="45"/>
+      <c r="BK48" s="2"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+    </row>
+    <row r="49" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW49" s="9"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+      <c r="BA49" s="45"/>
+      <c r="BH49" s="45"/>
+      <c r="BI49" s="45"/>
+      <c r="BK49" s="2"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+    </row>
+    <row r="50" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW50" s="9"/>
+      <c r="AX50" s="2"/>
+      <c r="AY50" s="2"/>
+      <c r="AZ50" s="2"/>
+      <c r="BA50" s="45"/>
+      <c r="BH50" s="45"/>
+      <c r="BI50" s="45"/>
+      <c r="BK50" s="2"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+    </row>
+    <row r="51" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW51" s="9"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+      <c r="BA51" s="45"/>
+      <c r="BH51" s="45"/>
+      <c r="BI51" s="45"/>
+      <c r="BK51" s="2"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+    </row>
+    <row r="52" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW52" s="9"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+      <c r="BA52" s="45"/>
+      <c r="BH52" s="45"/>
+      <c r="BI52" s="45"/>
+      <c r="BK52" s="2"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+    </row>
+    <row r="53" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="45"/>
+      <c r="BH53" s="45"/>
+      <c r="BI53" s="45"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+    </row>
+    <row r="54" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW54" s="9"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+      <c r="BA54" s="45"/>
+      <c r="BH54" s="45"/>
+      <c r="BI54" s="45"/>
+      <c r="BK54" s="2"/>
+      <c r="BL54"/>
+      <c r="BM54"/>
+    </row>
+    <row r="55" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW55" s="9"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+      <c r="BA55" s="45"/>
+      <c r="BH55" s="45"/>
+      <c r="BI55" s="45"/>
+      <c r="BK55" s="2"/>
+      <c r="BL55"/>
+      <c r="BM55"/>
+    </row>
+    <row r="56" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW56" s="9"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+      <c r="BA56" s="45"/>
+      <c r="BH56" s="45"/>
+      <c r="BI56" s="45"/>
+      <c r="BK56" s="2"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+    </row>
+    <row r="57" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW57" s="9"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+      <c r="BA57" s="45"/>
+      <c r="BH57" s="45"/>
+      <c r="BI57" s="45"/>
+      <c r="BK57" s="2"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+    </row>
+    <row r="58" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW58" s="9"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+      <c r="BA58" s="45"/>
+      <c r="BH58" s="45"/>
+      <c r="BI58" s="45"/>
+      <c r="BK58" s="2"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+    </row>
+    <row r="59" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW59" s="9"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+      <c r="BA59" s="45"/>
+      <c r="BH59" s="45"/>
+      <c r="BI59" s="45"/>
+      <c r="BK59" s="2"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+    </row>
+    <row r="60" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW60" s="9"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+      <c r="BA60" s="45"/>
+      <c r="BH60" s="45"/>
+      <c r="BI60" s="45"/>
+      <c r="BK60" s="2"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+    </row>
+    <row r="61" spans="49:65" x14ac:dyDescent="0.25">
+      <c r="AW61" s="9"/>
+      <c r="AX61" s="2"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2"/>
+      <c r="BA61" s="45"/>
+      <c r="BH61" s="45"/>
+      <c r="BI61" s="45"/>
+      <c r="BK61" s="2"/>
+      <c r="BL61"/>
+      <c r="BM61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BI2:BM2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AW2:BE2"/>
-    <mergeCell ref="BF2:BJ2"/>
+    <mergeCell ref="BB2:BH2"/>
+    <mergeCell ref="AW2:BA2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 AA18:AA29 W4:BO13 A4:G27 AB14:BO30">
-    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BI4:BM30 AW4:BA16 BD4:BH16 AC4:AV30 BB4 AW17:BH30">
+    <cfRule type="expression" dxfId="34" priority="31" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="29" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="20" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="44" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
       <formula>$A14="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB5:BB16">
+    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+      <formula>$A5="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+      <formula>$A5="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BC4:BC16">
+    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+      <formula>$A4="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+      <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -10120,7 +10605,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4:O29"/>
+      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10160,74 +10645,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="162" t="s">
+      <c r="C2" s="164"/>
+      <c r="D2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="157" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="163"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="173" t="s">
+      <c r="J2" s="158"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="174"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="174"/>
-      <c r="AD2" s="174"/>
-      <c r="AE2" s="174"/>
-      <c r="AF2" s="174"/>
-      <c r="AG2" s="174"/>
-      <c r="AH2" s="174"/>
-      <c r="AI2" s="174"/>
-      <c r="AJ2" s="175"/>
-      <c r="AK2" s="179" t="s">
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="169"/>
+      <c r="AH2" s="169"/>
+      <c r="AI2" s="169"/>
+      <c r="AJ2" s="170"/>
+      <c r="AK2" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="177"/>
-      <c r="AM2" s="177"/>
-      <c r="AN2" s="177"/>
-      <c r="AO2" s="177"/>
-      <c r="AP2" s="178"/>
-      <c r="AQ2" s="179" t="s">
+      <c r="AL2" s="172"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="172"/>
+      <c r="AO2" s="172"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="174" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="180"/>
-      <c r="AU2" s="181" t="s">
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="183"/>
-      <c r="AY2" s="162" t="s">
+      <c r="AV2" s="177"/>
+      <c r="AW2" s="177"/>
+      <c r="AX2" s="178"/>
+      <c r="AY2" s="157" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="163"/>
-      <c r="BA2" s="163"/>
-      <c r="BB2" s="163"/>
-      <c r="BC2" s="164"/>
+      <c r="AZ2" s="158"/>
+      <c r="BA2" s="158"/>
+      <c r="BB2" s="158"/>
+      <c r="BC2" s="159"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -10395,7 +10880,7 @@
       <c r="B4" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -10410,10 +10895,10 @@
       <c r="G4" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="112" t="s">
+      <c r="H4" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="109" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="36">
@@ -10467,10 +10952,10 @@
       <c r="Z4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="117" t="s">
+      <c r="AA4" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="117" t="s">
+      <c r="AB4" s="114" t="s">
         <v>29</v>
       </c>
       <c r="AC4" s="32" t="s">
@@ -10494,7 +10979,7 @@
       <c r="AI4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="AJ4" s="118" t="s">
+      <c r="AJ4" s="115" t="s">
         <v>29</v>
       </c>
       <c r="AK4" s="34" t="s">
@@ -10555,7 +11040,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -10570,10 +11055,10 @@
       <c r="G5" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="108" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="111" t="s">
+      <c r="H5" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="43">
@@ -10597,7 +11082,7 @@
       <c r="P5" s="25">
         <v>1</v>
       </c>
-      <c r="Q5" s="107" t="s">
+      <c r="Q5" s="120" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
@@ -10654,7 +11139,7 @@
       <c r="AI5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ5" s="119" t="s">
+      <c r="AJ5" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK5" s="43" t="s">
@@ -10715,7 +11200,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -10730,10 +11215,10 @@
       <c r="G6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="112" t="s">
+      <c r="H6" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="43">
@@ -10814,7 +11299,7 @@
       <c r="AI6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ6" s="119" t="s">
+      <c r="AJ6" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK6" s="43" t="s">
@@ -10875,7 +11360,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -10890,10 +11375,10 @@
       <c r="G7" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="112" t="s">
+      <c r="H7" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="43">
@@ -10974,7 +11459,7 @@
       <c r="AI7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ7" s="119" t="s">
+      <c r="AJ7" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK7" s="43" t="s">
@@ -11035,7 +11520,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="117" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -11050,10 +11535,10 @@
       <c r="G8" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="43">
@@ -11134,7 +11619,7 @@
       <c r="AI8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ8" s="119" t="s">
+      <c r="AJ8" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK8" s="43" t="s">
@@ -11195,7 +11680,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="118" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -11211,10 +11696,10 @@
       <c r="G9" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="112" t="s">
+      <c r="H9" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="43">
@@ -11295,7 +11780,7 @@
       <c r="AI9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ9" s="119" t="s">
+      <c r="AJ9" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK9" s="43" t="s">
@@ -11356,7 +11841,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="118" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -11372,10 +11857,10 @@
       <c r="G10" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="112" t="s">
+      <c r="H10" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="43">
@@ -11456,7 +11941,7 @@
       <c r="AI10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ10" s="119" t="s">
+      <c r="AJ10" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK10" s="43" t="s">
@@ -11517,7 +12002,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="118" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -11533,10 +12018,10 @@
       <c r="G11" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="43">
@@ -11617,7 +12102,7 @@
       <c r="AI11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="119" t="s">
+      <c r="AJ11" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK11" s="43" t="s">
@@ -11678,7 +12163,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="118" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -11693,10 +12178,10 @@
       <c r="G12" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="112" t="s">
+      <c r="H12" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="43">
@@ -11777,7 +12262,7 @@
       <c r="AI12" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ12" s="119" t="s">
+      <c r="AJ12" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK12" s="43" t="s">
@@ -11838,7 +12323,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="118" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -11853,10 +12338,10 @@
       <c r="G13" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J13" s="43">
@@ -11937,7 +12422,7 @@
       <c r="AI13" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ13" s="119" t="s">
+      <c r="AJ13" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK13" s="43" t="s">
@@ -11998,7 +12483,7 @@
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -12013,10 +12498,10 @@
       <c r="G14" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="112" t="s">
+      <c r="H14" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J14" s="43">
@@ -12097,7 +12582,7 @@
       <c r="AI14" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ14" s="119" t="s">
+      <c r="AJ14" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK14" s="43" t="s">
@@ -12158,7 +12643,7 @@
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -12173,10 +12658,10 @@
       <c r="G15" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J15" s="43">
@@ -12257,7 +12742,7 @@
       <c r="AI15" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ15" s="119" t="s">
+      <c r="AJ15" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK15" s="43" t="s">
@@ -12318,7 +12803,7 @@
       <c r="B16" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -12333,10 +12818,10 @@
       <c r="G16" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="112" t="s">
+      <c r="H16" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J16" s="43">
@@ -12417,7 +12902,7 @@
       <c r="AI16" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ16" s="119" t="s">
+      <c r="AJ16" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK16" s="43" t="s">
@@ -12478,7 +12963,7 @@
       <c r="B17" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="118" t="s">
         <v>286</v>
       </c>
       <c r="D17" s="25">
@@ -12490,13 +12975,13 @@
       <c r="F17" s="25">
         <v>1500</v>
       </c>
-      <c r="G17" s="109" t="s">
+      <c r="G17" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="43">
@@ -12577,7 +13062,7 @@
       <c r="AI17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AJ17" s="119" t="s">
+      <c r="AJ17" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK17" s="43" t="s">
@@ -12638,7 +13123,7 @@
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="118" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -12653,10 +13138,10 @@
       <c r="G18" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="H18" s="112" t="s">
+      <c r="H18" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="43">
@@ -12737,7 +13222,7 @@
       <c r="AI18" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ18" s="119" t="s">
+      <c r="AJ18" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK18" s="43" t="s">
@@ -12798,7 +13283,7 @@
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="118" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -12813,10 +13298,10 @@
       <c r="G19" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="112" t="s">
+      <c r="H19" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="111" t="s">
+      <c r="I19" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="43">
@@ -12897,7 +13382,7 @@
       <c r="AI19" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ19" s="119" t="s">
+      <c r="AJ19" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK19" s="43" t="s">
@@ -12958,7 +13443,7 @@
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="121" t="s">
+      <c r="C20" s="118" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -12973,10 +13458,10 @@
       <c r="G20" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="H20" s="112" t="s">
+      <c r="H20" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="111" t="s">
+      <c r="I20" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="43">
@@ -13057,7 +13542,7 @@
       <c r="AI20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ20" s="119" t="s">
+      <c r="AJ20" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK20" s="43" t="s">
@@ -13116,7 +13601,7 @@
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="121" t="s">
+      <c r="C21" s="118" t="s">
         <v>1081</v>
       </c>
       <c r="D21" s="25">
@@ -13131,10 +13616,10 @@
       <c r="G21" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="H21" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="111" t="s">
+      <c r="H21" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J21" s="43">
@@ -13215,7 +13700,7 @@
       <c r="AI21" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AJ21" s="119" t="s">
+      <c r="AJ21" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK21" s="43" t="s">
@@ -13259,7 +13744,7 @@
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="121" t="s">
+      <c r="C22" s="118" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -13274,10 +13759,10 @@
       <c r="G22" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="H22" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="111" t="s">
+      <c r="H22" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J22" s="43"/>
@@ -13312,7 +13797,7 @@
         <v>28</v>
       </c>
       <c r="AI22" s="25"/>
-      <c r="AJ22" s="119" t="s">
+      <c r="AJ22" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK22" s="43"/>
@@ -13344,7 +13829,7 @@
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="118" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -13359,10 +13844,10 @@
       <c r="G23" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="H23" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="111" t="s">
+      <c r="H23" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J23" s="43"/>
@@ -13397,7 +13882,7 @@
         <v>28</v>
       </c>
       <c r="AI23" s="25"/>
-      <c r="AJ23" s="119" t="s">
+      <c r="AJ23" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK23" s="43"/>
@@ -13425,7 +13910,7 @@
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="118" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -13440,10 +13925,10 @@
       <c r="G24" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="H24" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="111" t="s">
+      <c r="H24" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J24" s="43"/>
@@ -13478,7 +13963,7 @@
         <v>28</v>
       </c>
       <c r="AI24" s="25"/>
-      <c r="AJ24" s="119" t="s">
+      <c r="AJ24" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK24" s="43"/>
@@ -13506,7 +13991,7 @@
       <c r="B25" s="85" t="s">
         <v>1069</v>
       </c>
-      <c r="C25" s="121" t="s">
+      <c r="C25" s="118" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -13521,10 +14006,10 @@
       <c r="G25" s="39" t="s">
         <v>1066</v>
       </c>
-      <c r="H25" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="111" t="s">
+      <c r="H25" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J25" s="43"/>
@@ -13559,7 +14044,7 @@
         <v>28</v>
       </c>
       <c r="AI25" s="25"/>
-      <c r="AJ25" s="119" t="s">
+      <c r="AJ25" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK25" s="43"/>
@@ -13591,7 +14076,7 @@
       <c r="B26" s="85" t="s">
         <v>1068</v>
       </c>
-      <c r="C26" s="121" t="s">
+      <c r="C26" s="118" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -13606,10 +14091,10 @@
       <c r="G26" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="H26" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="111" t="s">
+      <c r="H26" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J26" s="43"/>
@@ -13644,7 +14129,7 @@
         <v>28</v>
       </c>
       <c r="AI26" s="25"/>
-      <c r="AJ26" s="119" t="s">
+      <c r="AJ26" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK26" s="43"/>
@@ -13676,7 +14161,7 @@
       <c r="B27" s="85" t="s">
         <v>1067</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="118" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -13691,10 +14176,10 @@
       <c r="G27" s="39" t="s">
         <v>1077</v>
       </c>
-      <c r="H27" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="111" t="s">
+      <c r="H27" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="43"/>
@@ -13729,7 +14214,7 @@
         <v>28</v>
       </c>
       <c r="AI27" s="25"/>
-      <c r="AJ27" s="119" t="s">
+      <c r="AJ27" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK27" s="43"/>
@@ -13761,7 +14246,7 @@
       <c r="B28" s="85" t="s">
         <v>1073</v>
       </c>
-      <c r="C28" s="121" t="s">
+      <c r="C28" s="118" t="s">
         <v>1088</v>
       </c>
       <c r="D28" s="25">
@@ -13776,10 +14261,10 @@
       <c r="G28" s="39" t="s">
         <v>1079</v>
       </c>
-      <c r="H28" s="113" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="111" t="s">
+      <c r="H28" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="110" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="43"/>
@@ -13814,7 +14299,7 @@
         <v>28</v>
       </c>
       <c r="AI28" s="25"/>
-      <c r="AJ28" s="119" t="s">
+      <c r="AJ28" s="116" t="s">
         <v>29</v>
       </c>
       <c r="AK28" s="43"/>
@@ -14024,14 +14509,14 @@
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B46" s="115" t="s">
+      <c r="B46" s="112" t="s">
         <v>1078</v>
       </c>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-      <c r="G46" s="116"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="113"/>
       <c r="H46" s="11"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.25">
@@ -14113,7 +14598,7 @@
     <mergeCell ref="AK2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27">
+  <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
     <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BA$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BC$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1141">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3429,9 +3429,6 @@
     <t>1P0.0</t>
   </si>
   <si>
-    <t>Mean Wind Speed</t>
-  </si>
-  <si>
     <t>ElastoDyn</t>
   </si>
   <si>
@@ -3448,6 +3445,33 @@
   </si>
   <si>
     <t>OC4 Load Case (LC) 3.7: steady wind, white noise second-order waves</t>
+  </si>
+  <si>
+    <t>Direction (deg)</t>
+  </si>
+  <si>
+    <t>5-25</t>
+  </si>
+  <si>
+    <t>0-61</t>
+  </si>
+  <si>
+    <t>11-27</t>
+  </si>
+  <si>
+    <t>11-20</t>
+  </si>
+  <si>
+    <t>-50-0</t>
+  </si>
+  <si>
+    <t>InflowWind</t>
+  </si>
+  <si>
+    <t>Wind Type</t>
+  </si>
+  <si>
+    <t>Mean Wind Speed (m/s)</t>
   </si>
 </sst>
 </file>
@@ -4154,7 +4178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4519,9 +4543,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4572,9 +4593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -4582,6 +4600,21 @@
     <xf numFmtId="164" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4635,10 +4668,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4650,28 +4686,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4679,7 +4709,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="37">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4748,216 +4778,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5469,20 +5289,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BM61"/>
+  <dimension ref="A1:BO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="146" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="145" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -5506,107 +5326,111 @@
     <col min="33" max="34" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="49" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.5546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="3.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.88671875" style="2" customWidth="1"/>
-    <col min="55" max="55" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="4.88671875" style="2" customWidth="1"/>
-    <col min="58" max="60" width="1.88671875" style="2" customWidth="1"/>
-    <col min="61" max="61" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="4.44140625" customWidth="1"/>
-    <col min="67" max="67" width="4.33203125" customWidth="1"/>
+    <col min="43" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="4.33203125" style="2" customWidth="1"/>
+    <col min="50" max="51" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.88671875" style="2" customWidth="1"/>
+    <col min="57" max="57" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="4.88671875" style="2" customWidth="1"/>
+    <col min="60" max="62" width="1.88671875" style="2" customWidth="1"/>
+    <col min="63" max="63" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.44140625" customWidth="1"/>
+    <col min="69" max="69" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+    <row r="1" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="160" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="163" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="161"/>
-      <c r="M2" s="161"/>
-      <c r="N2" s="161"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="161"/>
-      <c r="Q2" s="161"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="158" t="s">
+      <c r="I2" s="164"/>
+      <c r="J2" s="164"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="164"/>
+      <c r="M2" s="164"/>
+      <c r="N2" s="164"/>
+      <c r="O2" s="164"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="164"/>
+      <c r="R2" s="164"/>
+      <c r="S2" s="164"/>
+      <c r="T2" s="164"/>
+      <c r="U2" s="164"/>
+      <c r="V2" s="165"/>
+      <c r="W2" s="161" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166"/>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="168" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="169"/>
-      <c r="AK2" s="169"/>
-      <c r="AL2" s="169"/>
-      <c r="AM2" s="169"/>
-      <c r="AN2" s="169"/>
-      <c r="AO2" s="169"/>
-      <c r="AP2" s="170"/>
-      <c r="AQ2" s="171" t="s">
-        <v>1131</v>
-      </c>
-      <c r="AR2" s="172"/>
-      <c r="AS2" s="172"/>
-      <c r="AT2" s="172"/>
-      <c r="AU2" s="172"/>
-      <c r="AV2" s="173"/>
-      <c r="AW2" s="176" t="s">
-        <v>18</v>
-      </c>
-      <c r="AX2" s="177"/>
-      <c r="AY2" s="177"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="181" t="s">
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="169"/>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="171" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="172"/>
+      <c r="AK2" s="172"/>
+      <c r="AL2" s="172"/>
+      <c r="AM2" s="172"/>
+      <c r="AN2" s="172"/>
+      <c r="AO2" s="172"/>
+      <c r="AP2" s="173"/>
+      <c r="AQ2" s="174" t="s">
         <v>1130</v>
       </c>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
+      <c r="AX2" s="176"/>
+      <c r="AY2" s="180" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AZ2" s="181"/>
+      <c r="BA2" s="181"/>
+      <c r="BB2" s="181"/>
       <c r="BC2" s="182"/>
-      <c r="BD2" s="182"/>
-      <c r="BE2" s="182"/>
-      <c r="BF2" s="182"/>
-      <c r="BG2" s="182"/>
-      <c r="BH2" s="183"/>
-      <c r="BI2" s="157" t="s">
+      <c r="BD2" s="177" t="s">
+        <v>1129</v>
+      </c>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
+      <c r="BJ2" s="179"/>
+      <c r="BK2" s="160" t="s">
         <v>1047</v>
       </c>
-      <c r="BJ2" s="158"/>
-      <c r="BK2" s="158"/>
-      <c r="BL2" s="158"/>
-      <c r="BM2" s="159"/>
-    </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BL2" s="161"/>
+      <c r="BM2" s="161"/>
+      <c r="BN2" s="161"/>
+      <c r="BO2" s="162"/>
+    </row>
+    <row r="3" spans="1:67" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5623,10 +5447,10 @@
       <c r="F3" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="139" t="s">
+      <c r="G3" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="137" t="s">
+      <c r="H3" s="136" t="s">
         <v>1090</v>
       </c>
       <c r="I3" s="121" t="s">
@@ -5696,9 +5520,9 @@
         <v>1056</v>
       </c>
       <c r="AE3" s="82" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AF3" s="156" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AF3" s="154" t="s">
         <v>5</v>
       </c>
       <c r="AG3" s="83" t="s">
@@ -5728,10 +5552,10 @@
       <c r="AO3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AP3" s="142" t="s">
+      <c r="AP3" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="141" t="s">
+      <c r="AQ3" s="140" t="s">
         <v>44</v>
       </c>
       <c r="AR3" s="72" t="s">
@@ -5746,61 +5570,67 @@
       <c r="AU3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="AV3" s="74" t="s">
+      <c r="AV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="75" t="s">
+      <c r="AW3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="77" t="s">
+      <c r="AX3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AY3" s="78" t="s">
+      <c r="AY3" s="75" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AZ3" s="189" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BA3" s="190" t="s">
+        <v>1140</v>
+      </c>
+      <c r="BB3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AZ3" s="151" t="s">
-        <v>1126</v>
-      </c>
-      <c r="BA3" s="76" t="s">
+      <c r="BC3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BB3" s="184" t="s">
+      <c r="BD3" s="157" t="s">
         <v>1121</v>
       </c>
-      <c r="BC3" s="185" t="s">
+      <c r="BE3" s="158" t="s">
         <v>1122</v>
       </c>
-      <c r="BD3" s="185" t="s">
+      <c r="BF3" s="158" t="s">
         <v>1123</v>
       </c>
-      <c r="BE3" s="185" t="s">
+      <c r="BG3" s="158" t="s">
         <v>1124</v>
       </c>
-      <c r="BF3" s="185"/>
-      <c r="BG3" s="185"/>
-      <c r="BH3" s="186"/>
-      <c r="BI3" s="66" t="s">
+      <c r="BH3" s="158"/>
+      <c r="BI3" s="158"/>
+      <c r="BJ3" s="159"/>
+      <c r="BK3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BJ3" s="69" t="s">
+      <c r="BL3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BK3" s="70" t="s">
+      <c r="BM3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BL3" s="70" t="s">
+      <c r="BN3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BM3" s="68" t="s">
+      <c r="BO3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5812,10 +5642,10 @@
       <c r="F4" s="55">
         <v>175</v>
       </c>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="142" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="138">
+      <c r="H4" s="137">
         <v>20</v>
       </c>
       <c r="I4" s="117">
@@ -5933,60 +5763,68 @@
       <c r="AU4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AV4" s="33" t="s">
+      <c r="AV4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AW4" s="36" t="s">
+      <c r="AW4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="46">
+      <c r="AX4" s="33">
         <v>15</v>
       </c>
-      <c r="AY4" s="37">
+      <c r="AY4" s="36">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="150">
+        <v>30</v>
+      </c>
+      <c r="BA4" s="150">
+        <v>12</v>
+      </c>
+      <c r="BB4" s="37">
         <v>0.2</v>
       </c>
-      <c r="AZ4" s="152"/>
-      <c r="BA4" s="38" t="s">
+      <c r="BC4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BB4" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD4" s="41" t="s">
+      <c r="BD4" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="33"/>
-      <c r="BI4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="55">
+      <c r="BF4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="33"/>
+      <c r="BK4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="55">
         <v>3</v>
       </c>
-      <c r="BK4" s="62">
+      <c r="BM4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BL4" s="62" t="s">
+      <c r="BN4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BO4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -5998,8 +5836,8 @@
       <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="144" t="s">
-        <v>1129</v>
+      <c r="G5" s="143" t="s">
+        <v>1128</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
@@ -6119,60 +5957,68 @@
       <c r="AU5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV5" s="42" t="s">
+      <c r="AV5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW5" s="43" t="s">
+      <c r="AW5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX5" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="153"/>
-      <c r="BA5" s="42" t="s">
+      <c r="AX5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB5" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB5" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD5" s="41" t="s">
+      <c r="BD5" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="41"/>
-      <c r="BH5" s="42"/>
-      <c r="BI5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="56">
+      <c r="BF5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH5" s="41"/>
+      <c r="BI5" s="41"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="56">
         <v>1</v>
       </c>
-      <c r="BK5" s="63">
+      <c r="BM5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BL5" s="63" t="s">
+      <c r="BN5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BM5" s="42" t="s">
+      <c r="BO5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -6184,7 +6030,7 @@
       <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="143" t="s">
         <v>491</v>
       </c>
       <c r="H6" s="40">
@@ -6305,60 +6151,68 @@
       <c r="AU6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV6" s="42" t="s">
+      <c r="AV6" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW6" s="43" t="s">
+      <c r="AW6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="47" t="s">
+      <c r="AX6" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY6" s="44">
+      <c r="AY6" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="151">
+        <v>30</v>
+      </c>
+      <c r="BA6" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB6" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ6" s="153"/>
-      <c r="BA6" s="42" t="s">
+      <c r="BC6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB6" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD6" s="41" t="s">
+      <c r="BD6" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF6" s="41"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="42"/>
-      <c r="BI6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="56">
+      <c r="BF6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH6" s="41"/>
+      <c r="BI6" s="41"/>
+      <c r="BJ6" s="42"/>
+      <c r="BK6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="56">
         <v>3</v>
       </c>
-      <c r="BK6" s="63">
+      <c r="BM6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL6" s="63" t="s">
+      <c r="BN6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM6" s="42" t="s">
+      <c r="BO6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="147" t="s">
+      <c r="C7" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -6370,7 +6224,7 @@
       <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="144" t="s">
+      <c r="G7" s="143" t="s">
         <v>492</v>
       </c>
       <c r="H7" s="40">
@@ -6491,60 +6345,68 @@
       <c r="AU7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV7" s="42" t="s">
+      <c r="AV7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW7" s="43" t="s">
+      <c r="AW7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX7" s="47" t="s">
+      <c r="AX7" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY7" s="44">
+      <c r="AY7" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ7" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB7" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ7" s="153"/>
-      <c r="BA7" s="42" t="s">
+      <c r="BC7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB7" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC7" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD7" s="41" t="s">
+      <c r="BD7" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE7" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF7" s="41"/>
-      <c r="BG7" s="41"/>
-      <c r="BH7" s="42"/>
-      <c r="BI7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="56">
+      <c r="BF7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH7" s="41"/>
+      <c r="BI7" s="41"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="56">
         <v>5</v>
       </c>
-      <c r="BK7" s="63">
+      <c r="BM7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BL7" s="63" t="s">
+      <c r="BN7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM7" s="42" t="s">
+      <c r="BO7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="147" t="s">
+      <c r="C8" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -6556,7 +6418,7 @@
       <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="143" t="s">
         <v>1106</v>
       </c>
       <c r="H8" s="40">
@@ -6677,60 +6539,68 @@
       <c r="AU8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV8" s="42" t="s">
+      <c r="AV8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW8" s="43" t="s">
+      <c r="AW8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="44">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="153"/>
-      <c r="BA8" s="42" t="s">
+      <c r="AX8" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ8" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB8" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC8" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD8" s="41" t="s">
+      <c r="BD8" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF8" s="41"/>
-      <c r="BG8" s="41"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="56">
+      <c r="BF8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH8" s="41"/>
+      <c r="BI8" s="41"/>
+      <c r="BJ8" s="42"/>
+      <c r="BK8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="56">
         <v>3</v>
       </c>
-      <c r="BK8" s="63">
+      <c r="BM8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BL8" s="63" t="s">
+      <c r="BN8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM8" s="42" t="s">
+      <c r="BO8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="147" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6743,7 +6613,7 @@
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="143" t="s">
         <v>1106</v>
       </c>
       <c r="H9" s="40">
@@ -6864,60 +6734,68 @@
       <c r="AU9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV9" s="42" t="s">
+      <c r="AV9" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW9" s="43" t="s">
+      <c r="AW9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX9" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="44">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="153"/>
-      <c r="BA9" s="42" t="s">
+      <c r="AX9" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ9" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB9" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB9" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD9" s="41" t="s">
+      <c r="BD9" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="42"/>
-      <c r="BI9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="56">
+      <c r="BF9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH9" s="41"/>
+      <c r="BI9" s="41"/>
+      <c r="BJ9" s="42"/>
+      <c r="BK9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="56">
         <v>5</v>
       </c>
-      <c r="BK9" s="63">
+      <c r="BM9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BL9" s="63" t="s">
+      <c r="BN9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM9" s="42" t="s">
+      <c r="BO9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="147" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -6930,7 +6808,7 @@
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="143" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="40">
@@ -7051,60 +6929,68 @@
       <c r="AU10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV10" s="42" t="s">
+      <c r="AV10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW10" s="43" t="s">
+      <c r="AW10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX10" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="44">
+      <c r="AX10" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ10" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB10" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="42" t="s">
+      <c r="BC10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB10" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC10" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD10" s="41" t="s">
+      <c r="BD10" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="56">
+      <c r="BF10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH10" s="41"/>
+      <c r="BI10" s="41"/>
+      <c r="BJ10" s="42"/>
+      <c r="BK10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="56">
         <v>3</v>
       </c>
-      <c r="BK10" s="63">
+      <c r="BM10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BL10" s="63" t="s">
+      <c r="BN10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM10" s="42" t="s">
+      <c r="BO10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="147" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -7117,7 +7003,7 @@
       <c r="F11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="143" t="s">
+      <c r="G11" s="142" t="s">
         <v>497</v>
       </c>
       <c r="H11" s="40">
@@ -7238,60 +7124,68 @@
       <c r="AU11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV11" s="42" t="s">
+      <c r="AV11" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW11" s="43" t="s">
+      <c r="AW11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX11" s="47">
+      <c r="AX11" s="42">
         <v>15</v>
       </c>
-      <c r="AY11" s="44">
+      <c r="AY11" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="151">
+        <v>30</v>
+      </c>
+      <c r="BA11" s="151">
+        <v>11</v>
+      </c>
+      <c r="BB11" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ11" s="153"/>
-      <c r="BA11" s="42" t="s">
+      <c r="BC11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB11" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC11" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD11" s="41" t="s">
+      <c r="BD11" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="42"/>
-      <c r="BI11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="56">
+      <c r="BF11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH11" s="41"/>
+      <c r="BI11" s="41"/>
+      <c r="BJ11" s="42"/>
+      <c r="BK11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL11" s="56">
         <v>2</v>
       </c>
-      <c r="BK11" s="63">
+      <c r="BM11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BL11" s="63" t="s">
+      <c r="BN11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM11" s="42" t="s">
+      <c r="BO11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="C12" s="147" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -7303,7 +7197,7 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="143" t="s">
         <v>493</v>
       </c>
       <c r="H12" s="40">
@@ -7424,60 +7318,68 @@
       <c r="AU12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV12" s="42" t="s">
+      <c r="AV12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW12" s="43" t="s">
+      <c r="AW12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX12" s="47" t="s">
+      <c r="AX12" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY12" s="44">
+      <c r="AY12" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="151">
+        <v>30</v>
+      </c>
+      <c r="BA12" s="151">
+        <v>11</v>
+      </c>
+      <c r="BB12" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ12" s="153"/>
-      <c r="BA12" s="42" t="s">
+      <c r="BC12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB12" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD12" s="41" t="s">
+      <c r="BD12" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="56">
+      <c r="BF12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="56">
         <v>5</v>
       </c>
-      <c r="BK12" s="63">
+      <c r="BM12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BL12" s="63" t="s">
+      <c r="BN12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM12" s="42" t="s">
+      <c r="BO12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="148" t="s">
+      <c r="C13" s="147" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -7489,7 +7391,7 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="144" t="s">
+      <c r="G13" s="143" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="40">
@@ -7610,60 +7512,68 @@
       <c r="AU13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV13" s="42" t="s">
+      <c r="AV13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW13" s="43" t="s">
+      <c r="AW13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX13" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="44">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="153"/>
-      <c r="BA13" s="42" t="s">
+      <c r="AX13" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="188" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BB13" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB13" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD13" s="41" t="s">
+      <c r="BD13" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="63">
+      <c r="BF13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="42"/>
+      <c r="BK13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BL13" s="63" t="s">
+      <c r="BN13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM13" s="42" t="s">
+      <c r="BO13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="147" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -7675,7 +7585,7 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="144" t="s">
+      <c r="G14" s="143" t="s">
         <v>500</v>
       </c>
       <c r="H14" s="40">
@@ -7796,60 +7706,68 @@
       <c r="AU14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV14" s="42" t="s">
+      <c r="AV14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW14" s="43" t="s">
+      <c r="AW14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX14" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="44">
+      <c r="AX14" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ14" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB14" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ14" s="153"/>
-      <c r="BA14" s="42" t="s">
+      <c r="BC14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB14" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD14" s="41" t="s">
+      <c r="BD14" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="42"/>
-      <c r="BI14" s="60">
+      <c r="BF14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH14" s="41"/>
+      <c r="BI14" s="41"/>
+      <c r="BJ14" s="42"/>
+      <c r="BK14" s="60">
         <v>2</v>
       </c>
-      <c r="BJ14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="63">
+      <c r="BL14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BL14" s="63" t="s">
+      <c r="BN14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM14" s="42" t="s">
+      <c r="BO14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="148" t="s">
+      <c r="C15" s="147" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -7861,7 +7779,7 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="144" t="s">
+      <c r="G15" s="143" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="40">
@@ -7982,60 +7900,68 @@
       <c r="AU15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV15" s="42" t="s">
+      <c r="AV15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW15" s="43" t="s">
+      <c r="AW15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="47" t="s">
+      <c r="AX15" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY15" s="44">
+      <c r="AY15" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="188" t="s">
+        <v>1134</v>
+      </c>
+      <c r="BA15" s="188" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BB15" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ15" s="153"/>
-      <c r="BA15" s="42" t="s">
+      <c r="BC15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB15" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD15" s="41" t="s">
+      <c r="BD15" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="42"/>
-      <c r="BI15" s="60">
+      <c r="BF15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="42"/>
+      <c r="BK15" s="60">
         <v>2</v>
       </c>
-      <c r="BJ15" s="56">
+      <c r="BL15" s="56">
         <v>4</v>
       </c>
-      <c r="BK15" s="63">
+      <c r="BM15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BL15" s="63" t="s">
+      <c r="BN15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM15" s="42" t="s">
+      <c r="BO15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="148" t="s">
+      <c r="C16" s="147" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -8047,7 +7973,7 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="144" t="s">
+      <c r="G16" s="143" t="s">
         <v>495</v>
       </c>
       <c r="H16" s="40">
@@ -8168,62 +8094,70 @@
       <c r="AU16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV16" s="42" t="s">
+      <c r="AV16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW16" s="43" t="s">
+      <c r="AW16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX16" s="47">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="44">
+      <c r="AX16" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ16" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="151">
+        <v>12</v>
+      </c>
+      <c r="BB16" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ16" s="153"/>
-      <c r="BA16" s="42" t="s">
+      <c r="BC16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB16" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD16" s="41" t="s">
+      <c r="BD16" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="60">
+      <c r="BF16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH16" s="41"/>
+      <c r="BI16" s="41"/>
+      <c r="BJ16" s="42"/>
+      <c r="BK16" s="60">
         <v>2</v>
       </c>
-      <c r="BJ16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="63">
+      <c r="BL16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BL16" s="63" t="s">
+      <c r="BN16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM16" s="42" t="s">
+      <c r="BO16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="125"/>
-      <c r="C17" s="149"/>
+      <c r="C17" s="148"/>
       <c r="D17" s="127"/>
       <c r="E17" s="127"/>
       <c r="F17" s="127"/>
-      <c r="G17" s="145"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="125"/>
       <c r="I17" s="126"/>
       <c r="J17" s="127"/>
@@ -8264,31 +8198,33 @@
       <c r="AS17" s="129"/>
       <c r="AT17" s="129"/>
       <c r="AU17" s="129"/>
-      <c r="AV17" s="130"/>
-      <c r="AW17" s="128"/>
-      <c r="AX17" s="132"/>
-      <c r="AY17" s="133"/>
-      <c r="AZ17" s="154"/>
-      <c r="BA17" s="130"/>
-      <c r="BB17" s="131"/>
-      <c r="BC17" s="129"/>
-      <c r="BD17" s="129"/>
+      <c r="AV17" s="129"/>
+      <c r="AW17" s="129"/>
+      <c r="AX17" s="130"/>
+      <c r="AY17" s="128"/>
+      <c r="AZ17" s="152"/>
+      <c r="BA17" s="152"/>
+      <c r="BB17" s="132"/>
+      <c r="BC17" s="130"/>
+      <c r="BD17" s="131"/>
       <c r="BE17" s="129"/>
       <c r="BF17" s="129"/>
       <c r="BG17" s="129"/>
-      <c r="BH17" s="130"/>
-      <c r="BI17" s="134"/>
-      <c r="BJ17" s="135"/>
-      <c r="BK17" s="136"/>
-      <c r="BL17" s="136"/>
-      <c r="BM17" s="130"/>
-    </row>
-    <row r="18" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BH17" s="129"/>
+      <c r="BI17" s="129"/>
+      <c r="BJ17" s="130"/>
+      <c r="BK17" s="133"/>
+      <c r="BL17" s="134"/>
+      <c r="BM17" s="135"/>
+      <c r="BN17" s="135"/>
+      <c r="BO17" s="130"/>
+    </row>
+    <row r="18" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="147" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -8300,7 +8236,7 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="144" t="s">
+      <c r="G18" s="143" t="s">
         <v>1107</v>
       </c>
       <c r="H18" s="40">
@@ -8421,60 +8357,68 @@
       <c r="AU18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV18" s="42" t="s">
+      <c r="AV18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW18" s="43" t="s">
+      <c r="AW18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX18" s="53" t="s">
+      <c r="AX18" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY18" s="44">
+      <c r="AY18" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ18" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="188" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BB18" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ18" s="153"/>
-      <c r="BA18" s="42" t="s">
+      <c r="BC18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB18" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD18" s="41" t="s">
+      <c r="BD18" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="42"/>
-      <c r="BI18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="63">
+      <c r="BF18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH18" s="41"/>
+      <c r="BI18" s="41"/>
+      <c r="BJ18" s="42"/>
+      <c r="BK18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BL18" s="63" t="s">
+      <c r="BN18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM18" s="42" t="s">
+      <c r="BO18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="147" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -8486,7 +8430,7 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="144" t="s">
+      <c r="G19" s="143" t="s">
         <v>1108</v>
       </c>
       <c r="H19" s="40">
@@ -8607,60 +8551,68 @@
       <c r="AU19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV19" s="42" t="s">
+      <c r="AV19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW19" s="43" t="s">
+      <c r="AW19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX19" s="47" t="s">
+      <c r="AX19" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY19" s="44">
+      <c r="AY19" s="43">
+        <v>2</v>
+      </c>
+      <c r="AZ19" s="188" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BA19" s="151">
+        <v>11.9</v>
+      </c>
+      <c r="BB19" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ19" s="153"/>
-      <c r="BA19" s="42" t="s">
+      <c r="BC19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB19" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC19" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD19" s="41" t="s">
+      <c r="BD19" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF19" s="41"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="42"/>
-      <c r="BI19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="63">
+      <c r="BF19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH19" s="41"/>
+      <c r="BI19" s="41"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BL19" s="63" t="s">
+      <c r="BN19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM19" s="42" t="s">
+      <c r="BO19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C20" s="147" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -8672,7 +8624,7 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="144" t="s">
+      <c r="G20" s="143" t="s">
         <v>1109</v>
       </c>
       <c r="H20" s="40">
@@ -8793,60 +8745,68 @@
       <c r="AU20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AV20" s="42" t="s">
+      <c r="AV20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AW20" s="43" t="s">
+      <c r="AW20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX20" s="53" t="s">
+      <c r="AX20" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY20" s="44">
+      <c r="AY20" s="43">
+        <v>4</v>
+      </c>
+      <c r="AZ20" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="151">
+        <v>16</v>
+      </c>
+      <c r="BB20" s="44">
         <v>0.2</v>
       </c>
-      <c r="AZ20" s="153"/>
-      <c r="BA20" s="42" t="s">
+      <c r="BC20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB20" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD20" s="41" t="s">
+      <c r="BD20" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF20" s="41"/>
-      <c r="BG20" s="41"/>
-      <c r="BH20" s="42"/>
-      <c r="BI20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="63">
+      <c r="BF20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH20" s="41"/>
+      <c r="BI20" s="41"/>
+      <c r="BJ20" s="42"/>
+      <c r="BK20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BL20" s="63" t="s">
+      <c r="BN20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BM20" s="42" t="s">
+      <c r="BO20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="147" t="s">
         <v>1089</v>
       </c>
       <c r="D21" s="25">
@@ -8858,7 +8818,7 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="144" t="s">
+      <c r="G21" s="143" t="s">
         <v>1111</v>
       </c>
       <c r="H21" s="40">
@@ -8979,47 +8939,55 @@
       <c r="AU21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV21" s="42" t="s">
+      <c r="AV21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW21" s="43"/>
-      <c r="AX21" s="53"/>
-      <c r="AY21" s="44"/>
-      <c r="AZ21" s="153">
+      <c r="AW21" s="41"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ21" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="151">
         <v>12</v>
       </c>
-      <c r="BA21" s="42" t="s">
+      <c r="BB21" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB21" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD21" s="41" t="s">
+      <c r="BD21" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BE21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF21" s="41"/>
-      <c r="BG21" s="41"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="61"/>
-      <c r="BK21" s="63"/>
-      <c r="BL21" s="63" t="s">
+      <c r="BF21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH21" s="41"/>
+      <c r="BI21" s="41"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="60"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="63"/>
+      <c r="BN21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM21" s="42"/>
-    </row>
-    <row r="22" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BO21" s="42"/>
+    </row>
+    <row r="22" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="147" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -9031,7 +8999,7 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="144" t="s">
+      <c r="G22" s="143" t="s">
         <v>1112</v>
       </c>
       <c r="H22" s="40">
@@ -9138,45 +9106,53 @@
       <c r="AS22" s="41"/>
       <c r="AT22" s="41"/>
       <c r="AU22" s="41"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="44"/>
-      <c r="AZ22" s="153">
+      <c r="AV22" s="41"/>
+      <c r="AW22" s="41"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ22" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="151">
         <v>12</v>
       </c>
-      <c r="BA22" s="42" t="s">
+      <c r="BB22" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB22" s="99">
+      <c r="BD22" s="99">
         <v>20</v>
       </c>
-      <c r="BC22" s="41">
+      <c r="BE22" s="41">
         <v>2</v>
       </c>
-      <c r="BD22" s="41">
+      <c r="BF22" s="41">
         <v>6</v>
       </c>
-      <c r="BE22" s="41">
+      <c r="BG22" s="41">
         <v>10</v>
       </c>
-      <c r="BF22" s="41"/>
-      <c r="BG22" s="41"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="61"/>
-      <c r="BK22" s="63"/>
-      <c r="BL22" s="63" t="s">
+      <c r="BH22" s="41"/>
+      <c r="BI22" s="41"/>
+      <c r="BJ22" s="42"/>
+      <c r="BK22" s="60"/>
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="63"/>
+      <c r="BN22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM22" s="42"/>
-    </row>
-    <row r="23" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BO22" s="42"/>
+    </row>
+    <row r="23" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="147" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -9188,7 +9164,7 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="144" t="s">
+      <c r="G23" s="143" t="s">
         <v>1116</v>
       </c>
       <c r="H23" s="40">
@@ -9295,45 +9271,53 @@
       <c r="AS23" s="41"/>
       <c r="AT23" s="41"/>
       <c r="AU23" s="41"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="53"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="153">
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="42"/>
+      <c r="AY23" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ23" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="151">
         <v>8</v>
       </c>
-      <c r="BA23" s="42" t="s">
+      <c r="BB23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB23" s="99">
+      <c r="BD23" s="99">
         <v>45</v>
       </c>
-      <c r="BC23" s="41" t="s">
+      <c r="BE23" s="41" t="s">
         <v>1125</v>
       </c>
-      <c r="BD23" s="41" t="s">
+      <c r="BF23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BE23" s="41" t="s">
+      <c r="BG23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF23" s="41"/>
-      <c r="BG23" s="41"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="61"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63" t="s">
+      <c r="BH23" s="41"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="60"/>
+      <c r="BL23" s="61"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM23" s="42"/>
-    </row>
-    <row r="24" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BO23" s="42"/>
+    </row>
+    <row r="24" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="147" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -9345,7 +9329,7 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="144" t="s">
+      <c r="G24" s="143" t="s">
         <v>1113</v>
       </c>
       <c r="H24" s="40">
@@ -9452,45 +9436,53 @@
       <c r="AS24" s="41"/>
       <c r="AT24" s="41"/>
       <c r="AU24" s="41"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="44"/>
-      <c r="AZ24" s="153">
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ24" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="151">
         <v>12</v>
       </c>
-      <c r="BA24" s="42" t="s">
+      <c r="BB24" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB24" s="99">
+      <c r="BD24" s="99">
         <v>50</v>
       </c>
-      <c r="BC24" s="41">
+      <c r="BE24" s="41">
         <v>2</v>
       </c>
-      <c r="BD24" s="41">
+      <c r="BF24" s="41">
         <v>8</v>
       </c>
-      <c r="BE24" s="41">
+      <c r="BG24" s="41">
         <v>10</v>
       </c>
-      <c r="BF24" s="41"/>
-      <c r="BG24" s="41"/>
-      <c r="BH24" s="42"/>
-      <c r="BI24" s="60"/>
-      <c r="BJ24" s="61"/>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="63" t="s">
+      <c r="BH24" s="41"/>
+      <c r="BI24" s="41"/>
+      <c r="BJ24" s="42"/>
+      <c r="BK24" s="60"/>
+      <c r="BL24" s="61"/>
+      <c r="BM24" s="63"/>
+      <c r="BN24" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM24" s="42"/>
-    </row>
-    <row r="25" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BO24" s="42"/>
+    </row>
+    <row r="25" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1120</v>
       </c>
-      <c r="C25" s="148" t="s">
+      <c r="C25" s="147" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -9502,7 +9494,7 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="144" t="s">
+      <c r="G25" s="143" t="s">
         <v>1114</v>
       </c>
       <c r="H25" s="40">
@@ -9609,45 +9601,53 @@
       <c r="AS25" s="41"/>
       <c r="AT25" s="41"/>
       <c r="AU25" s="41"/>
-      <c r="AV25" s="42"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="153">
+      <c r="AV25" s="41"/>
+      <c r="AW25" s="41"/>
+      <c r="AX25" s="42"/>
+      <c r="AY25" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ25" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="151">
         <v>12</v>
       </c>
-      <c r="BA25" s="42" t="s">
+      <c r="BB25" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB25" s="99">
+      <c r="BD25" s="99">
         <v>150</v>
       </c>
-      <c r="BC25" s="41">
+      <c r="BE25" s="41">
         <v>2</v>
       </c>
-      <c r="BD25" s="41">
+      <c r="BF25" s="41">
         <v>5</v>
       </c>
-      <c r="BE25" s="41">
+      <c r="BG25" s="41">
         <v>12.4</v>
       </c>
-      <c r="BF25" s="41"/>
-      <c r="BG25" s="41"/>
-      <c r="BH25" s="42"/>
-      <c r="BI25" s="60"/>
-      <c r="BJ25" s="61"/>
-      <c r="BK25" s="63"/>
-      <c r="BL25" s="63" t="s">
+      <c r="BH25" s="41"/>
+      <c r="BI25" s="41"/>
+      <c r="BJ25" s="42"/>
+      <c r="BK25" s="60"/>
+      <c r="BL25" s="61"/>
+      <c r="BM25" s="63"/>
+      <c r="BN25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM25" s="42"/>
-    </row>
-    <row r="26" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BO25" s="42"/>
+    </row>
+    <row r="26" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1119</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="147" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -9659,7 +9659,7 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="144" t="s">
+      <c r="G26" s="143" t="s">
         <v>1115</v>
       </c>
       <c r="H26" s="40">
@@ -9766,45 +9766,53 @@
       <c r="AS26" s="41"/>
       <c r="AT26" s="41"/>
       <c r="AU26" s="41"/>
-      <c r="AV26" s="42"/>
-      <c r="AW26" s="43"/>
-      <c r="AX26" s="53"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="153">
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="42"/>
+      <c r="AY26" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ26" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="151">
         <v>12</v>
       </c>
-      <c r="BA26" s="42" t="s">
+      <c r="BB26" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB26" s="99">
+      <c r="BD26" s="99">
         <v>200</v>
       </c>
-      <c r="BC26" s="41">
+      <c r="BE26" s="41">
         <v>2</v>
       </c>
-      <c r="BD26" s="41">
+      <c r="BF26" s="41">
         <v>6</v>
       </c>
-      <c r="BE26" s="41">
+      <c r="BG26" s="41">
         <v>10</v>
       </c>
-      <c r="BF26" s="41"/>
-      <c r="BG26" s="41"/>
-      <c r="BH26" s="42"/>
-      <c r="BI26" s="60"/>
-      <c r="BJ26" s="61"/>
-      <c r="BK26" s="63"/>
-      <c r="BL26" s="63" t="s">
+      <c r="BH26" s="41"/>
+      <c r="BI26" s="41"/>
+      <c r="BJ26" s="42"/>
+      <c r="BK26" s="60"/>
+      <c r="BL26" s="61"/>
+      <c r="BM26" s="63"/>
+      <c r="BN26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM26" s="42"/>
-    </row>
-    <row r="27" spans="1:65" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BO26" s="42"/>
+    </row>
+    <row r="27" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1118</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -9816,7 +9824,7 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="144" t="s">
+      <c r="G27" s="143" t="s">
         <v>1115</v>
       </c>
       <c r="H27" s="40">
@@ -9923,45 +9931,53 @@
       <c r="AS27" s="41"/>
       <c r="AT27" s="41"/>
       <c r="AU27" s="41"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="43"/>
-      <c r="AX27" s="53"/>
-      <c r="AY27" s="44"/>
-      <c r="AZ27" s="153">
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="43">
+        <v>3</v>
+      </c>
+      <c r="AZ27" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="151">
         <v>12</v>
       </c>
-      <c r="BA27" s="42" t="s">
+      <c r="BB27" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BC27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BB27" s="99">
+      <c r="BD27" s="99">
         <v>320</v>
       </c>
-      <c r="BC27" s="41">
+      <c r="BE27" s="41">
         <v>2</v>
       </c>
-      <c r="BD27" s="41">
+      <c r="BF27" s="41">
         <v>6</v>
       </c>
-      <c r="BE27" s="41">
+      <c r="BG27" s="41">
         <v>10</v>
       </c>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="60"/>
-      <c r="BJ27" s="61"/>
-      <c r="BK27" s="63"/>
-      <c r="BL27" s="63" t="s">
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="41"/>
+      <c r="BJ27" s="42"/>
+      <c r="BK27" s="60"/>
+      <c r="BL27" s="61"/>
+      <c r="BM27" s="63"/>
+      <c r="BN27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM27" s="42"/>
-    </row>
-    <row r="28" spans="1:65" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BO27" s="42"/>
+    </row>
+    <row r="28" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1117</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="147" t="s">
         <v>1105</v>
       </c>
       <c r="D28" s="25">
@@ -9973,8 +9989,8 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="144" t="s">
-        <v>1132</v>
+      <c r="G28" s="143" t="s">
+        <v>1131</v>
       </c>
       <c r="H28" s="40">
         <v>60</v>
@@ -10080,46 +10096,54 @@
       <c r="AS28" s="41"/>
       <c r="AT28" s="41"/>
       <c r="AU28" s="41"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="44"/>
-      <c r="AZ28" s="153">
+      <c r="AV28" s="41"/>
+      <c r="AW28" s="41"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="43">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="151">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="151">
         <v>8</v>
       </c>
-      <c r="BA28" s="42" t="s">
+      <c r="BB28" s="44">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BB28" s="99">
+      <c r="BD28" s="99">
         <v>200</v>
       </c>
-      <c r="BC28" s="41">
+      <c r="BE28" s="41">
         <v>3</v>
       </c>
-      <c r="BD28" s="41">
+      <c r="BF28" s="41">
         <v>1.2645999999999999</v>
       </c>
-      <c r="BE28" s="41" t="s">
+      <c r="BG28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BF28" s="41"/>
-      <c r="BG28" s="41"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="61"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63" t="s">
+      <c r="BH28" s="41"/>
+      <c r="BI28" s="41"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="60"/>
+      <c r="BL28" s="61"/>
+      <c r="BM28" s="63"/>
+      <c r="BN28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BM28" s="42"/>
-    </row>
-    <row r="29" spans="1:65" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO28" s="42"/>
+    </row>
+    <row r="29" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
-      <c r="C29" s="150"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="140"/>
+      <c r="G29" s="139"/>
       <c r="H29" s="5"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -10162,429 +10186,447 @@
       <c r="AS29" s="8"/>
       <c r="AT29" s="8"/>
       <c r="AU29" s="8"/>
-      <c r="AV29" s="6"/>
-      <c r="AW29" s="7"/>
-      <c r="AX29" s="48"/>
-      <c r="AY29" s="10"/>
-      <c r="AZ29" s="155"/>
-      <c r="BA29" s="6"/>
-      <c r="BB29" s="100"/>
-      <c r="BC29" s="8"/>
-      <c r="BD29" s="8"/>
+      <c r="AV29" s="8"/>
+      <c r="AW29" s="8"/>
+      <c r="AX29" s="6"/>
+      <c r="AY29" s="7"/>
+      <c r="AZ29" s="153"/>
+      <c r="BA29" s="153"/>
+      <c r="BB29" s="186"/>
+      <c r="BC29" s="6"/>
+      <c r="BD29" s="100"/>
       <c r="BE29" s="8"/>
       <c r="BF29" s="8"/>
       <c r="BG29" s="8"/>
-      <c r="BH29" s="6"/>
-      <c r="BI29" s="7"/>
-      <c r="BJ29" s="48"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="64"/>
-      <c r="BM29" s="6"/>
-    </row>
-    <row r="33" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW33" s="9"/>
-      <c r="AX33" s="2"/>
-      <c r="AY33" s="2"/>
+      <c r="BH29" s="8"/>
+      <c r="BI29" s="8"/>
+      <c r="BJ29" s="6"/>
+      <c r="BK29" s="7"/>
+      <c r="BL29" s="48"/>
+      <c r="BM29" s="64"/>
+      <c r="BN29" s="64"/>
+      <c r="BO29" s="6"/>
+    </row>
+    <row r="33" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY33" s="9"/>
       <c r="AZ33" s="2"/>
-      <c r="BA33" s="45"/>
-      <c r="BH33" s="45"/>
-      <c r="BI33" s="45"/>
-      <c r="BK33" s="2"/>
-      <c r="BL33"/>
-      <c r="BM33"/>
-    </row>
-    <row r="34" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW34" s="9"/>
-      <c r="AX34" s="2"/>
-      <c r="AY34" s="2"/>
+      <c r="BA33" s="2"/>
+      <c r="BB33" s="187"/>
+      <c r="BC33" s="45"/>
+      <c r="BJ33" s="45"/>
+      <c r="BK33" s="45"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33"/>
+      <c r="BO33"/>
+    </row>
+    <row r="34" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY34" s="9"/>
       <c r="AZ34" s="2"/>
-      <c r="BA34" s="45"/>
-      <c r="BH34" s="45"/>
-      <c r="BI34" s="45"/>
-      <c r="BK34" s="2"/>
-      <c r="BL34"/>
-      <c r="BM34"/>
-    </row>
-    <row r="35" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW35" s="9"/>
-      <c r="AX35" s="2"/>
-      <c r="AY35" s="2"/>
+      <c r="BA34" s="2"/>
+      <c r="BB34" s="187"/>
+      <c r="BC34" s="45"/>
+      <c r="BJ34" s="45"/>
+      <c r="BK34" s="45"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34"/>
+      <c r="BO34"/>
+    </row>
+    <row r="35" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY35" s="9"/>
       <c r="AZ35" s="2"/>
-      <c r="BA35" s="45"/>
-      <c r="BH35" s="45"/>
-      <c r="BI35" s="45"/>
-      <c r="BK35" s="2"/>
-      <c r="BL35"/>
-      <c r="BM35"/>
-    </row>
-    <row r="36" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW36" s="9"/>
-      <c r="AX36" s="2"/>
-      <c r="AY36" s="2"/>
+      <c r="BA35" s="2"/>
+      <c r="BB35" s="187"/>
+      <c r="BC35" s="45"/>
+      <c r="BJ35" s="45"/>
+      <c r="BK35" s="45"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+    </row>
+    <row r="36" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY36" s="9"/>
       <c r="AZ36" s="2"/>
-      <c r="BA36" s="45"/>
-      <c r="BH36" s="45"/>
-      <c r="BI36" s="45"/>
-      <c r="BK36" s="2"/>
-      <c r="BL36"/>
-      <c r="BM36"/>
-    </row>
-    <row r="37" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW37" s="9"/>
-      <c r="AX37" s="2"/>
-      <c r="AY37" s="2"/>
+      <c r="BA36" s="2"/>
+      <c r="BB36" s="187"/>
+      <c r="BC36" s="45"/>
+      <c r="BJ36" s="45"/>
+      <c r="BK36" s="45"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+    </row>
+    <row r="37" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY37" s="9"/>
       <c r="AZ37" s="2"/>
-      <c r="BA37" s="45"/>
-      <c r="BH37" s="45"/>
-      <c r="BI37" s="45"/>
-      <c r="BK37" s="2"/>
-      <c r="BL37"/>
-      <c r="BM37"/>
-    </row>
-    <row r="38" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW38" s="9"/>
-      <c r="AX38" s="2"/>
-      <c r="AY38" s="2"/>
+      <c r="BA37" s="2"/>
+      <c r="BB37" s="187"/>
+      <c r="BC37" s="45"/>
+      <c r="BJ37" s="45"/>
+      <c r="BK37" s="45"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+    </row>
+    <row r="38" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY38" s="9"/>
       <c r="AZ38" s="2"/>
-      <c r="BA38" s="45"/>
-      <c r="BH38" s="45"/>
-      <c r="BI38" s="45"/>
-      <c r="BK38" s="2"/>
-      <c r="BL38"/>
-      <c r="BM38"/>
-    </row>
-    <row r="39" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW39" s="9"/>
-      <c r="AX39" s="2"/>
-      <c r="AY39" s="2"/>
+      <c r="BA38" s="2"/>
+      <c r="BB38" s="187"/>
+      <c r="BC38" s="45"/>
+      <c r="BJ38" s="45"/>
+      <c r="BK38" s="45"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+    </row>
+    <row r="39" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY39" s="9"/>
       <c r="AZ39" s="2"/>
-      <c r="BA39" s="45"/>
-      <c r="BH39" s="45"/>
-      <c r="BI39" s="45"/>
-      <c r="BK39" s="2"/>
-      <c r="BL39"/>
-      <c r="BM39"/>
-    </row>
-    <row r="40" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW40" s="9"/>
-      <c r="AX40" s="2"/>
-      <c r="AY40" s="2"/>
+      <c r="BA39" s="2"/>
+      <c r="BB39" s="187"/>
+      <c r="BC39" s="45"/>
+      <c r="BJ39" s="45"/>
+      <c r="BK39" s="45"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+    </row>
+    <row r="40" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY40" s="9"/>
       <c r="AZ40" s="2"/>
-      <c r="BA40" s="45"/>
-      <c r="BH40" s="45"/>
-      <c r="BI40" s="45"/>
-      <c r="BK40" s="2"/>
-      <c r="BL40"/>
-      <c r="BM40"/>
-    </row>
-    <row r="41" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW41" s="9"/>
-      <c r="AX41" s="2"/>
-      <c r="AY41" s="2"/>
+      <c r="BA40" s="2"/>
+      <c r="BB40" s="187"/>
+      <c r="BC40" s="45"/>
+      <c r="BJ40" s="45"/>
+      <c r="BK40" s="45"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40"/>
+      <c r="BO40"/>
+    </row>
+    <row r="41" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY41" s="9"/>
       <c r="AZ41" s="2"/>
-      <c r="BA41" s="45"/>
-      <c r="BH41" s="45"/>
-      <c r="BI41" s="45"/>
-      <c r="BK41" s="2"/>
-      <c r="BL41"/>
-      <c r="BM41"/>
-    </row>
-    <row r="42" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW42" s="9"/>
-      <c r="AX42" s="2"/>
-      <c r="AY42" s="2"/>
+      <c r="BA41" s="2"/>
+      <c r="BB41" s="187"/>
+      <c r="BC41" s="45"/>
+      <c r="BJ41" s="45"/>
+      <c r="BK41" s="45"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+    </row>
+    <row r="42" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY42" s="9"/>
       <c r="AZ42" s="2"/>
-      <c r="BA42" s="45"/>
-      <c r="BH42" s="45"/>
-      <c r="BI42" s="45"/>
-      <c r="BK42" s="2"/>
-      <c r="BL42"/>
-      <c r="BM42"/>
-    </row>
-    <row r="43" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW43" s="9"/>
-      <c r="AX43" s="2"/>
-      <c r="AY43" s="2"/>
+      <c r="BA42" s="2"/>
+      <c r="BB42" s="187"/>
+      <c r="BC42" s="45"/>
+      <c r="BJ42" s="45"/>
+      <c r="BK42" s="45"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42"/>
+      <c r="BO42"/>
+    </row>
+    <row r="43" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY43" s="9"/>
       <c r="AZ43" s="2"/>
-      <c r="BA43" s="45"/>
-      <c r="BH43" s="45"/>
-      <c r="BI43" s="45"/>
-      <c r="BK43" s="2"/>
-      <c r="BL43"/>
-      <c r="BM43"/>
-    </row>
-    <row r="44" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW44" s="9"/>
-      <c r="AX44" s="2"/>
-      <c r="AY44" s="2"/>
+      <c r="BA43" s="2"/>
+      <c r="BB43" s="187"/>
+      <c r="BC43" s="45"/>
+      <c r="BJ43" s="45"/>
+      <c r="BK43" s="45"/>
+      <c r="BM43" s="2"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+    </row>
+    <row r="44" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY44" s="9"/>
       <c r="AZ44" s="2"/>
-      <c r="BA44" s="45"/>
-      <c r="BH44" s="45"/>
-      <c r="BI44" s="45"/>
-      <c r="BK44" s="2"/>
-      <c r="BL44"/>
-      <c r="BM44"/>
-    </row>
-    <row r="45" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW45" s="9"/>
-      <c r="AX45" s="2"/>
-      <c r="AY45" s="2"/>
+      <c r="BA44" s="2"/>
+      <c r="BB44" s="187"/>
+      <c r="BC44" s="45"/>
+      <c r="BJ44" s="45"/>
+      <c r="BK44" s="45"/>
+      <c r="BM44" s="2"/>
+      <c r="BN44"/>
+      <c r="BO44"/>
+    </row>
+    <row r="45" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY45" s="9"/>
       <c r="AZ45" s="2"/>
-      <c r="BA45" s="45"/>
-      <c r="BH45" s="45"/>
-      <c r="BI45" s="45"/>
-      <c r="BK45" s="2"/>
-      <c r="BL45"/>
-      <c r="BM45"/>
-    </row>
-    <row r="46" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW46" s="9"/>
-      <c r="AX46" s="2"/>
-      <c r="AY46" s="2"/>
+      <c r="BA45" s="2"/>
+      <c r="BB45" s="187"/>
+      <c r="BC45" s="45"/>
+      <c r="BJ45" s="45"/>
+      <c r="BK45" s="45"/>
+      <c r="BM45" s="2"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+    </row>
+    <row r="46" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY46" s="9"/>
       <c r="AZ46" s="2"/>
-      <c r="BA46" s="45"/>
-      <c r="BH46" s="45"/>
-      <c r="BI46" s="45"/>
-      <c r="BK46" s="2"/>
-      <c r="BL46"/>
-      <c r="BM46"/>
-    </row>
-    <row r="47" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW47" s="9"/>
-      <c r="AX47" s="2"/>
-      <c r="AY47" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="187"/>
+      <c r="BC46" s="45"/>
+      <c r="BJ46" s="45"/>
+      <c r="BK46" s="45"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+    </row>
+    <row r="47" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY47" s="9"/>
       <c r="AZ47" s="2"/>
-      <c r="BA47" s="45"/>
-      <c r="BH47" s="45"/>
-      <c r="BI47" s="45"/>
-      <c r="BK47" s="2"/>
-      <c r="BL47"/>
-      <c r="BM47"/>
-    </row>
-    <row r="48" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW48" s="9"/>
-      <c r="AX48" s="2"/>
-      <c r="AY48" s="2"/>
+      <c r="BA47" s="2"/>
+      <c r="BB47" s="187"/>
+      <c r="BC47" s="45"/>
+      <c r="BJ47" s="45"/>
+      <c r="BK47" s="45"/>
+      <c r="BM47" s="2"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+    </row>
+    <row r="48" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY48" s="9"/>
       <c r="AZ48" s="2"/>
-      <c r="BA48" s="45"/>
-      <c r="BH48" s="45"/>
-      <c r="BI48" s="45"/>
-      <c r="BK48" s="2"/>
-      <c r="BL48"/>
-      <c r="BM48"/>
-    </row>
-    <row r="49" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW49" s="9"/>
-      <c r="AX49" s="2"/>
-      <c r="AY49" s="2"/>
+      <c r="BA48" s="2"/>
+      <c r="BB48" s="187"/>
+      <c r="BC48" s="45"/>
+      <c r="BJ48" s="45"/>
+      <c r="BK48" s="45"/>
+      <c r="BM48" s="2"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+    </row>
+    <row r="49" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY49" s="9"/>
       <c r="AZ49" s="2"/>
-      <c r="BA49" s="45"/>
-      <c r="BH49" s="45"/>
-      <c r="BI49" s="45"/>
-      <c r="BK49" s="2"/>
-      <c r="BL49"/>
-      <c r="BM49"/>
-    </row>
-    <row r="50" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW50" s="9"/>
-      <c r="AX50" s="2"/>
-      <c r="AY50" s="2"/>
+      <c r="BA49" s="2"/>
+      <c r="BB49" s="187"/>
+      <c r="BC49" s="45"/>
+      <c r="BJ49" s="45"/>
+      <c r="BK49" s="45"/>
+      <c r="BM49" s="2"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+    </row>
+    <row r="50" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY50" s="9"/>
       <c r="AZ50" s="2"/>
-      <c r="BA50" s="45"/>
-      <c r="BH50" s="45"/>
-      <c r="BI50" s="45"/>
-      <c r="BK50" s="2"/>
-      <c r="BL50"/>
-      <c r="BM50"/>
-    </row>
-    <row r="51" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW51" s="9"/>
-      <c r="AX51" s="2"/>
-      <c r="AY51" s="2"/>
+      <c r="BA50" s="2"/>
+      <c r="BB50" s="187"/>
+      <c r="BC50" s="45"/>
+      <c r="BJ50" s="45"/>
+      <c r="BK50" s="45"/>
+      <c r="BM50" s="2"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+    </row>
+    <row r="51" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY51" s="9"/>
       <c r="AZ51" s="2"/>
-      <c r="BA51" s="45"/>
-      <c r="BH51" s="45"/>
-      <c r="BI51" s="45"/>
-      <c r="BK51" s="2"/>
-      <c r="BL51"/>
-      <c r="BM51"/>
-    </row>
-    <row r="52" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW52" s="9"/>
-      <c r="AX52" s="2"/>
-      <c r="AY52" s="2"/>
+      <c r="BA51" s="2"/>
+      <c r="BB51" s="187"/>
+      <c r="BC51" s="45"/>
+      <c r="BJ51" s="45"/>
+      <c r="BK51" s="45"/>
+      <c r="BM51" s="2"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+    </row>
+    <row r="52" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY52" s="9"/>
       <c r="AZ52" s="2"/>
-      <c r="BA52" s="45"/>
-      <c r="BH52" s="45"/>
-      <c r="BI52" s="45"/>
-      <c r="BK52" s="2"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-    </row>
-    <row r="53" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW53" s="9"/>
-      <c r="AX53" s="2"/>
-      <c r="AY53" s="2"/>
+      <c r="BA52" s="2"/>
+      <c r="BB52" s="187"/>
+      <c r="BC52" s="45"/>
+      <c r="BJ52" s="45"/>
+      <c r="BK52" s="45"/>
+      <c r="BM52" s="2"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+    </row>
+    <row r="53" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY53" s="9"/>
       <c r="AZ53" s="2"/>
-      <c r="BA53" s="45"/>
-      <c r="BH53" s="45"/>
-      <c r="BI53" s="45"/>
-      <c r="BK53" s="2"/>
-      <c r="BL53"/>
-      <c r="BM53"/>
-    </row>
-    <row r="54" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW54" s="9"/>
-      <c r="AX54" s="2"/>
-      <c r="AY54" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="187"/>
+      <c r="BC53" s="45"/>
+      <c r="BJ53" s="45"/>
+      <c r="BK53" s="45"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+    </row>
+    <row r="54" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY54" s="9"/>
       <c r="AZ54" s="2"/>
-      <c r="BA54" s="45"/>
-      <c r="BH54" s="45"/>
-      <c r="BI54" s="45"/>
-      <c r="BK54" s="2"/>
-      <c r="BL54"/>
-      <c r="BM54"/>
-    </row>
-    <row r="55" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW55" s="9"/>
-      <c r="AX55" s="2"/>
-      <c r="AY55" s="2"/>
+      <c r="BA54" s="2"/>
+      <c r="BB54" s="187"/>
+      <c r="BC54" s="45"/>
+      <c r="BJ54" s="45"/>
+      <c r="BK54" s="45"/>
+      <c r="BM54" s="2"/>
+      <c r="BN54"/>
+      <c r="BO54"/>
+    </row>
+    <row r="55" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY55" s="9"/>
       <c r="AZ55" s="2"/>
-      <c r="BA55" s="45"/>
-      <c r="BH55" s="45"/>
-      <c r="BI55" s="45"/>
-      <c r="BK55" s="2"/>
-      <c r="BL55"/>
-      <c r="BM55"/>
-    </row>
-    <row r="56" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW56" s="9"/>
-      <c r="AX56" s="2"/>
-      <c r="AY56" s="2"/>
+      <c r="BA55" s="2"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="45"/>
+      <c r="BJ55" s="45"/>
+      <c r="BK55" s="45"/>
+      <c r="BM55" s="2"/>
+      <c r="BN55"/>
+      <c r="BO55"/>
+    </row>
+    <row r="56" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY56" s="9"/>
       <c r="AZ56" s="2"/>
-      <c r="BA56" s="45"/>
-      <c r="BH56" s="45"/>
-      <c r="BI56" s="45"/>
-      <c r="BK56" s="2"/>
-      <c r="BL56"/>
-      <c r="BM56"/>
-    </row>
-    <row r="57" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW57" s="9"/>
-      <c r="AX57" s="2"/>
-      <c r="AY57" s="2"/>
+      <c r="BA56" s="2"/>
+      <c r="BB56" s="187"/>
+      <c r="BC56" s="45"/>
+      <c r="BJ56" s="45"/>
+      <c r="BK56" s="45"/>
+      <c r="BM56" s="2"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+    </row>
+    <row r="57" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY57" s="9"/>
       <c r="AZ57" s="2"/>
-      <c r="BA57" s="45"/>
-      <c r="BH57" s="45"/>
-      <c r="BI57" s="45"/>
-      <c r="BK57" s="2"/>
-      <c r="BL57"/>
-      <c r="BM57"/>
-    </row>
-    <row r="58" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW58" s="9"/>
-      <c r="AX58" s="2"/>
-      <c r="AY58" s="2"/>
+      <c r="BA57" s="2"/>
+      <c r="BB57" s="187"/>
+      <c r="BC57" s="45"/>
+      <c r="BJ57" s="45"/>
+      <c r="BK57" s="45"/>
+      <c r="BM57" s="2"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+    </row>
+    <row r="58" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY58" s="9"/>
       <c r="AZ58" s="2"/>
-      <c r="BA58" s="45"/>
-      <c r="BH58" s="45"/>
-      <c r="BI58" s="45"/>
-      <c r="BK58" s="2"/>
-      <c r="BL58"/>
-      <c r="BM58"/>
-    </row>
-    <row r="59" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW59" s="9"/>
-      <c r="AX59" s="2"/>
-      <c r="AY59" s="2"/>
+      <c r="BA58" s="2"/>
+      <c r="BB58" s="187"/>
+      <c r="BC58" s="45"/>
+      <c r="BJ58" s="45"/>
+      <c r="BK58" s="45"/>
+      <c r="BM58" s="2"/>
+      <c r="BN58"/>
+      <c r="BO58"/>
+    </row>
+    <row r="59" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY59" s="9"/>
       <c r="AZ59" s="2"/>
-      <c r="BA59" s="45"/>
-      <c r="BH59" s="45"/>
-      <c r="BI59" s="45"/>
-      <c r="BK59" s="2"/>
-      <c r="BL59"/>
-      <c r="BM59"/>
-    </row>
-    <row r="60" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW60" s="9"/>
-      <c r="AX60" s="2"/>
-      <c r="AY60" s="2"/>
+      <c r="BA59" s="2"/>
+      <c r="BB59" s="187"/>
+      <c r="BC59" s="45"/>
+      <c r="BJ59" s="45"/>
+      <c r="BK59" s="45"/>
+      <c r="BM59" s="2"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+    </row>
+    <row r="60" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY60" s="9"/>
       <c r="AZ60" s="2"/>
-      <c r="BA60" s="45"/>
-      <c r="BH60" s="45"/>
-      <c r="BI60" s="45"/>
-      <c r="BK60" s="2"/>
-      <c r="BL60"/>
-      <c r="BM60"/>
-    </row>
-    <row r="61" spans="49:65" x14ac:dyDescent="0.25">
-      <c r="AW61" s="9"/>
-      <c r="AX61" s="2"/>
-      <c r="AY61" s="2"/>
+      <c r="BA60" s="2"/>
+      <c r="BB60" s="187"/>
+      <c r="BC60" s="45"/>
+      <c r="BJ60" s="45"/>
+      <c r="BK60" s="45"/>
+      <c r="BM60" s="2"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+    </row>
+    <row r="61" spans="51:67" x14ac:dyDescent="0.25">
+      <c r="AY61" s="9"/>
       <c r="AZ61" s="2"/>
-      <c r="BA61" s="45"/>
-      <c r="BH61" s="45"/>
-      <c r="BI61" s="45"/>
-      <c r="BK61" s="2"/>
-      <c r="BL61"/>
-      <c r="BM61"/>
+      <c r="BA61" s="2"/>
+      <c r="BB61" s="187"/>
+      <c r="BC61" s="45"/>
+      <c r="BJ61" s="45"/>
+      <c r="BK61" s="45"/>
+      <c r="BM61" s="2"/>
+      <c r="BN61"/>
+      <c r="BO61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BI2:BM2"/>
+    <mergeCell ref="BK2:BO2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="BB2:BH2"/>
-    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="AQ2:AX2"/>
+    <mergeCell ref="BD2:BJ2"/>
+    <mergeCell ref="AY2:BC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BI4:BM30 AW4:BA16 BD4:BH16 AC4:AV30 BB4 AW17:BH30">
-    <cfRule type="expression" dxfId="34" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BK4:BO30 BF4:BJ16 AC4:AX30 BD4 AY4:AY29 BC4:BC16 BC17:BJ28 AY30:AZ30 BA29:BJ30 BA4:BA28">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="32" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="30" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="47" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="48" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB5:BB16">
-    <cfRule type="expression" dxfId="26" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="BD5:BD16">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC4:BC16">
-    <cfRule type="expression" dxfId="24" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="BE4:BE16">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+      <formula>$A4="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ4:AZ29">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+      <formula>$A4="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+      <formula>$A4="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB4:BB28">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+      <formula>$A4="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10645,74 +10687,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="157" t="s">
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="160" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="167"/>
-      <c r="U2" s="168" t="s">
+      <c r="J2" s="161"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="169"/>
-      <c r="AI2" s="169"/>
-      <c r="AJ2" s="170"/>
-      <c r="AK2" s="174" t="s">
+      <c r="V2" s="172"/>
+      <c r="W2" s="172"/>
+      <c r="X2" s="172"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="172"/>
+      <c r="AB2" s="172"/>
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="172"/>
+      <c r="AE2" s="172"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="172"/>
+      <c r="AH2" s="172"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="173"/>
+      <c r="AK2" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="172"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="172"/>
-      <c r="AO2" s="172"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="174" t="s">
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="176"/>
+      <c r="AQ2" s="183" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="171"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="176" t="s">
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="184"/>
+      <c r="AU2" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="177"/>
-      <c r="AW2" s="177"/>
-      <c r="AX2" s="178"/>
-      <c r="AY2" s="157" t="s">
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="160" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="158"/>
-      <c r="BA2" s="158"/>
-      <c r="BB2" s="158"/>
-      <c r="BC2" s="159"/>
+      <c r="AZ2" s="161"/>
+      <c r="BA2" s="161"/>
+      <c r="BB2" s="161"/>
+      <c r="BC2" s="162"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -10895,7 +10937,7 @@
       <c r="G4" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="109" t="s">
@@ -11055,7 +11097,7 @@
       <c r="G5" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="180" t="s">
+      <c r="H5" s="156" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="110" t="s">
@@ -11215,7 +11257,7 @@
       <c r="G6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="110" t="s">
@@ -11375,7 +11417,7 @@
       <c r="G7" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="110" t="s">
@@ -11535,7 +11577,7 @@
       <c r="G8" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="179" t="s">
+      <c r="H8" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="110" t="s">
@@ -11696,7 +11738,7 @@
       <c r="G9" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="179" t="s">
+      <c r="H9" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="110" t="s">
@@ -11857,7 +11899,7 @@
       <c r="G10" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="179" t="s">
+      <c r="H10" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="110" t="s">
@@ -12018,7 +12060,7 @@
       <c r="G11" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H11" s="179" t="s">
+      <c r="H11" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="110" t="s">
@@ -12178,7 +12220,7 @@
       <c r="G12" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="179" t="s">
+      <c r="H12" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="110" t="s">
@@ -12338,7 +12380,7 @@
       <c r="G13" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="H13" s="179" t="s">
+      <c r="H13" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="110" t="s">
@@ -12498,7 +12540,7 @@
       <c r="G14" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="179" t="s">
+      <c r="H14" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="110" t="s">
@@ -12658,7 +12700,7 @@
       <c r="G15" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="H15" s="179" t="s">
+      <c r="H15" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="110" t="s">
@@ -12818,7 +12860,7 @@
       <c r="G16" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="179" t="s">
+      <c r="H16" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="110" t="s">
@@ -12978,7 +13020,7 @@
       <c r="G17" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="H17" s="180" t="s">
+      <c r="H17" s="156" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="110" t="s">
@@ -13138,7 +13180,7 @@
       <c r="G18" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="H18" s="179" t="s">
+      <c r="H18" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="110" t="s">
@@ -13298,7 +13340,7 @@
       <c r="G19" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="179" t="s">
+      <c r="H19" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="110" t="s">
@@ -13458,7 +13500,7 @@
       <c r="G20" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="H20" s="179" t="s">
+      <c r="H20" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="110" t="s">
@@ -13616,7 +13658,7 @@
       <c r="G21" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="H21" s="179" t="s">
+      <c r="H21" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="110" t="s">
@@ -13759,7 +13801,7 @@
       <c r="G22" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="H22" s="179" t="s">
+      <c r="H22" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="110" t="s">
@@ -13844,7 +13886,7 @@
       <c r="G23" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="H23" s="179" t="s">
+      <c r="H23" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="110" t="s">
@@ -13925,7 +13967,7 @@
       <c r="G24" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="H24" s="179" t="s">
+      <c r="H24" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="110" t="s">
@@ -14006,7 +14048,7 @@
       <c r="G25" s="39" t="s">
         <v>1066</v>
       </c>
-      <c r="H25" s="179" t="s">
+      <c r="H25" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="110" t="s">
@@ -14091,7 +14133,7 @@
       <c r="G26" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="H26" s="179" t="s">
+      <c r="H26" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="110" t="s">
@@ -14176,7 +14218,7 @@
       <c r="G27" s="39" t="s">
         <v>1077</v>
       </c>
-      <c r="H27" s="179" t="s">
+      <c r="H27" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="110" t="s">
@@ -14261,7 +14303,7 @@
       <c r="G28" s="39" t="s">
         <v>1079</v>
       </c>
-      <c r="H28" s="179" t="s">
+      <c r="H28" s="155" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="110" t="s">

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1141">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -4617,6 +4617,18 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4692,24 +4704,96 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4778,34 +4862,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5292,10 +5348,10 @@
   <dimension ref="A1:BO61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AP4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AM16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BA4" sqref="BA4"/>
+      <selection pane="bottomRight" activeCell="AS22" sqref="AS22:AT28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5331,7 +5387,7 @@
     <col min="50" max="51" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.33203125" style="185" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="4.88671875" style="2" customWidth="1"/>
     <col min="57" max="57" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5347,88 +5403,88 @@
   <sheetData>
     <row r="1" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="163" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="169" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="165"/>
-      <c r="W2" s="161" t="s">
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="167" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="169"/>
-      <c r="AA2" s="169"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="169"/>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="171" t="s">
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="176"/>
+      <c r="AE2" s="177" t="s">
         <v>1126</v>
       </c>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="172"/>
-      <c r="AL2" s="172"/>
-      <c r="AM2" s="172"/>
-      <c r="AN2" s="172"/>
-      <c r="AO2" s="172"/>
-      <c r="AP2" s="173"/>
-      <c r="AQ2" s="174" t="s">
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="178"/>
+      <c r="AM2" s="178"/>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="179"/>
+      <c r="AQ2" s="180" t="s">
         <v>1130</v>
       </c>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="175"/>
-      <c r="AT2" s="175"/>
-      <c r="AU2" s="175"/>
-      <c r="AV2" s="175"/>
-      <c r="AW2" s="175"/>
-      <c r="AX2" s="176"/>
-      <c r="AY2" s="180" t="s">
+      <c r="AR2" s="181"/>
+      <c r="AS2" s="181"/>
+      <c r="AT2" s="181"/>
+      <c r="AU2" s="181"/>
+      <c r="AV2" s="181"/>
+      <c r="AW2" s="181"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="186" t="s">
         <v>1138</v>
       </c>
-      <c r="AZ2" s="181"/>
-      <c r="BA2" s="181"/>
-      <c r="BB2" s="181"/>
-      <c r="BC2" s="182"/>
-      <c r="BD2" s="177" t="s">
+      <c r="AZ2" s="187"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="183" t="s">
         <v>1129</v>
       </c>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="178"/>
-      <c r="BH2" s="178"/>
-      <c r="BI2" s="178"/>
-      <c r="BJ2" s="179"/>
-      <c r="BK2" s="160" t="s">
+      <c r="BE2" s="184"/>
+      <c r="BF2" s="184"/>
+      <c r="BG2" s="184"/>
+      <c r="BH2" s="184"/>
+      <c r="BI2" s="184"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="166" t="s">
         <v>1047</v>
       </c>
-      <c r="BL2" s="161"/>
-      <c r="BM2" s="161"/>
-      <c r="BN2" s="161"/>
-      <c r="BO2" s="162"/>
+      <c r="BL2" s="167"/>
+      <c r="BM2" s="167"/>
+      <c r="BN2" s="167"/>
+      <c r="BO2" s="168"/>
     </row>
     <row r="3" spans="1:67" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -5582,10 +5638,10 @@
       <c r="AY3" s="75" t="s">
         <v>1139</v>
       </c>
-      <c r="AZ3" s="189" t="s">
+      <c r="AZ3" s="164" t="s">
         <v>1132</v>
       </c>
-      <c r="BA3" s="190" t="s">
+      <c r="BA3" s="165" t="s">
         <v>1140</v>
       </c>
       <c r="BB3" s="77" t="s">
@@ -7527,7 +7583,7 @@
       <c r="AZ13" s="151">
         <v>0</v>
       </c>
-      <c r="BA13" s="188" t="s">
+      <c r="BA13" s="163" t="s">
         <v>1133</v>
       </c>
       <c r="BB13" s="44">
@@ -7912,10 +7968,10 @@
       <c r="AY15" s="43">
         <v>2</v>
       </c>
-      <c r="AZ15" s="188" t="s">
+      <c r="AZ15" s="163" t="s">
         <v>1134</v>
       </c>
-      <c r="BA15" s="188" t="s">
+      <c r="BA15" s="163" t="s">
         <v>1135</v>
       </c>
       <c r="BB15" s="44">
@@ -8372,7 +8428,7 @@
       <c r="AZ18" s="151">
         <v>0</v>
       </c>
-      <c r="BA18" s="188" t="s">
+      <c r="BA18" s="163" t="s">
         <v>1136</v>
       </c>
       <c r="BB18" s="44">
@@ -8563,7 +8619,7 @@
       <c r="AY19" s="43">
         <v>2</v>
       </c>
-      <c r="AZ19" s="188" t="s">
+      <c r="AZ19" s="163" t="s">
         <v>1137</v>
       </c>
       <c r="BA19" s="151">
@@ -8942,7 +8998,9 @@
       <c r="AV21" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AW21" s="41"/>
+      <c r="AW21" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX21" s="42"/>
       <c r="AY21" s="43">
         <v>3</v>
@@ -9101,13 +9159,25 @@
       <c r="AP22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="25"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
+      <c r="AQ22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR22" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU22" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
+      <c r="AW22" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX22" s="42"/>
       <c r="AY22" s="43">
         <v>3</v>
@@ -9266,13 +9336,25 @@
       <c r="AP23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ23" s="43"/>
-      <c r="AR23" s="25"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
+      <c r="AQ23" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU23" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
+      <c r="AW23" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX23" s="42"/>
       <c r="AY23" s="43">
         <v>1</v>
@@ -9431,13 +9513,25 @@
       <c r="AP24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="25"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
+      <c r="AQ24" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS24" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT24" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU24" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
+      <c r="AW24" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX24" s="42"/>
       <c r="AY24" s="43">
         <v>3</v>
@@ -9596,13 +9690,25 @@
       <c r="AP25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
+      <c r="AQ25" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR25" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU25" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
+      <c r="AW25" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX25" s="42"/>
       <c r="AY25" s="43">
         <v>3</v>
@@ -9761,13 +9867,25 @@
       <c r="AP26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ26" s="43"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
+      <c r="AQ26" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS26" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT26" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU26" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
+      <c r="AW26" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX26" s="42"/>
       <c r="AY26" s="43">
         <v>3</v>
@@ -9926,13 +10044,25 @@
       <c r="AP27" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ27" s="43"/>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
+      <c r="AQ27" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR27" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT27" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU27" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
+      <c r="AW27" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX27" s="42"/>
       <c r="AY27" s="43">
         <v>3</v>
@@ -10091,13 +10221,25 @@
       <c r="AP28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
+      <c r="AQ28" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR28" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT28" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU28" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
+      <c r="AW28" s="41" t="s">
+        <v>22</v>
+      </c>
       <c r="AX28" s="42"/>
       <c r="AY28" s="43">
         <v>1</v>
@@ -10192,7 +10334,7 @@
       <c r="AY29" s="7"/>
       <c r="AZ29" s="153"/>
       <c r="BA29" s="153"/>
-      <c r="BB29" s="186"/>
+      <c r="BB29" s="161"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="100"/>
       <c r="BE29" s="8"/>
@@ -10211,7 +10353,7 @@
       <c r="AY33" s="9"/>
       <c r="AZ33" s="2"/>
       <c r="BA33" s="2"/>
-      <c r="BB33" s="187"/>
+      <c r="BB33" s="162"/>
       <c r="BC33" s="45"/>
       <c r="BJ33" s="45"/>
       <c r="BK33" s="45"/>
@@ -10223,7 +10365,7 @@
       <c r="AY34" s="9"/>
       <c r="AZ34" s="2"/>
       <c r="BA34" s="2"/>
-      <c r="BB34" s="187"/>
+      <c r="BB34" s="162"/>
       <c r="BC34" s="45"/>
       <c r="BJ34" s="45"/>
       <c r="BK34" s="45"/>
@@ -10235,7 +10377,7 @@
       <c r="AY35" s="9"/>
       <c r="AZ35" s="2"/>
       <c r="BA35" s="2"/>
-      <c r="BB35" s="187"/>
+      <c r="BB35" s="162"/>
       <c r="BC35" s="45"/>
       <c r="BJ35" s="45"/>
       <c r="BK35" s="45"/>
@@ -10247,7 +10389,7 @@
       <c r="AY36" s="9"/>
       <c r="AZ36" s="2"/>
       <c r="BA36" s="2"/>
-      <c r="BB36" s="187"/>
+      <c r="BB36" s="162"/>
       <c r="BC36" s="45"/>
       <c r="BJ36" s="45"/>
       <c r="BK36" s="45"/>
@@ -10259,7 +10401,7 @@
       <c r="AY37" s="9"/>
       <c r="AZ37" s="2"/>
       <c r="BA37" s="2"/>
-      <c r="BB37" s="187"/>
+      <c r="BB37" s="162"/>
       <c r="BC37" s="45"/>
       <c r="BJ37" s="45"/>
       <c r="BK37" s="45"/>
@@ -10271,7 +10413,7 @@
       <c r="AY38" s="9"/>
       <c r="AZ38" s="2"/>
       <c r="BA38" s="2"/>
-      <c r="BB38" s="187"/>
+      <c r="BB38" s="162"/>
       <c r="BC38" s="45"/>
       <c r="BJ38" s="45"/>
       <c r="BK38" s="45"/>
@@ -10283,7 +10425,7 @@
       <c r="AY39" s="9"/>
       <c r="AZ39" s="2"/>
       <c r="BA39" s="2"/>
-      <c r="BB39" s="187"/>
+      <c r="BB39" s="162"/>
       <c r="BC39" s="45"/>
       <c r="BJ39" s="45"/>
       <c r="BK39" s="45"/>
@@ -10295,7 +10437,7 @@
       <c r="AY40" s="9"/>
       <c r="AZ40" s="2"/>
       <c r="BA40" s="2"/>
-      <c r="BB40" s="187"/>
+      <c r="BB40" s="162"/>
       <c r="BC40" s="45"/>
       <c r="BJ40" s="45"/>
       <c r="BK40" s="45"/>
@@ -10307,7 +10449,7 @@
       <c r="AY41" s="9"/>
       <c r="AZ41" s="2"/>
       <c r="BA41" s="2"/>
-      <c r="BB41" s="187"/>
+      <c r="BB41" s="162"/>
       <c r="BC41" s="45"/>
       <c r="BJ41" s="45"/>
       <c r="BK41" s="45"/>
@@ -10319,7 +10461,7 @@
       <c r="AY42" s="9"/>
       <c r="AZ42" s="2"/>
       <c r="BA42" s="2"/>
-      <c r="BB42" s="187"/>
+      <c r="BB42" s="162"/>
       <c r="BC42" s="45"/>
       <c r="BJ42" s="45"/>
       <c r="BK42" s="45"/>
@@ -10331,7 +10473,7 @@
       <c r="AY43" s="9"/>
       <c r="AZ43" s="2"/>
       <c r="BA43" s="2"/>
-      <c r="BB43" s="187"/>
+      <c r="BB43" s="162"/>
       <c r="BC43" s="45"/>
       <c r="BJ43" s="45"/>
       <c r="BK43" s="45"/>
@@ -10343,7 +10485,7 @@
       <c r="AY44" s="9"/>
       <c r="AZ44" s="2"/>
       <c r="BA44" s="2"/>
-      <c r="BB44" s="187"/>
+      <c r="BB44" s="162"/>
       <c r="BC44" s="45"/>
       <c r="BJ44" s="45"/>
       <c r="BK44" s="45"/>
@@ -10355,7 +10497,7 @@
       <c r="AY45" s="9"/>
       <c r="AZ45" s="2"/>
       <c r="BA45" s="2"/>
-      <c r="BB45" s="187"/>
+      <c r="BB45" s="162"/>
       <c r="BC45" s="45"/>
       <c r="BJ45" s="45"/>
       <c r="BK45" s="45"/>
@@ -10367,7 +10509,7 @@
       <c r="AY46" s="9"/>
       <c r="AZ46" s="2"/>
       <c r="BA46" s="2"/>
-      <c r="BB46" s="187"/>
+      <c r="BB46" s="162"/>
       <c r="BC46" s="45"/>
       <c r="BJ46" s="45"/>
       <c r="BK46" s="45"/>
@@ -10379,7 +10521,7 @@
       <c r="AY47" s="9"/>
       <c r="AZ47" s="2"/>
       <c r="BA47" s="2"/>
-      <c r="BB47" s="187"/>
+      <c r="BB47" s="162"/>
       <c r="BC47" s="45"/>
       <c r="BJ47" s="45"/>
       <c r="BK47" s="45"/>
@@ -10391,7 +10533,7 @@
       <c r="AY48" s="9"/>
       <c r="AZ48" s="2"/>
       <c r="BA48" s="2"/>
-      <c r="BB48" s="187"/>
+      <c r="BB48" s="162"/>
       <c r="BC48" s="45"/>
       <c r="BJ48" s="45"/>
       <c r="BK48" s="45"/>
@@ -10403,7 +10545,7 @@
       <c r="AY49" s="9"/>
       <c r="AZ49" s="2"/>
       <c r="BA49" s="2"/>
-      <c r="BB49" s="187"/>
+      <c r="BB49" s="162"/>
       <c r="BC49" s="45"/>
       <c r="BJ49" s="45"/>
       <c r="BK49" s="45"/>
@@ -10415,7 +10557,7 @@
       <c r="AY50" s="9"/>
       <c r="AZ50" s="2"/>
       <c r="BA50" s="2"/>
-      <c r="BB50" s="187"/>
+      <c r="BB50" s="162"/>
       <c r="BC50" s="45"/>
       <c r="BJ50" s="45"/>
       <c r="BK50" s="45"/>
@@ -10427,7 +10569,7 @@
       <c r="AY51" s="9"/>
       <c r="AZ51" s="2"/>
       <c r="BA51" s="2"/>
-      <c r="BB51" s="187"/>
+      <c r="BB51" s="162"/>
       <c r="BC51" s="45"/>
       <c r="BJ51" s="45"/>
       <c r="BK51" s="45"/>
@@ -10439,7 +10581,7 @@
       <c r="AY52" s="9"/>
       <c r="AZ52" s="2"/>
       <c r="BA52" s="2"/>
-      <c r="BB52" s="187"/>
+      <c r="BB52" s="162"/>
       <c r="BC52" s="45"/>
       <c r="BJ52" s="45"/>
       <c r="BK52" s="45"/>
@@ -10451,7 +10593,7 @@
       <c r="AY53" s="9"/>
       <c r="AZ53" s="2"/>
       <c r="BA53" s="2"/>
-      <c r="BB53" s="187"/>
+      <c r="BB53" s="162"/>
       <c r="BC53" s="45"/>
       <c r="BJ53" s="45"/>
       <c r="BK53" s="45"/>
@@ -10463,7 +10605,7 @@
       <c r="AY54" s="9"/>
       <c r="AZ54" s="2"/>
       <c r="BA54" s="2"/>
-      <c r="BB54" s="187"/>
+      <c r="BB54" s="162"/>
       <c r="BC54" s="45"/>
       <c r="BJ54" s="45"/>
       <c r="BK54" s="45"/>
@@ -10475,7 +10617,7 @@
       <c r="AY55" s="9"/>
       <c r="AZ55" s="2"/>
       <c r="BA55" s="2"/>
-      <c r="BB55" s="187"/>
+      <c r="BB55" s="162"/>
       <c r="BC55" s="45"/>
       <c r="BJ55" s="45"/>
       <c r="BK55" s="45"/>
@@ -10487,7 +10629,7 @@
       <c r="AY56" s="9"/>
       <c r="AZ56" s="2"/>
       <c r="BA56" s="2"/>
-      <c r="BB56" s="187"/>
+      <c r="BB56" s="162"/>
       <c r="BC56" s="45"/>
       <c r="BJ56" s="45"/>
       <c r="BK56" s="45"/>
@@ -10499,7 +10641,7 @@
       <c r="AY57" s="9"/>
       <c r="AZ57" s="2"/>
       <c r="BA57" s="2"/>
-      <c r="BB57" s="187"/>
+      <c r="BB57" s="162"/>
       <c r="BC57" s="45"/>
       <c r="BJ57" s="45"/>
       <c r="BK57" s="45"/>
@@ -10511,7 +10653,7 @@
       <c r="AY58" s="9"/>
       <c r="AZ58" s="2"/>
       <c r="BA58" s="2"/>
-      <c r="BB58" s="187"/>
+      <c r="BB58" s="162"/>
       <c r="BC58" s="45"/>
       <c r="BJ58" s="45"/>
       <c r="BK58" s="45"/>
@@ -10523,7 +10665,7 @@
       <c r="AY59" s="9"/>
       <c r="AZ59" s="2"/>
       <c r="BA59" s="2"/>
-      <c r="BB59" s="187"/>
+      <c r="BB59" s="162"/>
       <c r="BC59" s="45"/>
       <c r="BJ59" s="45"/>
       <c r="BK59" s="45"/>
@@ -10535,7 +10677,7 @@
       <c r="AY60" s="9"/>
       <c r="AZ60" s="2"/>
       <c r="BA60" s="2"/>
-      <c r="BB60" s="187"/>
+      <c r="BB60" s="162"/>
       <c r="BC60" s="45"/>
       <c r="BJ60" s="45"/>
       <c r="BK60" s="45"/>
@@ -10547,7 +10689,7 @@
       <c r="AY61" s="9"/>
       <c r="AZ61" s="2"/>
       <c r="BA61" s="2"/>
-      <c r="BB61" s="187"/>
+      <c r="BB61" s="162"/>
       <c r="BC61" s="45"/>
       <c r="BJ61" s="45"/>
       <c r="BK61" s="45"/>
@@ -10566,67 +10708,67 @@
     <mergeCell ref="BD2:BJ2"/>
     <mergeCell ref="AY2:BC2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BK4:BO30 BF4:BJ16 AC4:AX30 BD4 AY4:AY29 BC4:BC16 BC17:BJ28 AY30:AZ30 BA29:BJ30 BA4:BA28">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BK4:BO30 BF4:BJ16 BD4 AY4:AY29 BC4:BC16 BC17:BJ28 AY30:AZ30 BA29:BJ30 BA4:BA28 AC4:AX30">
+    <cfRule type="expression" dxfId="44" priority="35" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="36" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="28" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD5:BD16">
-    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="18" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE4:BE16">
-    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ4:AZ29">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB28">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10687,74 +10829,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="166" t="s">
+      <c r="B2" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="160" t="s">
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="166" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="171" t="s">
+      <c r="J2" s="167"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="172"/>
-      <c r="W2" s="172"/>
-      <c r="X2" s="172"/>
-      <c r="Y2" s="172"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172"/>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="172"/>
-      <c r="AE2" s="172"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="172"/>
-      <c r="AH2" s="172"/>
-      <c r="AI2" s="172"/>
-      <c r="AJ2" s="173"/>
-      <c r="AK2" s="183" t="s">
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="175"/>
-      <c r="AM2" s="175"/>
-      <c r="AN2" s="175"/>
-      <c r="AO2" s="175"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="183" t="s">
+      <c r="AL2" s="181"/>
+      <c r="AM2" s="181"/>
+      <c r="AN2" s="181"/>
+      <c r="AO2" s="181"/>
+      <c r="AP2" s="182"/>
+      <c r="AQ2" s="189" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="174"/>
-      <c r="AS2" s="174"/>
-      <c r="AT2" s="184"/>
-      <c r="AU2" s="180" t="s">
+      <c r="AR2" s="180"/>
+      <c r="AS2" s="180"/>
+      <c r="AT2" s="190"/>
+      <c r="AU2" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="160" t="s">
+      <c r="AV2" s="187"/>
+      <c r="AW2" s="187"/>
+      <c r="AX2" s="188"/>
+      <c r="AY2" s="166" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="161"/>
-      <c r="BA2" s="161"/>
-      <c r="BB2" s="161"/>
-      <c r="BC2" s="162"/>
+      <c r="AZ2" s="167"/>
+      <c r="BA2" s="167"/>
+      <c r="BB2" s="167"/>
+      <c r="BC2" s="168"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -14641,42 +14783,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46122,31 +46264,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BC$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BE$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1143">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3472,6 +3472,12 @@
   </si>
   <si>
     <t>Mean Wind Speed (m/s)</t>
+  </si>
+  <si>
+    <t>Tower Potential Flow</t>
+  </si>
+  <si>
+    <t>Tower Aero</t>
   </si>
 </sst>
 </file>
@@ -4178,7 +4184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4704,12 +4710,113 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="61">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4862,6 +4969,20 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5345,13 +5466,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BO61"/>
+  <dimension ref="A1:BQ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AM16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AS22" sqref="AS22:AT28"/>
+      <selection pane="bottomRight" activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5383,26 +5504,26 @@
     <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="4.33203125" style="2" customWidth="1"/>
-    <col min="50" max="51" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.88671875" style="2" customWidth="1"/>
-    <col min="57" max="57" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="4.88671875" style="2" customWidth="1"/>
-    <col min="60" max="62" width="1.88671875" style="2" customWidth="1"/>
-    <col min="63" max="63" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="4.44140625" customWidth="1"/>
-    <col min="69" max="69" width="4.33203125" customWidth="1"/>
+    <col min="48" max="51" width="4.33203125" style="2" customWidth="1"/>
+    <col min="52" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.88671875" style="2" customWidth="1"/>
+    <col min="59" max="59" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="4.88671875" style="2" customWidth="1"/>
+    <col min="62" max="64" width="1.88671875" style="2" customWidth="1"/>
+    <col min="65" max="65" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.44140625" customWidth="1"/>
+    <col min="71" max="71" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="172" t="s">
         <v>27</v>
       </c>
@@ -5461,32 +5582,34 @@
       <c r="AU2" s="181"/>
       <c r="AV2" s="181"/>
       <c r="AW2" s="181"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="186" t="s">
+      <c r="AX2" s="181"/>
+      <c r="AY2" s="181"/>
+      <c r="AZ2" s="182"/>
+      <c r="BA2" s="186" t="s">
         <v>1138</v>
       </c>
-      <c r="AZ2" s="187"/>
-      <c r="BA2" s="187"/>
       <c r="BB2" s="187"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="183" t="s">
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="188"/>
+      <c r="BF2" s="183" t="s">
         <v>1129</v>
       </c>
-      <c r="BE2" s="184"/>
-      <c r="BF2" s="184"/>
       <c r="BG2" s="184"/>
       <c r="BH2" s="184"/>
       <c r="BI2" s="184"/>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="166" t="s">
+      <c r="BJ2" s="184"/>
+      <c r="BK2" s="184"/>
+      <c r="BL2" s="185"/>
+      <c r="BM2" s="166" t="s">
         <v>1047</v>
       </c>
-      <c r="BL2" s="167"/>
-      <c r="BM2" s="167"/>
       <c r="BN2" s="167"/>
-      <c r="BO2" s="168"/>
-    </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" ht="88.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BO2" s="167"/>
+      <c r="BP2" s="167"/>
+      <c r="BQ2" s="168"/>
+    </row>
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5629,59 +5752,65 @@
       <c r="AV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="73" t="s">
+      <c r="AW3" s="191" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AX3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="74" t="s">
+      <c r="AY3" s="191" t="s">
+        <v>1142</v>
+      </c>
+      <c r="AZ3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="AY3" s="75" t="s">
+      <c r="BA3" s="75" t="s">
         <v>1139</v>
       </c>
-      <c r="AZ3" s="164" t="s">
+      <c r="BB3" s="164" t="s">
         <v>1132</v>
       </c>
-      <c r="BA3" s="165" t="s">
+      <c r="BC3" s="165" t="s">
         <v>1140</v>
       </c>
-      <c r="BB3" s="77" t="s">
+      <c r="BD3" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="BC3" s="76" t="s">
+      <c r="BE3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BD3" s="157" t="s">
+      <c r="BF3" s="157" t="s">
         <v>1121</v>
       </c>
-      <c r="BE3" s="158" t="s">
+      <c r="BG3" s="158" t="s">
         <v>1122</v>
       </c>
-      <c r="BF3" s="158" t="s">
+      <c r="BH3" s="158" t="s">
         <v>1123</v>
       </c>
-      <c r="BG3" s="158" t="s">
+      <c r="BI3" s="158" t="s">
         <v>1124</v>
       </c>
-      <c r="BH3" s="158"/>
-      <c r="BI3" s="158"/>
-      <c r="BJ3" s="159"/>
-      <c r="BK3" s="66" t="s">
+      <c r="BJ3" s="158"/>
+      <c r="BK3" s="158"/>
+      <c r="BL3" s="159"/>
+      <c r="BM3" s="66" t="s">
         <v>1045</v>
       </c>
-      <c r="BL3" s="69" t="s">
+      <c r="BN3" s="69" t="s">
         <v>1046</v>
       </c>
-      <c r="BM3" s="70" t="s">
+      <c r="BO3" s="70" t="s">
         <v>1051</v>
       </c>
-      <c r="BN3" s="70" t="s">
+      <c r="BP3" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="BO3" s="68" t="s">
+      <c r="BQ3" s="68" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5822,60 +5951,66 @@
       <c r="AV4" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="AW4" s="35" t="s">
+      <c r="AW4" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX4" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="AX4" s="33">
+      <c r="AY4" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ4" s="33">
         <v>15</v>
       </c>
-      <c r="AY4" s="36">
+      <c r="BA4" s="36">
         <v>2</v>
       </c>
-      <c r="AZ4" s="150">
+      <c r="BB4" s="150">
         <v>30</v>
       </c>
-      <c r="BA4" s="150">
+      <c r="BC4" s="150">
         <v>12</v>
       </c>
-      <c r="BB4" s="37">
+      <c r="BD4" s="37">
         <v>0.2</v>
       </c>
-      <c r="BC4" s="38" t="s">
+      <c r="BE4" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BD4" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE4" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF4" s="41" t="s">
+      <c r="BF4" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="59">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="55">
+      <c r="BH4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI4" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="33"/>
+      <c r="BM4" s="59">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="55">
         <v>3</v>
       </c>
-      <c r="BM4" s="62">
+      <c r="BO4" s="62">
         <f>Variables!D2</f>
         <v>23</v>
       </c>
-      <c r="BN4" s="62" t="s">
+      <c r="BP4" s="62" t="s">
         <v>1048</v>
       </c>
-      <c r="BO4" s="38" t="s">
+      <c r="BQ4" s="38" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -6019,57 +6154,63 @@
       <c r="AW5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX5" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="43">
+      <c r="AX5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY5" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ5" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="43">
         <v>1</v>
       </c>
-      <c r="AZ5" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="151">
+      <c r="BB5" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="151">
         <v>12</v>
       </c>
-      <c r="BB5" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="42" t="s">
+      <c r="BD5" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD5" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE5" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF5" s="41" t="s">
+      <c r="BF5" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH5" s="41"/>
-      <c r="BI5" s="41"/>
-      <c r="BJ5" s="42"/>
-      <c r="BK5" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="56">
+      <c r="BH5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ5" s="41"/>
+      <c r="BK5" s="41"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="56">
         <v>1</v>
       </c>
-      <c r="BM5" s="63">
+      <c r="BO5" s="63">
         <f>Variables!E2</f>
         <v>22</v>
       </c>
-      <c r="BN5" s="63" t="s">
+      <c r="BP5" s="63" t="s">
         <v>1049</v>
       </c>
-      <c r="BO5" s="42" t="s">
+      <c r="BQ5" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -6211,59 +6352,65 @@
         <v>22</v>
       </c>
       <c r="AW6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX6" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX6" s="42" t="s">
+      <c r="AY6" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ6" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY6" s="43">
+      <c r="BA6" s="43">
         <v>2</v>
       </c>
-      <c r="AZ6" s="151">
+      <c r="BB6" s="151">
         <v>30</v>
       </c>
-      <c r="BA6" s="151">
+      <c r="BC6" s="151">
         <v>12</v>
       </c>
-      <c r="BB6" s="44">
+      <c r="BD6" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC6" s="42" t="s">
+      <c r="BE6" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD6" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE6" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF6" s="41" t="s">
+      <c r="BF6" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG6" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH6" s="41"/>
-      <c r="BI6" s="41"/>
-      <c r="BJ6" s="42"/>
-      <c r="BK6" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="56">
+      <c r="BH6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI6" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ6" s="41"/>
+      <c r="BK6" s="41"/>
+      <c r="BL6" s="42"/>
+      <c r="BM6" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="56">
         <v>3</v>
       </c>
-      <c r="BM6" s="63">
+      <c r="BO6" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BN6" s="63" t="s">
+      <c r="BP6" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO6" s="42" t="s">
+      <c r="BQ6" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6405,59 +6552,65 @@
         <v>22</v>
       </c>
       <c r="AW7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX7" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX7" s="42" t="s">
+      <c r="AY7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ7" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY7" s="43">
+      <c r="BA7" s="43">
         <v>4</v>
       </c>
-      <c r="AZ7" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="151">
+      <c r="BB7" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="151">
         <v>12</v>
       </c>
-      <c r="BB7" s="44">
+      <c r="BD7" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC7" s="42" t="s">
+      <c r="BE7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD7" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE7" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF7" s="41" t="s">
+      <c r="BF7" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG7" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH7" s="41"/>
-      <c r="BI7" s="41"/>
-      <c r="BJ7" s="42"/>
-      <c r="BK7" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="56">
+      <c r="BH7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ7" s="41"/>
+      <c r="BK7" s="41"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="56">
         <v>5</v>
       </c>
-      <c r="BM7" s="63">
+      <c r="BO7" s="63">
         <f>Variables!F$2</f>
         <v>23</v>
       </c>
-      <c r="BN7" s="63" t="s">
+      <c r="BP7" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO7" s="42" t="s">
+      <c r="BQ7" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6601,57 +6754,63 @@
       <c r="AW8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX8" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="43">
+      <c r="AX8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY8" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ8" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="43">
         <v>2</v>
       </c>
-      <c r="AZ8" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="151">
+      <c r="BB8" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="151">
         <v>12</v>
       </c>
-      <c r="BB8" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="42" t="s">
+      <c r="BD8" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD8" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE8" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF8" s="41" t="s">
+      <c r="BF8" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH8" s="41"/>
-      <c r="BI8" s="41"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="56">
+      <c r="BH8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ8" s="41"/>
+      <c r="BK8" s="41"/>
+      <c r="BL8" s="42"/>
+      <c r="BM8" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="56">
         <v>3</v>
       </c>
-      <c r="BM8" s="63">
+      <c r="BO8" s="63">
         <f>Variables!G$2</f>
         <v>24</v>
       </c>
-      <c r="BN8" s="63" t="s">
+      <c r="BP8" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO8" s="42" t="s">
+      <c r="BQ8" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -6794,59 +6953,65 @@
         <v>22</v>
       </c>
       <c r="AW9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX9" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX9" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="43">
+      <c r="AY9" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ9" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="43">
         <v>2</v>
       </c>
-      <c r="AZ9" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="151">
+      <c r="BB9" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="151">
         <v>12</v>
       </c>
-      <c r="BB9" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="42" t="s">
+      <c r="BD9" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD9" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE9" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF9" s="41" t="s">
+      <c r="BF9" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG9" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
-      <c r="BJ9" s="42"/>
-      <c r="BK9" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="56">
+      <c r="BH9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ9" s="41"/>
+      <c r="BK9" s="41"/>
+      <c r="BL9" s="42"/>
+      <c r="BM9" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="56">
         <v>5</v>
       </c>
-      <c r="BM9" s="63">
+      <c r="BO9" s="63">
         <f>Variables!H$2</f>
         <v>22</v>
       </c>
-      <c r="BN9" s="63" t="s">
+      <c r="BP9" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO9" s="42" t="s">
+      <c r="BQ9" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -6989,59 +7154,65 @@
         <v>22</v>
       </c>
       <c r="AW10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX10" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX10" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="43">
+      <c r="AY10" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ10" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="43">
         <v>4</v>
       </c>
-      <c r="AZ10" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="151">
+      <c r="BB10" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="151">
         <v>12</v>
       </c>
-      <c r="BB10" s="44">
+      <c r="BD10" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC10" s="42" t="s">
+      <c r="BE10" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD10" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE10" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF10" s="41" t="s">
+      <c r="BF10" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="56">
+      <c r="BH10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ10" s="41"/>
+      <c r="BK10" s="41"/>
+      <c r="BL10" s="42"/>
+      <c r="BM10" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="56">
         <v>3</v>
       </c>
-      <c r="BM10" s="63">
+      <c r="BO10" s="63">
         <f>Variables!I$2</f>
         <v>24</v>
       </c>
-      <c r="BN10" s="63" t="s">
+      <c r="BP10" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO10" s="42" t="s">
+      <c r="BQ10" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -7184,59 +7355,65 @@
         <v>22</v>
       </c>
       <c r="AW11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX11" s="42">
+      <c r="AY11" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ11" s="42">
         <v>15</v>
       </c>
-      <c r="AY11" s="43">
+      <c r="BA11" s="43">
         <v>1</v>
       </c>
-      <c r="AZ11" s="151">
+      <c r="BB11" s="151">
         <v>30</v>
       </c>
-      <c r="BA11" s="151">
+      <c r="BC11" s="151">
         <v>11</v>
       </c>
-      <c r="BB11" s="44">
+      <c r="BD11" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC11" s="42" t="s">
+      <c r="BE11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD11" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE11" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF11" s="41" t="s">
+      <c r="BF11" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="42"/>
-      <c r="BK11" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="56">
+      <c r="BH11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+      <c r="BL11" s="42"/>
+      <c r="BM11" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="56">
         <v>2</v>
       </c>
-      <c r="BM11" s="63">
+      <c r="BO11" s="63">
         <f>Variables!J$2</f>
         <v>27</v>
       </c>
-      <c r="BN11" s="63" t="s">
+      <c r="BP11" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO11" s="42" t="s">
+      <c r="BQ11" s="42" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -7378,59 +7555,65 @@
         <v>32</v>
       </c>
       <c r="AW12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AX12" s="42" t="s">
+      <c r="AY12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ12" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY12" s="43">
+      <c r="BA12" s="43">
         <v>2</v>
       </c>
-      <c r="AZ12" s="151">
+      <c r="BB12" s="151">
         <v>30</v>
       </c>
-      <c r="BA12" s="151">
+      <c r="BC12" s="151">
         <v>11</v>
       </c>
-      <c r="BB12" s="44">
+      <c r="BD12" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC12" s="42" t="s">
+      <c r="BE12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD12" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE12" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF12" s="41" t="s">
+      <c r="BF12" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG12" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL12" s="56">
+      <c r="BH12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="56">
         <v>5</v>
       </c>
-      <c r="BM12" s="63">
+      <c r="BO12" s="63">
         <f>Variables!K$2</f>
         <v>26</v>
       </c>
-      <c r="BN12" s="63" t="s">
+      <c r="BP12" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO12" s="42" t="s">
+      <c r="BQ12" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7574,57 +7757,63 @@
       <c r="AW13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX13" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="43">
+      <c r="AX13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY13" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ13" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="43">
         <v>2</v>
       </c>
-      <c r="AZ13" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="163" t="s">
+      <c r="BB13" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="163" t="s">
         <v>1133</v>
       </c>
-      <c r="BB13" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="42" t="s">
+      <c r="BD13" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD13" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE13" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF13" s="41" t="s">
+      <c r="BF13" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="42"/>
-      <c r="BK13" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL13" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM13" s="63">
+      <c r="BH13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
+      <c r="BL13" s="42"/>
+      <c r="BM13" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO13" s="63">
         <f>Variables!L$2</f>
         <v>24</v>
       </c>
-      <c r="BN13" s="63" t="s">
+      <c r="BP13" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO13" s="42" t="s">
+      <c r="BQ13" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7768,57 +7957,63 @@
       <c r="AW14" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX14" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="43">
+      <c r="AX14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY14" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ14" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="43">
         <v>4</v>
       </c>
-      <c r="AZ14" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="151">
+      <c r="BB14" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="151">
         <v>12</v>
       </c>
-      <c r="BB14" s="44">
+      <c r="BD14" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC14" s="42" t="s">
+      <c r="BE14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD14" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF14" s="41" t="s">
+      <c r="BF14" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
-      <c r="BJ14" s="42"/>
-      <c r="BK14" s="60">
+      <c r="BH14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ14" s="41"/>
+      <c r="BK14" s="41"/>
+      <c r="BL14" s="42"/>
+      <c r="BM14" s="60">
         <v>2</v>
       </c>
-      <c r="BL14" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="63">
+      <c r="BN14" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="63">
         <f>Variables!M$2</f>
         <v>21</v>
       </c>
-      <c r="BN14" s="63" t="s">
+      <c r="BP14" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO14" s="42" t="s">
+      <c r="BQ14" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -7962,57 +8157,63 @@
       <c r="AW15" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX15" s="42" t="s">
+      <c r="AX15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY15" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ15" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY15" s="43">
+      <c r="BA15" s="43">
         <v>2</v>
       </c>
-      <c r="AZ15" s="163" t="s">
+      <c r="BB15" s="163" t="s">
         <v>1134</v>
       </c>
-      <c r="BA15" s="163" t="s">
+      <c r="BC15" s="163" t="s">
         <v>1135</v>
       </c>
-      <c r="BB15" s="44">
+      <c r="BD15" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC15" s="42" t="s">
+      <c r="BE15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD15" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE15" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF15" s="41" t="s">
+      <c r="BF15" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG15" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="42"/>
-      <c r="BK15" s="60">
+      <c r="BH15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
+      <c r="BL15" s="42"/>
+      <c r="BM15" s="60">
         <v>2</v>
       </c>
-      <c r="BL15" s="56">
+      <c r="BN15" s="56">
         <v>4</v>
       </c>
-      <c r="BM15" s="63">
+      <c r="BO15" s="63">
         <f>Variables!N$2</f>
         <v>21</v>
       </c>
-      <c r="BN15" s="63" t="s">
+      <c r="BP15" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO15" s="42" t="s">
+      <c r="BQ15" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -8156,57 +8357,63 @@
       <c r="AW16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX16" s="42">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="43">
+      <c r="AX16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY16" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ16" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="43">
         <v>4</v>
       </c>
-      <c r="AZ16" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="151">
+      <c r="BB16" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="151">
         <v>12</v>
       </c>
-      <c r="BB16" s="44">
+      <c r="BD16" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC16" s="42" t="s">
+      <c r="BE16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD16" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE16" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF16" s="41" t="s">
+      <c r="BF16" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
-      <c r="BJ16" s="42"/>
-      <c r="BK16" s="60">
+      <c r="BH16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="41"/>
+      <c r="BL16" s="42"/>
+      <c r="BM16" s="60">
         <v>2</v>
       </c>
-      <c r="BL16" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="63">
+      <c r="BN16" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO16" s="63">
         <f>Variables!O$2</f>
         <v>23</v>
       </c>
-      <c r="BN16" s="63" t="s">
+      <c r="BP16" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO16" s="42" t="s">
+      <c r="BQ16" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="125"/>
       <c r="C17" s="148"/>
@@ -8256,26 +8463,28 @@
       <c r="AU17" s="129"/>
       <c r="AV17" s="129"/>
       <c r="AW17" s="129"/>
-      <c r="AX17" s="130"/>
-      <c r="AY17" s="128"/>
-      <c r="AZ17" s="152"/>
-      <c r="BA17" s="152"/>
-      <c r="BB17" s="132"/>
-      <c r="BC17" s="130"/>
-      <c r="BD17" s="131"/>
-      <c r="BE17" s="129"/>
-      <c r="BF17" s="129"/>
+      <c r="AX17" s="129"/>
+      <c r="AY17" s="129"/>
+      <c r="AZ17" s="130"/>
+      <c r="BA17" s="128"/>
+      <c r="BB17" s="152"/>
+      <c r="BC17" s="152"/>
+      <c r="BD17" s="132"/>
+      <c r="BE17" s="130"/>
+      <c r="BF17" s="131"/>
       <c r="BG17" s="129"/>
       <c r="BH17" s="129"/>
       <c r="BI17" s="129"/>
-      <c r="BJ17" s="130"/>
-      <c r="BK17" s="133"/>
-      <c r="BL17" s="134"/>
-      <c r="BM17" s="135"/>
-      <c r="BN17" s="135"/>
-      <c r="BO17" s="130"/>
-    </row>
-    <row r="18" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BJ17" s="129"/>
+      <c r="BK17" s="129"/>
+      <c r="BL17" s="130"/>
+      <c r="BM17" s="133"/>
+      <c r="BN17" s="134"/>
+      <c r="BO17" s="135"/>
+      <c r="BP17" s="135"/>
+      <c r="BQ17" s="130"/>
+    </row>
+    <row r="18" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -8419,57 +8628,63 @@
       <c r="AW18" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX18" s="42" t="s">
+      <c r="AX18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ18" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY18" s="43">
+      <c r="BA18" s="43">
         <v>2</v>
       </c>
-      <c r="AZ18" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="163" t="s">
+      <c r="BB18" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="163" t="s">
         <v>1136</v>
       </c>
-      <c r="BB18" s="44">
+      <c r="BD18" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC18" s="42" t="s">
+      <c r="BE18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD18" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF18" s="41" t="s">
+      <c r="BF18" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG18" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH18" s="41"/>
-      <c r="BI18" s="41"/>
-      <c r="BJ18" s="42"/>
-      <c r="BK18" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL18" s="61">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="63">
+      <c r="BH18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ18" s="41"/>
+      <c r="BK18" s="41"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="61">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="63">
         <f>Variables!Q$2</f>
         <v>0</v>
       </c>
-      <c r="BN18" s="63" t="s">
+      <c r="BP18" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO18" s="42" t="s">
+      <c r="BQ18" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8613,57 +8828,63 @@
       <c r="AW19" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX19" s="42" t="s">
+      <c r="AX19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY19" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ19" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY19" s="43">
+      <c r="BA19" s="43">
         <v>2</v>
       </c>
-      <c r="AZ19" s="163" t="s">
+      <c r="BB19" s="163" t="s">
         <v>1137</v>
       </c>
-      <c r="BA19" s="151">
+      <c r="BC19" s="151">
         <v>11.9</v>
       </c>
-      <c r="BB19" s="44">
+      <c r="BD19" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC19" s="42" t="s">
+      <c r="BE19" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD19" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE19" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF19" s="41" t="s">
+      <c r="BF19" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH19" s="41"/>
-      <c r="BI19" s="41"/>
-      <c r="BJ19" s="42"/>
-      <c r="BK19" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL19" s="56">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="63">
+      <c r="BH19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ19" s="41"/>
+      <c r="BK19" s="41"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO19" s="63">
         <f>Variables!R$2</f>
         <v>25</v>
       </c>
-      <c r="BN19" s="63" t="s">
+      <c r="BP19" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO19" s="42" t="s">
+      <c r="BQ19" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8807,57 +9028,63 @@
       <c r="AW20" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX20" s="42" t="s">
+      <c r="AX20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY20" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ20" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AY20" s="43">
+      <c r="BA20" s="43">
         <v>4</v>
       </c>
-      <c r="AZ20" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="151">
+      <c r="BB20" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="151">
         <v>16</v>
       </c>
-      <c r="BB20" s="44">
+      <c r="BD20" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC20" s="42" t="s">
+      <c r="BE20" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD20" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF20" s="41" t="s">
+      <c r="BF20" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH20" s="41"/>
-      <c r="BI20" s="41"/>
-      <c r="BJ20" s="42"/>
-      <c r="BK20" s="60">
-        <v>0</v>
-      </c>
-      <c r="BL20" s="61">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="63">
+      <c r="BH20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ20" s="41"/>
+      <c r="BK20" s="41"/>
+      <c r="BL20" s="42"/>
+      <c r="BM20" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="61">
+        <v>0</v>
+      </c>
+      <c r="BO20" s="63">
         <f>Variables!S$2</f>
         <v>25</v>
       </c>
-      <c r="BN20" s="63" t="s">
+      <c r="BP20" s="63" t="s">
         <v>1048</v>
       </c>
-      <c r="BO20" s="42" t="s">
+      <c r="BQ20" s="42" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -8999,48 +9226,54 @@
         <v>32</v>
       </c>
       <c r="AW21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX21" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="43">
+      <c r="AY21" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="43">
         <v>3</v>
       </c>
-      <c r="AZ21" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="151">
+      <c r="BB21" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="151">
         <v>12</v>
       </c>
-      <c r="BB21" s="44">
+      <c r="BD21" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC21" s="42" t="s">
+      <c r="BE21" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD21" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE21" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF21" s="41" t="s">
+      <c r="BF21" s="98" t="s">
         <v>42</v>
       </c>
       <c r="BG21" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH21" s="41"/>
-      <c r="BI21" s="41"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="60"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="63" t="s">
+      <c r="BH21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ21" s="41"/>
+      <c r="BK21" s="41"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="60"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="63"/>
+      <c r="BP21" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO21" s="42"/>
-    </row>
-    <row r="22" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BQ21" s="42"/>
+    </row>
+    <row r="22" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -9176,48 +9409,54 @@
       </c>
       <c r="AV22" s="41"/>
       <c r="AW22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX22" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="43">
+      <c r="AY22" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="43">
         <v>3</v>
       </c>
-      <c r="AZ22" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="151">
+      <c r="BB22" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="151">
         <v>12</v>
       </c>
-      <c r="BB22" s="44">
+      <c r="BD22" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC22" s="42" t="s">
+      <c r="BE22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD22" s="99">
+      <c r="BF22" s="99">
         <v>20</v>
       </c>
-      <c r="BE22" s="41">
+      <c r="BG22" s="41">
         <v>2</v>
       </c>
-      <c r="BF22" s="41">
+      <c r="BH22" s="41">
         <v>6</v>
       </c>
-      <c r="BG22" s="41">
+      <c r="BI22" s="41">
         <v>10</v>
       </c>
-      <c r="BH22" s="41"/>
-      <c r="BI22" s="41"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="60"/>
-      <c r="BL22" s="61"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="63" t="s">
+      <c r="BJ22" s="41"/>
+      <c r="BK22" s="41"/>
+      <c r="BL22" s="42"/>
+      <c r="BM22" s="60"/>
+      <c r="BN22" s="61"/>
+      <c r="BO22" s="63"/>
+      <c r="BP22" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO22" s="42"/>
-    </row>
-    <row r="23" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BQ22" s="42"/>
+    </row>
+    <row r="23" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -9353,48 +9592,54 @@
       </c>
       <c r="AV23" s="41"/>
       <c r="AW23" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX23" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="43">
+      <c r="AY23" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="43">
         <v>1</v>
       </c>
-      <c r="AZ23" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="151">
+      <c r="BB23" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="151">
         <v>8</v>
       </c>
-      <c r="BB23" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="42" t="s">
+      <c r="BD23" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD23" s="99">
+      <c r="BF23" s="99">
         <v>45</v>
       </c>
-      <c r="BE23" s="41" t="s">
+      <c r="BG23" s="41" t="s">
         <v>1125</v>
       </c>
-      <c r="BF23" s="41" t="s">
+      <c r="BH23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BG23" s="41" t="s">
+      <c r="BI23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH23" s="41"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="60"/>
-      <c r="BL23" s="61"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="63" t="s">
+      <c r="BJ23" s="41"/>
+      <c r="BK23" s="41"/>
+      <c r="BL23" s="42"/>
+      <c r="BM23" s="60"/>
+      <c r="BN23" s="61"/>
+      <c r="BO23" s="63"/>
+      <c r="BP23" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO23" s="42"/>
-    </row>
-    <row r="24" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BQ23" s="42"/>
+    </row>
+    <row r="24" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -9530,48 +9775,54 @@
       </c>
       <c r="AV24" s="41"/>
       <c r="AW24" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="43">
+      <c r="AY24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ24" s="42"/>
+      <c r="BA24" s="43">
         <v>3</v>
       </c>
-      <c r="AZ24" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="151">
+      <c r="BB24" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="151">
         <v>12</v>
       </c>
-      <c r="BB24" s="44">
+      <c r="BD24" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC24" s="42" t="s">
+      <c r="BE24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD24" s="99">
+      <c r="BF24" s="99">
         <v>50</v>
       </c>
-      <c r="BE24" s="41">
+      <c r="BG24" s="41">
         <v>2</v>
       </c>
-      <c r="BF24" s="41">
+      <c r="BH24" s="41">
         <v>8</v>
       </c>
-      <c r="BG24" s="41">
+      <c r="BI24" s="41">
         <v>10</v>
       </c>
-      <c r="BH24" s="41"/>
-      <c r="BI24" s="41"/>
-      <c r="BJ24" s="42"/>
-      <c r="BK24" s="60"/>
-      <c r="BL24" s="61"/>
-      <c r="BM24" s="63"/>
-      <c r="BN24" s="63" t="s">
+      <c r="BJ24" s="41"/>
+      <c r="BK24" s="41"/>
+      <c r="BL24" s="42"/>
+      <c r="BM24" s="60"/>
+      <c r="BN24" s="61"/>
+      <c r="BO24" s="63"/>
+      <c r="BP24" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO24" s="42"/>
-    </row>
-    <row r="25" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BQ24" s="42"/>
+    </row>
+    <row r="25" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1120</v>
@@ -9709,46 +9960,52 @@
       <c r="AW25" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX25" s="42"/>
-      <c r="AY25" s="43">
+      <c r="AX25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY25" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ25" s="42"/>
+      <c r="BA25" s="43">
         <v>3</v>
       </c>
-      <c r="AZ25" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="151">
+      <c r="BB25" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="151">
         <v>12</v>
       </c>
-      <c r="BB25" s="44">
+      <c r="BD25" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC25" s="42" t="s">
+      <c r="BE25" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD25" s="99">
+      <c r="BF25" s="99">
         <v>150</v>
       </c>
-      <c r="BE25" s="41">
+      <c r="BG25" s="41">
         <v>2</v>
       </c>
-      <c r="BF25" s="41">
+      <c r="BH25" s="41">
         <v>5</v>
       </c>
-      <c r="BG25" s="41">
+      <c r="BI25" s="41">
         <v>12.4</v>
       </c>
-      <c r="BH25" s="41"/>
-      <c r="BI25" s="41"/>
-      <c r="BJ25" s="42"/>
-      <c r="BK25" s="60"/>
-      <c r="BL25" s="61"/>
-      <c r="BM25" s="63"/>
-      <c r="BN25" s="63" t="s">
+      <c r="BJ25" s="41"/>
+      <c r="BK25" s="41"/>
+      <c r="BL25" s="42"/>
+      <c r="BM25" s="60"/>
+      <c r="BN25" s="61"/>
+      <c r="BO25" s="63"/>
+      <c r="BP25" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO25" s="42"/>
-    </row>
-    <row r="26" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BQ25" s="42"/>
+    </row>
+    <row r="26" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1119</v>
@@ -9886,46 +10143,52 @@
       <c r="AW26" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX26" s="42"/>
-      <c r="AY26" s="43">
+      <c r="AX26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY26" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ26" s="42"/>
+      <c r="BA26" s="43">
         <v>3</v>
       </c>
-      <c r="AZ26" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA26" s="151">
+      <c r="BB26" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="151">
         <v>12</v>
       </c>
-      <c r="BB26" s="44">
+      <c r="BD26" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC26" s="42" t="s">
+      <c r="BE26" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD26" s="99">
+      <c r="BF26" s="99">
         <v>200</v>
       </c>
-      <c r="BE26" s="41">
+      <c r="BG26" s="41">
         <v>2</v>
       </c>
-      <c r="BF26" s="41">
+      <c r="BH26" s="41">
         <v>6</v>
       </c>
-      <c r="BG26" s="41">
+      <c r="BI26" s="41">
         <v>10</v>
       </c>
-      <c r="BH26" s="41"/>
-      <c r="BI26" s="41"/>
-      <c r="BJ26" s="42"/>
-      <c r="BK26" s="60"/>
-      <c r="BL26" s="61"/>
-      <c r="BM26" s="63"/>
-      <c r="BN26" s="63" t="s">
+      <c r="BJ26" s="41"/>
+      <c r="BK26" s="41"/>
+      <c r="BL26" s="42"/>
+      <c r="BM26" s="60"/>
+      <c r="BN26" s="61"/>
+      <c r="BO26" s="63"/>
+      <c r="BP26" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO26" s="42"/>
-    </row>
-    <row r="27" spans="1:67" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BQ26" s="42"/>
+    </row>
+    <row r="27" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1118</v>
@@ -10063,46 +10326,52 @@
       <c r="AW27" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="43">
+      <c r="AX27" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY27" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ27" s="42"/>
+      <c r="BA27" s="43">
         <v>3</v>
       </c>
-      <c r="AZ27" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA27" s="151">
+      <c r="BB27" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="151">
         <v>12</v>
       </c>
-      <c r="BB27" s="44">
+      <c r="BD27" s="44">
         <v>0.2</v>
       </c>
-      <c r="BC27" s="42" t="s">
+      <c r="BE27" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="BD27" s="99">
+      <c r="BF27" s="99">
         <v>320</v>
       </c>
-      <c r="BE27" s="41">
+      <c r="BG27" s="41">
         <v>2</v>
       </c>
-      <c r="BF27" s="41">
+      <c r="BH27" s="41">
         <v>6</v>
       </c>
-      <c r="BG27" s="41">
+      <c r="BI27" s="41">
         <v>10</v>
       </c>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="60"/>
-      <c r="BL27" s="61"/>
-      <c r="BM27" s="63"/>
-      <c r="BN27" s="63" t="s">
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="41"/>
+      <c r="BL27" s="42"/>
+      <c r="BM27" s="60"/>
+      <c r="BN27" s="61"/>
+      <c r="BO27" s="63"/>
+      <c r="BP27" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO27" s="42"/>
-    </row>
-    <row r="28" spans="1:67" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="BQ27" s="42"/>
+    </row>
+    <row r="28" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1117</v>
@@ -10240,46 +10509,52 @@
       <c r="AW28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="43">
+      <c r="AX28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="43">
         <v>1</v>
       </c>
-      <c r="AZ28" s="151">
-        <v>0</v>
-      </c>
-      <c r="BA28" s="151">
+      <c r="BB28" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="151">
         <v>8</v>
       </c>
-      <c r="BB28" s="44">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="42" t="s">
+      <c r="BD28" s="44">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BD28" s="99">
+      <c r="BF28" s="99">
         <v>200</v>
       </c>
-      <c r="BE28" s="41">
+      <c r="BG28" s="41">
         <v>3</v>
       </c>
-      <c r="BF28" s="41">
+      <c r="BH28" s="41">
         <v>1.2645999999999999</v>
       </c>
-      <c r="BG28" s="41" t="s">
+      <c r="BI28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BH28" s="41"/>
-      <c r="BI28" s="41"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="60"/>
-      <c r="BL28" s="61"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63" t="s">
+      <c r="BJ28" s="41"/>
+      <c r="BK28" s="41"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="60"/>
+      <c r="BN28" s="61"/>
+      <c r="BO28" s="63"/>
+      <c r="BP28" s="63" t="s">
         <v>1050</v>
       </c>
-      <c r="BO28" s="42"/>
-    </row>
-    <row r="29" spans="1:67" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BQ28" s="42"/>
+    </row>
+    <row r="29" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="149"/>
       <c r="D29" s="3"/>
@@ -10330,445 +10605,447 @@
       <c r="AU29" s="8"/>
       <c r="AV29" s="8"/>
       <c r="AW29" s="8"/>
-      <c r="AX29" s="6"/>
-      <c r="AY29" s="7"/>
-      <c r="AZ29" s="153"/>
-      <c r="BA29" s="153"/>
-      <c r="BB29" s="161"/>
-      <c r="BC29" s="6"/>
-      <c r="BD29" s="100"/>
-      <c r="BE29" s="8"/>
-      <c r="BF29" s="8"/>
+      <c r="AX29" s="8"/>
+      <c r="AY29" s="8"/>
+      <c r="AZ29" s="6"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="153"/>
+      <c r="BC29" s="153"/>
+      <c r="BD29" s="161"/>
+      <c r="BE29" s="6"/>
+      <c r="BF29" s="100"/>
       <c r="BG29" s="8"/>
       <c r="BH29" s="8"/>
       <c r="BI29" s="8"/>
-      <c r="BJ29" s="6"/>
-      <c r="BK29" s="7"/>
-      <c r="BL29" s="48"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="6"/>
-    </row>
-    <row r="33" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY33" s="9"/>
-      <c r="AZ33" s="2"/>
-      <c r="BA33" s="2"/>
-      <c r="BB33" s="162"/>
-      <c r="BC33" s="45"/>
-      <c r="BJ33" s="45"/>
-      <c r="BK33" s="45"/>
-      <c r="BM33" s="2"/>
-      <c r="BN33"/>
-      <c r="BO33"/>
-    </row>
-    <row r="34" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY34" s="9"/>
-      <c r="AZ34" s="2"/>
-      <c r="BA34" s="2"/>
-      <c r="BB34" s="162"/>
-      <c r="BC34" s="45"/>
-      <c r="BJ34" s="45"/>
-      <c r="BK34" s="45"/>
-      <c r="BM34" s="2"/>
-      <c r="BN34"/>
-      <c r="BO34"/>
-    </row>
-    <row r="35" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY35" s="9"/>
-      <c r="AZ35" s="2"/>
-      <c r="BA35" s="2"/>
-      <c r="BB35" s="162"/>
-      <c r="BC35" s="45"/>
-      <c r="BJ35" s="45"/>
-      <c r="BK35" s="45"/>
-      <c r="BM35" s="2"/>
-      <c r="BN35"/>
-      <c r="BO35"/>
-    </row>
-    <row r="36" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY36" s="9"/>
-      <c r="AZ36" s="2"/>
-      <c r="BA36" s="2"/>
-      <c r="BB36" s="162"/>
-      <c r="BC36" s="45"/>
-      <c r="BJ36" s="45"/>
-      <c r="BK36" s="45"/>
-      <c r="BM36" s="2"/>
-      <c r="BN36"/>
-      <c r="BO36"/>
-    </row>
-    <row r="37" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY37" s="9"/>
-      <c r="AZ37" s="2"/>
-      <c r="BA37" s="2"/>
-      <c r="BB37" s="162"/>
-      <c r="BC37" s="45"/>
-      <c r="BJ37" s="45"/>
-      <c r="BK37" s="45"/>
-      <c r="BM37" s="2"/>
-      <c r="BN37"/>
-      <c r="BO37"/>
-    </row>
-    <row r="38" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY38" s="9"/>
-      <c r="AZ38" s="2"/>
-      <c r="BA38" s="2"/>
-      <c r="BB38" s="162"/>
-      <c r="BC38" s="45"/>
-      <c r="BJ38" s="45"/>
-      <c r="BK38" s="45"/>
-      <c r="BM38" s="2"/>
-      <c r="BN38"/>
-      <c r="BO38"/>
-    </row>
-    <row r="39" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY39" s="9"/>
-      <c r="AZ39" s="2"/>
-      <c r="BA39" s="2"/>
-      <c r="BB39" s="162"/>
-      <c r="BC39" s="45"/>
-      <c r="BJ39" s="45"/>
-      <c r="BK39" s="45"/>
-      <c r="BM39" s="2"/>
-      <c r="BN39"/>
-      <c r="BO39"/>
-    </row>
-    <row r="40" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY40" s="9"/>
-      <c r="AZ40" s="2"/>
-      <c r="BA40" s="2"/>
-      <c r="BB40" s="162"/>
-      <c r="BC40" s="45"/>
-      <c r="BJ40" s="45"/>
-      <c r="BK40" s="45"/>
-      <c r="BM40" s="2"/>
-      <c r="BN40"/>
-      <c r="BO40"/>
-    </row>
-    <row r="41" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY41" s="9"/>
-      <c r="AZ41" s="2"/>
-      <c r="BA41" s="2"/>
-      <c r="BB41" s="162"/>
-      <c r="BC41" s="45"/>
-      <c r="BJ41" s="45"/>
-      <c r="BK41" s="45"/>
-      <c r="BM41" s="2"/>
-      <c r="BN41"/>
-      <c r="BO41"/>
-    </row>
-    <row r="42" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY42" s="9"/>
-      <c r="AZ42" s="2"/>
-      <c r="BA42" s="2"/>
-      <c r="BB42" s="162"/>
-      <c r="BC42" s="45"/>
-      <c r="BJ42" s="45"/>
-      <c r="BK42" s="45"/>
-      <c r="BM42" s="2"/>
-      <c r="BN42"/>
-      <c r="BO42"/>
-    </row>
-    <row r="43" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY43" s="9"/>
-      <c r="AZ43" s="2"/>
-      <c r="BA43" s="2"/>
-      <c r="BB43" s="162"/>
-      <c r="BC43" s="45"/>
-      <c r="BJ43" s="45"/>
-      <c r="BK43" s="45"/>
-      <c r="BM43" s="2"/>
-      <c r="BN43"/>
-      <c r="BO43"/>
-    </row>
-    <row r="44" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY44" s="9"/>
-      <c r="AZ44" s="2"/>
-      <c r="BA44" s="2"/>
-      <c r="BB44" s="162"/>
-      <c r="BC44" s="45"/>
-      <c r="BJ44" s="45"/>
-      <c r="BK44" s="45"/>
-      <c r="BM44" s="2"/>
-      <c r="BN44"/>
-      <c r="BO44"/>
-    </row>
-    <row r="45" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY45" s="9"/>
-      <c r="AZ45" s="2"/>
-      <c r="BA45" s="2"/>
-      <c r="BB45" s="162"/>
-      <c r="BC45" s="45"/>
-      <c r="BJ45" s="45"/>
-      <c r="BK45" s="45"/>
-      <c r="BM45" s="2"/>
-      <c r="BN45"/>
-      <c r="BO45"/>
-    </row>
-    <row r="46" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY46" s="9"/>
-      <c r="AZ46" s="2"/>
-      <c r="BA46" s="2"/>
-      <c r="BB46" s="162"/>
-      <c r="BC46" s="45"/>
-      <c r="BJ46" s="45"/>
-      <c r="BK46" s="45"/>
-      <c r="BM46" s="2"/>
-      <c r="BN46"/>
-      <c r="BO46"/>
-    </row>
-    <row r="47" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY47" s="9"/>
-      <c r="AZ47" s="2"/>
-      <c r="BA47" s="2"/>
-      <c r="BB47" s="162"/>
-      <c r="BC47" s="45"/>
-      <c r="BJ47" s="45"/>
-      <c r="BK47" s="45"/>
-      <c r="BM47" s="2"/>
-      <c r="BN47"/>
-      <c r="BO47"/>
-    </row>
-    <row r="48" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY48" s="9"/>
-      <c r="AZ48" s="2"/>
-      <c r="BA48" s="2"/>
-      <c r="BB48" s="162"/>
-      <c r="BC48" s="45"/>
-      <c r="BJ48" s="45"/>
-      <c r="BK48" s="45"/>
-      <c r="BM48" s="2"/>
-      <c r="BN48"/>
-      <c r="BO48"/>
-    </row>
-    <row r="49" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY49" s="9"/>
-      <c r="AZ49" s="2"/>
-      <c r="BA49" s="2"/>
-      <c r="BB49" s="162"/>
-      <c r="BC49" s="45"/>
-      <c r="BJ49" s="45"/>
-      <c r="BK49" s="45"/>
-      <c r="BM49" s="2"/>
-      <c r="BN49"/>
-      <c r="BO49"/>
-    </row>
-    <row r="50" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY50" s="9"/>
-      <c r="AZ50" s="2"/>
-      <c r="BA50" s="2"/>
-      <c r="BB50" s="162"/>
-      <c r="BC50" s="45"/>
-      <c r="BJ50" s="45"/>
-      <c r="BK50" s="45"/>
-      <c r="BM50" s="2"/>
-      <c r="BN50"/>
-      <c r="BO50"/>
-    </row>
-    <row r="51" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY51" s="9"/>
-      <c r="AZ51" s="2"/>
-      <c r="BA51" s="2"/>
-      <c r="BB51" s="162"/>
-      <c r="BC51" s="45"/>
-      <c r="BJ51" s="45"/>
-      <c r="BK51" s="45"/>
-      <c r="BM51" s="2"/>
-      <c r="BN51"/>
-      <c r="BO51"/>
-    </row>
-    <row r="52" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY52" s="9"/>
-      <c r="AZ52" s="2"/>
-      <c r="BA52" s="2"/>
-      <c r="BB52" s="162"/>
-      <c r="BC52" s="45"/>
-      <c r="BJ52" s="45"/>
-      <c r="BK52" s="45"/>
-      <c r="BM52" s="2"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-    </row>
-    <row r="53" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY53" s="9"/>
-      <c r="AZ53" s="2"/>
-      <c r="BA53" s="2"/>
-      <c r="BB53" s="162"/>
-      <c r="BC53" s="45"/>
-      <c r="BJ53" s="45"/>
-      <c r="BK53" s="45"/>
-      <c r="BM53" s="2"/>
-      <c r="BN53"/>
-      <c r="BO53"/>
-    </row>
-    <row r="54" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY54" s="9"/>
-      <c r="AZ54" s="2"/>
-      <c r="BA54" s="2"/>
-      <c r="BB54" s="162"/>
-      <c r="BC54" s="45"/>
-      <c r="BJ54" s="45"/>
-      <c r="BK54" s="45"/>
-      <c r="BM54" s="2"/>
-      <c r="BN54"/>
-      <c r="BO54"/>
-    </row>
-    <row r="55" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY55" s="9"/>
-      <c r="AZ55" s="2"/>
-      <c r="BA55" s="2"/>
-      <c r="BB55" s="162"/>
-      <c r="BC55" s="45"/>
-      <c r="BJ55" s="45"/>
-      <c r="BK55" s="45"/>
-      <c r="BM55" s="2"/>
-      <c r="BN55"/>
-      <c r="BO55"/>
-    </row>
-    <row r="56" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY56" s="9"/>
-      <c r="AZ56" s="2"/>
-      <c r="BA56" s="2"/>
-      <c r="BB56" s="162"/>
-      <c r="BC56" s="45"/>
-      <c r="BJ56" s="45"/>
-      <c r="BK56" s="45"/>
-      <c r="BM56" s="2"/>
-      <c r="BN56"/>
-      <c r="BO56"/>
-    </row>
-    <row r="57" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY57" s="9"/>
-      <c r="AZ57" s="2"/>
-      <c r="BA57" s="2"/>
-      <c r="BB57" s="162"/>
-      <c r="BC57" s="45"/>
-      <c r="BJ57" s="45"/>
-      <c r="BK57" s="45"/>
-      <c r="BM57" s="2"/>
-      <c r="BN57"/>
-      <c r="BO57"/>
-    </row>
-    <row r="58" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY58" s="9"/>
-      <c r="AZ58" s="2"/>
-      <c r="BA58" s="2"/>
-      <c r="BB58" s="162"/>
-      <c r="BC58" s="45"/>
-      <c r="BJ58" s="45"/>
-      <c r="BK58" s="45"/>
-      <c r="BM58" s="2"/>
-      <c r="BN58"/>
-      <c r="BO58"/>
-    </row>
-    <row r="59" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY59" s="9"/>
-      <c r="AZ59" s="2"/>
-      <c r="BA59" s="2"/>
-      <c r="BB59" s="162"/>
-      <c r="BC59" s="45"/>
-      <c r="BJ59" s="45"/>
-      <c r="BK59" s="45"/>
-      <c r="BM59" s="2"/>
-      <c r="BN59"/>
-      <c r="BO59"/>
-    </row>
-    <row r="60" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY60" s="9"/>
-      <c r="AZ60" s="2"/>
-      <c r="BA60" s="2"/>
-      <c r="BB60" s="162"/>
-      <c r="BC60" s="45"/>
-      <c r="BJ60" s="45"/>
-      <c r="BK60" s="45"/>
-      <c r="BM60" s="2"/>
-      <c r="BN60"/>
-      <c r="BO60"/>
-    </row>
-    <row r="61" spans="51:67" x14ac:dyDescent="0.25">
-      <c r="AY61" s="9"/>
-      <c r="AZ61" s="2"/>
-      <c r="BA61" s="2"/>
-      <c r="BB61" s="162"/>
-      <c r="BC61" s="45"/>
-      <c r="BJ61" s="45"/>
-      <c r="BK61" s="45"/>
-      <c r="BM61" s="2"/>
-      <c r="BN61"/>
-      <c r="BO61"/>
+      <c r="BJ29" s="8"/>
+      <c r="BK29" s="8"/>
+      <c r="BL29" s="6"/>
+      <c r="BM29" s="7"/>
+      <c r="BN29" s="48"/>
+      <c r="BO29" s="64"/>
+      <c r="BP29" s="64"/>
+      <c r="BQ29" s="6"/>
+    </row>
+    <row r="33" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA33" s="9"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="162"/>
+      <c r="BE33" s="45"/>
+      <c r="BL33" s="45"/>
+      <c r="BM33" s="45"/>
+      <c r="BO33" s="2"/>
+      <c r="BP33"/>
+      <c r="BQ33"/>
+    </row>
+    <row r="34" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA34" s="9"/>
+      <c r="BB34" s="2"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="162"/>
+      <c r="BE34" s="45"/>
+      <c r="BL34" s="45"/>
+      <c r="BM34" s="45"/>
+      <c r="BO34" s="2"/>
+      <c r="BP34"/>
+      <c r="BQ34"/>
+    </row>
+    <row r="35" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA35" s="9"/>
+      <c r="BB35" s="2"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="162"/>
+      <c r="BE35" s="45"/>
+      <c r="BL35" s="45"/>
+      <c r="BM35" s="45"/>
+      <c r="BO35" s="2"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+    </row>
+    <row r="36" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA36" s="9"/>
+      <c r="BB36" s="2"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="162"/>
+      <c r="BE36" s="45"/>
+      <c r="BL36" s="45"/>
+      <c r="BM36" s="45"/>
+      <c r="BO36" s="2"/>
+      <c r="BP36"/>
+      <c r="BQ36"/>
+    </row>
+    <row r="37" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA37" s="9"/>
+      <c r="BB37" s="2"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="162"/>
+      <c r="BE37" s="45"/>
+      <c r="BL37" s="45"/>
+      <c r="BM37" s="45"/>
+      <c r="BO37" s="2"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+    </row>
+    <row r="38" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA38" s="9"/>
+      <c r="BB38" s="2"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="162"/>
+      <c r="BE38" s="45"/>
+      <c r="BL38" s="45"/>
+      <c r="BM38" s="45"/>
+      <c r="BO38" s="2"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+    </row>
+    <row r="39" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA39" s="9"/>
+      <c r="BB39" s="2"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="162"/>
+      <c r="BE39" s="45"/>
+      <c r="BL39" s="45"/>
+      <c r="BM39" s="45"/>
+      <c r="BO39" s="2"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+    </row>
+    <row r="40" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA40" s="9"/>
+      <c r="BB40" s="2"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="162"/>
+      <c r="BE40" s="45"/>
+      <c r="BL40" s="45"/>
+      <c r="BM40" s="45"/>
+      <c r="BO40" s="2"/>
+      <c r="BP40"/>
+      <c r="BQ40"/>
+    </row>
+    <row r="41" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA41" s="9"/>
+      <c r="BB41" s="2"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="162"/>
+      <c r="BE41" s="45"/>
+      <c r="BL41" s="45"/>
+      <c r="BM41" s="45"/>
+      <c r="BO41" s="2"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+    </row>
+    <row r="42" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA42" s="9"/>
+      <c r="BB42" s="2"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="162"/>
+      <c r="BE42" s="45"/>
+      <c r="BL42" s="45"/>
+      <c r="BM42" s="45"/>
+      <c r="BO42" s="2"/>
+      <c r="BP42"/>
+      <c r="BQ42"/>
+    </row>
+    <row r="43" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA43" s="9"/>
+      <c r="BB43" s="2"/>
+      <c r="BC43" s="2"/>
+      <c r="BD43" s="162"/>
+      <c r="BE43" s="45"/>
+      <c r="BL43" s="45"/>
+      <c r="BM43" s="45"/>
+      <c r="BO43" s="2"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+    </row>
+    <row r="44" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA44" s="9"/>
+      <c r="BB44" s="2"/>
+      <c r="BC44" s="2"/>
+      <c r="BD44" s="162"/>
+      <c r="BE44" s="45"/>
+      <c r="BL44" s="45"/>
+      <c r="BM44" s="45"/>
+      <c r="BO44" s="2"/>
+      <c r="BP44"/>
+      <c r="BQ44"/>
+    </row>
+    <row r="45" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA45" s="9"/>
+      <c r="BB45" s="2"/>
+      <c r="BC45" s="2"/>
+      <c r="BD45" s="162"/>
+      <c r="BE45" s="45"/>
+      <c r="BL45" s="45"/>
+      <c r="BM45" s="45"/>
+      <c r="BO45" s="2"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+    </row>
+    <row r="46" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA46" s="9"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="162"/>
+      <c r="BE46" s="45"/>
+      <c r="BL46" s="45"/>
+      <c r="BM46" s="45"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+    </row>
+    <row r="47" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA47" s="9"/>
+      <c r="BB47" s="2"/>
+      <c r="BC47" s="2"/>
+      <c r="BD47" s="162"/>
+      <c r="BE47" s="45"/>
+      <c r="BL47" s="45"/>
+      <c r="BM47" s="45"/>
+      <c r="BO47" s="2"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+    </row>
+    <row r="48" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA48" s="9"/>
+      <c r="BB48" s="2"/>
+      <c r="BC48" s="2"/>
+      <c r="BD48" s="162"/>
+      <c r="BE48" s="45"/>
+      <c r="BL48" s="45"/>
+      <c r="BM48" s="45"/>
+      <c r="BO48" s="2"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+    </row>
+    <row r="49" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA49" s="9"/>
+      <c r="BB49" s="2"/>
+      <c r="BC49" s="2"/>
+      <c r="BD49" s="162"/>
+      <c r="BE49" s="45"/>
+      <c r="BL49" s="45"/>
+      <c r="BM49" s="45"/>
+      <c r="BO49" s="2"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+    </row>
+    <row r="50" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA50" s="9"/>
+      <c r="BB50" s="2"/>
+      <c r="BC50" s="2"/>
+      <c r="BD50" s="162"/>
+      <c r="BE50" s="45"/>
+      <c r="BL50" s="45"/>
+      <c r="BM50" s="45"/>
+      <c r="BO50" s="2"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+    </row>
+    <row r="51" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA51" s="9"/>
+      <c r="BB51" s="2"/>
+      <c r="BC51" s="2"/>
+      <c r="BD51" s="162"/>
+      <c r="BE51" s="45"/>
+      <c r="BL51" s="45"/>
+      <c r="BM51" s="45"/>
+      <c r="BO51" s="2"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+    </row>
+    <row r="52" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA52" s="9"/>
+      <c r="BB52" s="2"/>
+      <c r="BC52" s="2"/>
+      <c r="BD52" s="162"/>
+      <c r="BE52" s="45"/>
+      <c r="BL52" s="45"/>
+      <c r="BM52" s="45"/>
+      <c r="BO52" s="2"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+    </row>
+    <row r="53" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="162"/>
+      <c r="BE53" s="45"/>
+      <c r="BL53" s="45"/>
+      <c r="BM53" s="45"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+    </row>
+    <row r="54" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA54" s="9"/>
+      <c r="BB54" s="2"/>
+      <c r="BC54" s="2"/>
+      <c r="BD54" s="162"/>
+      <c r="BE54" s="45"/>
+      <c r="BL54" s="45"/>
+      <c r="BM54" s="45"/>
+      <c r="BO54" s="2"/>
+      <c r="BP54"/>
+      <c r="BQ54"/>
+    </row>
+    <row r="55" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA55" s="9"/>
+      <c r="BB55" s="2"/>
+      <c r="BC55" s="2"/>
+      <c r="BD55" s="162"/>
+      <c r="BE55" s="45"/>
+      <c r="BL55" s="45"/>
+      <c r="BM55" s="45"/>
+      <c r="BO55" s="2"/>
+      <c r="BP55"/>
+      <c r="BQ55"/>
+    </row>
+    <row r="56" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA56" s="9"/>
+      <c r="BB56" s="2"/>
+      <c r="BC56" s="2"/>
+      <c r="BD56" s="162"/>
+      <c r="BE56" s="45"/>
+      <c r="BL56" s="45"/>
+      <c r="BM56" s="45"/>
+      <c r="BO56" s="2"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+    </row>
+    <row r="57" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA57" s="9"/>
+      <c r="BB57" s="2"/>
+      <c r="BC57" s="2"/>
+      <c r="BD57" s="162"/>
+      <c r="BE57" s="45"/>
+      <c r="BL57" s="45"/>
+      <c r="BM57" s="45"/>
+      <c r="BO57" s="2"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+    </row>
+    <row r="58" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA58" s="9"/>
+      <c r="BB58" s="2"/>
+      <c r="BC58" s="2"/>
+      <c r="BD58" s="162"/>
+      <c r="BE58" s="45"/>
+      <c r="BL58" s="45"/>
+      <c r="BM58" s="45"/>
+      <c r="BO58" s="2"/>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+    </row>
+    <row r="59" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA59" s="9"/>
+      <c r="BB59" s="2"/>
+      <c r="BC59" s="2"/>
+      <c r="BD59" s="162"/>
+      <c r="BE59" s="45"/>
+      <c r="BL59" s="45"/>
+      <c r="BM59" s="45"/>
+      <c r="BO59" s="2"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+    </row>
+    <row r="60" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA60" s="9"/>
+      <c r="BB60" s="2"/>
+      <c r="BC60" s="2"/>
+      <c r="BD60" s="162"/>
+      <c r="BE60" s="45"/>
+      <c r="BL60" s="45"/>
+      <c r="BM60" s="45"/>
+      <c r="BO60" s="2"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+    </row>
+    <row r="61" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA61" s="9"/>
+      <c r="BB61" s="2"/>
+      <c r="BC61" s="2"/>
+      <c r="BD61" s="162"/>
+      <c r="BE61" s="45"/>
+      <c r="BL61" s="45"/>
+      <c r="BM61" s="45"/>
+      <c r="BO61" s="2"/>
+      <c r="BP61"/>
+      <c r="BQ61"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="BK2:BO2"/>
+    <mergeCell ref="BM2:BQ2"/>
     <mergeCell ref="H2:V2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="W2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AX2"/>
-    <mergeCell ref="BD2:BJ2"/>
-    <mergeCell ref="AY2:BC2"/>
+    <mergeCell ref="AQ2:AZ2"/>
+    <mergeCell ref="BF2:BL2"/>
+    <mergeCell ref="BA2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BK4:BO30 BF4:BJ16 BD4 AY4:AY29 BC4:BC16 BC17:BJ28 AY30:AZ30 BA29:BJ30 BA4:BA28 AC4:AX30">
-    <cfRule type="expression" dxfId="44" priority="35" stopIfTrue="1">
+  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BM4:BQ30 BH4:BL16 BF4 BA4:BA29 BE4:BE16 BE17:BL28 BA30:BB30 BC29:BL30 BC4:BC28 AC4:AZ30">
+    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="36" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="42" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="33" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="34" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="40" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="47" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="48" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="19" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD5:BD16">
-    <cfRule type="expression" dxfId="36" priority="17" stopIfTrue="1">
+  <conditionalFormatting sqref="BF5:BF16">
+    <cfRule type="expression" dxfId="50" priority="17" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="18" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE4:BE16">
-    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="BG4:BG16">
+    <cfRule type="expression" dxfId="48" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4:AZ29">
-    <cfRule type="expression" dxfId="32" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="BB4:BB29">
+    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB28">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="BD4:BD28">
+    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14783,42 +15060,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="28" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="26" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="24" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="22" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46264,31 +46541,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="13" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4635,6 +4635,9 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4710,197 +4713,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4969,20 +4787,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5469,10 +5273,10 @@
   <dimension ref="A1:BQ61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AW5" sqref="AW5"/>
+      <selection pane="bottomRight" activeCell="AU12" sqref="AU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5524,90 +5328,90 @@
   <sheetData>
     <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="169" t="s">
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="170" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="170"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="170"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="167" t="s">
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="168" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="177" t="s">
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="176"/>
+      <c r="AB2" s="176"/>
+      <c r="AC2" s="176"/>
+      <c r="AD2" s="177"/>
+      <c r="AE2" s="178" t="s">
         <v>1126</v>
       </c>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="178"/>
-      <c r="AM2" s="178"/>
-      <c r="AN2" s="178"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="180" t="s">
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="179"/>
+      <c r="AK2" s="179"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="179"/>
+      <c r="AN2" s="179"/>
+      <c r="AO2" s="179"/>
+      <c r="AP2" s="180"/>
+      <c r="AQ2" s="181" t="s">
         <v>1130</v>
       </c>
-      <c r="AR2" s="181"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="181"/>
-      <c r="AU2" s="181"/>
-      <c r="AV2" s="181"/>
-      <c r="AW2" s="181"/>
-      <c r="AX2" s="181"/>
-      <c r="AY2" s="181"/>
-      <c r="AZ2" s="182"/>
-      <c r="BA2" s="186" t="s">
+      <c r="AR2" s="182"/>
+      <c r="AS2" s="182"/>
+      <c r="AT2" s="182"/>
+      <c r="AU2" s="182"/>
+      <c r="AV2" s="182"/>
+      <c r="AW2" s="182"/>
+      <c r="AX2" s="182"/>
+      <c r="AY2" s="182"/>
+      <c r="AZ2" s="183"/>
+      <c r="BA2" s="187" t="s">
         <v>1138</v>
       </c>
-      <c r="BB2" s="187"/>
-      <c r="BC2" s="187"/>
-      <c r="BD2" s="187"/>
-      <c r="BE2" s="188"/>
-      <c r="BF2" s="183" t="s">
+      <c r="BB2" s="188"/>
+      <c r="BC2" s="188"/>
+      <c r="BD2" s="188"/>
+      <c r="BE2" s="189"/>
+      <c r="BF2" s="184" t="s">
         <v>1129</v>
       </c>
-      <c r="BG2" s="184"/>
-      <c r="BH2" s="184"/>
-      <c r="BI2" s="184"/>
-      <c r="BJ2" s="184"/>
-      <c r="BK2" s="184"/>
-      <c r="BL2" s="185"/>
-      <c r="BM2" s="166" t="s">
+      <c r="BG2" s="185"/>
+      <c r="BH2" s="185"/>
+      <c r="BI2" s="185"/>
+      <c r="BJ2" s="185"/>
+      <c r="BK2" s="185"/>
+      <c r="BL2" s="186"/>
+      <c r="BM2" s="167" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="167"/>
-      <c r="BO2" s="167"/>
-      <c r="BP2" s="167"/>
-      <c r="BQ2" s="168"/>
+      <c r="BN2" s="168"/>
+      <c r="BO2" s="168"/>
+      <c r="BP2" s="168"/>
+      <c r="BQ2" s="169"/>
     </row>
     <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -5752,13 +5556,13 @@
       <c r="AV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="191" t="s">
+      <c r="AW3" s="166" t="s">
         <v>1141</v>
       </c>
       <c r="AX3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="191" t="s">
+      <c r="AY3" s="166" t="s">
         <v>1142</v>
       </c>
       <c r="AZ3" s="74" t="s">
@@ -7549,7 +7353,7 @@
         <v>32</v>
       </c>
       <c r="AU12" s="41" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AV12" s="41" t="s">
         <v>32</v>
@@ -10986,66 +10790,66 @@
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
   <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BM4:BQ30 BH4:BL16 BF4 BA4:BA29 BE4:BE16 BE17:BL28 BA30:BB30 BC29:BL30 BC4:BC28 AC4:AZ30">
-    <cfRule type="expression" dxfId="58" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="56" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="54" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="47" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="48" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="52" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="50" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="48" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB29">
-    <cfRule type="expression" dxfId="46" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="44" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11106,74 +10910,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="174"/>
-      <c r="I2" s="166" t="s">
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="167" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="167"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="177" t="s">
+      <c r="J2" s="168"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178"/>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="189" t="s">
+      <c r="V2" s="179"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="179"/>
+      <c r="Y2" s="179"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="179"/>
+      <c r="AB2" s="179"/>
+      <c r="AC2" s="179"/>
+      <c r="AD2" s="179"/>
+      <c r="AE2" s="179"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="179"/>
+      <c r="AH2" s="179"/>
+      <c r="AI2" s="179"/>
+      <c r="AJ2" s="180"/>
+      <c r="AK2" s="190" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="181"/>
-      <c r="AM2" s="181"/>
-      <c r="AN2" s="181"/>
-      <c r="AO2" s="181"/>
-      <c r="AP2" s="182"/>
-      <c r="AQ2" s="189" t="s">
+      <c r="AL2" s="182"/>
+      <c r="AM2" s="182"/>
+      <c r="AN2" s="182"/>
+      <c r="AO2" s="182"/>
+      <c r="AP2" s="183"/>
+      <c r="AQ2" s="190" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="180"/>
-      <c r="AS2" s="180"/>
-      <c r="AT2" s="190"/>
-      <c r="AU2" s="186" t="s">
+      <c r="AR2" s="181"/>
+      <c r="AS2" s="181"/>
+      <c r="AT2" s="191"/>
+      <c r="AU2" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="187"/>
-      <c r="AW2" s="187"/>
-      <c r="AX2" s="188"/>
-      <c r="AY2" s="166" t="s">
+      <c r="AV2" s="188"/>
+      <c r="AW2" s="188"/>
+      <c r="AX2" s="189"/>
+      <c r="AY2" s="167" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="167"/>
-      <c r="BA2" s="167"/>
-      <c r="BB2" s="167"/>
-      <c r="BC2" s="168"/>
+      <c r="AZ2" s="168"/>
+      <c r="BA2" s="168"/>
+      <c r="BB2" s="168"/>
+      <c r="BC2" s="169"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -15060,42 +14864,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="40" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="36" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="34" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46541,31 +46345,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="27" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -36,7 +36,7 @@
     <definedName name="_Toc46290869" localSheetId="2">Variables!$B$770</definedName>
     <definedName name="_Toc46290870" localSheetId="2">Variables!$B$781</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TestMatrix!$B$2:$AX$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BE$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BE$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1145">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3478,6 +3478,12 @@
   </si>
   <si>
     <t>Tower Aero</t>
+  </si>
+  <si>
+    <t>Test26</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, tower potential flow and drag, turbulence - using BeamDyn</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -4179,12 +4185,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4713,12 +4780,252 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -5270,13 +5577,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ61"/>
+  <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AU13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AU12" sqref="AU12"/>
+      <selection pane="bottomRight" activeCell="BQ29" sqref="BQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5303,8 +5610,7 @@
     <col min="28" max="28" width="3.33203125" style="2" customWidth="1"/>
     <col min="29" max="30" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.33203125" style="2" customWidth="1"/>
-    <col min="33" max="34" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="43" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -10358,89 +10664,267 @@
       </c>
       <c r="BQ28" s="42"/>
     </row>
-    <row r="29" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="5"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4" t="s">
+    <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="192" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C29" s="193" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D29" s="194">
+        <v>3</v>
+      </c>
+      <c r="E29" s="25">
+        <v>126</v>
+      </c>
+      <c r="F29" s="25">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="143" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H29" s="195">
+        <v>20</v>
+      </c>
+      <c r="I29" s="196">
+        <v>1E-3</v>
+      </c>
+      <c r="J29" s="194">
+        <v>2</v>
+      </c>
+      <c r="K29" s="194">
+        <v>0</v>
+      </c>
+      <c r="L29" s="25">
+        <v>99999</v>
+      </c>
+      <c r="M29" s="194">
+        <v>2</v>
+      </c>
+      <c r="N29" s="194">
+        <v>2</v>
+      </c>
+      <c r="O29" s="194">
+        <v>1</v>
+      </c>
+      <c r="P29" s="194">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="194">
+        <v>0</v>
+      </c>
+      <c r="R29" s="194">
+        <v>0</v>
+      </c>
+      <c r="S29" s="194">
+        <v>0</v>
+      </c>
+      <c r="T29" s="196">
+        <f>I29</f>
+        <v>1E-3</v>
+      </c>
+      <c r="U29" s="194">
+        <v>0</v>
+      </c>
+      <c r="V29" s="197">
+        <v>2</v>
+      </c>
+      <c r="W29" s="43">
+        <v>0</v>
+      </c>
+      <c r="X29" s="25">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="25">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="25">
+        <v>2</v>
+      </c>
+      <c r="AA29" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI29" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO29" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP29" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ29" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR29" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX29" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY29" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ29" s="197"/>
+      <c r="BA29" s="43">
+        <v>3</v>
+      </c>
+      <c r="BB29" s="151">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="151">
+        <v>12</v>
+      </c>
+      <c r="BD29" s="44">
+        <v>0.2</v>
+      </c>
+      <c r="BE29" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="BF29" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ29" s="198"/>
+      <c r="BK29" s="198"/>
+      <c r="BL29" s="197"/>
+      <c r="BM29" s="199"/>
+      <c r="BN29" s="200"/>
+      <c r="BO29" s="201"/>
+      <c r="BP29" s="201" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BQ29" s="197"/>
+    </row>
+    <row r="30" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="5"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="7"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-      <c r="AL29" s="4"/>
-      <c r="AM29" s="4"/>
-      <c r="AN29" s="4"/>
-      <c r="AO29" s="4"/>
-      <c r="AP29" s="6"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="4"/>
-      <c r="AS29" s="8"/>
-      <c r="AT29" s="8"/>
-      <c r="AU29" s="8"/>
-      <c r="AV29" s="8"/>
-      <c r="AW29" s="8"/>
-      <c r="AX29" s="8"/>
-      <c r="AY29" s="8"/>
-      <c r="AZ29" s="6"/>
-      <c r="BA29" s="7"/>
-      <c r="BB29" s="153"/>
-      <c r="BC29" s="153"/>
-      <c r="BD29" s="161"/>
-      <c r="BE29" s="6"/>
-      <c r="BF29" s="100"/>
-      <c r="BG29" s="8"/>
-      <c r="BH29" s="8"/>
-      <c r="BI29" s="8"/>
-      <c r="BJ29" s="8"/>
-      <c r="BK29" s="8"/>
-      <c r="BL29" s="6"/>
-      <c r="BM29" s="7"/>
-      <c r="BN29" s="48"/>
-      <c r="BO29" s="64"/>
-      <c r="BP29" s="64"/>
-      <c r="BQ29" s="6"/>
-    </row>
-    <row r="33" spans="53:69" x14ac:dyDescent="0.25">
-      <c r="BA33" s="9"/>
-      <c r="BB33" s="2"/>
-      <c r="BC33" s="2"/>
-      <c r="BD33" s="162"/>
-      <c r="BE33" s="45"/>
-      <c r="BL33" s="45"/>
-      <c r="BM33" s="45"/>
-      <c r="BO33" s="2"/>
-      <c r="BP33"/>
-      <c r="BQ33"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="4"/>
+      <c r="AH30" s="4"/>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4"/>
+      <c r="AK30" s="4"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="8"/>
+      <c r="AT30" s="8"/>
+      <c r="AU30" s="8"/>
+      <c r="AV30" s="8"/>
+      <c r="AW30" s="8"/>
+      <c r="AX30" s="8"/>
+      <c r="AY30" s="8"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="153"/>
+      <c r="BC30" s="153"/>
+      <c r="BD30" s="161"/>
+      <c r="BE30" s="6"/>
+      <c r="BF30" s="100"/>
+      <c r="BG30" s="8"/>
+      <c r="BH30" s="8"/>
+      <c r="BI30" s="8"/>
+      <c r="BJ30" s="8"/>
+      <c r="BK30" s="8"/>
+      <c r="BL30" s="6"/>
+      <c r="BM30" s="7"/>
+      <c r="BN30" s="48"/>
+      <c r="BO30" s="64"/>
+      <c r="BP30" s="64"/>
+      <c r="BQ30" s="6"/>
     </row>
     <row r="34" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA34" s="9"/>
@@ -10778,6 +11262,18 @@
       <c r="BP61"/>
       <c r="BQ61"/>
     </row>
+    <row r="62" spans="53:69" x14ac:dyDescent="0.25">
+      <c r="BA62" s="9"/>
+      <c r="BB62" s="2"/>
+      <c r="BC62" s="2"/>
+      <c r="BD62" s="162"/>
+      <c r="BE62" s="45"/>
+      <c r="BL62" s="45"/>
+      <c r="BM62" s="45"/>
+      <c r="BO62" s="2"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="BM2:BQ2"/>
@@ -10789,68 +11285,108 @@
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A29:G30 W14:Z30 H4:V30 AA14 A4:G27 AA18:AA29 W4:AB13 AB14:AB30 BM4:BQ30 BH4:BL16 BF4 BA4:BA29 BE4:BE16 BE17:BL28 BA30:BB30 BC29:BL30 BC4:BC28 AC4:AZ30">
-    <cfRule type="expression" dxfId="32" priority="35" stopIfTrue="1">
+  <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 AC4:BA28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AZ29 BA30 BF29:BL29">
+    <cfRule type="expression" dxfId="62" priority="45" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="46" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:G28">
-    <cfRule type="expression" dxfId="30" priority="33" stopIfTrue="1">
+  <conditionalFormatting sqref="A28:G28 A29:F29">
+    <cfRule type="expression" dxfId="60" priority="43" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="44" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="28" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="29" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="30" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="24" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="27" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="22" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="25" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB29">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="BB4:BB28 BB30">
+    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="14" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>$A4="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+      <formula>$A29="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$A29="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29:AD29">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+      <formula>$A29="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
+      <formula>$A29="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE29 BC29 BA29">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>$A29="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+      <formula>$A29="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB29">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+      <formula>$A29="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>$A29="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD29">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$A29="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -14864,42 +15400,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46345,31 +46881,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4705,6 +4705,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4780,42 +4810,43 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4829,6 +4860,30 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="53"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4899,201 +4954,6 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="53"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5580,10 +5440,10 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AU13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BQ29" sqref="BQ29"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5634,90 +5494,90 @@
   <sheetData>
     <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="170" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="180" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="171"/>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="172"/>
-      <c r="W2" s="168" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="178" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="176"/>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="176"/>
-      <c r="AD2" s="177"/>
-      <c r="AE2" s="178" t="s">
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="188" t="s">
         <v>1126</v>
       </c>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="179"/>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="180"/>
-      <c r="AQ2" s="181" t="s">
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="189"/>
+      <c r="AK2" s="189"/>
+      <c r="AL2" s="189"/>
+      <c r="AM2" s="189"/>
+      <c r="AN2" s="189"/>
+      <c r="AO2" s="189"/>
+      <c r="AP2" s="190"/>
+      <c r="AQ2" s="191" t="s">
         <v>1130</v>
       </c>
-      <c r="AR2" s="182"/>
-      <c r="AS2" s="182"/>
-      <c r="AT2" s="182"/>
-      <c r="AU2" s="182"/>
-      <c r="AV2" s="182"/>
-      <c r="AW2" s="182"/>
-      <c r="AX2" s="182"/>
-      <c r="AY2" s="182"/>
-      <c r="AZ2" s="183"/>
-      <c r="BA2" s="187" t="s">
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="192"/>
+      <c r="AV2" s="192"/>
+      <c r="AW2" s="192"/>
+      <c r="AX2" s="192"/>
+      <c r="AY2" s="192"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="197" t="s">
         <v>1138</v>
       </c>
-      <c r="BB2" s="188"/>
-      <c r="BC2" s="188"/>
-      <c r="BD2" s="188"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="184" t="s">
+      <c r="BB2" s="198"/>
+      <c r="BC2" s="198"/>
+      <c r="BD2" s="198"/>
+      <c r="BE2" s="199"/>
+      <c r="BF2" s="194" t="s">
         <v>1129</v>
       </c>
-      <c r="BG2" s="185"/>
-      <c r="BH2" s="185"/>
-      <c r="BI2" s="185"/>
-      <c r="BJ2" s="185"/>
-      <c r="BK2" s="185"/>
-      <c r="BL2" s="186"/>
-      <c r="BM2" s="167" t="s">
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="196"/>
+      <c r="BM2" s="177" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="168"/>
-      <c r="BO2" s="168"/>
-      <c r="BP2" s="168"/>
-      <c r="BQ2" s="169"/>
+      <c r="BN2" s="178"/>
+      <c r="BO2" s="178"/>
+      <c r="BP2" s="178"/>
+      <c r="BQ2" s="179"/>
     </row>
     <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -10166,7 +10026,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S26" s="25">
         <v>0</v>
@@ -10532,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S28" s="25">
         <v>0</v>
@@ -10666,13 +10526,13 @@
     </row>
     <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="192" t="s">
+      <c r="B29" s="167" t="s">
         <v>1143</v>
       </c>
-      <c r="C29" s="193" t="s">
+      <c r="C29" s="168" t="s">
         <v>1089</v>
       </c>
-      <c r="D29" s="194">
+      <c r="D29" s="169">
         <v>3</v>
       </c>
       <c r="E29" s="25">
@@ -10684,50 +10544,50 @@
       <c r="G29" s="143" t="s">
         <v>1144</v>
       </c>
-      <c r="H29" s="195">
+      <c r="H29" s="170">
         <v>20</v>
       </c>
-      <c r="I29" s="196">
+      <c r="I29" s="171">
         <v>1E-3</v>
       </c>
-      <c r="J29" s="194">
+      <c r="J29" s="169">
         <v>2</v>
       </c>
-      <c r="K29" s="194">
+      <c r="K29" s="169">
         <v>0</v>
       </c>
       <c r="L29" s="25">
         <v>99999</v>
       </c>
-      <c r="M29" s="194">
+      <c r="M29" s="169">
         <v>2</v>
       </c>
-      <c r="N29" s="194">
+      <c r="N29" s="169">
         <v>2</v>
       </c>
-      <c r="O29" s="194">
+      <c r="O29" s="169">
         <v>1</v>
       </c>
-      <c r="P29" s="194">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="194">
-        <v>0</v>
-      </c>
-      <c r="R29" s="194">
-        <v>0</v>
-      </c>
-      <c r="S29" s="194">
-        <v>0</v>
-      </c>
-      <c r="T29" s="196">
+      <c r="P29" s="169">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="169">
+        <v>0</v>
+      </c>
+      <c r="R29" s="169">
+        <v>0</v>
+      </c>
+      <c r="S29" s="169">
+        <v>0</v>
+      </c>
+      <c r="T29" s="171">
         <f>I29</f>
         <v>1E-3</v>
       </c>
-      <c r="U29" s="194">
-        <v>0</v>
-      </c>
-      <c r="V29" s="197">
+      <c r="U29" s="169">
+        <v>0</v>
+      </c>
+      <c r="V29" s="172">
         <v>2</v>
       </c>
       <c r="W29" s="43">
@@ -10815,7 +10675,7 @@
       <c r="AY29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AZ29" s="197"/>
+      <c r="AZ29" s="172"/>
       <c r="BA29" s="43">
         <v>3</v>
       </c>
@@ -10843,16 +10703,16 @@
       <c r="BI29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BJ29" s="198"/>
-      <c r="BK29" s="198"/>
-      <c r="BL29" s="197"/>
-      <c r="BM29" s="199"/>
-      <c r="BN29" s="200"/>
-      <c r="BO29" s="201"/>
-      <c r="BP29" s="201" t="s">
+      <c r="BJ29" s="173"/>
+      <c r="BK29" s="173"/>
+      <c r="BL29" s="172"/>
+      <c r="BM29" s="174"/>
+      <c r="BN29" s="175"/>
+      <c r="BO29" s="176"/>
+      <c r="BP29" s="176" t="s">
         <v>1050</v>
       </c>
-      <c r="BQ29" s="197"/>
+      <c r="BQ29" s="172"/>
     </row>
     <row r="30" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
@@ -11286,106 +11146,106 @@
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 AC4:BA28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AZ29 BA30 BF29:BL29">
-    <cfRule type="expression" dxfId="62" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 A29:F29">
-    <cfRule type="expression" dxfId="60" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="58" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="57" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="58" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="56" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="54" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="27" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="28" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="52" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB28 BB30">
-    <cfRule type="expression" dxfId="50" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="13" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="48" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:AD29">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE29 BC29 BA29">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB29">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD29">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11446,74 +11306,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="167" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="177" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="177"/>
-      <c r="U2" s="178" t="s">
+      <c r="J2" s="178"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179"/>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="180"/>
-      <c r="AK2" s="190" t="s">
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="182"/>
-      <c r="AM2" s="182"/>
-      <c r="AN2" s="182"/>
-      <c r="AO2" s="182"/>
-      <c r="AP2" s="183"/>
-      <c r="AQ2" s="190" t="s">
+      <c r="AL2" s="192"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="200" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="181"/>
-      <c r="AS2" s="181"/>
-      <c r="AT2" s="191"/>
-      <c r="AU2" s="187" t="s">
+      <c r="AR2" s="191"/>
+      <c r="AS2" s="191"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="188"/>
-      <c r="AW2" s="188"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="167" t="s">
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="177" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="168"/>
-      <c r="BA2" s="168"/>
-      <c r="BB2" s="168"/>
-      <c r="BC2" s="169"/>
+      <c r="AZ2" s="178"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="179"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -15400,42 +15260,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="44" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46881,31 +46741,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="36" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="34" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="32" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="31" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -5440,10 +5440,10 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5819,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="25">
         <v>1</v>
@@ -6219,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="N6" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O6" s="25">
         <v>1</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O7" s="25">
         <v>1</v>
@@ -7021,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" s="25">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="25">
         <v>1</v>
@@ -7622,7 +7622,7 @@
         <v>1</v>
       </c>
       <c r="N13" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" s="25">
         <v>1</v>
@@ -7822,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="N14" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" s="25">
         <v>1</v>
@@ -8222,7 +8222,7 @@
         <v>1</v>
       </c>
       <c r="N16" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="25">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="N18" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" s="25">
         <v>1</v>
@@ -8693,7 +8693,7 @@
         <v>1</v>
       </c>
       <c r="N19" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="25">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="N21" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="25">
         <v>1</v>
@@ -9282,7 +9282,7 @@
         <v>1</v>
       </c>
       <c r="N22" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="25">
         <v>1</v>
@@ -9465,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="N23" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="25">
         <v>1</v>
@@ -9648,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="N24" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="25">
         <v>1</v>
@@ -10014,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="N26" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="25">
         <v>1</v>
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="N27" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="25">
         <v>1</v>
@@ -10380,7 +10380,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="25">
         <v>1</v>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -40,11 +40,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1146">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3393,9 +3394,6 @@
     <t>Flexible, DLL control, tower potential flow, turbulence, irregular waves, marine growth</t>
   </si>
   <si>
-    <t>Flexible, DLL control, irregular &amp; multidirectional waves, turbulence</t>
-  </si>
-  <si>
     <t>Flexible, DLL control, turbulence, irregular waves</t>
   </si>
   <si>
@@ -3484,6 +3482,12 @@
   </si>
   <si>
     <t>Flexible, DLL control, tower potential flow and drag, turbulence - using BeamDyn</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, turbulence, irregular &amp; multidirectional waves</t>
+  </si>
+  <si>
+    <t>Flexible, DLL control, irregular waves, turbulence</t>
   </si>
 </sst>
 </file>
@@ -4251,7 +4255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4733,6 +4737,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5443,7 +5450,7 @@
       <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5494,90 +5501,90 @@
   <sheetData>
     <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="180" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="181" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="178" t="s">
+      <c r="I2" s="182"/>
+      <c r="J2" s="182"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="182"/>
+      <c r="M2" s="182"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="182"/>
+      <c r="P2" s="182"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="182"/>
+      <c r="S2" s="182"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="182"/>
+      <c r="V2" s="183"/>
+      <c r="W2" s="179" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="188" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="189"/>
-      <c r="AO2" s="189"/>
-      <c r="AP2" s="190"/>
-      <c r="AQ2" s="191" t="s">
-        <v>1130</v>
-      </c>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="192"/>
-      <c r="AU2" s="192"/>
-      <c r="AV2" s="192"/>
-      <c r="AW2" s="192"/>
-      <c r="AX2" s="192"/>
-      <c r="AY2" s="192"/>
-      <c r="AZ2" s="193"/>
-      <c r="BA2" s="197" t="s">
-        <v>1138</v>
-      </c>
-      <c r="BB2" s="198"/>
-      <c r="BC2" s="198"/>
-      <c r="BD2" s="198"/>
-      <c r="BE2" s="199"/>
-      <c r="BF2" s="194" t="s">
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
+      <c r="Z2" s="187"/>
+      <c r="AA2" s="187"/>
+      <c r="AB2" s="187"/>
+      <c r="AC2" s="187"/>
+      <c r="AD2" s="188"/>
+      <c r="AE2" s="189" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="190"/>
+      <c r="AL2" s="190"/>
+      <c r="AM2" s="190"/>
+      <c r="AN2" s="190"/>
+      <c r="AO2" s="190"/>
+      <c r="AP2" s="191"/>
+      <c r="AQ2" s="192" t="s">
         <v>1129</v>
       </c>
-      <c r="BG2" s="195"/>
-      <c r="BH2" s="195"/>
-      <c r="BI2" s="195"/>
-      <c r="BJ2" s="195"/>
-      <c r="BK2" s="195"/>
-      <c r="BL2" s="196"/>
-      <c r="BM2" s="177" t="s">
+      <c r="AR2" s="193"/>
+      <c r="AS2" s="193"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="193"/>
+      <c r="AY2" s="193"/>
+      <c r="AZ2" s="194"/>
+      <c r="BA2" s="198" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BB2" s="199"/>
+      <c r="BC2" s="199"/>
+      <c r="BD2" s="199"/>
+      <c r="BE2" s="200"/>
+      <c r="BF2" s="195" t="s">
+        <v>1128</v>
+      </c>
+      <c r="BG2" s="196"/>
+      <c r="BH2" s="196"/>
+      <c r="BI2" s="196"/>
+      <c r="BJ2" s="196"/>
+      <c r="BK2" s="196"/>
+      <c r="BL2" s="197"/>
+      <c r="BM2" s="178" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="178"/>
-      <c r="BO2" s="178"/>
-      <c r="BP2" s="178"/>
-      <c r="BQ2" s="179"/>
+      <c r="BN2" s="179"/>
+      <c r="BO2" s="179"/>
+      <c r="BP2" s="179"/>
+      <c r="BQ2" s="180"/>
     </row>
     <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -5669,7 +5676,7 @@
         <v>1056</v>
       </c>
       <c r="AE3" s="82" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="AF3" s="154" t="s">
         <v>5</v>
@@ -5723,25 +5730,25 @@
         <v>46</v>
       </c>
       <c r="AW3" s="166" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AX3" s="73" t="s">
         <v>31</v>
       </c>
       <c r="AY3" s="166" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="AZ3" s="74" t="s">
         <v>26</v>
       </c>
       <c r="BA3" s="75" t="s">
+        <v>1138</v>
+      </c>
+      <c r="BB3" s="164" t="s">
+        <v>1131</v>
+      </c>
+      <c r="BC3" s="165" t="s">
         <v>1139</v>
-      </c>
-      <c r="BB3" s="164" t="s">
-        <v>1132</v>
-      </c>
-      <c r="BC3" s="165" t="s">
-        <v>1140</v>
       </c>
       <c r="BD3" s="77" t="s">
         <v>23</v>
@@ -5750,16 +5757,16 @@
         <v>17</v>
       </c>
       <c r="BF3" s="157" t="s">
+        <v>1120</v>
+      </c>
+      <c r="BG3" s="158" t="s">
         <v>1121</v>
       </c>
-      <c r="BG3" s="158" t="s">
+      <c r="BH3" s="158" t="s">
         <v>1122</v>
       </c>
-      <c r="BH3" s="158" t="s">
+      <c r="BI3" s="158" t="s">
         <v>1123</v>
-      </c>
-      <c r="BI3" s="158" t="s">
-        <v>1124</v>
       </c>
       <c r="BJ3" s="158"/>
       <c r="BK3" s="158"/>
@@ -5818,7 +5825,7 @@
       <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="107">
         <v>2</v>
       </c>
       <c r="O4" s="25">
@@ -5998,7 +6005,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="143" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
@@ -6218,7 +6225,7 @@
       <c r="M6" s="25">
         <v>1</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="107">
         <v>2</v>
       </c>
       <c r="O6" s="25">
@@ -6418,7 +6425,7 @@
       <c r="M7" s="25">
         <v>1</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="107">
         <v>2</v>
       </c>
       <c r="O7" s="25">
@@ -7020,7 +7027,7 @@
       <c r="M10" s="25">
         <v>1</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="107">
         <v>2</v>
       </c>
       <c r="O10" s="25">
@@ -7221,7 +7228,7 @@
       <c r="M11" s="25">
         <v>1</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="107">
         <v>2</v>
       </c>
       <c r="O11" s="25">
@@ -7621,7 +7628,7 @@
       <c r="M13" s="25">
         <v>1</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="107">
         <v>2</v>
       </c>
       <c r="O13" s="25">
@@ -7743,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="163" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="BD13" s="44">
         <v>0</v>
@@ -7821,7 +7828,7 @@
       <c r="M14" s="25">
         <v>1</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="107">
         <v>2</v>
       </c>
       <c r="O14" s="25">
@@ -8140,10 +8147,10 @@
         <v>2</v>
       </c>
       <c r="BB15" s="163" t="s">
+        <v>1133</v>
+      </c>
+      <c r="BC15" s="163" t="s">
         <v>1134</v>
-      </c>
-      <c r="BC15" s="163" t="s">
-        <v>1135</v>
       </c>
       <c r="BD15" s="44">
         <v>0.2</v>
@@ -8221,7 +8228,7 @@
       <c r="M16" s="25">
         <v>1</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="107">
         <v>2</v>
       </c>
       <c r="O16" s="25">
@@ -8492,7 +8499,7 @@
       <c r="M18" s="25">
         <v>1</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="107">
         <v>2</v>
       </c>
       <c r="O18" s="25">
@@ -8614,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="163" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="BD18" s="44">
         <v>0.2</v>
@@ -8692,7 +8699,7 @@
       <c r="M19" s="25">
         <v>1</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="107">
         <v>2</v>
       </c>
       <c r="O19" s="25">
@@ -8811,7 +8818,7 @@
         <v>2</v>
       </c>
       <c r="BB19" s="163" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="BC19" s="151">
         <v>11.9</v>
@@ -8892,7 +8899,7 @@
       <c r="M20" s="25">
         <v>1</v>
       </c>
-      <c r="N20" s="25">
+      <c r="N20" s="107">
         <v>1</v>
       </c>
       <c r="O20" s="25">
@@ -9092,7 +9099,7 @@
       <c r="M21" s="25">
         <v>1</v>
       </c>
-      <c r="N21" s="25">
+      <c r="N21" s="107">
         <v>2</v>
       </c>
       <c r="O21" s="25">
@@ -9281,7 +9288,7 @@
       <c r="M22" s="25">
         <v>1</v>
       </c>
-      <c r="N22" s="25">
+      <c r="N22" s="107">
         <v>2</v>
       </c>
       <c r="O22" s="25">
@@ -9444,7 +9451,7 @@
         <v>5000</v>
       </c>
       <c r="G23" s="143" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H23" s="40">
         <v>60</v>
@@ -9464,7 +9471,7 @@
       <c r="M23" s="25">
         <v>1</v>
       </c>
-      <c r="N23" s="25">
+      <c r="N23" s="107">
         <v>2</v>
       </c>
       <c r="O23" s="25">
@@ -9590,7 +9597,7 @@
         <v>45</v>
       </c>
       <c r="BG23" s="41" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="BH23" s="41" t="s">
         <v>42</v>
@@ -9647,7 +9654,7 @@
       <c r="M24" s="25">
         <v>1</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="107">
         <v>2</v>
       </c>
       <c r="O24" s="25">
@@ -9792,10 +9799,10 @@
       </c>
       <c r="BQ24" s="42"/>
     </row>
-    <row r="25" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C25" s="147" t="s">
         <v>1085</v>
@@ -9810,7 +9817,7 @@
         <v>5000</v>
       </c>
       <c r="G25" s="143" t="s">
-        <v>1114</v>
+        <v>1145</v>
       </c>
       <c r="H25" s="40">
         <v>60</v>
@@ -9975,10 +9982,10 @@
       </c>
       <c r="BQ25" s="42"/>
     </row>
-    <row r="26" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C26" s="147" t="s">
         <v>1086</v>
@@ -9993,7 +10000,7 @@
         <v>5000</v>
       </c>
       <c r="G26" s="143" t="s">
-        <v>1115</v>
+        <v>1144</v>
       </c>
       <c r="H26" s="40">
         <v>60</v>
@@ -10013,7 +10020,7 @@
       <c r="M26" s="25">
         <v>1</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="107">
         <v>2</v>
       </c>
       <c r="O26" s="25">
@@ -10161,7 +10168,7 @@
     <row r="27" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C27" s="147" t="s">
         <v>1087</v>
@@ -10176,7 +10183,7 @@
         <v>5000</v>
       </c>
       <c r="G27" s="143" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="H27" s="40">
         <v>60</v>
@@ -10196,7 +10203,7 @@
       <c r="M27" s="25">
         <v>1</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="107">
         <v>2</v>
       </c>
       <c r="O27" s="25">
@@ -10344,7 +10351,7 @@
     <row r="28" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C28" s="147" t="s">
         <v>1105</v>
@@ -10359,7 +10366,7 @@
         <v>5000</v>
       </c>
       <c r="G28" s="143" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="H28" s="40">
         <v>60</v>
@@ -10379,7 +10386,7 @@
       <c r="M28" s="25">
         <v>1</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="107">
         <v>2</v>
       </c>
       <c r="O28" s="25">
@@ -10527,7 +10534,7 @@
     <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="167" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C29" s="168" t="s">
         <v>1089</v>
@@ -10542,7 +10549,7 @@
         <v>5000</v>
       </c>
       <c r="G29" s="143" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H29" s="170">
         <v>20</v>
@@ -10562,7 +10569,7 @@
       <c r="M29" s="169">
         <v>2</v>
       </c>
-      <c r="N29" s="169">
+      <c r="N29" s="177">
         <v>2</v>
       </c>
       <c r="O29" s="169">
@@ -11306,74 +11313,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="177" t="s">
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="178" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="188" t="s">
+      <c r="J2" s="179"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="187"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="189" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="200" t="s">
+      <c r="V2" s="190"/>
+      <c r="W2" s="190"/>
+      <c r="X2" s="190"/>
+      <c r="Y2" s="190"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="190"/>
+      <c r="AB2" s="190"/>
+      <c r="AC2" s="190"/>
+      <c r="AD2" s="190"/>
+      <c r="AE2" s="190"/>
+      <c r="AF2" s="190"/>
+      <c r="AG2" s="190"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="190"/>
+      <c r="AJ2" s="191"/>
+      <c r="AK2" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="192"/>
-      <c r="AM2" s="192"/>
-      <c r="AN2" s="192"/>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AL2" s="193"/>
+      <c r="AM2" s="193"/>
+      <c r="AN2" s="193"/>
+      <c r="AO2" s="193"/>
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="201" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="191"/>
-      <c r="AS2" s="191"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="197" t="s">
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="202"/>
+      <c r="AU2" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="198"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="177" t="s">
+      <c r="AV2" s="199"/>
+      <c r="AW2" s="199"/>
+      <c r="AX2" s="200"/>
+      <c r="AY2" s="178" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="178"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="179"/>
+      <c r="AZ2" s="179"/>
+      <c r="BA2" s="179"/>
+      <c r="BB2" s="179"/>
+      <c r="BC2" s="180"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5952" yWindow="2976" windowWidth="6096" windowHeight="2820" tabRatio="712"/>
+    <workbookView xWindow="11925" yWindow="135" windowWidth="16095" windowHeight="12315" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -40,12 +40,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1146">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3497,7 +3496,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3519,7 +3518,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3594,6 +3593,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4255,7 +4260,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4739,9 +4744,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4817,12 +4819,88 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="43">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4891,20 +4969,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5447,146 +5511,146 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="AY23" sqref="AY23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="145" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="145" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.33203125" style="2" customWidth="1"/>
+    <col min="13" max="18" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="3.33203125" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.28515625" style="2" customWidth="1"/>
+    <col min="29" max="30" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="4.33203125" style="2" customWidth="1"/>
-    <col min="52" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.88671875" style="2" customWidth="1"/>
-    <col min="59" max="59" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="4.88671875" style="2" customWidth="1"/>
-    <col min="62" max="64" width="1.88671875" style="2" customWidth="1"/>
-    <col min="65" max="65" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="4.28515625" style="2" customWidth="1"/>
+    <col min="52" max="53" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.28515625" style="160" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.85546875" style="2" customWidth="1"/>
+    <col min="59" max="59" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="4.85546875" style="2" customWidth="1"/>
+    <col min="62" max="64" width="1.85546875" style="2" customWidth="1"/>
+    <col min="65" max="65" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="4.44140625" customWidth="1"/>
-    <col min="71" max="71" width="4.33203125" customWidth="1"/>
+    <col min="70" max="70" width="4.42578125" customWidth="1"/>
+    <col min="71" max="71" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="184" t="s">
+    <row r="1" spans="1:69" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:69" ht="13.5" thickBot="1">
+      <c r="B2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="181" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="180" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="182"/>
-      <c r="J2" s="182"/>
-      <c r="K2" s="182"/>
-      <c r="L2" s="182"/>
-      <c r="M2" s="182"/>
-      <c r="N2" s="182"/>
-      <c r="O2" s="182"/>
-      <c r="P2" s="182"/>
-      <c r="Q2" s="182"/>
-      <c r="R2" s="182"/>
-      <c r="S2" s="182"/>
-      <c r="T2" s="182"/>
-      <c r="U2" s="182"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="179" t="s">
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="181"/>
+      <c r="T2" s="181"/>
+      <c r="U2" s="181"/>
+      <c r="V2" s="182"/>
+      <c r="W2" s="178" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="189" t="s">
+      <c r="X2" s="186"/>
+      <c r="Y2" s="186"/>
+      <c r="Z2" s="186"/>
+      <c r="AA2" s="186"/>
+      <c r="AB2" s="186"/>
+      <c r="AC2" s="186"/>
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="188" t="s">
         <v>1125</v>
       </c>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="190"/>
-      <c r="AL2" s="190"/>
-      <c r="AM2" s="190"/>
-      <c r="AN2" s="190"/>
-      <c r="AO2" s="190"/>
-      <c r="AP2" s="191"/>
-      <c r="AQ2" s="192" t="s">
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="189"/>
+      <c r="AK2" s="189"/>
+      <c r="AL2" s="189"/>
+      <c r="AM2" s="189"/>
+      <c r="AN2" s="189"/>
+      <c r="AO2" s="189"/>
+      <c r="AP2" s="190"/>
+      <c r="AQ2" s="191" t="s">
         <v>1129</v>
       </c>
-      <c r="AR2" s="193"/>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="193"/>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="193"/>
-      <c r="AW2" s="193"/>
-      <c r="AX2" s="193"/>
-      <c r="AY2" s="193"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="198" t="s">
+      <c r="AR2" s="192"/>
+      <c r="AS2" s="192"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="192"/>
+      <c r="AV2" s="192"/>
+      <c r="AW2" s="192"/>
+      <c r="AX2" s="192"/>
+      <c r="AY2" s="192"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="197" t="s">
         <v>1137</v>
       </c>
-      <c r="BB2" s="199"/>
-      <c r="BC2" s="199"/>
-      <c r="BD2" s="199"/>
-      <c r="BE2" s="200"/>
-      <c r="BF2" s="195" t="s">
+      <c r="BB2" s="198"/>
+      <c r="BC2" s="198"/>
+      <c r="BD2" s="198"/>
+      <c r="BE2" s="199"/>
+      <c r="BF2" s="194" t="s">
         <v>1128</v>
       </c>
-      <c r="BG2" s="196"/>
-      <c r="BH2" s="196"/>
-      <c r="BI2" s="196"/>
-      <c r="BJ2" s="196"/>
-      <c r="BK2" s="196"/>
-      <c r="BL2" s="197"/>
-      <c r="BM2" s="178" t="s">
+      <c r="BG2" s="195"/>
+      <c r="BH2" s="195"/>
+      <c r="BI2" s="195"/>
+      <c r="BJ2" s="195"/>
+      <c r="BK2" s="195"/>
+      <c r="BL2" s="196"/>
+      <c r="BM2" s="177" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="179"/>
-      <c r="BO2" s="179"/>
-      <c r="BP2" s="179"/>
-      <c r="BQ2" s="180"/>
-    </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BN2" s="178"/>
+      <c r="BO2" s="178"/>
+      <c r="BP2" s="178"/>
+      <c r="BQ2" s="179"/>
+    </row>
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="114" thickBot="1">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5787,7 +5851,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="24" customFormat="1">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5825,8 +5889,8 @@
       <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="107">
-        <v>2</v>
+      <c r="N4" s="202">
+        <v>1</v>
       </c>
       <c r="O4" s="25">
         <v>1</v>
@@ -5987,7 +6051,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -6025,8 +6089,8 @@
       <c r="M5" s="25">
         <v>1</v>
       </c>
-      <c r="N5" s="25">
-        <v>1</v>
+      <c r="N5" s="202">
+        <v>2</v>
       </c>
       <c r="O5" s="25">
         <v>1</v>
@@ -6187,7 +6251,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="24" customFormat="1">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -6225,7 +6289,7 @@
       <c r="M6" s="25">
         <v>1</v>
       </c>
-      <c r="N6" s="107">
+      <c r="N6" s="202">
         <v>2</v>
       </c>
       <c r="O6" s="25">
@@ -6387,7 +6451,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="24" customFormat="1">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6425,8 +6489,8 @@
       <c r="M7" s="25">
         <v>1</v>
       </c>
-      <c r="N7" s="107">
-        <v>2</v>
+      <c r="N7" s="202">
+        <v>1</v>
       </c>
       <c r="O7" s="25">
         <v>1</v>
@@ -6587,7 +6651,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="24" customFormat="1">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6625,8 +6689,8 @@
       <c r="M8" s="25">
         <v>1</v>
       </c>
-      <c r="N8" s="25">
-        <v>1</v>
+      <c r="N8" s="202">
+        <v>2</v>
       </c>
       <c r="O8" s="25">
         <v>1</v>
@@ -6787,7 +6851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="24" customFormat="1">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -6988,7 +7052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="24" customFormat="1">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -7027,7 +7091,7 @@
       <c r="M10" s="25">
         <v>1</v>
       </c>
-      <c r="N10" s="107">
+      <c r="N10" s="202">
         <v>2</v>
       </c>
       <c r="O10" s="25">
@@ -7189,7 +7253,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="24" customFormat="1">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -7228,7 +7292,7 @@
       <c r="M11" s="25">
         <v>1</v>
       </c>
-      <c r="N11" s="107">
+      <c r="N11" s="202">
         <v>2</v>
       </c>
       <c r="O11" s="25">
@@ -7390,7 +7454,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="24" customFormat="1">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -7590,7 +7654,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" s="24" customFormat="1">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7628,7 +7692,7 @@
       <c r="M13" s="25">
         <v>1</v>
       </c>
-      <c r="N13" s="107">
+      <c r="N13" s="202">
         <v>2</v>
       </c>
       <c r="O13" s="25">
@@ -7790,7 +7854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7828,8 +7892,8 @@
       <c r="M14" s="25">
         <v>1</v>
       </c>
-      <c r="N14" s="107">
-        <v>2</v>
+      <c r="N14" s="202">
+        <v>1</v>
       </c>
       <c r="O14" s="25">
         <v>1</v>
@@ -7990,7 +8054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -8028,8 +8092,8 @@
       <c r="M15" s="25">
         <v>1</v>
       </c>
-      <c r="N15" s="25">
-        <v>1</v>
+      <c r="N15" s="202">
+        <v>2</v>
       </c>
       <c r="O15" s="25">
         <v>1</v>
@@ -8190,7 +8254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -8228,7 +8292,7 @@
       <c r="M16" s="25">
         <v>1</v>
       </c>
-      <c r="N16" s="107">
+      <c r="N16" s="202">
         <v>2</v>
       </c>
       <c r="O16" s="25">
@@ -8390,7 +8454,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" s="24" customFormat="1">
       <c r="A17" s="27"/>
       <c r="B17" s="125"/>
       <c r="C17" s="148"/>
@@ -8461,7 +8525,7 @@
       <c r="BP17" s="135"/>
       <c r="BQ17" s="130"/>
     </row>
-    <row r="18" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -8499,7 +8563,7 @@
       <c r="M18" s="25">
         <v>1</v>
       </c>
-      <c r="N18" s="107">
+      <c r="N18" s="202">
         <v>2</v>
       </c>
       <c r="O18" s="25">
@@ -8661,7 +8725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8699,7 +8763,7 @@
       <c r="M19" s="25">
         <v>1</v>
       </c>
-      <c r="N19" s="107">
+      <c r="N19" s="202">
         <v>2</v>
       </c>
       <c r="O19" s="25">
@@ -8861,7 +8925,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8899,7 +8963,7 @@
       <c r="M20" s="25">
         <v>1</v>
       </c>
-      <c r="N20" s="107">
+      <c r="N20" s="202">
         <v>1</v>
       </c>
       <c r="O20" s="25">
@@ -9061,7 +9125,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -9099,7 +9163,7 @@
       <c r="M21" s="25">
         <v>1</v>
       </c>
-      <c r="N21" s="107">
+      <c r="N21" s="202">
         <v>2</v>
       </c>
       <c r="O21" s="25">
@@ -9188,7 +9252,7 @@
         <v>32</v>
       </c>
       <c r="AR21" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS21" s="41" t="s">
         <v>32</v>
@@ -9250,7 +9314,7 @@
       </c>
       <c r="BQ21" s="42"/>
     </row>
-    <row r="22" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -9288,7 +9352,7 @@
       <c r="M22" s="25">
         <v>1</v>
       </c>
-      <c r="N22" s="107">
+      <c r="N22" s="202">
         <v>2</v>
       </c>
       <c r="O22" s="25">
@@ -9373,7 +9437,7 @@
         <v>32</v>
       </c>
       <c r="AR22" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS22" s="41" t="s">
         <v>32</v>
@@ -9384,7 +9448,9 @@
       <c r="AU22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV22" s="41"/>
+      <c r="AV22" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW22" s="41" t="s">
         <v>32</v>
       </c>
@@ -9392,7 +9458,7 @@
         <v>22</v>
       </c>
       <c r="AY22" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ22" s="42"/>
       <c r="BA22" s="43">
@@ -9433,7 +9499,7 @@
       </c>
       <c r="BQ22" s="42"/>
     </row>
-    <row r="23" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -9471,7 +9537,7 @@
       <c r="M23" s="25">
         <v>1</v>
       </c>
-      <c r="N23" s="107">
+      <c r="N23" s="202">
         <v>2</v>
       </c>
       <c r="O23" s="25">
@@ -9556,7 +9622,7 @@
         <v>32</v>
       </c>
       <c r="AR23" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS23" s="41" t="s">
         <v>32</v>
@@ -9567,7 +9633,9 @@
       <c r="AU23" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV23" s="41"/>
+      <c r="AV23" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW23" s="41" t="s">
         <v>32</v>
       </c>
@@ -9575,7 +9643,7 @@
         <v>22</v>
       </c>
       <c r="AY23" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ23" s="42"/>
       <c r="BA23" s="43">
@@ -9616,7 +9684,7 @@
       </c>
       <c r="BQ23" s="42"/>
     </row>
-    <row r="24" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -9654,7 +9722,7 @@
       <c r="M24" s="25">
         <v>1</v>
       </c>
-      <c r="N24" s="107">
+      <c r="N24" s="202">
         <v>2</v>
       </c>
       <c r="O24" s="25">
@@ -9739,7 +9807,7 @@
         <v>32</v>
       </c>
       <c r="AR24" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS24" s="41" t="s">
         <v>32</v>
@@ -9750,7 +9818,9 @@
       <c r="AU24" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV24" s="41"/>
+      <c r="AV24" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW24" s="41" t="s">
         <v>32</v>
       </c>
@@ -9758,7 +9828,7 @@
         <v>22</v>
       </c>
       <c r="AY24" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ24" s="42"/>
       <c r="BA24" s="43">
@@ -9799,7 +9869,7 @@
       </c>
       <c r="BQ24" s="42"/>
     </row>
-    <row r="25" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" s="24" customFormat="1">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1119</v>
@@ -9837,7 +9907,7 @@
       <c r="M25" s="25">
         <v>1</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="202">
         <v>1</v>
       </c>
       <c r="O25" s="25">
@@ -9933,7 +10003,9 @@
       <c r="AU25" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV25" s="41"/>
+      <c r="AV25" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW25" s="41" t="s">
         <v>22</v>
       </c>
@@ -9982,7 +10054,7 @@
       </c>
       <c r="BQ25" s="42"/>
     </row>
-    <row r="26" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1118</v>
@@ -10020,7 +10092,7 @@
       <c r="M26" s="25">
         <v>1</v>
       </c>
-      <c r="N26" s="107">
+      <c r="N26" s="202">
         <v>2</v>
       </c>
       <c r="O26" s="25">
@@ -10116,15 +10188,17 @@
       <c r="AU26" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV26" s="41"/>
+      <c r="AV26" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW26" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AX26" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AY26" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ26" s="42"/>
       <c r="BA26" s="43">
@@ -10165,7 +10239,7 @@
       </c>
       <c r="BQ26" s="42"/>
     </row>
-    <row r="27" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" s="24" customFormat="1">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1117</v>
@@ -10203,7 +10277,7 @@
       <c r="M27" s="25">
         <v>1</v>
       </c>
-      <c r="N27" s="107">
+      <c r="N27" s="202">
         <v>2</v>
       </c>
       <c r="O27" s="25">
@@ -10299,15 +10373,17 @@
       <c r="AU27" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV27" s="41"/>
+      <c r="AV27" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW27" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AX27" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AY27" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ27" s="42"/>
       <c r="BA27" s="43">
@@ -10348,7 +10424,7 @@
       </c>
       <c r="BQ27" s="42"/>
     </row>
-    <row r="28" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1116</v>
@@ -10386,7 +10462,7 @@
       <c r="M28" s="25">
         <v>1</v>
       </c>
-      <c r="N28" s="107">
+      <c r="N28" s="202">
         <v>2</v>
       </c>
       <c r="O28" s="25">
@@ -10482,15 +10558,17 @@
       <c r="AU28" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AV28" s="41"/>
+      <c r="AV28" s="41" t="s">
+        <v>32</v>
+      </c>
       <c r="AW28" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AX28" s="41" t="s">
         <v>22</v>
       </c>
       <c r="AY28" s="41" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AZ28" s="42"/>
       <c r="BA28" s="43">
@@ -10531,7 +10609,7 @@
       </c>
       <c r="BQ28" s="42"/>
     </row>
-    <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:69" s="24" customFormat="1" ht="25.5">
       <c r="A29" s="27"/>
       <c r="B29" s="167" t="s">
         <v>1142</v>
@@ -10569,7 +10647,7 @@
       <c r="M29" s="169">
         <v>2</v>
       </c>
-      <c r="N29" s="177">
+      <c r="N29" s="203">
         <v>2</v>
       </c>
       <c r="O29" s="169">
@@ -10659,7 +10737,7 @@
         <v>32</v>
       </c>
       <c r="AR29" s="25" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AS29" s="41" t="s">
         <v>32</v>
@@ -10721,7 +10799,7 @@
       </c>
       <c r="BQ29" s="172"/>
     </row>
-    <row r="30" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" ht="13.5" thickBot="1">
       <c r="B30" s="5"/>
       <c r="C30" s="149"/>
       <c r="D30" s="3"/>
@@ -10793,7 +10871,7 @@
       <c r="BP30" s="64"/>
       <c r="BQ30" s="6"/>
     </row>
-    <row r="34" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="34" spans="53:69">
       <c r="BA34" s="9"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
@@ -10805,7 +10883,7 @@
       <c r="BP34"/>
       <c r="BQ34"/>
     </row>
-    <row r="35" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="35" spans="53:69">
       <c r="BA35" s="9"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
@@ -10817,7 +10895,7 @@
       <c r="BP35"/>
       <c r="BQ35"/>
     </row>
-    <row r="36" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="36" spans="53:69">
       <c r="BA36" s="9"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
@@ -10829,7 +10907,7 @@
       <c r="BP36"/>
       <c r="BQ36"/>
     </row>
-    <row r="37" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="37" spans="53:69">
       <c r="BA37" s="9"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
@@ -10841,7 +10919,7 @@
       <c r="BP37"/>
       <c r="BQ37"/>
     </row>
-    <row r="38" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="38" spans="53:69">
       <c r="BA38" s="9"/>
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
@@ -10853,7 +10931,7 @@
       <c r="BP38"/>
       <c r="BQ38"/>
     </row>
-    <row r="39" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="39" spans="53:69">
       <c r="BA39" s="9"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
@@ -10865,7 +10943,7 @@
       <c r="BP39"/>
       <c r="BQ39"/>
     </row>
-    <row r="40" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="40" spans="53:69">
       <c r="BA40" s="9"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
@@ -10877,7 +10955,7 @@
       <c r="BP40"/>
       <c r="BQ40"/>
     </row>
-    <row r="41" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="41" spans="53:69">
       <c r="BA41" s="9"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
@@ -10889,7 +10967,7 @@
       <c r="BP41"/>
       <c r="BQ41"/>
     </row>
-    <row r="42" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="42" spans="53:69">
       <c r="BA42" s="9"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
@@ -10901,7 +10979,7 @@
       <c r="BP42"/>
       <c r="BQ42"/>
     </row>
-    <row r="43" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="43" spans="53:69">
       <c r="BA43" s="9"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
@@ -10913,7 +10991,7 @@
       <c r="BP43"/>
       <c r="BQ43"/>
     </row>
-    <row r="44" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="44" spans="53:69">
       <c r="BA44" s="9"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
@@ -10925,7 +11003,7 @@
       <c r="BP44"/>
       <c r="BQ44"/>
     </row>
-    <row r="45" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="45" spans="53:69">
       <c r="BA45" s="9"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
@@ -10937,7 +11015,7 @@
       <c r="BP45"/>
       <c r="BQ45"/>
     </row>
-    <row r="46" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="46" spans="53:69">
       <c r="BA46" s="9"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
@@ -10949,7 +11027,7 @@
       <c r="BP46"/>
       <c r="BQ46"/>
     </row>
-    <row r="47" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="47" spans="53:69">
       <c r="BA47" s="9"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
@@ -10961,7 +11039,7 @@
       <c r="BP47"/>
       <c r="BQ47"/>
     </row>
-    <row r="48" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="48" spans="53:69">
       <c r="BA48" s="9"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
@@ -10973,7 +11051,7 @@
       <c r="BP48"/>
       <c r="BQ48"/>
     </row>
-    <row r="49" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="49" spans="53:69">
       <c r="BA49" s="9"/>
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
@@ -10985,7 +11063,7 @@
       <c r="BP49"/>
       <c r="BQ49"/>
     </row>
-    <row r="50" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="50" spans="53:69">
       <c r="BA50" s="9"/>
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
@@ -10997,7 +11075,7 @@
       <c r="BP50"/>
       <c r="BQ50"/>
     </row>
-    <row r="51" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="51" spans="53:69">
       <c r="BA51" s="9"/>
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
@@ -11009,7 +11087,7 @@
       <c r="BP51"/>
       <c r="BQ51"/>
     </row>
-    <row r="52" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="52" spans="53:69">
       <c r="BA52" s="9"/>
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
@@ -11021,7 +11099,7 @@
       <c r="BP52"/>
       <c r="BQ52"/>
     </row>
-    <row r="53" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="53" spans="53:69">
       <c r="BA53" s="9"/>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
@@ -11033,7 +11111,7 @@
       <c r="BP53"/>
       <c r="BQ53"/>
     </row>
-    <row r="54" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="54" spans="53:69">
       <c r="BA54" s="9"/>
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
@@ -11045,7 +11123,7 @@
       <c r="BP54"/>
       <c r="BQ54"/>
     </row>
-    <row r="55" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="55" spans="53:69">
       <c r="BA55" s="9"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
@@ -11057,7 +11135,7 @@
       <c r="BP55"/>
       <c r="BQ55"/>
     </row>
-    <row r="56" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="56" spans="53:69">
       <c r="BA56" s="9"/>
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
@@ -11069,7 +11147,7 @@
       <c r="BP56"/>
       <c r="BQ56"/>
     </row>
-    <row r="57" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="57" spans="53:69">
       <c r="BA57" s="9"/>
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
@@ -11081,7 +11159,7 @@
       <c r="BP57"/>
       <c r="BQ57"/>
     </row>
-    <row r="58" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="58" spans="53:69">
       <c r="BA58" s="9"/>
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
@@ -11093,7 +11171,7 @@
       <c r="BP58"/>
       <c r="BQ58"/>
     </row>
-    <row r="59" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="59" spans="53:69">
       <c r="BA59" s="9"/>
       <c r="BB59" s="2"/>
       <c r="BC59" s="2"/>
@@ -11105,7 +11183,7 @@
       <c r="BP59"/>
       <c r="BQ59"/>
     </row>
-    <row r="60" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="60" spans="53:69">
       <c r="BA60" s="9"/>
       <c r="BB60" s="2"/>
       <c r="BC60" s="2"/>
@@ -11117,7 +11195,7 @@
       <c r="BP60"/>
       <c r="BQ60"/>
     </row>
-    <row r="61" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="61" spans="53:69">
       <c r="BA61" s="9"/>
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
@@ -11129,7 +11207,7 @@
       <c r="BP61"/>
       <c r="BQ61"/>
     </row>
-    <row r="62" spans="53:69" x14ac:dyDescent="0.25">
+    <row r="62" spans="53:69">
       <c r="BA62" s="9"/>
       <c r="BB62" s="2"/>
       <c r="BC62" s="2"/>
@@ -11152,108 +11230,116 @@
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 AC4:BA28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AZ29 BA30 BF29:BL29">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+  <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AQ29 BA30 BF29:BL29 AC4:BA25 AC26:AQ28 AS26:BA28 AS29:AZ29">
+    <cfRule type="expression" dxfId="1" priority="47" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="48" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 A29:F29">
-    <cfRule type="expression" dxfId="40" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="45" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="46" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="38" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="59" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="60" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="32" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="34" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="29" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="32" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="28" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB28 BB30">
-    <cfRule type="expression" dxfId="30" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:AD29">
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE29 BC29 BA29">
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB29">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD29">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
       <formula>$A29="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR26:AR29">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>$A26="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+      <formula>$A26="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -11276,113 +11362,113 @@
       <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="3.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" style="2" customWidth="1"/>
-    <col min="17" max="19" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.88671875" style="2" customWidth="1"/>
-    <col min="28" max="33" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.88671875" style="2" customWidth="1"/>
-    <col min="35" max="36" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.5546875" style="2" customWidth="1"/>
-    <col min="38" max="47" width="4.88671875" style="2" customWidth="1"/>
-    <col min="48" max="48" width="4.88671875" style="45" customWidth="1"/>
-    <col min="49" max="49" width="4.88671875" style="9" customWidth="1"/>
-    <col min="50" max="51" width="4.88671875" style="2" customWidth="1"/>
-    <col min="52" max="53" width="4.88671875" style="45" customWidth="1"/>
-    <col min="54" max="54" width="6.6640625" style="45" customWidth="1"/>
-    <col min="55" max="55" width="4.88671875" style="2" customWidth="1"/>
-    <col min="56" max="56" width="4.44140625" customWidth="1"/>
-    <col min="57" max="57" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" style="2" customWidth="1"/>
+    <col min="17" max="19" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="2" customWidth="1"/>
+    <col min="28" max="33" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.85546875" style="2" customWidth="1"/>
+    <col min="35" max="36" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5703125" style="2" customWidth="1"/>
+    <col min="38" max="47" width="4.85546875" style="2" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" style="45" customWidth="1"/>
+    <col min="49" max="49" width="4.85546875" style="9" customWidth="1"/>
+    <col min="50" max="51" width="4.85546875" style="2" customWidth="1"/>
+    <col min="52" max="53" width="4.85546875" style="45" customWidth="1"/>
+    <col min="54" max="54" width="6.7109375" style="45" customWidth="1"/>
+    <col min="55" max="55" width="4.85546875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="4.42578125" customWidth="1"/>
+    <col min="57" max="57" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="184" t="s">
+    <row r="1" spans="1:55" ht="13.5" thickBot="1"/>
+    <row r="2" spans="1:55" ht="13.5" thickBot="1">
+      <c r="B2" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="185"/>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="178" t="s">
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="177" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="189" t="s">
+      <c r="J2" s="178"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="186"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="190"/>
-      <c r="W2" s="190"/>
-      <c r="X2" s="190"/>
-      <c r="Y2" s="190"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="190"/>
-      <c r="AB2" s="190"/>
-      <c r="AC2" s="190"/>
-      <c r="AD2" s="190"/>
-      <c r="AE2" s="190"/>
-      <c r="AF2" s="190"/>
-      <c r="AG2" s="190"/>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="190"/>
-      <c r="AJ2" s="191"/>
-      <c r="AK2" s="201" t="s">
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="189"/>
+      <c r="AA2" s="189"/>
+      <c r="AB2" s="189"/>
+      <c r="AC2" s="189"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="189"/>
+      <c r="AF2" s="189"/>
+      <c r="AG2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="189"/>
+      <c r="AJ2" s="190"/>
+      <c r="AK2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="193"/>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="193"/>
-      <c r="AO2" s="193"/>
-      <c r="AP2" s="194"/>
-      <c r="AQ2" s="201" t="s">
+      <c r="AL2" s="192"/>
+      <c r="AM2" s="192"/>
+      <c r="AN2" s="192"/>
+      <c r="AO2" s="192"/>
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="200" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="202"/>
-      <c r="AU2" s="198" t="s">
+      <c r="AR2" s="191"/>
+      <c r="AS2" s="191"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="199"/>
-      <c r="AW2" s="199"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="178" t="s">
+      <c r="AV2" s="198"/>
+      <c r="AW2" s="198"/>
+      <c r="AX2" s="199"/>
+      <c r="AY2" s="177" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="179"/>
-      <c r="BB2" s="179"/>
-      <c r="BC2" s="180"/>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AZ2" s="178"/>
+      <c r="BA2" s="178"/>
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="179"/>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1">
       <c r="A3" s="26" t="s">
         <v>283</v>
       </c>
@@ -11541,7 +11627,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" s="24" customFormat="1">
       <c r="A4" s="27" t="s">
         <v>284</v>
       </c>
@@ -11701,7 +11787,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" s="24" customFormat="1">
       <c r="A5" s="27" t="s">
         <v>284</v>
       </c>
@@ -11861,7 +11947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" s="24" customFormat="1">
       <c r="A6" s="27" t="s">
         <v>284</v>
       </c>
@@ -12021,7 +12107,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" s="24" customFormat="1">
       <c r="A7" s="27" t="s">
         <v>284</v>
       </c>
@@ -12181,7 +12267,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" s="24" customFormat="1">
       <c r="A8" s="27" t="s">
         <v>284</v>
       </c>
@@ -12341,7 +12427,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" s="24" customFormat="1">
       <c r="A9" s="27" t="s">
         <v>284</v>
       </c>
@@ -12502,7 +12588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" s="24" customFormat="1">
       <c r="A10" s="27" t="s">
         <v>284</v>
       </c>
@@ -12663,7 +12749,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" s="24" customFormat="1">
       <c r="A11" s="27" t="s">
         <v>284</v>
       </c>
@@ -12824,7 +12910,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" s="24" customFormat="1">
       <c r="A12" s="27" t="s">
         <v>284</v>
       </c>
@@ -12984,7 +13070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" s="24" customFormat="1">
       <c r="A13" s="27" t="s">
         <v>284</v>
       </c>
@@ -13144,7 +13230,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" s="24" customFormat="1">
       <c r="A14" s="27" t="s">
         <v>284</v>
       </c>
@@ -13304,7 +13390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" s="24" customFormat="1">
       <c r="A15" s="27" t="s">
         <v>284</v>
       </c>
@@ -13464,7 +13550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" s="24" customFormat="1">
       <c r="A16" s="27" t="s">
         <v>284</v>
       </c>
@@ -13624,7 +13710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" s="24" customFormat="1">
       <c r="A17" s="27" t="s">
         <v>284</v>
       </c>
@@ -13784,7 +13870,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" s="24" customFormat="1">
       <c r="A18" s="27" t="s">
         <v>284</v>
       </c>
@@ -13944,7 +14030,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" s="24" customFormat="1">
       <c r="A19" s="27" t="s">
         <v>284</v>
       </c>
@@ -14104,7 +14190,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" s="24" customFormat="1">
       <c r="A20" s="27" t="s">
         <v>284</v>
       </c>
@@ -14264,7 +14350,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" s="24" customFormat="1">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -14407,7 +14493,7 @@
       </c>
       <c r="BC21" s="42"/>
     </row>
-    <row r="22" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" s="24" customFormat="1">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -14492,7 +14578,7 @@
       </c>
       <c r="BC22" s="42"/>
     </row>
-    <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" s="24" customFormat="1">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -14573,7 +14659,7 @@
       <c r="BB23" s="63"/>
       <c r="BC23" s="42"/>
     </row>
-    <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" s="24" customFormat="1">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -14654,7 +14740,7 @@
       <c r="BB24" s="63"/>
       <c r="BC24" s="42"/>
     </row>
-    <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" s="24" customFormat="1">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1069</v>
@@ -14739,7 +14825,7 @@
       </c>
       <c r="BC25" s="42"/>
     </row>
-    <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" s="24" customFormat="1">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1068</v>
@@ -14824,7 +14910,7 @@
       </c>
       <c r="BC26" s="42"/>
     </row>
-    <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" s="24" customFormat="1">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1067</v>
@@ -14909,7 +14995,7 @@
       </c>
       <c r="BC27" s="42"/>
     </row>
-    <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" s="24" customFormat="1">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1073</v>
@@ -14994,7 +15080,7 @@
       </c>
       <c r="BC28" s="42"/>
     </row>
-    <row r="29" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:55" ht="13.5" thickBot="1">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -15050,7 +15136,7 @@
       <c r="BB29" s="64"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55">
       <c r="B31" s="49" t="s">
         <v>49</v>
       </c>
@@ -15059,7 +15145,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55">
       <c r="B32" s="49"/>
       <c r="C32" s="11" t="s">
         <v>305</v>
@@ -15068,7 +15154,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20">
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
         <v>55</v>
@@ -15077,7 +15163,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20">
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
         <v>306</v>
@@ -15086,7 +15172,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20">
       <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
         <v>50</v>
@@ -15095,7 +15181,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20">
       <c r="B36" s="12"/>
       <c r="C36" s="11" t="s">
         <v>292</v>
@@ -15105,7 +15191,7 @@
       <c r="F36" s="11"/>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20">
       <c r="C37" s="11" t="s">
         <v>293</v>
       </c>
@@ -15113,7 +15199,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20">
       <c r="C38" s="11" t="s">
         <v>298</v>
       </c>
@@ -15121,7 +15207,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20">
       <c r="C39" s="11" t="s">
         <v>341</v>
       </c>
@@ -15129,7 +15215,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20">
       <c r="C40" s="11" t="s">
         <v>337</v>
       </c>
@@ -15137,7 +15223,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20">
       <c r="C41" s="11" t="s">
         <v>340</v>
       </c>
@@ -15145,7 +15231,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20">
       <c r="C42" s="11" t="s">
         <v>441</v>
       </c>
@@ -15153,7 +15239,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20">
       <c r="C43" s="11" t="s">
         <v>442</v>
       </c>
@@ -15161,7 +15247,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20">
       <c r="C44" s="11" t="s">
         <v>443</v>
       </c>
@@ -15169,14 +15255,14 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20">
       <c r="C45" s="12" t="s">
         <v>666</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20">
       <c r="B46" s="112" t="s">
         <v>1078</v>
       </c>
@@ -15187,7 +15273,7 @@
       <c r="G46" s="113"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20">
       <c r="B48" s="88" t="s">
         <v>1052</v>
       </c>
@@ -15198,7 +15284,7 @@
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
     </row>
-    <row r="50" spans="1:55" s="104" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" s="104" customFormat="1">
       <c r="A50" s="103"/>
       <c r="B50" s="103"/>
       <c r="C50" s="102" t="s">
@@ -15267,42 +15353,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15318,19 +15404,19 @@
   <dimension ref="A1:AC855"/>
   <sheetViews>
     <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="R741" sqref="R741"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="3.44140625" style="17" customWidth="1"/>
-    <col min="29" max="29" width="45.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="3.42578125" style="17" customWidth="1"/>
+    <col min="29" max="29" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -15410,7 +15496,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29">
       <c r="B2" s="50" t="str">
         <f>TEXT(COUNTA(B3:B855)-$AB$1,"0")&amp;" variables"</f>
         <v>820 variables</v>
@@ -15512,7 +15598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>56</v>
@@ -15611,7 +15697,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="4">COUNTA(D4:Z4)</f>
         <v>2</v>
@@ -15648,7 +15734,7 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29">
       <c r="A5" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15687,7 +15773,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29">
       <c r="A6" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15726,7 +15812,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29">
       <c r="A7" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -15765,7 +15851,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29">
       <c r="A8" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15802,7 +15888,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29">
       <c r="A9" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -15841,7 +15927,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29">
       <c r="A10" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15878,7 +15964,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29">
       <c r="A11" s="13"/>
       <c r="B11" s="20" t="s">
         <v>65</v>
@@ -15977,7 +16063,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29">
       <c r="A12" s="18">
         <f t="shared" ref="A12:A23" si="8">COUNTA(D12:Z12)</f>
         <v>2</v>
@@ -16016,7 +16102,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29">
       <c r="A13" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16055,7 +16141,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29">
       <c r="A14" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16090,7 +16176,7 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29">
       <c r="A15" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16127,7 +16213,7 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29">
       <c r="A16" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16164,7 +16250,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26">
       <c r="A17" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16201,7 +16287,7 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26">
       <c r="A18" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -16236,7 +16322,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26">
       <c r="A19" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16269,7 +16355,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26">
       <c r="A20" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16308,7 +16394,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26">
       <c r="A21" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16347,7 +16433,7 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26">
       <c r="A22" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -16384,7 +16470,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26">
       <c r="A23" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16423,7 +16509,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26">
       <c r="A24" s="13"/>
       <c r="B24" s="20" t="s">
         <v>74</v>
@@ -16522,7 +16608,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26">
       <c r="A25" s="18">
         <f t="shared" ref="A25:A32" si="11">COUNTA(D25:Z25)</f>
         <v>1</v>
@@ -16559,7 +16645,7 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26">
       <c r="A26" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16598,7 +16684,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26">
       <c r="A27" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -16633,7 +16719,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26">
       <c r="A28" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16670,7 +16756,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26">
       <c r="A29" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16707,7 +16793,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26">
       <c r="A30" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16744,7 +16830,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26">
       <c r="A31" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16781,7 +16867,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26">
       <c r="A32" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -16814,7 +16900,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26">
       <c r="A33" s="18">
         <f>COUNTA(D33:Z33)</f>
         <v>1</v>
@@ -16851,7 +16937,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26">
       <c r="A34" s="18">
         <f>COUNTA(D34:Z34)</f>
         <v>1</v>
@@ -16888,7 +16974,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26">
       <c r="A35" s="18">
         <f>COUNTA(D35:Z35)</f>
         <v>1</v>
@@ -16925,7 +17011,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26">
       <c r="A36" s="18">
         <f>COUNTA(D36:Z36)</f>
         <v>2</v>
@@ -16964,7 +17050,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26">
       <c r="A37" s="13"/>
       <c r="B37" s="20" t="s">
         <v>83</v>
@@ -17063,7 +17149,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26">
       <c r="A38" s="18">
         <f t="shared" ref="A38:A49" si="14">COUNTA(D38:Z38)</f>
         <v>3</v>
@@ -17104,7 +17190,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26">
       <c r="A39" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -17143,7 +17229,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26">
       <c r="A40" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17180,7 +17266,7 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26">
       <c r="A41" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17215,7 +17301,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26">
       <c r="A42" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17250,7 +17336,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26">
       <c r="A43" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17285,7 +17371,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26">
       <c r="A44" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17320,7 +17406,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26">
       <c r="A45" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17355,7 +17441,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26">
       <c r="A46" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17392,7 +17478,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26">
       <c r="A47" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17429,7 +17515,7 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26">
       <c r="A48" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17466,7 +17552,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26">
       <c r="A49" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -17505,7 +17591,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26">
       <c r="A50" s="13"/>
       <c r="B50" s="20" t="s">
         <v>92</v>
@@ -17604,7 +17690,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26">
       <c r="A51" s="18">
         <f t="shared" ref="A51:A114" si="17">COUNTA(D51:Z51)</f>
         <v>2</v>
@@ -17641,7 +17727,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26">
       <c r="A52" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17678,7 +17764,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26">
       <c r="A53" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -17713,7 +17799,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26">
       <c r="A54" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17750,7 +17836,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26">
       <c r="A55" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17787,7 +17873,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26">
       <c r="A56" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -17820,7 +17906,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26">
       <c r="A57" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17857,7 +17943,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26">
       <c r="A58" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17894,7 +17980,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26">
       <c r="A59" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -17927,7 +18013,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26">
       <c r="A60" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -17962,7 +18048,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26">
       <c r="A61" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -17997,7 +18083,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26">
       <c r="A62" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18030,7 +18116,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26">
       <c r="A63" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18065,7 +18151,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26">
       <c r="A64" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18100,7 +18186,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26">
       <c r="A65" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18133,7 +18219,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26">
       <c r="A66" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18166,7 +18252,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26">
       <c r="A67" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18199,7 +18285,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26">
       <c r="A68" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18232,7 +18318,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26">
       <c r="A69" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18265,7 +18351,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26">
       <c r="A70" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18298,7 +18384,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26">
       <c r="A71" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18331,7 +18417,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26">
       <c r="A72" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18364,7 +18450,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26">
       <c r="A73" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18397,7 +18483,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26">
       <c r="A74" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18430,7 +18516,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26">
       <c r="A75" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18463,7 +18549,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26">
       <c r="A76" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18496,7 +18582,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26">
       <c r="A77" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18529,7 +18615,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26">
       <c r="A78" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18562,7 +18648,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26">
       <c r="A79" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18595,7 +18681,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26">
       <c r="A80" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18628,7 +18714,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26">
       <c r="A81" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18661,7 +18747,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26">
       <c r="A82" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18694,7 +18780,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26">
       <c r="A83" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18727,7 +18813,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26">
       <c r="A84" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18760,7 +18846,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26">
       <c r="A85" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18793,7 +18879,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26">
       <c r="A86" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18826,7 +18912,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26">
       <c r="A87" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18859,7 +18945,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26">
       <c r="A88" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18892,7 +18978,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26">
       <c r="A89" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18925,7 +19011,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26">
       <c r="A90" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18958,7 +19044,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26">
       <c r="A91" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18991,7 +19077,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26">
       <c r="A92" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19024,7 +19110,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26">
       <c r="A93" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19057,7 +19143,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26">
       <c r="A94" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19090,7 +19176,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26">
       <c r="A95" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19123,7 +19209,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26">
       <c r="A96" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19156,7 +19242,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26">
       <c r="A97" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19189,7 +19275,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26">
       <c r="A98" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19222,7 +19308,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26">
       <c r="A99" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19255,7 +19341,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26">
       <c r="A100" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19288,7 +19374,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26">
       <c r="A101" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19321,7 +19407,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26">
       <c r="A102" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19354,7 +19440,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26">
       <c r="A103" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19387,7 +19473,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26">
       <c r="A104" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19420,7 +19506,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26">
       <c r="A105" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19453,7 +19539,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26">
       <c r="A106" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19486,7 +19572,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26">
       <c r="A107" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19519,7 +19605,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26">
       <c r="A108" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19552,7 +19638,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26">
       <c r="A109" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19585,7 +19671,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26">
       <c r="A110" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19618,7 +19704,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26">
       <c r="A111" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19651,7 +19737,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26">
       <c r="A112" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19684,7 +19770,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26">
       <c r="A113" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19717,7 +19803,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26">
       <c r="A114" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19750,7 +19836,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26">
       <c r="A115" s="18">
         <f t="shared" ref="A115:A131" si="18">COUNTA(D115:Z115)</f>
         <v>0</v>
@@ -19783,7 +19869,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26">
       <c r="A116" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19816,7 +19902,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26">
       <c r="A117" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19849,7 +19935,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26">
       <c r="A118" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19882,7 +19968,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26">
       <c r="A119" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19915,7 +20001,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26">
       <c r="A120" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19948,7 +20034,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26">
       <c r="A121" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19981,7 +20067,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26">
       <c r="A122" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20014,7 +20100,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26">
       <c r="A123" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20047,7 +20133,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26">
       <c r="A124" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20080,7 +20166,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26">
       <c r="A125" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20113,7 +20199,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26">
       <c r="A126" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20146,7 +20232,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26">
       <c r="A127" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20179,7 +20265,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26">
       <c r="A128" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20212,7 +20298,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26">
       <c r="A129" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20245,7 +20331,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26">
       <c r="A130" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20278,7 +20364,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26">
       <c r="A131" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20311,7 +20397,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26">
       <c r="A132" s="13"/>
       <c r="B132" s="20" t="s">
         <v>581</v>
@@ -20410,7 +20496,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26">
       <c r="A133" s="18">
         <f t="shared" ref="A133:A196" si="20">COUNTA(D133:Z133)</f>
         <v>0</v>
@@ -20443,7 +20529,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26">
       <c r="A134" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20476,7 +20562,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26">
       <c r="A135" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20509,7 +20595,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26">
       <c r="A136" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20542,7 +20628,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26">
       <c r="A137" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20575,7 +20661,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26">
       <c r="A138" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20608,7 +20694,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26">
       <c r="A139" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20641,7 +20727,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26">
       <c r="A140" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20674,7 +20760,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26">
       <c r="A141" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20706,7 +20792,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26">
       <c r="A142" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20739,7 +20825,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26">
       <c r="A143" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20772,7 +20858,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26">
       <c r="A144" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20805,7 +20891,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26">
       <c r="A145" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20838,7 +20924,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26">
       <c r="A146" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20871,7 +20957,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26">
       <c r="A147" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20904,7 +20990,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26">
       <c r="A148" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20937,7 +21023,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26">
       <c r="A149" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20970,7 +21056,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26">
       <c r="A150" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21003,7 +21089,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26">
       <c r="A151" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21036,7 +21122,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26">
       <c r="A152" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21069,7 +21155,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26">
       <c r="A153" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21102,7 +21188,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26">
       <c r="A154" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21135,7 +21221,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26">
       <c r="A155" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21168,7 +21254,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26">
       <c r="A156" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21201,7 +21287,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26">
       <c r="A157" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21234,7 +21320,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26">
       <c r="A158" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21267,7 +21353,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26">
       <c r="A159" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21300,7 +21386,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26">
       <c r="A160" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21333,7 +21419,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26">
       <c r="A161" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21366,7 +21452,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26">
       <c r="A162" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21399,7 +21485,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26">
       <c r="A163" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21432,7 +21518,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26">
       <c r="A164" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21465,7 +21551,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26">
       <c r="A165" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21498,7 +21584,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26">
       <c r="A166" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21533,7 +21619,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26">
       <c r="A167" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21566,7 +21652,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26">
       <c r="A168" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21599,7 +21685,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26">
       <c r="A169" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21632,7 +21718,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26">
       <c r="A170" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21666,7 +21752,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26">
       <c r="A171" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21699,7 +21785,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26">
       <c r="A172" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21732,7 +21818,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26">
       <c r="A173" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21765,7 +21851,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26">
       <c r="A174" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21800,7 +21886,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26">
       <c r="A175" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21833,7 +21919,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26">
       <c r="A176" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21866,7 +21952,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26">
       <c r="A177" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21899,7 +21985,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26">
       <c r="A178" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21932,7 +22018,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26">
       <c r="A179" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21965,7 +22051,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26">
       <c r="A180" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21998,7 +22084,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26">
       <c r="A181" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22031,7 +22117,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26">
       <c r="A182" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22064,7 +22150,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26">
       <c r="A183" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22097,7 +22183,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26">
       <c r="A184" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22130,7 +22216,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26">
       <c r="A185" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22163,7 +22249,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26">
       <c r="A186" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22196,7 +22282,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26">
       <c r="A187" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22229,7 +22315,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26">
       <c r="A188" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22262,7 +22348,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26">
       <c r="A189" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22295,7 +22381,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26">
       <c r="A190" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22328,7 +22414,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26">
       <c r="A191" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22361,7 +22447,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26">
       <c r="A192" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22394,7 +22480,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26">
       <c r="A193" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22427,7 +22513,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26">
       <c r="A194" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22460,7 +22546,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26">
       <c r="A195" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22493,7 +22579,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26">
       <c r="A196" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22526,7 +22612,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26">
       <c r="A197" s="18">
         <f t="shared" ref="A197:A213" si="21">COUNTA(D197:Z197)</f>
         <v>0</v>
@@ -22559,7 +22645,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26">
       <c r="A198" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22592,7 +22678,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26">
       <c r="A199" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22624,7 +22710,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26">
       <c r="A200" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22657,7 +22743,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26">
       <c r="A201" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22690,7 +22776,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26">
       <c r="A202" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22723,7 +22809,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26">
       <c r="A203" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22756,7 +22842,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26">
       <c r="A204" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22789,7 +22875,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26">
       <c r="A205" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22822,7 +22908,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26">
       <c r="A206" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22855,7 +22941,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26">
       <c r="A207" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22888,7 +22974,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26">
       <c r="A208" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22921,7 +23007,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26">
       <c r="A209" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22954,7 +23040,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26">
       <c r="A210" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22987,7 +23073,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26">
       <c r="A211" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23020,7 +23106,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26">
       <c r="A212" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23053,7 +23139,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26">
       <c r="A213" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23086,7 +23172,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26">
       <c r="A214" s="13"/>
       <c r="B214" s="20" t="s">
         <v>582</v>
@@ -23185,7 +23271,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26">
       <c r="A215" s="18">
         <f t="shared" ref="A215:A278" si="24">COUNTA(D215:Z215)</f>
         <v>0</v>
@@ -23218,7 +23304,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26">
       <c r="A216" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23251,7 +23337,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26">
       <c r="A217" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23284,7 +23370,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26">
       <c r="A218" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23317,7 +23403,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26">
       <c r="A219" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23350,7 +23436,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26">
       <c r="A220" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23383,7 +23469,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26">
       <c r="A221" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23416,7 +23502,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26">
       <c r="A222" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23449,7 +23535,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26">
       <c r="A223" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23482,7 +23568,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26">
       <c r="A224" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23515,7 +23601,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26">
       <c r="A225" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23548,7 +23634,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26">
       <c r="A226" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23581,7 +23667,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26">
       <c r="A227" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23614,7 +23700,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26">
       <c r="A228" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23647,7 +23733,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26">
       <c r="A229" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23680,7 +23766,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26">
       <c r="A230" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23713,7 +23799,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26">
       <c r="A231" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23746,7 +23832,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26">
       <c r="A232" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23779,7 +23865,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26">
       <c r="A233" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23812,7 +23898,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26">
       <c r="A234" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23845,7 +23931,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26">
       <c r="A235" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23878,7 +23964,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26">
       <c r="A236" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23911,7 +23997,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26">
       <c r="A237" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23944,7 +24030,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26">
       <c r="A238" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23977,7 +24063,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26">
       <c r="A239" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24010,7 +24096,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26">
       <c r="A240" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24043,7 +24129,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26">
       <c r="A241" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24076,7 +24162,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26">
       <c r="A242" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24109,7 +24195,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26">
       <c r="A243" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24142,7 +24228,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26">
       <c r="A244" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24175,7 +24261,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26">
       <c r="A245" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24208,7 +24294,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26">
       <c r="A246" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24241,7 +24327,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26">
       <c r="A247" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24274,7 +24360,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26">
       <c r="A248" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24307,7 +24393,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26">
       <c r="A249" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24340,7 +24426,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26">
       <c r="A250" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24373,7 +24459,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26">
       <c r="A251" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24406,7 +24492,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26">
       <c r="A252" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24439,7 +24525,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26">
       <c r="A253" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24472,7 +24558,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26">
       <c r="A254" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24505,7 +24591,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26">
       <c r="A255" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24538,7 +24624,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26">
       <c r="A256" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24571,7 +24657,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26">
       <c r="A257" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24604,7 +24690,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26">
       <c r="A258" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24637,7 +24723,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26">
       <c r="A259" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24670,7 +24756,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26">
       <c r="A260" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24703,7 +24789,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26">
       <c r="A261" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24736,7 +24822,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26">
       <c r="A262" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24769,7 +24855,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26">
       <c r="A263" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24802,7 +24888,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26">
       <c r="A264" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24835,7 +24921,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26">
       <c r="A265" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24868,7 +24954,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26">
       <c r="A266" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24901,7 +24987,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26">
       <c r="A267" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24934,7 +25020,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26">
       <c r="A268" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24967,7 +25053,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26">
       <c r="A269" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25002,7 +25088,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26">
       <c r="A270" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25035,7 +25121,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26">
       <c r="A271" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25068,7 +25154,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26">
       <c r="A272" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25101,7 +25187,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26">
       <c r="A273" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25136,7 +25222,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26">
       <c r="A274" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25169,7 +25255,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26">
       <c r="A275" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25202,7 +25288,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26">
       <c r="A276" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25235,7 +25321,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26">
       <c r="A277" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25270,7 +25356,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26">
       <c r="A278" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25303,7 +25389,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26">
       <c r="A279" s="18">
         <f t="shared" ref="A279:A295" si="25">COUNTA(D279:Z279)</f>
         <v>0</v>
@@ -25336,7 +25422,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26">
       <c r="A280" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25369,7 +25455,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26">
       <c r="A281" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25402,7 +25488,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26">
       <c r="A282" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25435,7 +25521,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26">
       <c r="A283" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25468,7 +25554,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26">
       <c r="A284" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25501,7 +25587,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26">
       <c r="A285" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25534,7 +25620,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26">
       <c r="A286" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25567,7 +25653,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26">
       <c r="A287" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25600,7 +25686,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26">
       <c r="A288" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25633,7 +25719,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26">
       <c r="A289" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25666,7 +25752,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26">
       <c r="A290" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25699,7 +25785,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26">
       <c r="A291" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25732,7 +25818,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26">
       <c r="A292" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25765,7 +25851,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26">
       <c r="A293" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25798,7 +25884,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26">
       <c r="A294" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25831,7 +25917,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26">
       <c r="A295" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25864,7 +25950,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26">
       <c r="A296" s="13"/>
       <c r="B296" s="20" t="s">
         <v>108</v>
@@ -25963,7 +26049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26">
       <c r="A297" s="18">
         <f>COUNTA(D297:Z297)</f>
         <v>1</v>
@@ -26000,7 +26086,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26">
       <c r="A298" s="18">
         <f>COUNTA(D298:Z298)</f>
         <v>1</v>
@@ -26037,7 +26123,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26">
       <c r="A299" s="18">
         <f>COUNTA(D299:Z299)</f>
         <v>1</v>
@@ -26074,7 +26160,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26">
       <c r="A300" s="13"/>
       <c r="B300" s="20" t="s">
         <v>110</v>
@@ -26173,7 +26259,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26">
       <c r="A301" s="18">
         <f>COUNTA(D301:Z301)</f>
         <v>3</v>
@@ -26214,7 +26300,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26">
       <c r="A302" s="18">
         <f>COUNTA(D302:Z302)</f>
         <v>1</v>
@@ -26251,7 +26337,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26">
       <c r="A303" s="18">
         <f>COUNTA(D303:Z303)</f>
         <v>1</v>
@@ -26288,7 +26374,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26">
       <c r="A304" s="13"/>
       <c r="B304" s="20" t="s">
         <v>117</v>
@@ -26387,7 +26473,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26">
       <c r="A305" s="18">
         <f t="shared" ref="A305:A313" si="31">COUNTA(D305:Z305)</f>
         <v>3</v>
@@ -26426,7 +26512,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26">
       <c r="A306" s="18">
         <f t="shared" si="31"/>
         <v>7</v>
@@ -26475,7 +26561,7 @@
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26">
       <c r="A307" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26514,7 +26600,7 @@
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26">
       <c r="A308" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26553,7 +26639,7 @@
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26">
       <c r="A309" s="18">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -26594,7 +26680,7 @@
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26">
       <c r="A310" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26633,7 +26719,7 @@
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26">
       <c r="A311" s="18">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -26672,7 +26758,7 @@
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26">
       <c r="A312" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26709,7 +26795,7 @@
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26">
       <c r="A313" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26748,7 +26834,7 @@
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26">
       <c r="A314" s="13"/>
       <c r="B314" s="20" t="s">
         <v>342</v>
@@ -26847,7 +26933,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26">
       <c r="A315" s="18">
         <f t="shared" ref="A315:A326" si="33">COUNTA(D315:Z315)</f>
         <v>0</v>
@@ -26880,7 +26966,7 @@
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26">
       <c r="A316" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -26913,7 +26999,7 @@
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26">
       <c r="A317" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -26946,7 +27032,7 @@
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26">
       <c r="A318" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -26979,7 +27065,7 @@
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26">
       <c r="A319" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27012,7 +27098,7 @@
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26">
       <c r="A320" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27045,7 +27131,7 @@
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
     </row>
-    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26">
       <c r="A321" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27078,7 +27164,7 @@
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
     </row>
-    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26">
       <c r="A322" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27111,7 +27197,7 @@
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
     </row>
-    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26">
       <c r="A323" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27144,7 +27230,7 @@
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
     </row>
-    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26">
       <c r="A324" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27177,7 +27263,7 @@
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
     </row>
-    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26">
       <c r="A325" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27210,7 +27296,7 @@
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
     </row>
-    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26">
       <c r="A326" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27243,7 +27329,7 @@
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
     </row>
-    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26">
       <c r="A327" s="13"/>
       <c r="B327" s="20" t="s">
         <v>311</v>
@@ -27342,7 +27428,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26">
       <c r="A328" s="18">
         <f>COUNTA(D328:Z328)</f>
         <v>0</v>
@@ -27377,7 +27463,7 @@
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
     </row>
-    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26">
       <c r="A329" s="18">
         <f>COUNTA(D329:Z329)</f>
         <v>0</v>
@@ -27410,7 +27496,7 @@
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
     </row>
-    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26">
       <c r="A330" s="18">
         <f>COUNTA(D330:Z330)</f>
         <v>0</v>
@@ -27443,7 +27529,7 @@
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
     </row>
-    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26">
       <c r="A331" s="13"/>
       <c r="B331" s="20" t="s">
         <v>316</v>
@@ -27542,7 +27628,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26">
       <c r="A332" s="18">
         <f>COUNTA(D332:Z332)</f>
         <v>3</v>
@@ -27583,7 +27669,7 @@
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
     </row>
-    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26">
       <c r="A333" s="18">
         <f>COUNTA(D333:Z333)</f>
         <v>3</v>
@@ -27622,7 +27708,7 @@
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
     </row>
-    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26">
       <c r="A334" s="18">
         <f>COUNTA(D334:Z334)</f>
         <v>3</v>
@@ -27661,7 +27747,7 @@
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
     </row>
-    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26">
       <c r="A335" s="13"/>
       <c r="B335" s="20" t="s">
         <v>134</v>
@@ -27760,7 +27846,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26">
       <c r="A336" s="18">
         <f t="shared" ref="A336:A353" si="40">COUNTA(D336:Z336)</f>
         <v>2</v>
@@ -27797,7 +27883,7 @@
       <c r="Y336" s="18"/>
       <c r="Z336" s="18"/>
     </row>
-    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26">
       <c r="A337" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -27834,7 +27920,7 @@
       <c r="Y337" s="18"/>
       <c r="Z337" s="18"/>
     </row>
-    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26">
       <c r="A338" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -27867,7 +27953,7 @@
       <c r="Y338" s="18"/>
       <c r="Z338" s="18"/>
     </row>
-    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26">
       <c r="A339" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -27906,7 +27992,7 @@
       <c r="Y339" s="18"/>
       <c r="Z339" s="18"/>
     </row>
-    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26">
       <c r="A340" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -27945,7 +28031,7 @@
       <c r="Y340" s="18"/>
       <c r="Z340" s="18"/>
     </row>
-    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26">
       <c r="A341" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -27980,7 +28066,7 @@
       <c r="Y341" s="18"/>
       <c r="Z341" s="18"/>
     </row>
-    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26">
       <c r="A342" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28017,7 +28103,7 @@
       <c r="Y342" s="18"/>
       <c r="Z342" s="18"/>
     </row>
-    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26">
       <c r="A343" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28054,7 +28140,7 @@
       <c r="Y343" s="18"/>
       <c r="Z343" s="18"/>
     </row>
-    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26">
       <c r="A344" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28087,7 +28173,7 @@
       <c r="Y344" s="18"/>
       <c r="Z344" s="18"/>
     </row>
-    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26">
       <c r="A345" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28126,7 +28212,7 @@
       <c r="Y345" s="18"/>
       <c r="Z345" s="18"/>
     </row>
-    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26">
       <c r="A346" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28165,7 +28251,7 @@
       <c r="Y346" s="18"/>
       <c r="Z346" s="18"/>
     </row>
-    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26">
       <c r="A347" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28200,7 +28286,7 @@
       <c r="Y347" s="18"/>
       <c r="Z347" s="18"/>
     </row>
-    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26">
       <c r="A348" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28237,7 +28323,7 @@
       <c r="Y348" s="18"/>
       <c r="Z348" s="18"/>
     </row>
-    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26">
       <c r="A349" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28274,7 +28360,7 @@
       <c r="Y349" s="18"/>
       <c r="Z349" s="18"/>
     </row>
-    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26">
       <c r="A350" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28307,7 +28393,7 @@
       <c r="Y350" s="18"/>
       <c r="Z350" s="18"/>
     </row>
-    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:26">
       <c r="A351" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28344,7 +28430,7 @@
       <c r="Y351" s="18"/>
       <c r="Z351" s="18"/>
     </row>
-    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:26">
       <c r="A352" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28381,7 +28467,7 @@
       <c r="Y352" s="18"/>
       <c r="Z352" s="18"/>
     </row>
-    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:26">
       <c r="A353" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28414,7 +28500,7 @@
       <c r="Y353" s="18"/>
       <c r="Z353" s="18"/>
     </row>
-    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:26">
       <c r="A354" s="13"/>
       <c r="B354" s="20" t="s">
         <v>149</v>
@@ -28513,7 +28599,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:26">
       <c r="A355" s="18">
         <f>COUNTA(D355:Z355)</f>
         <v>6</v>
@@ -28560,7 +28646,7 @@
       <c r="Y355" s="18"/>
       <c r="Z355" s="18"/>
     </row>
-    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:26">
       <c r="A356" s="18">
         <f>COUNTA(D356:Z356)</f>
         <v>2</v>
@@ -28599,7 +28685,7 @@
       <c r="Y356" s="18"/>
       <c r="Z356" s="18"/>
     </row>
-    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:26">
       <c r="A357" s="18">
         <f>COUNTA(D357:Z357)</f>
         <v>2</v>
@@ -28638,7 +28724,7 @@
       <c r="Y357" s="18"/>
       <c r="Z357" s="18"/>
     </row>
-    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:26">
       <c r="A358" s="18">
         <f>COUNTA(D358:Z358)</f>
         <v>4</v>
@@ -28679,7 +28765,7 @@
       <c r="Y358" s="18"/>
       <c r="Z358" s="18"/>
     </row>
-    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:26">
       <c r="A359" s="13"/>
       <c r="B359" s="20" t="s">
         <v>355</v>
@@ -28778,7 +28864,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:26">
       <c r="A360" s="18">
         <f t="shared" ref="A360:A423" si="44">COUNTA(D360:Z360)</f>
         <v>0</v>
@@ -28811,7 +28897,7 @@
       <c r="Y360" s="18"/>
       <c r="Z360" s="18"/>
     </row>
-    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:26">
       <c r="A361" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28844,7 +28930,7 @@
       <c r="Y361" s="18"/>
       <c r="Z361" s="18"/>
     </row>
-    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:26">
       <c r="A362" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28877,7 +28963,7 @@
       <c r="Y362" s="18"/>
       <c r="Z362" s="18"/>
     </row>
-    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:26">
       <c r="A363" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28910,7 +28996,7 @@
       <c r="Y363" s="18"/>
       <c r="Z363" s="18"/>
     </row>
-    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:26">
       <c r="A364" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28943,7 +29029,7 @@
       <c r="Y364" s="18"/>
       <c r="Z364" s="18"/>
     </row>
-    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:26">
       <c r="A365" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28976,7 +29062,7 @@
       <c r="Y365" s="18"/>
       <c r="Z365" s="18"/>
     </row>
-    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:26">
       <c r="A366" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29009,7 +29095,7 @@
       <c r="Y366" s="18"/>
       <c r="Z366" s="18"/>
     </row>
-    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:26">
       <c r="A367" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29042,7 +29128,7 @@
       <c r="Y367" s="18"/>
       <c r="Z367" s="18"/>
     </row>
-    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:26">
       <c r="A368" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29075,7 +29161,7 @@
       <c r="Y368" s="18"/>
       <c r="Z368" s="18"/>
     </row>
-    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:26">
       <c r="A369" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29108,7 +29194,7 @@
       <c r="Y369" s="18"/>
       <c r="Z369" s="18"/>
     </row>
-    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:26">
       <c r="A370" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29141,7 +29227,7 @@
       <c r="Y370" s="18"/>
       <c r="Z370" s="18"/>
     </row>
-    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:26">
       <c r="A371" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29174,7 +29260,7 @@
       <c r="Y371" s="18"/>
       <c r="Z371" s="18"/>
     </row>
-    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:26">
       <c r="A372" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29207,7 +29293,7 @@
       <c r="Y372" s="18"/>
       <c r="Z372" s="18"/>
     </row>
-    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:26">
       <c r="A373" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29240,7 +29326,7 @@
       <c r="Y373" s="18"/>
       <c r="Z373" s="18"/>
     </row>
-    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:26">
       <c r="A374" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29273,7 +29359,7 @@
       <c r="Y374" s="18"/>
       <c r="Z374" s="18"/>
     </row>
-    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:26">
       <c r="A375" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29306,7 +29392,7 @@
       <c r="Y375" s="18"/>
       <c r="Z375" s="18"/>
     </row>
-    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:26">
       <c r="A376" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29339,7 +29425,7 @@
       <c r="Y376" s="18"/>
       <c r="Z376" s="18"/>
     </row>
-    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:26">
       <c r="A377" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29372,7 +29458,7 @@
       <c r="Y377" s="18"/>
       <c r="Z377" s="18"/>
     </row>
-    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:26">
       <c r="A378" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29405,7 +29491,7 @@
       <c r="Y378" s="18"/>
       <c r="Z378" s="18"/>
     </row>
-    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26">
       <c r="A379" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29438,7 +29524,7 @@
       <c r="Y379" s="18"/>
       <c r="Z379" s="18"/>
     </row>
-    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:26">
       <c r="A380" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29471,7 +29557,7 @@
       <c r="Y380" s="18"/>
       <c r="Z380" s="18"/>
     </row>
-    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:26">
       <c r="A381" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29504,7 +29590,7 @@
       <c r="Y381" s="18"/>
       <c r="Z381" s="18"/>
     </row>
-    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:26">
       <c r="A382" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29537,7 +29623,7 @@
       <c r="Y382" s="18"/>
       <c r="Z382" s="18"/>
     </row>
-    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:26">
       <c r="A383" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29570,7 +29656,7 @@
       <c r="Y383" s="18"/>
       <c r="Z383" s="18"/>
     </row>
-    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:26">
       <c r="A384" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29603,7 +29689,7 @@
       <c r="Y384" s="18"/>
       <c r="Z384" s="18"/>
     </row>
-    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:26">
       <c r="A385" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29636,7 +29722,7 @@
       <c r="Y385" s="18"/>
       <c r="Z385" s="18"/>
     </row>
-    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:26">
       <c r="A386" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29669,7 +29755,7 @@
       <c r="Y386" s="18"/>
       <c r="Z386" s="18"/>
     </row>
-    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:26">
       <c r="A387" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29702,7 +29788,7 @@
       <c r="Y387" s="18"/>
       <c r="Z387" s="18"/>
     </row>
-    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:26">
       <c r="A388" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29735,7 +29821,7 @@
       <c r="Y388" s="18"/>
       <c r="Z388" s="18"/>
     </row>
-    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:26">
       <c r="A389" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29768,7 +29854,7 @@
       <c r="Y389" s="18"/>
       <c r="Z389" s="18"/>
     </row>
-    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:26">
       <c r="A390" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29801,7 +29887,7 @@
       <c r="Y390" s="18"/>
       <c r="Z390" s="18"/>
     </row>
-    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:26">
       <c r="A391" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29834,7 +29920,7 @@
       <c r="Y391" s="18"/>
       <c r="Z391" s="18"/>
     </row>
-    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:26">
       <c r="A392" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29867,7 +29953,7 @@
       <c r="Y392" s="18"/>
       <c r="Z392" s="18"/>
     </row>
-    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:26">
       <c r="A393" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29900,7 +29986,7 @@
       <c r="Y393" s="18"/>
       <c r="Z393" s="18"/>
     </row>
-    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:26">
       <c r="A394" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29933,7 +30019,7 @@
       <c r="Y394" s="18"/>
       <c r="Z394" s="18"/>
     </row>
-    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:26">
       <c r="A395" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29966,7 +30052,7 @@
       <c r="Y395" s="18"/>
       <c r="Z395" s="18"/>
     </row>
-    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:26">
       <c r="A396" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29999,7 +30085,7 @@
       <c r="Y396" s="18"/>
       <c r="Z396" s="18"/>
     </row>
-    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:26">
       <c r="A397" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30032,7 +30118,7 @@
       <c r="Y397" s="18"/>
       <c r="Z397" s="18"/>
     </row>
-    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:26">
       <c r="A398" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30065,7 +30151,7 @@
       <c r="Y398" s="18"/>
       <c r="Z398" s="18"/>
     </row>
-    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:26">
       <c r="A399" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30098,7 +30184,7 @@
       <c r="Y399" s="18"/>
       <c r="Z399" s="18"/>
     </row>
-    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:26">
       <c r="A400" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30131,7 +30217,7 @@
       <c r="Y400" s="18"/>
       <c r="Z400" s="18"/>
     </row>
-    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:26">
       <c r="A401" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30164,7 +30250,7 @@
       <c r="Y401" s="18"/>
       <c r="Z401" s="18"/>
     </row>
-    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:26">
       <c r="A402" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30197,7 +30283,7 @@
       <c r="Y402" s="18"/>
       <c r="Z402" s="18"/>
     </row>
-    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:26">
       <c r="A403" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30230,7 +30316,7 @@
       <c r="Y403" s="18"/>
       <c r="Z403" s="18"/>
     </row>
-    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:26">
       <c r="A404" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30263,7 +30349,7 @@
       <c r="Y404" s="18"/>
       <c r="Z404" s="18"/>
     </row>
-    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:26">
       <c r="A405" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30296,7 +30382,7 @@
       <c r="Y405" s="18"/>
       <c r="Z405" s="18"/>
     </row>
-    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:26">
       <c r="A406" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30329,7 +30415,7 @@
       <c r="Y406" s="18"/>
       <c r="Z406" s="18"/>
     </row>
-    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:26">
       <c r="A407" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30362,7 +30448,7 @@
       <c r="Y407" s="18"/>
       <c r="Z407" s="18"/>
     </row>
-    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:26">
       <c r="A408" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30395,7 +30481,7 @@
       <c r="Y408" s="18"/>
       <c r="Z408" s="18"/>
     </row>
-    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:26">
       <c r="A409" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30428,7 +30514,7 @@
       <c r="Y409" s="18"/>
       <c r="Z409" s="18"/>
     </row>
-    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:26">
       <c r="A410" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30461,7 +30547,7 @@
       <c r="Y410" s="18"/>
       <c r="Z410" s="18"/>
     </row>
-    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:26">
       <c r="A411" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30494,7 +30580,7 @@
       <c r="Y411" s="18"/>
       <c r="Z411" s="18"/>
     </row>
-    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:26">
       <c r="A412" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30527,7 +30613,7 @@
       <c r="Y412" s="18"/>
       <c r="Z412" s="18"/>
     </row>
-    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:26">
       <c r="A413" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30560,7 +30646,7 @@
       <c r="Y413" s="18"/>
       <c r="Z413" s="18"/>
     </row>
-    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:26">
       <c r="A414" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30593,7 +30679,7 @@
       <c r="Y414" s="18"/>
       <c r="Z414" s="18"/>
     </row>
-    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:26">
       <c r="A415" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30626,7 +30712,7 @@
       <c r="Y415" s="18"/>
       <c r="Z415" s="18"/>
     </row>
-    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:26">
       <c r="A416" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30659,7 +30745,7 @@
       <c r="Y416" s="18"/>
       <c r="Z416" s="18"/>
     </row>
-    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:26">
       <c r="A417" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30692,7 +30778,7 @@
       <c r="Y417" s="18"/>
       <c r="Z417" s="18"/>
     </row>
-    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:26">
       <c r="A418" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30725,7 +30811,7 @@
       <c r="Y418" s="18"/>
       <c r="Z418" s="18"/>
     </row>
-    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:26">
       <c r="A419" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30758,7 +30844,7 @@
       <c r="Y419" s="18"/>
       <c r="Z419" s="18"/>
     </row>
-    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:26">
       <c r="A420" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30791,7 +30877,7 @@
       <c r="Y420" s="18"/>
       <c r="Z420" s="18"/>
     </row>
-    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:26">
       <c r="A421" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30824,7 +30910,7 @@
       <c r="Y421" s="18"/>
       <c r="Z421" s="18"/>
     </row>
-    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:26">
       <c r="A422" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30857,7 +30943,7 @@
       <c r="Y422" s="18"/>
       <c r="Z422" s="18"/>
     </row>
-    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:26">
       <c r="A423" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30890,7 +30976,7 @@
       <c r="Y423" s="18"/>
       <c r="Z423" s="18"/>
     </row>
-    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:26">
       <c r="A424" s="18">
         <f t="shared" ref="A424:A487" si="45">COUNTA(D424:Z424)</f>
         <v>0</v>
@@ -30923,7 +31009,7 @@
       <c r="Y424" s="18"/>
       <c r="Z424" s="18"/>
     </row>
-    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:26">
       <c r="A425" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -30956,7 +31042,7 @@
       <c r="Y425" s="18"/>
       <c r="Z425" s="18"/>
     </row>
-    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:26">
       <c r="A426" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -30989,7 +31075,7 @@
       <c r="Y426" s="18"/>
       <c r="Z426" s="18"/>
     </row>
-    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:26">
       <c r="A427" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31022,7 +31108,7 @@
       <c r="Y427" s="18"/>
       <c r="Z427" s="18"/>
     </row>
-    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:26">
       <c r="A428" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31055,7 +31141,7 @@
       <c r="Y428" s="18"/>
       <c r="Z428" s="18"/>
     </row>
-    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:26">
       <c r="A429" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31088,7 +31174,7 @@
       <c r="Y429" s="18"/>
       <c r="Z429" s="18"/>
     </row>
-    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:26">
       <c r="A430" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31121,7 +31207,7 @@
       <c r="Y430" s="18"/>
       <c r="Z430" s="18"/>
     </row>
-    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:26">
       <c r="A431" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31154,7 +31240,7 @@
       <c r="Y431" s="18"/>
       <c r="Z431" s="18"/>
     </row>
-    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:26">
       <c r="A432" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31187,7 +31273,7 @@
       <c r="Y432" s="18"/>
       <c r="Z432" s="18"/>
     </row>
-    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:26">
       <c r="A433" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31220,7 +31306,7 @@
       <c r="Y433" s="18"/>
       <c r="Z433" s="18"/>
     </row>
-    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:26">
       <c r="A434" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31253,7 +31339,7 @@
       <c r="Y434" s="18"/>
       <c r="Z434" s="18"/>
     </row>
-    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:26">
       <c r="A435" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31286,7 +31372,7 @@
       <c r="Y435" s="18"/>
       <c r="Z435" s="18"/>
     </row>
-    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:26">
       <c r="A436" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31319,7 +31405,7 @@
       <c r="Y436" s="18"/>
       <c r="Z436" s="18"/>
     </row>
-    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:26">
       <c r="A437" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31352,7 +31438,7 @@
       <c r="Y437" s="18"/>
       <c r="Z437" s="18"/>
     </row>
-    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:26">
       <c r="A438" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31385,7 +31471,7 @@
       <c r="Y438" s="18"/>
       <c r="Z438" s="18"/>
     </row>
-    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:26">
       <c r="A439" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31418,7 +31504,7 @@
       <c r="Y439" s="18"/>
       <c r="Z439" s="18"/>
     </row>
-    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:26">
       <c r="A440" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31451,7 +31537,7 @@
       <c r="Y440" s="18"/>
       <c r="Z440" s="18"/>
     </row>
-    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:26">
       <c r="A441" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31484,7 +31570,7 @@
       <c r="Y441" s="18"/>
       <c r="Z441" s="18"/>
     </row>
-    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:26">
       <c r="A442" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31517,7 +31603,7 @@
       <c r="Y442" s="18"/>
       <c r="Z442" s="18"/>
     </row>
-    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:26">
       <c r="A443" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31550,7 +31636,7 @@
       <c r="Y443" s="18"/>
       <c r="Z443" s="18"/>
     </row>
-    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:26">
       <c r="A444" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31583,7 +31669,7 @@
       <c r="Y444" s="18"/>
       <c r="Z444" s="18"/>
     </row>
-    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:26">
       <c r="A445" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31616,7 +31702,7 @@
       <c r="Y445" s="18"/>
       <c r="Z445" s="18"/>
     </row>
-    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:26">
       <c r="A446" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31649,7 +31735,7 @@
       <c r="Y446" s="18"/>
       <c r="Z446" s="18"/>
     </row>
-    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:26">
       <c r="A447" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31682,7 +31768,7 @@
       <c r="Y447" s="18"/>
       <c r="Z447" s="18"/>
     </row>
-    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:26">
       <c r="A448" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31715,7 +31801,7 @@
       <c r="Y448" s="18"/>
       <c r="Z448" s="18"/>
     </row>
-    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:26">
       <c r="A449" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31748,7 +31834,7 @@
       <c r="Y449" s="18"/>
       <c r="Z449" s="18"/>
     </row>
-    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:26">
       <c r="A450" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31781,7 +31867,7 @@
       <c r="Y450" s="18"/>
       <c r="Z450" s="18"/>
     </row>
-    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:26">
       <c r="A451" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31814,7 +31900,7 @@
       <c r="Y451" s="18"/>
       <c r="Z451" s="18"/>
     </row>
-    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:26">
       <c r="A452" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31847,7 +31933,7 @@
       <c r="Y452" s="18"/>
       <c r="Z452" s="18"/>
     </row>
-    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:26">
       <c r="A453" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31880,7 +31966,7 @@
       <c r="Y453" s="18"/>
       <c r="Z453" s="18"/>
     </row>
-    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:26">
       <c r="A454" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31913,7 +31999,7 @@
       <c r="Y454" s="18"/>
       <c r="Z454" s="18"/>
     </row>
-    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:26">
       <c r="A455" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31946,7 +32032,7 @@
       <c r="Y455" s="18"/>
       <c r="Z455" s="18"/>
     </row>
-    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:26">
       <c r="A456" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31979,7 +32065,7 @@
       <c r="Y456" s="18"/>
       <c r="Z456" s="18"/>
     </row>
-    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:26">
       <c r="A457" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32012,7 +32098,7 @@
       <c r="Y457" s="18"/>
       <c r="Z457" s="18"/>
     </row>
-    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:26">
       <c r="A458" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32045,7 +32131,7 @@
       <c r="Y458" s="18"/>
       <c r="Z458" s="18"/>
     </row>
-    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:26">
       <c r="A459" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32078,7 +32164,7 @@
       <c r="Y459" s="18"/>
       <c r="Z459" s="18"/>
     </row>
-    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:26">
       <c r="A460" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32111,7 +32197,7 @@
       <c r="Y460" s="18"/>
       <c r="Z460" s="18"/>
     </row>
-    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:26">
       <c r="A461" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32144,7 +32230,7 @@
       <c r="Y461" s="18"/>
       <c r="Z461" s="18"/>
     </row>
-    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:26">
       <c r="A462" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32177,7 +32263,7 @@
       <c r="Y462" s="18"/>
       <c r="Z462" s="18"/>
     </row>
-    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:26">
       <c r="A463" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32210,7 +32296,7 @@
       <c r="Y463" s="18"/>
       <c r="Z463" s="18"/>
     </row>
-    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:26">
       <c r="A464" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32243,7 +32329,7 @@
       <c r="Y464" s="18"/>
       <c r="Z464" s="18"/>
     </row>
-    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:26">
       <c r="A465" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32276,7 +32362,7 @@
       <c r="Y465" s="18"/>
       <c r="Z465" s="18"/>
     </row>
-    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:26">
       <c r="A466" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32309,7 +32395,7 @@
       <c r="Y466" s="18"/>
       <c r="Z466" s="18"/>
     </row>
-    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:26">
       <c r="A467" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32342,7 +32428,7 @@
       <c r="Y467" s="18"/>
       <c r="Z467" s="18"/>
     </row>
-    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:26">
       <c r="A468" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32375,7 +32461,7 @@
       <c r="Y468" s="18"/>
       <c r="Z468" s="18"/>
     </row>
-    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:26">
       <c r="A469" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32408,7 +32494,7 @@
       <c r="Y469" s="18"/>
       <c r="Z469" s="18"/>
     </row>
-    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:26">
       <c r="A470" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32441,7 +32527,7 @@
       <c r="Y470" s="18"/>
       <c r="Z470" s="18"/>
     </row>
-    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:26">
       <c r="A471" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32474,7 +32560,7 @@
       <c r="Y471" s="18"/>
       <c r="Z471" s="18"/>
     </row>
-    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:26">
       <c r="A472" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32507,7 +32593,7 @@
       <c r="Y472" s="18"/>
       <c r="Z472" s="18"/>
     </row>
-    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:26">
       <c r="A473" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32540,7 +32626,7 @@
       <c r="Y473" s="18"/>
       <c r="Z473" s="18"/>
     </row>
-    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:26">
       <c r="A474" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32573,7 +32659,7 @@
       <c r="Y474" s="18"/>
       <c r="Z474" s="18"/>
     </row>
-    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:26">
       <c r="A475" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32606,7 +32692,7 @@
       <c r="Y475" s="18"/>
       <c r="Z475" s="18"/>
     </row>
-    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:26">
       <c r="A476" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32639,7 +32725,7 @@
       <c r="Y476" s="18"/>
       <c r="Z476" s="18"/>
     </row>
-    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:26">
       <c r="A477" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32672,7 +32758,7 @@
       <c r="Y477" s="18"/>
       <c r="Z477" s="18"/>
     </row>
-    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:26">
       <c r="A478" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32705,7 +32791,7 @@
       <c r="Y478" s="18"/>
       <c r="Z478" s="18"/>
     </row>
-    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:26">
       <c r="A479" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32738,7 +32824,7 @@
       <c r="Y479" s="18"/>
       <c r="Z479" s="18"/>
     </row>
-    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:26">
       <c r="A480" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32771,7 +32857,7 @@
       <c r="Y480" s="18"/>
       <c r="Z480" s="18"/>
     </row>
-    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:26">
       <c r="A481" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32804,7 +32890,7 @@
       <c r="Y481" s="18"/>
       <c r="Z481" s="18"/>
     </row>
-    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:26">
       <c r="A482" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32837,7 +32923,7 @@
       <c r="Y482" s="18"/>
       <c r="Z482" s="18"/>
     </row>
-    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:26">
       <c r="A483" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32870,7 +32956,7 @@
       <c r="Y483" s="18"/>
       <c r="Z483" s="18"/>
     </row>
-    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:26">
       <c r="A484" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32903,7 +32989,7 @@
       <c r="Y484" s="18"/>
       <c r="Z484" s="18"/>
     </row>
-    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:26">
       <c r="A485" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32936,7 +33022,7 @@
       <c r="Y485" s="18"/>
       <c r="Z485" s="18"/>
     </row>
-    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:26">
       <c r="A486" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32969,7 +33055,7 @@
       <c r="Y486" s="18"/>
       <c r="Z486" s="18"/>
     </row>
-    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:26">
       <c r="A487" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -33002,7 +33088,7 @@
       <c r="Y487" s="18"/>
       <c r="Z487" s="18"/>
     </row>
-    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:26">
       <c r="A488" s="18">
         <f t="shared" ref="A488:A494" si="46">COUNTA(D488:Z488)</f>
         <v>0</v>
@@ -33035,7 +33121,7 @@
       <c r="Y488" s="18"/>
       <c r="Z488" s="18"/>
     </row>
-    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:26">
       <c r="A489" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33068,7 +33154,7 @@
       <c r="Y489" s="18"/>
       <c r="Z489" s="18"/>
     </row>
-    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:26">
       <c r="A490" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33101,7 +33187,7 @@
       <c r="Y490" s="18"/>
       <c r="Z490" s="18"/>
     </row>
-    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:26">
       <c r="A491" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33134,7 +33220,7 @@
       <c r="Y491" s="18"/>
       <c r="Z491" s="18"/>
     </row>
-    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:26">
       <c r="A492" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33167,7 +33253,7 @@
       <c r="Y492" s="18"/>
       <c r="Z492" s="18"/>
     </row>
-    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:26">
       <c r="A493" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33200,7 +33286,7 @@
       <c r="Y493" s="18"/>
       <c r="Z493" s="18"/>
     </row>
-    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:26">
       <c r="A494" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33233,7 +33319,7 @@
       <c r="Y494" s="18"/>
       <c r="Z494" s="18"/>
     </row>
-    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:26">
       <c r="A495" s="13"/>
       <c r="B495" s="20" t="s">
         <v>371</v>
@@ -33332,7 +33418,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:26">
       <c r="A496" s="18">
         <f t="shared" ref="A496:A528" si="48">COUNTA(D496:Z496)</f>
         <v>0</v>
@@ -33365,7 +33451,7 @@
       <c r="Y496" s="18"/>
       <c r="Z496" s="18"/>
     </row>
-    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:26">
       <c r="A497" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33398,7 +33484,7 @@
       <c r="Y497" s="18"/>
       <c r="Z497" s="18"/>
     </row>
-    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:26">
       <c r="A498" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33431,7 +33517,7 @@
       <c r="Y498" s="18"/>
       <c r="Z498" s="18"/>
     </row>
-    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:26">
       <c r="A499" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33466,7 +33552,7 @@
       <c r="Y499" s="18"/>
       <c r="Z499" s="18"/>
     </row>
-    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:26">
       <c r="A500" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33501,7 +33587,7 @@
       <c r="Y500" s="18"/>
       <c r="Z500" s="18"/>
     </row>
-    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:26">
       <c r="A501" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33536,7 +33622,7 @@
       <c r="Y501" s="18"/>
       <c r="Z501" s="18"/>
     </row>
-    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:26">
       <c r="A502" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33569,7 +33655,7 @@
       <c r="Y502" s="18"/>
       <c r="Z502" s="18"/>
     </row>
-    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:26">
       <c r="A503" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33602,7 +33688,7 @@
       <c r="Y503" s="18"/>
       <c r="Z503" s="18"/>
     </row>
-    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:26">
       <c r="A504" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33635,7 +33721,7 @@
       <c r="Y504" s="18"/>
       <c r="Z504" s="18"/>
     </row>
-    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:26">
       <c r="A505" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33668,7 +33754,7 @@
       <c r="Y505" s="18"/>
       <c r="Z505" s="18"/>
     </row>
-    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:26">
       <c r="A506" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33701,7 +33787,7 @@
       <c r="Y506" s="18"/>
       <c r="Z506" s="18"/>
     </row>
-    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:26">
       <c r="A507" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33734,7 +33820,7 @@
       <c r="Y507" s="18"/>
       <c r="Z507" s="18"/>
     </row>
-    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:26">
       <c r="A508" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33767,7 +33853,7 @@
       <c r="Y508" s="18"/>
       <c r="Z508" s="18"/>
     </row>
-    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:26">
       <c r="A509" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33800,7 +33886,7 @@
       <c r="Y509" s="18"/>
       <c r="Z509" s="18"/>
     </row>
-    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:26">
       <c r="A510" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33833,7 +33919,7 @@
       <c r="Y510" s="18"/>
       <c r="Z510" s="18"/>
     </row>
-    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:26">
       <c r="A511" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33866,7 +33952,7 @@
       <c r="Y511" s="18"/>
       <c r="Z511" s="18"/>
     </row>
-    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:26">
       <c r="A512" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33899,7 +33985,7 @@
       <c r="Y512" s="18"/>
       <c r="Z512" s="18"/>
     </row>
-    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:26">
       <c r="A513" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33932,7 +34018,7 @@
       <c r="Y513" s="18"/>
       <c r="Z513" s="18"/>
     </row>
-    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:26">
       <c r="A514" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33967,7 +34053,7 @@
       <c r="Y514" s="18"/>
       <c r="Z514" s="18"/>
     </row>
-    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:26">
       <c r="A515" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34002,7 +34088,7 @@
       <c r="Y515" s="18"/>
       <c r="Z515" s="18"/>
     </row>
-    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:26">
       <c r="A516" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34037,7 +34123,7 @@
       <c r="Y516" s="18"/>
       <c r="Z516" s="18"/>
     </row>
-    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:26">
       <c r="A517" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34070,7 +34156,7 @@
       <c r="Y517" s="18"/>
       <c r="Z517" s="18"/>
     </row>
-    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:26">
       <c r="A518" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34103,7 +34189,7 @@
       <c r="Y518" s="18"/>
       <c r="Z518" s="18"/>
     </row>
-    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:26">
       <c r="A519" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34136,7 +34222,7 @@
       <c r="Y519" s="18"/>
       <c r="Z519" s="18"/>
     </row>
-    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:26">
       <c r="A520" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34169,7 +34255,7 @@
       <c r="Y520" s="18"/>
       <c r="Z520" s="18"/>
     </row>
-    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:26">
       <c r="A521" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34202,7 +34288,7 @@
       <c r="Y521" s="18"/>
       <c r="Z521" s="18"/>
     </row>
-    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:26">
       <c r="A522" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34235,7 +34321,7 @@
       <c r="Y522" s="18"/>
       <c r="Z522" s="18"/>
     </row>
-    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:26">
       <c r="A523" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34268,7 +34354,7 @@
       <c r="Y523" s="18"/>
       <c r="Z523" s="18"/>
     </row>
-    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:26">
       <c r="A524" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34301,7 +34387,7 @@
       <c r="Y524" s="18"/>
       <c r="Z524" s="18"/>
     </row>
-    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:26">
       <c r="A525" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34334,7 +34420,7 @@
       <c r="Y525" s="18"/>
       <c r="Z525" s="18"/>
     </row>
-    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:26">
       <c r="A526" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34367,7 +34453,7 @@
       <c r="Y526" s="18"/>
       <c r="Z526" s="18"/>
     </row>
-    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:26">
       <c r="A527" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34400,7 +34486,7 @@
       <c r="Y527" s="18"/>
       <c r="Z527" s="18"/>
     </row>
-    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:26">
       <c r="A528" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34433,7 +34519,7 @@
       <c r="Y528" s="18"/>
       <c r="Z528" s="18"/>
     </row>
-    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:26">
       <c r="A529" s="13"/>
       <c r="B529" s="20" t="s">
         <v>154</v>
@@ -34532,7 +34618,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:26">
       <c r="A530" s="18">
         <f t="shared" ref="A530:A539" si="51">COUNTA(D530:Z530)</f>
         <v>2</v>
@@ -34569,7 +34655,7 @@
       <c r="Y530" s="18"/>
       <c r="Z530" s="18"/>
     </row>
-    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:26">
       <c r="A531" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34606,7 +34692,7 @@
       <c r="Y531" s="18"/>
       <c r="Z531" s="18"/>
     </row>
-    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:26">
       <c r="A532" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34645,7 +34731,7 @@
       <c r="Y532" s="18"/>
       <c r="Z532" s="18"/>
     </row>
-    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:26">
       <c r="A533" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34682,7 +34768,7 @@
       <c r="Y533" s="18"/>
       <c r="Z533" s="18"/>
     </row>
-    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:26">
       <c r="A534" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34719,7 +34805,7 @@
       <c r="Y534" s="18"/>
       <c r="Z534" s="18"/>
     </row>
-    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:26">
       <c r="A535" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34760,7 +34846,7 @@
       <c r="Y535" s="18"/>
       <c r="Z535" s="18"/>
     </row>
-    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:26">
       <c r="A536" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34801,7 +34887,7 @@
       <c r="Y536" s="18"/>
       <c r="Z536" s="18"/>
     </row>
-    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:26">
       <c r="A537" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34842,7 +34928,7 @@
       <c r="Y537" s="18"/>
       <c r="Z537" s="18"/>
     </row>
-    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:26">
       <c r="A538" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34881,7 +34967,7 @@
       <c r="Y538" s="18"/>
       <c r="Z538" s="18"/>
     </row>
-    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:26">
       <c r="A539" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34920,7 +35006,7 @@
       <c r="Y539" s="18"/>
       <c r="Z539" s="18"/>
     </row>
-    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:26">
       <c r="A540" s="13"/>
       <c r="B540" s="20" t="s">
         <v>171</v>
@@ -35019,7 +35105,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:26">
       <c r="A541" s="18">
         <f t="shared" ref="A541:A550" si="54">COUNTA(D541:Z541)</f>
         <v>2</v>
@@ -35056,7 +35142,7 @@
       <c r="Y541" s="18"/>
       <c r="Z541" s="18"/>
     </row>
-    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:26">
       <c r="A542" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35093,7 +35179,7 @@
       <c r="Y542" s="18"/>
       <c r="Z542" s="18"/>
     </row>
-    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:26">
       <c r="A543" s="18">
         <f t="shared" si="54"/>
         <v>1</v>
@@ -35130,7 +35216,7 @@
       <c r="Y543" s="18"/>
       <c r="Z543" s="18"/>
     </row>
-    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:26">
       <c r="A544" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35167,7 +35253,7 @@
       <c r="Y544" s="18"/>
       <c r="Z544" s="18"/>
     </row>
-    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:26">
       <c r="A545" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35204,7 +35290,7 @@
       <c r="Y545" s="18"/>
       <c r="Z545" s="18"/>
     </row>
-    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:26">
       <c r="A546" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35243,7 +35329,7 @@
       <c r="Y546" s="18"/>
       <c r="Z546" s="18"/>
     </row>
-    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:26">
       <c r="A547" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35282,7 +35368,7 @@
       <c r="Y547" s="18"/>
       <c r="Z547" s="18"/>
     </row>
-    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:26">
       <c r="A548" s="18">
         <f t="shared" si="54"/>
         <v>1</v>
@@ -35319,7 +35405,7 @@
       <c r="Y548" s="18"/>
       <c r="Z548" s="18"/>
     </row>
-    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:26">
       <c r="A549" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35358,7 +35444,7 @@
       <c r="Y549" s="18"/>
       <c r="Z549" s="18"/>
     </row>
-    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:26">
       <c r="A550" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35397,7 +35483,7 @@
       <c r="Y550" s="18"/>
       <c r="Z550" s="18"/>
     </row>
-    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:26">
       <c r="A551" s="13"/>
       <c r="B551" s="20" t="s">
         <v>188</v>
@@ -35496,7 +35582,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:26">
       <c r="A552" s="18">
         <f t="shared" ref="A552:A561" si="57">COUNTA(D552:Z552)</f>
         <v>2</v>
@@ -35533,7 +35619,7 @@
       <c r="Y552" s="18"/>
       <c r="Z552" s="18"/>
     </row>
-    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:26">
       <c r="A553" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35570,7 +35656,7 @@
       <c r="Y553" s="18"/>
       <c r="Z553" s="18"/>
     </row>
-    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:26">
       <c r="A554" s="18">
         <f t="shared" si="57"/>
         <v>1</v>
@@ -35607,7 +35693,7 @@
       <c r="Y554" s="18"/>
       <c r="Z554" s="18"/>
     </row>
-    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:26">
       <c r="A555" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35644,7 +35730,7 @@
       <c r="Y555" s="18"/>
       <c r="Z555" s="18"/>
     </row>
-    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:26">
       <c r="A556" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35681,7 +35767,7 @@
       <c r="Y556" s="18"/>
       <c r="Z556" s="18"/>
     </row>
-    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:26">
       <c r="A557" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35720,7 +35806,7 @@
       <c r="Y557" s="18"/>
       <c r="Z557" s="18"/>
     </row>
-    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:26">
       <c r="A558" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35759,7 +35845,7 @@
       <c r="Y558" s="18"/>
       <c r="Z558" s="18"/>
     </row>
-    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:26">
       <c r="A559" s="18">
         <f t="shared" si="57"/>
         <v>0</v>
@@ -35794,7 +35880,7 @@
       <c r="Y559" s="18"/>
       <c r="Z559" s="18"/>
     </row>
-    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:26">
       <c r="A560" s="18">
         <f t="shared" si="57"/>
         <v>3</v>
@@ -35835,7 +35921,7 @@
       <c r="Y560" s="18"/>
       <c r="Z560" s="18"/>
     </row>
-    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:26">
       <c r="A561" s="18">
         <f t="shared" si="57"/>
         <v>3</v>
@@ -35876,7 +35962,7 @@
       <c r="Y561" s="18"/>
       <c r="Z561" s="18"/>
     </row>
-    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:26">
       <c r="A562" s="13"/>
       <c r="B562" s="21" t="s">
         <v>411</v>
@@ -35975,7 +36061,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:26">
       <c r="A563" s="18">
         <f t="shared" ref="A563:A616" si="59">COUNTA(D563:Z563)</f>
         <v>2</v>
@@ -36012,7 +36098,7 @@
       <c r="Y563" s="18"/>
       <c r="Z563" s="18"/>
     </row>
-    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:26">
       <c r="A564" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36049,7 +36135,7 @@
       <c r="Y564" s="18"/>
       <c r="Z564" s="18"/>
     </row>
-    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:26">
       <c r="A565" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36082,7 +36168,7 @@
       <c r="Y565" s="18"/>
       <c r="Z565" s="18"/>
     </row>
-    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:26">
       <c r="A566" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36119,7 +36205,7 @@
       <c r="Y566" s="18"/>
       <c r="Z566" s="18"/>
     </row>
-    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:26">
       <c r="A567" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36156,7 +36242,7 @@
       <c r="Y567" s="18"/>
       <c r="Z567" s="18"/>
     </row>
-    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:26">
       <c r="A568" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36189,7 +36275,7 @@
       <c r="Y568" s="18"/>
       <c r="Z568" s="18"/>
     </row>
-    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:26">
       <c r="A569" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36226,7 +36312,7 @@
       <c r="Y569" s="18"/>
       <c r="Z569" s="18"/>
     </row>
-    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:26">
       <c r="A570" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36263,7 +36349,7 @@
       <c r="Y570" s="18"/>
       <c r="Z570" s="18"/>
     </row>
-    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:26">
       <c r="A571" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36296,7 +36382,7 @@
       <c r="Y571" s="18"/>
       <c r="Z571" s="18"/>
     </row>
-    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:26">
       <c r="A572" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -36331,7 +36417,7 @@
       <c r="Y572" s="18"/>
       <c r="Z572" s="18"/>
     </row>
-    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:26">
       <c r="A573" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -36366,7 +36452,7 @@
       <c r="Y573" s="18"/>
       <c r="Z573" s="18"/>
     </row>
-    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:26">
       <c r="A574" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36399,7 +36485,7 @@
       <c r="Y574" s="18"/>
       <c r="Z574" s="18"/>
     </row>
-    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:26">
       <c r="A575" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36436,7 +36522,7 @@
       <c r="Y575" s="18"/>
       <c r="Z575" s="18"/>
     </row>
-    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:26">
       <c r="A576" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36473,7 +36559,7 @@
       <c r="Y576" s="18"/>
       <c r="Z576" s="18"/>
     </row>
-    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:26">
       <c r="A577" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36506,7 +36592,7 @@
       <c r="Y577" s="18"/>
       <c r="Z577" s="18"/>
     </row>
-    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:26">
       <c r="A578" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36539,7 +36625,7 @@
       <c r="Y578" s="18"/>
       <c r="Z578" s="18"/>
     </row>
-    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:26">
       <c r="A579" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36572,7 +36658,7 @@
       <c r="Y579" s="18"/>
       <c r="Z579" s="18"/>
     </row>
-    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:26">
       <c r="A580" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36605,7 +36691,7 @@
       <c r="Y580" s="18"/>
       <c r="Z580" s="18"/>
     </row>
-    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:26">
       <c r="A581" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36638,7 +36724,7 @@
       <c r="Y581" s="18"/>
       <c r="Z581" s="18"/>
     </row>
-    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:26">
       <c r="A582" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36671,7 +36757,7 @@
       <c r="Y582" s="18"/>
       <c r="Z582" s="18"/>
     </row>
-    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:26">
       <c r="A583" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36704,7 +36790,7 @@
       <c r="Y583" s="18"/>
       <c r="Z583" s="18"/>
     </row>
-    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:26">
       <c r="A584" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36737,7 +36823,7 @@
       <c r="Y584" s="18"/>
       <c r="Z584" s="18"/>
     </row>
-    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:26">
       <c r="A585" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36770,7 +36856,7 @@
       <c r="Y585" s="18"/>
       <c r="Z585" s="18"/>
     </row>
-    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:26">
       <c r="A586" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36803,7 +36889,7 @@
       <c r="Y586" s="18"/>
       <c r="Z586" s="18"/>
     </row>
-    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:26">
       <c r="A587" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36836,7 +36922,7 @@
       <c r="Y587" s="18"/>
       <c r="Z587" s="18"/>
     </row>
-    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:26">
       <c r="A588" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36869,7 +36955,7 @@
       <c r="Y588" s="18"/>
       <c r="Z588" s="18"/>
     </row>
-    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:26">
       <c r="A589" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36902,7 +36988,7 @@
       <c r="Y589" s="18"/>
       <c r="Z589" s="18"/>
     </row>
-    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:26">
       <c r="A590" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36935,7 +37021,7 @@
       <c r="Y590" s="18"/>
       <c r="Z590" s="18"/>
     </row>
-    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:26">
       <c r="A591" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36968,7 +37054,7 @@
       <c r="Y591" s="18"/>
       <c r="Z591" s="18"/>
     </row>
-    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:26">
       <c r="A592" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37001,7 +37087,7 @@
       <c r="Y592" s="18"/>
       <c r="Z592" s="18"/>
     </row>
-    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:26">
       <c r="A593" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37036,7 +37122,7 @@
       <c r="Y593" s="18"/>
       <c r="Z593" s="18"/>
     </row>
-    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:26">
       <c r="A594" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37071,7 +37157,7 @@
       <c r="Y594" s="18"/>
       <c r="Z594" s="18"/>
     </row>
-    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:26">
       <c r="A595" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37106,7 +37192,7 @@
       <c r="Y595" s="18"/>
       <c r="Z595" s="18"/>
     </row>
-    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:26">
       <c r="A596" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37139,7 +37225,7 @@
       <c r="Y596" s="18"/>
       <c r="Z596" s="18"/>
     </row>
-    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:26">
       <c r="A597" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37172,7 +37258,7 @@
       <c r="Y597" s="18"/>
       <c r="Z597" s="18"/>
     </row>
-    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:26">
       <c r="A598" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37205,7 +37291,7 @@
       <c r="Y598" s="18"/>
       <c r="Z598" s="18"/>
     </row>
-    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:26">
       <c r="A599" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37238,7 +37324,7 @@
       <c r="Y599" s="18"/>
       <c r="Z599" s="18"/>
     </row>
-    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:26">
       <c r="A600" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37271,7 +37357,7 @@
       <c r="Y600" s="18"/>
       <c r="Z600" s="18"/>
     </row>
-    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:26">
       <c r="A601" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37304,7 +37390,7 @@
       <c r="Y601" s="18"/>
       <c r="Z601" s="18"/>
     </row>
-    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:26">
       <c r="A602" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37337,7 +37423,7 @@
       <c r="Y602" s="18"/>
       <c r="Z602" s="18"/>
     </row>
-    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:26">
       <c r="A603" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37370,7 +37456,7 @@
       <c r="Y603" s="18"/>
       <c r="Z603" s="18"/>
     </row>
-    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:26">
       <c r="A604" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37403,7 +37489,7 @@
       <c r="Y604" s="18"/>
       <c r="Z604" s="18"/>
     </row>
-    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:26">
       <c r="A605" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37436,7 +37522,7 @@
       <c r="Y605" s="18"/>
       <c r="Z605" s="18"/>
     </row>
-    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:26">
       <c r="A606" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37469,7 +37555,7 @@
       <c r="Y606" s="18"/>
       <c r="Z606" s="18"/>
     </row>
-    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:26">
       <c r="A607" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37502,7 +37588,7 @@
       <c r="Y607" s="18"/>
       <c r="Z607" s="18"/>
     </row>
-    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:26">
       <c r="A608" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37535,7 +37621,7 @@
       <c r="Y608" s="18"/>
       <c r="Z608" s="18"/>
     </row>
-    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:26">
       <c r="A609" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37568,7 +37654,7 @@
       <c r="Y609" s="18"/>
       <c r="Z609" s="18"/>
     </row>
-    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:26">
       <c r="A610" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37601,7 +37687,7 @@
       <c r="Y610" s="18"/>
       <c r="Z610" s="18"/>
     </row>
-    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:26">
       <c r="A611" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37634,7 +37720,7 @@
       <c r="Y611" s="18"/>
       <c r="Z611" s="18"/>
     </row>
-    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:26">
       <c r="A612" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37667,7 +37753,7 @@
       <c r="Y612" s="18"/>
       <c r="Z612" s="18"/>
     </row>
-    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:26">
       <c r="A613" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37700,7 +37786,7 @@
       <c r="Y613" s="18"/>
       <c r="Z613" s="18"/>
     </row>
-    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:26">
       <c r="A614" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37733,7 +37819,7 @@
       <c r="Y614" s="18"/>
       <c r="Z614" s="18"/>
     </row>
-    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:26">
       <c r="A615" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37766,7 +37852,7 @@
       <c r="Y615" s="18"/>
       <c r="Z615" s="18"/>
     </row>
-    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:26">
       <c r="A616" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37799,7 +37885,7 @@
       <c r="Y616" s="18"/>
       <c r="Z616" s="18"/>
     </row>
-    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:26">
       <c r="A617" s="13"/>
       <c r="B617" s="21" t="s">
         <v>610</v>
@@ -37898,7 +37984,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:26">
       <c r="A618" s="18">
         <f t="shared" ref="A618:A671" si="61">COUNTA(D618:Z618)</f>
         <v>0</v>
@@ -37931,7 +38017,7 @@
       <c r="Y618" s="18"/>
       <c r="Z618" s="18"/>
     </row>
-    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:26">
       <c r="A619" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -37964,7 +38050,7 @@
       <c r="Y619" s="18"/>
       <c r="Z619" s="18"/>
     </row>
-    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:26">
       <c r="A620" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -37997,7 +38083,7 @@
       <c r="Y620" s="18"/>
       <c r="Z620" s="18"/>
     </row>
-    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:26">
       <c r="A621" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38030,7 +38116,7 @@
       <c r="Y621" s="18"/>
       <c r="Z621" s="18"/>
     </row>
-    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:26">
       <c r="A622" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38063,7 +38149,7 @@
       <c r="Y622" s="18"/>
       <c r="Z622" s="18"/>
     </row>
-    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:26">
       <c r="A623" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38096,7 +38182,7 @@
       <c r="Y623" s="18"/>
       <c r="Z623" s="18"/>
     </row>
-    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:26">
       <c r="A624" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38129,7 +38215,7 @@
       <c r="Y624" s="18"/>
       <c r="Z624" s="18"/>
     </row>
-    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:26">
       <c r="A625" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38162,7 +38248,7 @@
       <c r="Y625" s="18"/>
       <c r="Z625" s="18"/>
     </row>
-    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:26">
       <c r="A626" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38195,7 +38281,7 @@
       <c r="Y626" s="18"/>
       <c r="Z626" s="18"/>
     </row>
-    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:26">
       <c r="A627" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38228,7 +38314,7 @@
       <c r="Y627" s="18"/>
       <c r="Z627" s="18"/>
     </row>
-    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:26">
       <c r="A628" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38261,7 +38347,7 @@
       <c r="Y628" s="18"/>
       <c r="Z628" s="18"/>
     </row>
-    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:26">
       <c r="A629" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38294,7 +38380,7 @@
       <c r="Y629" s="18"/>
       <c r="Z629" s="18"/>
     </row>
-    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:26">
       <c r="A630" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38327,7 +38413,7 @@
       <c r="Y630" s="18"/>
       <c r="Z630" s="18"/>
     </row>
-    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:26">
       <c r="A631" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38360,7 +38446,7 @@
       <c r="Y631" s="18"/>
       <c r="Z631" s="18"/>
     </row>
-    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:26">
       <c r="A632" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38393,7 +38479,7 @@
       <c r="Y632" s="18"/>
       <c r="Z632" s="18"/>
     </row>
-    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:26">
       <c r="A633" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38426,7 +38512,7 @@
       <c r="Y633" s="18"/>
       <c r="Z633" s="18"/>
     </row>
-    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:26">
       <c r="A634" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38459,7 +38545,7 @@
       <c r="Y634" s="18"/>
       <c r="Z634" s="18"/>
     </row>
-    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:26">
       <c r="A635" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38492,7 +38578,7 @@
       <c r="Y635" s="18"/>
       <c r="Z635" s="18"/>
     </row>
-    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:26">
       <c r="A636" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38525,7 +38611,7 @@
       <c r="Y636" s="18"/>
       <c r="Z636" s="18"/>
     </row>
-    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:26">
       <c r="A637" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38558,7 +38644,7 @@
       <c r="Y637" s="18"/>
       <c r="Z637" s="18"/>
     </row>
-    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:26">
       <c r="A638" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38591,7 +38677,7 @@
       <c r="Y638" s="18"/>
       <c r="Z638" s="18"/>
     </row>
-    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:26">
       <c r="A639" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38624,7 +38710,7 @@
       <c r="Y639" s="18"/>
       <c r="Z639" s="18"/>
     </row>
-    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:26">
       <c r="A640" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38657,7 +38743,7 @@
       <c r="Y640" s="18"/>
       <c r="Z640" s="18"/>
     </row>
-    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:26">
       <c r="A641" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38690,7 +38776,7 @@
       <c r="Y641" s="18"/>
       <c r="Z641" s="18"/>
     </row>
-    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:26">
       <c r="A642" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38723,7 +38809,7 @@
       <c r="Y642" s="18"/>
       <c r="Z642" s="18"/>
     </row>
-    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:26">
       <c r="A643" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38756,7 +38842,7 @@
       <c r="Y643" s="18"/>
       <c r="Z643" s="18"/>
     </row>
-    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:26">
       <c r="A644" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38789,7 +38875,7 @@
       <c r="Y644" s="18"/>
       <c r="Z644" s="18"/>
     </row>
-    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:26">
       <c r="A645" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38822,7 +38908,7 @@
       <c r="Y645" s="18"/>
       <c r="Z645" s="18"/>
     </row>
-    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:26">
       <c r="A646" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38855,7 +38941,7 @@
       <c r="Y646" s="18"/>
       <c r="Z646" s="18"/>
     </row>
-    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:26">
       <c r="A647" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38888,7 +38974,7 @@
       <c r="Y647" s="18"/>
       <c r="Z647" s="18"/>
     </row>
-    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:26">
       <c r="A648" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38921,7 +39007,7 @@
       <c r="Y648" s="18"/>
       <c r="Z648" s="18"/>
     </row>
-    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:26">
       <c r="A649" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38954,7 +39040,7 @@
       <c r="Y649" s="18"/>
       <c r="Z649" s="18"/>
     </row>
-    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:26">
       <c r="A650" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38987,7 +39073,7 @@
       <c r="Y650" s="18"/>
       <c r="Z650" s="18"/>
     </row>
-    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:26">
       <c r="A651" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39020,7 +39106,7 @@
       <c r="Y651" s="18"/>
       <c r="Z651" s="18"/>
     </row>
-    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:26">
       <c r="A652" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39053,7 +39139,7 @@
       <c r="Y652" s="18"/>
       <c r="Z652" s="18"/>
     </row>
-    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:26">
       <c r="A653" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39086,7 +39172,7 @@
       <c r="Y653" s="18"/>
       <c r="Z653" s="18"/>
     </row>
-    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:26">
       <c r="A654" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39119,7 +39205,7 @@
       <c r="Y654" s="18"/>
       <c r="Z654" s="18"/>
     </row>
-    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:26">
       <c r="A655" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39152,7 +39238,7 @@
       <c r="Y655" s="18"/>
       <c r="Z655" s="18"/>
     </row>
-    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:26">
       <c r="A656" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39185,7 +39271,7 @@
       <c r="Y656" s="18"/>
       <c r="Z656" s="18"/>
     </row>
-    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:26">
       <c r="A657" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39218,7 +39304,7 @@
       <c r="Y657" s="18"/>
       <c r="Z657" s="18"/>
     </row>
-    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:26">
       <c r="A658" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39251,7 +39337,7 @@
       <c r="Y658" s="18"/>
       <c r="Z658" s="18"/>
     </row>
-    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:26">
       <c r="A659" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39284,7 +39370,7 @@
       <c r="Y659" s="18"/>
       <c r="Z659" s="18"/>
     </row>
-    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:26">
       <c r="A660" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39317,7 +39403,7 @@
       <c r="Y660" s="18"/>
       <c r="Z660" s="18"/>
     </row>
-    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:26">
       <c r="A661" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39350,7 +39436,7 @@
       <c r="Y661" s="18"/>
       <c r="Z661" s="18"/>
     </row>
-    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:26">
       <c r="A662" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39383,7 +39469,7 @@
       <c r="Y662" s="18"/>
       <c r="Z662" s="18"/>
     </row>
-    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:26">
       <c r="A663" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39416,7 +39502,7 @@
       <c r="Y663" s="18"/>
       <c r="Z663" s="18"/>
     </row>
-    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:26">
       <c r="A664" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39449,7 +39535,7 @@
       <c r="Y664" s="18"/>
       <c r="Z664" s="18"/>
     </row>
-    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:26">
       <c r="A665" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39482,7 +39568,7 @@
       <c r="Y665" s="18"/>
       <c r="Z665" s="18"/>
     </row>
-    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:26">
       <c r="A666" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39515,7 +39601,7 @@
       <c r="Y666" s="18"/>
       <c r="Z666" s="18"/>
     </row>
-    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:26">
       <c r="A667" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39548,7 +39634,7 @@
       <c r="Y667" s="18"/>
       <c r="Z667" s="18"/>
     </row>
-    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:26">
       <c r="A668" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39581,7 +39667,7 @@
       <c r="Y668" s="18"/>
       <c r="Z668" s="18"/>
     </row>
-    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:26">
       <c r="A669" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39614,7 +39700,7 @@
       <c r="Y669" s="18"/>
       <c r="Z669" s="18"/>
     </row>
-    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:26">
       <c r="A670" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39647,7 +39733,7 @@
       <c r="Y670" s="18"/>
       <c r="Z670" s="18"/>
     </row>
-    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:26">
       <c r="A671" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39680,7 +39766,7 @@
       <c r="Y671" s="18"/>
       <c r="Z671" s="18"/>
     </row>
-    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:26">
       <c r="A672" s="13"/>
       <c r="B672" s="21" t="s">
         <v>638</v>
@@ -39779,7 +39865,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:26">
       <c r="A673" s="18">
         <f t="shared" ref="A673:A726" si="64">COUNTA(D673:Z673)</f>
         <v>0</v>
@@ -39812,7 +39898,7 @@
       <c r="Y673" s="18"/>
       <c r="Z673" s="18"/>
     </row>
-    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:26">
       <c r="A674" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39845,7 +39931,7 @@
       <c r="Y674" s="18"/>
       <c r="Z674" s="18"/>
     </row>
-    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:26">
       <c r="A675" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39878,7 +39964,7 @@
       <c r="Y675" s="18"/>
       <c r="Z675" s="18"/>
     </row>
-    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:26">
       <c r="A676" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39911,7 +39997,7 @@
       <c r="Y676" s="18"/>
       <c r="Z676" s="18"/>
     </row>
-    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:26">
       <c r="A677" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39944,7 +40030,7 @@
       <c r="Y677" s="18"/>
       <c r="Z677" s="18"/>
     </row>
-    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:26">
       <c r="A678" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39977,7 +40063,7 @@
       <c r="Y678" s="18"/>
       <c r="Z678" s="18"/>
     </row>
-    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:26">
       <c r="A679" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40010,7 +40096,7 @@
       <c r="Y679" s="18"/>
       <c r="Z679" s="18"/>
     </row>
-    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:26">
       <c r="A680" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40043,7 +40129,7 @@
       <c r="Y680" s="18"/>
       <c r="Z680" s="18"/>
     </row>
-    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:26">
       <c r="A681" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40076,7 +40162,7 @@
       <c r="Y681" s="18"/>
       <c r="Z681" s="18"/>
     </row>
-    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:26">
       <c r="A682" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40109,7 +40195,7 @@
       <c r="Y682" s="18"/>
       <c r="Z682" s="18"/>
     </row>
-    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:26">
       <c r="A683" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40142,7 +40228,7 @@
       <c r="Y683" s="18"/>
       <c r="Z683" s="18"/>
     </row>
-    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:26">
       <c r="A684" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40175,7 +40261,7 @@
       <c r="Y684" s="18"/>
       <c r="Z684" s="18"/>
     </row>
-    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:26">
       <c r="A685" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40208,7 +40294,7 @@
       <c r="Y685" s="18"/>
       <c r="Z685" s="18"/>
     </row>
-    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:26">
       <c r="A686" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40241,7 +40327,7 @@
       <c r="Y686" s="18"/>
       <c r="Z686" s="18"/>
     </row>
-    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:26">
       <c r="A687" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40274,7 +40360,7 @@
       <c r="Y687" s="18"/>
       <c r="Z687" s="18"/>
     </row>
-    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:26">
       <c r="A688" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40307,7 +40393,7 @@
       <c r="Y688" s="18"/>
       <c r="Z688" s="18"/>
     </row>
-    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:26">
       <c r="A689" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40340,7 +40426,7 @@
       <c r="Y689" s="18"/>
       <c r="Z689" s="18"/>
     </row>
-    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:26">
       <c r="A690" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40373,7 +40459,7 @@
       <c r="Y690" s="18"/>
       <c r="Z690" s="18"/>
     </row>
-    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:26">
       <c r="A691" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40406,7 +40492,7 @@
       <c r="Y691" s="18"/>
       <c r="Z691" s="18"/>
     </row>
-    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:26">
       <c r="A692" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40439,7 +40525,7 @@
       <c r="Y692" s="18"/>
       <c r="Z692" s="18"/>
     </row>
-    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:26">
       <c r="A693" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40472,7 +40558,7 @@
       <c r="Y693" s="18"/>
       <c r="Z693" s="18"/>
     </row>
-    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:26">
       <c r="A694" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40505,7 +40591,7 @@
       <c r="Y694" s="18"/>
       <c r="Z694" s="18"/>
     </row>
-    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:26">
       <c r="A695" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40538,7 +40624,7 @@
       <c r="Y695" s="18"/>
       <c r="Z695" s="18"/>
     </row>
-    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:26">
       <c r="A696" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40571,7 +40657,7 @@
       <c r="Y696" s="18"/>
       <c r="Z696" s="18"/>
     </row>
-    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:26">
       <c r="A697" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40604,7 +40690,7 @@
       <c r="Y697" s="18"/>
       <c r="Z697" s="18"/>
     </row>
-    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:26">
       <c r="A698" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40637,7 +40723,7 @@
       <c r="Y698" s="18"/>
       <c r="Z698" s="18"/>
     </row>
-    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:26">
       <c r="A699" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40670,7 +40756,7 @@
       <c r="Y699" s="18"/>
       <c r="Z699" s="18"/>
     </row>
-    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:26">
       <c r="A700" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40703,7 +40789,7 @@
       <c r="Y700" s="18"/>
       <c r="Z700" s="18"/>
     </row>
-    <row r="701" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:26">
       <c r="A701" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40736,7 +40822,7 @@
       <c r="Y701" s="18"/>
       <c r="Z701" s="18"/>
     </row>
-    <row r="702" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:26">
       <c r="A702" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40769,7 +40855,7 @@
       <c r="Y702" s="18"/>
       <c r="Z702" s="18"/>
     </row>
-    <row r="703" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:26">
       <c r="A703" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40802,7 +40888,7 @@
       <c r="Y703" s="18"/>
       <c r="Z703" s="18"/>
     </row>
-    <row r="704" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:26">
       <c r="A704" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40835,7 +40921,7 @@
       <c r="Y704" s="18"/>
       <c r="Z704" s="18"/>
     </row>
-    <row r="705" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:26">
       <c r="A705" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40868,7 +40954,7 @@
       <c r="Y705" s="18"/>
       <c r="Z705" s="18"/>
     </row>
-    <row r="706" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:26">
       <c r="A706" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40901,7 +40987,7 @@
       <c r="Y706" s="18"/>
       <c r="Z706" s="18"/>
     </row>
-    <row r="707" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:26">
       <c r="A707" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40934,7 +41020,7 @@
       <c r="Y707" s="18"/>
       <c r="Z707" s="18"/>
     </row>
-    <row r="708" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:26">
       <c r="A708" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40967,7 +41053,7 @@
       <c r="Y708" s="18"/>
       <c r="Z708" s="18"/>
     </row>
-    <row r="709" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:26">
       <c r="A709" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41000,7 +41086,7 @@
       <c r="Y709" s="18"/>
       <c r="Z709" s="18"/>
     </row>
-    <row r="710" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:26">
       <c r="A710" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41033,7 +41119,7 @@
       <c r="Y710" s="18"/>
       <c r="Z710" s="18"/>
     </row>
-    <row r="711" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:26">
       <c r="A711" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41066,7 +41152,7 @@
       <c r="Y711" s="18"/>
       <c r="Z711" s="18"/>
     </row>
-    <row r="712" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:26">
       <c r="A712" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41099,7 +41185,7 @@
       <c r="Y712" s="18"/>
       <c r="Z712" s="18"/>
     </row>
-    <row r="713" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:26">
       <c r="A713" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41132,7 +41218,7 @@
       <c r="Y713" s="18"/>
       <c r="Z713" s="18"/>
     </row>
-    <row r="714" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:26">
       <c r="A714" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41165,7 +41251,7 @@
       <c r="Y714" s="18"/>
       <c r="Z714" s="18"/>
     </row>
-    <row r="715" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:26">
       <c r="A715" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41198,7 +41284,7 @@
       <c r="Y715" s="18"/>
       <c r="Z715" s="18"/>
     </row>
-    <row r="716" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:26">
       <c r="A716" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41231,7 +41317,7 @@
       <c r="Y716" s="18"/>
       <c r="Z716" s="18"/>
     </row>
-    <row r="717" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:26">
       <c r="A717" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41264,7 +41350,7 @@
       <c r="Y717" s="18"/>
       <c r="Z717" s="18"/>
     </row>
-    <row r="718" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:26">
       <c r="A718" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41297,7 +41383,7 @@
       <c r="Y718" s="18"/>
       <c r="Z718" s="18"/>
     </row>
-    <row r="719" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:26">
       <c r="A719" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41330,7 +41416,7 @@
       <c r="Y719" s="18"/>
       <c r="Z719" s="18"/>
     </row>
-    <row r="720" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:26">
       <c r="A720" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41363,7 +41449,7 @@
       <c r="Y720" s="18"/>
       <c r="Z720" s="18"/>
     </row>
-    <row r="721" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:26">
       <c r="A721" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41396,7 +41482,7 @@
       <c r="Y721" s="18"/>
       <c r="Z721" s="18"/>
     </row>
-    <row r="722" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:26">
       <c r="A722" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41429,7 +41515,7 @@
       <c r="Y722" s="18"/>
       <c r="Z722" s="18"/>
     </row>
-    <row r="723" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:26">
       <c r="A723" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41462,7 +41548,7 @@
       <c r="Y723" s="18"/>
       <c r="Z723" s="18"/>
     </row>
-    <row r="724" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:26">
       <c r="A724" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41495,7 +41581,7 @@
       <c r="Y724" s="18"/>
       <c r="Z724" s="18"/>
     </row>
-    <row r="725" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:26">
       <c r="A725" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41528,7 +41614,7 @@
       <c r="Y725" s="18"/>
       <c r="Z725" s="18"/>
     </row>
-    <row r="726" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:26">
       <c r="A726" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41561,7 +41647,7 @@
       <c r="Y726" s="18"/>
       <c r="Z726" s="18"/>
     </row>
-    <row r="727" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:26">
       <c r="A727" s="13"/>
       <c r="B727" s="20" t="s">
         <v>220</v>
@@ -41660,7 +41746,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="728" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:26">
       <c r="A728" s="18">
         <f>COUNTA(D728:Z728)</f>
         <v>5</v>
@@ -41705,7 +41791,7 @@
       <c r="Y728" s="18"/>
       <c r="Z728" s="18"/>
     </row>
-    <row r="729" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:26">
       <c r="A729" s="18">
         <f>COUNTA(D729:Z729)</f>
         <v>2</v>
@@ -41744,7 +41830,7 @@
       <c r="Y729" s="18"/>
       <c r="Z729" s="18"/>
     </row>
-    <row r="730" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:26">
       <c r="A730" s="18">
         <f>COUNTA(D730:Z730)</f>
         <v>2</v>
@@ -41783,7 +41869,7 @@
       <c r="Y730" s="18"/>
       <c r="Z730" s="18"/>
     </row>
-    <row r="731" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:26">
       <c r="A731" s="18">
         <f>COUNTA(D731:Z731)</f>
         <v>2</v>
@@ -41822,7 +41908,7 @@
       <c r="Y731" s="18"/>
       <c r="Z731" s="18"/>
     </row>
-    <row r="732" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:26">
       <c r="A732" s="18">
         <f>COUNTA(D732:Z732)</f>
         <v>2</v>
@@ -41861,7 +41947,7 @@
       <c r="Y732" s="18"/>
       <c r="Z732" s="18"/>
     </row>
-    <row r="733" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:26" ht="25.5">
       <c r="A733" s="18">
         <f t="shared" ref="A733:A743" si="67">COUNTA(D733:Z733)</f>
         <v>10</v>
@@ -41916,7 +42002,7 @@
       <c r="Y733" s="18"/>
       <c r="Z733" s="18"/>
     </row>
-    <row r="734" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:26">
       <c r="A734" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -41953,7 +42039,7 @@
       <c r="Y734" s="18"/>
       <c r="Z734" s="18"/>
     </row>
-    <row r="735" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:26">
       <c r="A735" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -41990,7 +42076,7 @@
       <c r="Y735" s="18"/>
       <c r="Z735" s="18"/>
     </row>
-    <row r="736" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:26">
       <c r="A736" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42027,7 +42113,7 @@
       <c r="Y736" s="18"/>
       <c r="Z736" s="18"/>
     </row>
-    <row r="737" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:26">
       <c r="A737" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42064,7 +42150,7 @@
       <c r="Y737" s="18"/>
       <c r="Z737" s="18"/>
     </row>
-    <row r="738" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:26">
       <c r="A738" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42101,7 +42187,7 @@
       <c r="Y738" s="18"/>
       <c r="Z738" s="18"/>
     </row>
-    <row r="739" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:26">
       <c r="A739" s="18">
         <f t="shared" si="67"/>
         <v>3</v>
@@ -42142,7 +42228,7 @@
       <c r="Y739" s="18"/>
       <c r="Z739" s="18"/>
     </row>
-    <row r="740" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:26">
       <c r="A740" s="18">
         <f t="shared" si="67"/>
         <v>5</v>
@@ -42187,7 +42273,7 @@
       <c r="Y740" s="18"/>
       <c r="Z740" s="18"/>
     </row>
-    <row r="741" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:26">
       <c r="A741" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42226,7 +42312,7 @@
       <c r="Y741" s="18"/>
       <c r="Z741" s="18"/>
     </row>
-    <row r="742" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:26">
       <c r="A742" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42265,7 +42351,7 @@
       <c r="Y742" s="18"/>
       <c r="Z742" s="18"/>
     </row>
-    <row r="743" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:26">
       <c r="A743" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42304,7 +42390,7 @@
       <c r="Y743" s="18"/>
       <c r="Z743" s="18"/>
     </row>
-    <row r="744" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:26">
       <c r="A744" s="13"/>
       <c r="B744" s="20" t="s">
         <v>245</v>
@@ -42403,7 +42489,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="745" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:26">
       <c r="A745" s="18">
         <f>COUNTA(D745:Z745)</f>
         <v>2</v>
@@ -42440,7 +42526,7 @@
       <c r="Y745" s="18"/>
       <c r="Z745" s="18"/>
     </row>
-    <row r="746" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:26">
       <c r="A746" s="18">
         <f>COUNTA(D746:Z746)</f>
         <v>2</v>
@@ -42477,7 +42563,7 @@
       <c r="Y746" s="18"/>
       <c r="Z746" s="18"/>
     </row>
-    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:26">
       <c r="A747" s="18">
         <f>COUNTA(D747:Z747)</f>
         <v>2</v>
@@ -42514,7 +42600,7 @@
       <c r="Y747" s="18"/>
       <c r="Z747" s="18"/>
     </row>
-    <row r="748" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:26">
       <c r="A748" s="18">
         <f>COUNTA(D748:Z748)</f>
         <v>2</v>
@@ -42551,7 +42637,7 @@
       <c r="Y748" s="18"/>
       <c r="Z748" s="18"/>
     </row>
-    <row r="749" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:26">
       <c r="A749" s="13"/>
       <c r="B749" s="20" t="s">
         <v>250</v>
@@ -42650,7 +42736,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="750" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:26">
       <c r="A750" s="18">
         <f t="shared" ref="A750:A758" si="72">COUNTA(D750:Z750)</f>
         <v>3</v>
@@ -42689,7 +42775,7 @@
       <c r="Y750" s="18"/>
       <c r="Z750" s="18"/>
     </row>
-    <row r="751" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:26">
       <c r="A751" s="18">
         <f t="shared" si="72"/>
         <v>3</v>
@@ -42728,7 +42814,7 @@
       <c r="Y751" s="18"/>
       <c r="Z751" s="18"/>
     </row>
-    <row r="752" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:26">
       <c r="A752" s="18">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42761,7 +42847,7 @@
       <c r="Y752" s="18"/>
       <c r="Z752" s="18"/>
     </row>
-    <row r="753" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:26">
       <c r="A753" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42796,7 +42882,7 @@
       <c r="Y753" s="18"/>
       <c r="Z753" s="18"/>
     </row>
-    <row r="754" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:26">
       <c r="A754" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42831,7 +42917,7 @@
       <c r="Y754" s="18"/>
       <c r="Z754" s="18"/>
     </row>
-    <row r="755" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:26">
       <c r="A755" s="18">
         <f t="shared" si="72"/>
         <v>3</v>
@@ -42870,7 +42956,7 @@
       <c r="Y755" s="18"/>
       <c r="Z755" s="18"/>
     </row>
-    <row r="756" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:26">
       <c r="A756" s="18">
         <f t="shared" si="72"/>
         <v>4</v>
@@ -42911,7 +42997,7 @@
       <c r="Y756" s="18"/>
       <c r="Z756" s="18"/>
     </row>
-    <row r="757" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:26">
       <c r="A757" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42946,7 +43032,7 @@
       <c r="Y757" s="18"/>
       <c r="Z757" s="18"/>
     </row>
-    <row r="758" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:26">
       <c r="A758" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42981,7 +43067,7 @@
       <c r="Y758" s="18"/>
       <c r="Z758" s="18"/>
     </row>
-    <row r="759" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:26">
       <c r="A759" s="13"/>
       <c r="B759" s="20" t="s">
         <v>321</v>
@@ -43080,7 +43166,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="760" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:26">
       <c r="A760" s="18">
         <f>COUNTA(D760:Z760)</f>
         <v>0</v>
@@ -43113,7 +43199,7 @@
       <c r="Y760" s="18"/>
       <c r="Z760" s="18"/>
     </row>
-    <row r="761" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:26">
       <c r="A761" s="13"/>
       <c r="B761" s="20" t="s">
         <v>323</v>
@@ -43212,7 +43298,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="762" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:26">
       <c r="A762" s="18">
         <f>COUNTA(D762:Z762)</f>
         <v>3</v>
@@ -43251,7 +43337,7 @@
       <c r="Y762" s="18"/>
       <c r="Z762" s="18"/>
     </row>
-    <row r="763" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:26">
       <c r="A763" s="13"/>
       <c r="B763" s="20" t="s">
         <v>326</v>
@@ -43350,7 +43436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="764" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:26">
       <c r="A764" s="18">
         <f t="shared" ref="A764:A769" si="79">COUNTA(D764:Z764)</f>
         <v>2</v>
@@ -43387,7 +43473,7 @@
       <c r="Y764" s="18"/>
       <c r="Z764" s="18"/>
     </row>
-    <row r="765" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:26">
       <c r="A765" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43424,7 +43510,7 @@
       <c r="Y765" s="18"/>
       <c r="Z765" s="18"/>
     </row>
-    <row r="766" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:26">
       <c r="A766" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43461,7 +43547,7 @@
       <c r="Y766" s="18"/>
       <c r="Z766" s="18"/>
     </row>
-    <row r="767" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:26">
       <c r="A767" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43498,7 +43584,7 @@
       <c r="Y767" s="18"/>
       <c r="Z767" s="18"/>
     </row>
-    <row r="768" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:26">
       <c r="A768" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43535,7 +43621,7 @@
       <c r="Y768" s="18"/>
       <c r="Z768" s="18"/>
     </row>
-    <row r="769" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:26">
       <c r="A769" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43572,7 +43658,7 @@
       <c r="Y769" s="18"/>
       <c r="Z769" s="18"/>
     </row>
-    <row r="770" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:26">
       <c r="A770" s="13"/>
       <c r="B770" s="20" t="s">
         <v>260</v>
@@ -43670,7 +43756,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="771" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:26">
       <c r="A771" s="18">
         <f t="shared" ref="A771:A780" si="82">COUNTA(D771:Z771)</f>
         <v>2</v>
@@ -43707,7 +43793,7 @@
       <c r="Y771" s="18"/>
       <c r="Z771" s="18"/>
     </row>
-    <row r="772" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:26">
       <c r="A772" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43744,7 +43830,7 @@
       <c r="Y772" s="18"/>
       <c r="Z772" s="18"/>
     </row>
-    <row r="773" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:26">
       <c r="A773" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43783,7 +43869,7 @@
       <c r="Y773" s="18"/>
       <c r="Z773" s="18"/>
     </row>
-    <row r="774" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:26">
       <c r="A774" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43820,7 +43906,7 @@
       <c r="Y774" s="18"/>
       <c r="Z774" s="18"/>
     </row>
-    <row r="775" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:26">
       <c r="A775" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43857,7 +43943,7 @@
       <c r="Y775" s="18"/>
       <c r="Z775" s="18"/>
     </row>
-    <row r="776" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:26">
       <c r="A776" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43894,7 +43980,7 @@
       <c r="Y776" s="18"/>
       <c r="Z776" s="18"/>
     </row>
-    <row r="777" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:26">
       <c r="A777" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43931,7 +44017,7 @@
       <c r="Y777" s="18"/>
       <c r="Z777" s="18"/>
     </row>
-    <row r="778" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:26">
       <c r="A778" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43968,7 +44054,7 @@
       <c r="Y778" s="18"/>
       <c r="Z778" s="18"/>
     </row>
-    <row r="779" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:26">
       <c r="A779" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44005,7 +44091,7 @@
       <c r="Y779" s="18"/>
       <c r="Z779" s="18"/>
     </row>
-    <row r="780" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:26">
       <c r="A780" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44042,7 +44128,7 @@
       <c r="Y780" s="18"/>
       <c r="Z780" s="18"/>
     </row>
-    <row r="781" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:26">
       <c r="A781" s="13"/>
       <c r="B781" s="20" t="s">
         <v>272</v>
@@ -44141,7 +44227,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="782" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:26">
       <c r="A782" s="18">
         <f t="shared" ref="A782:A787" si="85">COUNTA(D782:Z782)</f>
         <v>2</v>
@@ -44178,7 +44264,7 @@
       <c r="Y782" s="18"/>
       <c r="Z782" s="18"/>
     </row>
-    <row r="783" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:26">
       <c r="A783" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44215,7 +44301,7 @@
       <c r="Y783" s="18"/>
       <c r="Z783" s="18"/>
     </row>
-    <row r="784" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:26">
       <c r="A784" s="18">
         <f t="shared" si="85"/>
         <v>0</v>
@@ -44248,7 +44334,7 @@
       <c r="Y784" s="18"/>
       <c r="Z784" s="18"/>
     </row>
-    <row r="785" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:26">
       <c r="A785" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44285,7 +44371,7 @@
       <c r="Y785" s="18"/>
       <c r="Z785" s="18"/>
     </row>
-    <row r="786" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:26">
       <c r="A786" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44322,7 +44408,7 @@
       <c r="Y786" s="18"/>
       <c r="Z786" s="18"/>
     </row>
-    <row r="787" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:26">
       <c r="A787" s="18">
         <f t="shared" si="85"/>
         <v>1</v>
@@ -44357,7 +44443,7 @@
       <c r="Y787" s="18"/>
       <c r="Z787" s="18"/>
     </row>
-    <row r="788" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:26">
       <c r="A788" s="13"/>
       <c r="B788" s="20" t="s">
         <v>412</v>
@@ -44456,7 +44542,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="789" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:26">
       <c r="A789" s="18">
         <f t="shared" ref="A789:A842" si="87">COUNTA(D789:Z789)</f>
         <v>1</v>
@@ -44491,7 +44577,7 @@
       <c r="Y789" s="18"/>
       <c r="Z789" s="18"/>
     </row>
-    <row r="790" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:26">
       <c r="A790" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -44526,7 +44612,7 @@
       <c r="Y790" s="18"/>
       <c r="Z790" s="18"/>
     </row>
-    <row r="791" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:26">
       <c r="A791" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -44561,7 +44647,7 @@
       <c r="Y791" s="18"/>
       <c r="Z791" s="18"/>
     </row>
-    <row r="792" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:26">
       <c r="A792" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44594,7 +44680,7 @@
       <c r="Y792" s="18"/>
       <c r="Z792" s="18"/>
     </row>
-    <row r="793" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:26">
       <c r="A793" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44627,7 +44713,7 @@
       <c r="Y793" s="18"/>
       <c r="Z793" s="18"/>
     </row>
-    <row r="794" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:26">
       <c r="A794" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44660,7 +44746,7 @@
       <c r="Y794" s="18"/>
       <c r="Z794" s="18"/>
     </row>
-    <row r="795" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:26">
       <c r="A795" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44693,7 +44779,7 @@
       <c r="Y795" s="18"/>
       <c r="Z795" s="18"/>
     </row>
-    <row r="796" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:26">
       <c r="A796" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44726,7 +44812,7 @@
       <c r="Y796" s="18"/>
       <c r="Z796" s="18"/>
     </row>
-    <row r="797" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:26">
       <c r="A797" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44759,7 +44845,7 @@
       <c r="Y797" s="18"/>
       <c r="Z797" s="18"/>
     </row>
-    <row r="798" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:26">
       <c r="A798" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44792,7 +44878,7 @@
       <c r="Y798" s="18"/>
       <c r="Z798" s="18"/>
     </row>
-    <row r="799" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:26">
       <c r="A799" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44825,7 +44911,7 @@
       <c r="Y799" s="18"/>
       <c r="Z799" s="18"/>
     </row>
-    <row r="800" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:26">
       <c r="A800" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44858,7 +44944,7 @@
       <c r="Y800" s="18"/>
       <c r="Z800" s="18"/>
     </row>
-    <row r="801" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:26">
       <c r="A801" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44891,7 +44977,7 @@
       <c r="Y801" s="18"/>
       <c r="Z801" s="18"/>
     </row>
-    <row r="802" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:26">
       <c r="A802" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44924,7 +45010,7 @@
       <c r="Y802" s="18"/>
       <c r="Z802" s="18"/>
     </row>
-    <row r="803" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:26">
       <c r="A803" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44957,7 +45043,7 @@
       <c r="Y803" s="18"/>
       <c r="Z803" s="18"/>
     </row>
-    <row r="804" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:26">
       <c r="A804" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44990,7 +45076,7 @@
       <c r="Y804" s="18"/>
       <c r="Z804" s="18"/>
     </row>
-    <row r="805" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:26">
       <c r="A805" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45023,7 +45109,7 @@
       <c r="Y805" s="18"/>
       <c r="Z805" s="18"/>
     </row>
-    <row r="806" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:26">
       <c r="A806" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45056,7 +45142,7 @@
       <c r="Y806" s="18"/>
       <c r="Z806" s="18"/>
     </row>
-    <row r="807" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:26">
       <c r="A807" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45089,7 +45175,7 @@
       <c r="Y807" s="18"/>
       <c r="Z807" s="18"/>
     </row>
-    <row r="808" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:26">
       <c r="A808" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45122,7 +45208,7 @@
       <c r="Y808" s="18"/>
       <c r="Z808" s="18"/>
     </row>
-    <row r="809" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:26">
       <c r="A809" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45155,7 +45241,7 @@
       <c r="Y809" s="18"/>
       <c r="Z809" s="18"/>
     </row>
-    <row r="810" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:26">
       <c r="A810" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45188,7 +45274,7 @@
       <c r="Y810" s="18"/>
       <c r="Z810" s="18"/>
     </row>
-    <row r="811" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:26">
       <c r="A811" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45221,7 +45307,7 @@
       <c r="Y811" s="18"/>
       <c r="Z811" s="18"/>
     </row>
-    <row r="812" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:26">
       <c r="A812" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45254,7 +45340,7 @@
       <c r="Y812" s="18"/>
       <c r="Z812" s="18"/>
     </row>
-    <row r="813" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:26">
       <c r="A813" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45287,7 +45373,7 @@
       <c r="Y813" s="18"/>
       <c r="Z813" s="18"/>
     </row>
-    <row r="814" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:26">
       <c r="A814" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45320,7 +45406,7 @@
       <c r="Y814" s="18"/>
       <c r="Z814" s="18"/>
     </row>
-    <row r="815" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:26">
       <c r="A815" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45353,7 +45439,7 @@
       <c r="Y815" s="18"/>
       <c r="Z815" s="18"/>
     </row>
-    <row r="816" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:26">
       <c r="A816" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45386,7 +45472,7 @@
       <c r="Y816" s="18"/>
       <c r="Z816" s="18"/>
     </row>
-    <row r="817" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:26">
       <c r="A817" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45419,7 +45505,7 @@
       <c r="Y817" s="18"/>
       <c r="Z817" s="18"/>
     </row>
-    <row r="818" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:26">
       <c r="A818" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45452,7 +45538,7 @@
       <c r="Y818" s="18"/>
       <c r="Z818" s="18"/>
     </row>
-    <row r="819" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:26">
       <c r="A819" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45487,7 +45573,7 @@
       <c r="Y819" s="18"/>
       <c r="Z819" s="18"/>
     </row>
-    <row r="820" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:26">
       <c r="A820" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45522,7 +45608,7 @@
       <c r="Y820" s="18"/>
       <c r="Z820" s="18"/>
     </row>
-    <row r="821" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:26">
       <c r="A821" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45557,7 +45643,7 @@
       <c r="Y821" s="18"/>
       <c r="Z821" s="18"/>
     </row>
-    <row r="822" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:26">
       <c r="A822" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45590,7 +45676,7 @@
       <c r="Y822" s="18"/>
       <c r="Z822" s="18"/>
     </row>
-    <row r="823" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:26">
       <c r="A823" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45623,7 +45709,7 @@
       <c r="Y823" s="18"/>
       <c r="Z823" s="18"/>
     </row>
-    <row r="824" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:26">
       <c r="A824" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45656,7 +45742,7 @@
       <c r="Y824" s="18"/>
       <c r="Z824" s="18"/>
     </row>
-    <row r="825" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:26">
       <c r="A825" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45689,7 +45775,7 @@
       <c r="Y825" s="18"/>
       <c r="Z825" s="18"/>
     </row>
-    <row r="826" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:26">
       <c r="A826" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45722,7 +45808,7 @@
       <c r="Y826" s="18"/>
       <c r="Z826" s="18"/>
     </row>
-    <row r="827" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:26">
       <c r="A827" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45755,7 +45841,7 @@
       <c r="Y827" s="18"/>
       <c r="Z827" s="18"/>
     </row>
-    <row r="828" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:26">
       <c r="A828" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45788,7 +45874,7 @@
       <c r="Y828" s="18"/>
       <c r="Z828" s="18"/>
     </row>
-    <row r="829" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:26">
       <c r="A829" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45821,7 +45907,7 @@
       <c r="Y829" s="18"/>
       <c r="Z829" s="18"/>
     </row>
-    <row r="830" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:26">
       <c r="A830" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45854,7 +45940,7 @@
       <c r="Y830" s="18"/>
       <c r="Z830" s="18"/>
     </row>
-    <row r="831" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:26">
       <c r="A831" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45887,7 +45973,7 @@
       <c r="Y831" s="18"/>
       <c r="Z831" s="18"/>
     </row>
-    <row r="832" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:26">
       <c r="A832" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45920,7 +46006,7 @@
       <c r="Y832" s="18"/>
       <c r="Z832" s="18"/>
     </row>
-    <row r="833" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:26">
       <c r="A833" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45953,7 +46039,7 @@
       <c r="Y833" s="18"/>
       <c r="Z833" s="18"/>
     </row>
-    <row r="834" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:26">
       <c r="A834" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45986,7 +46072,7 @@
       <c r="Y834" s="18"/>
       <c r="Z834" s="18"/>
     </row>
-    <row r="835" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:26">
       <c r="A835" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46019,7 +46105,7 @@
       <c r="Y835" s="18"/>
       <c r="Z835" s="18"/>
     </row>
-    <row r="836" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:26">
       <c r="A836" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46052,7 +46138,7 @@
       <c r="Y836" s="18"/>
       <c r="Z836" s="18"/>
     </row>
-    <row r="837" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:26">
       <c r="A837" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46085,7 +46171,7 @@
       <c r="Y837" s="18"/>
       <c r="Z837" s="18"/>
     </row>
-    <row r="838" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:26">
       <c r="A838" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46118,7 +46204,7 @@
       <c r="Y838" s="18"/>
       <c r="Z838" s="18"/>
     </row>
-    <row r="839" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:26">
       <c r="A839" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46151,7 +46237,7 @@
       <c r="Y839" s="18"/>
       <c r="Z839" s="18"/>
     </row>
-    <row r="840" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:26">
       <c r="A840" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46184,7 +46270,7 @@
       <c r="Y840" s="18"/>
       <c r="Z840" s="18"/>
     </row>
-    <row r="841" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:26">
       <c r="A841" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46217,7 +46303,7 @@
       <c r="Y841" s="18"/>
       <c r="Z841" s="18"/>
     </row>
-    <row r="842" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:26">
       <c r="A842" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46250,7 +46336,7 @@
       <c r="Y842" s="18"/>
       <c r="Z842" s="18"/>
     </row>
-    <row r="843" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:26">
       <c r="A843" s="13"/>
       <c r="B843" s="20" t="s">
         <v>413</v>
@@ -46349,7 +46435,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="844" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:26">
       <c r="A844" s="18">
         <f t="shared" ref="A844:A855" si="89">COUNTA(D844:Z844)</f>
         <v>0</v>
@@ -46382,7 +46468,7 @@
       <c r="Y844" s="18"/>
       <c r="Z844" s="18"/>
     </row>
-    <row r="845" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:26">
       <c r="A845" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46415,7 +46501,7 @@
       <c r="Y845" s="18"/>
       <c r="Z845" s="18"/>
     </row>
-    <row r="846" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:26">
       <c r="A846" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46448,7 +46534,7 @@
       <c r="Y846" s="18"/>
       <c r="Z846" s="18"/>
     </row>
-    <row r="847" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:26">
       <c r="A847" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46481,7 +46567,7 @@
       <c r="Y847" s="18"/>
       <c r="Z847" s="18"/>
     </row>
-    <row r="848" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:26">
       <c r="A848" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46514,7 +46600,7 @@
       <c r="Y848" s="18"/>
       <c r="Z848" s="18"/>
     </row>
-    <row r="849" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:26">
       <c r="A849" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46547,7 +46633,7 @@
       <c r="Y849" s="18"/>
       <c r="Z849" s="18"/>
     </row>
-    <row r="850" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:26">
       <c r="A850" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46580,7 +46666,7 @@
       <c r="Y850" s="18"/>
       <c r="Z850" s="18"/>
     </row>
-    <row r="851" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:26">
       <c r="A851" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46613,7 +46699,7 @@
       <c r="Y851" s="18"/>
       <c r="Z851" s="18"/>
     </row>
-    <row r="852" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:26">
       <c r="A852" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46646,7 +46732,7 @@
       <c r="Y852" s="18"/>
       <c r="Z852" s="18"/>
     </row>
-    <row r="853" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:26">
       <c r="A853" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46679,7 +46765,7 @@
       <c r="Y853" s="18"/>
       <c r="Z853" s="18"/>
     </row>
-    <row r="854" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:26">
       <c r="A854" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46712,7 +46798,7 @@
       <c r="Y854" s="18"/>
       <c r="Z854" s="18"/>
     </row>
-    <row r="855" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:26">
       <c r="A855" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46748,31 +46834,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="11925" yWindow="135" windowWidth="16095" windowHeight="12315" tabRatio="712"/>
+    <workbookView xWindow="24" yWindow="5868" windowWidth="22860" windowHeight="5832" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1147">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3432,9 +3432,6 @@
     <t>Integrator</t>
   </si>
   <si>
-    <t>Flexible, steady wind, high-speed shaft brake shutdown</t>
-  </si>
-  <si>
     <t>HydroDyn</t>
   </si>
   <si>
@@ -3487,6 +3484,12 @@
   </si>
   <si>
     <t>Flexible, DLL control, irregular waves, turbulence</t>
+  </si>
+  <si>
+    <t>Flexible, steady wind, startup, shutdown</t>
+  </si>
+  <si>
+    <t>Flexible, steady wind, startup, high-speed shaft brake shutdown</t>
   </si>
 </sst>
 </file>
@@ -3496,7 +3499,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4744,6 +4747,12 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4819,88 +4828,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <font>
         <condense val="0"/>
@@ -4969,6 +4902,34 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5511,146 +5472,146 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AE16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AY23" sqref="AY23"/>
+      <selection pane="bottomRight" activeCell="AQ8" sqref="AQ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="145" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.28515625" customWidth="1"/>
-    <col min="8" max="8" width="3.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="145" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.28515625" style="2" customWidth="1"/>
+    <col min="13" max="18" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.28515625" style="2" customWidth="1"/>
-    <col min="28" max="28" width="3.28515625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="3.33203125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.33203125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="3.33203125" style="2" customWidth="1"/>
+    <col min="29" max="30" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="47" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="51" width="4.28515625" style="2" customWidth="1"/>
-    <col min="52" max="53" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="5.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="5.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.28515625" style="160" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.85546875" style="2" customWidth="1"/>
-    <col min="59" max="59" width="5.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="4.85546875" style="2" customWidth="1"/>
-    <col min="62" max="64" width="1.85546875" style="2" customWidth="1"/>
-    <col min="65" max="65" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="3.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="5.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="47" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="51" width="4.33203125" style="2" customWidth="1"/>
+    <col min="52" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="4.88671875" style="2" customWidth="1"/>
+    <col min="59" max="59" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="4.88671875" style="2" customWidth="1"/>
+    <col min="62" max="64" width="1.88671875" style="2" customWidth="1"/>
+    <col min="65" max="65" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="3.33203125" style="45" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="5.6640625" style="45" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="4.42578125" customWidth="1"/>
-    <col min="71" max="71" width="4.28515625" customWidth="1"/>
+    <col min="70" max="70" width="4.44140625" customWidth="1"/>
+    <col min="71" max="71" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:69" ht="13.5" thickBot="1">
-      <c r="B2" s="183" t="s">
+    <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="180" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="182" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="182"/>
-      <c r="W2" s="178" t="s">
+      <c r="I2" s="183"/>
+      <c r="J2" s="183"/>
+      <c r="K2" s="183"/>
+      <c r="L2" s="183"/>
+      <c r="M2" s="183"/>
+      <c r="N2" s="183"/>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="183"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="180" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="186"/>
-      <c r="Y2" s="186"/>
-      <c r="Z2" s="186"/>
-      <c r="AA2" s="186"/>
-      <c r="AB2" s="186"/>
-      <c r="AC2" s="186"/>
-      <c r="AD2" s="187"/>
-      <c r="AE2" s="188" t="s">
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="190" t="s">
         <v>1125</v>
       </c>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="189"/>
-      <c r="AO2" s="189"/>
-      <c r="AP2" s="190"/>
-      <c r="AQ2" s="191" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AR2" s="192"/>
-      <c r="AS2" s="192"/>
-      <c r="AT2" s="192"/>
-      <c r="AU2" s="192"/>
-      <c r="AV2" s="192"/>
-      <c r="AW2" s="192"/>
-      <c r="AX2" s="192"/>
-      <c r="AY2" s="192"/>
-      <c r="AZ2" s="193"/>
-      <c r="BA2" s="197" t="s">
-        <v>1137</v>
-      </c>
-      <c r="BB2" s="198"/>
-      <c r="BC2" s="198"/>
-      <c r="BD2" s="198"/>
-      <c r="BE2" s="199"/>
-      <c r="BF2" s="194" t="s">
+      <c r="AF2" s="191"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="191"/>
+      <c r="AK2" s="191"/>
+      <c r="AL2" s="191"/>
+      <c r="AM2" s="191"/>
+      <c r="AN2" s="191"/>
+      <c r="AO2" s="191"/>
+      <c r="AP2" s="192"/>
+      <c r="AQ2" s="193" t="s">
         <v>1128</v>
       </c>
-      <c r="BG2" s="195"/>
-      <c r="BH2" s="195"/>
-      <c r="BI2" s="195"/>
-      <c r="BJ2" s="195"/>
-      <c r="BK2" s="195"/>
-      <c r="BL2" s="196"/>
-      <c r="BM2" s="177" t="s">
+      <c r="AR2" s="194"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="194"/>
+      <c r="AU2" s="194"/>
+      <c r="AV2" s="194"/>
+      <c r="AW2" s="194"/>
+      <c r="AX2" s="194"/>
+      <c r="AY2" s="194"/>
+      <c r="AZ2" s="195"/>
+      <c r="BA2" s="199" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BB2" s="200"/>
+      <c r="BC2" s="200"/>
+      <c r="BD2" s="200"/>
+      <c r="BE2" s="201"/>
+      <c r="BF2" s="196" t="s">
+        <v>1127</v>
+      </c>
+      <c r="BG2" s="197"/>
+      <c r="BH2" s="197"/>
+      <c r="BI2" s="197"/>
+      <c r="BJ2" s="197"/>
+      <c r="BK2" s="197"/>
+      <c r="BL2" s="198"/>
+      <c r="BM2" s="179" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="178"/>
-      <c r="BO2" s="178"/>
-      <c r="BP2" s="178"/>
-      <c r="BQ2" s="179"/>
-    </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" ht="114" thickBot="1">
+      <c r="BN2" s="180"/>
+      <c r="BO2" s="180"/>
+      <c r="BP2" s="180"/>
+      <c r="BQ2" s="181"/>
+    </row>
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -5794,25 +5755,25 @@
         <v>46</v>
       </c>
       <c r="AW3" s="166" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AX3" s="73" t="s">
         <v>31</v>
       </c>
       <c r="AY3" s="166" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="AZ3" s="74" t="s">
         <v>26</v>
       </c>
       <c r="BA3" s="75" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BB3" s="164" t="s">
+        <v>1130</v>
+      </c>
+      <c r="BC3" s="165" t="s">
         <v>1138</v>
-      </c>
-      <c r="BB3" s="164" t="s">
-        <v>1131</v>
-      </c>
-      <c r="BC3" s="165" t="s">
-        <v>1139</v>
       </c>
       <c r="BD3" s="77" t="s">
         <v>23</v>
@@ -5851,7 +5812,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="24" customFormat="1">
+    <row r="4" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -5889,7 +5850,7 @@
       <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="202">
+      <c r="N4" s="177">
         <v>1</v>
       </c>
       <c r="O4" s="25">
@@ -6051,7 +6012,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="5" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -6069,7 +6030,7 @@
         <v>175</v>
       </c>
       <c r="G5" s="143" t="s">
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="H5" s="40">
         <v>20</v>
@@ -6089,7 +6050,7 @@
       <c r="M5" s="25">
         <v>1</v>
       </c>
-      <c r="N5" s="202">
+      <c r="N5" s="177">
         <v>2</v>
       </c>
       <c r="O5" s="25">
@@ -6175,7 +6136,7 @@
         <v>28</v>
       </c>
       <c r="AQ5" s="43" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AR5" s="25" t="s">
         <v>22</v>
@@ -6251,7 +6212,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="24" customFormat="1">
+    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -6289,7 +6250,7 @@
       <c r="M6" s="25">
         <v>1</v>
       </c>
-      <c r="N6" s="202">
+      <c r="N6" s="177">
         <v>2</v>
       </c>
       <c r="O6" s="25">
@@ -6375,7 +6336,7 @@
         <v>28</v>
       </c>
       <c r="AQ6" s="43" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AR6" s="25" t="s">
         <v>22</v>
@@ -6451,7 +6412,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="24" customFormat="1">
+    <row r="7" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -6489,7 +6450,7 @@
       <c r="M7" s="25">
         <v>1</v>
       </c>
-      <c r="N7" s="202">
+      <c r="N7" s="177">
         <v>1</v>
       </c>
       <c r="O7" s="25">
@@ -6651,7 +6612,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="24" customFormat="1">
+    <row r="8" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -6669,7 +6630,7 @@
         <v>175</v>
       </c>
       <c r="G8" s="143" t="s">
-        <v>1106</v>
+        <v>1145</v>
       </c>
       <c r="H8" s="40">
         <v>30</v>
@@ -6689,7 +6650,7 @@
       <c r="M8" s="25">
         <v>1</v>
       </c>
-      <c r="N8" s="202">
+      <c r="N8" s="177">
         <v>2</v>
       </c>
       <c r="O8" s="25">
@@ -6775,7 +6736,7 @@
         <v>28</v>
       </c>
       <c r="AQ8" s="43" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AR8" s="25" t="s">
         <v>22</v>
@@ -6851,7 +6812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="24" customFormat="1">
+    <row r="9" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -7052,7 +7013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="24" customFormat="1">
+    <row r="10" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -7091,7 +7052,7 @@
       <c r="M10" s="25">
         <v>1</v>
       </c>
-      <c r="N10" s="202">
+      <c r="N10" s="177">
         <v>2</v>
       </c>
       <c r="O10" s="25">
@@ -7253,7 +7214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="24" customFormat="1">
+    <row r="11" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -7292,7 +7253,7 @@
       <c r="M11" s="25">
         <v>1</v>
       </c>
-      <c r="N11" s="202">
+      <c r="N11" s="177">
         <v>2</v>
       </c>
       <c r="O11" s="25">
@@ -7454,7 +7415,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="24" customFormat="1">
+    <row r="12" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -7654,7 +7615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="24" customFormat="1">
+    <row r="13" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -7692,7 +7653,7 @@
       <c r="M13" s="25">
         <v>1</v>
       </c>
-      <c r="N13" s="202">
+      <c r="N13" s="177">
         <v>2</v>
       </c>
       <c r="O13" s="25">
@@ -7814,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="163" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="BD13" s="44">
         <v>0</v>
@@ -7854,7 +7815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="14" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -7892,7 +7853,7 @@
       <c r="M14" s="25">
         <v>1</v>
       </c>
-      <c r="N14" s="202">
+      <c r="N14" s="177">
         <v>1</v>
       </c>
       <c r="O14" s="25">
@@ -8054,7 +8015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="15" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="85" t="s">
         <v>52</v>
@@ -8092,7 +8053,7 @@
       <c r="M15" s="25">
         <v>1</v>
       </c>
-      <c r="N15" s="202">
+      <c r="N15" s="177">
         <v>2</v>
       </c>
       <c r="O15" s="25">
@@ -8211,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="BB15" s="163" t="s">
+        <v>1132</v>
+      </c>
+      <c r="BC15" s="163" t="s">
         <v>1133</v>
-      </c>
-      <c r="BC15" s="163" t="s">
-        <v>1134</v>
       </c>
       <c r="BD15" s="44">
         <v>0.2</v>
@@ -8254,7 +8215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="16" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="85" t="s">
         <v>53</v>
@@ -8292,7 +8253,7 @@
       <c r="M16" s="25">
         <v>1</v>
       </c>
-      <c r="N16" s="202">
+      <c r="N16" s="177">
         <v>2</v>
       </c>
       <c r="O16" s="25">
@@ -8454,7 +8415,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:69" s="24" customFormat="1">
+    <row r="17" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="125"/>
       <c r="C17" s="148"/>
@@ -8525,7 +8486,7 @@
       <c r="BP17" s="135"/>
       <c r="BQ17" s="130"/>
     </row>
-    <row r="18" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="18" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
@@ -8563,7 +8524,7 @@
       <c r="M18" s="25">
         <v>1</v>
       </c>
-      <c r="N18" s="202">
+      <c r="N18" s="177">
         <v>2</v>
       </c>
       <c r="O18" s="25">
@@ -8685,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="BC18" s="163" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="BD18" s="44">
         <v>0.2</v>
@@ -8725,7 +8686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="19" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="85" t="s">
         <v>309</v>
@@ -8752,7 +8713,7 @@
         <v>1E-3</v>
       </c>
       <c r="J19" s="25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="25">
         <v>0</v>
@@ -8763,7 +8724,7 @@
       <c r="M19" s="25">
         <v>1</v>
       </c>
-      <c r="N19" s="202">
+      <c r="N19" s="177">
         <v>2</v>
       </c>
       <c r="O19" s="25">
@@ -8882,7 +8843,7 @@
         <v>2</v>
       </c>
       <c r="BB19" s="163" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="BC19" s="151">
         <v>11.9</v>
@@ -8925,7 +8886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="20" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="85" t="s">
         <v>336</v>
@@ -8963,7 +8924,7 @@
       <c r="M20" s="25">
         <v>1</v>
       </c>
-      <c r="N20" s="202">
+      <c r="N20" s="177">
         <v>1</v>
       </c>
       <c r="O20" s="25">
@@ -9125,7 +9086,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="21" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -9163,7 +9124,7 @@
       <c r="M21" s="25">
         <v>1</v>
       </c>
-      <c r="N21" s="202">
+      <c r="N21" s="177">
         <v>2</v>
       </c>
       <c r="O21" s="25">
@@ -9314,7 +9275,7 @@
       </c>
       <c r="BQ21" s="42"/>
     </row>
-    <row r="22" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="22" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -9352,7 +9313,7 @@
       <c r="M22" s="25">
         <v>1</v>
       </c>
-      <c r="N22" s="202">
+      <c r="N22" s="177">
         <v>2</v>
       </c>
       <c r="O22" s="25">
@@ -9499,7 +9460,7 @@
       </c>
       <c r="BQ22" s="42"/>
     </row>
-    <row r="23" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="23" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -9537,7 +9498,7 @@
       <c r="M23" s="25">
         <v>1</v>
       </c>
-      <c r="N23" s="202">
+      <c r="N23" s="177">
         <v>2</v>
       </c>
       <c r="O23" s="25">
@@ -9684,7 +9645,7 @@
       </c>
       <c r="BQ23" s="42"/>
     </row>
-    <row r="24" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="24" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -9722,7 +9683,7 @@
       <c r="M24" s="25">
         <v>1</v>
       </c>
-      <c r="N24" s="202">
+      <c r="N24" s="177">
         <v>2</v>
       </c>
       <c r="O24" s="25">
@@ -9869,7 +9830,7 @@
       </c>
       <c r="BQ24" s="42"/>
     </row>
-    <row r="25" spans="1:69" s="24" customFormat="1">
+    <row r="25" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1119</v>
@@ -9887,7 +9848,7 @@
         <v>5000</v>
       </c>
       <c r="G25" s="143" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="H25" s="40">
         <v>60</v>
@@ -9907,7 +9868,7 @@
       <c r="M25" s="25">
         <v>1</v>
       </c>
-      <c r="N25" s="202">
+      <c r="N25" s="177">
         <v>1</v>
       </c>
       <c r="O25" s="25">
@@ -10054,7 +10015,7 @@
       </c>
       <c r="BQ25" s="42"/>
     </row>
-    <row r="26" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="26" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1118</v>
@@ -10072,7 +10033,7 @@
         <v>5000</v>
       </c>
       <c r="G26" s="143" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="H26" s="40">
         <v>60</v>
@@ -10092,7 +10053,7 @@
       <c r="M26" s="25">
         <v>1</v>
       </c>
-      <c r="N26" s="202">
+      <c r="N26" s="177">
         <v>2</v>
       </c>
       <c r="O26" s="25">
@@ -10239,7 +10200,7 @@
       </c>
       <c r="BQ26" s="42"/>
     </row>
-    <row r="27" spans="1:69" s="24" customFormat="1">
+    <row r="27" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1117</v>
@@ -10277,7 +10238,7 @@
       <c r="M27" s="25">
         <v>1</v>
       </c>
-      <c r="N27" s="202">
+      <c r="N27" s="177">
         <v>2</v>
       </c>
       <c r="O27" s="25">
@@ -10424,7 +10385,7 @@
       </c>
       <c r="BQ27" s="42"/>
     </row>
-    <row r="28" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="28" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1116</v>
@@ -10442,7 +10403,7 @@
         <v>5000</v>
       </c>
       <c r="G28" s="143" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="H28" s="40">
         <v>60</v>
@@ -10462,7 +10423,7 @@
       <c r="M28" s="25">
         <v>1</v>
       </c>
-      <c r="N28" s="202">
+      <c r="N28" s="177">
         <v>2</v>
       </c>
       <c r="O28" s="25">
@@ -10609,10 +10570,10 @@
       </c>
       <c r="BQ28" s="42"/>
     </row>
-    <row r="29" spans="1:69" s="24" customFormat="1" ht="25.5">
+    <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="167" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C29" s="168" t="s">
         <v>1089</v>
@@ -10627,7 +10588,7 @@
         <v>5000</v>
       </c>
       <c r="G29" s="143" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="H29" s="170">
         <v>20</v>
@@ -10647,7 +10608,7 @@
       <c r="M29" s="169">
         <v>2</v>
       </c>
-      <c r="N29" s="203">
+      <c r="N29" s="178">
         <v>2</v>
       </c>
       <c r="O29" s="169">
@@ -10799,7 +10760,7 @@
       </c>
       <c r="BQ29" s="172"/>
     </row>
-    <row r="30" spans="1:69" ht="13.5" thickBot="1">
+    <row r="30" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
       <c r="C30" s="149"/>
       <c r="D30" s="3"/>
@@ -10871,7 +10832,7 @@
       <c r="BP30" s="64"/>
       <c r="BQ30" s="6"/>
     </row>
-    <row r="34" spans="53:69">
+    <row r="34" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA34" s="9"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
@@ -10883,7 +10844,7 @@
       <c r="BP34"/>
       <c r="BQ34"/>
     </row>
-    <row r="35" spans="53:69">
+    <row r="35" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA35" s="9"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
@@ -10895,7 +10856,7 @@
       <c r="BP35"/>
       <c r="BQ35"/>
     </row>
-    <row r="36" spans="53:69">
+    <row r="36" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA36" s="9"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
@@ -10907,7 +10868,7 @@
       <c r="BP36"/>
       <c r="BQ36"/>
     </row>
-    <row r="37" spans="53:69">
+    <row r="37" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA37" s="9"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
@@ -10919,7 +10880,7 @@
       <c r="BP37"/>
       <c r="BQ37"/>
     </row>
-    <row r="38" spans="53:69">
+    <row r="38" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA38" s="9"/>
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
@@ -10931,7 +10892,7 @@
       <c r="BP38"/>
       <c r="BQ38"/>
     </row>
-    <row r="39" spans="53:69">
+    <row r="39" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA39" s="9"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
@@ -10943,7 +10904,7 @@
       <c r="BP39"/>
       <c r="BQ39"/>
     </row>
-    <row r="40" spans="53:69">
+    <row r="40" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA40" s="9"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
@@ -10955,7 +10916,7 @@
       <c r="BP40"/>
       <c r="BQ40"/>
     </row>
-    <row r="41" spans="53:69">
+    <row r="41" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA41" s="9"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
@@ -10967,7 +10928,7 @@
       <c r="BP41"/>
       <c r="BQ41"/>
     </row>
-    <row r="42" spans="53:69">
+    <row r="42" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA42" s="9"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
@@ -10979,7 +10940,7 @@
       <c r="BP42"/>
       <c r="BQ42"/>
     </row>
-    <row r="43" spans="53:69">
+    <row r="43" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA43" s="9"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
@@ -10991,7 +10952,7 @@
       <c r="BP43"/>
       <c r="BQ43"/>
     </row>
-    <row r="44" spans="53:69">
+    <row r="44" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA44" s="9"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
@@ -11003,7 +10964,7 @@
       <c r="BP44"/>
       <c r="BQ44"/>
     </row>
-    <row r="45" spans="53:69">
+    <row r="45" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA45" s="9"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
@@ -11015,7 +10976,7 @@
       <c r="BP45"/>
       <c r="BQ45"/>
     </row>
-    <row r="46" spans="53:69">
+    <row r="46" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA46" s="9"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
@@ -11027,7 +10988,7 @@
       <c r="BP46"/>
       <c r="BQ46"/>
     </row>
-    <row r="47" spans="53:69">
+    <row r="47" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA47" s="9"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
@@ -11039,7 +11000,7 @@
       <c r="BP47"/>
       <c r="BQ47"/>
     </row>
-    <row r="48" spans="53:69">
+    <row r="48" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA48" s="9"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
@@ -11051,7 +11012,7 @@
       <c r="BP48"/>
       <c r="BQ48"/>
     </row>
-    <row r="49" spans="53:69">
+    <row r="49" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA49" s="9"/>
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
@@ -11063,7 +11024,7 @@
       <c r="BP49"/>
       <c r="BQ49"/>
     </row>
-    <row r="50" spans="53:69">
+    <row r="50" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA50" s="9"/>
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
@@ -11075,7 +11036,7 @@
       <c r="BP50"/>
       <c r="BQ50"/>
     </row>
-    <row r="51" spans="53:69">
+    <row r="51" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA51" s="9"/>
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
@@ -11087,7 +11048,7 @@
       <c r="BP51"/>
       <c r="BQ51"/>
     </row>
-    <row r="52" spans="53:69">
+    <row r="52" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA52" s="9"/>
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
@@ -11099,7 +11060,7 @@
       <c r="BP52"/>
       <c r="BQ52"/>
     </row>
-    <row r="53" spans="53:69">
+    <row r="53" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA53" s="9"/>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
@@ -11111,7 +11072,7 @@
       <c r="BP53"/>
       <c r="BQ53"/>
     </row>
-    <row r="54" spans="53:69">
+    <row r="54" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA54" s="9"/>
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
@@ -11123,7 +11084,7 @@
       <c r="BP54"/>
       <c r="BQ54"/>
     </row>
-    <row r="55" spans="53:69">
+    <row r="55" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA55" s="9"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
@@ -11135,7 +11096,7 @@
       <c r="BP55"/>
       <c r="BQ55"/>
     </row>
-    <row r="56" spans="53:69">
+    <row r="56" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA56" s="9"/>
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
@@ -11147,7 +11108,7 @@
       <c r="BP56"/>
       <c r="BQ56"/>
     </row>
-    <row r="57" spans="53:69">
+    <row r="57" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA57" s="9"/>
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
@@ -11159,7 +11120,7 @@
       <c r="BP57"/>
       <c r="BQ57"/>
     </row>
-    <row r="58" spans="53:69">
+    <row r="58" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA58" s="9"/>
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
@@ -11171,7 +11132,7 @@
       <c r="BP58"/>
       <c r="BQ58"/>
     </row>
-    <row r="59" spans="53:69">
+    <row r="59" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA59" s="9"/>
       <c r="BB59" s="2"/>
       <c r="BC59" s="2"/>
@@ -11183,7 +11144,7 @@
       <c r="BP59"/>
       <c r="BQ59"/>
     </row>
-    <row r="60" spans="53:69">
+    <row r="60" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA60" s="9"/>
       <c r="BB60" s="2"/>
       <c r="BC60" s="2"/>
@@ -11195,7 +11156,7 @@
       <c r="BP60"/>
       <c r="BQ60"/>
     </row>
-    <row r="61" spans="53:69">
+    <row r="61" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA61" s="9"/>
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
@@ -11207,7 +11168,7 @@
       <c r="BP61"/>
       <c r="BQ61"/>
     </row>
-    <row r="62" spans="53:69">
+    <row r="62" spans="53:69" x14ac:dyDescent="0.25">
       <c r="BA62" s="9"/>
       <c r="BB62" s="2"/>
       <c r="BC62" s="2"/>
@@ -11231,114 +11192,114 @@
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
   <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AQ29 BA30 BF29:BL29 AC4:BA25 AC26:AQ28 AS26:BA28 AS29:AZ29">
-    <cfRule type="expression" dxfId="1" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="48" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 A29:F29">
-    <cfRule type="expression" dxfId="50" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="48" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="59" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="60" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="46" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="31" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="44" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="42" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="27" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="28" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB4:BB28 BB30">
-    <cfRule type="expression" dxfId="40" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="38" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="13" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="36" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:AD29">
-    <cfRule type="expression" dxfId="34" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE29 BC29 BA29">
-    <cfRule type="expression" dxfId="32" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB29">
-    <cfRule type="expression" dxfId="30" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD29">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR26:AR29">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$A26="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$A26="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11362,113 +11323,113 @@
       <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="8" style="2" customWidth="1"/>
     <col min="3" max="3" width="36" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="3.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="4.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="3.28515625" style="2" customWidth="1"/>
-    <col min="17" max="19" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="2" customWidth="1"/>
-    <col min="28" max="33" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="4.85546875" style="2" customWidth="1"/>
-    <col min="35" max="36" width="3.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.5703125" style="2" customWidth="1"/>
-    <col min="38" max="47" width="4.85546875" style="2" customWidth="1"/>
-    <col min="48" max="48" width="4.85546875" style="45" customWidth="1"/>
-    <col min="49" max="49" width="4.85546875" style="9" customWidth="1"/>
-    <col min="50" max="51" width="4.85546875" style="2" customWidth="1"/>
-    <col min="52" max="53" width="4.85546875" style="45" customWidth="1"/>
-    <col min="54" max="54" width="6.7109375" style="45" customWidth="1"/>
-    <col min="55" max="55" width="4.85546875" style="2" customWidth="1"/>
-    <col min="56" max="56" width="4.42578125" customWidth="1"/>
-    <col min="57" max="57" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="3.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="4.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="3.33203125" style="2" customWidth="1"/>
+    <col min="17" max="19" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.88671875" style="2" customWidth="1"/>
+    <col min="28" max="33" width="4.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.88671875" style="2" customWidth="1"/>
+    <col min="35" max="36" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="4.5546875" style="2" customWidth="1"/>
+    <col min="38" max="47" width="4.88671875" style="2" customWidth="1"/>
+    <col min="48" max="48" width="4.88671875" style="45" customWidth="1"/>
+    <col min="49" max="49" width="4.88671875" style="9" customWidth="1"/>
+    <col min="50" max="51" width="4.88671875" style="2" customWidth="1"/>
+    <col min="52" max="53" width="4.88671875" style="45" customWidth="1"/>
+    <col min="54" max="54" width="6.6640625" style="45" customWidth="1"/>
+    <col min="55" max="55" width="4.88671875" style="2" customWidth="1"/>
+    <col min="56" max="56" width="4.44140625" customWidth="1"/>
+    <col min="57" max="57" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="13.5" thickBot="1"/>
-    <row r="2" spans="1:55" ht="13.5" thickBot="1">
-      <c r="B2" s="183" t="s">
+    <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="185" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="177" t="s">
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="179" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="178"/>
-      <c r="K2" s="186"/>
-      <c r="L2" s="186"/>
-      <c r="M2" s="186"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="186"/>
-      <c r="P2" s="186"/>
-      <c r="Q2" s="186"/>
-      <c r="R2" s="186"/>
-      <c r="S2" s="186"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="188" t="s">
+      <c r="J2" s="180"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="190"/>
-      <c r="AK2" s="200" t="s">
+      <c r="V2" s="191"/>
+      <c r="W2" s="191"/>
+      <c r="X2" s="191"/>
+      <c r="Y2" s="191"/>
+      <c r="Z2" s="191"/>
+      <c r="AA2" s="191"/>
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="191"/>
+      <c r="AD2" s="191"/>
+      <c r="AE2" s="191"/>
+      <c r="AF2" s="191"/>
+      <c r="AG2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="191"/>
+      <c r="AJ2" s="192"/>
+      <c r="AK2" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="192"/>
-      <c r="AM2" s="192"/>
-      <c r="AN2" s="192"/>
-      <c r="AO2" s="192"/>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="200" t="s">
+      <c r="AL2" s="194"/>
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194"/>
+      <c r="AP2" s="195"/>
+      <c r="AQ2" s="202" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="191"/>
-      <c r="AS2" s="191"/>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="197" t="s">
+      <c r="AR2" s="193"/>
+      <c r="AS2" s="193"/>
+      <c r="AT2" s="203"/>
+      <c r="AU2" s="199" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="198"/>
-      <c r="AW2" s="198"/>
-      <c r="AX2" s="199"/>
-      <c r="AY2" s="177" t="s">
+      <c r="AV2" s="200"/>
+      <c r="AW2" s="200"/>
+      <c r="AX2" s="201"/>
+      <c r="AY2" s="179" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="178"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="179"/>
-    </row>
-    <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1">
+      <c r="AZ2" s="180"/>
+      <c r="BA2" s="180"/>
+      <c r="BB2" s="180"/>
+      <c r="BC2" s="181"/>
+    </row>
+    <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
         <v>283</v>
       </c>
@@ -11627,7 +11588,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:55" s="24" customFormat="1">
+    <row r="4" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>284</v>
       </c>
@@ -11787,7 +11748,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:55" s="24" customFormat="1">
+    <row r="5" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>284</v>
       </c>
@@ -11947,7 +11908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:55" s="24" customFormat="1">
+    <row r="6" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>284</v>
       </c>
@@ -12107,7 +12068,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:55" s="24" customFormat="1">
+    <row r="7" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>284</v>
       </c>
@@ -12267,7 +12228,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:55" s="24" customFormat="1">
+    <row r="8" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>284</v>
       </c>
@@ -12427,7 +12388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:55" s="24" customFormat="1">
+    <row r="9" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>284</v>
       </c>
@@ -12588,7 +12549,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:55" s="24" customFormat="1">
+    <row r="10" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>284</v>
       </c>
@@ -12749,7 +12710,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:55" s="24" customFormat="1">
+    <row r="11" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>284</v>
       </c>
@@ -12910,7 +12871,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:55" s="24" customFormat="1">
+    <row r="12" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>284</v>
       </c>
@@ -13070,7 +13031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:55" s="24" customFormat="1">
+    <row r="13" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>284</v>
       </c>
@@ -13230,7 +13191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:55" s="24" customFormat="1">
+    <row r="14" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>284</v>
       </c>
@@ -13390,7 +13351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:55" s="24" customFormat="1">
+    <row r="15" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>284</v>
       </c>
@@ -13550,7 +13511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:55" s="24" customFormat="1">
+    <row r="16" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>284</v>
       </c>
@@ -13710,7 +13671,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:55" s="24" customFormat="1">
+    <row r="17" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>284</v>
       </c>
@@ -13870,7 +13831,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18" spans="1:55" s="24" customFormat="1">
+    <row r="18" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>284</v>
       </c>
@@ -14030,7 +13991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:55" s="24" customFormat="1">
+    <row r="19" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>284</v>
       </c>
@@ -14190,7 +14151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:55" s="24" customFormat="1">
+    <row r="20" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>284</v>
       </c>
@@ -14350,7 +14311,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="21" spans="1:55" s="24" customFormat="1">
+    <row r="21" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="85" t="s">
         <v>1060</v>
@@ -14493,7 +14454,7 @@
       </c>
       <c r="BC21" s="42"/>
     </row>
-    <row r="22" spans="1:55" s="24" customFormat="1">
+    <row r="22" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="85" t="s">
         <v>1065</v>
@@ -14578,7 +14539,7 @@
       </c>
       <c r="BC22" s="42"/>
     </row>
-    <row r="23" spans="1:55" s="24" customFormat="1">
+    <row r="23" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="85" t="s">
         <v>1070</v>
@@ -14659,7 +14620,7 @@
       <c r="BB23" s="63"/>
       <c r="BC23" s="42"/>
     </row>
-    <row r="24" spans="1:55" s="24" customFormat="1">
+    <row r="24" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="85" t="s">
         <v>1071</v>
@@ -14740,7 +14701,7 @@
       <c r="BB24" s="63"/>
       <c r="BC24" s="42"/>
     </row>
-    <row r="25" spans="1:55" s="24" customFormat="1">
+    <row r="25" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="85" t="s">
         <v>1069</v>
@@ -14825,7 +14786,7 @@
       </c>
       <c r="BC25" s="42"/>
     </row>
-    <row r="26" spans="1:55" s="24" customFormat="1">
+    <row r="26" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="85" t="s">
         <v>1068</v>
@@ -14910,7 +14871,7 @@
       </c>
       <c r="BC26" s="42"/>
     </row>
-    <row r="27" spans="1:55" s="24" customFormat="1">
+    <row r="27" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="85" t="s">
         <v>1067</v>
@@ -14995,7 +14956,7 @@
       </c>
       <c r="BC27" s="42"/>
     </row>
-    <row r="28" spans="1:55" s="24" customFormat="1">
+    <row r="28" spans="1:55" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="85" t="s">
         <v>1073</v>
@@ -15080,7 +15041,7 @@
       </c>
       <c r="BC28" s="42"/>
     </row>
-    <row r="29" spans="1:55" ht="13.5" thickBot="1">
+    <row r="29" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -15136,7 +15097,7 @@
       <c r="BB29" s="64"/>
       <c r="BC29" s="6"/>
     </row>
-    <row r="31" spans="1:55">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B31" s="49" t="s">
         <v>49</v>
       </c>
@@ -15145,7 +15106,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="1:55">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="B32" s="49"/>
       <c r="C32" s="11" t="s">
         <v>305</v>
@@ -15154,7 +15115,7 @@
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
         <v>55</v>
@@ -15163,7 +15124,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="12"/>
       <c r="C34" s="11" t="s">
         <v>306</v>
@@ -15172,7 +15133,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
       <c r="C35" s="11" t="s">
         <v>50</v>
@@ -15181,7 +15142,7 @@
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="12"/>
       <c r="C36" s="11" t="s">
         <v>292</v>
@@ -15191,7 +15152,7 @@
       <c r="F36" s="11"/>
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C37" s="11" t="s">
         <v>293</v>
       </c>
@@ -15199,7 +15160,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C38" s="11" t="s">
         <v>298</v>
       </c>
@@ -15207,7 +15168,7 @@
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C39" s="11" t="s">
         <v>341</v>
       </c>
@@ -15215,7 +15176,7 @@
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C40" s="11" t="s">
         <v>337</v>
       </c>
@@ -15223,7 +15184,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C41" s="11" t="s">
         <v>340</v>
       </c>
@@ -15231,7 +15192,7 @@
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C42" s="11" t="s">
         <v>441</v>
       </c>
@@ -15239,7 +15200,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C43" s="11" t="s">
         <v>442</v>
       </c>
@@ -15247,7 +15208,7 @@
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C44" s="11" t="s">
         <v>443</v>
       </c>
@@ -15255,14 +15216,14 @@
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C45" s="12" t="s">
         <v>666</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="112" t="s">
         <v>1078</v>
       </c>
@@ -15273,7 +15234,7 @@
       <c r="G46" s="113"/>
       <c r="H46" s="11"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="88" t="s">
         <v>1052</v>
       </c>
@@ -15284,7 +15245,7 @@
       <c r="G48" s="90"/>
       <c r="H48" s="90"/>
     </row>
-    <row r="50" spans="1:55" s="104" customFormat="1">
+    <row r="50" spans="1:55" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="103"/>
       <c r="B50" s="103"/>
       <c r="C50" s="102" t="s">
@@ -15353,42 +15314,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="24" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="22" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15407,16 +15368,16 @@
       <selection activeCell="R741" sqref="R741"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="22" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="3.42578125" style="17" customWidth="1"/>
-    <col min="29" max="29" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="3.44140625" style="17" customWidth="1"/>
+    <col min="29" max="29" width="45.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -15496,7 +15457,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="str">
         <f>TEXT(COUNTA(B3:B855)-$AB$1,"0")&amp;" variables"</f>
         <v>820 variables</v>
@@ -15598,7 +15559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="14" t="s">
         <v>56</v>
@@ -15697,7 +15658,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <f t="shared" ref="A4:A10" si="4">COUNTA(D4:Z4)</f>
         <v>2</v>
@@ -15734,7 +15695,7 @@
       <c r="Y4" s="18"/>
       <c r="Z4" s="18"/>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15773,7 +15734,7 @@
       <c r="Y5" s="18"/>
       <c r="Z5" s="18"/>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15812,7 +15773,7 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="18"/>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -15851,7 +15812,7 @@
       <c r="Y7" s="18"/>
       <c r="Z7" s="18"/>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15888,7 +15849,7 @@
       <c r="Y8" s="18"/>
       <c r="Z8" s="18"/>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -15927,7 +15888,7 @@
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15964,7 +15925,7 @@
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="20" t="s">
         <v>65</v>
@@ -16063,7 +16024,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <f t="shared" ref="A12:A23" si="8">COUNTA(D12:Z12)</f>
         <v>2</v>
@@ -16102,7 +16063,7 @@
       <c r="Y12" s="18"/>
       <c r="Z12" s="18"/>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16141,7 +16102,7 @@
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16176,7 +16137,7 @@
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16213,7 +16174,7 @@
       <c r="Y15" s="18"/>
       <c r="Z15" s="18"/>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16250,7 +16211,7 @@
       <c r="Y16" s="18"/>
       <c r="Z16" s="18"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16287,7 +16248,7 @@
       <c r="Y17" s="18"/>
       <c r="Z17" s="18"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -16322,7 +16283,7 @@
       <c r="Y18" s="18"/>
       <c r="Z18" s="18"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -16355,7 +16316,7 @@
       <c r="Y19" s="18"/>
       <c r="Z19" s="18"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16394,7 +16355,7 @@
       <c r="Y20" s="18"/>
       <c r="Z20" s="18"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16433,7 +16394,7 @@
       <c r="Y21" s="18"/>
       <c r="Z21" s="18"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <f t="shared" si="8"/>
         <v>1</v>
@@ -16470,7 +16431,7 @@
       <c r="Y22" s="18"/>
       <c r="Z22" s="18"/>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -16509,7 +16470,7 @@
       <c r="Y23" s="18"/>
       <c r="Z23" s="18"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="20" t="s">
         <v>74</v>
@@ -16608,7 +16569,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <f t="shared" ref="A25:A32" si="11">COUNTA(D25:Z25)</f>
         <v>1</v>
@@ -16645,7 +16606,7 @@
       <c r="Y25" s="18"/>
       <c r="Z25" s="18"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16684,7 +16645,7 @@
       <c r="Y26" s="18"/>
       <c r="Z26" s="18"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -16719,7 +16680,7 @@
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16756,7 +16717,7 @@
       <c r="Y28" s="18"/>
       <c r="Z28" s="18"/>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16793,7 +16754,7 @@
       <c r="Y29" s="18"/>
       <c r="Z29" s="18"/>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16830,7 +16791,7 @@
       <c r="Y30" s="18"/>
       <c r="Z30" s="18"/>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <f t="shared" si="11"/>
         <v>2</v>
@@ -16867,7 +16828,7 @@
       <c r="Y31" s="18"/>
       <c r="Z31" s="18"/>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -16900,7 +16861,7 @@
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <f>COUNTA(D33:Z33)</f>
         <v>1</v>
@@ -16937,7 +16898,7 @@
       <c r="Y33" s="18"/>
       <c r="Z33" s="18"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <f>COUNTA(D34:Z34)</f>
         <v>1</v>
@@ -16974,7 +16935,7 @@
       <c r="Y34" s="18"/>
       <c r="Z34" s="18"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <f>COUNTA(D35:Z35)</f>
         <v>1</v>
@@ -17011,7 +16972,7 @@
       <c r="Y35" s="18"/>
       <c r="Z35" s="18"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <f>COUNTA(D36:Z36)</f>
         <v>2</v>
@@ -17050,7 +17011,7 @@
       <c r="Y36" s="18"/>
       <c r="Z36" s="18"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="20" t="s">
         <v>83</v>
@@ -17149,7 +17110,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <f t="shared" ref="A38:A49" si="14">COUNTA(D38:Z38)</f>
         <v>3</v>
@@ -17190,7 +17151,7 @@
       <c r="Y38" s="18"/>
       <c r="Z38" s="18"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -17229,7 +17190,7 @@
       <c r="Y39" s="18"/>
       <c r="Z39" s="18"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17266,7 +17227,7 @@
       <c r="Y40" s="18"/>
       <c r="Z40" s="18"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17301,7 +17262,7 @@
       <c r="Y41" s="18"/>
       <c r="Z41" s="18"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17336,7 +17297,7 @@
       <c r="Y42" s="18"/>
       <c r="Z42" s="18"/>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17371,7 +17332,7 @@
       <c r="Y43" s="18"/>
       <c r="Z43" s="18"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17406,7 +17367,7 @@
       <c r="Y44" s="18"/>
       <c r="Z44" s="18"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17441,7 +17402,7 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="18"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17478,7 +17439,7 @@
       <c r="Y46" s="18"/>
       <c r="Z46" s="18"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17515,7 +17476,7 @@
       <c r="Y47" s="18"/>
       <c r="Z47" s="18"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="18">
         <f t="shared" si="14"/>
         <v>1</v>
@@ -17552,7 +17513,7 @@
       <c r="Y48" s="18"/>
       <c r="Z48" s="18"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="18">
         <f t="shared" si="14"/>
         <v>2</v>
@@ -17591,7 +17552,7 @@
       <c r="Y49" s="18"/>
       <c r="Z49" s="18"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="20" t="s">
         <v>92</v>
@@ -17690,7 +17651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="18">
         <f t="shared" ref="A51:A114" si="17">COUNTA(D51:Z51)</f>
         <v>2</v>
@@ -17727,7 +17688,7 @@
       <c r="Y51" s="18"/>
       <c r="Z51" s="18"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17764,7 +17725,7 @@
       <c r="Y52" s="18"/>
       <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -17799,7 +17760,7 @@
       <c r="Y53" s="18"/>
       <c r="Z53" s="18"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17836,7 +17797,7 @@
       <c r="Y54" s="18"/>
       <c r="Z54" s="18"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17873,7 +17834,7 @@
       <c r="Y55" s="18"/>
       <c r="Z55" s="18"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -17906,7 +17867,7 @@
       <c r="Y56" s="18"/>
       <c r="Z56" s="18"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17943,7 +17904,7 @@
       <c r="Y57" s="18"/>
       <c r="Z57" s="18"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="18">
         <f t="shared" si="17"/>
         <v>2</v>
@@ -17980,7 +17941,7 @@
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18013,7 +17974,7 @@
       <c r="Y59" s="18"/>
       <c r="Z59" s="18"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18048,7 +18009,7 @@
       <c r="Y60" s="18"/>
       <c r="Z60" s="18"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18083,7 +18044,7 @@
       <c r="Y61" s="18"/>
       <c r="Z61" s="18"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18116,7 +18077,7 @@
       <c r="Y62" s="18"/>
       <c r="Z62" s="18"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18151,7 +18112,7 @@
       <c r="Y63" s="18"/>
       <c r="Z63" s="18"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="18">
         <f t="shared" si="17"/>
         <v>1</v>
@@ -18186,7 +18147,7 @@
       <c r="Y64" s="18"/>
       <c r="Z64" s="18"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18219,7 +18180,7 @@
       <c r="Y65" s="18"/>
       <c r="Z65" s="18"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18252,7 +18213,7 @@
       <c r="Y66" s="18"/>
       <c r="Z66" s="18"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18285,7 +18246,7 @@
       <c r="Y67" s="18"/>
       <c r="Z67" s="18"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18318,7 +18279,7 @@
       <c r="Y68" s="18"/>
       <c r="Z68" s="18"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18351,7 +18312,7 @@
       <c r="Y69" s="18"/>
       <c r="Z69" s="18"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18384,7 +18345,7 @@
       <c r="Y70" s="18"/>
       <c r="Z70" s="18"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18417,7 +18378,7 @@
       <c r="Y71" s="18"/>
       <c r="Z71" s="18"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18450,7 +18411,7 @@
       <c r="Y72" s="18"/>
       <c r="Z72" s="18"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18483,7 +18444,7 @@
       <c r="Y73" s="18"/>
       <c r="Z73" s="18"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18516,7 +18477,7 @@
       <c r="Y74" s="18"/>
       <c r="Z74" s="18"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18549,7 +18510,7 @@
       <c r="Y75" s="18"/>
       <c r="Z75" s="18"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18582,7 +18543,7 @@
       <c r="Y76" s="18"/>
       <c r="Z76" s="18"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18615,7 +18576,7 @@
       <c r="Y77" s="18"/>
       <c r="Z77" s="18"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18648,7 +18609,7 @@
       <c r="Y78" s="18"/>
       <c r="Z78" s="18"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18681,7 +18642,7 @@
       <c r="Y79" s="18"/>
       <c r="Z79" s="18"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18714,7 +18675,7 @@
       <c r="Y80" s="18"/>
       <c r="Z80" s="18"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18747,7 +18708,7 @@
       <c r="Y81" s="18"/>
       <c r="Z81" s="18"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18780,7 +18741,7 @@
       <c r="Y82" s="18"/>
       <c r="Z82" s="18"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18813,7 +18774,7 @@
       <c r="Y83" s="18"/>
       <c r="Z83" s="18"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18846,7 +18807,7 @@
       <c r="Y84" s="18"/>
       <c r="Z84" s="18"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18879,7 +18840,7 @@
       <c r="Y85" s="18"/>
       <c r="Z85" s="18"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18912,7 +18873,7 @@
       <c r="Y86" s="18"/>
       <c r="Z86" s="18"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18945,7 +18906,7 @@
       <c r="Y87" s="18"/>
       <c r="Z87" s="18"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -18978,7 +18939,7 @@
       <c r="Y88" s="18"/>
       <c r="Z88" s="18"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19011,7 +18972,7 @@
       <c r="Y89" s="18"/>
       <c r="Z89" s="18"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19044,7 +19005,7 @@
       <c r="Y90" s="18"/>
       <c r="Z90" s="18"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19077,7 +19038,7 @@
       <c r="Y91" s="18"/>
       <c r="Z91" s="18"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19110,7 +19071,7 @@
       <c r="Y92" s="18"/>
       <c r="Z92" s="18"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19143,7 +19104,7 @@
       <c r="Y93" s="18"/>
       <c r="Z93" s="18"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19176,7 +19137,7 @@
       <c r="Y94" s="18"/>
       <c r="Z94" s="18"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19209,7 +19170,7 @@
       <c r="Y95" s="18"/>
       <c r="Z95" s="18"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19242,7 +19203,7 @@
       <c r="Y96" s="18"/>
       <c r="Z96" s="18"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19275,7 +19236,7 @@
       <c r="Y97" s="18"/>
       <c r="Z97" s="18"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19308,7 +19269,7 @@
       <c r="Y98" s="18"/>
       <c r="Z98" s="18"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19341,7 +19302,7 @@
       <c r="Y99" s="18"/>
       <c r="Z99" s="18"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19374,7 +19335,7 @@
       <c r="Y100" s="18"/>
       <c r="Z100" s="18"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19407,7 +19368,7 @@
       <c r="Y101" s="18"/>
       <c r="Z101" s="18"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19440,7 +19401,7 @@
       <c r="Y102" s="18"/>
       <c r="Z102" s="18"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19473,7 +19434,7 @@
       <c r="Y103" s="18"/>
       <c r="Z103" s="18"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19506,7 +19467,7 @@
       <c r="Y104" s="18"/>
       <c r="Z104" s="18"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19539,7 +19500,7 @@
       <c r="Y105" s="18"/>
       <c r="Z105" s="18"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19572,7 +19533,7 @@
       <c r="Y106" s="18"/>
       <c r="Z106" s="18"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19605,7 +19566,7 @@
       <c r="Y107" s="18"/>
       <c r="Z107" s="18"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19638,7 +19599,7 @@
       <c r="Y108" s="18"/>
       <c r="Z108" s="18"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19671,7 +19632,7 @@
       <c r="Y109" s="18"/>
       <c r="Z109" s="18"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19704,7 +19665,7 @@
       <c r="Y110" s="18"/>
       <c r="Z110" s="18"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19737,7 +19698,7 @@
       <c r="Y111" s="18"/>
       <c r="Z111" s="18"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19770,7 +19731,7 @@
       <c r="Y112" s="18"/>
       <c r="Z112" s="18"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19803,7 +19764,7 @@
       <c r="Y113" s="18"/>
       <c r="Z113" s="18"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A114" s="18">
         <f t="shared" si="17"/>
         <v>0</v>
@@ -19836,7 +19797,7 @@
       <c r="Y114" s="18"/>
       <c r="Z114" s="18"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A115" s="18">
         <f t="shared" ref="A115:A131" si="18">COUNTA(D115:Z115)</f>
         <v>0</v>
@@ -19869,7 +19830,7 @@
       <c r="Y115" s="18"/>
       <c r="Z115" s="18"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A116" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19902,7 +19863,7 @@
       <c r="Y116" s="18"/>
       <c r="Z116" s="18"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19935,7 +19896,7 @@
       <c r="Y117" s="18"/>
       <c r="Z117" s="18"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A118" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -19968,7 +19929,7 @@
       <c r="Y118" s="18"/>
       <c r="Z118" s="18"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20001,7 +19962,7 @@
       <c r="Y119" s="18"/>
       <c r="Z119" s="18"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A120" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20034,7 +19995,7 @@
       <c r="Y120" s="18"/>
       <c r="Z120" s="18"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A121" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20067,7 +20028,7 @@
       <c r="Y121" s="18"/>
       <c r="Z121" s="18"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A122" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20100,7 +20061,7 @@
       <c r="Y122" s="18"/>
       <c r="Z122" s="18"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20133,7 +20094,7 @@
       <c r="Y123" s="18"/>
       <c r="Z123" s="18"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20166,7 +20127,7 @@
       <c r="Y124" s="18"/>
       <c r="Z124" s="18"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20199,7 +20160,7 @@
       <c r="Y125" s="18"/>
       <c r="Z125" s="18"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20232,7 +20193,7 @@
       <c r="Y126" s="18"/>
       <c r="Z126" s="18"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A127" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20265,7 +20226,7 @@
       <c r="Y127" s="18"/>
       <c r="Z127" s="18"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20298,7 +20259,7 @@
       <c r="Y128" s="18"/>
       <c r="Z128" s="18"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A129" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20331,7 +20292,7 @@
       <c r="Y129" s="18"/>
       <c r="Z129" s="18"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A130" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20364,7 +20325,7 @@
       <c r="Y130" s="18"/>
       <c r="Z130" s="18"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="18">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -20397,7 +20358,7 @@
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="20" t="s">
         <v>581</v>
@@ -20496,7 +20457,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A133" s="18">
         <f t="shared" ref="A133:A196" si="20">COUNTA(D133:Z133)</f>
         <v>0</v>
@@ -20529,7 +20490,7 @@
       <c r="Y133" s="18"/>
       <c r="Z133" s="18"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A134" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20562,7 +20523,7 @@
       <c r="Y134" s="18"/>
       <c r="Z134" s="18"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20595,7 +20556,7 @@
       <c r="Y135" s="18"/>
       <c r="Z135" s="18"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A136" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20628,7 +20589,7 @@
       <c r="Y136" s="18"/>
       <c r="Z136" s="18"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A137" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20661,7 +20622,7 @@
       <c r="Y137" s="18"/>
       <c r="Z137" s="18"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20694,7 +20655,7 @@
       <c r="Y138" s="18"/>
       <c r="Z138" s="18"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A139" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20727,7 +20688,7 @@
       <c r="Y139" s="18"/>
       <c r="Z139" s="18"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A140" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20760,7 +20721,7 @@
       <c r="Y140" s="18"/>
       <c r="Z140" s="18"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A141" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20792,7 +20753,7 @@
       <c r="Y141" s="18"/>
       <c r="Z141" s="18"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20825,7 +20786,7 @@
       <c r="Y142" s="18"/>
       <c r="Z142" s="18"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A143" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20858,7 +20819,7 @@
       <c r="Y143" s="18"/>
       <c r="Z143" s="18"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A144" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20891,7 +20852,7 @@
       <c r="Y144" s="18"/>
       <c r="Z144" s="18"/>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A145" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20924,7 +20885,7 @@
       <c r="Y145" s="18"/>
       <c r="Z145" s="18"/>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A146" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20957,7 +20918,7 @@
       <c r="Y146" s="18"/>
       <c r="Z146" s="18"/>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A147" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -20990,7 +20951,7 @@
       <c r="Y147" s="18"/>
       <c r="Z147" s="18"/>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A148" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21023,7 +20984,7 @@
       <c r="Y148" s="18"/>
       <c r="Z148" s="18"/>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A149" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21056,7 +21017,7 @@
       <c r="Y149" s="18"/>
       <c r="Z149" s="18"/>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A150" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21089,7 +21050,7 @@
       <c r="Y150" s="18"/>
       <c r="Z150" s="18"/>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A151" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21122,7 +21083,7 @@
       <c r="Y151" s="18"/>
       <c r="Z151" s="18"/>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A152" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21155,7 +21116,7 @@
       <c r="Y152" s="18"/>
       <c r="Z152" s="18"/>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A153" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21188,7 +21149,7 @@
       <c r="Y153" s="18"/>
       <c r="Z153" s="18"/>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A154" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21221,7 +21182,7 @@
       <c r="Y154" s="18"/>
       <c r="Z154" s="18"/>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A155" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21254,7 +21215,7 @@
       <c r="Y155" s="18"/>
       <c r="Z155" s="18"/>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A156" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21287,7 +21248,7 @@
       <c r="Y156" s="18"/>
       <c r="Z156" s="18"/>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A157" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21320,7 +21281,7 @@
       <c r="Y157" s="18"/>
       <c r="Z157" s="18"/>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A158" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21353,7 +21314,7 @@
       <c r="Y158" s="18"/>
       <c r="Z158" s="18"/>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A159" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21386,7 +21347,7 @@
       <c r="Y159" s="18"/>
       <c r="Z159" s="18"/>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A160" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21419,7 +21380,7 @@
       <c r="Y160" s="18"/>
       <c r="Z160" s="18"/>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A161" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21452,7 +21413,7 @@
       <c r="Y161" s="18"/>
       <c r="Z161" s="18"/>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A162" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21485,7 +21446,7 @@
       <c r="Y162" s="18"/>
       <c r="Z162" s="18"/>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A163" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21518,7 +21479,7 @@
       <c r="Y163" s="18"/>
       <c r="Z163" s="18"/>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A164" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21551,7 +21512,7 @@
       <c r="Y164" s="18"/>
       <c r="Z164" s="18"/>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A165" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21584,7 +21545,7 @@
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A166" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21619,7 +21580,7 @@
       <c r="Y166" s="18"/>
       <c r="Z166" s="18"/>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A167" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21652,7 +21613,7 @@
       <c r="Y167" s="18"/>
       <c r="Z167" s="18"/>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A168" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21685,7 +21646,7 @@
       <c r="Y168" s="18"/>
       <c r="Z168" s="18"/>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A169" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21718,7 +21679,7 @@
       <c r="Y169" s="18"/>
       <c r="Z169" s="18"/>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A170" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21752,7 +21713,7 @@
       <c r="Y170" s="18"/>
       <c r="Z170" s="18"/>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A171" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21785,7 +21746,7 @@
       <c r="Y171" s="18"/>
       <c r="Z171" s="18"/>
     </row>
-    <row r="172" spans="1:26">
+    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A172" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21818,7 +21779,7 @@
       <c r="Y172" s="18"/>
       <c r="Z172" s="18"/>
     </row>
-    <row r="173" spans="1:26">
+    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A173" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21851,7 +21812,7 @@
       <c r="Y173" s="18"/>
       <c r="Z173" s="18"/>
     </row>
-    <row r="174" spans="1:26">
+    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A174" s="18">
         <f t="shared" si="20"/>
         <v>1</v>
@@ -21886,7 +21847,7 @@
       <c r="Y174" s="18"/>
       <c r="Z174" s="18"/>
     </row>
-    <row r="175" spans="1:26">
+    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A175" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21919,7 +21880,7 @@
       <c r="Y175" s="18"/>
       <c r="Z175" s="18"/>
     </row>
-    <row r="176" spans="1:26">
+    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A176" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21952,7 +21913,7 @@
       <c r="Y176" s="18"/>
       <c r="Z176" s="18"/>
     </row>
-    <row r="177" spans="1:26">
+    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A177" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -21985,7 +21946,7 @@
       <c r="Y177" s="18"/>
       <c r="Z177" s="18"/>
     </row>
-    <row r="178" spans="1:26">
+    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A178" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22018,7 +21979,7 @@
       <c r="Y178" s="18"/>
       <c r="Z178" s="18"/>
     </row>
-    <row r="179" spans="1:26">
+    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A179" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22051,7 +22012,7 @@
       <c r="Y179" s="18"/>
       <c r="Z179" s="18"/>
     </row>
-    <row r="180" spans="1:26">
+    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A180" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22084,7 +22045,7 @@
       <c r="Y180" s="18"/>
       <c r="Z180" s="18"/>
     </row>
-    <row r="181" spans="1:26">
+    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A181" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22117,7 +22078,7 @@
       <c r="Y181" s="18"/>
       <c r="Z181" s="18"/>
     </row>
-    <row r="182" spans="1:26">
+    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A182" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22150,7 +22111,7 @@
       <c r="Y182" s="18"/>
       <c r="Z182" s="18"/>
     </row>
-    <row r="183" spans="1:26">
+    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A183" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22183,7 +22144,7 @@
       <c r="Y183" s="18"/>
       <c r="Z183" s="18"/>
     </row>
-    <row r="184" spans="1:26">
+    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A184" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22216,7 +22177,7 @@
       <c r="Y184" s="18"/>
       <c r="Z184" s="18"/>
     </row>
-    <row r="185" spans="1:26">
+    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A185" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22249,7 +22210,7 @@
       <c r="Y185" s="18"/>
       <c r="Z185" s="18"/>
     </row>
-    <row r="186" spans="1:26">
+    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A186" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22282,7 +22243,7 @@
       <c r="Y186" s="18"/>
       <c r="Z186" s="18"/>
     </row>
-    <row r="187" spans="1:26">
+    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A187" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22315,7 +22276,7 @@
       <c r="Y187" s="18"/>
       <c r="Z187" s="18"/>
     </row>
-    <row r="188" spans="1:26">
+    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A188" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22348,7 +22309,7 @@
       <c r="Y188" s="18"/>
       <c r="Z188" s="18"/>
     </row>
-    <row r="189" spans="1:26">
+    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A189" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22381,7 +22342,7 @@
       <c r="Y189" s="18"/>
       <c r="Z189" s="18"/>
     </row>
-    <row r="190" spans="1:26">
+    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A190" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22414,7 +22375,7 @@
       <c r="Y190" s="18"/>
       <c r="Z190" s="18"/>
     </row>
-    <row r="191" spans="1:26">
+    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A191" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22447,7 +22408,7 @@
       <c r="Y191" s="18"/>
       <c r="Z191" s="18"/>
     </row>
-    <row r="192" spans="1:26">
+    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A192" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22480,7 +22441,7 @@
       <c r="Y192" s="18"/>
       <c r="Z192" s="18"/>
     </row>
-    <row r="193" spans="1:26">
+    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A193" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22513,7 +22474,7 @@
       <c r="Y193" s="18"/>
       <c r="Z193" s="18"/>
     </row>
-    <row r="194" spans="1:26">
+    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A194" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22546,7 +22507,7 @@
       <c r="Y194" s="18"/>
       <c r="Z194" s="18"/>
     </row>
-    <row r="195" spans="1:26">
+    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A195" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22579,7 +22540,7 @@
       <c r="Y195" s="18"/>
       <c r="Z195" s="18"/>
     </row>
-    <row r="196" spans="1:26">
+    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A196" s="18">
         <f t="shared" si="20"/>
         <v>0</v>
@@ -22612,7 +22573,7 @@
       <c r="Y196" s="18"/>
       <c r="Z196" s="18"/>
     </row>
-    <row r="197" spans="1:26">
+    <row r="197" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A197" s="18">
         <f t="shared" ref="A197:A213" si="21">COUNTA(D197:Z197)</f>
         <v>0</v>
@@ -22645,7 +22606,7 @@
       <c r="Y197" s="18"/>
       <c r="Z197" s="18"/>
     </row>
-    <row r="198" spans="1:26">
+    <row r="198" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A198" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22678,7 +22639,7 @@
       <c r="Y198" s="18"/>
       <c r="Z198" s="18"/>
     </row>
-    <row r="199" spans="1:26">
+    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A199" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22710,7 +22671,7 @@
       <c r="Y199" s="18"/>
       <c r="Z199" s="18"/>
     </row>
-    <row r="200" spans="1:26">
+    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A200" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22743,7 +22704,7 @@
       <c r="Y200" s="18"/>
       <c r="Z200" s="18"/>
     </row>
-    <row r="201" spans="1:26">
+    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A201" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22776,7 +22737,7 @@
       <c r="Y201" s="18"/>
       <c r="Z201" s="18"/>
     </row>
-    <row r="202" spans="1:26">
+    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A202" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22809,7 +22770,7 @@
       <c r="Y202" s="18"/>
       <c r="Z202" s="18"/>
     </row>
-    <row r="203" spans="1:26">
+    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A203" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22842,7 +22803,7 @@
       <c r="Y203" s="18"/>
       <c r="Z203" s="18"/>
     </row>
-    <row r="204" spans="1:26">
+    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A204" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22875,7 +22836,7 @@
       <c r="Y204" s="18"/>
       <c r="Z204" s="18"/>
     </row>
-    <row r="205" spans="1:26">
+    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A205" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22908,7 +22869,7 @@
       <c r="Y205" s="18"/>
       <c r="Z205" s="18"/>
     </row>
-    <row r="206" spans="1:26">
+    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A206" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22941,7 +22902,7 @@
       <c r="Y206" s="18"/>
       <c r="Z206" s="18"/>
     </row>
-    <row r="207" spans="1:26">
+    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A207" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -22974,7 +22935,7 @@
       <c r="Y207" s="18"/>
       <c r="Z207" s="18"/>
     </row>
-    <row r="208" spans="1:26">
+    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A208" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23007,7 +22968,7 @@
       <c r="Y208" s="18"/>
       <c r="Z208" s="18"/>
     </row>
-    <row r="209" spans="1:26">
+    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A209" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23040,7 +23001,7 @@
       <c r="Y209" s="18"/>
       <c r="Z209" s="18"/>
     </row>
-    <row r="210" spans="1:26">
+    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A210" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23073,7 +23034,7 @@
       <c r="Y210" s="18"/>
       <c r="Z210" s="18"/>
     </row>
-    <row r="211" spans="1:26">
+    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A211" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23106,7 +23067,7 @@
       <c r="Y211" s="18"/>
       <c r="Z211" s="18"/>
     </row>
-    <row r="212" spans="1:26">
+    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A212" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23139,7 +23100,7 @@
       <c r="Y212" s="18"/>
       <c r="Z212" s="18"/>
     </row>
-    <row r="213" spans="1:26">
+    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A213" s="18">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -23172,7 +23133,7 @@
       <c r="Y213" s="18"/>
       <c r="Z213" s="18"/>
     </row>
-    <row r="214" spans="1:26">
+    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A214" s="13"/>
       <c r="B214" s="20" t="s">
         <v>582</v>
@@ -23271,7 +23232,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="215" spans="1:26">
+    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A215" s="18">
         <f t="shared" ref="A215:A278" si="24">COUNTA(D215:Z215)</f>
         <v>0</v>
@@ -23304,7 +23265,7 @@
       <c r="Y215" s="18"/>
       <c r="Z215" s="18"/>
     </row>
-    <row r="216" spans="1:26">
+    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A216" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23337,7 +23298,7 @@
       <c r="Y216" s="18"/>
       <c r="Z216" s="18"/>
     </row>
-    <row r="217" spans="1:26">
+    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A217" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23370,7 +23331,7 @@
       <c r="Y217" s="18"/>
       <c r="Z217" s="18"/>
     </row>
-    <row r="218" spans="1:26">
+    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A218" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23403,7 +23364,7 @@
       <c r="Y218" s="18"/>
       <c r="Z218" s="18"/>
     </row>
-    <row r="219" spans="1:26">
+    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A219" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23436,7 +23397,7 @@
       <c r="Y219" s="18"/>
       <c r="Z219" s="18"/>
     </row>
-    <row r="220" spans="1:26">
+    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A220" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23469,7 +23430,7 @@
       <c r="Y220" s="18"/>
       <c r="Z220" s="18"/>
     </row>
-    <row r="221" spans="1:26">
+    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A221" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23502,7 +23463,7 @@
       <c r="Y221" s="18"/>
       <c r="Z221" s="18"/>
     </row>
-    <row r="222" spans="1:26">
+    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A222" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23535,7 +23496,7 @@
       <c r="Y222" s="18"/>
       <c r="Z222" s="18"/>
     </row>
-    <row r="223" spans="1:26">
+    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A223" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23568,7 +23529,7 @@
       <c r="Y223" s="18"/>
       <c r="Z223" s="18"/>
     </row>
-    <row r="224" spans="1:26">
+    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A224" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23601,7 +23562,7 @@
       <c r="Y224" s="18"/>
       <c r="Z224" s="18"/>
     </row>
-    <row r="225" spans="1:26">
+    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A225" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23634,7 +23595,7 @@
       <c r="Y225" s="18"/>
       <c r="Z225" s="18"/>
     </row>
-    <row r="226" spans="1:26">
+    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A226" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23667,7 +23628,7 @@
       <c r="Y226" s="18"/>
       <c r="Z226" s="18"/>
     </row>
-    <row r="227" spans="1:26">
+    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A227" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23700,7 +23661,7 @@
       <c r="Y227" s="18"/>
       <c r="Z227" s="18"/>
     </row>
-    <row r="228" spans="1:26">
+    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A228" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23733,7 +23694,7 @@
       <c r="Y228" s="18"/>
       <c r="Z228" s="18"/>
     </row>
-    <row r="229" spans="1:26">
+    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A229" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23766,7 +23727,7 @@
       <c r="Y229" s="18"/>
       <c r="Z229" s="18"/>
     </row>
-    <row r="230" spans="1:26">
+    <row r="230" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A230" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23799,7 +23760,7 @@
       <c r="Y230" s="18"/>
       <c r="Z230" s="18"/>
     </row>
-    <row r="231" spans="1:26">
+    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A231" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23832,7 +23793,7 @@
       <c r="Y231" s="18"/>
       <c r="Z231" s="18"/>
     </row>
-    <row r="232" spans="1:26">
+    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A232" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23865,7 +23826,7 @@
       <c r="Y232" s="18"/>
       <c r="Z232" s="18"/>
     </row>
-    <row r="233" spans="1:26">
+    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A233" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23898,7 +23859,7 @@
       <c r="Y233" s="18"/>
       <c r="Z233" s="18"/>
     </row>
-    <row r="234" spans="1:26">
+    <row r="234" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A234" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23931,7 +23892,7 @@
       <c r="Y234" s="18"/>
       <c r="Z234" s="18"/>
     </row>
-    <row r="235" spans="1:26">
+    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A235" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23964,7 +23925,7 @@
       <c r="Y235" s="18"/>
       <c r="Z235" s="18"/>
     </row>
-    <row r="236" spans="1:26">
+    <row r="236" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A236" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -23997,7 +23958,7 @@
       <c r="Y236" s="18"/>
       <c r="Z236" s="18"/>
     </row>
-    <row r="237" spans="1:26">
+    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A237" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24030,7 +23991,7 @@
       <c r="Y237" s="18"/>
       <c r="Z237" s="18"/>
     </row>
-    <row r="238" spans="1:26">
+    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A238" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24063,7 +24024,7 @@
       <c r="Y238" s="18"/>
       <c r="Z238" s="18"/>
     </row>
-    <row r="239" spans="1:26">
+    <row r="239" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A239" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24096,7 +24057,7 @@
       <c r="Y239" s="18"/>
       <c r="Z239" s="18"/>
     </row>
-    <row r="240" spans="1:26">
+    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A240" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24129,7 +24090,7 @@
       <c r="Y240" s="18"/>
       <c r="Z240" s="18"/>
     </row>
-    <row r="241" spans="1:26">
+    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A241" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24162,7 +24123,7 @@
       <c r="Y241" s="18"/>
       <c r="Z241" s="18"/>
     </row>
-    <row r="242" spans="1:26">
+    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A242" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24195,7 +24156,7 @@
       <c r="Y242" s="18"/>
       <c r="Z242" s="18"/>
     </row>
-    <row r="243" spans="1:26">
+    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A243" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24228,7 +24189,7 @@
       <c r="Y243" s="18"/>
       <c r="Z243" s="18"/>
     </row>
-    <row r="244" spans="1:26">
+    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A244" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24261,7 +24222,7 @@
       <c r="Y244" s="18"/>
       <c r="Z244" s="18"/>
     </row>
-    <row r="245" spans="1:26">
+    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A245" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24294,7 +24255,7 @@
       <c r="Y245" s="18"/>
       <c r="Z245" s="18"/>
     </row>
-    <row r="246" spans="1:26">
+    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A246" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24327,7 +24288,7 @@
       <c r="Y246" s="18"/>
       <c r="Z246" s="18"/>
     </row>
-    <row r="247" spans="1:26">
+    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A247" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24360,7 +24321,7 @@
       <c r="Y247" s="18"/>
       <c r="Z247" s="18"/>
     </row>
-    <row r="248" spans="1:26">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24393,7 +24354,7 @@
       <c r="Y248" s="18"/>
       <c r="Z248" s="18"/>
     </row>
-    <row r="249" spans="1:26">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24426,7 +24387,7 @@
       <c r="Y249" s="18"/>
       <c r="Z249" s="18"/>
     </row>
-    <row r="250" spans="1:26">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24459,7 +24420,7 @@
       <c r="Y250" s="18"/>
       <c r="Z250" s="18"/>
     </row>
-    <row r="251" spans="1:26">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A251" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24492,7 +24453,7 @@
       <c r="Y251" s="18"/>
       <c r="Z251" s="18"/>
     </row>
-    <row r="252" spans="1:26">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A252" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24525,7 +24486,7 @@
       <c r="Y252" s="18"/>
       <c r="Z252" s="18"/>
     </row>
-    <row r="253" spans="1:26">
+    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A253" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24558,7 +24519,7 @@
       <c r="Y253" s="18"/>
       <c r="Z253" s="18"/>
     </row>
-    <row r="254" spans="1:26">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A254" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24591,7 +24552,7 @@
       <c r="Y254" s="18"/>
       <c r="Z254" s="18"/>
     </row>
-    <row r="255" spans="1:26">
+    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A255" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24624,7 +24585,7 @@
       <c r="Y255" s="18"/>
       <c r="Z255" s="18"/>
     </row>
-    <row r="256" spans="1:26">
+    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A256" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24657,7 +24618,7 @@
       <c r="Y256" s="18"/>
       <c r="Z256" s="18"/>
     </row>
-    <row r="257" spans="1:26">
+    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A257" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24690,7 +24651,7 @@
       <c r="Y257" s="18"/>
       <c r="Z257" s="18"/>
     </row>
-    <row r="258" spans="1:26">
+    <row r="258" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A258" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24723,7 +24684,7 @@
       <c r="Y258" s="18"/>
       <c r="Z258" s="18"/>
     </row>
-    <row r="259" spans="1:26">
+    <row r="259" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A259" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24756,7 +24717,7 @@
       <c r="Y259" s="18"/>
       <c r="Z259" s="18"/>
     </row>
-    <row r="260" spans="1:26">
+    <row r="260" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A260" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24789,7 +24750,7 @@
       <c r="Y260" s="18"/>
       <c r="Z260" s="18"/>
     </row>
-    <row r="261" spans="1:26">
+    <row r="261" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A261" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24822,7 +24783,7 @@
       <c r="Y261" s="18"/>
       <c r="Z261" s="18"/>
     </row>
-    <row r="262" spans="1:26">
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A262" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24855,7 +24816,7 @@
       <c r="Y262" s="18"/>
       <c r="Z262" s="18"/>
     </row>
-    <row r="263" spans="1:26">
+    <row r="263" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A263" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24888,7 +24849,7 @@
       <c r="Y263" s="18"/>
       <c r="Z263" s="18"/>
     </row>
-    <row r="264" spans="1:26">
+    <row r="264" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A264" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24921,7 +24882,7 @@
       <c r="Y264" s="18"/>
       <c r="Z264" s="18"/>
     </row>
-    <row r="265" spans="1:26">
+    <row r="265" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A265" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24954,7 +24915,7 @@
       <c r="Y265" s="18"/>
       <c r="Z265" s="18"/>
     </row>
-    <row r="266" spans="1:26">
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A266" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -24987,7 +24948,7 @@
       <c r="Y266" s="18"/>
       <c r="Z266" s="18"/>
     </row>
-    <row r="267" spans="1:26">
+    <row r="267" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A267" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25020,7 +24981,7 @@
       <c r="Y267" s="18"/>
       <c r="Z267" s="18"/>
     </row>
-    <row r="268" spans="1:26">
+    <row r="268" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A268" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25053,7 +25014,7 @@
       <c r="Y268" s="18"/>
       <c r="Z268" s="18"/>
     </row>
-    <row r="269" spans="1:26">
+    <row r="269" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A269" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25088,7 +25049,7 @@
       <c r="Y269" s="18"/>
       <c r="Z269" s="18"/>
     </row>
-    <row r="270" spans="1:26">
+    <row r="270" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A270" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25121,7 +25082,7 @@
       <c r="Y270" s="18"/>
       <c r="Z270" s="18"/>
     </row>
-    <row r="271" spans="1:26">
+    <row r="271" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A271" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25154,7 +25115,7 @@
       <c r="Y271" s="18"/>
       <c r="Z271" s="18"/>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A272" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25187,7 +25148,7 @@
       <c r="Y272" s="18"/>
       <c r="Z272" s="18"/>
     </row>
-    <row r="273" spans="1:26">
+    <row r="273" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A273" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25222,7 +25183,7 @@
       <c r="Y273" s="18"/>
       <c r="Z273" s="18"/>
     </row>
-    <row r="274" spans="1:26">
+    <row r="274" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A274" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25255,7 +25216,7 @@
       <c r="Y274" s="18"/>
       <c r="Z274" s="18"/>
     </row>
-    <row r="275" spans="1:26">
+    <row r="275" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A275" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25288,7 +25249,7 @@
       <c r="Y275" s="18"/>
       <c r="Z275" s="18"/>
     </row>
-    <row r="276" spans="1:26">
+    <row r="276" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A276" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25321,7 +25282,7 @@
       <c r="Y276" s="18"/>
       <c r="Z276" s="18"/>
     </row>
-    <row r="277" spans="1:26">
+    <row r="277" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A277" s="18">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -25356,7 +25317,7 @@
       <c r="Y277" s="18"/>
       <c r="Z277" s="18"/>
     </row>
-    <row r="278" spans="1:26">
+    <row r="278" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A278" s="18">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -25389,7 +25350,7 @@
       <c r="Y278" s="18"/>
       <c r="Z278" s="18"/>
     </row>
-    <row r="279" spans="1:26">
+    <row r="279" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A279" s="18">
         <f t="shared" ref="A279:A295" si="25">COUNTA(D279:Z279)</f>
         <v>0</v>
@@ -25422,7 +25383,7 @@
       <c r="Y279" s="18"/>
       <c r="Z279" s="18"/>
     </row>
-    <row r="280" spans="1:26">
+    <row r="280" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A280" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25455,7 +25416,7 @@
       <c r="Y280" s="18"/>
       <c r="Z280" s="18"/>
     </row>
-    <row r="281" spans="1:26">
+    <row r="281" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A281" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25488,7 +25449,7 @@
       <c r="Y281" s="18"/>
       <c r="Z281" s="18"/>
     </row>
-    <row r="282" spans="1:26">
+    <row r="282" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A282" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25521,7 +25482,7 @@
       <c r="Y282" s="18"/>
       <c r="Z282" s="18"/>
     </row>
-    <row r="283" spans="1:26">
+    <row r="283" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A283" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25554,7 +25515,7 @@
       <c r="Y283" s="18"/>
       <c r="Z283" s="18"/>
     </row>
-    <row r="284" spans="1:26">
+    <row r="284" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A284" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25587,7 +25548,7 @@
       <c r="Y284" s="18"/>
       <c r="Z284" s="18"/>
     </row>
-    <row r="285" spans="1:26">
+    <row r="285" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A285" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25620,7 +25581,7 @@
       <c r="Y285" s="18"/>
       <c r="Z285" s="18"/>
     </row>
-    <row r="286" spans="1:26">
+    <row r="286" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A286" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25653,7 +25614,7 @@
       <c r="Y286" s="18"/>
       <c r="Z286" s="18"/>
     </row>
-    <row r="287" spans="1:26">
+    <row r="287" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A287" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25686,7 +25647,7 @@
       <c r="Y287" s="18"/>
       <c r="Z287" s="18"/>
     </row>
-    <row r="288" spans="1:26">
+    <row r="288" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A288" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25719,7 +25680,7 @@
       <c r="Y288" s="18"/>
       <c r="Z288" s="18"/>
     </row>
-    <row r="289" spans="1:26">
+    <row r="289" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25752,7 +25713,7 @@
       <c r="Y289" s="18"/>
       <c r="Z289" s="18"/>
     </row>
-    <row r="290" spans="1:26">
+    <row r="290" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25785,7 +25746,7 @@
       <c r="Y290" s="18"/>
       <c r="Z290" s="18"/>
     </row>
-    <row r="291" spans="1:26">
+    <row r="291" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A291" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25818,7 +25779,7 @@
       <c r="Y291" s="18"/>
       <c r="Z291" s="18"/>
     </row>
-    <row r="292" spans="1:26">
+    <row r="292" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25851,7 +25812,7 @@
       <c r="Y292" s="18"/>
       <c r="Z292" s="18"/>
     </row>
-    <row r="293" spans="1:26">
+    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A293" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25884,7 +25845,7 @@
       <c r="Y293" s="18"/>
       <c r="Z293" s="18"/>
     </row>
-    <row r="294" spans="1:26">
+    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A294" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25917,7 +25878,7 @@
       <c r="Y294" s="18"/>
       <c r="Z294" s="18"/>
     </row>
-    <row r="295" spans="1:26">
+    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <f t="shared" si="25"/>
         <v>0</v>
@@ -25950,7 +25911,7 @@
       <c r="Y295" s="18"/>
       <c r="Z295" s="18"/>
     </row>
-    <row r="296" spans="1:26">
+    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
       <c r="B296" s="20" t="s">
         <v>108</v>
@@ -26049,7 +26010,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="297" spans="1:26">
+    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <f>COUNTA(D297:Z297)</f>
         <v>1</v>
@@ -26086,7 +26047,7 @@
       <c r="Y297" s="18"/>
       <c r="Z297" s="18"/>
     </row>
-    <row r="298" spans="1:26">
+    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <f>COUNTA(D298:Z298)</f>
         <v>1</v>
@@ -26123,7 +26084,7 @@
       <c r="Y298" s="18"/>
       <c r="Z298" s="18"/>
     </row>
-    <row r="299" spans="1:26">
+    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <f>COUNTA(D299:Z299)</f>
         <v>1</v>
@@ -26160,7 +26121,7 @@
       <c r="Y299" s="18"/>
       <c r="Z299" s="18"/>
     </row>
-    <row r="300" spans="1:26">
+    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="20" t="s">
         <v>110</v>
@@ -26259,7 +26220,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="301" spans="1:26">
+    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <f>COUNTA(D301:Z301)</f>
         <v>3</v>
@@ -26300,7 +26261,7 @@
       <c r="Y301" s="18"/>
       <c r="Z301" s="18"/>
     </row>
-    <row r="302" spans="1:26">
+    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <f>COUNTA(D302:Z302)</f>
         <v>1</v>
@@ -26337,7 +26298,7 @@
       <c r="Y302" s="18"/>
       <c r="Z302" s="18"/>
     </row>
-    <row r="303" spans="1:26">
+    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A303" s="18">
         <f>COUNTA(D303:Z303)</f>
         <v>1</v>
@@ -26374,7 +26335,7 @@
       <c r="Y303" s="18"/>
       <c r="Z303" s="18"/>
     </row>
-    <row r="304" spans="1:26">
+    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A304" s="13"/>
       <c r="B304" s="20" t="s">
         <v>117</v>
@@ -26473,7 +26434,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="305" spans="1:26">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A305" s="18">
         <f t="shared" ref="A305:A313" si="31">COUNTA(D305:Z305)</f>
         <v>3</v>
@@ -26512,7 +26473,7 @@
       <c r="Y305" s="18"/>
       <c r="Z305" s="18"/>
     </row>
-    <row r="306" spans="1:26">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A306" s="18">
         <f t="shared" si="31"/>
         <v>7</v>
@@ -26561,7 +26522,7 @@
       <c r="Y306" s="18"/>
       <c r="Z306" s="18"/>
     </row>
-    <row r="307" spans="1:26">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A307" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26600,7 +26561,7 @@
       <c r="Y307" s="18"/>
       <c r="Z307" s="18"/>
     </row>
-    <row r="308" spans="1:26">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A308" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26639,7 +26600,7 @@
       <c r="Y308" s="18"/>
       <c r="Z308" s="18"/>
     </row>
-    <row r="309" spans="1:26">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A309" s="18">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -26680,7 +26641,7 @@
       <c r="Y309" s="18"/>
       <c r="Z309" s="18"/>
     </row>
-    <row r="310" spans="1:26">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A310" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26719,7 +26680,7 @@
       <c r="Y310" s="18"/>
       <c r="Z310" s="18"/>
     </row>
-    <row r="311" spans="1:26">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A311" s="18">
         <f t="shared" si="31"/>
         <v>3</v>
@@ -26758,7 +26719,7 @@
       <c r="Y311" s="18"/>
       <c r="Z311" s="18"/>
     </row>
-    <row r="312" spans="1:26">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A312" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26795,7 +26756,7 @@
       <c r="Y312" s="18"/>
       <c r="Z312" s="18"/>
     </row>
-    <row r="313" spans="1:26">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A313" s="18">
         <f t="shared" si="31"/>
         <v>2</v>
@@ -26834,7 +26795,7 @@
       <c r="Y313" s="18"/>
       <c r="Z313" s="18"/>
     </row>
-    <row r="314" spans="1:26">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A314" s="13"/>
       <c r="B314" s="20" t="s">
         <v>342</v>
@@ -26933,7 +26894,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="315" spans="1:26">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A315" s="18">
         <f t="shared" ref="A315:A326" si="33">COUNTA(D315:Z315)</f>
         <v>0</v>
@@ -26966,7 +26927,7 @@
       <c r="Y315" s="18"/>
       <c r="Z315" s="18"/>
     </row>
-    <row r="316" spans="1:26">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A316" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -26999,7 +26960,7 @@
       <c r="Y316" s="18"/>
       <c r="Z316" s="18"/>
     </row>
-    <row r="317" spans="1:26">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A317" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27032,7 +26993,7 @@
       <c r="Y317" s="18"/>
       <c r="Z317" s="18"/>
     </row>
-    <row r="318" spans="1:26">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A318" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27065,7 +27026,7 @@
       <c r="Y318" s="18"/>
       <c r="Z318" s="18"/>
     </row>
-    <row r="319" spans="1:26">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A319" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27098,7 +27059,7 @@
       <c r="Y319" s="18"/>
       <c r="Z319" s="18"/>
     </row>
-    <row r="320" spans="1:26">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A320" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27131,7 +27092,7 @@
       <c r="Y320" s="18"/>
       <c r="Z320" s="18"/>
     </row>
-    <row r="321" spans="1:26">
+    <row r="321" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A321" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27164,7 +27125,7 @@
       <c r="Y321" s="18"/>
       <c r="Z321" s="18"/>
     </row>
-    <row r="322" spans="1:26">
+    <row r="322" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A322" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27197,7 +27158,7 @@
       <c r="Y322" s="18"/>
       <c r="Z322" s="18"/>
     </row>
-    <row r="323" spans="1:26">
+    <row r="323" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A323" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27230,7 +27191,7 @@
       <c r="Y323" s="18"/>
       <c r="Z323" s="18"/>
     </row>
-    <row r="324" spans="1:26">
+    <row r="324" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A324" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27263,7 +27224,7 @@
       <c r="Y324" s="18"/>
       <c r="Z324" s="18"/>
     </row>
-    <row r="325" spans="1:26">
+    <row r="325" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A325" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27296,7 +27257,7 @@
       <c r="Y325" s="18"/>
       <c r="Z325" s="18"/>
     </row>
-    <row r="326" spans="1:26">
+    <row r="326" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A326" s="18">
         <f t="shared" si="33"/>
         <v>0</v>
@@ -27329,7 +27290,7 @@
       <c r="Y326" s="18"/>
       <c r="Z326" s="18"/>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A327" s="13"/>
       <c r="B327" s="20" t="s">
         <v>311</v>
@@ -27428,7 +27389,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="328" spans="1:26">
+    <row r="328" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A328" s="18">
         <f>COUNTA(D328:Z328)</f>
         <v>0</v>
@@ -27463,7 +27424,7 @@
       <c r="Y328" s="18"/>
       <c r="Z328" s="18"/>
     </row>
-    <row r="329" spans="1:26">
+    <row r="329" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A329" s="18">
         <f>COUNTA(D329:Z329)</f>
         <v>0</v>
@@ -27496,7 +27457,7 @@
       <c r="Y329" s="18"/>
       <c r="Z329" s="18"/>
     </row>
-    <row r="330" spans="1:26">
+    <row r="330" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A330" s="18">
         <f>COUNTA(D330:Z330)</f>
         <v>0</v>
@@ -27529,7 +27490,7 @@
       <c r="Y330" s="18"/>
       <c r="Z330" s="18"/>
     </row>
-    <row r="331" spans="1:26">
+    <row r="331" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A331" s="13"/>
       <c r="B331" s="20" t="s">
         <v>316</v>
@@ -27628,7 +27589,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="332" spans="1:26">
+    <row r="332" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <f>COUNTA(D332:Z332)</f>
         <v>3</v>
@@ -27669,7 +27630,7 @@
       <c r="Y332" s="18"/>
       <c r="Z332" s="18"/>
     </row>
-    <row r="333" spans="1:26">
+    <row r="333" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A333" s="18">
         <f>COUNTA(D333:Z333)</f>
         <v>3</v>
@@ -27708,7 +27669,7 @@
       <c r="Y333" s="18"/>
       <c r="Z333" s="18"/>
     </row>
-    <row r="334" spans="1:26">
+    <row r="334" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <f>COUNTA(D334:Z334)</f>
         <v>3</v>
@@ -27747,7 +27708,7 @@
       <c r="Y334" s="18"/>
       <c r="Z334" s="18"/>
     </row>
-    <row r="335" spans="1:26">
+    <row r="335" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A335" s="13"/>
       <c r="B335" s="20" t="s">
         <v>134</v>
@@ -27846,7 +27807,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="336" spans="1:26">
+    <row r="336" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A336" s="18">
         <f t="shared" ref="A336:A353" si="40">COUNTA(D336:Z336)</f>
         <v>2</v>
@@ -27883,7 +27844,7 @@
       <c r="Y336" s="18"/>
       <c r="Z336" s="18"/>
     </row>
-    <row r="337" spans="1:26">
+    <row r="337" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A337" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -27920,7 +27881,7 @@
       <c r="Y337" s="18"/>
       <c r="Z337" s="18"/>
     </row>
-    <row r="338" spans="1:26">
+    <row r="338" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A338" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -27953,7 +27914,7 @@
       <c r="Y338" s="18"/>
       <c r="Z338" s="18"/>
     </row>
-    <row r="339" spans="1:26">
+    <row r="339" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A339" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -27992,7 +27953,7 @@
       <c r="Y339" s="18"/>
       <c r="Z339" s="18"/>
     </row>
-    <row r="340" spans="1:26">
+    <row r="340" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A340" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28031,7 +27992,7 @@
       <c r="Y340" s="18"/>
       <c r="Z340" s="18"/>
     </row>
-    <row r="341" spans="1:26">
+    <row r="341" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A341" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28066,7 +28027,7 @@
       <c r="Y341" s="18"/>
       <c r="Z341" s="18"/>
     </row>
-    <row r="342" spans="1:26">
+    <row r="342" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A342" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28103,7 +28064,7 @@
       <c r="Y342" s="18"/>
       <c r="Z342" s="18"/>
     </row>
-    <row r="343" spans="1:26">
+    <row r="343" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A343" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28140,7 +28101,7 @@
       <c r="Y343" s="18"/>
       <c r="Z343" s="18"/>
     </row>
-    <row r="344" spans="1:26">
+    <row r="344" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A344" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28173,7 +28134,7 @@
       <c r="Y344" s="18"/>
       <c r="Z344" s="18"/>
     </row>
-    <row r="345" spans="1:26">
+    <row r="345" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A345" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28212,7 +28173,7 @@
       <c r="Y345" s="18"/>
       <c r="Z345" s="18"/>
     </row>
-    <row r="346" spans="1:26">
+    <row r="346" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A346" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28251,7 +28212,7 @@
       <c r="Y346" s="18"/>
       <c r="Z346" s="18"/>
     </row>
-    <row r="347" spans="1:26">
+    <row r="347" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A347" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28286,7 +28247,7 @@
       <c r="Y347" s="18"/>
       <c r="Z347" s="18"/>
     </row>
-    <row r="348" spans="1:26">
+    <row r="348" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A348" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28323,7 +28284,7 @@
       <c r="Y348" s="18"/>
       <c r="Z348" s="18"/>
     </row>
-    <row r="349" spans="1:26">
+    <row r="349" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A349" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28360,7 +28321,7 @@
       <c r="Y349" s="18"/>
       <c r="Z349" s="18"/>
     </row>
-    <row r="350" spans="1:26">
+    <row r="350" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A350" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28393,7 +28354,7 @@
       <c r="Y350" s="18"/>
       <c r="Z350" s="18"/>
     </row>
-    <row r="351" spans="1:26">
+    <row r="351" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A351" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28430,7 +28391,7 @@
       <c r="Y351" s="18"/>
       <c r="Z351" s="18"/>
     </row>
-    <row r="352" spans="1:26">
+    <row r="352" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A352" s="18">
         <f t="shared" si="40"/>
         <v>2</v>
@@ -28467,7 +28428,7 @@
       <c r="Y352" s="18"/>
       <c r="Z352" s="18"/>
     </row>
-    <row r="353" spans="1:26">
+    <row r="353" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A353" s="18">
         <f t="shared" si="40"/>
         <v>0</v>
@@ -28500,7 +28461,7 @@
       <c r="Y353" s="18"/>
       <c r="Z353" s="18"/>
     </row>
-    <row r="354" spans="1:26">
+    <row r="354" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A354" s="13"/>
       <c r="B354" s="20" t="s">
         <v>149</v>
@@ -28599,7 +28560,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="355" spans="1:26">
+    <row r="355" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A355" s="18">
         <f>COUNTA(D355:Z355)</f>
         <v>6</v>
@@ -28646,7 +28607,7 @@
       <c r="Y355" s="18"/>
       <c r="Z355" s="18"/>
     </row>
-    <row r="356" spans="1:26">
+    <row r="356" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A356" s="18">
         <f>COUNTA(D356:Z356)</f>
         <v>2</v>
@@ -28685,7 +28646,7 @@
       <c r="Y356" s="18"/>
       <c r="Z356" s="18"/>
     </row>
-    <row r="357" spans="1:26">
+    <row r="357" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A357" s="18">
         <f>COUNTA(D357:Z357)</f>
         <v>2</v>
@@ -28724,7 +28685,7 @@
       <c r="Y357" s="18"/>
       <c r="Z357" s="18"/>
     </row>
-    <row r="358" spans="1:26">
+    <row r="358" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A358" s="18">
         <f>COUNTA(D358:Z358)</f>
         <v>4</v>
@@ -28765,7 +28726,7 @@
       <c r="Y358" s="18"/>
       <c r="Z358" s="18"/>
     </row>
-    <row r="359" spans="1:26">
+    <row r="359" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A359" s="13"/>
       <c r="B359" s="20" t="s">
         <v>355</v>
@@ -28864,7 +28825,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="360" spans="1:26">
+    <row r="360" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A360" s="18">
         <f t="shared" ref="A360:A423" si="44">COUNTA(D360:Z360)</f>
         <v>0</v>
@@ -28897,7 +28858,7 @@
       <c r="Y360" s="18"/>
       <c r="Z360" s="18"/>
     </row>
-    <row r="361" spans="1:26">
+    <row r="361" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A361" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28930,7 +28891,7 @@
       <c r="Y361" s="18"/>
       <c r="Z361" s="18"/>
     </row>
-    <row r="362" spans="1:26">
+    <row r="362" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A362" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28963,7 +28924,7 @@
       <c r="Y362" s="18"/>
       <c r="Z362" s="18"/>
     </row>
-    <row r="363" spans="1:26">
+    <row r="363" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A363" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -28996,7 +28957,7 @@
       <c r="Y363" s="18"/>
       <c r="Z363" s="18"/>
     </row>
-    <row r="364" spans="1:26">
+    <row r="364" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A364" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29029,7 +28990,7 @@
       <c r="Y364" s="18"/>
       <c r="Z364" s="18"/>
     </row>
-    <row r="365" spans="1:26">
+    <row r="365" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A365" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29062,7 +29023,7 @@
       <c r="Y365" s="18"/>
       <c r="Z365" s="18"/>
     </row>
-    <row r="366" spans="1:26">
+    <row r="366" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A366" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29095,7 +29056,7 @@
       <c r="Y366" s="18"/>
       <c r="Z366" s="18"/>
     </row>
-    <row r="367" spans="1:26">
+    <row r="367" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A367" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29128,7 +29089,7 @@
       <c r="Y367" s="18"/>
       <c r="Z367" s="18"/>
     </row>
-    <row r="368" spans="1:26">
+    <row r="368" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A368" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29161,7 +29122,7 @@
       <c r="Y368" s="18"/>
       <c r="Z368" s="18"/>
     </row>
-    <row r="369" spans="1:26">
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A369" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29194,7 +29155,7 @@
       <c r="Y369" s="18"/>
       <c r="Z369" s="18"/>
     </row>
-    <row r="370" spans="1:26">
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A370" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29227,7 +29188,7 @@
       <c r="Y370" s="18"/>
       <c r="Z370" s="18"/>
     </row>
-    <row r="371" spans="1:26">
+    <row r="371" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A371" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29260,7 +29221,7 @@
       <c r="Y371" s="18"/>
       <c r="Z371" s="18"/>
     </row>
-    <row r="372" spans="1:26">
+    <row r="372" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A372" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29293,7 +29254,7 @@
       <c r="Y372" s="18"/>
       <c r="Z372" s="18"/>
     </row>
-    <row r="373" spans="1:26">
+    <row r="373" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A373" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29326,7 +29287,7 @@
       <c r="Y373" s="18"/>
       <c r="Z373" s="18"/>
     </row>
-    <row r="374" spans="1:26">
+    <row r="374" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A374" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29359,7 +29320,7 @@
       <c r="Y374" s="18"/>
       <c r="Z374" s="18"/>
     </row>
-    <row r="375" spans="1:26">
+    <row r="375" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A375" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29392,7 +29353,7 @@
       <c r="Y375" s="18"/>
       <c r="Z375" s="18"/>
     </row>
-    <row r="376" spans="1:26">
+    <row r="376" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A376" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29425,7 +29386,7 @@
       <c r="Y376" s="18"/>
       <c r="Z376" s="18"/>
     </row>
-    <row r="377" spans="1:26">
+    <row r="377" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A377" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29458,7 +29419,7 @@
       <c r="Y377" s="18"/>
       <c r="Z377" s="18"/>
     </row>
-    <row r="378" spans="1:26">
+    <row r="378" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A378" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29491,7 +29452,7 @@
       <c r="Y378" s="18"/>
       <c r="Z378" s="18"/>
     </row>
-    <row r="379" spans="1:26">
+    <row r="379" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A379" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29524,7 +29485,7 @@
       <c r="Y379" s="18"/>
       <c r="Z379" s="18"/>
     </row>
-    <row r="380" spans="1:26">
+    <row r="380" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A380" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29557,7 +29518,7 @@
       <c r="Y380" s="18"/>
       <c r="Z380" s="18"/>
     </row>
-    <row r="381" spans="1:26">
+    <row r="381" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A381" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29590,7 +29551,7 @@
       <c r="Y381" s="18"/>
       <c r="Z381" s="18"/>
     </row>
-    <row r="382" spans="1:26">
+    <row r="382" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A382" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29623,7 +29584,7 @@
       <c r="Y382" s="18"/>
       <c r="Z382" s="18"/>
     </row>
-    <row r="383" spans="1:26">
+    <row r="383" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A383" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29656,7 +29617,7 @@
       <c r="Y383" s="18"/>
       <c r="Z383" s="18"/>
     </row>
-    <row r="384" spans="1:26">
+    <row r="384" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A384" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29689,7 +29650,7 @@
       <c r="Y384" s="18"/>
       <c r="Z384" s="18"/>
     </row>
-    <row r="385" spans="1:26">
+    <row r="385" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A385" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29722,7 +29683,7 @@
       <c r="Y385" s="18"/>
       <c r="Z385" s="18"/>
     </row>
-    <row r="386" spans="1:26">
+    <row r="386" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A386" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29755,7 +29716,7 @@
       <c r="Y386" s="18"/>
       <c r="Z386" s="18"/>
     </row>
-    <row r="387" spans="1:26">
+    <row r="387" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A387" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29788,7 +29749,7 @@
       <c r="Y387" s="18"/>
       <c r="Z387" s="18"/>
     </row>
-    <row r="388" spans="1:26">
+    <row r="388" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A388" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29821,7 +29782,7 @@
       <c r="Y388" s="18"/>
       <c r="Z388" s="18"/>
     </row>
-    <row r="389" spans="1:26">
+    <row r="389" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A389" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29854,7 +29815,7 @@
       <c r="Y389" s="18"/>
       <c r="Z389" s="18"/>
     </row>
-    <row r="390" spans="1:26">
+    <row r="390" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A390" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29887,7 +29848,7 @@
       <c r="Y390" s="18"/>
       <c r="Z390" s="18"/>
     </row>
-    <row r="391" spans="1:26">
+    <row r="391" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A391" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29920,7 +29881,7 @@
       <c r="Y391" s="18"/>
       <c r="Z391" s="18"/>
     </row>
-    <row r="392" spans="1:26">
+    <row r="392" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A392" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29953,7 +29914,7 @@
       <c r="Y392" s="18"/>
       <c r="Z392" s="18"/>
     </row>
-    <row r="393" spans="1:26">
+    <row r="393" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A393" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -29986,7 +29947,7 @@
       <c r="Y393" s="18"/>
       <c r="Z393" s="18"/>
     </row>
-    <row r="394" spans="1:26">
+    <row r="394" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A394" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30019,7 +29980,7 @@
       <c r="Y394" s="18"/>
       <c r="Z394" s="18"/>
     </row>
-    <row r="395" spans="1:26">
+    <row r="395" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A395" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30052,7 +30013,7 @@
       <c r="Y395" s="18"/>
       <c r="Z395" s="18"/>
     </row>
-    <row r="396" spans="1:26">
+    <row r="396" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A396" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30085,7 +30046,7 @@
       <c r="Y396" s="18"/>
       <c r="Z396" s="18"/>
     </row>
-    <row r="397" spans="1:26">
+    <row r="397" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A397" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30118,7 +30079,7 @@
       <c r="Y397" s="18"/>
       <c r="Z397" s="18"/>
     </row>
-    <row r="398" spans="1:26">
+    <row r="398" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A398" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30151,7 +30112,7 @@
       <c r="Y398" s="18"/>
       <c r="Z398" s="18"/>
     </row>
-    <row r="399" spans="1:26">
+    <row r="399" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A399" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30184,7 +30145,7 @@
       <c r="Y399" s="18"/>
       <c r="Z399" s="18"/>
     </row>
-    <row r="400" spans="1:26">
+    <row r="400" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A400" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30217,7 +30178,7 @@
       <c r="Y400" s="18"/>
       <c r="Z400" s="18"/>
     </row>
-    <row r="401" spans="1:26">
+    <row r="401" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A401" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30250,7 +30211,7 @@
       <c r="Y401" s="18"/>
       <c r="Z401" s="18"/>
     </row>
-    <row r="402" spans="1:26">
+    <row r="402" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A402" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30283,7 +30244,7 @@
       <c r="Y402" s="18"/>
       <c r="Z402" s="18"/>
     </row>
-    <row r="403" spans="1:26">
+    <row r="403" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A403" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30316,7 +30277,7 @@
       <c r="Y403" s="18"/>
       <c r="Z403" s="18"/>
     </row>
-    <row r="404" spans="1:26">
+    <row r="404" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A404" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30349,7 +30310,7 @@
       <c r="Y404" s="18"/>
       <c r="Z404" s="18"/>
     </row>
-    <row r="405" spans="1:26">
+    <row r="405" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A405" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30382,7 +30343,7 @@
       <c r="Y405" s="18"/>
       <c r="Z405" s="18"/>
     </row>
-    <row r="406" spans="1:26">
+    <row r="406" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A406" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30415,7 +30376,7 @@
       <c r="Y406" s="18"/>
       <c r="Z406" s="18"/>
     </row>
-    <row r="407" spans="1:26">
+    <row r="407" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A407" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30448,7 +30409,7 @@
       <c r="Y407" s="18"/>
       <c r="Z407" s="18"/>
     </row>
-    <row r="408" spans="1:26">
+    <row r="408" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A408" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30481,7 +30442,7 @@
       <c r="Y408" s="18"/>
       <c r="Z408" s="18"/>
     </row>
-    <row r="409" spans="1:26">
+    <row r="409" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A409" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30514,7 +30475,7 @@
       <c r="Y409" s="18"/>
       <c r="Z409" s="18"/>
     </row>
-    <row r="410" spans="1:26">
+    <row r="410" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A410" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30547,7 +30508,7 @@
       <c r="Y410" s="18"/>
       <c r="Z410" s="18"/>
     </row>
-    <row r="411" spans="1:26">
+    <row r="411" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A411" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30580,7 +30541,7 @@
       <c r="Y411" s="18"/>
       <c r="Z411" s="18"/>
     </row>
-    <row r="412" spans="1:26">
+    <row r="412" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A412" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30613,7 +30574,7 @@
       <c r="Y412" s="18"/>
       <c r="Z412" s="18"/>
     </row>
-    <row r="413" spans="1:26">
+    <row r="413" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A413" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30646,7 +30607,7 @@
       <c r="Y413" s="18"/>
       <c r="Z413" s="18"/>
     </row>
-    <row r="414" spans="1:26">
+    <row r="414" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A414" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30679,7 +30640,7 @@
       <c r="Y414" s="18"/>
       <c r="Z414" s="18"/>
     </row>
-    <row r="415" spans="1:26">
+    <row r="415" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A415" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30712,7 +30673,7 @@
       <c r="Y415" s="18"/>
       <c r="Z415" s="18"/>
     </row>
-    <row r="416" spans="1:26">
+    <row r="416" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A416" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30745,7 +30706,7 @@
       <c r="Y416" s="18"/>
       <c r="Z416" s="18"/>
     </row>
-    <row r="417" spans="1:26">
+    <row r="417" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A417" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30778,7 +30739,7 @@
       <c r="Y417" s="18"/>
       <c r="Z417" s="18"/>
     </row>
-    <row r="418" spans="1:26">
+    <row r="418" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A418" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30811,7 +30772,7 @@
       <c r="Y418" s="18"/>
       <c r="Z418" s="18"/>
     </row>
-    <row r="419" spans="1:26">
+    <row r="419" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A419" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30844,7 +30805,7 @@
       <c r="Y419" s="18"/>
       <c r="Z419" s="18"/>
     </row>
-    <row r="420" spans="1:26">
+    <row r="420" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A420" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30877,7 +30838,7 @@
       <c r="Y420" s="18"/>
       <c r="Z420" s="18"/>
     </row>
-    <row r="421" spans="1:26">
+    <row r="421" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A421" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30910,7 +30871,7 @@
       <c r="Y421" s="18"/>
       <c r="Z421" s="18"/>
     </row>
-    <row r="422" spans="1:26">
+    <row r="422" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A422" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30943,7 +30904,7 @@
       <c r="Y422" s="18"/>
       <c r="Z422" s="18"/>
     </row>
-    <row r="423" spans="1:26">
+    <row r="423" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A423" s="18">
         <f t="shared" si="44"/>
         <v>0</v>
@@ -30976,7 +30937,7 @@
       <c r="Y423" s="18"/>
       <c r="Z423" s="18"/>
     </row>
-    <row r="424" spans="1:26">
+    <row r="424" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A424" s="18">
         <f t="shared" ref="A424:A487" si="45">COUNTA(D424:Z424)</f>
         <v>0</v>
@@ -31009,7 +30970,7 @@
       <c r="Y424" s="18"/>
       <c r="Z424" s="18"/>
     </row>
-    <row r="425" spans="1:26">
+    <row r="425" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A425" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31042,7 +31003,7 @@
       <c r="Y425" s="18"/>
       <c r="Z425" s="18"/>
     </row>
-    <row r="426" spans="1:26">
+    <row r="426" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A426" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31075,7 +31036,7 @@
       <c r="Y426" s="18"/>
       <c r="Z426" s="18"/>
     </row>
-    <row r="427" spans="1:26">
+    <row r="427" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A427" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31108,7 +31069,7 @@
       <c r="Y427" s="18"/>
       <c r="Z427" s="18"/>
     </row>
-    <row r="428" spans="1:26">
+    <row r="428" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A428" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31141,7 +31102,7 @@
       <c r="Y428" s="18"/>
       <c r="Z428" s="18"/>
     </row>
-    <row r="429" spans="1:26">
+    <row r="429" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A429" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31174,7 +31135,7 @@
       <c r="Y429" s="18"/>
       <c r="Z429" s="18"/>
     </row>
-    <row r="430" spans="1:26">
+    <row r="430" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A430" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31207,7 +31168,7 @@
       <c r="Y430" s="18"/>
       <c r="Z430" s="18"/>
     </row>
-    <row r="431" spans="1:26">
+    <row r="431" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A431" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31240,7 +31201,7 @@
       <c r="Y431" s="18"/>
       <c r="Z431" s="18"/>
     </row>
-    <row r="432" spans="1:26">
+    <row r="432" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A432" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31273,7 +31234,7 @@
       <c r="Y432" s="18"/>
       <c r="Z432" s="18"/>
     </row>
-    <row r="433" spans="1:26">
+    <row r="433" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A433" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31306,7 +31267,7 @@
       <c r="Y433" s="18"/>
       <c r="Z433" s="18"/>
     </row>
-    <row r="434" spans="1:26">
+    <row r="434" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A434" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31339,7 +31300,7 @@
       <c r="Y434" s="18"/>
       <c r="Z434" s="18"/>
     </row>
-    <row r="435" spans="1:26">
+    <row r="435" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A435" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31372,7 +31333,7 @@
       <c r="Y435" s="18"/>
       <c r="Z435" s="18"/>
     </row>
-    <row r="436" spans="1:26">
+    <row r="436" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A436" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31405,7 +31366,7 @@
       <c r="Y436" s="18"/>
       <c r="Z436" s="18"/>
     </row>
-    <row r="437" spans="1:26">
+    <row r="437" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A437" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31438,7 +31399,7 @@
       <c r="Y437" s="18"/>
       <c r="Z437" s="18"/>
     </row>
-    <row r="438" spans="1:26">
+    <row r="438" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A438" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31471,7 +31432,7 @@
       <c r="Y438" s="18"/>
       <c r="Z438" s="18"/>
     </row>
-    <row r="439" spans="1:26">
+    <row r="439" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A439" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31504,7 +31465,7 @@
       <c r="Y439" s="18"/>
       <c r="Z439" s="18"/>
     </row>
-    <row r="440" spans="1:26">
+    <row r="440" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A440" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31537,7 +31498,7 @@
       <c r="Y440" s="18"/>
       <c r="Z440" s="18"/>
     </row>
-    <row r="441" spans="1:26">
+    <row r="441" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A441" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31570,7 +31531,7 @@
       <c r="Y441" s="18"/>
       <c r="Z441" s="18"/>
     </row>
-    <row r="442" spans="1:26">
+    <row r="442" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A442" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31603,7 +31564,7 @@
       <c r="Y442" s="18"/>
       <c r="Z442" s="18"/>
     </row>
-    <row r="443" spans="1:26">
+    <row r="443" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A443" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31636,7 +31597,7 @@
       <c r="Y443" s="18"/>
       <c r="Z443" s="18"/>
     </row>
-    <row r="444" spans="1:26">
+    <row r="444" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A444" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31669,7 +31630,7 @@
       <c r="Y444" s="18"/>
       <c r="Z444" s="18"/>
     </row>
-    <row r="445" spans="1:26">
+    <row r="445" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A445" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31702,7 +31663,7 @@
       <c r="Y445" s="18"/>
       <c r="Z445" s="18"/>
     </row>
-    <row r="446" spans="1:26">
+    <row r="446" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A446" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31735,7 +31696,7 @@
       <c r="Y446" s="18"/>
       <c r="Z446" s="18"/>
     </row>
-    <row r="447" spans="1:26">
+    <row r="447" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A447" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31768,7 +31729,7 @@
       <c r="Y447" s="18"/>
       <c r="Z447" s="18"/>
     </row>
-    <row r="448" spans="1:26">
+    <row r="448" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A448" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31801,7 +31762,7 @@
       <c r="Y448" s="18"/>
       <c r="Z448" s="18"/>
     </row>
-    <row r="449" spans="1:26">
+    <row r="449" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A449" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31834,7 +31795,7 @@
       <c r="Y449" s="18"/>
       <c r="Z449" s="18"/>
     </row>
-    <row r="450" spans="1:26">
+    <row r="450" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A450" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31867,7 +31828,7 @@
       <c r="Y450" s="18"/>
       <c r="Z450" s="18"/>
     </row>
-    <row r="451" spans="1:26">
+    <row r="451" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A451" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31900,7 +31861,7 @@
       <c r="Y451" s="18"/>
       <c r="Z451" s="18"/>
     </row>
-    <row r="452" spans="1:26">
+    <row r="452" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A452" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31933,7 +31894,7 @@
       <c r="Y452" s="18"/>
       <c r="Z452" s="18"/>
     </row>
-    <row r="453" spans="1:26">
+    <row r="453" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A453" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31966,7 +31927,7 @@
       <c r="Y453" s="18"/>
       <c r="Z453" s="18"/>
     </row>
-    <row r="454" spans="1:26">
+    <row r="454" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A454" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -31999,7 +31960,7 @@
       <c r="Y454" s="18"/>
       <c r="Z454" s="18"/>
     </row>
-    <row r="455" spans="1:26">
+    <row r="455" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A455" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32032,7 +31993,7 @@
       <c r="Y455" s="18"/>
       <c r="Z455" s="18"/>
     </row>
-    <row r="456" spans="1:26">
+    <row r="456" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A456" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32065,7 +32026,7 @@
       <c r="Y456" s="18"/>
       <c r="Z456" s="18"/>
     </row>
-    <row r="457" spans="1:26">
+    <row r="457" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A457" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32098,7 +32059,7 @@
       <c r="Y457" s="18"/>
       <c r="Z457" s="18"/>
     </row>
-    <row r="458" spans="1:26">
+    <row r="458" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A458" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32131,7 +32092,7 @@
       <c r="Y458" s="18"/>
       <c r="Z458" s="18"/>
     </row>
-    <row r="459" spans="1:26">
+    <row r="459" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A459" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32164,7 +32125,7 @@
       <c r="Y459" s="18"/>
       <c r="Z459" s="18"/>
     </row>
-    <row r="460" spans="1:26">
+    <row r="460" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A460" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32197,7 +32158,7 @@
       <c r="Y460" s="18"/>
       <c r="Z460" s="18"/>
     </row>
-    <row r="461" spans="1:26">
+    <row r="461" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A461" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32230,7 +32191,7 @@
       <c r="Y461" s="18"/>
       <c r="Z461" s="18"/>
     </row>
-    <row r="462" spans="1:26">
+    <row r="462" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A462" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32263,7 +32224,7 @@
       <c r="Y462" s="18"/>
       <c r="Z462" s="18"/>
     </row>
-    <row r="463" spans="1:26">
+    <row r="463" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A463" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32296,7 +32257,7 @@
       <c r="Y463" s="18"/>
       <c r="Z463" s="18"/>
     </row>
-    <row r="464" spans="1:26">
+    <row r="464" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A464" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32329,7 +32290,7 @@
       <c r="Y464" s="18"/>
       <c r="Z464" s="18"/>
     </row>
-    <row r="465" spans="1:26">
+    <row r="465" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A465" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32362,7 +32323,7 @@
       <c r="Y465" s="18"/>
       <c r="Z465" s="18"/>
     </row>
-    <row r="466" spans="1:26">
+    <row r="466" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A466" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32395,7 +32356,7 @@
       <c r="Y466" s="18"/>
       <c r="Z466" s="18"/>
     </row>
-    <row r="467" spans="1:26">
+    <row r="467" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A467" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32428,7 +32389,7 @@
       <c r="Y467" s="18"/>
       <c r="Z467" s="18"/>
     </row>
-    <row r="468" spans="1:26">
+    <row r="468" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A468" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32461,7 +32422,7 @@
       <c r="Y468" s="18"/>
       <c r="Z468" s="18"/>
     </row>
-    <row r="469" spans="1:26">
+    <row r="469" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A469" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32494,7 +32455,7 @@
       <c r="Y469" s="18"/>
       <c r="Z469" s="18"/>
     </row>
-    <row r="470" spans="1:26">
+    <row r="470" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A470" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32527,7 +32488,7 @@
       <c r="Y470" s="18"/>
       <c r="Z470" s="18"/>
     </row>
-    <row r="471" spans="1:26">
+    <row r="471" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A471" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32560,7 +32521,7 @@
       <c r="Y471" s="18"/>
       <c r="Z471" s="18"/>
     </row>
-    <row r="472" spans="1:26">
+    <row r="472" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A472" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32593,7 +32554,7 @@
       <c r="Y472" s="18"/>
       <c r="Z472" s="18"/>
     </row>
-    <row r="473" spans="1:26">
+    <row r="473" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A473" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32626,7 +32587,7 @@
       <c r="Y473" s="18"/>
       <c r="Z473" s="18"/>
     </row>
-    <row r="474" spans="1:26">
+    <row r="474" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A474" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32659,7 +32620,7 @@
       <c r="Y474" s="18"/>
       <c r="Z474" s="18"/>
     </row>
-    <row r="475" spans="1:26">
+    <row r="475" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A475" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32692,7 +32653,7 @@
       <c r="Y475" s="18"/>
       <c r="Z475" s="18"/>
     </row>
-    <row r="476" spans="1:26">
+    <row r="476" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A476" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32725,7 +32686,7 @@
       <c r="Y476" s="18"/>
       <c r="Z476" s="18"/>
     </row>
-    <row r="477" spans="1:26">
+    <row r="477" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A477" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32758,7 +32719,7 @@
       <c r="Y477" s="18"/>
       <c r="Z477" s="18"/>
     </row>
-    <row r="478" spans="1:26">
+    <row r="478" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A478" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32791,7 +32752,7 @@
       <c r="Y478" s="18"/>
       <c r="Z478" s="18"/>
     </row>
-    <row r="479" spans="1:26">
+    <row r="479" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A479" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32824,7 +32785,7 @@
       <c r="Y479" s="18"/>
       <c r="Z479" s="18"/>
     </row>
-    <row r="480" spans="1:26">
+    <row r="480" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A480" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32857,7 +32818,7 @@
       <c r="Y480" s="18"/>
       <c r="Z480" s="18"/>
     </row>
-    <row r="481" spans="1:26">
+    <row r="481" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A481" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32890,7 +32851,7 @@
       <c r="Y481" s="18"/>
       <c r="Z481" s="18"/>
     </row>
-    <row r="482" spans="1:26">
+    <row r="482" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A482" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32923,7 +32884,7 @@
       <c r="Y482" s="18"/>
       <c r="Z482" s="18"/>
     </row>
-    <row r="483" spans="1:26">
+    <row r="483" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A483" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32956,7 +32917,7 @@
       <c r="Y483" s="18"/>
       <c r="Z483" s="18"/>
     </row>
-    <row r="484" spans="1:26">
+    <row r="484" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A484" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -32989,7 +32950,7 @@
       <c r="Y484" s="18"/>
       <c r="Z484" s="18"/>
     </row>
-    <row r="485" spans="1:26">
+    <row r="485" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A485" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -33022,7 +32983,7 @@
       <c r="Y485" s="18"/>
       <c r="Z485" s="18"/>
     </row>
-    <row r="486" spans="1:26">
+    <row r="486" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A486" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -33055,7 +33016,7 @@
       <c r="Y486" s="18"/>
       <c r="Z486" s="18"/>
     </row>
-    <row r="487" spans="1:26">
+    <row r="487" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A487" s="18">
         <f t="shared" si="45"/>
         <v>0</v>
@@ -33088,7 +33049,7 @@
       <c r="Y487" s="18"/>
       <c r="Z487" s="18"/>
     </row>
-    <row r="488" spans="1:26">
+    <row r="488" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A488" s="18">
         <f t="shared" ref="A488:A494" si="46">COUNTA(D488:Z488)</f>
         <v>0</v>
@@ -33121,7 +33082,7 @@
       <c r="Y488" s="18"/>
       <c r="Z488" s="18"/>
     </row>
-    <row r="489" spans="1:26">
+    <row r="489" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A489" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33154,7 +33115,7 @@
       <c r="Y489" s="18"/>
       <c r="Z489" s="18"/>
     </row>
-    <row r="490" spans="1:26">
+    <row r="490" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A490" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33187,7 +33148,7 @@
       <c r="Y490" s="18"/>
       <c r="Z490" s="18"/>
     </row>
-    <row r="491" spans="1:26">
+    <row r="491" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A491" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33220,7 +33181,7 @@
       <c r="Y491" s="18"/>
       <c r="Z491" s="18"/>
     </row>
-    <row r="492" spans="1:26">
+    <row r="492" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A492" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33253,7 +33214,7 @@
       <c r="Y492" s="18"/>
       <c r="Z492" s="18"/>
     </row>
-    <row r="493" spans="1:26">
+    <row r="493" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A493" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33286,7 +33247,7 @@
       <c r="Y493" s="18"/>
       <c r="Z493" s="18"/>
     </row>
-    <row r="494" spans="1:26">
+    <row r="494" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A494" s="18">
         <f t="shared" si="46"/>
         <v>0</v>
@@ -33319,7 +33280,7 @@
       <c r="Y494" s="18"/>
       <c r="Z494" s="18"/>
     </row>
-    <row r="495" spans="1:26">
+    <row r="495" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A495" s="13"/>
       <c r="B495" s="20" t="s">
         <v>371</v>
@@ -33418,7 +33379,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="496" spans="1:26">
+    <row r="496" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A496" s="18">
         <f t="shared" ref="A496:A528" si="48">COUNTA(D496:Z496)</f>
         <v>0</v>
@@ -33451,7 +33412,7 @@
       <c r="Y496" s="18"/>
       <c r="Z496" s="18"/>
     </row>
-    <row r="497" spans="1:26">
+    <row r="497" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A497" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33484,7 +33445,7 @@
       <c r="Y497" s="18"/>
       <c r="Z497" s="18"/>
     </row>
-    <row r="498" spans="1:26">
+    <row r="498" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A498" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33517,7 +33478,7 @@
       <c r="Y498" s="18"/>
       <c r="Z498" s="18"/>
     </row>
-    <row r="499" spans="1:26">
+    <row r="499" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A499" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33552,7 +33513,7 @@
       <c r="Y499" s="18"/>
       <c r="Z499" s="18"/>
     </row>
-    <row r="500" spans="1:26">
+    <row r="500" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A500" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33587,7 +33548,7 @@
       <c r="Y500" s="18"/>
       <c r="Z500" s="18"/>
     </row>
-    <row r="501" spans="1:26">
+    <row r="501" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A501" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33622,7 +33583,7 @@
       <c r="Y501" s="18"/>
       <c r="Z501" s="18"/>
     </row>
-    <row r="502" spans="1:26">
+    <row r="502" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A502" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33655,7 +33616,7 @@
       <c r="Y502" s="18"/>
       <c r="Z502" s="18"/>
     </row>
-    <row r="503" spans="1:26">
+    <row r="503" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A503" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33688,7 +33649,7 @@
       <c r="Y503" s="18"/>
       <c r="Z503" s="18"/>
     </row>
-    <row r="504" spans="1:26">
+    <row r="504" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A504" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33721,7 +33682,7 @@
       <c r="Y504" s="18"/>
       <c r="Z504" s="18"/>
     </row>
-    <row r="505" spans="1:26">
+    <row r="505" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A505" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33754,7 +33715,7 @@
       <c r="Y505" s="18"/>
       <c r="Z505" s="18"/>
     </row>
-    <row r="506" spans="1:26">
+    <row r="506" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A506" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33787,7 +33748,7 @@
       <c r="Y506" s="18"/>
       <c r="Z506" s="18"/>
     </row>
-    <row r="507" spans="1:26">
+    <row r="507" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A507" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33820,7 +33781,7 @@
       <c r="Y507" s="18"/>
       <c r="Z507" s="18"/>
     </row>
-    <row r="508" spans="1:26">
+    <row r="508" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A508" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33853,7 +33814,7 @@
       <c r="Y508" s="18"/>
       <c r="Z508" s="18"/>
     </row>
-    <row r="509" spans="1:26">
+    <row r="509" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A509" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33886,7 +33847,7 @@
       <c r="Y509" s="18"/>
       <c r="Z509" s="18"/>
     </row>
-    <row r="510" spans="1:26">
+    <row r="510" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A510" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33919,7 +33880,7 @@
       <c r="Y510" s="18"/>
       <c r="Z510" s="18"/>
     </row>
-    <row r="511" spans="1:26">
+    <row r="511" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A511" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33952,7 +33913,7 @@
       <c r="Y511" s="18"/>
       <c r="Z511" s="18"/>
     </row>
-    <row r="512" spans="1:26">
+    <row r="512" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A512" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -33985,7 +33946,7 @@
       <c r="Y512" s="18"/>
       <c r="Z512" s="18"/>
     </row>
-    <row r="513" spans="1:26">
+    <row r="513" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A513" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34018,7 +33979,7 @@
       <c r="Y513" s="18"/>
       <c r="Z513" s="18"/>
     </row>
-    <row r="514" spans="1:26">
+    <row r="514" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A514" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34053,7 +34014,7 @@
       <c r="Y514" s="18"/>
       <c r="Z514" s="18"/>
     </row>
-    <row r="515" spans="1:26">
+    <row r="515" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A515" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34088,7 +34049,7 @@
       <c r="Y515" s="18"/>
       <c r="Z515" s="18"/>
     </row>
-    <row r="516" spans="1:26">
+    <row r="516" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A516" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34123,7 +34084,7 @@
       <c r="Y516" s="18"/>
       <c r="Z516" s="18"/>
     </row>
-    <row r="517" spans="1:26">
+    <row r="517" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A517" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34156,7 +34117,7 @@
       <c r="Y517" s="18"/>
       <c r="Z517" s="18"/>
     </row>
-    <row r="518" spans="1:26">
+    <row r="518" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A518" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34189,7 +34150,7 @@
       <c r="Y518" s="18"/>
       <c r="Z518" s="18"/>
     </row>
-    <row r="519" spans="1:26">
+    <row r="519" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A519" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34222,7 +34183,7 @@
       <c r="Y519" s="18"/>
       <c r="Z519" s="18"/>
     </row>
-    <row r="520" spans="1:26">
+    <row r="520" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A520" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34255,7 +34216,7 @@
       <c r="Y520" s="18"/>
       <c r="Z520" s="18"/>
     </row>
-    <row r="521" spans="1:26">
+    <row r="521" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A521" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34288,7 +34249,7 @@
       <c r="Y521" s="18"/>
       <c r="Z521" s="18"/>
     </row>
-    <row r="522" spans="1:26">
+    <row r="522" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A522" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34321,7 +34282,7 @@
       <c r="Y522" s="18"/>
       <c r="Z522" s="18"/>
     </row>
-    <row r="523" spans="1:26">
+    <row r="523" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A523" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34354,7 +34315,7 @@
       <c r="Y523" s="18"/>
       <c r="Z523" s="18"/>
     </row>
-    <row r="524" spans="1:26">
+    <row r="524" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A524" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34387,7 +34348,7 @@
       <c r="Y524" s="18"/>
       <c r="Z524" s="18"/>
     </row>
-    <row r="525" spans="1:26">
+    <row r="525" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A525" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34420,7 +34381,7 @@
       <c r="Y525" s="18"/>
       <c r="Z525" s="18"/>
     </row>
-    <row r="526" spans="1:26">
+    <row r="526" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A526" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34453,7 +34414,7 @@
       <c r="Y526" s="18"/>
       <c r="Z526" s="18"/>
     </row>
-    <row r="527" spans="1:26">
+    <row r="527" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A527" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34486,7 +34447,7 @@
       <c r="Y527" s="18"/>
       <c r="Z527" s="18"/>
     </row>
-    <row r="528" spans="1:26">
+    <row r="528" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A528" s="18">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -34519,7 +34480,7 @@
       <c r="Y528" s="18"/>
       <c r="Z528" s="18"/>
     </row>
-    <row r="529" spans="1:26">
+    <row r="529" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A529" s="13"/>
       <c r="B529" s="20" t="s">
         <v>154</v>
@@ -34618,7 +34579,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="530" spans="1:26">
+    <row r="530" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A530" s="18">
         <f t="shared" ref="A530:A539" si="51">COUNTA(D530:Z530)</f>
         <v>2</v>
@@ -34655,7 +34616,7 @@
       <c r="Y530" s="18"/>
       <c r="Z530" s="18"/>
     </row>
-    <row r="531" spans="1:26">
+    <row r="531" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A531" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34692,7 +34653,7 @@
       <c r="Y531" s="18"/>
       <c r="Z531" s="18"/>
     </row>
-    <row r="532" spans="1:26">
+    <row r="532" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A532" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34731,7 +34692,7 @@
       <c r="Y532" s="18"/>
       <c r="Z532" s="18"/>
     </row>
-    <row r="533" spans="1:26">
+    <row r="533" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A533" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34768,7 +34729,7 @@
       <c r="Y533" s="18"/>
       <c r="Z533" s="18"/>
     </row>
-    <row r="534" spans="1:26">
+    <row r="534" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A534" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34805,7 +34766,7 @@
       <c r="Y534" s="18"/>
       <c r="Z534" s="18"/>
     </row>
-    <row r="535" spans="1:26">
+    <row r="535" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A535" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34846,7 +34807,7 @@
       <c r="Y535" s="18"/>
       <c r="Z535" s="18"/>
     </row>
-    <row r="536" spans="1:26">
+    <row r="536" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A536" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34887,7 +34848,7 @@
       <c r="Y536" s="18"/>
       <c r="Z536" s="18"/>
     </row>
-    <row r="537" spans="1:26">
+    <row r="537" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A537" s="18">
         <f t="shared" si="51"/>
         <v>3</v>
@@ -34928,7 +34889,7 @@
       <c r="Y537" s="18"/>
       <c r="Z537" s="18"/>
     </row>
-    <row r="538" spans="1:26">
+    <row r="538" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A538" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -34967,7 +34928,7 @@
       <c r="Y538" s="18"/>
       <c r="Z538" s="18"/>
     </row>
-    <row r="539" spans="1:26">
+    <row r="539" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A539" s="18">
         <f t="shared" si="51"/>
         <v>2</v>
@@ -35006,7 +34967,7 @@
       <c r="Y539" s="18"/>
       <c r="Z539" s="18"/>
     </row>
-    <row r="540" spans="1:26">
+    <row r="540" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A540" s="13"/>
       <c r="B540" s="20" t="s">
         <v>171</v>
@@ -35105,7 +35066,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="541" spans="1:26">
+    <row r="541" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A541" s="18">
         <f t="shared" ref="A541:A550" si="54">COUNTA(D541:Z541)</f>
         <v>2</v>
@@ -35142,7 +35103,7 @@
       <c r="Y541" s="18"/>
       <c r="Z541" s="18"/>
     </row>
-    <row r="542" spans="1:26">
+    <row r="542" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A542" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35179,7 +35140,7 @@
       <c r="Y542" s="18"/>
       <c r="Z542" s="18"/>
     </row>
-    <row r="543" spans="1:26">
+    <row r="543" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A543" s="18">
         <f t="shared" si="54"/>
         <v>1</v>
@@ -35216,7 +35177,7 @@
       <c r="Y543" s="18"/>
       <c r="Z543" s="18"/>
     </row>
-    <row r="544" spans="1:26">
+    <row r="544" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A544" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35253,7 +35214,7 @@
       <c r="Y544" s="18"/>
       <c r="Z544" s="18"/>
     </row>
-    <row r="545" spans="1:26">
+    <row r="545" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A545" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35290,7 +35251,7 @@
       <c r="Y545" s="18"/>
       <c r="Z545" s="18"/>
     </row>
-    <row r="546" spans="1:26">
+    <row r="546" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A546" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35329,7 +35290,7 @@
       <c r="Y546" s="18"/>
       <c r="Z546" s="18"/>
     </row>
-    <row r="547" spans="1:26">
+    <row r="547" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A547" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35368,7 +35329,7 @@
       <c r="Y547" s="18"/>
       <c r="Z547" s="18"/>
     </row>
-    <row r="548" spans="1:26">
+    <row r="548" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A548" s="18">
         <f t="shared" si="54"/>
         <v>1</v>
@@ -35405,7 +35366,7 @@
       <c r="Y548" s="18"/>
       <c r="Z548" s="18"/>
     </row>
-    <row r="549" spans="1:26">
+    <row r="549" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A549" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35444,7 +35405,7 @@
       <c r="Y549" s="18"/>
       <c r="Z549" s="18"/>
     </row>
-    <row r="550" spans="1:26">
+    <row r="550" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A550" s="18">
         <f t="shared" si="54"/>
         <v>2</v>
@@ -35483,7 +35444,7 @@
       <c r="Y550" s="18"/>
       <c r="Z550" s="18"/>
     </row>
-    <row r="551" spans="1:26">
+    <row r="551" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A551" s="13"/>
       <c r="B551" s="20" t="s">
         <v>188</v>
@@ -35582,7 +35543,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="552" spans="1:26">
+    <row r="552" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A552" s="18">
         <f t="shared" ref="A552:A561" si="57">COUNTA(D552:Z552)</f>
         <v>2</v>
@@ -35619,7 +35580,7 @@
       <c r="Y552" s="18"/>
       <c r="Z552" s="18"/>
     </row>
-    <row r="553" spans="1:26">
+    <row r="553" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A553" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35656,7 +35617,7 @@
       <c r="Y553" s="18"/>
       <c r="Z553" s="18"/>
     </row>
-    <row r="554" spans="1:26">
+    <row r="554" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A554" s="18">
         <f t="shared" si="57"/>
         <v>1</v>
@@ -35693,7 +35654,7 @@
       <c r="Y554" s="18"/>
       <c r="Z554" s="18"/>
     </row>
-    <row r="555" spans="1:26">
+    <row r="555" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A555" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35730,7 +35691,7 @@
       <c r="Y555" s="18"/>
       <c r="Z555" s="18"/>
     </row>
-    <row r="556" spans="1:26">
+    <row r="556" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A556" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35767,7 +35728,7 @@
       <c r="Y556" s="18"/>
       <c r="Z556" s="18"/>
     </row>
-    <row r="557" spans="1:26">
+    <row r="557" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A557" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35806,7 +35767,7 @@
       <c r="Y557" s="18"/>
       <c r="Z557" s="18"/>
     </row>
-    <row r="558" spans="1:26">
+    <row r="558" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A558" s="18">
         <f t="shared" si="57"/>
         <v>2</v>
@@ -35845,7 +35806,7 @@
       <c r="Y558" s="18"/>
       <c r="Z558" s="18"/>
     </row>
-    <row r="559" spans="1:26">
+    <row r="559" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A559" s="18">
         <f t="shared" si="57"/>
         <v>0</v>
@@ -35880,7 +35841,7 @@
       <c r="Y559" s="18"/>
       <c r="Z559" s="18"/>
     </row>
-    <row r="560" spans="1:26">
+    <row r="560" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A560" s="18">
         <f t="shared" si="57"/>
         <v>3</v>
@@ -35921,7 +35882,7 @@
       <c r="Y560" s="18"/>
       <c r="Z560" s="18"/>
     </row>
-    <row r="561" spans="1:26">
+    <row r="561" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A561" s="18">
         <f t="shared" si="57"/>
         <v>3</v>
@@ -35962,7 +35923,7 @@
       <c r="Y561" s="18"/>
       <c r="Z561" s="18"/>
     </row>
-    <row r="562" spans="1:26">
+    <row r="562" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A562" s="13"/>
       <c r="B562" s="21" t="s">
         <v>411</v>
@@ -36061,7 +36022,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="563" spans="1:26">
+    <row r="563" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A563" s="18">
         <f t="shared" ref="A563:A616" si="59">COUNTA(D563:Z563)</f>
         <v>2</v>
@@ -36098,7 +36059,7 @@
       <c r="Y563" s="18"/>
       <c r="Z563" s="18"/>
     </row>
-    <row r="564" spans="1:26">
+    <row r="564" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A564" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36135,7 +36096,7 @@
       <c r="Y564" s="18"/>
       <c r="Z564" s="18"/>
     </row>
-    <row r="565" spans="1:26">
+    <row r="565" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A565" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36168,7 +36129,7 @@
       <c r="Y565" s="18"/>
       <c r="Z565" s="18"/>
     </row>
-    <row r="566" spans="1:26">
+    <row r="566" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A566" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36205,7 +36166,7 @@
       <c r="Y566" s="18"/>
       <c r="Z566" s="18"/>
     </row>
-    <row r="567" spans="1:26">
+    <row r="567" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A567" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36242,7 +36203,7 @@
       <c r="Y567" s="18"/>
       <c r="Z567" s="18"/>
     </row>
-    <row r="568" spans="1:26">
+    <row r="568" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A568" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36275,7 +36236,7 @@
       <c r="Y568" s="18"/>
       <c r="Z568" s="18"/>
     </row>
-    <row r="569" spans="1:26">
+    <row r="569" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A569" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36312,7 +36273,7 @@
       <c r="Y569" s="18"/>
       <c r="Z569" s="18"/>
     </row>
-    <row r="570" spans="1:26">
+    <row r="570" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A570" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36349,7 +36310,7 @@
       <c r="Y570" s="18"/>
       <c r="Z570" s="18"/>
     </row>
-    <row r="571" spans="1:26">
+    <row r="571" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A571" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36382,7 +36343,7 @@
       <c r="Y571" s="18"/>
       <c r="Z571" s="18"/>
     </row>
-    <row r="572" spans="1:26">
+    <row r="572" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A572" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -36417,7 +36378,7 @@
       <c r="Y572" s="18"/>
       <c r="Z572" s="18"/>
     </row>
-    <row r="573" spans="1:26">
+    <row r="573" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A573" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -36452,7 +36413,7 @@
       <c r="Y573" s="18"/>
       <c r="Z573" s="18"/>
     </row>
-    <row r="574" spans="1:26">
+    <row r="574" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A574" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36485,7 +36446,7 @@
       <c r="Y574" s="18"/>
       <c r="Z574" s="18"/>
     </row>
-    <row r="575" spans="1:26">
+    <row r="575" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A575" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36522,7 +36483,7 @@
       <c r="Y575" s="18"/>
       <c r="Z575" s="18"/>
     </row>
-    <row r="576" spans="1:26">
+    <row r="576" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A576" s="18">
         <f t="shared" si="59"/>
         <v>2</v>
@@ -36559,7 +36520,7 @@
       <c r="Y576" s="18"/>
       <c r="Z576" s="18"/>
     </row>
-    <row r="577" spans="1:26">
+    <row r="577" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A577" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36592,7 +36553,7 @@
       <c r="Y577" s="18"/>
       <c r="Z577" s="18"/>
     </row>
-    <row r="578" spans="1:26">
+    <row r="578" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A578" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36625,7 +36586,7 @@
       <c r="Y578" s="18"/>
       <c r="Z578" s="18"/>
     </row>
-    <row r="579" spans="1:26">
+    <row r="579" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A579" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36658,7 +36619,7 @@
       <c r="Y579" s="18"/>
       <c r="Z579" s="18"/>
     </row>
-    <row r="580" spans="1:26">
+    <row r="580" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A580" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36691,7 +36652,7 @@
       <c r="Y580" s="18"/>
       <c r="Z580" s="18"/>
     </row>
-    <row r="581" spans="1:26">
+    <row r="581" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A581" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36724,7 +36685,7 @@
       <c r="Y581" s="18"/>
       <c r="Z581" s="18"/>
     </row>
-    <row r="582" spans="1:26">
+    <row r="582" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A582" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36757,7 +36718,7 @@
       <c r="Y582" s="18"/>
       <c r="Z582" s="18"/>
     </row>
-    <row r="583" spans="1:26">
+    <row r="583" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A583" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36790,7 +36751,7 @@
       <c r="Y583" s="18"/>
       <c r="Z583" s="18"/>
     </row>
-    <row r="584" spans="1:26">
+    <row r="584" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A584" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36823,7 +36784,7 @@
       <c r="Y584" s="18"/>
       <c r="Z584" s="18"/>
     </row>
-    <row r="585" spans="1:26">
+    <row r="585" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A585" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36856,7 +36817,7 @@
       <c r="Y585" s="18"/>
       <c r="Z585" s="18"/>
     </row>
-    <row r="586" spans="1:26">
+    <row r="586" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A586" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36889,7 +36850,7 @@
       <c r="Y586" s="18"/>
       <c r="Z586" s="18"/>
     </row>
-    <row r="587" spans="1:26">
+    <row r="587" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A587" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36922,7 +36883,7 @@
       <c r="Y587" s="18"/>
       <c r="Z587" s="18"/>
     </row>
-    <row r="588" spans="1:26">
+    <row r="588" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A588" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36955,7 +36916,7 @@
       <c r="Y588" s="18"/>
       <c r="Z588" s="18"/>
     </row>
-    <row r="589" spans="1:26">
+    <row r="589" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A589" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -36988,7 +36949,7 @@
       <c r="Y589" s="18"/>
       <c r="Z589" s="18"/>
     </row>
-    <row r="590" spans="1:26">
+    <row r="590" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A590" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37021,7 +36982,7 @@
       <c r="Y590" s="18"/>
       <c r="Z590" s="18"/>
     </row>
-    <row r="591" spans="1:26">
+    <row r="591" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A591" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37054,7 +37015,7 @@
       <c r="Y591" s="18"/>
       <c r="Z591" s="18"/>
     </row>
-    <row r="592" spans="1:26">
+    <row r="592" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A592" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37087,7 +37048,7 @@
       <c r="Y592" s="18"/>
       <c r="Z592" s="18"/>
     </row>
-    <row r="593" spans="1:26">
+    <row r="593" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A593" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37122,7 +37083,7 @@
       <c r="Y593" s="18"/>
       <c r="Z593" s="18"/>
     </row>
-    <row r="594" spans="1:26">
+    <row r="594" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A594" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37157,7 +37118,7 @@
       <c r="Y594" s="18"/>
       <c r="Z594" s="18"/>
     </row>
-    <row r="595" spans="1:26">
+    <row r="595" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A595" s="18">
         <f t="shared" si="59"/>
         <v>1</v>
@@ -37192,7 +37153,7 @@
       <c r="Y595" s="18"/>
       <c r="Z595" s="18"/>
     </row>
-    <row r="596" spans="1:26">
+    <row r="596" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A596" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37225,7 +37186,7 @@
       <c r="Y596" s="18"/>
       <c r="Z596" s="18"/>
     </row>
-    <row r="597" spans="1:26">
+    <row r="597" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A597" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37258,7 +37219,7 @@
       <c r="Y597" s="18"/>
       <c r="Z597" s="18"/>
     </row>
-    <row r="598" spans="1:26">
+    <row r="598" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A598" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37291,7 +37252,7 @@
       <c r="Y598" s="18"/>
       <c r="Z598" s="18"/>
     </row>
-    <row r="599" spans="1:26">
+    <row r="599" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A599" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37324,7 +37285,7 @@
       <c r="Y599" s="18"/>
       <c r="Z599" s="18"/>
     </row>
-    <row r="600" spans="1:26">
+    <row r="600" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A600" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37357,7 +37318,7 @@
       <c r="Y600" s="18"/>
       <c r="Z600" s="18"/>
     </row>
-    <row r="601" spans="1:26">
+    <row r="601" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A601" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37390,7 +37351,7 @@
       <c r="Y601" s="18"/>
       <c r="Z601" s="18"/>
     </row>
-    <row r="602" spans="1:26">
+    <row r="602" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A602" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37423,7 +37384,7 @@
       <c r="Y602" s="18"/>
       <c r="Z602" s="18"/>
     </row>
-    <row r="603" spans="1:26">
+    <row r="603" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A603" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37456,7 +37417,7 @@
       <c r="Y603" s="18"/>
       <c r="Z603" s="18"/>
     </row>
-    <row r="604" spans="1:26">
+    <row r="604" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A604" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37489,7 +37450,7 @@
       <c r="Y604" s="18"/>
       <c r="Z604" s="18"/>
     </row>
-    <row r="605" spans="1:26">
+    <row r="605" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A605" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37522,7 +37483,7 @@
       <c r="Y605" s="18"/>
       <c r="Z605" s="18"/>
     </row>
-    <row r="606" spans="1:26">
+    <row r="606" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A606" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37555,7 +37516,7 @@
       <c r="Y606" s="18"/>
       <c r="Z606" s="18"/>
     </row>
-    <row r="607" spans="1:26">
+    <row r="607" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A607" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37588,7 +37549,7 @@
       <c r="Y607" s="18"/>
       <c r="Z607" s="18"/>
     </row>
-    <row r="608" spans="1:26">
+    <row r="608" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A608" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37621,7 +37582,7 @@
       <c r="Y608" s="18"/>
       <c r="Z608" s="18"/>
     </row>
-    <row r="609" spans="1:26">
+    <row r="609" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A609" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37654,7 +37615,7 @@
       <c r="Y609" s="18"/>
       <c r="Z609" s="18"/>
     </row>
-    <row r="610" spans="1:26">
+    <row r="610" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A610" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37687,7 +37648,7 @@
       <c r="Y610" s="18"/>
       <c r="Z610" s="18"/>
     </row>
-    <row r="611" spans="1:26">
+    <row r="611" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A611" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37720,7 +37681,7 @@
       <c r="Y611" s="18"/>
       <c r="Z611" s="18"/>
     </row>
-    <row r="612" spans="1:26">
+    <row r="612" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A612" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37753,7 +37714,7 @@
       <c r="Y612" s="18"/>
       <c r="Z612" s="18"/>
     </row>
-    <row r="613" spans="1:26">
+    <row r="613" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A613" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37786,7 +37747,7 @@
       <c r="Y613" s="18"/>
       <c r="Z613" s="18"/>
     </row>
-    <row r="614" spans="1:26">
+    <row r="614" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A614" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37819,7 +37780,7 @@
       <c r="Y614" s="18"/>
       <c r="Z614" s="18"/>
     </row>
-    <row r="615" spans="1:26">
+    <row r="615" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A615" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37852,7 +37813,7 @@
       <c r="Y615" s="18"/>
       <c r="Z615" s="18"/>
     </row>
-    <row r="616" spans="1:26">
+    <row r="616" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A616" s="18">
         <f t="shared" si="59"/>
         <v>0</v>
@@ -37885,7 +37846,7 @@
       <c r="Y616" s="18"/>
       <c r="Z616" s="18"/>
     </row>
-    <row r="617" spans="1:26">
+    <row r="617" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A617" s="13"/>
       <c r="B617" s="21" t="s">
         <v>610</v>
@@ -37984,7 +37945,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="618" spans="1:26">
+    <row r="618" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A618" s="18">
         <f t="shared" ref="A618:A671" si="61">COUNTA(D618:Z618)</f>
         <v>0</v>
@@ -38017,7 +37978,7 @@
       <c r="Y618" s="18"/>
       <c r="Z618" s="18"/>
     </row>
-    <row r="619" spans="1:26">
+    <row r="619" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A619" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38050,7 +38011,7 @@
       <c r="Y619" s="18"/>
       <c r="Z619" s="18"/>
     </row>
-    <row r="620" spans="1:26">
+    <row r="620" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A620" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38083,7 +38044,7 @@
       <c r="Y620" s="18"/>
       <c r="Z620" s="18"/>
     </row>
-    <row r="621" spans="1:26">
+    <row r="621" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A621" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38116,7 +38077,7 @@
       <c r="Y621" s="18"/>
       <c r="Z621" s="18"/>
     </row>
-    <row r="622" spans="1:26">
+    <row r="622" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A622" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38149,7 +38110,7 @@
       <c r="Y622" s="18"/>
       <c r="Z622" s="18"/>
     </row>
-    <row r="623" spans="1:26">
+    <row r="623" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A623" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38182,7 +38143,7 @@
       <c r="Y623" s="18"/>
       <c r="Z623" s="18"/>
     </row>
-    <row r="624" spans="1:26">
+    <row r="624" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A624" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38215,7 +38176,7 @@
       <c r="Y624" s="18"/>
       <c r="Z624" s="18"/>
     </row>
-    <row r="625" spans="1:26">
+    <row r="625" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A625" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38248,7 +38209,7 @@
       <c r="Y625" s="18"/>
       <c r="Z625" s="18"/>
     </row>
-    <row r="626" spans="1:26">
+    <row r="626" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A626" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38281,7 +38242,7 @@
       <c r="Y626" s="18"/>
       <c r="Z626" s="18"/>
     </row>
-    <row r="627" spans="1:26">
+    <row r="627" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A627" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38314,7 +38275,7 @@
       <c r="Y627" s="18"/>
       <c r="Z627" s="18"/>
     </row>
-    <row r="628" spans="1:26">
+    <row r="628" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A628" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38347,7 +38308,7 @@
       <c r="Y628" s="18"/>
       <c r="Z628" s="18"/>
     </row>
-    <row r="629" spans="1:26">
+    <row r="629" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A629" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38380,7 +38341,7 @@
       <c r="Y629" s="18"/>
       <c r="Z629" s="18"/>
     </row>
-    <row r="630" spans="1:26">
+    <row r="630" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A630" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38413,7 +38374,7 @@
       <c r="Y630" s="18"/>
       <c r="Z630" s="18"/>
     </row>
-    <row r="631" spans="1:26">
+    <row r="631" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A631" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38446,7 +38407,7 @@
       <c r="Y631" s="18"/>
       <c r="Z631" s="18"/>
     </row>
-    <row r="632" spans="1:26">
+    <row r="632" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A632" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38479,7 +38440,7 @@
       <c r="Y632" s="18"/>
       <c r="Z632" s="18"/>
     </row>
-    <row r="633" spans="1:26">
+    <row r="633" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A633" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38512,7 +38473,7 @@
       <c r="Y633" s="18"/>
       <c r="Z633" s="18"/>
     </row>
-    <row r="634" spans="1:26">
+    <row r="634" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A634" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38545,7 +38506,7 @@
       <c r="Y634" s="18"/>
       <c r="Z634" s="18"/>
     </row>
-    <row r="635" spans="1:26">
+    <row r="635" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A635" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38578,7 +38539,7 @@
       <c r="Y635" s="18"/>
       <c r="Z635" s="18"/>
     </row>
-    <row r="636" spans="1:26">
+    <row r="636" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A636" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38611,7 +38572,7 @@
       <c r="Y636" s="18"/>
       <c r="Z636" s="18"/>
     </row>
-    <row r="637" spans="1:26">
+    <row r="637" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A637" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38644,7 +38605,7 @@
       <c r="Y637" s="18"/>
       <c r="Z637" s="18"/>
     </row>
-    <row r="638" spans="1:26">
+    <row r="638" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A638" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38677,7 +38638,7 @@
       <c r="Y638" s="18"/>
       <c r="Z638" s="18"/>
     </row>
-    <row r="639" spans="1:26">
+    <row r="639" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A639" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38710,7 +38671,7 @@
       <c r="Y639" s="18"/>
       <c r="Z639" s="18"/>
     </row>
-    <row r="640" spans="1:26">
+    <row r="640" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A640" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38743,7 +38704,7 @@
       <c r="Y640" s="18"/>
       <c r="Z640" s="18"/>
     </row>
-    <row r="641" spans="1:26">
+    <row r="641" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A641" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38776,7 +38737,7 @@
       <c r="Y641" s="18"/>
       <c r="Z641" s="18"/>
     </row>
-    <row r="642" spans="1:26">
+    <row r="642" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A642" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38809,7 +38770,7 @@
       <c r="Y642" s="18"/>
       <c r="Z642" s="18"/>
     </row>
-    <row r="643" spans="1:26">
+    <row r="643" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A643" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38842,7 +38803,7 @@
       <c r="Y643" s="18"/>
       <c r="Z643" s="18"/>
     </row>
-    <row r="644" spans="1:26">
+    <row r="644" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A644" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38875,7 +38836,7 @@
       <c r="Y644" s="18"/>
       <c r="Z644" s="18"/>
     </row>
-    <row r="645" spans="1:26">
+    <row r="645" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A645" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38908,7 +38869,7 @@
       <c r="Y645" s="18"/>
       <c r="Z645" s="18"/>
     </row>
-    <row r="646" spans="1:26">
+    <row r="646" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A646" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38941,7 +38902,7 @@
       <c r="Y646" s="18"/>
       <c r="Z646" s="18"/>
     </row>
-    <row r="647" spans="1:26">
+    <row r="647" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A647" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -38974,7 +38935,7 @@
       <c r="Y647" s="18"/>
       <c r="Z647" s="18"/>
     </row>
-    <row r="648" spans="1:26">
+    <row r="648" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A648" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39007,7 +38968,7 @@
       <c r="Y648" s="18"/>
       <c r="Z648" s="18"/>
     </row>
-    <row r="649" spans="1:26">
+    <row r="649" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A649" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39040,7 +39001,7 @@
       <c r="Y649" s="18"/>
       <c r="Z649" s="18"/>
     </row>
-    <row r="650" spans="1:26">
+    <row r="650" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A650" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39073,7 +39034,7 @@
       <c r="Y650" s="18"/>
       <c r="Z650" s="18"/>
     </row>
-    <row r="651" spans="1:26">
+    <row r="651" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A651" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39106,7 +39067,7 @@
       <c r="Y651" s="18"/>
       <c r="Z651" s="18"/>
     </row>
-    <row r="652" spans="1:26">
+    <row r="652" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A652" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39139,7 +39100,7 @@
       <c r="Y652" s="18"/>
       <c r="Z652" s="18"/>
     </row>
-    <row r="653" spans="1:26">
+    <row r="653" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A653" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39172,7 +39133,7 @@
       <c r="Y653" s="18"/>
       <c r="Z653" s="18"/>
     </row>
-    <row r="654" spans="1:26">
+    <row r="654" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A654" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39205,7 +39166,7 @@
       <c r="Y654" s="18"/>
       <c r="Z654" s="18"/>
     </row>
-    <row r="655" spans="1:26">
+    <row r="655" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A655" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39238,7 +39199,7 @@
       <c r="Y655" s="18"/>
       <c r="Z655" s="18"/>
     </row>
-    <row r="656" spans="1:26">
+    <row r="656" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A656" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39271,7 +39232,7 @@
       <c r="Y656" s="18"/>
       <c r="Z656" s="18"/>
     </row>
-    <row r="657" spans="1:26">
+    <row r="657" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A657" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39304,7 +39265,7 @@
       <c r="Y657" s="18"/>
       <c r="Z657" s="18"/>
     </row>
-    <row r="658" spans="1:26">
+    <row r="658" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A658" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39337,7 +39298,7 @@
       <c r="Y658" s="18"/>
       <c r="Z658" s="18"/>
     </row>
-    <row r="659" spans="1:26">
+    <row r="659" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A659" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39370,7 +39331,7 @@
       <c r="Y659" s="18"/>
       <c r="Z659" s="18"/>
     </row>
-    <row r="660" spans="1:26">
+    <row r="660" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A660" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39403,7 +39364,7 @@
       <c r="Y660" s="18"/>
       <c r="Z660" s="18"/>
     </row>
-    <row r="661" spans="1:26">
+    <row r="661" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A661" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39436,7 +39397,7 @@
       <c r="Y661" s="18"/>
       <c r="Z661" s="18"/>
     </row>
-    <row r="662" spans="1:26">
+    <row r="662" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A662" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39469,7 +39430,7 @@
       <c r="Y662" s="18"/>
       <c r="Z662" s="18"/>
     </row>
-    <row r="663" spans="1:26">
+    <row r="663" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A663" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39502,7 +39463,7 @@
       <c r="Y663" s="18"/>
       <c r="Z663" s="18"/>
     </row>
-    <row r="664" spans="1:26">
+    <row r="664" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A664" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39535,7 +39496,7 @@
       <c r="Y664" s="18"/>
       <c r="Z664" s="18"/>
     </row>
-    <row r="665" spans="1:26">
+    <row r="665" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A665" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39568,7 +39529,7 @@
       <c r="Y665" s="18"/>
       <c r="Z665" s="18"/>
     </row>
-    <row r="666" spans="1:26">
+    <row r="666" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A666" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39601,7 +39562,7 @@
       <c r="Y666" s="18"/>
       <c r="Z666" s="18"/>
     </row>
-    <row r="667" spans="1:26">
+    <row r="667" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A667" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39634,7 +39595,7 @@
       <c r="Y667" s="18"/>
       <c r="Z667" s="18"/>
     </row>
-    <row r="668" spans="1:26">
+    <row r="668" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A668" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39667,7 +39628,7 @@
       <c r="Y668" s="18"/>
       <c r="Z668" s="18"/>
     </row>
-    <row r="669" spans="1:26">
+    <row r="669" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A669" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39700,7 +39661,7 @@
       <c r="Y669" s="18"/>
       <c r="Z669" s="18"/>
     </row>
-    <row r="670" spans="1:26">
+    <row r="670" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A670" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39733,7 +39694,7 @@
       <c r="Y670" s="18"/>
       <c r="Z670" s="18"/>
     </row>
-    <row r="671" spans="1:26">
+    <row r="671" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A671" s="18">
         <f t="shared" si="61"/>
         <v>0</v>
@@ -39766,7 +39727,7 @@
       <c r="Y671" s="18"/>
       <c r="Z671" s="18"/>
     </row>
-    <row r="672" spans="1:26">
+    <row r="672" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A672" s="13"/>
       <c r="B672" s="21" t="s">
         <v>638</v>
@@ -39865,7 +39826,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="673" spans="1:26">
+    <row r="673" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A673" s="18">
         <f t="shared" ref="A673:A726" si="64">COUNTA(D673:Z673)</f>
         <v>0</v>
@@ -39898,7 +39859,7 @@
       <c r="Y673" s="18"/>
       <c r="Z673" s="18"/>
     </row>
-    <row r="674" spans="1:26">
+    <row r="674" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A674" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39931,7 +39892,7 @@
       <c r="Y674" s="18"/>
       <c r="Z674" s="18"/>
     </row>
-    <row r="675" spans="1:26">
+    <row r="675" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A675" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39964,7 +39925,7 @@
       <c r="Y675" s="18"/>
       <c r="Z675" s="18"/>
     </row>
-    <row r="676" spans="1:26">
+    <row r="676" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A676" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -39997,7 +39958,7 @@
       <c r="Y676" s="18"/>
       <c r="Z676" s="18"/>
     </row>
-    <row r="677" spans="1:26">
+    <row r="677" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A677" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40030,7 +39991,7 @@
       <c r="Y677" s="18"/>
       <c r="Z677" s="18"/>
     </row>
-    <row r="678" spans="1:26">
+    <row r="678" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A678" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40063,7 +40024,7 @@
       <c r="Y678" s="18"/>
       <c r="Z678" s="18"/>
     </row>
-    <row r="679" spans="1:26">
+    <row r="679" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A679" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40096,7 +40057,7 @@
       <c r="Y679" s="18"/>
       <c r="Z679" s="18"/>
     </row>
-    <row r="680" spans="1:26">
+    <row r="680" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A680" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40129,7 +40090,7 @@
       <c r="Y680" s="18"/>
       <c r="Z680" s="18"/>
     </row>
-    <row r="681" spans="1:26">
+    <row r="681" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A681" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40162,7 +40123,7 @@
       <c r="Y681" s="18"/>
       <c r="Z681" s="18"/>
     </row>
-    <row r="682" spans="1:26">
+    <row r="682" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A682" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40195,7 +40156,7 @@
       <c r="Y682" s="18"/>
       <c r="Z682" s="18"/>
     </row>
-    <row r="683" spans="1:26">
+    <row r="683" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A683" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40228,7 +40189,7 @@
       <c r="Y683" s="18"/>
       <c r="Z683" s="18"/>
     </row>
-    <row r="684" spans="1:26">
+    <row r="684" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A684" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40261,7 +40222,7 @@
       <c r="Y684" s="18"/>
       <c r="Z684" s="18"/>
     </row>
-    <row r="685" spans="1:26">
+    <row r="685" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A685" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40294,7 +40255,7 @@
       <c r="Y685" s="18"/>
       <c r="Z685" s="18"/>
     </row>
-    <row r="686" spans="1:26">
+    <row r="686" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A686" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40327,7 +40288,7 @@
       <c r="Y686" s="18"/>
       <c r="Z686" s="18"/>
     </row>
-    <row r="687" spans="1:26">
+    <row r="687" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A687" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40360,7 +40321,7 @@
       <c r="Y687" s="18"/>
       <c r="Z687" s="18"/>
     </row>
-    <row r="688" spans="1:26">
+    <row r="688" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A688" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40393,7 +40354,7 @@
       <c r="Y688" s="18"/>
       <c r="Z688" s="18"/>
     </row>
-    <row r="689" spans="1:26">
+    <row r="689" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A689" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40426,7 +40387,7 @@
       <c r="Y689" s="18"/>
       <c r="Z689" s="18"/>
     </row>
-    <row r="690" spans="1:26">
+    <row r="690" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A690" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40459,7 +40420,7 @@
       <c r="Y690" s="18"/>
       <c r="Z690" s="18"/>
     </row>
-    <row r="691" spans="1:26">
+    <row r="691" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A691" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40492,7 +40453,7 @@
       <c r="Y691" s="18"/>
       <c r="Z691" s="18"/>
     </row>
-    <row r="692" spans="1:26">
+    <row r="692" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A692" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40525,7 +40486,7 @@
       <c r="Y692" s="18"/>
       <c r="Z692" s="18"/>
     </row>
-    <row r="693" spans="1:26">
+    <row r="693" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A693" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40558,7 +40519,7 @@
       <c r="Y693" s="18"/>
       <c r="Z693" s="18"/>
     </row>
-    <row r="694" spans="1:26">
+    <row r="694" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A694" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40591,7 +40552,7 @@
       <c r="Y694" s="18"/>
       <c r="Z694" s="18"/>
     </row>
-    <row r="695" spans="1:26">
+    <row r="695" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A695" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40624,7 +40585,7 @@
       <c r="Y695" s="18"/>
       <c r="Z695" s="18"/>
     </row>
-    <row r="696" spans="1:26">
+    <row r="696" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A696" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40657,7 +40618,7 @@
       <c r="Y696" s="18"/>
       <c r="Z696" s="18"/>
     </row>
-    <row r="697" spans="1:26">
+    <row r="697" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A697" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40690,7 +40651,7 @@
       <c r="Y697" s="18"/>
       <c r="Z697" s="18"/>
     </row>
-    <row r="698" spans="1:26">
+    <row r="698" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A698" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40723,7 +40684,7 @@
       <c r="Y698" s="18"/>
       <c r="Z698" s="18"/>
     </row>
-    <row r="699" spans="1:26">
+    <row r="699" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A699" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40756,7 +40717,7 @@
       <c r="Y699" s="18"/>
       <c r="Z699" s="18"/>
     </row>
-    <row r="700" spans="1:26">
+    <row r="700" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A700" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40789,7 +40750,7 @@
       <c r="Y700" s="18"/>
       <c r="Z700" s="18"/>
     </row>
-    <row r="701" spans="1:26">
+    <row r="701" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A701" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40822,7 +40783,7 @@
       <c r="Y701" s="18"/>
       <c r="Z701" s="18"/>
     </row>
-    <row r="702" spans="1:26">
+    <row r="702" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A702" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40855,7 +40816,7 @@
       <c r="Y702" s="18"/>
       <c r="Z702" s="18"/>
     </row>
-    <row r="703" spans="1:26">
+    <row r="703" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A703" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40888,7 +40849,7 @@
       <c r="Y703" s="18"/>
       <c r="Z703" s="18"/>
     </row>
-    <row r="704" spans="1:26">
+    <row r="704" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A704" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40921,7 +40882,7 @@
       <c r="Y704" s="18"/>
       <c r="Z704" s="18"/>
     </row>
-    <row r="705" spans="1:26">
+    <row r="705" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A705" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40954,7 +40915,7 @@
       <c r="Y705" s="18"/>
       <c r="Z705" s="18"/>
     </row>
-    <row r="706" spans="1:26">
+    <row r="706" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A706" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -40987,7 +40948,7 @@
       <c r="Y706" s="18"/>
       <c r="Z706" s="18"/>
     </row>
-    <row r="707" spans="1:26">
+    <row r="707" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A707" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41020,7 +40981,7 @@
       <c r="Y707" s="18"/>
       <c r="Z707" s="18"/>
     </row>
-    <row r="708" spans="1:26">
+    <row r="708" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A708" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41053,7 +41014,7 @@
       <c r="Y708" s="18"/>
       <c r="Z708" s="18"/>
     </row>
-    <row r="709" spans="1:26">
+    <row r="709" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A709" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41086,7 +41047,7 @@
       <c r="Y709" s="18"/>
       <c r="Z709" s="18"/>
     </row>
-    <row r="710" spans="1:26">
+    <row r="710" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A710" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41119,7 +41080,7 @@
       <c r="Y710" s="18"/>
       <c r="Z710" s="18"/>
     </row>
-    <row r="711" spans="1:26">
+    <row r="711" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A711" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41152,7 +41113,7 @@
       <c r="Y711" s="18"/>
       <c r="Z711" s="18"/>
     </row>
-    <row r="712" spans="1:26">
+    <row r="712" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A712" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41185,7 +41146,7 @@
       <c r="Y712" s="18"/>
       <c r="Z712" s="18"/>
     </row>
-    <row r="713" spans="1:26">
+    <row r="713" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A713" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41218,7 +41179,7 @@
       <c r="Y713" s="18"/>
       <c r="Z713" s="18"/>
     </row>
-    <row r="714" spans="1:26">
+    <row r="714" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A714" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41251,7 +41212,7 @@
       <c r="Y714" s="18"/>
       <c r="Z714" s="18"/>
     </row>
-    <row r="715" spans="1:26">
+    <row r="715" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A715" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41284,7 +41245,7 @@
       <c r="Y715" s="18"/>
       <c r="Z715" s="18"/>
     </row>
-    <row r="716" spans="1:26">
+    <row r="716" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A716" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41317,7 +41278,7 @@
       <c r="Y716" s="18"/>
       <c r="Z716" s="18"/>
     </row>
-    <row r="717" spans="1:26">
+    <row r="717" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A717" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41350,7 +41311,7 @@
       <c r="Y717" s="18"/>
       <c r="Z717" s="18"/>
     </row>
-    <row r="718" spans="1:26">
+    <row r="718" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A718" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41383,7 +41344,7 @@
       <c r="Y718" s="18"/>
       <c r="Z718" s="18"/>
     </row>
-    <row r="719" spans="1:26">
+    <row r="719" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A719" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41416,7 +41377,7 @@
       <c r="Y719" s="18"/>
       <c r="Z719" s="18"/>
     </row>
-    <row r="720" spans="1:26">
+    <row r="720" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A720" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41449,7 +41410,7 @@
       <c r="Y720" s="18"/>
       <c r="Z720" s="18"/>
     </row>
-    <row r="721" spans="1:26">
+    <row r="721" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A721" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41482,7 +41443,7 @@
       <c r="Y721" s="18"/>
       <c r="Z721" s="18"/>
     </row>
-    <row r="722" spans="1:26">
+    <row r="722" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A722" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41515,7 +41476,7 @@
       <c r="Y722" s="18"/>
       <c r="Z722" s="18"/>
     </row>
-    <row r="723" spans="1:26">
+    <row r="723" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A723" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41548,7 +41509,7 @@
       <c r="Y723" s="18"/>
       <c r="Z723" s="18"/>
     </row>
-    <row r="724" spans="1:26">
+    <row r="724" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A724" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41581,7 +41542,7 @@
       <c r="Y724" s="18"/>
       <c r="Z724" s="18"/>
     </row>
-    <row r="725" spans="1:26">
+    <row r="725" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A725" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41614,7 +41575,7 @@
       <c r="Y725" s="18"/>
       <c r="Z725" s="18"/>
     </row>
-    <row r="726" spans="1:26">
+    <row r="726" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A726" s="18">
         <f t="shared" si="64"/>
         <v>0</v>
@@ -41647,7 +41608,7 @@
       <c r="Y726" s="18"/>
       <c r="Z726" s="18"/>
     </row>
-    <row r="727" spans="1:26">
+    <row r="727" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A727" s="13"/>
       <c r="B727" s="20" t="s">
         <v>220</v>
@@ -41746,7 +41707,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="728" spans="1:26">
+    <row r="728" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A728" s="18">
         <f>COUNTA(D728:Z728)</f>
         <v>5</v>
@@ -41791,7 +41752,7 @@
       <c r="Y728" s="18"/>
       <c r="Z728" s="18"/>
     </row>
-    <row r="729" spans="1:26">
+    <row r="729" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A729" s="18">
         <f>COUNTA(D729:Z729)</f>
         <v>2</v>
@@ -41830,7 +41791,7 @@
       <c r="Y729" s="18"/>
       <c r="Z729" s="18"/>
     </row>
-    <row r="730" spans="1:26">
+    <row r="730" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A730" s="18">
         <f>COUNTA(D730:Z730)</f>
         <v>2</v>
@@ -41869,7 +41830,7 @@
       <c r="Y730" s="18"/>
       <c r="Z730" s="18"/>
     </row>
-    <row r="731" spans="1:26">
+    <row r="731" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A731" s="18">
         <f>COUNTA(D731:Z731)</f>
         <v>2</v>
@@ -41908,7 +41869,7 @@
       <c r="Y731" s="18"/>
       <c r="Z731" s="18"/>
     </row>
-    <row r="732" spans="1:26">
+    <row r="732" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A732" s="18">
         <f>COUNTA(D732:Z732)</f>
         <v>2</v>
@@ -41947,7 +41908,7 @@
       <c r="Y732" s="18"/>
       <c r="Z732" s="18"/>
     </row>
-    <row r="733" spans="1:26" ht="25.5">
+    <row r="733" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A733" s="18">
         <f t="shared" ref="A733:A743" si="67">COUNTA(D733:Z733)</f>
         <v>10</v>
@@ -42002,7 +41963,7 @@
       <c r="Y733" s="18"/>
       <c r="Z733" s="18"/>
     </row>
-    <row r="734" spans="1:26">
+    <row r="734" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A734" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42039,7 +42000,7 @@
       <c r="Y734" s="18"/>
       <c r="Z734" s="18"/>
     </row>
-    <row r="735" spans="1:26">
+    <row r="735" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A735" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42076,7 +42037,7 @@
       <c r="Y735" s="18"/>
       <c r="Z735" s="18"/>
     </row>
-    <row r="736" spans="1:26">
+    <row r="736" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A736" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42113,7 +42074,7 @@
       <c r="Y736" s="18"/>
       <c r="Z736" s="18"/>
     </row>
-    <row r="737" spans="1:26">
+    <row r="737" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A737" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42150,7 +42111,7 @@
       <c r="Y737" s="18"/>
       <c r="Z737" s="18"/>
     </row>
-    <row r="738" spans="1:26">
+    <row r="738" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A738" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42187,7 +42148,7 @@
       <c r="Y738" s="18"/>
       <c r="Z738" s="18"/>
     </row>
-    <row r="739" spans="1:26">
+    <row r="739" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A739" s="18">
         <f t="shared" si="67"/>
         <v>3</v>
@@ -42228,7 +42189,7 @@
       <c r="Y739" s="18"/>
       <c r="Z739" s="18"/>
     </row>
-    <row r="740" spans="1:26">
+    <row r="740" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A740" s="18">
         <f t="shared" si="67"/>
         <v>5</v>
@@ -42273,7 +42234,7 @@
       <c r="Y740" s="18"/>
       <c r="Z740" s="18"/>
     </row>
-    <row r="741" spans="1:26">
+    <row r="741" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A741" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42312,7 +42273,7 @@
       <c r="Y741" s="18"/>
       <c r="Z741" s="18"/>
     </row>
-    <row r="742" spans="1:26">
+    <row r="742" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A742" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42351,7 +42312,7 @@
       <c r="Y742" s="18"/>
       <c r="Z742" s="18"/>
     </row>
-    <row r="743" spans="1:26">
+    <row r="743" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A743" s="18">
         <f t="shared" si="67"/>
         <v>2</v>
@@ -42390,7 +42351,7 @@
       <c r="Y743" s="18"/>
       <c r="Z743" s="18"/>
     </row>
-    <row r="744" spans="1:26">
+    <row r="744" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A744" s="13"/>
       <c r="B744" s="20" t="s">
         <v>245</v>
@@ -42489,7 +42450,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="745" spans="1:26">
+    <row r="745" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A745" s="18">
         <f>COUNTA(D745:Z745)</f>
         <v>2</v>
@@ -42526,7 +42487,7 @@
       <c r="Y745" s="18"/>
       <c r="Z745" s="18"/>
     </row>
-    <row r="746" spans="1:26">
+    <row r="746" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A746" s="18">
         <f>COUNTA(D746:Z746)</f>
         <v>2</v>
@@ -42563,7 +42524,7 @@
       <c r="Y746" s="18"/>
       <c r="Z746" s="18"/>
     </row>
-    <row r="747" spans="1:26">
+    <row r="747" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A747" s="18">
         <f>COUNTA(D747:Z747)</f>
         <v>2</v>
@@ -42600,7 +42561,7 @@
       <c r="Y747" s="18"/>
       <c r="Z747" s="18"/>
     </row>
-    <row r="748" spans="1:26">
+    <row r="748" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A748" s="18">
         <f>COUNTA(D748:Z748)</f>
         <v>2</v>
@@ -42637,7 +42598,7 @@
       <c r="Y748" s="18"/>
       <c r="Z748" s="18"/>
     </row>
-    <row r="749" spans="1:26">
+    <row r="749" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A749" s="13"/>
       <c r="B749" s="20" t="s">
         <v>250</v>
@@ -42736,7 +42697,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="750" spans="1:26">
+    <row r="750" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A750" s="18">
         <f t="shared" ref="A750:A758" si="72">COUNTA(D750:Z750)</f>
         <v>3</v>
@@ -42775,7 +42736,7 @@
       <c r="Y750" s="18"/>
       <c r="Z750" s="18"/>
     </row>
-    <row r="751" spans="1:26">
+    <row r="751" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A751" s="18">
         <f t="shared" si="72"/>
         <v>3</v>
@@ -42814,7 +42775,7 @@
       <c r="Y751" s="18"/>
       <c r="Z751" s="18"/>
     </row>
-    <row r="752" spans="1:26">
+    <row r="752" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A752" s="18">
         <f t="shared" si="72"/>
         <v>0</v>
@@ -42847,7 +42808,7 @@
       <c r="Y752" s="18"/>
       <c r="Z752" s="18"/>
     </row>
-    <row r="753" spans="1:26">
+    <row r="753" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A753" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42882,7 +42843,7 @@
       <c r="Y753" s="18"/>
       <c r="Z753" s="18"/>
     </row>
-    <row r="754" spans="1:26">
+    <row r="754" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A754" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -42917,7 +42878,7 @@
       <c r="Y754" s="18"/>
       <c r="Z754" s="18"/>
     </row>
-    <row r="755" spans="1:26">
+    <row r="755" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A755" s="18">
         <f t="shared" si="72"/>
         <v>3</v>
@@ -42956,7 +42917,7 @@
       <c r="Y755" s="18"/>
       <c r="Z755" s="18"/>
     </row>
-    <row r="756" spans="1:26">
+    <row r="756" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A756" s="18">
         <f t="shared" si="72"/>
         <v>4</v>
@@ -42997,7 +42958,7 @@
       <c r="Y756" s="18"/>
       <c r="Z756" s="18"/>
     </row>
-    <row r="757" spans="1:26">
+    <row r="757" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A757" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -43032,7 +42993,7 @@
       <c r="Y757" s="18"/>
       <c r="Z757" s="18"/>
     </row>
-    <row r="758" spans="1:26">
+    <row r="758" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A758" s="18">
         <f t="shared" si="72"/>
         <v>1</v>
@@ -43067,7 +43028,7 @@
       <c r="Y758" s="18"/>
       <c r="Z758" s="18"/>
     </row>
-    <row r="759" spans="1:26">
+    <row r="759" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A759" s="13"/>
       <c r="B759" s="20" t="s">
         <v>321</v>
@@ -43166,7 +43127,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="760" spans="1:26">
+    <row r="760" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A760" s="18">
         <f>COUNTA(D760:Z760)</f>
         <v>0</v>
@@ -43199,7 +43160,7 @@
       <c r="Y760" s="18"/>
       <c r="Z760" s="18"/>
     </row>
-    <row r="761" spans="1:26">
+    <row r="761" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A761" s="13"/>
       <c r="B761" s="20" t="s">
         <v>323</v>
@@ -43298,7 +43259,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="762" spans="1:26">
+    <row r="762" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A762" s="18">
         <f>COUNTA(D762:Z762)</f>
         <v>3</v>
@@ -43337,7 +43298,7 @@
       <c r="Y762" s="18"/>
       <c r="Z762" s="18"/>
     </row>
-    <row r="763" spans="1:26">
+    <row r="763" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A763" s="13"/>
       <c r="B763" s="20" t="s">
         <v>326</v>
@@ -43436,7 +43397,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="764" spans="1:26">
+    <row r="764" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A764" s="18">
         <f t="shared" ref="A764:A769" si="79">COUNTA(D764:Z764)</f>
         <v>2</v>
@@ -43473,7 +43434,7 @@
       <c r="Y764" s="18"/>
       <c r="Z764" s="18"/>
     </row>
-    <row r="765" spans="1:26">
+    <row r="765" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A765" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43510,7 +43471,7 @@
       <c r="Y765" s="18"/>
       <c r="Z765" s="18"/>
     </row>
-    <row r="766" spans="1:26">
+    <row r="766" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A766" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43547,7 +43508,7 @@
       <c r="Y766" s="18"/>
       <c r="Z766" s="18"/>
     </row>
-    <row r="767" spans="1:26">
+    <row r="767" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A767" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43584,7 +43545,7 @@
       <c r="Y767" s="18"/>
       <c r="Z767" s="18"/>
     </row>
-    <row r="768" spans="1:26">
+    <row r="768" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A768" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43621,7 +43582,7 @@
       <c r="Y768" s="18"/>
       <c r="Z768" s="18"/>
     </row>
-    <row r="769" spans="1:26">
+    <row r="769" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A769" s="18">
         <f t="shared" si="79"/>
         <v>2</v>
@@ -43658,7 +43619,7 @@
       <c r="Y769" s="18"/>
       <c r="Z769" s="18"/>
     </row>
-    <row r="770" spans="1:26">
+    <row r="770" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A770" s="13"/>
       <c r="B770" s="20" t="s">
         <v>260</v>
@@ -43756,7 +43717,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="771" spans="1:26">
+    <row r="771" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A771" s="18">
         <f t="shared" ref="A771:A780" si="82">COUNTA(D771:Z771)</f>
         <v>2</v>
@@ -43793,7 +43754,7 @@
       <c r="Y771" s="18"/>
       <c r="Z771" s="18"/>
     </row>
-    <row r="772" spans="1:26">
+    <row r="772" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A772" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43830,7 +43791,7 @@
       <c r="Y772" s="18"/>
       <c r="Z772" s="18"/>
     </row>
-    <row r="773" spans="1:26">
+    <row r="773" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A773" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43869,7 +43830,7 @@
       <c r="Y773" s="18"/>
       <c r="Z773" s="18"/>
     </row>
-    <row r="774" spans="1:26">
+    <row r="774" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A774" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43906,7 +43867,7 @@
       <c r="Y774" s="18"/>
       <c r="Z774" s="18"/>
     </row>
-    <row r="775" spans="1:26">
+    <row r="775" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A775" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43943,7 +43904,7 @@
       <c r="Y775" s="18"/>
       <c r="Z775" s="18"/>
     </row>
-    <row r="776" spans="1:26">
+    <row r="776" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A776" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -43980,7 +43941,7 @@
       <c r="Y776" s="18"/>
       <c r="Z776" s="18"/>
     </row>
-    <row r="777" spans="1:26">
+    <row r="777" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A777" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44017,7 +43978,7 @@
       <c r="Y777" s="18"/>
       <c r="Z777" s="18"/>
     </row>
-    <row r="778" spans="1:26">
+    <row r="778" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A778" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44054,7 +44015,7 @@
       <c r="Y778" s="18"/>
       <c r="Z778" s="18"/>
     </row>
-    <row r="779" spans="1:26">
+    <row r="779" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A779" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44091,7 +44052,7 @@
       <c r="Y779" s="18"/>
       <c r="Z779" s="18"/>
     </row>
-    <row r="780" spans="1:26">
+    <row r="780" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A780" s="18">
         <f t="shared" si="82"/>
         <v>2</v>
@@ -44128,7 +44089,7 @@
       <c r="Y780" s="18"/>
       <c r="Z780" s="18"/>
     </row>
-    <row r="781" spans="1:26">
+    <row r="781" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A781" s="13"/>
       <c r="B781" s="20" t="s">
         <v>272</v>
@@ -44227,7 +44188,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="782" spans="1:26">
+    <row r="782" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A782" s="18">
         <f t="shared" ref="A782:A787" si="85">COUNTA(D782:Z782)</f>
         <v>2</v>
@@ -44264,7 +44225,7 @@
       <c r="Y782" s="18"/>
       <c r="Z782" s="18"/>
     </row>
-    <row r="783" spans="1:26">
+    <row r="783" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A783" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44301,7 +44262,7 @@
       <c r="Y783" s="18"/>
       <c r="Z783" s="18"/>
     </row>
-    <row r="784" spans="1:26">
+    <row r="784" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A784" s="18">
         <f t="shared" si="85"/>
         <v>0</v>
@@ -44334,7 +44295,7 @@
       <c r="Y784" s="18"/>
       <c r="Z784" s="18"/>
     </row>
-    <row r="785" spans="1:26">
+    <row r="785" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A785" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44371,7 +44332,7 @@
       <c r="Y785" s="18"/>
       <c r="Z785" s="18"/>
     </row>
-    <row r="786" spans="1:26">
+    <row r="786" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A786" s="18">
         <f t="shared" si="85"/>
         <v>2</v>
@@ -44408,7 +44369,7 @@
       <c r="Y786" s="18"/>
       <c r="Z786" s="18"/>
     </row>
-    <row r="787" spans="1:26">
+    <row r="787" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A787" s="18">
         <f t="shared" si="85"/>
         <v>1</v>
@@ -44443,7 +44404,7 @@
       <c r="Y787" s="18"/>
       <c r="Z787" s="18"/>
     </row>
-    <row r="788" spans="1:26">
+    <row r="788" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A788" s="13"/>
       <c r="B788" s="20" t="s">
         <v>412</v>
@@ -44542,7 +44503,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="789" spans="1:26">
+    <row r="789" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A789" s="18">
         <f t="shared" ref="A789:A842" si="87">COUNTA(D789:Z789)</f>
         <v>1</v>
@@ -44577,7 +44538,7 @@
       <c r="Y789" s="18"/>
       <c r="Z789" s="18"/>
     </row>
-    <row r="790" spans="1:26">
+    <row r="790" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A790" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -44612,7 +44573,7 @@
       <c r="Y790" s="18"/>
       <c r="Z790" s="18"/>
     </row>
-    <row r="791" spans="1:26">
+    <row r="791" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A791" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -44647,7 +44608,7 @@
       <c r="Y791" s="18"/>
       <c r="Z791" s="18"/>
     </row>
-    <row r="792" spans="1:26">
+    <row r="792" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A792" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44680,7 +44641,7 @@
       <c r="Y792" s="18"/>
       <c r="Z792" s="18"/>
     </row>
-    <row r="793" spans="1:26">
+    <row r="793" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A793" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44713,7 +44674,7 @@
       <c r="Y793" s="18"/>
       <c r="Z793" s="18"/>
     </row>
-    <row r="794" spans="1:26">
+    <row r="794" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A794" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44746,7 +44707,7 @@
       <c r="Y794" s="18"/>
       <c r="Z794" s="18"/>
     </row>
-    <row r="795" spans="1:26">
+    <row r="795" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A795" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44779,7 +44740,7 @@
       <c r="Y795" s="18"/>
       <c r="Z795" s="18"/>
     </row>
-    <row r="796" spans="1:26">
+    <row r="796" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A796" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44812,7 +44773,7 @@
       <c r="Y796" s="18"/>
       <c r="Z796" s="18"/>
     </row>
-    <row r="797" spans="1:26">
+    <row r="797" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A797" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44845,7 +44806,7 @@
       <c r="Y797" s="18"/>
       <c r="Z797" s="18"/>
     </row>
-    <row r="798" spans="1:26">
+    <row r="798" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A798" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44878,7 +44839,7 @@
       <c r="Y798" s="18"/>
       <c r="Z798" s="18"/>
     </row>
-    <row r="799" spans="1:26">
+    <row r="799" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A799" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44911,7 +44872,7 @@
       <c r="Y799" s="18"/>
       <c r="Z799" s="18"/>
     </row>
-    <row r="800" spans="1:26">
+    <row r="800" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A800" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44944,7 +44905,7 @@
       <c r="Y800" s="18"/>
       <c r="Z800" s="18"/>
     </row>
-    <row r="801" spans="1:26">
+    <row r="801" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A801" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -44977,7 +44938,7 @@
       <c r="Y801" s="18"/>
       <c r="Z801" s="18"/>
     </row>
-    <row r="802" spans="1:26">
+    <row r="802" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A802" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45010,7 +44971,7 @@
       <c r="Y802" s="18"/>
       <c r="Z802" s="18"/>
     </row>
-    <row r="803" spans="1:26">
+    <row r="803" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A803" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45043,7 +45004,7 @@
       <c r="Y803" s="18"/>
       <c r="Z803" s="18"/>
     </row>
-    <row r="804" spans="1:26">
+    <row r="804" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A804" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45076,7 +45037,7 @@
       <c r="Y804" s="18"/>
       <c r="Z804" s="18"/>
     </row>
-    <row r="805" spans="1:26">
+    <row r="805" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A805" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45109,7 +45070,7 @@
       <c r="Y805" s="18"/>
       <c r="Z805" s="18"/>
     </row>
-    <row r="806" spans="1:26">
+    <row r="806" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A806" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45142,7 +45103,7 @@
       <c r="Y806" s="18"/>
       <c r="Z806" s="18"/>
     </row>
-    <row r="807" spans="1:26">
+    <row r="807" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A807" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45175,7 +45136,7 @@
       <c r="Y807" s="18"/>
       <c r="Z807" s="18"/>
     </row>
-    <row r="808" spans="1:26">
+    <row r="808" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A808" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45208,7 +45169,7 @@
       <c r="Y808" s="18"/>
       <c r="Z808" s="18"/>
     </row>
-    <row r="809" spans="1:26">
+    <row r="809" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A809" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45241,7 +45202,7 @@
       <c r="Y809" s="18"/>
       <c r="Z809" s="18"/>
     </row>
-    <row r="810" spans="1:26">
+    <row r="810" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A810" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45274,7 +45235,7 @@
       <c r="Y810" s="18"/>
       <c r="Z810" s="18"/>
     </row>
-    <row r="811" spans="1:26">
+    <row r="811" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A811" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45307,7 +45268,7 @@
       <c r="Y811" s="18"/>
       <c r="Z811" s="18"/>
     </row>
-    <row r="812" spans="1:26">
+    <row r="812" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A812" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45340,7 +45301,7 @@
       <c r="Y812" s="18"/>
       <c r="Z812" s="18"/>
     </row>
-    <row r="813" spans="1:26">
+    <row r="813" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A813" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45373,7 +45334,7 @@
       <c r="Y813" s="18"/>
       <c r="Z813" s="18"/>
     </row>
-    <row r="814" spans="1:26">
+    <row r="814" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A814" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45406,7 +45367,7 @@
       <c r="Y814" s="18"/>
       <c r="Z814" s="18"/>
     </row>
-    <row r="815" spans="1:26">
+    <row r="815" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A815" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45439,7 +45400,7 @@
       <c r="Y815" s="18"/>
       <c r="Z815" s="18"/>
     </row>
-    <row r="816" spans="1:26">
+    <row r="816" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A816" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45472,7 +45433,7 @@
       <c r="Y816" s="18"/>
       <c r="Z816" s="18"/>
     </row>
-    <row r="817" spans="1:26">
+    <row r="817" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A817" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45505,7 +45466,7 @@
       <c r="Y817" s="18"/>
       <c r="Z817" s="18"/>
     </row>
-    <row r="818" spans="1:26">
+    <row r="818" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A818" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45538,7 +45499,7 @@
       <c r="Y818" s="18"/>
       <c r="Z818" s="18"/>
     </row>
-    <row r="819" spans="1:26">
+    <row r="819" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A819" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45573,7 +45534,7 @@
       <c r="Y819" s="18"/>
       <c r="Z819" s="18"/>
     </row>
-    <row r="820" spans="1:26">
+    <row r="820" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A820" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45608,7 +45569,7 @@
       <c r="Y820" s="18"/>
       <c r="Z820" s="18"/>
     </row>
-    <row r="821" spans="1:26">
+    <row r="821" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A821" s="18">
         <f t="shared" si="87"/>
         <v>1</v>
@@ -45643,7 +45604,7 @@
       <c r="Y821" s="18"/>
       <c r="Z821" s="18"/>
     </row>
-    <row r="822" spans="1:26">
+    <row r="822" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A822" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45676,7 +45637,7 @@
       <c r="Y822" s="18"/>
       <c r="Z822" s="18"/>
     </row>
-    <row r="823" spans="1:26">
+    <row r="823" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A823" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45709,7 +45670,7 @@
       <c r="Y823" s="18"/>
       <c r="Z823" s="18"/>
     </row>
-    <row r="824" spans="1:26">
+    <row r="824" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A824" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45742,7 +45703,7 @@
       <c r="Y824" s="18"/>
       <c r="Z824" s="18"/>
     </row>
-    <row r="825" spans="1:26">
+    <row r="825" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A825" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45775,7 +45736,7 @@
       <c r="Y825" s="18"/>
       <c r="Z825" s="18"/>
     </row>
-    <row r="826" spans="1:26">
+    <row r="826" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A826" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45808,7 +45769,7 @@
       <c r="Y826" s="18"/>
       <c r="Z826" s="18"/>
     </row>
-    <row r="827" spans="1:26">
+    <row r="827" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A827" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45841,7 +45802,7 @@
       <c r="Y827" s="18"/>
       <c r="Z827" s="18"/>
     </row>
-    <row r="828" spans="1:26">
+    <row r="828" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A828" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45874,7 +45835,7 @@
       <c r="Y828" s="18"/>
       <c r="Z828" s="18"/>
     </row>
-    <row r="829" spans="1:26">
+    <row r="829" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A829" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45907,7 +45868,7 @@
       <c r="Y829" s="18"/>
       <c r="Z829" s="18"/>
     </row>
-    <row r="830" spans="1:26">
+    <row r="830" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A830" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45940,7 +45901,7 @@
       <c r="Y830" s="18"/>
       <c r="Z830" s="18"/>
     </row>
-    <row r="831" spans="1:26">
+    <row r="831" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A831" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -45973,7 +45934,7 @@
       <c r="Y831" s="18"/>
       <c r="Z831" s="18"/>
     </row>
-    <row r="832" spans="1:26">
+    <row r="832" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A832" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46006,7 +45967,7 @@
       <c r="Y832" s="18"/>
       <c r="Z832" s="18"/>
     </row>
-    <row r="833" spans="1:26">
+    <row r="833" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A833" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46039,7 +46000,7 @@
       <c r="Y833" s="18"/>
       <c r="Z833" s="18"/>
     </row>
-    <row r="834" spans="1:26">
+    <row r="834" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A834" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46072,7 +46033,7 @@
       <c r="Y834" s="18"/>
       <c r="Z834" s="18"/>
     </row>
-    <row r="835" spans="1:26">
+    <row r="835" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A835" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46105,7 +46066,7 @@
       <c r="Y835" s="18"/>
       <c r="Z835" s="18"/>
     </row>
-    <row r="836" spans="1:26">
+    <row r="836" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A836" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46138,7 +46099,7 @@
       <c r="Y836" s="18"/>
       <c r="Z836" s="18"/>
     </row>
-    <row r="837" spans="1:26">
+    <row r="837" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A837" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46171,7 +46132,7 @@
       <c r="Y837" s="18"/>
       <c r="Z837" s="18"/>
     </row>
-    <row r="838" spans="1:26">
+    <row r="838" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A838" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46204,7 +46165,7 @@
       <c r="Y838" s="18"/>
       <c r="Z838" s="18"/>
     </row>
-    <row r="839" spans="1:26">
+    <row r="839" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A839" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46237,7 +46198,7 @@
       <c r="Y839" s="18"/>
       <c r="Z839" s="18"/>
     </row>
-    <row r="840" spans="1:26">
+    <row r="840" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A840" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46270,7 +46231,7 @@
       <c r="Y840" s="18"/>
       <c r="Z840" s="18"/>
     </row>
-    <row r="841" spans="1:26">
+    <row r="841" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A841" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46303,7 +46264,7 @@
       <c r="Y841" s="18"/>
       <c r="Z841" s="18"/>
     </row>
-    <row r="842" spans="1:26">
+    <row r="842" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A842" s="18">
         <f t="shared" si="87"/>
         <v>0</v>
@@ -46336,7 +46297,7 @@
       <c r="Y842" s="18"/>
       <c r="Z842" s="18"/>
     </row>
-    <row r="843" spans="1:26">
+    <row r="843" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A843" s="13"/>
       <c r="B843" s="20" t="s">
         <v>413</v>
@@ -46435,7 +46396,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="844" spans="1:26">
+    <row r="844" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A844" s="18">
         <f t="shared" ref="A844:A855" si="89">COUNTA(D844:Z844)</f>
         <v>0</v>
@@ -46468,7 +46429,7 @@
       <c r="Y844" s="18"/>
       <c r="Z844" s="18"/>
     </row>
-    <row r="845" spans="1:26">
+    <row r="845" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A845" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46501,7 +46462,7 @@
       <c r="Y845" s="18"/>
       <c r="Z845" s="18"/>
     </row>
-    <row r="846" spans="1:26">
+    <row r="846" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A846" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46534,7 +46495,7 @@
       <c r="Y846" s="18"/>
       <c r="Z846" s="18"/>
     </row>
-    <row r="847" spans="1:26">
+    <row r="847" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A847" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46567,7 +46528,7 @@
       <c r="Y847" s="18"/>
       <c r="Z847" s="18"/>
     </row>
-    <row r="848" spans="1:26">
+    <row r="848" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A848" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46600,7 +46561,7 @@
       <c r="Y848" s="18"/>
       <c r="Z848" s="18"/>
     </row>
-    <row r="849" spans="1:26">
+    <row r="849" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A849" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46633,7 +46594,7 @@
       <c r="Y849" s="18"/>
       <c r="Z849" s="18"/>
     </row>
-    <row r="850" spans="1:26">
+    <row r="850" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A850" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46666,7 +46627,7 @@
       <c r="Y850" s="18"/>
       <c r="Z850" s="18"/>
     </row>
-    <row r="851" spans="1:26">
+    <row r="851" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A851" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46699,7 +46660,7 @@
       <c r="Y851" s="18"/>
       <c r="Z851" s="18"/>
     </row>
-    <row r="852" spans="1:26">
+    <row r="852" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A852" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46732,7 +46693,7 @@
       <c r="Y852" s="18"/>
       <c r="Z852" s="18"/>
     </row>
-    <row r="853" spans="1:26">
+    <row r="853" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A853" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46765,7 +46726,7 @@
       <c r="Y853" s="18"/>
       <c r="Z853" s="18"/>
     </row>
-    <row r="854" spans="1:26">
+    <row r="854" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A854" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46798,7 +46759,7 @@
       <c r="Y854" s="18"/>
       <c r="Z854" s="18"/>
     </row>
-    <row r="855" spans="1:26">
+    <row r="855" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A855" s="18">
         <f t="shared" si="89"/>
         <v>0</v>
@@ -46834,31 +46795,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="12" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -43,6 +43,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Bonnie Jonkman</author>
+  </authors>
+  <commentList>
+    <comment ref="I21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Bonnie Jonkman:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The timesteps for the NREL 5MW turbine should all be reassessed in the future.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1147">
   <si>
@@ -3499,7 +3533,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3519,6 +3553,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -5465,17 +5512,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AQ8" sqref="AQ8"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5488,7 +5535,7 @@
     <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43.33203125" customWidth="1"/>
     <col min="8" max="8" width="3.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="2" bestFit="1" customWidth="1"/>
@@ -9110,7 +9157,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="118">
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="J21" s="25">
         <v>2</v>
@@ -11306,6 +11353,7 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
   <pageSetup paperSize="5" scale="79" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -5519,10 +5519,10 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="H16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3043" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="1148">
   <si>
     <t>Turbine Name</t>
   </si>
@@ -3524,6 +3524,9 @@
   </si>
   <si>
     <t>Flexible, steady wind, startup, high-speed shaft brake shutdown</t>
+  </si>
+  <si>
+    <t>Flexible, stationary, linearization in vacuum</t>
   </si>
 </sst>
 </file>
@@ -4310,7 +4313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4654,35 +4657,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4707,9 +4688,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4719,9 +4697,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4729,7 +4704,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="12" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -4880,7 +4854,889 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="169">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4949,20 +5805,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5519,17 +6361,17 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="AK19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="AF17" sqref="AF17:AP17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="145" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="136" customWidth="1"/>
     <col min="4" max="4" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" style="2" bestFit="1" customWidth="1"/>
@@ -5543,11 +6385,11 @@
     <col min="19" max="19" width="3.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="3.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.33203125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="3.33203125" style="2" customWidth="1"/>
-    <col min="29" max="30" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="4.109375" style="2" bestFit="1" customWidth="1"/>
@@ -5557,7 +6399,7 @@
     <col min="52" max="53" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="5.33203125" style="45" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="5.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="3.33203125" style="160" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="3.33203125" style="149" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="4.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="4.88671875" style="2" customWidth="1"/>
     <col min="59" max="59" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -5573,90 +6415,90 @@
   <sheetData>
     <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="182" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="171" t="s">
         <v>1104</v>
       </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="184"/>
-      <c r="W2" s="180" t="s">
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="172"/>
+      <c r="Q2" s="172"/>
+      <c r="R2" s="172"/>
+      <c r="S2" s="172"/>
+      <c r="T2" s="172"/>
+      <c r="U2" s="172"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="169" t="s">
         <v>1110</v>
       </c>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="190" t="s">
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="177"/>
+      <c r="AB2" s="177"/>
+      <c r="AC2" s="177"/>
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="179" t="s">
         <v>1125</v>
       </c>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="191"/>
-      <c r="AK2" s="191"/>
-      <c r="AL2" s="191"/>
-      <c r="AM2" s="191"/>
-      <c r="AN2" s="191"/>
-      <c r="AO2" s="191"/>
-      <c r="AP2" s="192"/>
-      <c r="AQ2" s="193" t="s">
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
+      <c r="AJ2" s="180"/>
+      <c r="AK2" s="180"/>
+      <c r="AL2" s="180"/>
+      <c r="AM2" s="180"/>
+      <c r="AN2" s="180"/>
+      <c r="AO2" s="180"/>
+      <c r="AP2" s="181"/>
+      <c r="AQ2" s="182" t="s">
         <v>1128</v>
       </c>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="194"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="195"/>
-      <c r="BA2" s="199" t="s">
+      <c r="AR2" s="183"/>
+      <c r="AS2" s="183"/>
+      <c r="AT2" s="183"/>
+      <c r="AU2" s="183"/>
+      <c r="AV2" s="183"/>
+      <c r="AW2" s="183"/>
+      <c r="AX2" s="183"/>
+      <c r="AY2" s="183"/>
+      <c r="AZ2" s="184"/>
+      <c r="BA2" s="188" t="s">
         <v>1136</v>
       </c>
-      <c r="BB2" s="200"/>
-      <c r="BC2" s="200"/>
-      <c r="BD2" s="200"/>
-      <c r="BE2" s="201"/>
-      <c r="BF2" s="196" t="s">
+      <c r="BB2" s="189"/>
+      <c r="BC2" s="189"/>
+      <c r="BD2" s="189"/>
+      <c r="BE2" s="190"/>
+      <c r="BF2" s="185" t="s">
         <v>1127</v>
       </c>
-      <c r="BG2" s="197"/>
-      <c r="BH2" s="197"/>
-      <c r="BI2" s="197"/>
-      <c r="BJ2" s="197"/>
-      <c r="BK2" s="197"/>
-      <c r="BL2" s="198"/>
-      <c r="BM2" s="179" t="s">
+      <c r="BG2" s="186"/>
+      <c r="BH2" s="186"/>
+      <c r="BI2" s="186"/>
+      <c r="BJ2" s="186"/>
+      <c r="BK2" s="186"/>
+      <c r="BL2" s="187"/>
+      <c r="BM2" s="168" t="s">
         <v>1047</v>
       </c>
-      <c r="BN2" s="180"/>
-      <c r="BO2" s="180"/>
-      <c r="BP2" s="180"/>
-      <c r="BQ2" s="181"/>
+      <c r="BN2" s="169"/>
+      <c r="BO2" s="169"/>
+      <c r="BP2" s="169"/>
+      <c r="BQ2" s="170"/>
     </row>
     <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26"/>
@@ -5675,10 +6517,10 @@
       <c r="F3" s="80" t="s">
         <v>488</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="136" t="s">
+      <c r="H3" s="128" t="s">
         <v>1090</v>
       </c>
       <c r="I3" s="121" t="s">
@@ -5750,7 +6592,7 @@
       <c r="AE3" s="82" t="s">
         <v>1126</v>
       </c>
-      <c r="AF3" s="154" t="s">
+      <c r="AF3" s="143" t="s">
         <v>5</v>
       </c>
       <c r="AG3" s="83" t="s">
@@ -5780,10 +6622,10 @@
       <c r="AO3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="AP3" s="141" t="s">
+      <c r="AP3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="AQ3" s="140" t="s">
+      <c r="AQ3" s="132" t="s">
         <v>44</v>
       </c>
       <c r="AR3" s="72" t="s">
@@ -5801,13 +6643,13 @@
       <c r="AV3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="AW3" s="166" t="s">
+      <c r="AW3" s="155" t="s">
         <v>1139</v>
       </c>
       <c r="AX3" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="AY3" s="166" t="s">
+      <c r="AY3" s="155" t="s">
         <v>1140</v>
       </c>
       <c r="AZ3" s="74" t="s">
@@ -5816,10 +6658,10 @@
       <c r="BA3" s="75" t="s">
         <v>1137</v>
       </c>
-      <c r="BB3" s="164" t="s">
+      <c r="BB3" s="153" t="s">
         <v>1130</v>
       </c>
-      <c r="BC3" s="165" t="s">
+      <c r="BC3" s="154" t="s">
         <v>1138</v>
       </c>
       <c r="BD3" s="77" t="s">
@@ -5828,21 +6670,21 @@
       <c r="BE3" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="BF3" s="157" t="s">
+      <c r="BF3" s="146" t="s">
         <v>1120</v>
       </c>
-      <c r="BG3" s="158" t="s">
+      <c r="BG3" s="147" t="s">
         <v>1121</v>
       </c>
-      <c r="BH3" s="158" t="s">
+      <c r="BH3" s="147" t="s">
         <v>1122</v>
       </c>
-      <c r="BI3" s="158" t="s">
+      <c r="BI3" s="147" t="s">
         <v>1123</v>
       </c>
-      <c r="BJ3" s="158"/>
-      <c r="BK3" s="158"/>
-      <c r="BL3" s="159"/>
+      <c r="BJ3" s="147"/>
+      <c r="BK3" s="147"/>
+      <c r="BL3" s="148"/>
       <c r="BM3" s="66" t="s">
         <v>1045</v>
       </c>
@@ -5864,7 +6706,7 @@
       <c r="B4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="146" t="s">
+      <c r="C4" s="137" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="29">
@@ -5876,10 +6718,10 @@
       <c r="F4" s="55">
         <v>175</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="134" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="137">
+      <c r="H4" s="129">
         <v>20</v>
       </c>
       <c r="I4" s="117">
@@ -5897,7 +6739,7 @@
       <c r="M4" s="25">
         <v>1</v>
       </c>
-      <c r="N4" s="177">
+      <c r="N4" s="166">
         <v>1</v>
       </c>
       <c r="O4" s="25">
@@ -6015,10 +6857,10 @@
       <c r="BA4" s="36">
         <v>2</v>
       </c>
-      <c r="BB4" s="150">
+      <c r="BB4" s="140">
         <v>30</v>
       </c>
-      <c r="BC4" s="150">
+      <c r="BC4" s="140">
         <v>12</v>
       </c>
       <c r="BD4" s="37">
@@ -6064,7 +6906,7 @@
       <c r="B5" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C5" s="137" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="29">
@@ -6076,7 +6918,7 @@
       <c r="F5" s="55">
         <v>175</v>
       </c>
-      <c r="G5" s="143" t="s">
+      <c r="G5" s="135" t="s">
         <v>1146</v>
       </c>
       <c r="H5" s="40">
@@ -6097,7 +6939,7 @@
       <c r="M5" s="25">
         <v>1</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="166">
         <v>2</v>
       </c>
       <c r="O5" s="25">
@@ -6215,10 +7057,10 @@
       <c r="BA5" s="43">
         <v>1</v>
       </c>
-      <c r="BB5" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="151">
+      <c r="BB5" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="141">
         <v>12</v>
       </c>
       <c r="BD5" s="44">
@@ -6264,7 +7106,7 @@
       <c r="B6" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="137" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="29">
@@ -6276,7 +7118,7 @@
       <c r="F6" s="55">
         <v>175</v>
       </c>
-      <c r="G6" s="143" t="s">
+      <c r="G6" s="135" t="s">
         <v>491</v>
       </c>
       <c r="H6" s="40">
@@ -6297,7 +7139,7 @@
       <c r="M6" s="25">
         <v>1</v>
       </c>
-      <c r="N6" s="177">
+      <c r="N6" s="166">
         <v>2</v>
       </c>
       <c r="O6" s="25">
@@ -6415,10 +7257,10 @@
       <c r="BA6" s="43">
         <v>2</v>
       </c>
-      <c r="BB6" s="151">
+      <c r="BB6" s="141">
         <v>30</v>
       </c>
-      <c r="BC6" s="151">
+      <c r="BC6" s="141">
         <v>12</v>
       </c>
       <c r="BD6" s="44">
@@ -6464,7 +7306,7 @@
       <c r="B7" s="85" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="137" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="29">
@@ -6476,7 +7318,7 @@
       <c r="F7" s="55">
         <v>175</v>
       </c>
-      <c r="G7" s="143" t="s">
+      <c r="G7" s="135" t="s">
         <v>492</v>
       </c>
       <c r="H7" s="40">
@@ -6497,7 +7339,7 @@
       <c r="M7" s="25">
         <v>1</v>
       </c>
-      <c r="N7" s="177">
+      <c r="N7" s="166">
         <v>1</v>
       </c>
       <c r="O7" s="25">
@@ -6615,10 +7457,10 @@
       <c r="BA7" s="43">
         <v>4</v>
       </c>
-      <c r="BB7" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="151">
+      <c r="BB7" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="141">
         <v>12</v>
       </c>
       <c r="BD7" s="44">
@@ -6664,7 +7506,7 @@
       <c r="B8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="137" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="29">
@@ -6676,7 +7518,7 @@
       <c r="F8" s="55">
         <v>175</v>
       </c>
-      <c r="G8" s="143" t="s">
+      <c r="G8" s="135" t="s">
         <v>1145</v>
       </c>
       <c r="H8" s="40">
@@ -6697,7 +7539,7 @@
       <c r="M8" s="25">
         <v>1</v>
       </c>
-      <c r="N8" s="177">
+      <c r="N8" s="166">
         <v>2</v>
       </c>
       <c r="O8" s="25">
@@ -6815,10 +7657,10 @@
       <c r="BA8" s="43">
         <v>2</v>
       </c>
-      <c r="BB8" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="151">
+      <c r="BB8" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="141">
         <v>12</v>
       </c>
       <c r="BD8" s="44">
@@ -6864,7 +7706,7 @@
       <c r="B9" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="147" t="s">
+      <c r="C9" s="138" t="s">
         <v>279</v>
       </c>
       <c r="D9" s="25">
@@ -6877,7 +7719,7 @@
       <c r="F9" s="25">
         <v>50</v>
       </c>
-      <c r="G9" s="143" t="s">
+      <c r="G9" s="135" t="s">
         <v>1106</v>
       </c>
       <c r="H9" s="40">
@@ -7016,10 +7858,10 @@
       <c r="BA9" s="43">
         <v>2</v>
       </c>
-      <c r="BB9" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="151">
+      <c r="BB9" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="141">
         <v>12</v>
       </c>
       <c r="BD9" s="44">
@@ -7065,7 +7907,7 @@
       <c r="B10" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="147" t="s">
+      <c r="C10" s="138" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="25">
@@ -7078,7 +7920,7 @@
       <c r="F10" s="25">
         <v>50</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="135" t="s">
         <v>492</v>
       </c>
       <c r="H10" s="40">
@@ -7099,7 +7941,7 @@
       <c r="M10" s="25">
         <v>1</v>
       </c>
-      <c r="N10" s="177">
+      <c r="N10" s="166">
         <v>2</v>
       </c>
       <c r="O10" s="25">
@@ -7217,10 +8059,10 @@
       <c r="BA10" s="43">
         <v>4</v>
       </c>
-      <c r="BB10" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="151">
+      <c r="BB10" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="141">
         <v>12</v>
       </c>
       <c r="BD10" s="44">
@@ -7266,7 +8108,7 @@
       <c r="B11" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="147" t="s">
+      <c r="C11" s="138" t="s">
         <v>279</v>
       </c>
       <c r="D11" s="25">
@@ -7279,7 +8121,7 @@
       <c r="F11" s="25">
         <v>50</v>
       </c>
-      <c r="G11" s="142" t="s">
+      <c r="G11" s="134" t="s">
         <v>497</v>
       </c>
       <c r="H11" s="40">
@@ -7300,7 +8142,7 @@
       <c r="M11" s="25">
         <v>1</v>
       </c>
-      <c r="N11" s="177">
+      <c r="N11" s="166">
         <v>2</v>
       </c>
       <c r="O11" s="25">
@@ -7418,10 +8260,10 @@
       <c r="BA11" s="43">
         <v>1</v>
       </c>
-      <c r="BB11" s="151">
+      <c r="BB11" s="141">
         <v>30</v>
       </c>
-      <c r="BC11" s="151">
+      <c r="BC11" s="141">
         <v>11</v>
       </c>
       <c r="BD11" s="44">
@@ -7467,7 +8309,7 @@
       <c r="B12" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="138" t="s">
         <v>489</v>
       </c>
       <c r="D12" s="25">
@@ -7479,7 +8321,7 @@
       <c r="F12" s="25">
         <v>20</v>
       </c>
-      <c r="G12" s="143" t="s">
+      <c r="G12" s="135" t="s">
         <v>493</v>
       </c>
       <c r="H12" s="40">
@@ -7618,10 +8460,10 @@
       <c r="BA12" s="43">
         <v>2</v>
       </c>
-      <c r="BB12" s="151">
+      <c r="BB12" s="141">
         <v>30</v>
       </c>
-      <c r="BC12" s="151">
+      <c r="BC12" s="141">
         <v>11</v>
       </c>
       <c r="BD12" s="44">
@@ -7667,7 +8509,7 @@
       <c r="B13" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="147" t="s">
+      <c r="C13" s="138" t="s">
         <v>490</v>
       </c>
       <c r="D13" s="25">
@@ -7679,7 +8521,7 @@
       <c r="F13" s="25">
         <v>20</v>
       </c>
-      <c r="G13" s="143" t="s">
+      <c r="G13" s="135" t="s">
         <v>496</v>
       </c>
       <c r="H13" s="40">
@@ -7700,7 +8542,7 @@
       <c r="M13" s="25">
         <v>1</v>
       </c>
-      <c r="N13" s="177">
+      <c r="N13" s="166">
         <v>2</v>
       </c>
       <c r="O13" s="25">
@@ -7818,10 +8660,10 @@
       <c r="BA13" s="43">
         <v>2</v>
       </c>
-      <c r="BB13" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="163" t="s">
+      <c r="BB13" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="152" t="s">
         <v>1131</v>
       </c>
       <c r="BD13" s="44">
@@ -7867,7 +8709,7 @@
       <c r="B14" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="147" t="s">
+      <c r="C14" s="138" t="s">
         <v>286</v>
       </c>
       <c r="D14" s="25">
@@ -7879,7 +8721,7 @@
       <c r="F14" s="25">
         <v>1500</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G14" s="135" t="s">
         <v>500</v>
       </c>
       <c r="H14" s="40">
@@ -7900,7 +8742,7 @@
       <c r="M14" s="25">
         <v>1</v>
       </c>
-      <c r="N14" s="177">
+      <c r="N14" s="166">
         <v>1</v>
       </c>
       <c r="O14" s="25">
@@ -8018,10 +8860,10 @@
       <c r="BA14" s="43">
         <v>4</v>
       </c>
-      <c r="BB14" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="151">
+      <c r="BB14" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="141">
         <v>12</v>
       </c>
       <c r="BD14" s="44">
@@ -8067,7 +8909,7 @@
       <c r="B15" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="138" t="s">
         <v>286</v>
       </c>
       <c r="D15" s="25">
@@ -8079,7 +8921,7 @@
       <c r="F15" s="25">
         <v>1500</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G15" s="135" t="s">
         <v>494</v>
       </c>
       <c r="H15" s="40">
@@ -8100,7 +8942,7 @@
       <c r="M15" s="25">
         <v>1</v>
       </c>
-      <c r="N15" s="177">
+      <c r="N15" s="166">
         <v>2</v>
       </c>
       <c r="O15" s="25">
@@ -8218,10 +9060,10 @@
       <c r="BA15" s="43">
         <v>2</v>
       </c>
-      <c r="BB15" s="163" t="s">
+      <c r="BB15" s="152" t="s">
         <v>1132</v>
       </c>
-      <c r="BC15" s="163" t="s">
+      <c r="BC15" s="152" t="s">
         <v>1133</v>
       </c>
       <c r="BD15" s="44">
@@ -8267,7 +9109,7 @@
       <c r="B16" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="138" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="25">
@@ -8279,7 +9121,7 @@
       <c r="F16" s="25">
         <v>1500</v>
       </c>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="135" t="s">
         <v>495</v>
       </c>
       <c r="H16" s="40">
@@ -8300,7 +9142,7 @@
       <c r="M16" s="25">
         <v>1</v>
       </c>
-      <c r="N16" s="177">
+      <c r="N16" s="166">
         <v>2</v>
       </c>
       <c r="O16" s="25">
@@ -8418,10 +9260,10 @@
       <c r="BA16" s="43">
         <v>4</v>
       </c>
-      <c r="BB16" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="151">
+      <c r="BB16" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="141">
         <v>12</v>
       </c>
       <c r="BD16" s="44">
@@ -8464,81 +9306,202 @@
     </row>
     <row r="17" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="126"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="130"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="129"/>
-      <c r="AD17" s="129"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="128"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="127"/>
-      <c r="AN17" s="127"/>
-      <c r="AO17" s="127"/>
-      <c r="AP17" s="130"/>
-      <c r="AQ17" s="128"/>
-      <c r="AR17" s="127"/>
-      <c r="AS17" s="129"/>
-      <c r="AT17" s="129"/>
-      <c r="AU17" s="129"/>
-      <c r="AV17" s="129"/>
-      <c r="AW17" s="129"/>
-      <c r="AX17" s="129"/>
-      <c r="AY17" s="129"/>
-      <c r="AZ17" s="130"/>
-      <c r="BA17" s="128"/>
-      <c r="BB17" s="152"/>
-      <c r="BC17" s="152"/>
-      <c r="BD17" s="132"/>
-      <c r="BE17" s="130"/>
-      <c r="BF17" s="131"/>
-      <c r="BG17" s="129"/>
-      <c r="BH17" s="129"/>
-      <c r="BI17" s="129"/>
-      <c r="BJ17" s="129"/>
-      <c r="BK17" s="129"/>
-      <c r="BL17" s="130"/>
-      <c r="BM17" s="133"/>
-      <c r="BN17" s="134"/>
-      <c r="BO17" s="135"/>
-      <c r="BP17" s="135"/>
-      <c r="BQ17" s="130"/>
+      <c r="B17" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="138" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="25">
+        <v>3</v>
+      </c>
+      <c r="E17" s="25">
+        <v>70</v>
+      </c>
+      <c r="F17" s="25">
+        <v>1500</v>
+      </c>
+      <c r="G17" s="135" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H17" s="40">
+        <v>0</v>
+      </c>
+      <c r="I17" s="118">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="25">
+        <v>1</v>
+      </c>
+      <c r="N17" s="166">
+        <v>0</v>
+      </c>
+      <c r="O17" s="166">
+        <v>0</v>
+      </c>
+      <c r="P17" s="166">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="166">
+        <v>0</v>
+      </c>
+      <c r="R17" s="166">
+        <v>0</v>
+      </c>
+      <c r="S17" s="166">
+        <v>0</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17" s="166">
+        <v>0</v>
+      </c>
+      <c r="V17" s="42">
+        <v>1</v>
+      </c>
+      <c r="W17" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="X17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE17" s="40"/>
+      <c r="AF17" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="AP17" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ17" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AZ17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA17" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BB17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE17" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF17" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BH17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="BJ17" s="41"/>
+      <c r="BK17" s="41"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="60">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="56">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="63">
+        <f>Variables!Q$2</f>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="63" t="s">
+        <v>1048</v>
+      </c>
+      <c r="BQ17" s="42"/>
     </row>
     <row r="18" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="147" t="s">
+      <c r="C18" s="138" t="s">
         <v>310</v>
       </c>
       <c r="D18" s="25">
@@ -8550,7 +9513,7 @@
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="143" t="s">
+      <c r="G18" s="135" t="s">
         <v>1107</v>
       </c>
       <c r="H18" s="40">
@@ -8571,7 +9534,7 @@
       <c r="M18" s="25">
         <v>1</v>
       </c>
-      <c r="N18" s="177">
+      <c r="N18" s="166">
         <v>2</v>
       </c>
       <c r="O18" s="25">
@@ -8689,10 +9652,10 @@
       <c r="BA18" s="43">
         <v>2</v>
       </c>
-      <c r="BB18" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="163" t="s">
+      <c r="BB18" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="152" t="s">
         <v>1134</v>
       </c>
       <c r="BD18" s="44">
@@ -8701,18 +9664,10 @@
       <c r="BE18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BF18" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="BG18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BH18" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="BI18" s="41" t="s">
-        <v>42</v>
-      </c>
+      <c r="BF18" s="127"/>
+      <c r="BG18" s="126"/>
+      <c r="BH18" s="126"/>
+      <c r="BI18" s="126"/>
       <c r="BJ18" s="41"/>
       <c r="BK18" s="41"/>
       <c r="BL18" s="42"/>
@@ -8738,7 +9693,7 @@
       <c r="B19" s="85" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="138" t="s">
         <v>310</v>
       </c>
       <c r="D19" s="25">
@@ -8750,7 +9705,7 @@
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="143" t="s">
+      <c r="G19" s="135" t="s">
         <v>1108</v>
       </c>
       <c r="H19" s="40">
@@ -8771,7 +9726,7 @@
       <c r="M19" s="25">
         <v>1</v>
       </c>
-      <c r="N19" s="177">
+      <c r="N19" s="166">
         <v>2</v>
       </c>
       <c r="O19" s="25">
@@ -8889,10 +9844,10 @@
       <c r="BA19" s="43">
         <v>2</v>
       </c>
-      <c r="BB19" s="163" t="s">
+      <c r="BB19" s="152" t="s">
         <v>1135</v>
       </c>
-      <c r="BC19" s="151">
+      <c r="BC19" s="141">
         <v>11.9</v>
       </c>
       <c r="BD19" s="44">
@@ -8938,7 +9893,7 @@
       <c r="B20" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C20" s="147" t="s">
+      <c r="C20" s="138" t="s">
         <v>310</v>
       </c>
       <c r="D20" s="25">
@@ -8950,7 +9905,7 @@
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="143" t="s">
+      <c r="G20" s="135" t="s">
         <v>1109</v>
       </c>
       <c r="H20" s="40">
@@ -8971,7 +9926,7 @@
       <c r="M20" s="25">
         <v>1</v>
       </c>
-      <c r="N20" s="177">
+      <c r="N20" s="166">
         <v>1</v>
       </c>
       <c r="O20" s="25">
@@ -9089,10 +10044,10 @@
       <c r="BA20" s="43">
         <v>4</v>
       </c>
-      <c r="BB20" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="151">
+      <c r="BB20" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="141">
         <v>16</v>
       </c>
       <c r="BD20" s="44">
@@ -9138,7 +10093,7 @@
       <c r="B21" s="85" t="s">
         <v>1060</v>
       </c>
-      <c r="C21" s="147" t="s">
+      <c r="C21" s="138" t="s">
         <v>1089</v>
       </c>
       <c r="D21" s="25">
@@ -9150,7 +10105,7 @@
       <c r="F21" s="25">
         <v>5000</v>
       </c>
-      <c r="G21" s="143" t="s">
+      <c r="G21" s="135" t="s">
         <v>1111</v>
       </c>
       <c r="H21" s="40">
@@ -9171,7 +10126,7 @@
       <c r="M21" s="25">
         <v>1</v>
       </c>
-      <c r="N21" s="177">
+      <c r="N21" s="166">
         <v>2</v>
       </c>
       <c r="O21" s="25">
@@ -9287,10 +10242,10 @@
       <c r="BA21" s="43">
         <v>3</v>
       </c>
-      <c r="BB21" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="151">
+      <c r="BB21" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="141">
         <v>12</v>
       </c>
       <c r="BD21" s="44">
@@ -9327,7 +10282,7 @@
       <c r="B22" s="85" t="s">
         <v>1065</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="138" t="s">
         <v>1082</v>
       </c>
       <c r="D22" s="25">
@@ -9339,7 +10294,7 @@
       <c r="F22" s="25">
         <v>5000</v>
       </c>
-      <c r="G22" s="143" t="s">
+      <c r="G22" s="135" t="s">
         <v>1112</v>
       </c>
       <c r="H22" s="40">
@@ -9360,7 +10315,7 @@
       <c r="M22" s="25">
         <v>1</v>
       </c>
-      <c r="N22" s="177">
+      <c r="N22" s="166">
         <v>2</v>
       </c>
       <c r="O22" s="25">
@@ -9472,10 +10427,10 @@
       <c r="BA22" s="43">
         <v>3</v>
       </c>
-      <c r="BB22" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="151">
+      <c r="BB22" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="141">
         <v>12</v>
       </c>
       <c r="BD22" s="44">
@@ -9512,7 +10467,7 @@
       <c r="B23" s="85" t="s">
         <v>1070</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="138" t="s">
         <v>1083</v>
       </c>
       <c r="D23" s="25">
@@ -9524,7 +10479,7 @@
       <c r="F23" s="25">
         <v>5000</v>
       </c>
-      <c r="G23" s="143" t="s">
+      <c r="G23" s="135" t="s">
         <v>1115</v>
       </c>
       <c r="H23" s="40">
@@ -9545,7 +10500,7 @@
       <c r="M23" s="25">
         <v>1</v>
       </c>
-      <c r="N23" s="177">
+      <c r="N23" s="166">
         <v>2</v>
       </c>
       <c r="O23" s="25">
@@ -9657,10 +10612,10 @@
       <c r="BA23" s="43">
         <v>1</v>
       </c>
-      <c r="BB23" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="151">
+      <c r="BB23" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="141">
         <v>8</v>
       </c>
       <c r="BD23" s="44">
@@ -9697,7 +10652,7 @@
       <c r="B24" s="85" t="s">
         <v>1071</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="138" t="s">
         <v>1084</v>
       </c>
       <c r="D24" s="25">
@@ -9709,7 +10664,7 @@
       <c r="F24" s="25">
         <v>5000</v>
       </c>
-      <c r="G24" s="143" t="s">
+      <c r="G24" s="135" t="s">
         <v>1113</v>
       </c>
       <c r="H24" s="40">
@@ -9730,7 +10685,7 @@
       <c r="M24" s="25">
         <v>1</v>
       </c>
-      <c r="N24" s="177">
+      <c r="N24" s="166">
         <v>2</v>
       </c>
       <c r="O24" s="25">
@@ -9842,10 +10797,10 @@
       <c r="BA24" s="43">
         <v>3</v>
       </c>
-      <c r="BB24" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="151">
+      <c r="BB24" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="141">
         <v>12</v>
       </c>
       <c r="BD24" s="44">
@@ -9882,7 +10837,7 @@
       <c r="B25" s="85" t="s">
         <v>1119</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="C25" s="138" t="s">
         <v>1085</v>
       </c>
       <c r="D25" s="25">
@@ -9894,7 +10849,7 @@
       <c r="F25" s="25">
         <v>5000</v>
       </c>
-      <c r="G25" s="143" t="s">
+      <c r="G25" s="135" t="s">
         <v>1144</v>
       </c>
       <c r="H25" s="40">
@@ -9915,7 +10870,7 @@
       <c r="M25" s="25">
         <v>1</v>
       </c>
-      <c r="N25" s="177">
+      <c r="N25" s="166">
         <v>1</v>
       </c>
       <c r="O25" s="25">
@@ -10027,10 +10982,10 @@
       <c r="BA25" s="43">
         <v>3</v>
       </c>
-      <c r="BB25" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="151">
+      <c r="BB25" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="141">
         <v>12</v>
       </c>
       <c r="BD25" s="44">
@@ -10067,7 +11022,7 @@
       <c r="B26" s="85" t="s">
         <v>1118</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="138" t="s">
         <v>1086</v>
       </c>
       <c r="D26" s="25">
@@ -10079,7 +11034,7 @@
       <c r="F26" s="25">
         <v>5000</v>
       </c>
-      <c r="G26" s="143" t="s">
+      <c r="G26" s="135" t="s">
         <v>1143</v>
       </c>
       <c r="H26" s="40">
@@ -10100,7 +11055,7 @@
       <c r="M26" s="25">
         <v>1</v>
       </c>
-      <c r="N26" s="177">
+      <c r="N26" s="166">
         <v>2</v>
       </c>
       <c r="O26" s="25">
@@ -10212,10 +11167,10 @@
       <c r="BA26" s="43">
         <v>3</v>
       </c>
-      <c r="BB26" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="151">
+      <c r="BB26" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="141">
         <v>12</v>
       </c>
       <c r="BD26" s="44">
@@ -10252,7 +11207,7 @@
       <c r="B27" s="85" t="s">
         <v>1117</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C27" s="138" t="s">
         <v>1087</v>
       </c>
       <c r="D27" s="25">
@@ -10264,7 +11219,7 @@
       <c r="F27" s="25">
         <v>5000</v>
       </c>
-      <c r="G27" s="143" t="s">
+      <c r="G27" s="135" t="s">
         <v>1114</v>
       </c>
       <c r="H27" s="40">
@@ -10285,7 +11240,7 @@
       <c r="M27" s="25">
         <v>1</v>
       </c>
-      <c r="N27" s="177">
+      <c r="N27" s="166">
         <v>2</v>
       </c>
       <c r="O27" s="25">
@@ -10397,10 +11352,10 @@
       <c r="BA27" s="43">
         <v>3</v>
       </c>
-      <c r="BB27" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="151">
+      <c r="BB27" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="141">
         <v>12</v>
       </c>
       <c r="BD27" s="44">
@@ -10437,7 +11392,7 @@
       <c r="B28" s="85" t="s">
         <v>1116</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="138" t="s">
         <v>1105</v>
       </c>
       <c r="D28" s="25">
@@ -10449,7 +11404,7 @@
       <c r="F28" s="25">
         <v>5000</v>
       </c>
-      <c r="G28" s="143" t="s">
+      <c r="G28" s="135" t="s">
         <v>1129</v>
       </c>
       <c r="H28" s="40">
@@ -10470,7 +11425,7 @@
       <c r="M28" s="25">
         <v>1</v>
       </c>
-      <c r="N28" s="177">
+      <c r="N28" s="166">
         <v>2</v>
       </c>
       <c r="O28" s="25">
@@ -10582,10 +11537,10 @@
       <c r="BA28" s="43">
         <v>1</v>
       </c>
-      <c r="BB28" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="151">
+      <c r="BB28" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="141">
         <v>8</v>
       </c>
       <c r="BD28" s="44">
@@ -10619,13 +11574,13 @@
     </row>
     <row r="29" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="156" t="s">
         <v>1141</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="157" t="s">
         <v>1089</v>
       </c>
-      <c r="D29" s="169">
+      <c r="D29" s="158">
         <v>3</v>
       </c>
       <c r="E29" s="25">
@@ -10634,53 +11589,53 @@
       <c r="F29" s="25">
         <v>5000</v>
       </c>
-      <c r="G29" s="143" t="s">
+      <c r="G29" s="135" t="s">
         <v>1142</v>
       </c>
-      <c r="H29" s="170">
+      <c r="H29" s="159">
         <v>20</v>
       </c>
-      <c r="I29" s="171">
+      <c r="I29" s="160">
         <v>1E-3</v>
       </c>
-      <c r="J29" s="169">
+      <c r="J29" s="158">
         <v>2</v>
       </c>
-      <c r="K29" s="169">
+      <c r="K29" s="158">
         <v>0</v>
       </c>
       <c r="L29" s="25">
         <v>99999</v>
       </c>
-      <c r="M29" s="169">
+      <c r="M29" s="158">
         <v>2</v>
       </c>
-      <c r="N29" s="178">
+      <c r="N29" s="167">
         <v>2</v>
       </c>
-      <c r="O29" s="169">
+      <c r="O29" s="158">
         <v>1</v>
       </c>
-      <c r="P29" s="169">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="169">
-        <v>0</v>
-      </c>
-      <c r="R29" s="169">
-        <v>0</v>
-      </c>
-      <c r="S29" s="169">
-        <v>0</v>
-      </c>
-      <c r="T29" s="171">
+      <c r="P29" s="158">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="158">
+        <v>0</v>
+      </c>
+      <c r="R29" s="158">
+        <v>0</v>
+      </c>
+      <c r="S29" s="158">
+        <v>0</v>
+      </c>
+      <c r="T29" s="160">
         <f>I29</f>
         <v>1E-3</v>
       </c>
-      <c r="U29" s="169">
-        <v>0</v>
-      </c>
-      <c r="V29" s="172">
+      <c r="U29" s="158">
+        <v>0</v>
+      </c>
+      <c r="V29" s="161">
         <v>2</v>
       </c>
       <c r="W29" s="43">
@@ -10768,14 +11723,14 @@
       <c r="AY29" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AZ29" s="172"/>
+      <c r="AZ29" s="161"/>
       <c r="BA29" s="43">
         <v>3</v>
       </c>
-      <c r="BB29" s="151">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="151">
+      <c r="BB29" s="141">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="141">
         <v>12</v>
       </c>
       <c r="BD29" s="44">
@@ -10796,24 +11751,24 @@
       <c r="BI29" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="BJ29" s="173"/>
-      <c r="BK29" s="173"/>
-      <c r="BL29" s="172"/>
-      <c r="BM29" s="174"/>
-      <c r="BN29" s="175"/>
-      <c r="BO29" s="176"/>
-      <c r="BP29" s="176" t="s">
+      <c r="BJ29" s="162"/>
+      <c r="BK29" s="162"/>
+      <c r="BL29" s="161"/>
+      <c r="BM29" s="163"/>
+      <c r="BN29" s="164"/>
+      <c r="BO29" s="165"/>
+      <c r="BP29" s="165" t="s">
         <v>1050</v>
       </c>
-      <c r="BQ29" s="172"/>
+      <c r="BQ29" s="161"/>
     </row>
     <row r="30" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5"/>
-      <c r="C30" s="149"/>
+      <c r="C30" s="139"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
-      <c r="G30" s="139"/>
+      <c r="G30" s="131"/>
       <c r="H30" s="5"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -10862,9 +11817,9 @@
       <c r="AY30" s="8"/>
       <c r="AZ30" s="6"/>
       <c r="BA30" s="7"/>
-      <c r="BB30" s="153"/>
-      <c r="BC30" s="153"/>
-      <c r="BD30" s="161"/>
+      <c r="BB30" s="142"/>
+      <c r="BC30" s="142"/>
+      <c r="BD30" s="150"/>
       <c r="BE30" s="6"/>
       <c r="BF30" s="100"/>
       <c r="BG30" s="8"/>
@@ -10883,7 +11838,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="2"/>
       <c r="BC34" s="2"/>
-      <c r="BD34" s="162"/>
+      <c r="BD34" s="151"/>
       <c r="BE34" s="45"/>
       <c r="BL34" s="45"/>
       <c r="BM34" s="45"/>
@@ -10895,7 +11850,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="2"/>
       <c r="BC35" s="2"/>
-      <c r="BD35" s="162"/>
+      <c r="BD35" s="151"/>
       <c r="BE35" s="45"/>
       <c r="BL35" s="45"/>
       <c r="BM35" s="45"/>
@@ -10907,7 +11862,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="2"/>
       <c r="BC36" s="2"/>
-      <c r="BD36" s="162"/>
+      <c r="BD36" s="151"/>
       <c r="BE36" s="45"/>
       <c r="BL36" s="45"/>
       <c r="BM36" s="45"/>
@@ -10919,7 +11874,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="2"/>
       <c r="BC37" s="2"/>
-      <c r="BD37" s="162"/>
+      <c r="BD37" s="151"/>
       <c r="BE37" s="45"/>
       <c r="BL37" s="45"/>
       <c r="BM37" s="45"/>
@@ -10931,7 +11886,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="2"/>
       <c r="BC38" s="2"/>
-      <c r="BD38" s="162"/>
+      <c r="BD38" s="151"/>
       <c r="BE38" s="45"/>
       <c r="BL38" s="45"/>
       <c r="BM38" s="45"/>
@@ -10943,7 +11898,7 @@
       <c r="BA39" s="9"/>
       <c r="BB39" s="2"/>
       <c r="BC39" s="2"/>
-      <c r="BD39" s="162"/>
+      <c r="BD39" s="151"/>
       <c r="BE39" s="45"/>
       <c r="BL39" s="45"/>
       <c r="BM39" s="45"/>
@@ -10955,7 +11910,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="2"/>
       <c r="BC40" s="2"/>
-      <c r="BD40" s="162"/>
+      <c r="BD40" s="151"/>
       <c r="BE40" s="45"/>
       <c r="BL40" s="45"/>
       <c r="BM40" s="45"/>
@@ -10967,7 +11922,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="2"/>
       <c r="BC41" s="2"/>
-      <c r="BD41" s="162"/>
+      <c r="BD41" s="151"/>
       <c r="BE41" s="45"/>
       <c r="BL41" s="45"/>
       <c r="BM41" s="45"/>
@@ -10979,7 +11934,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="2"/>
       <c r="BC42" s="2"/>
-      <c r="BD42" s="162"/>
+      <c r="BD42" s="151"/>
       <c r="BE42" s="45"/>
       <c r="BL42" s="45"/>
       <c r="BM42" s="45"/>
@@ -10991,7 +11946,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="2"/>
       <c r="BC43" s="2"/>
-      <c r="BD43" s="162"/>
+      <c r="BD43" s="151"/>
       <c r="BE43" s="45"/>
       <c r="BL43" s="45"/>
       <c r="BM43" s="45"/>
@@ -11003,7 +11958,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="2"/>
       <c r="BC44" s="2"/>
-      <c r="BD44" s="162"/>
+      <c r="BD44" s="151"/>
       <c r="BE44" s="45"/>
       <c r="BL44" s="45"/>
       <c r="BM44" s="45"/>
@@ -11015,7 +11970,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="2"/>
       <c r="BC45" s="2"/>
-      <c r="BD45" s="162"/>
+      <c r="BD45" s="151"/>
       <c r="BE45" s="45"/>
       <c r="BL45" s="45"/>
       <c r="BM45" s="45"/>
@@ -11027,7 +11982,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="2"/>
       <c r="BC46" s="2"/>
-      <c r="BD46" s="162"/>
+      <c r="BD46" s="151"/>
       <c r="BE46" s="45"/>
       <c r="BL46" s="45"/>
       <c r="BM46" s="45"/>
@@ -11039,7 +11994,7 @@
       <c r="BA47" s="9"/>
       <c r="BB47" s="2"/>
       <c r="BC47" s="2"/>
-      <c r="BD47" s="162"/>
+      <c r="BD47" s="151"/>
       <c r="BE47" s="45"/>
       <c r="BL47" s="45"/>
       <c r="BM47" s="45"/>
@@ -11051,7 +12006,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="2"/>
       <c r="BC48" s="2"/>
-      <c r="BD48" s="162"/>
+      <c r="BD48" s="151"/>
       <c r="BE48" s="45"/>
       <c r="BL48" s="45"/>
       <c r="BM48" s="45"/>
@@ -11063,7 +12018,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="2"/>
       <c r="BC49" s="2"/>
-      <c r="BD49" s="162"/>
+      <c r="BD49" s="151"/>
       <c r="BE49" s="45"/>
       <c r="BL49" s="45"/>
       <c r="BM49" s="45"/>
@@ -11075,7 +12030,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="2"/>
       <c r="BC50" s="2"/>
-      <c r="BD50" s="162"/>
+      <c r="BD50" s="151"/>
       <c r="BE50" s="45"/>
       <c r="BL50" s="45"/>
       <c r="BM50" s="45"/>
@@ -11087,7 +12042,7 @@
       <c r="BA51" s="9"/>
       <c r="BB51" s="2"/>
       <c r="BC51" s="2"/>
-      <c r="BD51" s="162"/>
+      <c r="BD51" s="151"/>
       <c r="BE51" s="45"/>
       <c r="BL51" s="45"/>
       <c r="BM51" s="45"/>
@@ -11099,7 +12054,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="2"/>
       <c r="BC52" s="2"/>
-      <c r="BD52" s="162"/>
+      <c r="BD52" s="151"/>
       <c r="BE52" s="45"/>
       <c r="BL52" s="45"/>
       <c r="BM52" s="45"/>
@@ -11111,7 +12066,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="2"/>
       <c r="BC53" s="2"/>
-      <c r="BD53" s="162"/>
+      <c r="BD53" s="151"/>
       <c r="BE53" s="45"/>
       <c r="BL53" s="45"/>
       <c r="BM53" s="45"/>
@@ -11123,7 +12078,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="2"/>
       <c r="BC54" s="2"/>
-      <c r="BD54" s="162"/>
+      <c r="BD54" s="151"/>
       <c r="BE54" s="45"/>
       <c r="BL54" s="45"/>
       <c r="BM54" s="45"/>
@@ -11135,7 +12090,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="2"/>
       <c r="BC55" s="2"/>
-      <c r="BD55" s="162"/>
+      <c r="BD55" s="151"/>
       <c r="BE55" s="45"/>
       <c r="BL55" s="45"/>
       <c r="BM55" s="45"/>
@@ -11147,7 +12102,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="2"/>
       <c r="BC56" s="2"/>
-      <c r="BD56" s="162"/>
+      <c r="BD56" s="151"/>
       <c r="BE56" s="45"/>
       <c r="BL56" s="45"/>
       <c r="BM56" s="45"/>
@@ -11159,7 +12114,7 @@
       <c r="BA57" s="9"/>
       <c r="BB57" s="2"/>
       <c r="BC57" s="2"/>
-      <c r="BD57" s="162"/>
+      <c r="BD57" s="151"/>
       <c r="BE57" s="45"/>
       <c r="BL57" s="45"/>
       <c r="BM57" s="45"/>
@@ -11171,7 +12126,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="2"/>
       <c r="BC58" s="2"/>
-      <c r="BD58" s="162"/>
+      <c r="BD58" s="151"/>
       <c r="BE58" s="45"/>
       <c r="BL58" s="45"/>
       <c r="BM58" s="45"/>
@@ -11183,7 +12138,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="2"/>
       <c r="BC59" s="2"/>
-      <c r="BD59" s="162"/>
+      <c r="BD59" s="151"/>
       <c r="BE59" s="45"/>
       <c r="BL59" s="45"/>
       <c r="BM59" s="45"/>
@@ -11195,7 +12150,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="2"/>
       <c r="BC60" s="2"/>
-      <c r="BD60" s="162"/>
+      <c r="BD60" s="151"/>
       <c r="BE60" s="45"/>
       <c r="BL60" s="45"/>
       <c r="BM60" s="45"/>
@@ -11207,7 +12162,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="2"/>
       <c r="BC61" s="2"/>
-      <c r="BD61" s="162"/>
+      <c r="BD61" s="151"/>
       <c r="BE61" s="45"/>
       <c r="BL61" s="45"/>
       <c r="BM61" s="45"/>
@@ -11219,7 +12174,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="2"/>
       <c r="BC62" s="2"/>
-      <c r="BD62" s="162"/>
+      <c r="BD62" s="151"/>
       <c r="BE62" s="45"/>
       <c r="BL62" s="45"/>
       <c r="BM62" s="45"/>
@@ -11238,116 +12193,236 @@
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="BA2:BE2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A30:G31 W14:Z28 AA14 A4:G27 AA18:AA28 W4:AB13 AB14:AB28 BM4:BQ31 BH4:BL16 BF4 BE4:BE16 BE17:BL28 BA31:BB31 BC30:BL31 BC4:BC28 H4:V31 AB30:AZ31 AA30 W30:Z31 AE29:AQ29 BA30 BF29:BL29 AC4:BA25 AC26:AQ28 AS26:BA28 AS29:AZ29">
-    <cfRule type="expression" dxfId="44" priority="47" stopIfTrue="1">
+  <conditionalFormatting sqref="A30:G31 AA14 W4:AB13 AB14:AB16 BH4:BL16 BF4 BE4:BE16 BA31:BB31 BC30:BL31 BC4:BC16 AB30:AZ31 AA30 W30:Z31 AE29:AQ29 BA30 BF29:BL29 AC26:AQ28 AS26:BA28 AS29:AZ29 A4:G27 BM4:BQ31 BE18:BL28 AC4:BA16 BC18:BC28 BF17:BL17 AC18:BA25 BA17 W14:Z16 W18:AB28 H4:V16 H18:V31 H17:S17 U17:W17 AD17:AQ17">
+    <cfRule type="expression" dxfId="95" priority="81" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="82" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 A29:F29">
-    <cfRule type="expression" dxfId="42" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="79" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="80" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA16:AA17">
-    <cfRule type="expression" dxfId="40" priority="59" stopIfTrue="1">
+  <conditionalFormatting sqref="AA16">
+    <cfRule type="expression" dxfId="166" priority="93" stopIfTrue="1">
       <formula>$A15="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="94" stopIfTrue="1">
       <formula>$A15="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15">
-    <cfRule type="expression" dxfId="38" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="65" stopIfTrue="1">
       <formula>$A14="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="66" stopIfTrue="1">
       <formula>$A14="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF16">
-    <cfRule type="expression" dxfId="36" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="63" stopIfTrue="1">
       <formula>$A5="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="64" stopIfTrue="1">
       <formula>$A5="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG4:BG16">
-    <cfRule type="expression" dxfId="34" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="61" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="62" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB4:BB28 BB30">
-    <cfRule type="expression" dxfId="32" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="BB4:BB16 BB30 BB18:BB28">
+    <cfRule type="expression" dxfId="158" priority="49" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="50" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD4:BD28">
-    <cfRule type="expression" dxfId="30" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="BD4:BD16 BD18:BD28">
+    <cfRule type="expression" dxfId="156" priority="47" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="48" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="28" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="45" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="46" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W29:AD29">
-    <cfRule type="expression" dxfId="26" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="43" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="44" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE29 BC29 BA29">
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="41" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="42" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB29">
-    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="39" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="40" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD29">
-    <cfRule type="expression" dxfId="20" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="37" stopIfTrue="1">
       <formula>$A29="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="38" stopIfTrue="1">
       <formula>$A29="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR26:AR29">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="35" stopIfTrue="1">
       <formula>$A26="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="36" stopIfTrue="1">
       <formula>$A26="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF17">
+    <cfRule type="expression" dxfId="81" priority="33" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="34" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BG17">
+    <cfRule type="expression" dxfId="77" priority="31" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="32" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BA17">
+    <cfRule type="expression" dxfId="71" priority="29" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="30" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB17:BD17">
+    <cfRule type="expression" dxfId="67" priority="27" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="28" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB17:BD17">
+    <cfRule type="expression" dxfId="63" priority="25" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="26" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BE17">
+    <cfRule type="expression" dxfId="51" priority="19" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="20" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ17">
+    <cfRule type="expression" dxfId="47" priority="17" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="18" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ17">
+    <cfRule type="expression" dxfId="41" priority="15" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="16" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:AY17">
+    <cfRule type="expression" dxfId="37" priority="13" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="14" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR17:AY17">
+    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="12" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:AC17">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:AC17">
+    <cfRule type="expression" dxfId="17" priority="5" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="6" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+      <formula>$A17="p"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>$A17="n"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>$A17="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.5" footer="0.5"/>
@@ -11408,74 +12483,74 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:55" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="179" t="s">
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="168" t="s">
         <v>1062</v>
       </c>
-      <c r="J2" s="180"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="190" t="s">
+      <c r="J2" s="169"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="177"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="177"/>
+      <c r="O2" s="177"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="177"/>
+      <c r="R2" s="177"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="178"/>
+      <c r="U2" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="191"/>
-      <c r="W2" s="191"/>
-      <c r="X2" s="191"/>
-      <c r="Y2" s="191"/>
-      <c r="Z2" s="191"/>
-      <c r="AA2" s="191"/>
-      <c r="AB2" s="191"/>
-      <c r="AC2" s="191"/>
-      <c r="AD2" s="191"/>
-      <c r="AE2" s="191"/>
-      <c r="AF2" s="191"/>
-      <c r="AG2" s="191"/>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="192"/>
-      <c r="AK2" s="202" t="s">
+      <c r="V2" s="180"/>
+      <c r="W2" s="180"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="180"/>
+      <c r="AI2" s="180"/>
+      <c r="AJ2" s="181"/>
+      <c r="AK2" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
-      <c r="AQ2" s="202" t="s">
+      <c r="AL2" s="183"/>
+      <c r="AM2" s="183"/>
+      <c r="AN2" s="183"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="191" t="s">
         <v>1061</v>
       </c>
-      <c r="AR2" s="193"/>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="203"/>
-      <c r="AU2" s="199" t="s">
+      <c r="AR2" s="182"/>
+      <c r="AS2" s="182"/>
+      <c r="AT2" s="192"/>
+      <c r="AU2" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="200"/>
-      <c r="AW2" s="200"/>
-      <c r="AX2" s="201"/>
-      <c r="AY2" s="179" t="s">
+      <c r="AV2" s="189"/>
+      <c r="AW2" s="189"/>
+      <c r="AX2" s="190"/>
+      <c r="AY2" s="168" t="s">
         <v>1047</v>
       </c>
-      <c r="AZ2" s="180"/>
-      <c r="BA2" s="180"/>
-      <c r="BB2" s="180"/>
-      <c r="BC2" s="181"/>
+      <c r="AZ2" s="169"/>
+      <c r="BA2" s="169"/>
+      <c r="BB2" s="169"/>
+      <c r="BC2" s="170"/>
     </row>
     <row r="3" spans="1:55" s="1" customFormat="1" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
@@ -11658,7 +12733,7 @@
       <c r="G4" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="109" t="s">
@@ -11818,7 +12893,7 @@
       <c r="G5" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="H5" s="156" t="s">
+      <c r="H5" s="145" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="110" t="s">
@@ -11978,7 +13053,7 @@
       <c r="G6" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="H6" s="155" t="s">
+      <c r="H6" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I6" s="110" t="s">
@@ -12138,7 +13213,7 @@
       <c r="G7" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I7" s="110" t="s">
@@ -12298,7 +13373,7 @@
       <c r="G8" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H8" s="155" t="s">
+      <c r="H8" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I8" s="110" t="s">
@@ -12459,7 +13534,7 @@
       <c r="G9" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="H9" s="155" t="s">
+      <c r="H9" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="110" t="s">
@@ -12620,7 +13695,7 @@
       <c r="G10" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="H10" s="155" t="s">
+      <c r="H10" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I10" s="110" t="s">
@@ -12781,7 +13856,7 @@
       <c r="G11" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="H11" s="155" t="s">
+      <c r="H11" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="110" t="s">
@@ -12941,7 +14016,7 @@
       <c r="G12" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="110" t="s">
@@ -13101,7 +14176,7 @@
       <c r="G13" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="H13" s="155" t="s">
+      <c r="H13" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="110" t="s">
@@ -13261,7 +14336,7 @@
       <c r="G14" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I14" s="110" t="s">
@@ -13421,7 +14496,7 @@
       <c r="G15" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="H15" s="155" t="s">
+      <c r="H15" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="110" t="s">
@@ -13581,7 +14656,7 @@
       <c r="G16" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="110" t="s">
@@ -13741,7 +14816,7 @@
       <c r="G17" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="H17" s="156" t="s">
+      <c r="H17" s="145" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="110" t="s">
@@ -13901,7 +14976,7 @@
       <c r="G18" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="H18" s="155" t="s">
+      <c r="H18" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="110" t="s">
@@ -14061,7 +15136,7 @@
       <c r="G19" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="H19" s="155" t="s">
+      <c r="H19" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I19" s="110" t="s">
@@ -14221,7 +15296,7 @@
       <c r="G20" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="H20" s="155" t="s">
+      <c r="H20" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="110" t="s">
@@ -14379,7 +15454,7 @@
       <c r="G21" s="39" t="s">
         <v>1074</v>
       </c>
-      <c r="H21" s="155" t="s">
+      <c r="H21" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="110" t="s">
@@ -14522,7 +15597,7 @@
       <c r="G22" s="39" t="s">
         <v>1076</v>
       </c>
-      <c r="H22" s="155" t="s">
+      <c r="H22" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="110" t="s">
@@ -14607,7 +15682,7 @@
       <c r="G23" s="39" t="s">
         <v>1075</v>
       </c>
-      <c r="H23" s="155" t="s">
+      <c r="H23" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="110" t="s">
@@ -14688,7 +15763,7 @@
       <c r="G24" s="39" t="s">
         <v>1072</v>
       </c>
-      <c r="H24" s="155" t="s">
+      <c r="H24" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="110" t="s">
@@ -14769,7 +15844,7 @@
       <c r="G25" s="39" t="s">
         <v>1066</v>
       </c>
-      <c r="H25" s="155" t="s">
+      <c r="H25" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="110" t="s">
@@ -14854,7 +15929,7 @@
       <c r="G26" s="39" t="s">
         <v>1080</v>
       </c>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="110" t="s">
@@ -14939,7 +16014,7 @@
       <c r="G27" s="39" t="s">
         <v>1077</v>
       </c>
-      <c r="H27" s="155" t="s">
+      <c r="H27" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I27" s="110" t="s">
@@ -15024,7 +16099,7 @@
       <c r="G28" s="39" t="s">
         <v>1079</v>
       </c>
-      <c r="H28" s="155" t="s">
+      <c r="H28" s="144" t="s">
         <v>32</v>
       </c>
       <c r="I28" s="110" t="s">
@@ -15362,42 +16437,42 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="A4:BC21 C29:F32 A29:B33 G29:BC31 I33:BC33 I32:K32 M32:BC32 J22:AI27 AK22:BC27 A22:G27 H20:H28">
-    <cfRule type="expression" dxfId="16" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="15" stopIfTrue="1">
       <formula>$A4="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="16" stopIfTrue="1">
       <formula>$A4="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28 J28:AI28 AK28:BC28">
-    <cfRule type="expression" dxfId="14" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="5" stopIfTrue="1">
       <formula>$A28="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="6" stopIfTrue="1">
       <formula>$A28="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="19" stopIfTrue="1">
       <formula>$A32="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="20" stopIfTrue="1">
       <formula>$A32="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:I28">
-    <cfRule type="expression" dxfId="10" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="3" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="4" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22:AJ28">
-    <cfRule type="expression" dxfId="8" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="1" stopIfTrue="1">
       <formula>$A22="n"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="2" stopIfTrue="1">
       <formula>$A22="p"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -46843,31 +47918,31 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C782:C787 C844:C855 C789:C842">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="1" stopIfTrue="1">
       <formula>$A782=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="2" stopIfTrue="1">
       <formula>$A782=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B336:C353 B764:C769 B301:C303 B4:C10 B297:C299 B38:C49 B25:C36 B496:C528 B12:C23 B844:B855 B315:C326 B530:C539 B541:C550 B728:C743 B745:C748 B750:C758 B332:C334 B771:C780 B328:C330 B760:C760 B762:C762 B305:C313 B355:C358 B782:B787 B552:C561 B51:C131 B133:C213 B215:C295 B360:C494 B563:C616 B673:C726 B618:C671 B789:B842">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="3" stopIfTrue="1">
       <formula>$A4=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="4" stopIfTrue="1">
       <formula>$A4=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2 D2:Z2">
-    <cfRule type="cellIs" dxfId="2" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="5" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A10 A12:A23 A25:A36 A38:A49 A297:A299 A301:A303 A305:A313 A315:A326 A328:A330 A332:A334 A336:A353 A355:A358 A496:A528 A530:A539 A541:A550 A552:A561 A745:A748 A750:A758 A760 A762 A764:A769 A771:A780 A782:A787 A844:A855 A51:A131 A133:A213 A215:A295 A360:A494 A563:A616 A673:A726 A618:A671 A728:A743 A789:A842">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="6" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="7" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CertTest/FASTCertTestCases.xlsx
+++ b/CertTest/FASTCertTestCases.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjonkman\Documents\Data\Software\NREL\FAST\CertTest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="5868" windowWidth="22860" windowHeight="5832" tabRatio="712"/>
+    <workbookView minimized="1" xWindow="24" yWindow="5868" windowWidth="22860" windowHeight="5832" tabRatio="712"/>
   </bookViews>
   <sheets>
     <sheet name="TestMatrix (new)" sheetId="3" r:id="rId1"/>
@@ -39,7 +44,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'TestMatrix (new)'!$B$2:$BE$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Variables!$B$1:$P$855</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -49,7 +54,7 @@
     <author>Bonnie Jonkman</author>
   </authors>
   <commentList>
-    <comment ref="I21" authorId="0">
+    <comment ref="I21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -4854,7 +4859,38 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="169">
+  <dxfs count="75">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="12"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="10"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4868,6 +4904,30 @@
         <extend val="0"/>
         <color indexed="10"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="53"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -5345,724 +5405,14 @@
         <color indexed="10"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="12"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="53"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -6111,7 +5461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6146,7 +5496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6361,13 +5711,13 @@
   <dimension ref="A1:BQ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="3" topLeftCell="Y4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="3" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AF17" sqref="AF17:AP17"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.109375" style="2" bestFit="1" customWidth="1"/>
@@ -6413,8 +5763,8 @@
     <col min="71" max="71" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:69" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="12.6" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:69" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="174" t="s">
         <v>27</v>
       </c>
@@ -6500,7 +5850,7 @@
       <c r="BP2" s="169"/>
       <c r="BQ2" s="170"/>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" ht="114.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="110.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26"/>
       <c r="B3" s="79" t="s">
         <v>287</v>
@@ -6701,7 +6051,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27"/>
       <c r="B4" s="85" t="s">
         <v>20</v>
@@ -6901,7 +6251,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" s="24" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A5" s="27"/>
       <c r="B5" s="85" t="s">
         <v>33</v>
@@ -7101,7 +6451,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27"/>
       <c r="B6" s="85" t="s">
         <v>34</v>
@@ -7301,7 +6651,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27"/>
       <c r="B7" s="85" t="s">
         <v>35</v>
@@ -7501,7 +6851,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27"/>
       <c r="B8" s="85" t="s">
         <v>36</v>
@@ -7701,7 +7051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27"/>
       <c r="B9" s="85" t="s">
         <v>37</v>
@@ -7902,7 +7252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27"/>
       <c r="B10" s="85" t="s">
         <v>38</v>
@@ -8103,7 +7453,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27"/>
       <c r="B11" s="85" t="s">
         <v>39</v>
@@ -8304,7 +7654,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27"/>
       <c r="B12" s="85" t="s">
         <v>40</v>
@@ -8504,7 +7854,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27"/>
       <c r="B13" s="85" t="s">
         <v>41</v>
@@ -8704,7 +8054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="24" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" s="24" customFormat="1" ht="24.6" x14ac:dyDescent="0.4">
       <c r="A14" s="27"/>
       <c r="B14" s="85" t="s">
         <v>51</v>
@@ -8904,7 +8254,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" s="24" customFormat="1" x14ac:dyDescent=